--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -615,9 +615,6 @@
     <t>Кислий тт з лічильником, хз яка</t>
   </si>
   <si>
-    <t>‎380506302977;50</t>
-  </si>
-  <si>
     <t>380519940954;50</t>
   </si>
   <si>
@@ -1299,9 +1296,6 @@
     <t>380519946062;50 до 10.18</t>
   </si>
   <si>
-    <t>380519942592</t>
-  </si>
-  <si>
     <t>380985736452;50</t>
   </si>
   <si>
@@ -1309,6 +1303,12 @@
   </si>
   <si>
     <t>380204460032;80</t>
+  </si>
+  <si>
+    <t>380506302977;50</t>
+  </si>
+  <si>
+    <t>380519942592;50</t>
   </si>
 </sst>
 </file>
@@ -1675,8 +1675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F181" sqref="F181"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F146" sqref="F146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1701,10 +1701,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1721,7 +1721,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -1736,7 +1736,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -1751,7 +1751,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -1766,7 +1766,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -1781,7 +1781,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -1796,7 +1796,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -1811,7 +1811,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -1829,7 +1829,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F9" s="11"/>
     </row>
@@ -1847,7 +1847,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F10" s="11"/>
     </row>
@@ -1862,7 +1862,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -1877,7 +1877,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -1892,7 +1892,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -1907,7 +1907,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -1922,7 +1922,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -1940,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1957,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F17" s="7"/>
     </row>
@@ -1975,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F18" s="7"/>
     </row>
@@ -1993,7 +1993,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F19" s="7"/>
     </row>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2023,7 +2023,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F21" s="2"/>
     </row>
@@ -2038,7 +2038,7 @@
         <v>21</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F22" s="2"/>
     </row>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -2072,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F24" s="7"/>
     </row>
@@ -2087,7 +2087,7 @@
         <v>24</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F25" s="2"/>
     </row>
@@ -2102,7 +2102,7 @@
         <v>25</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F26" s="2"/>
     </row>
@@ -2117,7 +2117,7 @@
         <v>25</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F27" s="2"/>
     </row>
@@ -2132,7 +2132,7 @@
         <v>26</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F28" s="2"/>
     </row>
@@ -2150,7 +2150,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -2166,7 +2166,7 @@
         <v>28</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F30" s="2"/>
     </row>
@@ -2181,7 +2181,7 @@
         <v>29</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F31" s="2"/>
     </row>
@@ -2196,7 +2196,7 @@
         <v>30</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F32" s="2"/>
     </row>
@@ -2211,7 +2211,7 @@
         <v>31</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F33" s="2"/>
     </row>
@@ -2226,7 +2226,7 @@
         <v>32</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F34" s="2"/>
     </row>
@@ -2241,7 +2241,7 @@
         <v>32</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F35" s="2"/>
     </row>
@@ -2256,7 +2256,7 @@
         <v>33</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2270,7 +2270,7 @@
         <v>34</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F37" s="2"/>
     </row>
@@ -2285,7 +2285,7 @@
         <v>35</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F38" s="2"/>
     </row>
@@ -2300,7 +2300,7 @@
         <v>36</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F39" s="2"/>
     </row>
@@ -2315,7 +2315,7 @@
         <v>37</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F40" s="2"/>
     </row>
@@ -2330,7 +2330,7 @@
         <v>37</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F41" s="2"/>
     </row>
@@ -2345,7 +2345,7 @@
         <v>38</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F42" s="2"/>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2389,7 +2389,7 @@
         <v>41</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2403,7 +2403,7 @@
         <v>42</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F46" s="2"/>
     </row>
@@ -2418,7 +2418,7 @@
         <v>43</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F47" s="2"/>
     </row>
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F48" s="7"/>
     </row>
@@ -2454,7 +2454,7 @@
         <v>2</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2471,7 +2471,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F50" s="14"/>
     </row>
@@ -2486,7 +2486,7 @@
         <v>46</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F51" s="2"/>
     </row>
@@ -2501,7 +2501,7 @@
         <v>47</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F52" s="2"/>
     </row>
@@ -2516,7 +2516,7 @@
         <v>47</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F53" s="2"/>
     </row>
@@ -2531,7 +2531,7 @@
         <v>48</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F54" s="2"/>
     </row>
@@ -2546,7 +2546,7 @@
         <v>49</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F55" s="2"/>
     </row>
@@ -2561,7 +2561,7 @@
         <v>50</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F56" s="2"/>
     </row>
@@ -2576,7 +2576,7 @@
         <v>51</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F57" s="2"/>
     </row>
@@ -2591,7 +2591,7 @@
         <v>52</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F58" s="2"/>
     </row>
@@ -2606,7 +2606,7 @@
         <v>53</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F59" s="2"/>
     </row>
@@ -2624,7 +2624,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2632,7 +2632,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="14"/>
@@ -2648,7 +2648,7 @@
         <v>55</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F62" s="2"/>
     </row>
@@ -2657,7 +2657,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -2673,7 +2673,7 @@
         <v>56</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J64" s="2"/>
     </row>
@@ -2688,7 +2688,7 @@
         <v>57</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F65" s="2"/>
     </row>
@@ -2703,7 +2703,7 @@
         <v>58</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2717,7 +2717,7 @@
         <v>59</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -2731,7 +2731,7 @@
         <v>60</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F68" s="2"/>
     </row>
@@ -2747,7 +2747,7 @@
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F69" s="14"/>
     </row>
@@ -2759,11 +2759,11 @@
         <v>2</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F70" s="14"/>
     </row>
@@ -2778,7 +2778,7 @@
         <v>62</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F71" s="2"/>
     </row>
@@ -2794,7 +2794,7 @@
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F72" s="14"/>
     </row>
@@ -2810,7 +2810,7 @@
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F73" s="14"/>
     </row>
@@ -2825,7 +2825,7 @@
         <v>64</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F74" s="2"/>
     </row>
@@ -2840,7 +2840,7 @@
         <v>65</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F75" s="2"/>
     </row>
@@ -2855,7 +2855,7 @@
         <v>66</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F76" s="2"/>
     </row>
@@ -2870,7 +2870,7 @@
         <v>67</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F77" s="2"/>
     </row>
@@ -2885,7 +2885,7 @@
         <v>68</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H78" s="2"/>
     </row>
@@ -2900,7 +2900,7 @@
         <v>69</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -2914,7 +2914,7 @@
         <v>70</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G80" s="2"/>
     </row>
@@ -2929,7 +2929,7 @@
         <v>71</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F81" s="2"/>
     </row>
@@ -2944,7 +2944,7 @@
         <v>72</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F82" s="2"/>
     </row>
@@ -2959,7 +2959,7 @@
         <v>73</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F83" s="2"/>
     </row>
@@ -2974,7 +2974,7 @@
         <v>74</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -2988,7 +2988,7 @@
         <v>75</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3002,7 +3002,7 @@
         <v>76</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3017,7 +3017,7 @@
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3031,7 +3031,7 @@
         <v>78</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F88" s="2"/>
     </row>
@@ -3046,7 +3046,7 @@
         <v>79</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F89" s="2"/>
     </row>
@@ -3061,7 +3061,7 @@
         <v>80</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G90" s="2"/>
     </row>
@@ -3076,7 +3076,7 @@
         <v>81</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3090,7 +3090,7 @@
         <v>82</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3098,7 +3098,7 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E93" s="2"/>
     </row>
@@ -3113,7 +3113,7 @@
         <v>83</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G94" s="2"/>
     </row>
@@ -3128,7 +3128,7 @@
         <v>84</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F95" s="2"/>
     </row>
@@ -3143,7 +3143,7 @@
         <v>85</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F96" s="2"/>
     </row>
@@ -3158,7 +3158,7 @@
         <v>85</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F97" s="2"/>
     </row>
@@ -3173,7 +3173,7 @@
         <v>153</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F98" s="2"/>
     </row>
@@ -3188,7 +3188,7 @@
         <v>86</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F99" s="2"/>
     </row>
@@ -3203,7 +3203,7 @@
         <v>86</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F100" s="2"/>
     </row>
@@ -3218,7 +3218,7 @@
         <v>87</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F101" s="2"/>
     </row>
@@ -3236,7 +3236,7 @@
         <v>1</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -3250,7 +3250,7 @@
         <v>89</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F103" s="2"/>
     </row>
@@ -3265,7 +3265,7 @@
         <v>89</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F104" s="2"/>
     </row>
@@ -3280,7 +3280,7 @@
         <v>90</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F105" s="2"/>
     </row>
@@ -3295,7 +3295,7 @@
         <v>91</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F106" s="2"/>
     </row>
@@ -3310,7 +3310,7 @@
         <v>92</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F107" s="2"/>
     </row>
@@ -3325,7 +3325,7 @@
         <v>93</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G108" s="2"/>
     </row>
@@ -3340,7 +3340,7 @@
         <v>94</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F109" s="2"/>
     </row>
@@ -3355,7 +3355,7 @@
         <v>94</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F110" s="2"/>
     </row>
@@ -3370,7 +3370,7 @@
         <v>95</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F111" s="2"/>
     </row>
@@ -3385,7 +3385,7 @@
         <v>96</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F112" s="2"/>
     </row>
@@ -3400,7 +3400,7 @@
         <v>97</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F113" s="2"/>
     </row>
@@ -3418,7 +3418,7 @@
         <v>1</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F114" s="7"/>
     </row>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F115" s="2"/>
     </row>
@@ -3449,7 +3449,7 @@
         <v>100</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F116" s="2"/>
     </row>
@@ -3464,7 +3464,7 @@
         <v>101</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F117" s="2"/>
     </row>
@@ -3479,7 +3479,7 @@
         <v>102</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F118" s="2"/>
     </row>
@@ -3494,7 +3494,7 @@
         <v>103</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F119" s="2"/>
     </row>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F120" s="2"/>
     </row>
@@ -3525,7 +3525,7 @@
         <v>105</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G121" s="2"/>
     </row>
@@ -3540,7 +3540,7 @@
         <v>106</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F122" s="2"/>
     </row>
@@ -3555,7 +3555,7 @@
         <v>107</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F123" s="2"/>
     </row>
@@ -3570,7 +3570,7 @@
         <v>108</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F124" s="2"/>
     </row>
@@ -3585,7 +3585,7 @@
         <v>109</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F125" s="2"/>
     </row>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I126" s="2"/>
     </row>
@@ -3616,7 +3616,7 @@
         <v>112</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -3630,7 +3630,7 @@
         <v>113</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F128" s="2"/>
     </row>
@@ -3645,7 +3645,7 @@
         <v>114</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F129" s="2"/>
     </row>
@@ -3660,7 +3660,7 @@
         <v>115</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H130" s="2"/>
     </row>
@@ -3675,7 +3675,7 @@
         <v>115</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F131" s="2"/>
     </row>
@@ -3693,7 +3693,7 @@
         <v>1</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F132" s="7"/>
     </row>
@@ -3708,7 +3708,7 @@
         <v>117</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F133" s="2"/>
     </row>
@@ -3726,7 +3726,7 @@
         <v>1</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F134" s="7"/>
     </row>
@@ -3741,7 +3741,7 @@
         <v>119</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J135" s="2"/>
     </row>
@@ -3783,7 +3783,7 @@
         <v>121</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F138" s="2"/>
     </row>
@@ -3798,7 +3798,7 @@
         <v>121</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F139" s="2"/>
     </row>
@@ -3814,7 +3814,7 @@
       </c>
       <c r="D140" s="4"/>
       <c r="E140" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="141" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3831,7 +3831,7 @@
         <v>1</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F141" s="7"/>
     </row>
@@ -3846,7 +3846,7 @@
         <v>194</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F142" s="2"/>
     </row>
@@ -3861,7 +3861,7 @@
         <v>123</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F143" s="2"/>
     </row>
@@ -3876,7 +3876,7 @@
         <v>124</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F144" s="2"/>
     </row>
@@ -3891,7 +3891,7 @@
         <v>125</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F145" s="2"/>
     </row>
@@ -3909,7 +3909,7 @@
         <v>1</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F146" s="7"/>
     </row>
@@ -3927,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F147" s="7"/>
     </row>
@@ -3945,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F148" s="7"/>
     </row>
@@ -3960,7 +3960,7 @@
         <v>129</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F149" s="2"/>
     </row>
@@ -3978,7 +3978,7 @@
         <v>1</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F150" s="7"/>
     </row>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="D151" s="19"/>
       <c r="E151" s="20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F151" s="20"/>
     </row>
@@ -4009,7 +4009,7 @@
         <v>132</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F152" s="2"/>
     </row>
@@ -4024,7 +4024,7 @@
         <v>133</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F153" s="2"/>
     </row>
@@ -4039,7 +4039,7 @@
         <v>134</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F154" s="2"/>
     </row>
@@ -4057,7 +4057,7 @@
         <v>1</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -4071,7 +4071,7 @@
         <v>136</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F156" s="2"/>
     </row>
@@ -4089,7 +4089,7 @@
         <v>1</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F157" s="7"/>
     </row>
@@ -4104,7 +4104,7 @@
         <v>138</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F158" s="2"/>
     </row>
@@ -4119,7 +4119,7 @@
         <v>138</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F159" s="2"/>
     </row>
@@ -4134,7 +4134,7 @@
         <v>139</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F160" s="2"/>
     </row>
@@ -4149,7 +4149,7 @@
         <v>140</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F161" s="2"/>
     </row>
@@ -4164,7 +4164,7 @@
         <v>141</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H162" s="2"/>
     </row>
@@ -4179,7 +4179,7 @@
         <v>142</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F163" s="2"/>
     </row>
@@ -4194,7 +4194,7 @@
         <v>143</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F164" s="2"/>
     </row>
@@ -4209,7 +4209,7 @@
         <v>144</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F165" s="2"/>
     </row>
@@ -4224,7 +4224,7 @@
         <v>145</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F166" s="2"/>
     </row>
@@ -4239,7 +4239,7 @@
         <v>146</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="168" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4256,7 +4256,7 @@
         <v>1</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I168" s="7"/>
     </row>
@@ -4271,7 +4271,7 @@
         <v>148</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F169" s="2"/>
     </row>
@@ -4286,7 +4286,7 @@
         <v>149</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F170" s="2"/>
     </row>
@@ -4301,7 +4301,7 @@
         <v>150</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F171" s="2"/>
     </row>
@@ -4316,7 +4316,7 @@
         <v>151</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F172" s="2"/>
     </row>
@@ -4334,7 +4334,7 @@
         <v>1</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F173" s="7"/>
     </row>
@@ -4349,7 +4349,7 @@
         <v>154</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F174" s="2"/>
     </row>
@@ -4364,7 +4364,7 @@
         <v>155</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F175" s="2"/>
     </row>
@@ -4379,7 +4379,7 @@
         <v>156</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="177" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4396,7 +4396,7 @@
         <v>1</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F177" s="7"/>
     </row>
@@ -4411,7 +4411,7 @@
         <v>158</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F178" s="2"/>
     </row>
@@ -4427,10 +4427,10 @@
       </c>
       <c r="D179" s="4"/>
       <c r="E179" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O179" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
@@ -4444,7 +4444,7 @@
         <v>160</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F180" s="2"/>
     </row>
@@ -4459,7 +4459,7 @@
         <v>161</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F181" s="2"/>
     </row>
@@ -4474,7 +4474,7 @@
         <v>162</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H182" s="2"/>
     </row>
@@ -4489,7 +4489,7 @@
         <v>163</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H183" s="2"/>
     </row>
@@ -4504,7 +4504,7 @@
         <v>164</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F184" s="2"/>
     </row>
@@ -4519,7 +4519,7 @@
         <v>165</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F185" s="2"/>
     </row>
@@ -4534,7 +4534,7 @@
         <v>166</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L186" s="2"/>
     </row>
@@ -4549,7 +4549,7 @@
         <v>167</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F187" s="2"/>
     </row>
@@ -4564,7 +4564,7 @@
         <v>168</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F188" s="2"/>
     </row>
@@ -4579,7 +4579,7 @@
         <v>169</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F189" s="2"/>
     </row>
@@ -4594,7 +4594,7 @@
         <v>170</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F190" s="2"/>
     </row>
@@ -4609,7 +4609,7 @@
         <v>171</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F191" s="2"/>
     </row>
@@ -4624,7 +4624,7 @@
         <v>172</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F192" s="2"/>
     </row>
@@ -4639,7 +4639,7 @@
         <v>173</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F193" s="2"/>
     </row>
@@ -4654,7 +4654,7 @@
         <v>174</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F194" s="2"/>
     </row>
@@ -4669,7 +4669,7 @@
         <v>175</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F195" s="2"/>
     </row>
@@ -4684,7 +4684,7 @@
         <v>176</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F196" s="2"/>
     </row>
@@ -4700,7 +4700,7 @@
       </c>
       <c r="D197" s="4"/>
       <c r="E197" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F197" s="2"/>
     </row>
@@ -4728,7 +4728,7 @@
         <v>178</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F199" s="2"/>
     </row>
@@ -4743,7 +4743,7 @@
         <v>179</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F200" s="2"/>
     </row>
@@ -4758,7 +4758,7 @@
         <v>180</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G201" s="2"/>
     </row>
@@ -4773,7 +4773,7 @@
         <v>181</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -4787,7 +4787,7 @@
         <v>182</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -4801,7 +4801,7 @@
         <v>183</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F204" s="2"/>
     </row>
@@ -4816,7 +4816,7 @@
         <v>184</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -4830,7 +4830,7 @@
         <v>185</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -4844,7 +4844,7 @@
         <v>186</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F207" s="2"/>
     </row>
@@ -4862,17 +4862,17 @@
         <v>1</v>
       </c>
       <c r="E208" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F208" s="7"/>
     </row>
     <row r="209" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C209" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D209" s="6"/>
       <c r="E209" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F209" s="7"/>
     </row>
@@ -4887,7 +4887,7 @@
         <v>188</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F210" s="2"/>
     </row>
@@ -4902,7 +4902,7 @@
         <v>189</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G211" s="2"/>
     </row>
@@ -4917,20 +4917,20 @@
         <v>190</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C213" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C214" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E214" s="2"/>
     </row>
@@ -4948,62 +4948,62 @@
         <v>1</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="216" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C216" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D216" s="16"/>
       <c r="E216" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="217" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C217" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D217" s="16"/>
       <c r="E217" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C218" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C219" t="s">
+        <v>397</v>
+      </c>
+      <c r="E219" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C220" t="s">
+        <v>418</v>
+      </c>
+      <c r="E220" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C221" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C222" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E222" s="2"/>
     </row>
@@ -5018,7 +5018,7 @@
         <v>193</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F223" s="2"/>
     </row>
@@ -5033,7 +5033,7 @@
         <v>192</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F224" s="2"/>
     </row>
@@ -5048,7 +5048,7 @@
         <v>191</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F225" s="2"/>
     </row>
@@ -5057,7 +5057,7 @@
         <v>196</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F226" s="2"/>
     </row>
@@ -5066,7 +5066,7 @@
         <v>197</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>198</v>
+        <v>428</v>
       </c>
       <c r="F227" s="2"/>
     </row>
@@ -5077,36 +5077,36 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C229" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D229" s="4"/>
       <c r="E229" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F229" s="2"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C230" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E230" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C231" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C232" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="431">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -657,9 +657,6 @@
     <t>380519942565;50</t>
   </si>
   <si>
-    <t>380684224133;70</t>
-  </si>
-  <si>
     <t>380519946245;50</t>
   </si>
   <si>
@@ -714,9 +711,6 @@
     <t>ok</t>
   </si>
   <si>
-    <t>380687916179;70</t>
-  </si>
-  <si>
     <t>380204432511;80</t>
   </si>
   <si>
@@ -726,9 +720,6 @@
     <t>380519940941;50</t>
   </si>
   <si>
-    <t>380519943690;50</t>
-  </si>
-  <si>
     <t>380519948387;20</t>
   </si>
   <si>
@@ -783,9 +774,6 @@
     <t>380204475312;80</t>
   </si>
   <si>
-    <t>380978677571;70</t>
-  </si>
-  <si>
     <t>380519947481;20</t>
   </si>
   <si>
@@ -813,9 +801,6 @@
     <t>380519943703;50</t>
   </si>
   <si>
-    <t>380988135568;70</t>
-  </si>
-  <si>
     <t>380519947480;20</t>
   </si>
   <si>
@@ -876,15 +861,6 @@
     <t>380519944961;50</t>
   </si>
   <si>
-    <t>380968561300;70</t>
-  </si>
-  <si>
-    <t>380686088473;70</t>
-  </si>
-  <si>
-    <t>380687916193;70</t>
-  </si>
-  <si>
     <t>380519945341;50</t>
   </si>
   <si>
@@ -1020,9 +996,6 @@
     <t>380519945559;50</t>
   </si>
   <si>
-    <t>380978678364;70</t>
-  </si>
-  <si>
     <t>380519945347;50</t>
   </si>
   <si>
@@ -1089,9 +1062,6 @@
     <t>380519948398;20</t>
   </si>
   <si>
-    <t>380978302991;70</t>
-  </si>
-  <si>
     <t>380519944782;50</t>
   </si>
   <si>
@@ -1101,9 +1071,6 @@
     <t>380519948388;20</t>
   </si>
   <si>
-    <t>380681891284;70</t>
-  </si>
-  <si>
     <t>380519943695;50</t>
   </si>
   <si>
@@ -1149,9 +1116,6 @@
     <t>380519940974;50</t>
   </si>
   <si>
-    <t>380969800693;70</t>
-  </si>
-  <si>
     <t>380204471275;80</t>
   </si>
   <si>
@@ -1245,9 +1209,6 @@
     <t>091к ДТ м. Ніжин, вул. Московська, 21</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
     <t>080 ДТ м. Фастів, вул. Інтернаціональна, 6</t>
   </si>
   <si>
@@ -1287,9 +1248,6 @@
     <t xml:space="preserve">326 DT </t>
   </si>
   <si>
-    <t xml:space="preserve">38‎0968561300;50 ДО 01.12.18 </t>
-  </si>
-  <si>
     <t>Мішеніна Ліана Миколаївна</t>
   </si>
   <si>
@@ -1309,6 +1267,52 @@
   </si>
   <si>
     <t>380519942592;50</t>
+  </si>
+  <si>
+    <t>380978677571;95</t>
+  </si>
+  <si>
+    <t>380968561300;75</t>
+  </si>
+  <si>
+    <t>380687916193;75</t>
+  </si>
+  <si>
+    <t>380684224133;75</t>
+  </si>
+  <si>
+    <t>380687916179;75</t>
+  </si>
+  <si>
+    <t>380978677571;75</t>
+  </si>
+  <si>
+    <t>380988135568;75</t>
+  </si>
+  <si>
+    <t>380686088473;75</t>
+  </si>
+  <si>
+    <t>380978678364;75</t>
+  </si>
+  <si>
+    <t>380978302991;75</t>
+  </si>
+  <si>
+    <t>380681891284;75</t>
+  </si>
+  <si>
+    <t>380969800693;75</t>
+  </si>
+  <si>
+    <t>380519940945;50</t>
+  </si>
+  <si>
+    <t>38‎0968561300;50</t>
+  </si>
+  <si>
+    <t>380685816720;50 рахунок 
+448,97</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1391,8 +1395,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1675,8 +1683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F146" sqref="F146"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D127" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1701,10 +1709,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="E1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1751,7 +1759,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>212</v>
+        <v>419</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -1957,7 +1965,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F17" s="7"/>
     </row>
@@ -1975,7 +1983,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F18" s="7"/>
     </row>
@@ -1993,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F19" s="7"/>
     </row>
@@ -2009,7 +2017,7 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2023,7 +2031,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F21" s="2"/>
     </row>
@@ -2038,7 +2046,7 @@
         <v>21</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F22" s="2"/>
     </row>
@@ -2054,7 +2062,7 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -2087,7 +2095,7 @@
         <v>24</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F25" s="2"/>
     </row>
@@ -2102,7 +2110,7 @@
         <v>25</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F26" s="2"/>
     </row>
@@ -2117,7 +2125,7 @@
         <v>25</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F27" s="2"/>
     </row>
@@ -2132,7 +2140,7 @@
         <v>26</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F28" s="2"/>
     </row>
@@ -2150,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -2166,7 +2174,7 @@
         <v>28</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F30" s="2"/>
     </row>
@@ -2181,7 +2189,7 @@
         <v>29</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F31" s="2"/>
     </row>
@@ -2196,7 +2204,7 @@
         <v>30</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F32" s="2"/>
     </row>
@@ -2211,7 +2219,7 @@
         <v>31</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F33" s="2"/>
     </row>
@@ -2226,7 +2234,7 @@
         <v>32</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="F34" s="2"/>
     </row>
@@ -2241,7 +2249,7 @@
         <v>32</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="F35" s="2"/>
     </row>
@@ -2256,7 +2264,7 @@
         <v>33</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2270,7 +2278,7 @@
         <v>34</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>231</v>
+        <v>420</v>
       </c>
       <c r="F37" s="2"/>
     </row>
@@ -2285,7 +2293,7 @@
         <v>35</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="F38" s="2"/>
     </row>
@@ -2300,7 +2308,7 @@
         <v>36</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="F39" s="2"/>
     </row>
@@ -2315,7 +2323,7 @@
         <v>37</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F40" s="2"/>
     </row>
@@ -2330,7 +2338,7 @@
         <v>37</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F41" s="2"/>
     </row>
@@ -2345,7 +2353,7 @@
         <v>38</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F42" s="2"/>
     </row>
@@ -2361,7 +2369,7 @@
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="2" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2389,7 +2397,7 @@
         <v>41</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2403,7 +2411,7 @@
         <v>42</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="F46" s="2"/>
     </row>
@@ -2418,7 +2426,7 @@
         <v>43</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F47" s="2"/>
     </row>
@@ -2436,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F48" s="7"/>
     </row>
@@ -2454,7 +2462,7 @@
         <v>2</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2471,7 +2479,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F50" s="14"/>
     </row>
@@ -2486,7 +2494,7 @@
         <v>46</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F51" s="2"/>
     </row>
@@ -2501,7 +2509,7 @@
         <v>47</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F52" s="2"/>
     </row>
@@ -2516,7 +2524,7 @@
         <v>47</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F53" s="2"/>
     </row>
@@ -2531,7 +2539,7 @@
         <v>48</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F54" s="2"/>
     </row>
@@ -2546,7 +2554,7 @@
         <v>49</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="F55" s="2"/>
     </row>
@@ -2561,7 +2569,7 @@
         <v>50</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F56" s="2"/>
     </row>
@@ -2576,7 +2584,7 @@
         <v>51</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F57" s="2"/>
     </row>
@@ -2591,7 +2599,7 @@
         <v>52</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F58" s="2"/>
     </row>
@@ -2606,7 +2614,7 @@
         <v>53</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F59" s="2"/>
     </row>
@@ -2624,7 +2632,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>254</v>
+        <v>421</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2632,7 +2640,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="14"/>
@@ -2648,7 +2656,7 @@
         <v>55</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F62" s="2"/>
     </row>
@@ -2657,7 +2665,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -2673,7 +2681,7 @@
         <v>56</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J64" s="2"/>
     </row>
@@ -2688,7 +2696,7 @@
         <v>57</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F65" s="2"/>
     </row>
@@ -2703,7 +2711,7 @@
         <v>58</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2717,7 +2725,7 @@
         <v>59</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -2731,7 +2739,7 @@
         <v>60</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F68" s="2"/>
     </row>
@@ -2747,7 +2755,7 @@
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="14" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F69" s="14"/>
     </row>
@@ -2759,11 +2767,11 @@
         <v>2</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="14" t="s">
-        <v>408</v>
+        <v>258</v>
       </c>
       <c r="F70" s="14"/>
     </row>
@@ -2778,7 +2786,7 @@
         <v>62</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F71" s="2"/>
     </row>
@@ -2794,7 +2802,7 @@
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="14" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F72" s="14"/>
     </row>
@@ -2810,7 +2818,7 @@
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="14" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F73" s="14"/>
     </row>
@@ -2825,7 +2833,7 @@
         <v>64</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>264</v>
+        <v>422</v>
       </c>
       <c r="F74" s="2"/>
     </row>
@@ -2840,7 +2848,7 @@
         <v>65</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="F75" s="2"/>
     </row>
@@ -2855,7 +2863,7 @@
         <v>66</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F76" s="2"/>
     </row>
@@ -2870,7 +2878,7 @@
         <v>67</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F77" s="2"/>
     </row>
@@ -2885,7 +2893,7 @@
         <v>68</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H78" s="2"/>
     </row>
@@ -2900,7 +2908,7 @@
         <v>69</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -2914,7 +2922,7 @@
         <v>70</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>262</v>
+        <v>416</v>
       </c>
       <c r="G80" s="2"/>
     </row>
@@ -2929,7 +2937,7 @@
         <v>71</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="F81" s="2"/>
     </row>
@@ -2944,7 +2952,7 @@
         <v>72</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F82" s="2"/>
     </row>
@@ -2959,7 +2967,7 @@
         <v>73</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F83" s="2"/>
     </row>
@@ -2974,7 +2982,7 @@
         <v>74</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -2988,7 +2996,7 @@
         <v>75</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3002,7 +3010,7 @@
         <v>76</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3017,7 +3025,7 @@
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="2" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3031,7 +3039,7 @@
         <v>78</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F88" s="2"/>
     </row>
@@ -3046,7 +3054,7 @@
         <v>79</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F89" s="2"/>
     </row>
@@ -3061,7 +3069,7 @@
         <v>80</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G90" s="2"/>
     </row>
@@ -3076,7 +3084,7 @@
         <v>81</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>285</v>
+        <v>417</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3090,7 +3098,7 @@
         <v>82</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>287</v>
+        <v>418</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3098,7 +3106,7 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="E93" s="2"/>
     </row>
@@ -3113,7 +3121,7 @@
         <v>83</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G94" s="2"/>
     </row>
@@ -3128,7 +3136,7 @@
         <v>84</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>286</v>
+        <v>423</v>
       </c>
       <c r="F95" s="2"/>
     </row>
@@ -3143,7 +3151,7 @@
         <v>85</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F96" s="2"/>
     </row>
@@ -3158,7 +3166,7 @@
         <v>85</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F97" s="2"/>
     </row>
@@ -3173,7 +3181,7 @@
         <v>153</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F98" s="2"/>
     </row>
@@ -3188,7 +3196,7 @@
         <v>86</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="F99" s="2"/>
     </row>
@@ -3203,7 +3211,7 @@
         <v>86</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F100" s="2"/>
     </row>
@@ -3218,7 +3226,7 @@
         <v>87</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="F101" s="2"/>
     </row>
@@ -3236,7 +3244,7 @@
         <v>1</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -3250,7 +3258,7 @@
         <v>89</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F103" s="2"/>
     </row>
@@ -3265,7 +3273,7 @@
         <v>89</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F104" s="2"/>
     </row>
@@ -3280,7 +3288,7 @@
         <v>90</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F105" s="2"/>
     </row>
@@ -3295,7 +3303,7 @@
         <v>91</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F106" s="2"/>
     </row>
@@ -3310,7 +3318,7 @@
         <v>92</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F107" s="2"/>
     </row>
@@ -3325,7 +3333,7 @@
         <v>93</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="G108" s="2"/>
     </row>
@@ -3340,7 +3348,7 @@
         <v>94</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="F109" s="2"/>
     </row>
@@ -3355,7 +3363,7 @@
         <v>94</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F110" s="2"/>
     </row>
@@ -3370,7 +3378,7 @@
         <v>95</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="F111" s="2"/>
     </row>
@@ -3385,7 +3393,7 @@
         <v>96</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F112" s="2"/>
     </row>
@@ -3400,7 +3408,7 @@
         <v>97</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F113" s="2"/>
     </row>
@@ -3418,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F114" s="7"/>
     </row>
@@ -3434,7 +3442,7 @@
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="2" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="F115" s="2"/>
     </row>
@@ -3449,7 +3457,7 @@
         <v>100</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F116" s="2"/>
     </row>
@@ -3464,7 +3472,7 @@
         <v>101</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F117" s="2"/>
     </row>
@@ -3479,7 +3487,7 @@
         <v>102</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F118" s="2"/>
     </row>
@@ -3494,7 +3502,7 @@
         <v>103</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F119" s="2"/>
     </row>
@@ -3510,7 +3518,7 @@
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="2" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="F120" s="2"/>
     </row>
@@ -3525,7 +3533,7 @@
         <v>105</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G121" s="2"/>
     </row>
@@ -3540,7 +3548,7 @@
         <v>106</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F122" s="2"/>
     </row>
@@ -3555,7 +3563,7 @@
         <v>107</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="F123" s="2"/>
     </row>
@@ -3570,7 +3578,7 @@
         <v>108</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>333</v>
+        <v>424</v>
       </c>
       <c r="F124" s="2"/>
     </row>
@@ -3585,7 +3593,7 @@
         <v>109</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="F125" s="2"/>
     </row>
@@ -3601,7 +3609,7 @@
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="2" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="I126" s="2"/>
     </row>
@@ -3616,7 +3624,7 @@
         <v>112</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -3630,7 +3638,7 @@
         <v>113</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F128" s="2"/>
     </row>
@@ -3645,7 +3653,7 @@
         <v>114</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F129" s="2"/>
     </row>
@@ -3660,7 +3668,7 @@
         <v>115</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="H130" s="2"/>
     </row>
@@ -3675,7 +3683,7 @@
         <v>115</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F131" s="2"/>
     </row>
@@ -3693,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F132" s="7"/>
     </row>
@@ -3708,7 +3716,7 @@
         <v>117</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="F133" s="2"/>
     </row>
@@ -3726,7 +3734,7 @@
         <v>1</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="F134" s="7"/>
     </row>
@@ -3741,7 +3749,7 @@
         <v>119</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="J135" s="2"/>
     </row>
@@ -3783,7 +3791,7 @@
         <v>121</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="F138" s="2"/>
     </row>
@@ -3798,7 +3806,7 @@
         <v>121</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="F139" s="2"/>
     </row>
@@ -3814,7 +3822,7 @@
       </c>
       <c r="D140" s="4"/>
       <c r="E140" s="2" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="141" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3831,7 +3839,7 @@
         <v>1</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="F141" s="7"/>
     </row>
@@ -3846,7 +3854,7 @@
         <v>194</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="F142" s="2"/>
     </row>
@@ -3861,7 +3869,7 @@
         <v>123</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F143" s="2"/>
     </row>
@@ -3876,7 +3884,7 @@
         <v>124</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="F144" s="2"/>
     </row>
@@ -3891,7 +3899,7 @@
         <v>125</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="F145" s="2"/>
     </row>
@@ -3909,7 +3917,7 @@
         <v>1</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F146" s="7"/>
     </row>
@@ -3927,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="F147" s="7"/>
     </row>
@@ -3945,7 +3953,7 @@
         <v>1</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F148" s="7"/>
     </row>
@@ -3960,7 +3968,7 @@
         <v>129</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F149" s="2"/>
     </row>
@@ -3978,25 +3986,25 @@
         <v>1</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="F150" s="7"/>
     </row>
-    <row r="151" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="18">
-        <v>1</v>
-      </c>
-      <c r="B151" s="18">
-        <v>1</v>
-      </c>
-      <c r="C151" s="18" t="s">
+    <row r="151" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="15">
+        <v>1</v>
+      </c>
+      <c r="B151" s="15">
+        <v>1</v>
+      </c>
+      <c r="C151" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D151" s="19"/>
-      <c r="E151" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="F151" s="20"/>
+      <c r="D151" s="20"/>
+      <c r="E151" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="F151" s="17"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
@@ -4009,7 +4017,7 @@
         <v>132</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="F152" s="2"/>
     </row>
@@ -4024,7 +4032,7 @@
         <v>133</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="F153" s="2"/>
     </row>
@@ -4039,7 +4047,7 @@
         <v>134</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="F154" s="2"/>
     </row>
@@ -4057,7 +4065,7 @@
         <v>1</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -4071,7 +4079,7 @@
         <v>136</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="F156" s="2"/>
     </row>
@@ -4089,7 +4097,7 @@
         <v>1</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F157" s="7"/>
     </row>
@@ -4104,7 +4112,7 @@
         <v>138</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="F158" s="2"/>
     </row>
@@ -4119,7 +4127,7 @@
         <v>138</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="F159" s="2"/>
     </row>
@@ -4134,7 +4142,7 @@
         <v>139</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="F160" s="2"/>
     </row>
@@ -4149,7 +4157,7 @@
         <v>140</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="F161" s="2"/>
     </row>
@@ -4164,7 +4172,7 @@
         <v>141</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="H162" s="2"/>
     </row>
@@ -4179,7 +4187,7 @@
         <v>142</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F163" s="2"/>
     </row>
@@ -4194,7 +4202,7 @@
         <v>143</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="F164" s="2"/>
     </row>
@@ -4209,7 +4217,7 @@
         <v>144</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="F165" s="2"/>
     </row>
@@ -4224,7 +4232,7 @@
         <v>145</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="F166" s="2"/>
     </row>
@@ -4239,7 +4247,7 @@
         <v>146</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="168" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4256,7 +4264,7 @@
         <v>1</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="I168" s="7"/>
     </row>
@@ -4271,7 +4279,7 @@
         <v>148</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F169" s="2"/>
     </row>
@@ -4286,7 +4294,7 @@
         <v>149</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F170" s="2"/>
     </row>
@@ -4301,7 +4309,7 @@
         <v>150</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F171" s="2"/>
     </row>
@@ -4316,7 +4324,7 @@
         <v>151</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F172" s="2"/>
     </row>
@@ -4334,7 +4342,7 @@
         <v>1</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F173" s="7"/>
     </row>
@@ -4349,7 +4357,7 @@
         <v>154</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F174" s="2"/>
     </row>
@@ -4364,7 +4372,7 @@
         <v>155</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F175" s="2"/>
     </row>
@@ -4379,7 +4387,7 @@
         <v>156</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="177" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4396,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F177" s="7"/>
     </row>
@@ -4411,7 +4419,7 @@
         <v>158</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>356</v>
+        <v>425</v>
       </c>
       <c r="F178" s="2"/>
     </row>
@@ -4427,10 +4435,10 @@
       </c>
       <c r="D179" s="4"/>
       <c r="E179" s="2" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="O179" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
@@ -4444,7 +4452,7 @@
         <v>160</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="F180" s="2"/>
     </row>
@@ -4459,7 +4467,7 @@
         <v>161</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F181" s="2"/>
     </row>
@@ -4474,7 +4482,7 @@
         <v>162</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="H182" s="2"/>
     </row>
@@ -4489,7 +4497,7 @@
         <v>163</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="H183" s="2"/>
     </row>
@@ -4504,7 +4512,7 @@
         <v>164</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F184" s="2"/>
     </row>
@@ -4519,7 +4527,7 @@
         <v>165</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F185" s="2"/>
     </row>
@@ -4534,7 +4542,7 @@
         <v>166</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="L186" s="2"/>
     </row>
@@ -4549,7 +4557,7 @@
         <v>167</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F187" s="2"/>
     </row>
@@ -4564,7 +4572,7 @@
         <v>168</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>360</v>
+        <v>426</v>
       </c>
       <c r="F188" s="2"/>
     </row>
@@ -4579,7 +4587,7 @@
         <v>169</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="F189" s="2"/>
     </row>
@@ -4594,7 +4602,7 @@
         <v>170</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="F190" s="2"/>
     </row>
@@ -4609,7 +4617,7 @@
         <v>171</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F191" s="2"/>
     </row>
@@ -4624,7 +4632,7 @@
         <v>172</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="F192" s="2"/>
     </row>
@@ -4639,24 +4647,25 @@
         <v>173</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="F193" s="2"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>1</v>
-      </c>
-      <c r="B194">
-        <v>1</v>
-      </c>
-      <c r="C194" t="s">
+    <row r="194" spans="1:7" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A194" s="18">
+        <v>1</v>
+      </c>
+      <c r="B194" s="18">
+        <v>1</v>
+      </c>
+      <c r="C194" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="E194" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F194" s="2"/>
+      <c r="D194" s="21"/>
+      <c r="E194" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="F194" s="19"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
@@ -4669,7 +4678,7 @@
         <v>175</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="F195" s="2"/>
     </row>
@@ -4684,7 +4693,7 @@
         <v>176</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F196" s="2"/>
     </row>
@@ -4700,7 +4709,7 @@
       </c>
       <c r="D197" s="4"/>
       <c r="E197" s="2" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="F197" s="2"/>
     </row>
@@ -4728,7 +4737,7 @@
         <v>178</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="F199" s="2"/>
     </row>
@@ -4743,7 +4752,7 @@
         <v>179</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>376</v>
+        <v>427</v>
       </c>
       <c r="F200" s="2"/>
     </row>
@@ -4758,7 +4767,7 @@
         <v>180</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="G201" s="2"/>
     </row>
@@ -4773,7 +4782,7 @@
         <v>181</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -4787,7 +4796,7 @@
         <v>182</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -4801,7 +4810,7 @@
         <v>183</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="F204" s="2"/>
     </row>
@@ -4816,7 +4825,7 @@
         <v>184</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -4830,7 +4839,7 @@
         <v>185</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -4844,7 +4853,7 @@
         <v>186</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="F207" s="2"/>
     </row>
@@ -4862,19 +4871,19 @@
         <v>1</v>
       </c>
       <c r="E208" s="7" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="F208" s="7"/>
     </row>
-    <row r="209" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C209" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="D209" s="6"/>
-      <c r="E209" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="F209" s="7"/>
+    <row r="209" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C209" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="D209" s="16"/>
+      <c r="E209" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="F209" s="17"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210">
@@ -4887,7 +4896,7 @@
         <v>188</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="F210" s="2"/>
     </row>
@@ -4902,7 +4911,7 @@
         <v>189</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="G211" s="2"/>
     </row>
@@ -4917,22 +4926,24 @@
         <v>190</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C213" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C214" t="s">
-        <v>415</v>
-      </c>
-      <c r="E214" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="215" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="5">
@@ -4948,64 +4959,66 @@
         <v>1</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="216" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C216" s="15" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D216" s="16"/>
       <c r="E216" s="17" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="217" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C217" s="15" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="D217" s="16"/>
       <c r="E217" s="17" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C218" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C219" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C220" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C221" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C222" t="s">
-        <v>421</v>
-      </c>
-      <c r="E222" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223">
@@ -5018,7 +5031,7 @@
         <v>193</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="F223" s="2"/>
     </row>
@@ -5033,7 +5046,7 @@
         <v>192</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="F224" s="2"/>
     </row>
@@ -5048,7 +5061,7 @@
         <v>191</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F225" s="2"/>
     </row>
@@ -5057,7 +5070,7 @@
         <v>196</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="F226" s="2"/>
     </row>
@@ -5066,7 +5079,7 @@
         <v>197</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="F227" s="2"/>
     </row>
@@ -5077,36 +5090,36 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C229" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="D229" s="4"/>
       <c r="E229" s="2" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="F229" s="2"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C230" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="E230" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C231" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C232" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -1331,7 +1331,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1362,6 +1362,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1375,7 +1381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1401,6 +1407,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1683,8 +1693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O232"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D127" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A213" sqref="A213:XFD213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2208,20 +2218,23 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
+    <row r="33" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="23">
+        <v>1</v>
+      </c>
+      <c r="B33" s="23">
+        <v>1</v>
+      </c>
+      <c r="C33" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="D33" s="24">
+        <v>1</v>
+      </c>
+      <c r="E33" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="F33" s="2"/>
+      <c r="F33" s="25"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -2253,17 +2266,20 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
+    <row r="36" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="23">
+        <v>1</v>
+      </c>
+      <c r="B36" s="23">
+        <v>1</v>
+      </c>
+      <c r="C36" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="D36" s="24">
+        <v>1</v>
+      </c>
+      <c r="E36" s="25" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2342,20 +2358,23 @@
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
+    <row r="42" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="23">
+        <v>1</v>
+      </c>
+      <c r="B42" s="23">
+        <v>1</v>
+      </c>
+      <c r="C42" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="D42" s="24">
+        <v>1</v>
+      </c>
+      <c r="E42" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="F42" s="2"/>
+      <c r="F42" s="25"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -2618,20 +2637,20 @@
       </c>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="12">
-        <v>1</v>
-      </c>
-      <c r="B60" s="12">
-        <v>1</v>
-      </c>
-      <c r="C60" s="12" t="s">
+    <row r="60" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>1</v>
+      </c>
+      <c r="B60" s="5">
+        <v>1</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D60" s="13">
-        <v>1</v>
-      </c>
-      <c r="E60" s="14" t="s">
+      <c r="D60" s="6">
+        <v>1</v>
+      </c>
+      <c r="E60" s="7" t="s">
         <v>421</v>
       </c>
     </row>
@@ -2882,20 +2901,23 @@
       </c>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>1</v>
-      </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78" t="s">
+    <row r="78" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="23">
+        <v>1</v>
+      </c>
+      <c r="B78" s="23">
+        <v>1</v>
+      </c>
+      <c r="C78" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="D78" s="24">
+        <v>1</v>
+      </c>
+      <c r="E78" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="H78" s="2"/>
+      <c r="H78" s="25"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
@@ -3597,21 +3619,23 @@
       </c>
       <c r="F125" s="2"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>1</v>
-      </c>
-      <c r="B126">
-        <v>1</v>
-      </c>
-      <c r="C126" t="s">
+    <row r="126" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="23">
+        <v>1</v>
+      </c>
+      <c r="B126" s="23">
+        <v>1</v>
+      </c>
+      <c r="C126" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="D126" s="4"/>
-      <c r="E126" s="2" t="s">
+      <c r="D126" s="26">
+        <v>1</v>
+      </c>
+      <c r="E126" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="I126" s="2"/>
+      <c r="I126" s="25"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
@@ -4206,20 +4230,23 @@
       </c>
       <c r="F164" s="2"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>1</v>
-      </c>
-      <c r="B165">
-        <v>1</v>
-      </c>
-      <c r="C165" t="s">
+    <row r="165" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="23">
+        <v>1</v>
+      </c>
+      <c r="B165" s="23">
+        <v>1</v>
+      </c>
+      <c r="C165" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="E165" s="2" t="s">
+      <c r="D165" s="24">
+        <v>1</v>
+      </c>
+      <c r="E165" s="25" t="s">
         <v>344</v>
       </c>
-      <c r="F165" s="2"/>
+      <c r="F165" s="25"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
@@ -4501,20 +4528,23 @@
       </c>
       <c r="H183" s="2"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>1</v>
-      </c>
-      <c r="B184">
-        <v>1</v>
-      </c>
-      <c r="C184" t="s">
+    <row r="184" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="23">
+        <v>1</v>
+      </c>
+      <c r="B184" s="23">
+        <v>1</v>
+      </c>
+      <c r="C184" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="E184" s="2" t="s">
+      <c r="D184" s="24">
+        <v>1</v>
+      </c>
+      <c r="E184" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="F184" s="2"/>
+      <c r="F184" s="25"/>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185">
@@ -4561,35 +4591,41 @@
       </c>
       <c r="F187" s="2"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>1</v>
-      </c>
-      <c r="B188">
-        <v>1</v>
-      </c>
-      <c r="C188" t="s">
+    <row r="188" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="23">
+        <v>1</v>
+      </c>
+      <c r="B188" s="23">
+        <v>1</v>
+      </c>
+      <c r="C188" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="E188" s="2" t="s">
+      <c r="D188" s="24">
+        <v>1</v>
+      </c>
+      <c r="E188" s="25" t="s">
         <v>426</v>
       </c>
-      <c r="F188" s="2"/>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>1</v>
-      </c>
-      <c r="B189">
-        <v>1</v>
-      </c>
-      <c r="C189" t="s">
+      <c r="F188" s="25"/>
+    </row>
+    <row r="189" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="23">
+        <v>1</v>
+      </c>
+      <c r="B189" s="23">
+        <v>1</v>
+      </c>
+      <c r="C189" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="E189" s="2" t="s">
+      <c r="D189" s="24">
+        <v>1</v>
+      </c>
+      <c r="E189" s="25" t="s">
         <v>350</v>
       </c>
-      <c r="F189" s="2"/>
+      <c r="F189" s="25"/>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190">
@@ -4621,20 +4657,23 @@
       </c>
       <c r="F191" s="2"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>1</v>
-      </c>
-      <c r="B192">
-        <v>1</v>
-      </c>
-      <c r="C192" t="s">
+    <row r="192" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="23">
+        <v>1</v>
+      </c>
+      <c r="B192" s="23">
+        <v>1</v>
+      </c>
+      <c r="C192" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="E192" s="2" t="s">
+      <c r="D192" s="24">
+        <v>1</v>
+      </c>
+      <c r="E192" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="F192" s="2"/>
+      <c r="F192" s="25"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
@@ -4915,17 +4954,20 @@
       </c>
       <c r="G211" s="2"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>1</v>
-      </c>
-      <c r="B212">
-        <v>1</v>
-      </c>
-      <c r="C212" t="s">
+    <row r="212" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="23">
+        <v>1</v>
+      </c>
+      <c r="B212" s="23">
+        <v>1</v>
+      </c>
+      <c r="C212" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="E212" s="2" t="s">
+      <c r="D212" s="24">
+        <v>1</v>
+      </c>
+      <c r="E212" s="25" t="s">
         <v>369</v>
       </c>
     </row>

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="434">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -627,9 +627,6 @@
     <t>380519943429;50</t>
   </si>
   <si>
-    <t>380519940627;50</t>
-  </si>
-  <si>
     <t>380519941019;50</t>
   </si>
   <si>
@@ -804,9 +801,6 @@
     <t>380519947480;20</t>
   </si>
   <si>
-    <t>380995501659;35</t>
-  </si>
-  <si>
     <t>380204432509;80</t>
   </si>
   <si>
@@ -834,9 +828,6 @@
     <t>380204471276;80</t>
   </si>
   <si>
-    <t>380204471296;80</t>
-  </si>
-  <si>
     <t>380204471280;80</t>
   </si>
   <si>
@@ -969,9 +960,6 @@
     <t>380519943692;50</t>
   </si>
   <si>
-    <t>380519946240;50</t>
-  </si>
-  <si>
     <t>380519940973;50</t>
   </si>
   <si>
@@ -1080,9 +1068,6 @@
     <t>380519946255;50</t>
   </si>
   <si>
-    <t>380995501677;35</t>
-  </si>
-  <si>
     <t>380995501638;35</t>
   </si>
   <si>
@@ -1104,9 +1089,6 @@
     <t>380519946244;50</t>
   </si>
   <si>
-    <t>380519942568;50</t>
-  </si>
-  <si>
     <t>380519940897;50</t>
   </si>
   <si>
@@ -1116,9 +1098,6 @@
     <t>380519940974;50</t>
   </si>
   <si>
-    <t>380204471275;80</t>
-  </si>
-  <si>
     <t>380955132136;50</t>
   </si>
   <si>
@@ -1170,9 +1149,6 @@
     <t>380983386478;50</t>
   </si>
   <si>
-    <t>380687493036;50</t>
-  </si>
-  <si>
     <t xml:space="preserve">322 ДТ Біла Церква </t>
   </si>
   <si>
@@ -1272,9 +1248,6 @@
     <t>380978677571;95</t>
   </si>
   <si>
-    <t>380968561300;75</t>
-  </si>
-  <si>
     <t>380687916193;75</t>
   </si>
   <si>
@@ -1302,17 +1275,52 @@
     <t>380681891284;75</t>
   </si>
   <si>
-    <t>380969800693;75</t>
-  </si>
-  <si>
     <t>380519940945;50</t>
   </si>
   <si>
     <t>38‎0968561300;50</t>
   </si>
   <si>
-    <t>380685816720;50 рахунок 
-448,97</t>
+    <t>380204471288;50</t>
+  </si>
+  <si>
+    <t>380519940925;50</t>
+  </si>
+  <si>
+    <t>був '380968561300;75</t>
+  </si>
+  <si>
+    <t>380685231532;55</t>
+  </si>
+  <si>
+    <t>380995501677;75</t>
+  </si>
+  <si>
+    <t>330 dt</t>
+  </si>
+  <si>
+    <t>380204471275;90</t>
+  </si>
+  <si>
+    <t>334 dt</t>
+  </si>
+  <si>
+    <t>380519943694;50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>327 dt</t>
+  </si>
+  <si>
+    <t>380995501659;75</t>
+  </si>
+  <si>
+    <t>380688398707;75</t>
+  </si>
+  <si>
+    <t>331 dt</t>
   </si>
 </sst>
 </file>
@@ -1331,7 +1339,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1358,12 +1366,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1381,7 +1383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1400,17 +1402,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1691,10 +1690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O232"/>
+  <dimension ref="A1:O237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A213" sqref="A213:XFD213"/>
+    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E219" sqref="E219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1719,10 +1718,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="E1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1754,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -1769,7 +1768,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -1829,7 +1828,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>202</v>
+        <v>329</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -1847,7 +1846,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F9" s="11"/>
     </row>
@@ -1865,7 +1864,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F10" s="11"/>
     </row>
@@ -1880,7 +1879,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -1895,7 +1894,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -1910,7 +1909,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -1925,7 +1924,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -1940,7 +1939,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -1958,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1975,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F17" s="7"/>
     </row>
@@ -1993,7 +1992,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F18" s="7"/>
     </row>
@@ -2011,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F19" s="7"/>
     </row>
@@ -2027,7 +2026,7 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2041,7 +2040,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F21" s="2"/>
     </row>
@@ -2056,7 +2055,7 @@
         <v>21</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F22" s="2"/>
     </row>
@@ -2072,7 +2071,7 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -2105,7 +2104,7 @@
         <v>24</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F25" s="2"/>
     </row>
@@ -2120,7 +2119,7 @@
         <v>25</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F26" s="2"/>
     </row>
@@ -2135,7 +2134,7 @@
         <v>25</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F27" s="2"/>
     </row>
@@ -2150,7 +2149,7 @@
         <v>26</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F28" s="2"/>
     </row>
@@ -2168,7 +2167,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -2184,7 +2183,7 @@
         <v>28</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F30" s="2"/>
     </row>
@@ -2199,7 +2198,7 @@
         <v>29</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F31" s="2"/>
     </row>
@@ -2214,27 +2213,25 @@
         <v>30</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23">
-        <v>1</v>
-      </c>
-      <c r="B33" s="23">
-        <v>1</v>
-      </c>
-      <c r="C33" s="23" t="s">
+    <row r="33" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="19">
+        <v>1</v>
+      </c>
+      <c r="B33" s="19">
+        <v>1</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="24">
-        <v>1</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="F33" s="25"/>
+      <c r="D33" s="20">
+        <v>1</v>
+      </c>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -2247,7 +2244,7 @@
         <v>32</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="F34" s="2"/>
     </row>
@@ -2262,26 +2259,24 @@
         <v>32</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23">
-        <v>1</v>
-      </c>
-      <c r="B36" s="23">
-        <v>1</v>
-      </c>
-      <c r="C36" s="23" t="s">
+    <row r="36" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="19">
+        <v>1</v>
+      </c>
+      <c r="B36" s="19">
+        <v>1</v>
+      </c>
+      <c r="C36" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="24">
-        <v>1</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>226</v>
-      </c>
+      <c r="D36" s="20">
+        <v>1</v>
+      </c>
+      <c r="E36" s="21"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -2294,7 +2289,7 @@
         <v>34</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="F37" s="2"/>
     </row>
@@ -2309,7 +2304,7 @@
         <v>35</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F38" s="2"/>
     </row>
@@ -2324,7 +2319,7 @@
         <v>36</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="F39" s="2"/>
     </row>
@@ -2339,7 +2334,7 @@
         <v>37</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F40" s="2"/>
     </row>
@@ -2354,27 +2349,27 @@
         <v>37</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="19">
+        <v>1</v>
+      </c>
+      <c r="B42" s="19">
+        <v>1</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="20">
+        <v>1</v>
+      </c>
+      <c r="E42" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="23">
-        <v>1</v>
-      </c>
-      <c r="B42" s="23">
-        <v>1</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="24">
-        <v>1</v>
-      </c>
-      <c r="E42" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="F42" s="25"/>
+      <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -2388,7 +2383,7 @@
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="2" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2416,7 +2411,7 @@
         <v>41</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2430,7 +2425,7 @@
         <v>42</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F46" s="2"/>
     </row>
@@ -2445,7 +2440,7 @@
         <v>43</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F47" s="2"/>
     </row>
@@ -2463,7 +2458,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F48" s="7"/>
     </row>
@@ -2481,7 +2476,7 @@
         <v>2</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2498,7 +2493,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F50" s="14"/>
     </row>
@@ -2513,7 +2508,7 @@
         <v>46</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F51" s="2"/>
     </row>
@@ -2528,7 +2523,7 @@
         <v>47</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F52" s="2"/>
     </row>
@@ -2543,7 +2538,7 @@
         <v>47</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F53" s="2"/>
     </row>
@@ -2558,7 +2553,7 @@
         <v>48</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F54" s="2"/>
     </row>
@@ -2573,7 +2568,7 @@
         <v>49</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F55" s="2"/>
     </row>
@@ -2588,7 +2583,7 @@
         <v>50</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F56" s="2"/>
     </row>
@@ -2603,7 +2598,7 @@
         <v>51</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F57" s="2"/>
     </row>
@@ -2618,7 +2613,7 @@
         <v>52</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F58" s="2"/>
     </row>
@@ -2633,7 +2628,7 @@
         <v>53</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F59" s="2"/>
     </row>
@@ -2651,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2659,7 +2654,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="14"/>
@@ -2675,7 +2670,7 @@
         <v>55</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F62" s="2"/>
     </row>
@@ -2684,7 +2679,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -2700,7 +2695,7 @@
         <v>56</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J64" s="2"/>
     </row>
@@ -2715,7 +2710,7 @@
         <v>57</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F65" s="2"/>
     </row>
@@ -2730,7 +2725,7 @@
         <v>58</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2744,7 +2739,7 @@
         <v>59</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -2758,7 +2753,7 @@
         <v>60</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F68" s="2"/>
     </row>
@@ -2774,7 +2769,7 @@
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F69" s="14"/>
     </row>
@@ -2786,11 +2781,11 @@
         <v>2</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F70" s="14"/>
     </row>
@@ -2805,7 +2800,7 @@
         <v>62</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F71" s="2"/>
     </row>
@@ -2821,7 +2816,7 @@
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="14" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F72" s="14"/>
     </row>
@@ -2837,7 +2832,7 @@
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F73" s="14"/>
     </row>
@@ -2852,7 +2847,7 @@
         <v>64</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="F74" s="2"/>
     </row>
@@ -2867,7 +2862,7 @@
         <v>65</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F75" s="2"/>
     </row>
@@ -2882,7 +2877,7 @@
         <v>66</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F76" s="2"/>
     </row>
@@ -2891,47 +2886,46 @@
         <v>1</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C77" t="s">
+        <v>66</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
         <v>67</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F77" s="2"/>
-    </row>
-    <row r="78" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="23">
-        <v>1</v>
-      </c>
-      <c r="B78" s="23">
-        <v>1</v>
-      </c>
-      <c r="C78" s="23" t="s">
+      <c r="E78" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="19">
+        <v>1</v>
+      </c>
+      <c r="B79" s="19">
+        <v>1</v>
+      </c>
+      <c r="C79" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D78" s="24">
-        <v>1</v>
-      </c>
-      <c r="E78" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="H78" s="25"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>1</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-      <c r="C79" t="s">
-        <v>69</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>387</v>
-      </c>
+      <c r="D79" s="20">
+        <v>1</v>
+      </c>
+      <c r="E79" s="21"/>
+      <c r="H79" s="21"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
@@ -2941,12 +2935,11 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="G80" s="2"/>
+        <v>379</v>
+      </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
@@ -2956,12 +2949,12 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="F81" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
@@ -2971,10 +2964,10 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>259</v>
+        <v>382</v>
       </c>
       <c r="F82" s="2"/>
     </row>
@@ -2986,10 +2979,10 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F83" s="2"/>
     </row>
@@ -3001,11 +2994,12 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>260</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="F84" s="2"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
@@ -3015,10 +3009,10 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3029,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3043,11 +3037,10 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>77</v>
-      </c>
-      <c r="D87" s="4"/>
+        <v>76</v>
+      </c>
       <c r="E87" s="2" t="s">
-        <v>372</v>
+        <v>272</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3058,12 +3051,12 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>78</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D88" s="4"/>
       <c r="E88" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F88" s="2"/>
+        <v>365</v>
+      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
@@ -3073,10 +3066,10 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F89" s="2"/>
     </row>
@@ -3088,12 +3081,12 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="G90" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
@@ -3103,11 +3096,12 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>417</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="G91" s="2"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
@@ -3117,35 +3111,37 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>418</v>
+        <v>355</v>
+      </c>
+      <c r="F92" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
       <c r="C93" t="s">
-        <v>398</v>
-      </c>
-      <c r="E93" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
       <c r="C94" t="s">
-        <v>83</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G94" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="E94" s="2"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
@@ -3155,12 +3151,12 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="F95" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="G95" s="2"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
@@ -3170,10 +3166,10 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>280</v>
+        <v>414</v>
       </c>
       <c r="F96" s="2"/>
     </row>
@@ -3182,13 +3178,13 @@
         <v>1</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C97" t="s">
         <v>85</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F97" s="2"/>
     </row>
@@ -3197,13 +3193,13 @@
         <v>1</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C98" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="F98" s="2"/>
     </row>
@@ -3215,10 +3211,10 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F99" s="2"/>
     </row>
@@ -3227,13 +3223,13 @@
         <v>1</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C100" t="s">
         <v>86</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F100" s="2"/>
     </row>
@@ -3242,60 +3238,60 @@
         <v>1</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C101" t="s">
+        <v>86</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F101" s="2"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
         <v>87</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F101" s="2"/>
-    </row>
-    <row r="102" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="5">
-        <v>1</v>
-      </c>
-      <c r="B102" s="5">
-        <v>1</v>
-      </c>
-      <c r="C102" s="5" t="s">
+      <c r="E102" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F102" s="2"/>
+    </row>
+    <row r="103" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="5">
+        <v>1</v>
+      </c>
+      <c r="B103" s="5">
+        <v>1</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D102" s="8">
-        <v>1</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>1</v>
-      </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
-      <c r="C103" t="s">
-        <v>89</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F103" s="2"/>
+      <c r="D103" s="8">
+        <v>1</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1</v>
       </c>
       <c r="B104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C104" t="s">
         <v>89</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F104" s="2"/>
     </row>
@@ -3304,13 +3300,13 @@
         <v>1</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F105" s="2"/>
     </row>
@@ -3322,10 +3318,10 @@
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F106" s="2"/>
     </row>
@@ -3337,10 +3333,10 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F107" s="2"/>
     </row>
@@ -3352,12 +3348,12 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G108" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
@@ -3367,25 +3363,25 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F109" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="G109" s="2"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1</v>
       </c>
       <c r="B110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C110" t="s">
         <v>94</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F110" s="2"/>
     </row>
@@ -3394,13 +3390,13 @@
         <v>1</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C111" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F111" s="2"/>
     </row>
@@ -3412,10 +3408,10 @@
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F112" s="2"/>
     </row>
@@ -3427,46 +3423,45 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
+        <v>96</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F113" s="2"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
         <v>97</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="E114" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F114" s="2"/>
+    </row>
+    <row r="115" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="5">
+        <v>1</v>
+      </c>
+      <c r="B115" s="5">
+        <v>1</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D115" s="6">
+        <v>1</v>
+      </c>
+      <c r="E115" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F113" s="2"/>
-    </row>
-    <row r="114" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="5">
-        <v>1</v>
-      </c>
-      <c r="B114" s="5">
-        <v>1</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D114" s="6">
-        <v>1</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="F114" s="7"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>1</v>
-      </c>
-      <c r="B115">
-        <v>1</v>
-      </c>
-      <c r="C115" t="s">
-        <v>99</v>
-      </c>
-      <c r="D115" s="4"/>
-      <c r="E115" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F115" s="2"/>
+      <c r="F115" s="7"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
@@ -3476,10 +3471,11 @@
         <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>100</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D116" s="4"/>
       <c r="E116" s="2" t="s">
-        <v>296</v>
+        <v>359</v>
       </c>
       <c r="F116" s="2"/>
     </row>
@@ -3491,10 +3487,10 @@
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="F117" s="2"/>
     </row>
@@ -3506,10 +3502,10 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F118" s="2"/>
     </row>
@@ -3521,10 +3517,10 @@
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F119" s="2"/>
     </row>
@@ -3536,11 +3532,10 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>104</v>
-      </c>
-      <c r="D120" s="4"/>
+        <v>103</v>
+      </c>
       <c r="E120" s="2" t="s">
-        <v>376</v>
+        <v>318</v>
       </c>
       <c r="F120" s="2"/>
     </row>
@@ -3552,12 +3547,13 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>105</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D121" s="4"/>
       <c r="E121" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="G121" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="F121" s="2"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
@@ -3567,12 +3563,12 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="F122" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="G122" s="2"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
@@ -3582,10 +3578,10 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F123" s="2"/>
     </row>
@@ -3597,10 +3593,10 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>424</v>
+        <v>320</v>
       </c>
       <c r="F124" s="2"/>
     </row>
@@ -3612,44 +3608,45 @@
         <v>1</v>
       </c>
       <c r="C125" t="s">
+        <v>108</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F125" s="2"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
         <v>109</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="F125" s="2"/>
-    </row>
-    <row r="126" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="23">
-        <v>1</v>
-      </c>
-      <c r="B126" s="23">
-        <v>1</v>
-      </c>
-      <c r="C126" s="23" t="s">
+      <c r="E126" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F126" s="2"/>
+    </row>
+    <row r="127" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="19">
+        <v>1</v>
+      </c>
+      <c r="B127" s="19">
+        <v>1</v>
+      </c>
+      <c r="C127" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D126" s="26">
-        <v>1</v>
-      </c>
-      <c r="E126" s="25" t="s">
-        <v>364</v>
-      </c>
-      <c r="I126" s="25"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>1</v>
-      </c>
-      <c r="B127">
-        <v>1</v>
-      </c>
-      <c r="C127" t="s">
-        <v>112</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>391</v>
-      </c>
+      <c r="D127" s="22">
+        <v>1</v>
+      </c>
+      <c r="E127" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="I127" s="21"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
@@ -3659,12 +3656,11 @@
         <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F128" s="2"/>
+        <v>383</v>
+      </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
@@ -3674,10 +3670,10 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F129" s="2"/>
     </row>
@@ -3689,93 +3685,93 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="H130" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="F130" s="2"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C131" t="s">
         <v>115</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="F131" s="2"/>
-    </row>
-    <row r="132" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="5">
-        <v>1</v>
-      </c>
-      <c r="B132" s="5">
-        <v>1</v>
-      </c>
-      <c r="C132" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="H131" s="2"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>1</v>
+      </c>
+      <c r="B132">
+        <v>2</v>
+      </c>
+      <c r="C132" t="s">
+        <v>115</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F132" s="2"/>
+    </row>
+    <row r="133" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="5">
+        <v>1</v>
+      </c>
+      <c r="B133" s="5">
+        <v>1</v>
+      </c>
+      <c r="C133" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D132" s="6">
-        <v>1</v>
-      </c>
-      <c r="E132" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F132" s="7"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>1</v>
-      </c>
-      <c r="B133">
-        <v>1</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="D133" s="6">
+        <v>1</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F133" s="7"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134" t="s">
         <v>117</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F133" s="2"/>
-    </row>
-    <row r="134" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="5">
-        <v>1</v>
-      </c>
-      <c r="B134" s="5">
-        <v>1</v>
-      </c>
-      <c r="C134" s="5" t="s">
+      <c r="E134" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F134" s="2"/>
+    </row>
+    <row r="135" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="5">
+        <v>1</v>
+      </c>
+      <c r="B135" s="5">
+        <v>1</v>
+      </c>
+      <c r="C135" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D134" s="6">
-        <v>1</v>
-      </c>
-      <c r="E134" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="F134" s="7"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>1</v>
-      </c>
-      <c r="B135">
-        <v>1</v>
-      </c>
-      <c r="C135" t="s">
-        <v>119</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="J135" s="2"/>
+      <c r="D135" s="6">
+        <v>1</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F135" s="7"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
@@ -3785,52 +3781,52 @@
         <v>1</v>
       </c>
       <c r="C136" t="s">
+        <v>119</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="J136" s="2"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137" t="s">
         <v>120</v>
       </c>
-      <c r="E136" s="2"/>
-    </row>
-    <row r="137" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="5">
-        <v>1</v>
-      </c>
-      <c r="B137" s="5">
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="5">
+        <v>1</v>
+      </c>
+      <c r="B138" s="5">
         <v>2</v>
       </c>
-      <c r="C137" s="5" t="s">
+      <c r="C138" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D137" s="6">
-        <v>1</v>
-      </c>
-      <c r="E137" s="7"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>1</v>
-      </c>
-      <c r="B138">
-        <v>1</v>
-      </c>
-      <c r="C138" t="s">
-        <v>121</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="F138" s="2"/>
+      <c r="D138" s="6">
+        <v>1</v>
+      </c>
+      <c r="E138" s="7"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1</v>
       </c>
       <c r="B139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C139" t="s">
         <v>121</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F139" s="2"/>
     </row>
@@ -3839,48 +3835,48 @@
         <v>1</v>
       </c>
       <c r="B140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C140" t="s">
         <v>121</v>
       </c>
-      <c r="D140" s="4"/>
       <c r="E140" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="5">
-        <v>1</v>
-      </c>
-      <c r="B141" s="5">
-        <v>1</v>
-      </c>
-      <c r="C141" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="F140" s="2"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="B141">
+        <v>2</v>
+      </c>
+      <c r="C141" t="s">
+        <v>121</v>
+      </c>
+      <c r="D141" s="4"/>
+      <c r="E141" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="5">
+        <v>1</v>
+      </c>
+      <c r="B142" s="5">
+        <v>1</v>
+      </c>
+      <c r="C142" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D141" s="6">
-        <v>1</v>
-      </c>
-      <c r="E141" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="F141" s="7"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>1</v>
-      </c>
-      <c r="B142">
-        <v>1</v>
-      </c>
-      <c r="C142" t="s">
-        <v>194</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="F142" s="2"/>
+      <c r="D142" s="6">
+        <v>1</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F142" s="7"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
@@ -3890,10 +3886,10 @@
         <v>1</v>
       </c>
       <c r="C143" t="s">
-        <v>123</v>
+        <v>194</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="F143" s="2"/>
     </row>
@@ -3905,10 +3901,10 @@
         <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="F144" s="2"/>
     </row>
@@ -3920,30 +3916,27 @@
         <v>1</v>
       </c>
       <c r="C145" t="s">
+        <v>124</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F145" s="2"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146" t="s">
         <v>125</v>
       </c>
-      <c r="E145" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F145" s="2"/>
-    </row>
-    <row r="146" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="5">
-        <v>1</v>
-      </c>
-      <c r="B146" s="5">
-        <v>1</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D146" s="6">
-        <v>1</v>
-      </c>
-      <c r="E146" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F146" s="7"/>
+      <c r="E146" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F146" s="2"/>
     </row>
     <row r="147" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
@@ -3953,13 +3946,13 @@
         <v>1</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D147" s="6">
         <v>1</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>333</v>
+        <v>262</v>
       </c>
       <c r="F147" s="7"/>
     </row>
@@ -3971,79 +3964,80 @@
         <v>1</v>
       </c>
       <c r="C148" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D148" s="6">
+        <v>1</v>
+      </c>
+      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
+    </row>
+    <row r="149" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="5">
+        <v>1</v>
+      </c>
+      <c r="B149" s="5">
+        <v>1</v>
+      </c>
+      <c r="C149" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D148" s="6">
-        <v>1</v>
-      </c>
-      <c r="E148" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F148" s="7"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>1</v>
-      </c>
-      <c r="B149">
-        <v>1</v>
-      </c>
-      <c r="C149" t="s">
+      <c r="D149" s="6">
+        <v>1</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F149" s="7"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150" t="s">
         <v>129</v>
       </c>
-      <c r="E149" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="F149" s="2"/>
-    </row>
-    <row r="150" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="5">
-        <v>1</v>
-      </c>
-      <c r="B150" s="5">
-        <v>1</v>
-      </c>
-      <c r="C150" s="5" t="s">
+      <c r="E150" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F150" s="2"/>
+    </row>
+    <row r="151" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="5">
+        <v>1</v>
+      </c>
+      <c r="B151" s="5">
+        <v>1</v>
+      </c>
+      <c r="C151" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D150" s="6">
-        <v>1</v>
-      </c>
-      <c r="E150" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="F150" s="7"/>
-    </row>
-    <row r="151" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="15">
-        <v>1</v>
-      </c>
-      <c r="B151" s="15">
-        <v>1</v>
-      </c>
-      <c r="C151" s="15" t="s">
+      <c r="D151" s="6">
+        <v>1</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F151" s="7"/>
+    </row>
+    <row r="152" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="15">
+        <v>1</v>
+      </c>
+      <c r="B152" s="15">
+        <v>1</v>
+      </c>
+      <c r="C152" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D151" s="20"/>
-      <c r="E151" s="17" t="s">
-        <v>429</v>
-      </c>
-      <c r="F151" s="17"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>1</v>
-      </c>
-      <c r="B152">
-        <v>1</v>
-      </c>
-      <c r="C152" t="s">
-        <v>132</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="F152" s="2"/>
+      <c r="D152" s="18"/>
+      <c r="E152" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="F152" s="17"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
@@ -4053,10 +4047,10 @@
         <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="F153" s="2"/>
     </row>
@@ -4068,77 +4062,77 @@
         <v>1</v>
       </c>
       <c r="C154" t="s">
+        <v>133</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F154" s="2"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>1</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155" t="s">
         <v>134</v>
       </c>
-      <c r="E154" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="F154" s="2"/>
-    </row>
-    <row r="155" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="5">
-        <v>1</v>
-      </c>
-      <c r="B155" s="5">
-        <v>1</v>
-      </c>
-      <c r="C155" s="5" t="s">
+      <c r="E155" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F155" s="2"/>
+    </row>
+    <row r="156" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="5">
+        <v>1</v>
+      </c>
+      <c r="B156" s="5">
+        <v>1</v>
+      </c>
+      <c r="C156" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D155" s="6">
-        <v>1</v>
-      </c>
-      <c r="E155" s="7" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>1</v>
-      </c>
-      <c r="B156">
-        <v>1</v>
-      </c>
-      <c r="C156" t="s">
+      <c r="D156" s="6">
+        <v>1</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>1</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157" t="s">
         <v>136</v>
       </c>
-      <c r="E156" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="F156" s="2"/>
-    </row>
-    <row r="157" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="5">
-        <v>1</v>
-      </c>
-      <c r="B157" s="5">
-        <v>1</v>
-      </c>
-      <c r="C157" s="5" t="s">
+      <c r="E157" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F157" s="2"/>
+    </row>
+    <row r="158" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="5">
+        <v>1</v>
+      </c>
+      <c r="B158" s="5">
+        <v>1</v>
+      </c>
+      <c r="C158" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D157" s="6">
-        <v>1</v>
-      </c>
-      <c r="E157" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="F157" s="7"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>1</v>
-      </c>
-      <c r="B158">
-        <v>1</v>
-      </c>
-      <c r="C158" t="s">
-        <v>138</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F158" s="2"/>
+      <c r="D158" s="6">
+        <v>1</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F158" s="7"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
@@ -4151,7 +4145,7 @@
         <v>138</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F159" s="2"/>
     </row>
@@ -4163,10 +4157,10 @@
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F160" s="2"/>
     </row>
@@ -4178,10 +4172,10 @@
         <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F161" s="2"/>
     </row>
@@ -4193,12 +4187,12 @@
         <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H162" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="F162" s="2"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
@@ -4208,12 +4202,12 @@
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="F163" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="H163" s="2"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
@@ -4223,45 +4217,45 @@
         <v>1</v>
       </c>
       <c r="C164" t="s">
+        <v>142</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F164" s="2"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165" t="s">
         <v>143</v>
       </c>
-      <c r="E164" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F164" s="2"/>
-    </row>
-    <row r="165" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="23">
-        <v>1</v>
-      </c>
-      <c r="B165" s="23">
-        <v>1</v>
-      </c>
-      <c r="C165" s="23" t="s">
+      <c r="E165" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F165" s="2"/>
+    </row>
+    <row r="166" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="19">
+        <v>1</v>
+      </c>
+      <c r="B166" s="19">
+        <v>1</v>
+      </c>
+      <c r="C166" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="D165" s="24">
-        <v>1</v>
-      </c>
-      <c r="E165" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="F165" s="25"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>1</v>
-      </c>
-      <c r="B166">
-        <v>1</v>
-      </c>
-      <c r="C166" t="s">
-        <v>145</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="F166" s="2"/>
+      <c r="D166" s="20">
+        <v>1</v>
+      </c>
+      <c r="E166" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="F166" s="21"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
@@ -4271,44 +4265,44 @@
         <v>1</v>
       </c>
       <c r="C167" t="s">
+        <v>145</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F167" s="2"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>1</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168" t="s">
         <v>146</v>
       </c>
-      <c r="E167" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="5">
-        <v>1</v>
-      </c>
-      <c r="B168" s="5">
-        <v>1</v>
-      </c>
-      <c r="C168" s="5" t="s">
+      <c r="E168" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="5">
+        <v>1</v>
+      </c>
+      <c r="B169" s="5">
+        <v>1</v>
+      </c>
+      <c r="C169" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D168" s="6">
-        <v>1</v>
-      </c>
-      <c r="E168" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="I168" s="7"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>1</v>
-      </c>
-      <c r="B169">
-        <v>1</v>
-      </c>
-      <c r="C169" t="s">
-        <v>148</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F169" s="2"/>
+      <c r="D169" s="6">
+        <v>1</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="I169" s="7"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
@@ -4318,10 +4312,10 @@
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F170" s="2"/>
     </row>
@@ -4333,10 +4327,10 @@
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F171" s="2"/>
     </row>
@@ -4348,45 +4342,45 @@
         <v>1</v>
       </c>
       <c r="C172" t="s">
+        <v>150</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F172" s="2"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>1</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173" t="s">
         <v>151</v>
       </c>
-      <c r="E172" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F172" s="2"/>
-    </row>
-    <row r="173" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="5">
-        <v>1</v>
-      </c>
-      <c r="B173" s="5">
-        <v>1</v>
-      </c>
-      <c r="C173" s="5" t="s">
+      <c r="E173" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F173" s="2"/>
+    </row>
+    <row r="174" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="5">
+        <v>1</v>
+      </c>
+      <c r="B174" s="5">
+        <v>1</v>
+      </c>
+      <c r="C174" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D173" s="6">
-        <v>1</v>
-      </c>
-      <c r="E173" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="F173" s="7"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>1</v>
-      </c>
-      <c r="B174">
-        <v>1</v>
-      </c>
-      <c r="C174" t="s">
-        <v>154</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="F174" s="2"/>
+      <c r="D174" s="6">
+        <v>1</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F174" s="7"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
@@ -4396,10 +4390,10 @@
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>375</v>
+        <v>264</v>
       </c>
       <c r="F175" s="2"/>
     </row>
@@ -4411,44 +4405,44 @@
         <v>1</v>
       </c>
       <c r="C176" t="s">
+        <v>155</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F176" s="2"/>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>1</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177" t="s">
         <v>156</v>
       </c>
-      <c r="E176" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="5">
-        <v>1</v>
-      </c>
-      <c r="B177" s="5">
-        <v>1</v>
-      </c>
-      <c r="C177" s="5" t="s">
+      <c r="E177" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="5">
+        <v>1</v>
+      </c>
+      <c r="B178" s="5">
+        <v>1</v>
+      </c>
+      <c r="C178" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D177" s="6">
-        <v>1</v>
-      </c>
-      <c r="E177" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="F177" s="7"/>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>1</v>
-      </c>
-      <c r="B178">
-        <v>1</v>
-      </c>
-      <c r="C178" t="s">
-        <v>158</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="F178" s="2"/>
+      <c r="D178" s="6">
+        <v>1</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F178" s="7"/>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179">
@@ -4458,15 +4452,12 @@
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>159</v>
-      </c>
-      <c r="D179" s="4"/>
+        <v>158</v>
+      </c>
       <c r="E179" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="O179" t="s">
-        <v>229</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="F179" s="2"/>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180">
@@ -4476,12 +4467,15 @@
         <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>160</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="D180" s="4"/>
       <c r="E180" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="F180" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="O180" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181">
@@ -4491,10 +4485,10 @@
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>268</v>
+        <v>405</v>
       </c>
       <c r="F181" s="2"/>
     </row>
@@ -4506,12 +4500,12 @@
         <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="H182" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="F182" s="2"/>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183">
@@ -4521,45 +4515,45 @@
         <v>1</v>
       </c>
       <c r="C183" t="s">
+        <v>162</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H183" s="2"/>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>1</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184" t="s">
         <v>163</v>
       </c>
-      <c r="E183" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="H183" s="2"/>
-    </row>
-    <row r="184" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="23">
-        <v>1</v>
-      </c>
-      <c r="B184" s="23">
-        <v>1</v>
-      </c>
-      <c r="C184" s="23" t="s">
+      <c r="E184" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H184" s="2"/>
+    </row>
+    <row r="185" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="19">
+        <v>1</v>
+      </c>
+      <c r="B185" s="19">
+        <v>1</v>
+      </c>
+      <c r="C185" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="D184" s="24">
-        <v>1</v>
-      </c>
-      <c r="E184" s="25" t="s">
-        <v>269</v>
-      </c>
-      <c r="F184" s="25"/>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>1</v>
-      </c>
-      <c r="B185">
-        <v>1</v>
-      </c>
-      <c r="C185" t="s">
-        <v>165</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F185" s="2"/>
+      <c r="D185" s="20">
+        <v>1</v>
+      </c>
+      <c r="E185" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="F185" s="21"/>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186">
@@ -4569,12 +4563,12 @@
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="L186" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="F186" s="2"/>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187">
@@ -4584,63 +4578,63 @@
         <v>1</v>
       </c>
       <c r="C187" t="s">
+        <v>166</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="L187" s="2"/>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>1</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188" t="s">
         <v>167</v>
       </c>
-      <c r="E187" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F187" s="2"/>
-    </row>
-    <row r="188" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="23">
-        <v>1</v>
-      </c>
-      <c r="B188" s="23">
-        <v>1</v>
-      </c>
-      <c r="C188" s="23" t="s">
+      <c r="E188" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F188" s="2"/>
+    </row>
+    <row r="189" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="19">
+        <v>1</v>
+      </c>
+      <c r="B189" s="19">
+        <v>1</v>
+      </c>
+      <c r="C189" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="D188" s="24">
-        <v>1</v>
-      </c>
-      <c r="E188" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="F188" s="25"/>
-    </row>
-    <row r="189" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="23">
-        <v>1</v>
-      </c>
-      <c r="B189" s="23">
-        <v>1</v>
-      </c>
-      <c r="C189" s="23" t="s">
+      <c r="D189" s="20">
+        <v>1</v>
+      </c>
+      <c r="E189" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="F189" s="21"/>
+    </row>
+    <row r="190" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="19">
+        <v>1</v>
+      </c>
+      <c r="B190" s="19">
+        <v>1</v>
+      </c>
+      <c r="C190" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="D189" s="24">
-        <v>1</v>
-      </c>
-      <c r="E189" s="25" t="s">
-        <v>350</v>
-      </c>
-      <c r="F189" s="25"/>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>1</v>
-      </c>
-      <c r="B190">
-        <v>1</v>
-      </c>
-      <c r="C190" t="s">
-        <v>170</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="F190" s="2"/>
+      <c r="D190" s="20">
+        <v>1</v>
+      </c>
+      <c r="E190" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="F190" s="21"/>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191">
@@ -4650,76 +4644,76 @@
         <v>1</v>
       </c>
       <c r="C191" t="s">
+        <v>170</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F191" s="2"/>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>1</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192" t="s">
         <v>171</v>
       </c>
-      <c r="E191" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F191" s="2"/>
-    </row>
-    <row r="192" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="23">
-        <v>1</v>
-      </c>
-      <c r="B192" s="23">
-        <v>1</v>
-      </c>
-      <c r="C192" s="23" t="s">
+      <c r="E192" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F192" s="2"/>
+    </row>
+    <row r="193" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="19">
+        <v>1</v>
+      </c>
+      <c r="B193" s="19">
+        <v>1</v>
+      </c>
+      <c r="C193" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="D192" s="24">
-        <v>1</v>
-      </c>
-      <c r="E192" s="25" t="s">
-        <v>352</v>
-      </c>
-      <c r="F192" s="25"/>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>1</v>
-      </c>
-      <c r="B193">
-        <v>1</v>
-      </c>
-      <c r="C193" t="s">
+      <c r="D193" s="20">
+        <v>1</v>
+      </c>
+      <c r="E193" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="F193" s="21"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>1</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194" t="s">
         <v>173</v>
       </c>
-      <c r="E193" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="F193" s="2"/>
-    </row>
-    <row r="194" spans="1:7" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A194" s="18">
-        <v>1</v>
-      </c>
-      <c r="B194" s="18">
-        <v>1</v>
-      </c>
-      <c r="C194" s="18" t="s">
+      <c r="E194" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F194" s="2"/>
+    </row>
+    <row r="195" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="15">
+        <v>1</v>
+      </c>
+      <c r="B195" s="15">
+        <v>1</v>
+      </c>
+      <c r="C195" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="D194" s="21"/>
-      <c r="E194" s="22" t="s">
-        <v>430</v>
-      </c>
-      <c r="F194" s="19"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>1</v>
-      </c>
-      <c r="B195">
-        <v>1</v>
-      </c>
-      <c r="C195" t="s">
-        <v>175</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="F195" s="2"/>
+      <c r="D195" s="16"/>
+      <c r="E195" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="F195" s="17"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
@@ -4729,10 +4723,10 @@
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>272</v>
+        <v>349</v>
       </c>
       <c r="F196" s="2"/>
     </row>
@@ -4744,11 +4738,10 @@
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>177</v>
-      </c>
-      <c r="D197" s="4"/>
+        <v>176</v>
+      </c>
       <c r="E197" s="2" t="s">
-        <v>365</v>
+        <v>269</v>
       </c>
       <c r="F197" s="2"/>
     </row>
@@ -4757,28 +4750,29 @@
         <v>1</v>
       </c>
       <c r="B198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C198" t="s">
         <v>177</v>
       </c>
       <c r="D198" s="4"/>
-      <c r="E198" s="2"/>
+      <c r="E198" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="F198" s="2"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C199" t="s">
-        <v>178</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="F199" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="D199" s="4"/>
+      <c r="E199" s="2"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
@@ -4788,10 +4782,10 @@
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>427</v>
+        <v>350</v>
       </c>
       <c r="F200" s="2"/>
     </row>
@@ -4803,12 +4797,12 @@
         <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="G201" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="F201" s="2"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
@@ -4818,11 +4812,12 @@
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>273</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="G202" s="2"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
@@ -4832,10 +4827,10 @@
         <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -4846,12 +4841,11 @@
         <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="F204" s="2"/>
+        <v>271</v>
+      </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
@@ -4861,11 +4855,12 @@
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>381</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="F205" s="2"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
@@ -4875,10 +4870,10 @@
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -4889,55 +4884,54 @@
         <v>1</v>
       </c>
       <c r="C207" t="s">
+        <v>185</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>1</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208" t="s">
         <v>186</v>
       </c>
-      <c r="E207" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="F207" s="2"/>
-    </row>
-    <row r="208" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="5">
-        <v>1</v>
-      </c>
-      <c r="B208" s="5">
-        <v>1</v>
-      </c>
-      <c r="C208" s="5" t="s">
+      <c r="E208" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F208" s="2"/>
+    </row>
+    <row r="209" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="5">
+        <v>1</v>
+      </c>
+      <c r="B209" s="5">
+        <v>1</v>
+      </c>
+      <c r="C209" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D208" s="6">
-        <v>1</v>
-      </c>
-      <c r="E208" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="F208" s="7"/>
-    </row>
-    <row r="209" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C209" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="D209" s="16"/>
-      <c r="E209" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="F209" s="17"/>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>1</v>
-      </c>
-      <c r="B210">
-        <v>1</v>
-      </c>
-      <c r="C210" t="s">
-        <v>188</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="F210" s="2"/>
+      <c r="D209" s="6">
+        <v>1</v>
+      </c>
+      <c r="E209" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F209" s="7"/>
+    </row>
+    <row r="210" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C210" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="D210" s="16"/>
+      <c r="E210" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="F210" s="17"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211">
@@ -4947,119 +4941,172 @@
         <v>1</v>
       </c>
       <c r="C211" t="s">
+        <v>188</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F211" s="2"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>1</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212" t="s">
         <v>189</v>
       </c>
-      <c r="E211" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="G211" s="2"/>
-    </row>
-    <row r="212" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="23">
-        <v>1</v>
-      </c>
-      <c r="B212" s="23">
-        <v>1</v>
-      </c>
-      <c r="C212" s="23" t="s">
+      <c r="E212" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G212" s="2"/>
+    </row>
+    <row r="213" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="19">
+        <v>1</v>
+      </c>
+      <c r="B213" s="19">
+        <v>1</v>
+      </c>
+      <c r="C213" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D212" s="24">
-        <v>1</v>
-      </c>
-      <c r="E212" s="25" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C213" t="s">
-        <v>401</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>307</v>
-      </c>
+      <c r="D213" s="20">
+        <v>1</v>
+      </c>
+      <c r="E213" s="21"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>1</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
       <c r="C214" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="5">
-        <v>1</v>
-      </c>
-      <c r="B215" s="5">
-        <v>1</v>
-      </c>
-      <c r="C215" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>1</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215" t="s">
+        <v>394</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="5">
+        <v>1</v>
+      </c>
+      <c r="B216" s="5">
+        <v>1</v>
+      </c>
+      <c r="C216" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D215" s="6">
-        <v>1</v>
-      </c>
-      <c r="E215" s="7" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C216" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="D216" s="16"/>
-      <c r="E216" s="17" t="s">
-        <v>303</v>
+      <c r="D216" s="6">
+        <v>1</v>
+      </c>
+      <c r="E216" s="7" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="217" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="15">
+        <v>1</v>
+      </c>
+      <c r="B217" s="15">
+        <v>1</v>
+      </c>
       <c r="C217" s="15" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="D217" s="16"/>
       <c r="E217" s="17" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C218" t="s">
-        <v>384</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>383</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="15">
+        <v>1</v>
+      </c>
+      <c r="B218" s="15">
+        <v>1</v>
+      </c>
+      <c r="C218" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="D218" s="16"/>
+      <c r="E218" s="17" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>1</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
       <c r="C219" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>386</v>
+        <v>256</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>1</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
       <c r="C220" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>1</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
       <c r="C221" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>230</v>
+        <v>398</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>1</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
       <c r="C222" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -5070,12 +5117,11 @@
         <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>193</v>
+        <v>400</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="F223" s="2"/>
+        <v>214</v>
+      </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224">
@@ -5085,12 +5131,14 @@
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>192</v>
+        <v>430</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>429</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="F224" s="2"/>
+        <v>225</v>
+      </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
@@ -5100,68 +5148,140 @@
         <v>1</v>
       </c>
       <c r="C225" t="s">
+        <v>425</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>1</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="C226" t="s">
+        <v>433</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>1</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227" t="s">
+        <v>427</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>1</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228" t="s">
+        <v>193</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F228" s="2"/>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>1</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229" t="s">
+        <v>192</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F229" s="2"/>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>1</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230" t="s">
         <v>191</v>
       </c>
-      <c r="E225" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F225" s="2"/>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C226" t="s">
-        <v>196</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="F226" s="2"/>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C227" t="s">
-        <v>197</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="F227" s="2"/>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C228" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C229" t="s">
-        <v>367</v>
-      </c>
-      <c r="D229" s="4"/>
-      <c r="E229" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F229" s="2"/>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C230" t="s">
-        <v>370</v>
-      </c>
-      <c r="E230" t="s">
-        <v>410</v>
-      </c>
+      <c r="E230" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F230" s="2"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C231" t="s">
-        <v>367</v>
+        <v>196</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>392</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="F231" s="2"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C232" t="s">
-        <v>409</v>
+        <v>197</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>415</v>
+        <v>406</v>
+      </c>
+      <c r="F232" s="2"/>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C233" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C234" t="s">
+        <v>360</v>
+      </c>
+      <c r="D234" s="4"/>
+      <c r="E234" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F234" s="2"/>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C235" t="s">
+        <v>363</v>
+      </c>
+      <c r="E235" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C236" t="s">
+        <v>360</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C237" t="s">
+        <v>401</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="439">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -834,9 +834,6 @@
     <t>380204486369;80</t>
   </si>
   <si>
-    <t>380204486394;80</t>
-  </si>
-  <si>
     <t>380519944932;50</t>
   </si>
   <si>
@@ -1062,9 +1059,6 @@
     <t>380519943695;50</t>
   </si>
   <si>
-    <t>380519946253;50</t>
-  </si>
-  <si>
     <t>380519946255;50</t>
   </si>
   <si>
@@ -1321,6 +1315,27 @@
   </si>
   <si>
     <t>331 dt</t>
+  </si>
+  <si>
+    <t>380519943690;50</t>
+  </si>
+  <si>
+    <t>335 дт</t>
+  </si>
+  <si>
+    <t>340 dt</t>
+  </si>
+  <si>
+    <t>380687982826;75</t>
+  </si>
+  <si>
+    <t>339 dt</t>
+  </si>
+  <si>
+    <t>338 dt</t>
+  </si>
+  <si>
+    <t>??</t>
   </si>
 </sst>
 </file>
@@ -1690,10 +1705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O237"/>
+  <dimension ref="A1:O241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E219" sqref="E219"/>
+    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D233" sqref="D233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1718,7 +1733,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E1" t="s">
         <v>223</v>
@@ -1768,7 +1783,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -1828,7 +1843,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -2026,7 +2041,7 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2244,7 +2259,7 @@
         <v>32</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F34" s="2"/>
     </row>
@@ -2259,7 +2274,7 @@
         <v>32</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F35" s="2"/>
     </row>
@@ -2289,7 +2304,7 @@
         <v>34</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F37" s="2"/>
     </row>
@@ -2304,7 +2319,7 @@
         <v>35</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F38" s="2"/>
     </row>
@@ -2319,7 +2334,7 @@
         <v>36</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F39" s="2"/>
     </row>
@@ -2383,7 +2398,7 @@
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2425,7 +2440,7 @@
         <v>42</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F46" s="2"/>
     </row>
@@ -2568,7 +2583,7 @@
         <v>49</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F55" s="2"/>
     </row>
@@ -2646,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2654,7 +2669,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="14"/>
@@ -2679,7 +2694,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -2781,7 +2796,7 @@
         <v>2</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="14" t="s">
@@ -2816,7 +2831,7 @@
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F72" s="14"/>
     </row>
@@ -2847,7 +2862,7 @@
         <v>64</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F74" s="2"/>
     </row>
@@ -2862,7 +2877,7 @@
         <v>65</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F75" s="2"/>
     </row>
@@ -2892,7 +2907,7 @@
         <v>66</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F77" s="2"/>
     </row>
@@ -2938,7 +2953,7 @@
         <v>69</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2952,7 +2967,7 @@
         <v>70</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G81" s="2"/>
     </row>
@@ -2967,7 +2982,7 @@
         <v>71</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F82" s="2"/>
     </row>
@@ -2997,7 +3012,7 @@
         <v>73</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F84" s="2"/>
     </row>
@@ -3040,7 +3055,7 @@
         <v>76</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3055,7 +3070,7 @@
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3069,7 +3084,7 @@
         <v>78</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F89" s="2"/>
     </row>
@@ -3084,7 +3099,7 @@
         <v>79</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F90" s="2"/>
     </row>
@@ -3099,7 +3114,7 @@
         <v>80</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G91" s="2"/>
     </row>
@@ -3114,10 +3129,10 @@
         <v>81</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F92" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3131,7 +3146,7 @@
         <v>82</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3139,7 +3154,7 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E94" s="2"/>
     </row>
@@ -3154,7 +3169,7 @@
         <v>83</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G95" s="2"/>
     </row>
@@ -3169,7 +3184,7 @@
         <v>84</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F96" s="2"/>
     </row>
@@ -3184,7 +3199,7 @@
         <v>85</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F97" s="2"/>
     </row>
@@ -3199,7 +3214,7 @@
         <v>85</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F98" s="2"/>
     </row>
@@ -3229,7 +3244,7 @@
         <v>86</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F100" s="2"/>
     </row>
@@ -3244,7 +3259,7 @@
         <v>86</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F101" s="2"/>
     </row>
@@ -3259,7 +3274,7 @@
         <v>87</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F102" s="2"/>
     </row>
@@ -3277,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3291,7 +3306,7 @@
         <v>89</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F104" s="2"/>
     </row>
@@ -3306,7 +3321,7 @@
         <v>89</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F105" s="2"/>
     </row>
@@ -3321,7 +3336,7 @@
         <v>90</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F106" s="2"/>
     </row>
@@ -3336,7 +3351,7 @@
         <v>91</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F107" s="2"/>
     </row>
@@ -3351,7 +3366,7 @@
         <v>92</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F108" s="2"/>
     </row>
@@ -3366,7 +3381,7 @@
         <v>93</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G109" s="2"/>
     </row>
@@ -3381,7 +3396,7 @@
         <v>94</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F110" s="2"/>
     </row>
@@ -3396,7 +3411,7 @@
         <v>94</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F111" s="2"/>
     </row>
@@ -3411,7 +3426,7 @@
         <v>95</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F112" s="2"/>
     </row>
@@ -3426,7 +3441,7 @@
         <v>96</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F113" s="2"/>
     </row>
@@ -3441,7 +3456,7 @@
         <v>97</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F114" s="2"/>
     </row>
@@ -3459,7 +3474,7 @@
         <v>1</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F115" s="7"/>
     </row>
@@ -3475,7 +3490,7 @@
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F116" s="2"/>
     </row>
@@ -3490,7 +3505,7 @@
         <v>100</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F117" s="2"/>
     </row>
@@ -3505,7 +3520,7 @@
         <v>101</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F118" s="2"/>
     </row>
@@ -3520,7 +3535,7 @@
         <v>102</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F119" s="2"/>
     </row>
@@ -3535,7 +3550,7 @@
         <v>103</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F120" s="2"/>
     </row>
@@ -3551,7 +3566,7 @@
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F121" s="2"/>
     </row>
@@ -3566,7 +3581,7 @@
         <v>105</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G122" s="2"/>
     </row>
@@ -3581,7 +3596,7 @@
         <v>106</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F123" s="2"/>
     </row>
@@ -3596,7 +3611,7 @@
         <v>107</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F124" s="2"/>
     </row>
@@ -3611,7 +3626,7 @@
         <v>108</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F125" s="2"/>
     </row>
@@ -3626,7 +3641,7 @@
         <v>109</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F126" s="2"/>
     </row>
@@ -3644,7 +3659,7 @@
         <v>1</v>
       </c>
       <c r="E127" s="21" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I127" s="21"/>
     </row>
@@ -3659,7 +3674,7 @@
         <v>112</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -3673,7 +3688,7 @@
         <v>113</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F129" s="2"/>
     </row>
@@ -3688,7 +3703,7 @@
         <v>114</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F130" s="2"/>
     </row>
@@ -3703,7 +3718,7 @@
         <v>115</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H131" s="2"/>
     </row>
@@ -3718,7 +3733,7 @@
         <v>115</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F132" s="2"/>
     </row>
@@ -3736,7 +3751,7 @@
         <v>1</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F133" s="7"/>
     </row>
@@ -3751,7 +3766,7 @@
         <v>117</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F134" s="2"/>
     </row>
@@ -3769,7 +3784,7 @@
         <v>1</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F135" s="7"/>
     </row>
@@ -3784,7 +3799,7 @@
         <v>119</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J136" s="2"/>
     </row>
@@ -3826,7 +3841,7 @@
         <v>121</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F139" s="2"/>
     </row>
@@ -3841,7 +3856,7 @@
         <v>121</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F140" s="2"/>
     </row>
@@ -3857,7 +3872,7 @@
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="142" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3874,7 +3889,7 @@
         <v>1</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F142" s="7"/>
     </row>
@@ -3889,7 +3904,7 @@
         <v>194</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F143" s="2"/>
     </row>
@@ -3904,7 +3919,7 @@
         <v>123</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F144" s="2"/>
     </row>
@@ -3919,7 +3934,7 @@
         <v>124</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F145" s="2"/>
     </row>
@@ -3934,7 +3949,7 @@
         <v>125</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F146" s="2"/>
     </row>
@@ -3986,7 +4001,7 @@
         <v>1</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F149" s="7"/>
     </row>
@@ -4001,7 +4016,7 @@
         <v>129</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F150" s="2"/>
     </row>
@@ -4019,7 +4034,7 @@
         <v>1</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F151" s="7"/>
     </row>
@@ -4035,7 +4050,7 @@
       </c>
       <c r="D152" s="18"/>
       <c r="E152" s="17" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F152" s="17"/>
     </row>
@@ -4050,7 +4065,7 @@
         <v>132</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F153" s="2"/>
     </row>
@@ -4065,7 +4080,7 @@
         <v>133</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F154" s="2"/>
     </row>
@@ -4080,7 +4095,7 @@
         <v>134</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F155" s="2"/>
     </row>
@@ -4098,7 +4113,7 @@
         <v>1</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4112,7 +4127,7 @@
         <v>136</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F157" s="2"/>
     </row>
@@ -4130,7 +4145,7 @@
         <v>1</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F158" s="7"/>
     </row>
@@ -4145,7 +4160,7 @@
         <v>138</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F159" s="2"/>
     </row>
@@ -4160,7 +4175,7 @@
         <v>138</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F160" s="2"/>
     </row>
@@ -4175,7 +4190,7 @@
         <v>139</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F161" s="2"/>
     </row>
@@ -4190,7 +4205,7 @@
         <v>140</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F162" s="2"/>
     </row>
@@ -4205,7 +4220,7 @@
         <v>141</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H163" s="2"/>
     </row>
@@ -4220,7 +4235,7 @@
         <v>142</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F164" s="2"/>
     </row>
@@ -4235,7 +4250,7 @@
         <v>143</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F165" s="2"/>
     </row>
@@ -4253,7 +4268,7 @@
         <v>1</v>
       </c>
       <c r="E166" s="21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F166" s="21"/>
     </row>
@@ -4268,7 +4283,7 @@
         <v>145</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F167" s="2"/>
     </row>
@@ -4283,7 +4298,7 @@
         <v>146</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="169" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4300,7 +4315,7 @@
         <v>1</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I169" s="7"/>
     </row>
@@ -4315,7 +4330,7 @@
         <v>148</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F170" s="2"/>
     </row>
@@ -4330,7 +4345,7 @@
         <v>149</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F171" s="2"/>
     </row>
@@ -4360,7 +4375,7 @@
         <v>151</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F173" s="2"/>
     </row>
@@ -4408,7 +4423,7 @@
         <v>155</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F176" s="2"/>
     </row>
@@ -4423,7 +4438,7 @@
         <v>156</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="178" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4455,7 +4470,7 @@
         <v>158</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F179" s="2"/>
     </row>
@@ -4471,7 +4486,7 @@
       </c>
       <c r="D180" s="4"/>
       <c r="E180" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="O180" t="s">
         <v>228</v>
@@ -4488,7 +4503,7 @@
         <v>160</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F181" s="2"/>
     </row>
@@ -4518,7 +4533,7 @@
         <v>162</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H183" s="2"/>
     </row>
@@ -4533,7 +4548,7 @@
         <v>163</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H184" s="2"/>
     </row>
@@ -4581,7 +4596,7 @@
         <v>166</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L187" s="2"/>
     </row>
@@ -4614,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="E189" s="21" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F189" s="21"/>
     </row>
@@ -4632,7 +4647,7 @@
         <v>1</v>
       </c>
       <c r="E190" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F190" s="21"/>
     </row>
@@ -4647,7 +4662,7 @@
         <v>170</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="F191" s="2"/>
     </row>
@@ -4662,7 +4677,7 @@
         <v>171</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F192" s="2"/>
     </row>
@@ -4680,7 +4695,7 @@
         <v>1</v>
       </c>
       <c r="E193" s="21" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F193" s="21"/>
     </row>
@@ -4695,7 +4710,7 @@
         <v>173</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F194" s="2"/>
     </row>
@@ -4726,7 +4741,7 @@
         <v>175</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F196" s="2"/>
     </row>
@@ -4757,7 +4772,7 @@
       </c>
       <c r="D198" s="4"/>
       <c r="E198" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F198" s="2"/>
     </row>
@@ -4785,7 +4800,7 @@
         <v>178</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F200" s="2"/>
     </row>
@@ -4800,7 +4815,7 @@
         <v>179</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F201" s="2"/>
     </row>
@@ -4815,7 +4830,7 @@
         <v>180</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G202" s="2"/>
     </row>
@@ -4844,7 +4859,7 @@
         <v>182</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>271</v>
+        <v>432</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -4858,7 +4873,7 @@
         <v>183</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F205" s="2"/>
     </row>
@@ -4873,7 +4888,7 @@
         <v>184</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -4887,7 +4902,7 @@
         <v>185</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -4901,7 +4916,7 @@
         <v>186</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F208" s="2"/>
     </row>
@@ -4919,17 +4934,17 @@
         <v>1</v>
       </c>
       <c r="E209" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F209" s="7"/>
     </row>
     <row r="210" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C210" s="15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D210" s="16"/>
       <c r="E210" s="17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F210" s="17"/>
     </row>
@@ -4944,7 +4959,7 @@
         <v>188</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F211" s="2"/>
     </row>
@@ -4959,7 +4974,7 @@
         <v>189</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G212" s="2"/>
     </row>
@@ -4986,10 +5001,10 @@
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -5000,10 +5015,10 @@
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="216" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5020,7 +5035,7 @@
         <v>1</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="217" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -5031,11 +5046,11 @@
         <v>1</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D217" s="16"/>
       <c r="E217" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="218" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -5046,11 +5061,11 @@
         <v>1</v>
       </c>
       <c r="C218" s="15" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D218" s="16"/>
       <c r="E218" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -5061,7 +5076,7 @@
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>256</v>
@@ -5075,10 +5090,10 @@
         <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -5089,10 +5104,10 @@
         <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -5103,7 +5118,7 @@
         <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>229</v>
@@ -5117,7 +5132,7 @@
         <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>214</v>
@@ -5131,10 +5146,10 @@
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>225</v>
@@ -5148,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>224</v>
@@ -5162,10 +5177,10 @@
         <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -5176,10 +5191,10 @@
         <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -5190,12 +5205,11 @@
         <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>193</v>
+        <v>433</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F228" s="2"/>
+        <v>356</v>
+      </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
@@ -5205,12 +5219,11 @@
         <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>192</v>
+        <v>437</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="F229" s="2"/>
+        <v>438</v>
+      </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
@@ -5220,68 +5233,126 @@
         <v>1</v>
       </c>
       <c r="C230" t="s">
+        <v>436</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>1</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231" t="s">
+        <v>434</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>1</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232" t="s">
+        <v>193</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F232" s="2"/>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>1</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="C233" t="s">
+        <v>192</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F233" s="2"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>1</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234" t="s">
         <v>191</v>
       </c>
-      <c r="E230" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="F230" s="2"/>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C231" t="s">
-        <v>196</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F231" s="2"/>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C232" t="s">
-        <v>197</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="F232" s="2"/>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C233" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C234" t="s">
-        <v>360</v>
-      </c>
-      <c r="D234" s="4"/>
       <c r="E234" s="2" t="s">
-        <v>361</v>
+        <v>314</v>
       </c>
       <c r="F234" s="2"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C235" t="s">
-        <v>363</v>
-      </c>
-      <c r="E235" t="s">
-        <v>402</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F235" s="2"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C236" t="s">
-        <v>360</v>
+        <v>197</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>384</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="F236" s="2"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C237" t="s">
-        <v>401</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>407</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C238" t="s">
+        <v>358</v>
+      </c>
+      <c r="D238" s="4"/>
+      <c r="E238" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F238" s="2"/>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C239" t="s">
+        <v>361</v>
+      </c>
+      <c r="E239" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C240" t="s">
+        <v>358</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="241" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C241" t="s">
+        <v>399</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>405</v>
       </c>
     </row>
   </sheetData>

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="442">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -924,9 +924,6 @@
     <t>380519940888;50</t>
   </si>
   <si>
-    <t>380519942567;50</t>
-  </si>
-  <si>
     <t>380519945568;50</t>
   </si>
   <si>
@@ -1335,7 +1332,19 @@
     <t>338 dt</t>
   </si>
   <si>
-    <t>??</t>
+    <t>339 дт</t>
+  </si>
+  <si>
+    <t>380688317553;75</t>
+  </si>
+  <si>
+    <t>380983408372;75</t>
+  </si>
+  <si>
+    <t>341 dt</t>
+  </si>
+  <si>
+    <t>380519943696;50</t>
   </si>
 </sst>
 </file>
@@ -1705,10 +1714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O241"/>
+  <dimension ref="A1:O244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D233" sqref="D233"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C240" sqref="C240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1733,7 +1742,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E1" t="s">
         <v>223</v>
@@ -1783,7 +1792,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -1843,7 +1852,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -2041,7 +2050,7 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2259,7 +2268,7 @@
         <v>32</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F34" s="2"/>
     </row>
@@ -2274,7 +2283,7 @@
         <v>32</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F35" s="2"/>
     </row>
@@ -2304,7 +2313,7 @@
         <v>34</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F37" s="2"/>
     </row>
@@ -2319,7 +2328,7 @@
         <v>35</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F38" s="2"/>
     </row>
@@ -2334,7 +2343,7 @@
         <v>36</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F39" s="2"/>
     </row>
@@ -2398,7 +2407,7 @@
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2440,7 +2449,7 @@
         <v>42</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F46" s="2"/>
     </row>
@@ -2583,7 +2592,7 @@
         <v>49</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F55" s="2"/>
     </row>
@@ -2661,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2669,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="14"/>
@@ -2694,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -2796,7 +2805,7 @@
         <v>2</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="14" t="s">
@@ -2831,7 +2840,7 @@
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F72" s="14"/>
     </row>
@@ -2862,7 +2871,7 @@
         <v>64</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F74" s="2"/>
     </row>
@@ -2877,7 +2886,7 @@
         <v>65</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F75" s="2"/>
     </row>
@@ -2907,7 +2916,7 @@
         <v>66</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F77" s="2"/>
     </row>
@@ -2953,7 +2962,7 @@
         <v>69</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2967,7 +2976,7 @@
         <v>70</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G81" s="2"/>
     </row>
@@ -2982,7 +2991,7 @@
         <v>71</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F82" s="2"/>
     </row>
@@ -3012,7 +3021,7 @@
         <v>73</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F84" s="2"/>
     </row>
@@ -3070,7 +3079,7 @@
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3129,10 +3138,10 @@
         <v>81</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F92" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3146,7 +3155,7 @@
         <v>82</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3154,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E94" s="2"/>
     </row>
@@ -3184,7 +3193,7 @@
         <v>84</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F96" s="2"/>
     </row>
@@ -3292,7 +3301,7 @@
         <v>1</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3490,7 +3499,7 @@
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F116" s="2"/>
     </row>
@@ -3520,7 +3529,7 @@
         <v>101</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F118" s="2"/>
     </row>
@@ -3535,7 +3544,7 @@
         <v>102</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F119" s="2"/>
     </row>
@@ -3550,7 +3559,7 @@
         <v>103</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F120" s="2"/>
     </row>
@@ -3566,7 +3575,7 @@
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F121" s="2"/>
     </row>
@@ -3596,7 +3605,7 @@
         <v>106</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F123" s="2"/>
     </row>
@@ -3611,7 +3620,7 @@
         <v>107</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F124" s="2"/>
     </row>
@@ -3626,7 +3635,7 @@
         <v>108</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F125" s="2"/>
     </row>
@@ -3641,7 +3650,7 @@
         <v>109</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F126" s="2"/>
     </row>
@@ -3659,7 +3668,7 @@
         <v>1</v>
       </c>
       <c r="E127" s="21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I127" s="21"/>
     </row>
@@ -3674,7 +3683,7 @@
         <v>112</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -3766,7 +3775,7 @@
         <v>117</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F134" s="2"/>
     </row>
@@ -3784,7 +3793,7 @@
         <v>1</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F135" s="7"/>
     </row>
@@ -3841,7 +3850,7 @@
         <v>121</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F139" s="2"/>
     </row>
@@ -3856,7 +3865,7 @@
         <v>121</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F140" s="2"/>
     </row>
@@ -3872,7 +3881,7 @@
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="142" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3889,7 +3898,7 @@
         <v>1</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F142" s="7"/>
     </row>
@@ -3904,7 +3913,7 @@
         <v>194</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F143" s="2"/>
     </row>
@@ -3919,7 +3928,7 @@
         <v>123</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>301</v>
+        <v>439</v>
       </c>
       <c r="F144" s="2"/>
     </row>
@@ -3934,7 +3943,7 @@
         <v>124</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F145" s="2"/>
     </row>
@@ -3949,7 +3958,7 @@
         <v>125</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F146" s="2"/>
     </row>
@@ -4001,7 +4010,7 @@
         <v>1</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F149" s="7"/>
     </row>
@@ -4016,7 +4025,7 @@
         <v>129</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F150" s="2"/>
     </row>
@@ -4034,7 +4043,7 @@
         <v>1</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F151" s="7"/>
     </row>
@@ -4050,7 +4059,7 @@
       </c>
       <c r="D152" s="18"/>
       <c r="E152" s="17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F152" s="17"/>
     </row>
@@ -4065,7 +4074,7 @@
         <v>132</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F153" s="2"/>
     </row>
@@ -4080,7 +4089,7 @@
         <v>133</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F154" s="2"/>
     </row>
@@ -4095,7 +4104,7 @@
         <v>134</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F155" s="2"/>
     </row>
@@ -4113,7 +4122,7 @@
         <v>1</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4127,7 +4136,7 @@
         <v>136</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F157" s="2"/>
     </row>
@@ -4145,7 +4154,7 @@
         <v>1</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F158" s="7"/>
     </row>
@@ -4160,7 +4169,7 @@
         <v>138</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F159" s="2"/>
     </row>
@@ -4175,7 +4184,7 @@
         <v>138</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F160" s="2"/>
     </row>
@@ -4190,7 +4199,7 @@
         <v>139</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F161" s="2"/>
     </row>
@@ -4205,7 +4214,7 @@
         <v>140</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F162" s="2"/>
     </row>
@@ -4220,7 +4229,7 @@
         <v>141</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H163" s="2"/>
     </row>
@@ -4235,7 +4244,7 @@
         <v>142</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F164" s="2"/>
     </row>
@@ -4250,7 +4259,7 @@
         <v>143</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F165" s="2"/>
     </row>
@@ -4268,7 +4277,7 @@
         <v>1</v>
       </c>
       <c r="E166" s="21" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F166" s="21"/>
     </row>
@@ -4283,7 +4292,7 @@
         <v>145</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F167" s="2"/>
     </row>
@@ -4298,7 +4307,7 @@
         <v>146</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="169" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4315,7 +4324,7 @@
         <v>1</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I169" s="7"/>
     </row>
@@ -4330,7 +4339,7 @@
         <v>148</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F170" s="2"/>
     </row>
@@ -4345,7 +4354,7 @@
         <v>149</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F171" s="2"/>
     </row>
@@ -4375,7 +4384,7 @@
         <v>151</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F173" s="2"/>
     </row>
@@ -4423,7 +4432,7 @@
         <v>155</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F176" s="2"/>
     </row>
@@ -4438,7 +4447,7 @@
         <v>156</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="178" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4470,7 +4479,7 @@
         <v>158</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F179" s="2"/>
     </row>
@@ -4486,7 +4495,7 @@
       </c>
       <c r="D180" s="4"/>
       <c r="E180" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O180" t="s">
         <v>228</v>
@@ -4503,7 +4512,7 @@
         <v>160</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F181" s="2"/>
     </row>
@@ -4533,7 +4542,7 @@
         <v>162</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H183" s="2"/>
     </row>
@@ -4548,7 +4557,7 @@
         <v>163</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H184" s="2"/>
     </row>
@@ -4596,7 +4605,7 @@
         <v>166</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L187" s="2"/>
     </row>
@@ -4629,7 +4638,7 @@
         <v>1</v>
       </c>
       <c r="E189" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F189" s="21"/>
     </row>
@@ -4647,7 +4656,7 @@
         <v>1</v>
       </c>
       <c r="E190" s="21" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F190" s="21"/>
     </row>
@@ -4662,7 +4671,7 @@
         <v>170</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F191" s="2"/>
     </row>
@@ -4677,7 +4686,7 @@
         <v>171</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F192" s="2"/>
     </row>
@@ -4695,7 +4704,7 @@
         <v>1</v>
       </c>
       <c r="E193" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F193" s="21"/>
     </row>
@@ -4710,7 +4719,7 @@
         <v>173</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F194" s="2"/>
     </row>
@@ -4741,7 +4750,7 @@
         <v>175</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F196" s="2"/>
     </row>
@@ -4772,7 +4781,7 @@
       </c>
       <c r="D198" s="4"/>
       <c r="E198" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F198" s="2"/>
     </row>
@@ -4800,7 +4809,7 @@
         <v>178</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F200" s="2"/>
     </row>
@@ -4815,7 +4824,7 @@
         <v>179</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F201" s="2"/>
     </row>
@@ -4830,7 +4839,7 @@
         <v>180</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G202" s="2"/>
     </row>
@@ -4859,7 +4868,7 @@
         <v>182</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -4873,7 +4882,7 @@
         <v>183</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F205" s="2"/>
     </row>
@@ -4888,7 +4897,7 @@
         <v>184</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -4902,7 +4911,7 @@
         <v>185</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -4916,7 +4925,7 @@
         <v>186</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F208" s="2"/>
     </row>
@@ -4934,17 +4943,17 @@
         <v>1</v>
       </c>
       <c r="E209" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F209" s="7"/>
     </row>
     <row r="210" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C210" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D210" s="16"/>
       <c r="E210" s="17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F210" s="17"/>
     </row>
@@ -4959,7 +4968,7 @@
         <v>188</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F211" s="2"/>
     </row>
@@ -4974,7 +4983,7 @@
         <v>189</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G212" s="2"/>
     </row>
@@ -5001,10 +5010,10 @@
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -5015,10 +5024,10 @@
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="216" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5035,7 +5044,7 @@
         <v>1</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="217" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -5046,7 +5055,7 @@
         <v>1</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D217" s="16"/>
       <c r="E217" s="17" t="s">
@@ -5061,11 +5070,11 @@
         <v>1</v>
       </c>
       <c r="C218" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D218" s="16"/>
       <c r="E218" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -5076,7 +5085,7 @@
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>256</v>
@@ -5090,10 +5099,10 @@
         <v>1</v>
       </c>
       <c r="C220" t="s">
+        <v>374</v>
+      </c>
+      <c r="E220" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -5104,10 +5113,10 @@
         <v>1</v>
       </c>
       <c r="C221" t="s">
+        <v>394</v>
+      </c>
+      <c r="E221" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -5118,7 +5127,7 @@
         <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>229</v>
@@ -5132,7 +5141,7 @@
         <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>214</v>
@@ -5146,10 +5155,10 @@
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>225</v>
@@ -5163,10 +5172,10 @@
         <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>224</v>
+        <v>438</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -5177,10 +5186,10 @@
         <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>360</v>
+        <v>224</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -5191,10 +5200,10 @@
         <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>426</v>
+        <v>359</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -5205,10 +5214,10 @@
         <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>356</v>
+        <v>425</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -5219,10 +5228,10 @@
         <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>438</v>
+        <v>355</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -5236,7 +5245,7 @@
         <v>436</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -5247,10 +5256,10 @@
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>435</v>
+        <v>352</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -5261,12 +5270,11 @@
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>193</v>
+        <v>433</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="F232" s="2"/>
+        <v>434</v>
+      </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
@@ -5276,12 +5284,11 @@
         <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>192</v>
+        <v>440</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="F233" s="2"/>
+        <v>441</v>
+      </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
@@ -5291,68 +5298,106 @@
         <v>1</v>
       </c>
       <c r="C234" t="s">
+        <v>193</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F234" s="2"/>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>1</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="C235" t="s">
+        <v>192</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F235" s="2"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>1</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236" t="s">
         <v>191</v>
       </c>
-      <c r="E234" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F234" s="2"/>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C235" t="s">
-        <v>196</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="F235" s="2"/>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C236" t="s">
-        <v>197</v>
-      </c>
       <c r="E236" s="2" t="s">
-        <v>404</v>
+        <v>313</v>
       </c>
       <c r="F236" s="2"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C237" t="s">
-        <v>111</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F237" s="2"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C238" t="s">
-        <v>358</v>
-      </c>
-      <c r="D238" s="4"/>
+        <v>197</v>
+      </c>
       <c r="E238" s="2" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="F238" s="2"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C239" t="s">
-        <v>361</v>
-      </c>
-      <c r="E239" t="s">
-        <v>400</v>
+        <v>111</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C240" t="s">
+        <v>357</v>
+      </c>
+      <c r="D240" s="4"/>
+      <c r="E240" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="E240" s="2" t="s">
-        <v>382</v>
-      </c>
+      <c r="F240" s="2"/>
     </row>
     <row r="241" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C241" t="s">
+        <v>360</v>
+      </c>
+      <c r="E241" t="s">
         <v>399</v>
       </c>
-      <c r="E241" s="2" t="s">
-        <v>405</v>
+    </row>
+    <row r="242" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C242" t="s">
+        <v>357</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="243" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C243" t="s">
+        <v>398</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="244" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C244" t="s">
+        <v>398</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="441">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -693,9 +693,6 @@
     <t>Формат для масового поповнення</t>
   </si>
   <si>
-    <t>380519942587;50</t>
-  </si>
-  <si>
     <t>380519940928;50</t>
   </si>
   <si>
@@ -828,9 +825,6 @@
     <t>380204471276;80</t>
   </si>
   <si>
-    <t>380204471280;80</t>
-  </si>
-  <si>
     <t>380204486369;80</t>
   </si>
   <si>
@@ -1059,9 +1053,6 @@
     <t>380519946255;50</t>
   </si>
   <si>
-    <t>380995501638;35</t>
-  </si>
-  <si>
     <t>380519946242;50</t>
   </si>
   <si>
@@ -1188,9 +1179,6 @@
     <t xml:space="preserve">299 ДТ </t>
   </si>
   <si>
-    <t>380979942568;50</t>
-  </si>
-  <si>
     <t>307 ДТ</t>
   </si>
   <si>
@@ -1290,9 +1278,6 @@
     <t>330 dt</t>
   </si>
   <si>
-    <t>380204471275;90</t>
-  </si>
-  <si>
     <t>334 dt</t>
   </si>
   <si>
@@ -1345,6 +1330,18 @@
   </si>
   <si>
     <t>380519943696;50</t>
+  </si>
+  <si>
+    <t>380519943434;50</t>
+  </si>
+  <si>
+    <t>380995501638;75</t>
+  </si>
+  <si>
+    <t>380979942568;75</t>
+  </si>
+  <si>
+    <t>342 дт</t>
   </si>
 </sst>
 </file>
@@ -1714,10 +1711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O244"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C240" sqref="C240"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C193" sqref="C193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,7 +1739,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E1" t="s">
         <v>223</v>
@@ -1792,7 +1789,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -1841,20 +1838,21 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F8" s="2"/>
+      <c r="D8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -2050,7 +2048,7 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2095,7 +2093,7 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -2237,7 +2235,7 @@
         <v>30</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F32" s="2"/>
     </row>
@@ -2268,7 +2266,7 @@
         <v>32</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F34" s="2"/>
     </row>
@@ -2283,7 +2281,7 @@
         <v>32</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F35" s="2"/>
     </row>
@@ -2313,7 +2311,7 @@
         <v>34</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F37" s="2"/>
     </row>
@@ -2328,7 +2326,7 @@
         <v>35</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F38" s="2"/>
     </row>
@@ -2343,7 +2341,7 @@
         <v>36</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F39" s="2"/>
     </row>
@@ -2358,7 +2356,7 @@
         <v>37</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F40" s="2"/>
     </row>
@@ -2373,7 +2371,7 @@
         <v>37</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F41" s="2"/>
     </row>
@@ -2391,7 +2389,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F42" s="21"/>
     </row>
@@ -2407,7 +2405,7 @@
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2435,7 +2433,7 @@
         <v>41</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2449,7 +2447,7 @@
         <v>42</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F46" s="2"/>
     </row>
@@ -2464,7 +2462,7 @@
         <v>43</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F47" s="2"/>
     </row>
@@ -2482,7 +2480,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F48" s="7"/>
     </row>
@@ -2500,7 +2498,7 @@
         <v>2</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2517,7 +2515,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F50" s="14"/>
     </row>
@@ -2532,7 +2530,7 @@
         <v>46</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F51" s="2"/>
     </row>
@@ -2547,7 +2545,7 @@
         <v>47</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F52" s="2"/>
     </row>
@@ -2562,7 +2560,7 @@
         <v>47</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F53" s="2"/>
     </row>
@@ -2577,7 +2575,7 @@
         <v>48</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F54" s="2"/>
     </row>
@@ -2592,7 +2590,7 @@
         <v>49</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F55" s="2"/>
     </row>
@@ -2607,7 +2605,7 @@
         <v>50</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F56" s="2"/>
     </row>
@@ -2622,7 +2620,7 @@
         <v>51</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F57" s="2"/>
     </row>
@@ -2637,7 +2635,7 @@
         <v>52</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F58" s="2"/>
     </row>
@@ -2652,7 +2650,7 @@
         <v>53</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F59" s="2"/>
     </row>
@@ -2670,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2678,7 +2676,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="14"/>
@@ -2694,7 +2692,7 @@
         <v>55</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F62" s="2"/>
     </row>
@@ -2703,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -2719,7 +2717,7 @@
         <v>56</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J64" s="2"/>
     </row>
@@ -2734,7 +2732,7 @@
         <v>57</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F65" s="2"/>
     </row>
@@ -2749,7 +2747,7 @@
         <v>58</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2763,7 +2761,7 @@
         <v>59</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -2777,7 +2775,7 @@
         <v>60</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F68" s="2"/>
     </row>
@@ -2793,7 +2791,7 @@
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F69" s="14"/>
     </row>
@@ -2805,11 +2803,11 @@
         <v>2</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F70" s="14"/>
     </row>
@@ -2824,7 +2822,7 @@
         <v>62</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F71" s="2"/>
     </row>
@@ -2840,7 +2838,7 @@
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="14" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F72" s="14"/>
     </row>
@@ -2856,7 +2854,7 @@
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F73" s="14"/>
     </row>
@@ -2871,7 +2869,7 @@
         <v>64</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F74" s="2"/>
     </row>
@@ -2886,7 +2884,7 @@
         <v>65</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F75" s="2"/>
     </row>
@@ -2901,7 +2899,7 @@
         <v>66</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F76" s="2"/>
     </row>
@@ -2916,7 +2914,7 @@
         <v>66</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F77" s="2"/>
     </row>
@@ -2931,7 +2929,7 @@
         <v>67</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F78" s="2"/>
     </row>
@@ -2962,7 +2960,7 @@
         <v>69</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2976,7 +2974,7 @@
         <v>70</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G81" s="2"/>
     </row>
@@ -2991,7 +2989,7 @@
         <v>71</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F82" s="2"/>
     </row>
@@ -3006,7 +3004,7 @@
         <v>72</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F83" s="2"/>
     </row>
@@ -3021,7 +3019,7 @@
         <v>73</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F84" s="2"/>
     </row>
@@ -3036,7 +3034,7 @@
         <v>74</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3050,7 +3048,7 @@
         <v>75</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3064,7 +3062,7 @@
         <v>76</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3079,7 +3077,7 @@
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3093,7 +3091,7 @@
         <v>78</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F89" s="2"/>
     </row>
@@ -3108,7 +3106,7 @@
         <v>79</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F90" s="2"/>
     </row>
@@ -3123,25 +3121,28 @@
         <v>80</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>1</v>
-      </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-      <c r="C92" t="s">
+    <row r="92" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="5">
+        <v>1</v>
+      </c>
+      <c r="B92" s="5">
+        <v>1</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F92" t="s">
-        <v>419</v>
+      <c r="D92" s="6">
+        <v>1</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3155,7 +3156,7 @@
         <v>82</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3163,7 +3164,7 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E94" s="2"/>
     </row>
@@ -3178,7 +3179,7 @@
         <v>83</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G95" s="2"/>
     </row>
@@ -3193,7 +3194,7 @@
         <v>84</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F96" s="2"/>
     </row>
@@ -3208,7 +3209,7 @@
         <v>85</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F97" s="2"/>
     </row>
@@ -3223,7 +3224,7 @@
         <v>85</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F98" s="2"/>
     </row>
@@ -3238,7 +3239,7 @@
         <v>153</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F99" s="2"/>
     </row>
@@ -3253,7 +3254,7 @@
         <v>86</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F100" s="2"/>
     </row>
@@ -3268,7 +3269,7 @@
         <v>86</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F101" s="2"/>
     </row>
@@ -3283,7 +3284,7 @@
         <v>87</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F102" s="2"/>
     </row>
@@ -3301,7 +3302,7 @@
         <v>1</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3315,7 +3316,7 @@
         <v>89</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F104" s="2"/>
     </row>
@@ -3330,7 +3331,7 @@
         <v>89</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F105" s="2"/>
     </row>
@@ -3345,7 +3346,7 @@
         <v>90</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F106" s="2"/>
     </row>
@@ -3360,7 +3361,7 @@
         <v>91</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F107" s="2"/>
     </row>
@@ -3375,7 +3376,7 @@
         <v>92</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F108" s="2"/>
     </row>
@@ -3390,7 +3391,7 @@
         <v>93</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G109" s="2"/>
     </row>
@@ -3405,7 +3406,7 @@
         <v>94</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F110" s="2"/>
     </row>
@@ -3420,7 +3421,7 @@
         <v>94</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F111" s="2"/>
     </row>
@@ -3435,7 +3436,7 @@
         <v>95</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F112" s="2"/>
     </row>
@@ -3450,7 +3451,7 @@
         <v>96</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F113" s="2"/>
     </row>
@@ -3465,7 +3466,7 @@
         <v>97</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F114" s="2"/>
     </row>
@@ -3483,7 +3484,7 @@
         <v>1</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F115" s="7"/>
     </row>
@@ -3499,7 +3500,7 @@
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F116" s="2"/>
     </row>
@@ -3514,7 +3515,7 @@
         <v>100</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F117" s="2"/>
     </row>
@@ -3529,7 +3530,7 @@
         <v>101</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F118" s="2"/>
     </row>
@@ -3544,7 +3545,7 @@
         <v>102</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F119" s="2"/>
     </row>
@@ -3559,7 +3560,7 @@
         <v>103</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F120" s="2"/>
     </row>
@@ -3575,7 +3576,7 @@
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F121" s="2"/>
     </row>
@@ -3590,7 +3591,7 @@
         <v>105</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G122" s="2"/>
     </row>
@@ -3605,7 +3606,7 @@
         <v>106</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F123" s="2"/>
     </row>
@@ -3620,7 +3621,7 @@
         <v>107</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F124" s="2"/>
     </row>
@@ -3635,7 +3636,7 @@
         <v>108</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F125" s="2"/>
     </row>
@@ -3650,7 +3651,7 @@
         <v>109</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F126" s="2"/>
     </row>
@@ -3668,7 +3669,7 @@
         <v>1</v>
       </c>
       <c r="E127" s="21" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I127" s="21"/>
     </row>
@@ -3683,7 +3684,7 @@
         <v>112</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -3697,7 +3698,7 @@
         <v>113</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F129" s="2"/>
     </row>
@@ -3712,7 +3713,7 @@
         <v>114</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F130" s="2"/>
     </row>
@@ -3727,7 +3728,7 @@
         <v>115</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H131" s="2"/>
     </row>
@@ -3742,7 +3743,7 @@
         <v>115</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F132" s="2"/>
     </row>
@@ -3760,7 +3761,7 @@
         <v>1</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F133" s="7"/>
     </row>
@@ -3775,7 +3776,7 @@
         <v>117</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F134" s="2"/>
     </row>
@@ -3793,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F135" s="7"/>
     </row>
@@ -3808,7 +3809,7 @@
         <v>119</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J136" s="2"/>
     </row>
@@ -3850,7 +3851,7 @@
         <v>121</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F139" s="2"/>
     </row>
@@ -3865,7 +3866,7 @@
         <v>121</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F140" s="2"/>
     </row>
@@ -3881,7 +3882,7 @@
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="142" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3898,7 +3899,7 @@
         <v>1</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F142" s="7"/>
     </row>
@@ -3913,7 +3914,7 @@
         <v>194</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F143" s="2"/>
     </row>
@@ -3928,7 +3929,7 @@
         <v>123</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F144" s="2"/>
     </row>
@@ -3943,7 +3944,7 @@
         <v>124</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F145" s="2"/>
     </row>
@@ -3958,7 +3959,7 @@
         <v>125</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F146" s="2"/>
     </row>
@@ -3976,7 +3977,7 @@
         <v>1</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F147" s="7"/>
     </row>
@@ -4010,7 +4011,7 @@
         <v>1</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F149" s="7"/>
     </row>
@@ -4025,7 +4026,7 @@
         <v>129</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F150" s="2"/>
     </row>
@@ -4043,7 +4044,7 @@
         <v>1</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F151" s="7"/>
     </row>
@@ -4059,7 +4060,7 @@
       </c>
       <c r="D152" s="18"/>
       <c r="E152" s="17" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F152" s="17"/>
     </row>
@@ -4074,7 +4075,7 @@
         <v>132</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F153" s="2"/>
     </row>
@@ -4089,7 +4090,7 @@
         <v>133</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F154" s="2"/>
     </row>
@@ -4104,7 +4105,7 @@
         <v>134</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F155" s="2"/>
     </row>
@@ -4122,7 +4123,7 @@
         <v>1</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4136,7 +4137,7 @@
         <v>136</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F157" s="2"/>
     </row>
@@ -4154,7 +4155,7 @@
         <v>1</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F158" s="7"/>
     </row>
@@ -4169,7 +4170,7 @@
         <v>138</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F159" s="2"/>
     </row>
@@ -4184,7 +4185,7 @@
         <v>138</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F160" s="2"/>
     </row>
@@ -4199,7 +4200,7 @@
         <v>139</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F161" s="2"/>
     </row>
@@ -4214,7 +4215,7 @@
         <v>140</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F162" s="2"/>
     </row>
@@ -4229,7 +4230,7 @@
         <v>141</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H163" s="2"/>
     </row>
@@ -4244,7 +4245,7 @@
         <v>142</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F164" s="2"/>
     </row>
@@ -4259,7 +4260,7 @@
         <v>143</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F165" s="2"/>
     </row>
@@ -4277,7 +4278,7 @@
         <v>1</v>
       </c>
       <c r="E166" s="21" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F166" s="21"/>
     </row>
@@ -4292,7 +4293,7 @@
         <v>145</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F167" s="2"/>
     </row>
@@ -4307,7 +4308,7 @@
         <v>146</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="169" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4324,7 +4325,7 @@
         <v>1</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I169" s="7"/>
     </row>
@@ -4339,7 +4340,7 @@
         <v>148</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F170" s="2"/>
     </row>
@@ -4354,7 +4355,7 @@
         <v>149</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F171" s="2"/>
     </row>
@@ -4384,7 +4385,7 @@
         <v>151</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F173" s="2"/>
     </row>
@@ -4402,7 +4403,7 @@
         <v>1</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F174" s="7"/>
     </row>
@@ -4417,7 +4418,7 @@
         <v>154</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F175" s="2"/>
     </row>
@@ -4432,7 +4433,7 @@
         <v>155</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F176" s="2"/>
     </row>
@@ -4447,7 +4448,7 @@
         <v>156</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="178" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4464,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F178" s="7"/>
     </row>
@@ -4479,7 +4480,7 @@
         <v>158</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F179" s="2"/>
     </row>
@@ -4495,10 +4496,10 @@
       </c>
       <c r="D180" s="4"/>
       <c r="E180" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="O180" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
@@ -4512,7 +4513,7 @@
         <v>160</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F181" s="2"/>
     </row>
@@ -4527,7 +4528,7 @@
         <v>161</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F182" s="2"/>
     </row>
@@ -4542,7 +4543,7 @@
         <v>162</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H183" s="2"/>
     </row>
@@ -4557,7 +4558,7 @@
         <v>163</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H184" s="2"/>
     </row>
@@ -4575,7 +4576,7 @@
         <v>1</v>
       </c>
       <c r="E185" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F185" s="21"/>
     </row>
@@ -4590,7 +4591,7 @@
         <v>165</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F186" s="2"/>
     </row>
@@ -4605,7 +4606,7 @@
         <v>166</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L187" s="2"/>
     </row>
@@ -4620,7 +4621,7 @@
         <v>167</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F188" s="2"/>
     </row>
@@ -4638,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="E189" s="21" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F189" s="21"/>
     </row>
@@ -4656,7 +4657,7 @@
         <v>1</v>
       </c>
       <c r="E190" s="21" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F190" s="21"/>
     </row>
@@ -4671,7 +4672,7 @@
         <v>170</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F191" s="2"/>
     </row>
@@ -4686,7 +4687,7 @@
         <v>171</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F192" s="2"/>
     </row>
@@ -4704,7 +4705,7 @@
         <v>1</v>
       </c>
       <c r="E193" s="21" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F193" s="21"/>
     </row>
@@ -4719,7 +4720,7 @@
         <v>173</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F194" s="2"/>
     </row>
@@ -4750,7 +4751,7 @@
         <v>175</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>346</v>
+        <v>438</v>
       </c>
       <c r="F196" s="2"/>
     </row>
@@ -4765,7 +4766,7 @@
         <v>176</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>269</v>
+        <v>437</v>
       </c>
       <c r="F197" s="2"/>
     </row>
@@ -4780,9 +4781,7 @@
         <v>177</v>
       </c>
       <c r="D198" s="4"/>
-      <c r="E198" s="2" t="s">
-        <v>423</v>
-      </c>
+      <c r="E198" s="2"/>
       <c r="F198" s="2"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -4809,7 +4808,7 @@
         <v>178</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F200" s="2"/>
     </row>
@@ -4824,7 +4823,7 @@
         <v>179</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F201" s="2"/>
     </row>
@@ -4839,7 +4838,7 @@
         <v>180</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G202" s="2"/>
     </row>
@@ -4854,7 +4853,7 @@
         <v>181</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -4868,7 +4867,7 @@
         <v>182</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -4882,7 +4881,7 @@
         <v>183</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F205" s="2"/>
     </row>
@@ -4897,7 +4896,7 @@
         <v>184</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -4911,7 +4910,7 @@
         <v>185</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -4925,7 +4924,7 @@
         <v>186</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F208" s="2"/>
     </row>
@@ -4943,17 +4942,17 @@
         <v>1</v>
       </c>
       <c r="E209" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F209" s="7"/>
     </row>
     <row r="210" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C210" s="15" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D210" s="16"/>
       <c r="E210" s="17" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="F210" s="17"/>
     </row>
@@ -4968,7 +4967,7 @@
         <v>188</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F211" s="2"/>
     </row>
@@ -4983,7 +4982,7 @@
         <v>189</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G212" s="2"/>
     </row>
@@ -5010,10 +5009,10 @@
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -5024,10 +5023,10 @@
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="216" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5044,7 +5043,7 @@
         <v>1</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="217" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -5055,11 +5054,11 @@
         <v>1</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D217" s="16"/>
       <c r="E217" s="17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="218" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -5070,11 +5069,11 @@
         <v>1</v>
       </c>
       <c r="C218" s="15" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D218" s="16"/>
       <c r="E218" s="17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -5085,10 +5084,10 @@
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -5099,10 +5098,10 @@
         <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -5113,10 +5112,10 @@
         <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -5127,10 +5126,10 @@
         <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -5141,7 +5140,7 @@
         <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>214</v>
@@ -5155,13 +5154,13 @@
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -5172,25 +5171,26 @@
         <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>1</v>
-      </c>
-      <c r="B226">
-        <v>1</v>
-      </c>
-      <c r="C226" t="s">
-        <v>422</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>224</v>
-      </c>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="5">
+        <v>1</v>
+      </c>
+      <c r="B226" s="5">
+        <v>1</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="D226" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E226" s="7"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
@@ -5200,10 +5200,10 @@
         <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -5214,10 +5214,10 @@
         <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -5228,10 +5228,10 @@
         <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -5242,10 +5242,10 @@
         <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -5256,10 +5256,10 @@
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -5270,10 +5270,10 @@
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -5284,10 +5284,10 @@
         <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -5298,12 +5298,11 @@
         <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>193</v>
+        <v>440</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="F234" s="2"/>
+        <v>325</v>
+      </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
@@ -5313,10 +5312,10 @@
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="F235" s="2"/>
     </row>
@@ -5328,76 +5327,91 @@
         <v>1</v>
       </c>
       <c r="C236" t="s">
+        <v>192</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F236" s="2"/>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>1</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+      <c r="C237" t="s">
         <v>191</v>
       </c>
-      <c r="E236" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="F236" s="2"/>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C237" t="s">
-        <v>196</v>
-      </c>
       <c r="E237" s="2" t="s">
-        <v>369</v>
+        <v>311</v>
       </c>
       <c r="F237" s="2"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C238" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>403</v>
+        <v>366</v>
       </c>
       <c r="F238" s="2"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C239" t="s">
-        <v>111</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F239" s="2"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C240" t="s">
-        <v>357</v>
-      </c>
-      <c r="D240" s="4"/>
-      <c r="E240" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="F240" s="2"/>
-    </row>
-    <row r="241" spans="3:5" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="241" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C241" t="s">
-        <v>360</v>
-      </c>
-      <c r="E241" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="242" spans="3:5" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="D241" s="4"/>
+      <c r="E241" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F241" s="2"/>
+    </row>
+    <row r="242" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C242" t="s">
         <v>357</v>
       </c>
-      <c r="E242" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="243" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E242" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="243" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C243" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="244" spans="3:5" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="244" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C244" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>304</v>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="245" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C245" t="s">
+        <v>394</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="442">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -1059,9 +1059,6 @@
     <t>380519946239;50</t>
   </si>
   <si>
-    <t>380687916113;70</t>
-  </si>
-  <si>
     <t>380519948396;20</t>
   </si>
   <si>
@@ -1098,18 +1095,9 @@
     <t>380204451801;80</t>
   </si>
   <si>
-    <t>380680173881;65</t>
-  </si>
-  <si>
     <t>380680563089;65</t>
   </si>
   <si>
-    <t>380983144959;65</t>
-  </si>
-  <si>
-    <t>380680174094;65</t>
-  </si>
-  <si>
     <t>380962607284;75</t>
   </si>
   <si>
@@ -1128,30 +1116,12 @@
     <t>380204432508;80</t>
   </si>
   <si>
-    <t>380983386478;50</t>
-  </si>
-  <si>
     <t xml:space="preserve">322 ДТ Біла Церква </t>
   </si>
   <si>
     <t xml:space="preserve">323 ДТ Фастів </t>
   </si>
   <si>
-    <t>380966558607;50</t>
-  </si>
-  <si>
-    <t>380984291290;50</t>
-  </si>
-  <si>
-    <t>380983389176;50</t>
-  </si>
-  <si>
-    <t>380689382526;50</t>
-  </si>
-  <si>
-    <t>380984206369;50</t>
-  </si>
-  <si>
     <t>380984292461;50</t>
   </si>
   <si>
@@ -1194,9 +1164,6 @@
     <t>324 DT</t>
   </si>
   <si>
-    <t>380983389781;50</t>
-  </si>
-  <si>
     <t>325 DT</t>
   </si>
   <si>
@@ -1206,12 +1173,6 @@
     <t>Мішеніна Ліана Миколаївна</t>
   </si>
   <si>
-    <t>380519946062;50 до 10.18</t>
-  </si>
-  <si>
-    <t>380985736452;50</t>
-  </si>
-  <si>
     <t>380631198247;75</t>
   </si>
   <si>
@@ -1257,9 +1218,6 @@
     <t>380519940945;50</t>
   </si>
   <si>
-    <t>38‎0968561300;50</t>
-  </si>
-  <si>
     <t>380204471288;50</t>
   </si>
   <si>
@@ -1269,9 +1227,6 @@
     <t>був '380968561300;75</t>
   </si>
   <si>
-    <t>380685231532;55</t>
-  </si>
-  <si>
     <t>380995501677;75</t>
   </si>
   <si>
@@ -1342,6 +1297,54 @@
   </si>
   <si>
     <t>342 дт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">344 dt </t>
+  </si>
+  <si>
+    <t>380519946062;50</t>
+  </si>
+  <si>
+    <t>380983389781;75</t>
+  </si>
+  <si>
+    <t>380966558607;75</t>
+  </si>
+  <si>
+    <t>380983386478;75</t>
+  </si>
+  <si>
+    <t>380687916113;75</t>
+  </si>
+  <si>
+    <t>380685231532;75</t>
+  </si>
+  <si>
+    <t>380983389176;75</t>
+  </si>
+  <si>
+    <t>380680174094;75</t>
+  </si>
+  <si>
+    <t>38‎0968561300;75</t>
+  </si>
+  <si>
+    <t>380983144959;75</t>
+  </si>
+  <si>
+    <t>380680173881;75</t>
+  </si>
+  <si>
+    <t>380984206369;75</t>
+  </si>
+  <si>
+    <t>380984291290;75</t>
+  </si>
+  <si>
+    <t>380689382526;75</t>
+  </si>
+  <si>
+    <t>380985736452;75</t>
   </si>
 </sst>
 </file>
@@ -1711,10 +1714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O245"/>
+  <dimension ref="A1:O247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C193" sqref="C193"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1739,7 +1742,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E1" t="s">
         <v>223</v>
@@ -1789,7 +1792,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -2048,7 +2051,7 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2266,7 +2269,7 @@
         <v>32</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F34" s="2"/>
     </row>
@@ -2281,7 +2284,7 @@
         <v>32</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F35" s="2"/>
     </row>
@@ -2311,7 +2314,7 @@
         <v>34</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="F37" s="2"/>
     </row>
@@ -2326,7 +2329,7 @@
         <v>35</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="F38" s="2"/>
     </row>
@@ -2341,7 +2344,7 @@
         <v>36</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="F39" s="2"/>
     </row>
@@ -2405,7 +2408,7 @@
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2447,7 +2450,7 @@
         <v>42</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F46" s="2"/>
     </row>
@@ -2590,7 +2593,7 @@
         <v>49</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>375</v>
+        <v>440</v>
       </c>
       <c r="F55" s="2"/>
     </row>
@@ -2668,7 +2671,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2676,7 +2679,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="14"/>
@@ -2701,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -2803,7 +2806,7 @@
         <v>2</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="14" t="s">
@@ -2838,7 +2841,7 @@
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F72" s="14"/>
     </row>
@@ -2869,7 +2872,7 @@
         <v>64</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="F74" s="2"/>
     </row>
@@ -2884,7 +2887,7 @@
         <v>65</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F75" s="2"/>
     </row>
@@ -2914,7 +2917,7 @@
         <v>66</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="F77" s="2"/>
     </row>
@@ -2960,7 +2963,7 @@
         <v>69</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>373</v>
+        <v>439</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2974,7 +2977,7 @@
         <v>70</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="G81" s="2"/>
     </row>
@@ -2989,7 +2992,7 @@
         <v>71</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>376</v>
+        <v>438</v>
       </c>
       <c r="F82" s="2"/>
     </row>
@@ -3019,7 +3022,7 @@
         <v>73</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="F84" s="2"/>
     </row>
@@ -3077,7 +3080,7 @@
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="2" t="s">
-        <v>359</v>
+        <v>437</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3139,10 +3142,10 @@
         <v>1</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3156,7 +3159,7 @@
         <v>82</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3164,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="E94" s="2"/>
     </row>
@@ -3194,7 +3197,7 @@
         <v>84</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="F96" s="2"/>
     </row>
@@ -3213,20 +3216,15 @@
       </c>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>1</v>
-      </c>
-      <c r="B98">
-        <v>2</v>
-      </c>
-      <c r="C98" t="s">
+    <row r="98" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C98" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="F98" s="2"/>
+      <c r="D98" s="6">
+        <v>1</v>
+      </c>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
@@ -3302,7 +3300,7 @@
         <v>1</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3500,7 +3498,7 @@
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F116" s="2"/>
     </row>
@@ -3576,7 +3574,7 @@
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F121" s="2"/>
     </row>
@@ -3636,7 +3634,7 @@
         <v>108</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="F125" s="2"/>
     </row>
@@ -3669,7 +3667,7 @@
         <v>1</v>
       </c>
       <c r="E127" s="21" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I127" s="21"/>
     </row>
@@ -3684,7 +3682,7 @@
         <v>112</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -3882,7 +3880,7 @@
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="2" t="s">
-        <v>361</v>
+        <v>436</v>
       </c>
     </row>
     <row r="142" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3929,7 +3927,7 @@
         <v>123</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="F144" s="2"/>
     </row>
@@ -4060,7 +4058,7 @@
       </c>
       <c r="D152" s="18"/>
       <c r="E152" s="17" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="F152" s="17"/>
     </row>
@@ -4433,7 +4431,7 @@
         <v>155</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>362</v>
+        <v>434</v>
       </c>
       <c r="F176" s="2"/>
     </row>
@@ -4480,7 +4478,7 @@
         <v>158</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="F179" s="2"/>
     </row>
@@ -4496,7 +4494,7 @@
       </c>
       <c r="D180" s="4"/>
       <c r="E180" s="2" t="s">
-        <v>374</v>
+        <v>433</v>
       </c>
       <c r="O180" t="s">
         <v>227</v>
@@ -4513,7 +4511,7 @@
         <v>160</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="F181" s="2"/>
     </row>
@@ -4639,7 +4637,7 @@
         <v>1</v>
       </c>
       <c r="E189" s="21" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F189" s="21"/>
     </row>
@@ -4687,7 +4685,7 @@
         <v>171</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="F192" s="2"/>
     </row>
@@ -4720,7 +4718,7 @@
         <v>173</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="F194" s="2"/>
     </row>
@@ -4751,7 +4749,7 @@
         <v>175</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="F196" s="2"/>
     </row>
@@ -4766,7 +4764,7 @@
         <v>176</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="F197" s="2"/>
     </row>
@@ -4823,7 +4821,7 @@
         <v>179</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="F201" s="2"/>
     </row>
@@ -4867,7 +4865,7 @@
         <v>182</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -4881,7 +4879,7 @@
         <v>183</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>346</v>
+        <v>431</v>
       </c>
       <c r="F205" s="2"/>
     </row>
@@ -4896,7 +4894,7 @@
         <v>184</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -4910,7 +4908,7 @@
         <v>185</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -4924,7 +4922,7 @@
         <v>186</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F208" s="2"/>
     </row>
@@ -4942,17 +4940,17 @@
         <v>1</v>
       </c>
       <c r="E209" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F209" s="7"/>
     </row>
     <row r="210" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C210" s="15" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="D210" s="16"/>
       <c r="E210" s="17" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="F210" s="17"/>
     </row>
@@ -4967,7 +4965,7 @@
         <v>188</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="F211" s="2"/>
     </row>
@@ -4982,7 +4980,7 @@
         <v>189</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>369</v>
+        <v>430</v>
       </c>
       <c r="G212" s="2"/>
     </row>
@@ -5009,7 +5007,7 @@
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>300</v>
@@ -5023,10 +5021,10 @@
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="216" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5043,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="217" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -5054,7 +5052,7 @@
         <v>1</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="D217" s="16"/>
       <c r="E217" s="17" t="s">
@@ -5069,7 +5067,7 @@
         <v>1</v>
       </c>
       <c r="C218" s="15" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="D218" s="16"/>
       <c r="E218" s="17" t="s">
@@ -5084,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>255</v>
@@ -5098,10 +5096,10 @@
         <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>372</v>
+        <v>429</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -5112,10 +5110,10 @@
         <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>391</v>
+        <v>428</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -5126,7 +5124,7 @@
         <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>228</v>
@@ -5140,7 +5138,7 @@
         <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>214</v>
@@ -5154,10 +5152,10 @@
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>224</v>
@@ -5171,10 +5169,10 @@
         <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
     </row>
     <row r="226" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5185,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="D226" s="6">
         <v>-1</v>
@@ -5200,10 +5198,10 @@
         <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -5214,10 +5212,10 @@
         <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -5228,10 +5226,10 @@
         <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -5242,7 +5240,7 @@
         <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>342</v>
@@ -5256,10 +5254,10 @@
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -5270,10 +5268,10 @@
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -5284,10 +5282,10 @@
         <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -5298,7 +5296,7 @@
         <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>325</v>
@@ -5312,27 +5310,25 @@
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>193</v>
+        <v>426</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F235" s="2"/>
+        <v>302</v>
+      </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C236" t="s">
-        <v>192</v>
+        <v>426</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F236" s="2"/>
+        <v>275</v>
+      </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
@@ -5342,77 +5338,102 @@
         <v>1</v>
       </c>
       <c r="C237" t="s">
+        <v>193</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F237" s="2"/>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>1</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+      <c r="C238" t="s">
+        <v>192</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F238" s="2"/>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>1</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239" t="s">
         <v>191</v>
       </c>
-      <c r="E237" s="2" t="s">
+      <c r="E239" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="F237" s="2"/>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C238" t="s">
-        <v>196</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F238" s="2"/>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C239" t="s">
-        <v>197</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="F239" s="2"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C240" t="s">
-        <v>111</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F240" s="2"/>
     </row>
     <row r="241" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C241" t="s">
-        <v>354</v>
-      </c>
-      <c r="D241" s="4"/>
+        <v>197</v>
+      </c>
       <c r="E241" s="2" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="F241" s="2"/>
     </row>
     <row r="242" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C242" t="s">
-        <v>357</v>
-      </c>
-      <c r="E242" t="s">
-        <v>395</v>
+        <v>111</v>
       </c>
     </row>
     <row r="243" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C243" t="s">
+        <v>353</v>
+      </c>
+      <c r="D243" s="4"/>
+      <c r="E243" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E243" s="2" t="s">
-        <v>378</v>
-      </c>
+      <c r="F243" s="2"/>
     </row>
     <row r="244" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C244" t="s">
-        <v>394</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>400</v>
+        <v>356</v>
+      </c>
+      <c r="E244" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="245" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C245" t="s">
-        <v>394</v>
+        <v>353</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>302</v>
-      </c>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="246" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C246" t="s">
+        <v>383</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="247" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E247" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:D224">

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -1326,9 +1326,6 @@
     <t>380680174094;75</t>
   </si>
   <si>
-    <t>38‎0968561300;75</t>
-  </si>
-  <si>
     <t>380983144959;75</t>
   </si>
   <si>
@@ -1345,6 +1342,9 @@
   </si>
   <si>
     <t>380985736452;75</t>
+  </si>
+  <si>
+    <t>380968561300;75</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1434,6 +1434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1716,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O247"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E181" sqref="E181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2329,7 +2330,7 @@
         <v>35</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F38" s="2"/>
     </row>
@@ -2593,7 +2594,7 @@
         <v>49</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F55" s="2"/>
     </row>
@@ -2963,7 +2964,7 @@
         <v>69</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2992,7 +2993,7 @@
         <v>71</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F82" s="2"/>
     </row>
@@ -3080,7 +3081,7 @@
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3880,7 +3881,7 @@
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="142" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4057,8 +4058,8 @@
         <v>131</v>
       </c>
       <c r="D152" s="18"/>
-      <c r="E152" s="17" t="s">
-        <v>435</v>
+      <c r="E152" s="24" t="s">
+        <v>441</v>
       </c>
       <c r="F152" s="17"/>
     </row>

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="442">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -675,9 +675,6 @@
     <t>380519943686;50</t>
   </si>
   <si>
-    <t>380519940988;50</t>
-  </si>
-  <si>
     <t>380519946055;50</t>
   </si>
   <si>
@@ -1176,18 +1173,12 @@
     <t>380631198247;75</t>
   </si>
   <si>
-    <t>380204460032;80</t>
-  </si>
-  <si>
     <t>380506302977;50</t>
   </si>
   <si>
     <t>380519942592;50</t>
   </si>
   <si>
-    <t>380978677571;95</t>
-  </si>
-  <si>
     <t>380687916193;75</t>
   </si>
   <si>
@@ -1345,6 +1336,15 @@
   </si>
   <si>
     <t>380968561300;75</t>
+  </si>
+  <si>
+    <t>380204471275;80</t>
+  </si>
+  <si>
+    <t>346 дт</t>
+  </si>
+  <si>
+    <t>380978677571;65 ок</t>
   </si>
 </sst>
 </file>
@@ -1715,10 +1715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O247"/>
+  <dimension ref="A1:O248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E181" sqref="E181"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1743,10 +1743,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1793,7 +1793,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -2145,7 +2145,7 @@
         <v>25</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F26" s="2"/>
     </row>
@@ -2175,7 +2175,7 @@
         <v>26</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>218</v>
+        <v>327</v>
       </c>
       <c r="F28" s="2"/>
     </row>
@@ -2193,7 +2193,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -2209,7 +2209,7 @@
         <v>28</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F30" s="2"/>
     </row>
@@ -2224,7 +2224,7 @@
         <v>29</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F31" s="2"/>
     </row>
@@ -2239,7 +2239,7 @@
         <v>30</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F32" s="2"/>
     </row>
@@ -2270,7 +2270,7 @@
         <v>32</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F34" s="2"/>
     </row>
@@ -2285,7 +2285,7 @@
         <v>32</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F35" s="2"/>
     </row>
@@ -2315,7 +2315,7 @@
         <v>34</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F37" s="2"/>
     </row>
@@ -2330,7 +2330,7 @@
         <v>35</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F38" s="2"/>
     </row>
@@ -2345,7 +2345,7 @@
         <v>36</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F39" s="2"/>
     </row>
@@ -2360,7 +2360,7 @@
         <v>37</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F40" s="2"/>
     </row>
@@ -2375,7 +2375,7 @@
         <v>37</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F41" s="2"/>
     </row>
@@ -2393,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F42" s="21"/>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2437,7 +2437,7 @@
         <v>41</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2451,7 +2451,7 @@
         <v>42</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F46" s="2"/>
     </row>
@@ -2466,7 +2466,7 @@
         <v>43</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F47" s="2"/>
     </row>
@@ -2484,7 +2484,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F48" s="7"/>
     </row>
@@ -2502,7 +2502,7 @@
         <v>2</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2519,7 +2519,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F50" s="14"/>
     </row>
@@ -2534,7 +2534,7 @@
         <v>46</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F51" s="2"/>
     </row>
@@ -2549,7 +2549,7 @@
         <v>47</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F52" s="2"/>
     </row>
@@ -2564,7 +2564,7 @@
         <v>47</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F53" s="2"/>
     </row>
@@ -2579,7 +2579,7 @@
         <v>48</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F54" s="2"/>
     </row>
@@ -2594,7 +2594,7 @@
         <v>49</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F55" s="2"/>
     </row>
@@ -2609,7 +2609,7 @@
         <v>50</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F56" s="2"/>
     </row>
@@ -2624,7 +2624,7 @@
         <v>51</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F57" s="2"/>
     </row>
@@ -2639,7 +2639,7 @@
         <v>52</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F58" s="2"/>
     </row>
@@ -2654,7 +2654,7 @@
         <v>53</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F59" s="2"/>
     </row>
@@ -2672,7 +2672,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2680,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="14"/>
@@ -2696,7 +2696,7 @@
         <v>55</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F62" s="2"/>
     </row>
@@ -2705,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -2721,7 +2721,7 @@
         <v>56</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J64" s="2"/>
     </row>
@@ -2736,7 +2736,7 @@
         <v>57</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F65" s="2"/>
     </row>
@@ -2751,7 +2751,7 @@
         <v>58</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2765,7 +2765,7 @@
         <v>59</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -2779,7 +2779,7 @@
         <v>60</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F68" s="2"/>
     </row>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F69" s="14"/>
     </row>
@@ -2807,11 +2807,11 @@
         <v>2</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F70" s="14"/>
     </row>
@@ -2826,7 +2826,7 @@
         <v>62</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F71" s="2"/>
     </row>
@@ -2842,7 +2842,7 @@
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F72" s="14"/>
     </row>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F73" s="14"/>
     </row>
@@ -2873,7 +2873,7 @@
         <v>64</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F74" s="2"/>
     </row>
@@ -2888,7 +2888,7 @@
         <v>65</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F75" s="2"/>
     </row>
@@ -2903,7 +2903,7 @@
         <v>66</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F76" s="2"/>
     </row>
@@ -2918,7 +2918,7 @@
         <v>66</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F77" s="2"/>
     </row>
@@ -2933,7 +2933,7 @@
         <v>67</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F78" s="2"/>
     </row>
@@ -2964,7 +2964,7 @@
         <v>69</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2978,7 +2978,7 @@
         <v>70</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>388</v>
+        <v>441</v>
       </c>
       <c r="G81" s="2"/>
     </row>
@@ -2993,7 +2993,7 @@
         <v>71</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F82" s="2"/>
     </row>
@@ -3008,7 +3008,7 @@
         <v>72</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F83" s="2"/>
     </row>
@@ -3023,7 +3023,7 @@
         <v>73</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F84" s="2"/>
     </row>
@@ -3038,7 +3038,7 @@
         <v>74</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3052,7 +3052,7 @@
         <v>75</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3066,7 +3066,7 @@
         <v>76</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3095,7 +3095,7 @@
         <v>78</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F89" s="2"/>
     </row>
@@ -3110,7 +3110,7 @@
         <v>79</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F90" s="2"/>
     </row>
@@ -3125,7 +3125,7 @@
         <v>80</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G91" s="2"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3160,7 +3160,7 @@
         <v>82</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3168,7 +3168,7 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E94" s="2"/>
     </row>
@@ -3183,7 +3183,7 @@
         <v>83</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G95" s="2"/>
     </row>
@@ -3198,7 +3198,7 @@
         <v>84</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F96" s="2"/>
     </row>
@@ -3213,7 +3213,7 @@
         <v>85</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F97" s="2"/>
     </row>
@@ -3238,7 +3238,7 @@
         <v>153</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F99" s="2"/>
     </row>
@@ -3253,7 +3253,7 @@
         <v>86</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F100" s="2"/>
     </row>
@@ -3268,7 +3268,7 @@
         <v>86</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F101" s="2"/>
     </row>
@@ -3283,7 +3283,7 @@
         <v>87</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F102" s="2"/>
     </row>
@@ -3301,7 +3301,7 @@
         <v>1</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3315,7 +3315,7 @@
         <v>89</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F104" s="2"/>
     </row>
@@ -3330,7 +3330,7 @@
         <v>89</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F105" s="2"/>
     </row>
@@ -3345,7 +3345,7 @@
         <v>90</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F106" s="2"/>
     </row>
@@ -3360,7 +3360,7 @@
         <v>91</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F107" s="2"/>
     </row>
@@ -3375,7 +3375,7 @@
         <v>92</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F108" s="2"/>
     </row>
@@ -3390,7 +3390,7 @@
         <v>93</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G109" s="2"/>
     </row>
@@ -3405,7 +3405,7 @@
         <v>94</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F110" s="2"/>
     </row>
@@ -3420,7 +3420,7 @@
         <v>94</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F111" s="2"/>
     </row>
@@ -3435,7 +3435,7 @@
         <v>95</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F112" s="2"/>
     </row>
@@ -3450,7 +3450,7 @@
         <v>96</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F113" s="2"/>
     </row>
@@ -3465,7 +3465,7 @@
         <v>97</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F114" s="2"/>
     </row>
@@ -3483,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F115" s="7"/>
     </row>
@@ -3499,7 +3499,7 @@
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F116" s="2"/>
     </row>
@@ -3514,7 +3514,7 @@
         <v>100</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F117" s="2"/>
     </row>
@@ -3529,7 +3529,7 @@
         <v>101</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F118" s="2"/>
     </row>
@@ -3544,7 +3544,7 @@
         <v>102</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F119" s="2"/>
     </row>
@@ -3559,7 +3559,7 @@
         <v>103</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F120" s="2"/>
     </row>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F121" s="2"/>
     </row>
@@ -3590,7 +3590,7 @@
         <v>105</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G122" s="2"/>
     </row>
@@ -3605,7 +3605,7 @@
         <v>106</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F123" s="2"/>
     </row>
@@ -3620,7 +3620,7 @@
         <v>107</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F124" s="2"/>
     </row>
@@ -3635,7 +3635,7 @@
         <v>108</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F125" s="2"/>
     </row>
@@ -3650,7 +3650,7 @@
         <v>109</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F126" s="2"/>
     </row>
@@ -3668,7 +3668,7 @@
         <v>1</v>
       </c>
       <c r="E127" s="21" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I127" s="21"/>
     </row>
@@ -3683,7 +3683,7 @@
         <v>112</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -3697,7 +3697,7 @@
         <v>113</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F129" s="2"/>
     </row>
@@ -3712,7 +3712,7 @@
         <v>114</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F130" s="2"/>
     </row>
@@ -3727,7 +3727,7 @@
         <v>115</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H131" s="2"/>
     </row>
@@ -3742,7 +3742,7 @@
         <v>115</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F132" s="2"/>
     </row>
@@ -3760,7 +3760,7 @@
         <v>1</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F133" s="7"/>
     </row>
@@ -3775,7 +3775,7 @@
         <v>117</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F134" s="2"/>
     </row>
@@ -3793,7 +3793,7 @@
         <v>1</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F135" s="7"/>
     </row>
@@ -3808,7 +3808,7 @@
         <v>119</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J136" s="2"/>
     </row>
@@ -3850,7 +3850,7 @@
         <v>121</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F139" s="2"/>
     </row>
@@ -3865,7 +3865,7 @@
         <v>121</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F140" s="2"/>
     </row>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="142" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3898,7 +3898,7 @@
         <v>1</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F142" s="7"/>
     </row>
@@ -3913,7 +3913,7 @@
         <v>194</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F143" s="2"/>
     </row>
@@ -3928,7 +3928,7 @@
         <v>123</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F144" s="2"/>
     </row>
@@ -3943,7 +3943,7 @@
         <v>124</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F145" s="2"/>
     </row>
@@ -3958,7 +3958,7 @@
         <v>125</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F146" s="2"/>
     </row>
@@ -3976,7 +3976,7 @@
         <v>1</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F147" s="7"/>
     </row>
@@ -4010,7 +4010,7 @@
         <v>1</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F149" s="7"/>
     </row>
@@ -4025,7 +4025,7 @@
         <v>129</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F150" s="2"/>
     </row>
@@ -4043,7 +4043,7 @@
         <v>1</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F151" s="7"/>
     </row>
@@ -4059,7 +4059,7 @@
       </c>
       <c r="D152" s="18"/>
       <c r="E152" s="24" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F152" s="17"/>
     </row>
@@ -4074,7 +4074,7 @@
         <v>132</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F153" s="2"/>
     </row>
@@ -4089,7 +4089,7 @@
         <v>133</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F154" s="2"/>
     </row>
@@ -4104,7 +4104,7 @@
         <v>134</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F155" s="2"/>
     </row>
@@ -4122,7 +4122,7 @@
         <v>1</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4136,7 +4136,7 @@
         <v>136</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F157" s="2"/>
     </row>
@@ -4154,7 +4154,7 @@
         <v>1</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F158" s="7"/>
     </row>
@@ -4169,7 +4169,7 @@
         <v>138</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F159" s="2"/>
     </row>
@@ -4184,7 +4184,7 @@
         <v>138</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F160" s="2"/>
     </row>
@@ -4199,7 +4199,7 @@
         <v>139</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F161" s="2"/>
     </row>
@@ -4214,7 +4214,7 @@
         <v>140</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F162" s="2"/>
     </row>
@@ -4229,7 +4229,7 @@
         <v>141</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H163" s="2"/>
     </row>
@@ -4244,7 +4244,7 @@
         <v>142</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F164" s="2"/>
     </row>
@@ -4259,7 +4259,7 @@
         <v>143</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F165" s="2"/>
     </row>
@@ -4277,7 +4277,7 @@
         <v>1</v>
       </c>
       <c r="E166" s="21" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F166" s="21"/>
     </row>
@@ -4292,7 +4292,7 @@
         <v>145</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F167" s="2"/>
     </row>
@@ -4307,7 +4307,7 @@
         <v>146</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="169" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4324,7 +4324,7 @@
         <v>1</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I169" s="7"/>
     </row>
@@ -4339,7 +4339,7 @@
         <v>148</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F170" s="2"/>
     </row>
@@ -4354,7 +4354,7 @@
         <v>149</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F171" s="2"/>
     </row>
@@ -4369,7 +4369,7 @@
         <v>150</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F172" s="2"/>
     </row>
@@ -4384,7 +4384,7 @@
         <v>151</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F173" s="2"/>
     </row>
@@ -4402,7 +4402,7 @@
         <v>1</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F174" s="7"/>
     </row>
@@ -4417,7 +4417,7 @@
         <v>154</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F175" s="2"/>
     </row>
@@ -4432,7 +4432,7 @@
         <v>155</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F176" s="2"/>
     </row>
@@ -4447,7 +4447,7 @@
         <v>156</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="178" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4464,7 +4464,7 @@
         <v>1</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F178" s="7"/>
     </row>
@@ -4479,7 +4479,7 @@
         <v>158</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F179" s="2"/>
     </row>
@@ -4495,10 +4495,10 @@
       </c>
       <c r="D180" s="4"/>
       <c r="E180" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="O180" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
@@ -4512,7 +4512,7 @@
         <v>160</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>385</v>
+        <v>439</v>
       </c>
       <c r="F181" s="2"/>
     </row>
@@ -4527,7 +4527,7 @@
         <v>161</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F182" s="2"/>
     </row>
@@ -4542,7 +4542,7 @@
         <v>162</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H183" s="2"/>
     </row>
@@ -4557,7 +4557,7 @@
         <v>163</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H184" s="2"/>
     </row>
@@ -4575,7 +4575,7 @@
         <v>1</v>
       </c>
       <c r="E185" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F185" s="21"/>
     </row>
@@ -4590,7 +4590,7 @@
         <v>165</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F186" s="2"/>
     </row>
@@ -4605,7 +4605,7 @@
         <v>166</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L187" s="2"/>
     </row>
@@ -4620,7 +4620,7 @@
         <v>167</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F188" s="2"/>
     </row>
@@ -4638,7 +4638,7 @@
         <v>1</v>
       </c>
       <c r="E189" s="21" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F189" s="21"/>
     </row>
@@ -4656,7 +4656,7 @@
         <v>1</v>
       </c>
       <c r="E190" s="21" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F190" s="21"/>
     </row>
@@ -4671,7 +4671,7 @@
         <v>170</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F191" s="2"/>
     </row>
@@ -4686,7 +4686,7 @@
         <v>171</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F192" s="2"/>
     </row>
@@ -4704,7 +4704,7 @@
         <v>1</v>
       </c>
       <c r="E193" s="21" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F193" s="21"/>
     </row>
@@ -4719,7 +4719,7 @@
         <v>173</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F194" s="2"/>
     </row>
@@ -4750,7 +4750,7 @@
         <v>175</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F196" s="2"/>
     </row>
@@ -4765,7 +4765,7 @@
         <v>176</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F197" s="2"/>
     </row>
@@ -4807,7 +4807,7 @@
         <v>178</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F200" s="2"/>
     </row>
@@ -4822,7 +4822,7 @@
         <v>179</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F201" s="2"/>
     </row>
@@ -4837,7 +4837,7 @@
         <v>180</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G202" s="2"/>
     </row>
@@ -4852,7 +4852,7 @@
         <v>181</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -4866,7 +4866,7 @@
         <v>182</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -4880,7 +4880,7 @@
         <v>183</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F205" s="2"/>
     </row>
@@ -4895,7 +4895,7 @@
         <v>184</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -4909,7 +4909,7 @@
         <v>185</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -4923,7 +4923,7 @@
         <v>186</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F208" s="2"/>
     </row>
@@ -4941,17 +4941,17 @@
         <v>1</v>
       </c>
       <c r="E209" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F209" s="7"/>
     </row>
     <row r="210" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C210" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D210" s="16"/>
       <c r="E210" s="17" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F210" s="17"/>
     </row>
@@ -4966,7 +4966,7 @@
         <v>188</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F211" s="2"/>
     </row>
@@ -4980,9 +4980,10 @@
       <c r="C212" t="s">
         <v>189</v>
       </c>
-      <c r="E212" s="2" t="s">
-        <v>430</v>
-      </c>
+      <c r="D212" s="1">
+        <v>1</v>
+      </c>
+      <c r="E212" s="2"/>
       <c r="G212" s="2"/>
     </row>
     <row r="213" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -5008,10 +5009,10 @@
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -5022,10 +5023,10 @@
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="216" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5042,7 +5043,7 @@
         <v>1</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="217" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -5053,11 +5054,11 @@
         <v>1</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D217" s="16"/>
       <c r="E217" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="218" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -5068,11 +5069,11 @@
         <v>1</v>
       </c>
       <c r="C218" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D218" s="16"/>
       <c r="E218" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -5083,10 +5084,10 @@
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -5097,10 +5098,10 @@
         <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -5111,10 +5112,10 @@
         <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -5125,10 +5126,10 @@
         <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -5139,7 +5140,7 @@
         <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>214</v>
@@ -5153,13 +5154,13 @@
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -5170,10 +5171,10 @@
         <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="226" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5184,7 +5185,7 @@
         <v>1</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D226" s="6">
         <v>-1</v>
@@ -5199,10 +5200,10 @@
         <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -5213,10 +5214,10 @@
         <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -5227,10 +5228,10 @@
         <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -5241,10 +5242,10 @@
         <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -5255,10 +5256,10 @@
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -5269,10 +5270,10 @@
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -5283,10 +5284,10 @@
         <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -5297,10 +5298,10 @@
         <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -5311,10 +5312,10 @@
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -5325,10 +5326,10 @@
         <v>2</v>
       </c>
       <c r="C236" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -5339,12 +5340,11 @@
         <v>1</v>
       </c>
       <c r="C237" t="s">
-        <v>193</v>
+        <v>440</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="F237" s="2"/>
+        <v>427</v>
+      </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
@@ -5354,10 +5354,10 @@
         <v>1</v>
       </c>
       <c r="C238" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="F238" s="2"/>
     </row>
@@ -5369,72 +5369,87 @@
         <v>1</v>
       </c>
       <c r="C239" t="s">
+        <v>192</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F239" s="2"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>1</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="C240" t="s">
         <v>191</v>
       </c>
-      <c r="E239" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F239" s="2"/>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C240" t="s">
-        <v>196</v>
-      </c>
       <c r="E240" s="2" t="s">
-        <v>362</v>
+        <v>310</v>
       </c>
       <c r="F240" s="2"/>
     </row>
     <row r="241" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C241" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="F241" s="2"/>
     </row>
     <row r="242" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C242" t="s">
-        <v>111</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F242" s="2"/>
     </row>
     <row r="243" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C243" t="s">
-        <v>353</v>
-      </c>
-      <c r="D243" s="4"/>
-      <c r="E243" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="F243" s="2"/>
+        <v>111</v>
+      </c>
     </row>
     <row r="244" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C244" t="s">
-        <v>356</v>
-      </c>
-      <c r="E244" t="s">
-        <v>427</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="D244" s="4"/>
+      <c r="E244" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F244" s="2"/>
     </row>
     <row r="245" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C245" t="s">
-        <v>353</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>368</v>
+        <v>355</v>
+      </c>
+      <c r="E245" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="246" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C246" t="s">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
     </row>
     <row r="247" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E247" s="2"/>
+      <c r="C247" t="s">
+        <v>382</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="248" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E248" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:D224">

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="453">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -798,9 +798,6 @@
     <t>380204432509;80</t>
   </si>
   <si>
-    <t>380204482812;80</t>
-  </si>
-  <si>
     <t>380204475313;80</t>
   </si>
   <si>
@@ -1041,24 +1038,15 @@
     <t>380519945027;50</t>
   </si>
   <si>
-    <t>380519948388;20</t>
-  </si>
-  <si>
     <t>380519943695;50</t>
   </si>
   <si>
     <t>380519946255;50</t>
   </si>
   <si>
-    <t>380519946242;50</t>
-  </si>
-  <si>
     <t>380519946239;50</t>
   </si>
   <si>
-    <t>380519948396;20</t>
-  </si>
-  <si>
     <t>380519972061;49</t>
   </si>
   <si>
@@ -1080,9 +1068,6 @@
     <t>Усач О.О.</t>
   </si>
   <si>
-    <t>380519940972;50</t>
-  </si>
-  <si>
     <t>380519948397;20</t>
   </si>
   <si>
@@ -1122,9 +1107,6 @@
     <t>380984292461;50</t>
   </si>
   <si>
-    <t>380984289729;155</t>
-  </si>
-  <si>
     <t>HomeNET #68038 100грн</t>
   </si>
   <si>
@@ -1176,9 +1158,6 @@
     <t>380506302977;50</t>
   </si>
   <si>
-    <t>380519942592;50</t>
-  </si>
-  <si>
     <t>380687916193;75</t>
   </si>
   <si>
@@ -1284,9 +1263,6 @@
     <t>380995501638;75</t>
   </si>
   <si>
-    <t>380979942568;75</t>
-  </si>
-  <si>
     <t>342 дт</t>
   </si>
   <si>
@@ -1329,9 +1305,6 @@
     <t>380984291290;75</t>
   </si>
   <si>
-    <t>380689382526;75</t>
-  </si>
-  <si>
     <t>380985736452;75</t>
   </si>
   <si>
@@ -1345,6 +1318,68 @@
   </si>
   <si>
     <t>380978677571;65 ок</t>
+  </si>
+  <si>
+    <t>380519942568;50</t>
+  </si>
+  <si>
+    <t>345 дт</t>
+  </si>
+  <si>
+    <t>345  дт</t>
+  </si>
+  <si>
+    <t>380204482690;80</t>
+  </si>
+  <si>
+    <t>380204486391;80</t>
+  </si>
+  <si>
+    <t>380519948388;20 160grn</t>
+  </si>
+  <si>
+    <t>380519942592;50 no</t>
+  </si>
+  <si>
+    <t>380984289729;155 no</t>
+  </si>
+  <si>
+    <t>380519940972;50 no</t>
+  </si>
+  <si>
+    <t>380519947478;20</t>
+  </si>
+  <si>
+    <t>Iport.net.ua
+Договор: 257.515
+Тариф: 200 грн</t>
+  </si>
+  <si>
+    <t>350 dt</t>
+  </si>
+  <si>
+    <t>380519942587;50</t>
+  </si>
+  <si>
+    <t>188 dt CAMERA</t>
+  </si>
+  <si>
+    <t>380519942582;50</t>
+  </si>
+  <si>
+    <t>380680563089;75</t>
+  </si>
+  <si>
+    <t>380687493036;75</t>
+  </si>
+  <si>
+    <t>091 ДТ м. Ніжин, вул. Московська, 21 МОДЕМ ДЛЯ ЗАМІНИ</t>
+  </si>
+  <si>
+    <t>380519940627;50</t>
+  </si>
+  <si>
+    <t>380204482812;80 no</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1435,6 +1470,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1715,18 +1753,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O248"/>
+  <dimension ref="A1:O253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView tabSelected="1" topLeftCell="D93" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="5.42578125" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="57.28515625" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="45.28515625" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" customWidth="1"/>
@@ -1743,7 +1781,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E1" t="s">
         <v>222</v>
@@ -1793,7 +1831,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -2052,7 +2090,7 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2097,7 +2135,7 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -2175,7 +2213,7 @@
         <v>26</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F28" s="2"/>
     </row>
@@ -2270,7 +2308,7 @@
         <v>32</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="F34" s="2"/>
     </row>
@@ -2285,7 +2323,7 @@
         <v>32</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="F35" s="2"/>
     </row>
@@ -2315,7 +2353,7 @@
         <v>34</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F37" s="2"/>
     </row>
@@ -2330,7 +2368,7 @@
         <v>35</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="F38" s="2"/>
     </row>
@@ -2345,7 +2383,7 @@
         <v>36</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F39" s="2"/>
     </row>
@@ -2409,7 +2447,7 @@
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2451,7 +2489,7 @@
         <v>42</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>357</v>
+        <v>448</v>
       </c>
       <c r="F46" s="2"/>
     </row>
@@ -2594,7 +2632,7 @@
         <v>49</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="F55" s="2"/>
     </row>
@@ -2672,7 +2710,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2680,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="14"/>
@@ -2705,7 +2743,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -2807,7 +2845,7 @@
         <v>2</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="14" t="s">
@@ -2815,67 +2853,68 @@
       </c>
       <c r="F70" s="14"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>1</v>
-      </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71" t="s">
+    <row r="71" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="12">
+        <v>1</v>
+      </c>
+      <c r="B71" s="12">
+        <v>3</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="D71" s="13"/>
+      <c r="E71" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F71" s="14"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
         <v>62</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F71" s="2"/>
-    </row>
-    <row r="72" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="12">
-        <v>1</v>
-      </c>
-      <c r="B72" s="12">
-        <v>1</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D72" s="13"/>
-      <c r="E72" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="F72" s="14"/>
+      <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12">
         <v>1</v>
       </c>
       <c r="B73" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>63</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="F73" s="14"/>
+    </row>
+    <row r="74" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="12">
+        <v>1</v>
+      </c>
+      <c r="B74" s="12">
+        <v>2</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74" s="13"/>
+      <c r="E74" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="F73" s="14"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>1</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74" t="s">
-        <v>64</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="F74" s="2"/>
+      <c r="F74" s="14"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
@@ -2885,10 +2924,10 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="F75" s="2"/>
     </row>
@@ -2900,10 +2939,10 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>252</v>
+        <v>357</v>
       </c>
       <c r="F76" s="2"/>
     </row>
@@ -2912,13 +2951,13 @@
         <v>1</v>
       </c>
       <c r="B77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C77" t="s">
         <v>66</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>397</v>
+        <v>252</v>
       </c>
       <c r="F77" s="2"/>
     </row>
@@ -2927,45 +2966,46 @@
         <v>1</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C78" t="s">
+        <v>66</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
         <v>67</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F78" s="2"/>
-    </row>
-    <row r="79" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="19">
-        <v>1</v>
-      </c>
-      <c r="B79" s="19">
-        <v>1</v>
-      </c>
-      <c r="C79" s="19" t="s">
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="19">
+        <v>1</v>
+      </c>
+      <c r="B80" s="19">
+        <v>1</v>
+      </c>
+      <c r="C80" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D79" s="20">
-        <v>1</v>
-      </c>
-      <c r="E79" s="21"/>
-      <c r="H79" s="21"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>1</v>
-      </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-      <c r="C80" t="s">
-        <v>69</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>435</v>
-      </c>
+      <c r="D80" s="20">
+        <v>1</v>
+      </c>
+      <c r="E80" s="21"/>
+      <c r="H80" s="21"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
@@ -2975,12 +3015,11 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="G81" s="2"/>
+        <v>427</v>
+      </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
@@ -2990,12 +3029,12 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F82" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
@@ -3005,10 +3044,10 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>256</v>
+        <v>426</v>
       </c>
       <c r="F83" s="2"/>
     </row>
@@ -3020,10 +3059,10 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>405</v>
+        <v>256</v>
       </c>
       <c r="F84" s="2"/>
     </row>
@@ -3035,11 +3074,12 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>257</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
@@ -3049,10 +3089,10 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3063,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3077,11 +3117,10 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>77</v>
-      </c>
-      <c r="D88" s="4"/>
+        <v>76</v>
+      </c>
       <c r="E88" s="2" t="s">
-        <v>433</v>
+        <v>267</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3092,12 +3131,12 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>78</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D89" s="4"/>
       <c r="E89" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F89" s="2"/>
+        <v>425</v>
+      </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
@@ -3107,10 +3146,10 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F90" s="2"/>
     </row>
@@ -3122,70 +3161,70 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
+        <v>79</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F91" s="2"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
         <v>80</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="G91" s="2"/>
-    </row>
-    <row r="92" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="5">
-        <v>1</v>
-      </c>
-      <c r="B92" s="5">
-        <v>1</v>
-      </c>
-      <c r="C92" s="5" t="s">
+      <c r="E92" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="5">
+        <v>1</v>
+      </c>
+      <c r="B93" s="5">
+        <v>1</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D92" s="6">
-        <v>1</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>1</v>
-      </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-      <c r="C93" t="s">
-        <v>82</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>386</v>
+      <c r="D93" s="6">
+        <v>1</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
       <c r="C94" t="s">
-        <v>373</v>
-      </c>
-      <c r="E94" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
       <c r="C95" t="s">
-        <v>83</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="G95" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="E95" s="2"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
@@ -3195,12 +3234,12 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="F96" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="G96" s="2"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
@@ -3210,37 +3249,37 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
+        <v>84</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F97" s="2"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
         <v>85</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F97" s="2"/>
-    </row>
-    <row r="98" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C98" s="5" t="s">
+      <c r="E98" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F98" s="2"/>
+    </row>
+    <row r="99" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C99" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D98" s="6">
-        <v>1</v>
-      </c>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>1</v>
-      </c>
-      <c r="B99">
-        <v>1</v>
-      </c>
-      <c r="C99" t="s">
-        <v>153</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F99" s="2"/>
+      <c r="D99" s="6">
+        <v>1</v>
+      </c>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
@@ -3250,10 +3289,10 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>275</v>
+        <v>452</v>
       </c>
       <c r="F100" s="2"/>
     </row>
@@ -3262,13 +3301,13 @@
         <v>1</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C101" t="s">
         <v>86</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F101" s="2"/>
     </row>
@@ -3277,60 +3316,60 @@
         <v>1</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C102" t="s">
+        <v>86</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F102" s="2"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
         <v>87</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="F102" s="2"/>
-    </row>
-    <row r="103" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="5">
-        <v>1</v>
-      </c>
-      <c r="B103" s="5">
-        <v>1</v>
-      </c>
-      <c r="C103" s="5" t="s">
+      <c r="E103" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F103" s="2"/>
+    </row>
+    <row r="104" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="5">
+        <v>1</v>
+      </c>
+      <c r="B104" s="5">
+        <v>1</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D103" s="8">
-        <v>1</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>1</v>
-      </c>
-      <c r="B104">
-        <v>1</v>
-      </c>
-      <c r="C104" t="s">
-        <v>89</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="F104" s="2"/>
+      <c r="D104" s="8">
+        <v>1</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
       <c r="B105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C105" t="s">
         <v>89</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F105" s="2"/>
     </row>
@@ -3339,13 +3378,13 @@
         <v>1</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C106" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F106" s="2"/>
     </row>
@@ -3357,10 +3396,10 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F107" s="2"/>
     </row>
@@ -3372,10 +3411,10 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F108" s="2"/>
     </row>
@@ -3387,12 +3426,12 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="G109" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
@@ -3402,25 +3441,25 @@
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F110" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="G110" s="2"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C111" t="s">
         <v>94</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F111" s="2"/>
     </row>
@@ -3429,13 +3468,13 @@
         <v>1</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F112" s="2"/>
     </row>
@@ -3447,10 +3486,10 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F113" s="2"/>
     </row>
@@ -3462,46 +3501,45 @@
         <v>1</v>
       </c>
       <c r="C114" t="s">
+        <v>96</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F114" s="2"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
         <v>97</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F114" s="2"/>
-    </row>
-    <row r="115" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="5">
-        <v>1</v>
-      </c>
-      <c r="B115" s="5">
-        <v>1</v>
-      </c>
-      <c r="C115" s="5" t="s">
+      <c r="E115" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F115" s="2"/>
+    </row>
+    <row r="116" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="5">
+        <v>1</v>
+      </c>
+      <c r="B116" s="5">
+        <v>1</v>
+      </c>
+      <c r="C116" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D115" s="6">
-        <v>1</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F115" s="7"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>1</v>
-      </c>
-      <c r="B116">
-        <v>1</v>
-      </c>
-      <c r="C116" t="s">
-        <v>99</v>
-      </c>
-      <c r="D116" s="4"/>
-      <c r="E116" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="F116" s="2"/>
+      <c r="D116" s="6">
+        <v>1</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F116" s="7"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
@@ -3511,10 +3549,11 @@
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>100</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D117" s="4"/>
       <c r="E117" s="2" t="s">
-        <v>289</v>
+        <v>347</v>
       </c>
       <c r="F117" s="2"/>
     </row>
@@ -3526,10 +3565,10 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="F118" s="2"/>
     </row>
@@ -3541,10 +3580,10 @@
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F119" s="2"/>
     </row>
@@ -3556,10 +3595,10 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F120" s="2"/>
     </row>
@@ -3571,11 +3610,10 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>104</v>
-      </c>
-      <c r="D121" s="4"/>
+        <v>103</v>
+      </c>
       <c r="E121" s="2" t="s">
-        <v>358</v>
+        <v>312</v>
       </c>
       <c r="F121" s="2"/>
     </row>
@@ -3587,12 +3625,13 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>105</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D122" s="4"/>
       <c r="E122" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="G122" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="F122" s="2"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
@@ -3602,12 +3641,12 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F123" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="G123" s="2"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
@@ -3617,10 +3656,10 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F124" s="2"/>
     </row>
@@ -3632,10 +3671,10 @@
         <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>392</v>
+        <v>314</v>
       </c>
       <c r="F125" s="2"/>
     </row>
@@ -3647,44 +3686,45 @@
         <v>1</v>
       </c>
       <c r="C126" t="s">
+        <v>108</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F126" s="2"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>1</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
         <v>109</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F126" s="2"/>
-    </row>
-    <row r="127" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="19">
-        <v>1</v>
-      </c>
-      <c r="B127" s="19">
-        <v>1</v>
-      </c>
-      <c r="C127" s="19" t="s">
+      <c r="E127" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F127" s="2"/>
+    </row>
+    <row r="128" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="19">
+        <v>1</v>
+      </c>
+      <c r="B128" s="19">
+        <v>1</v>
+      </c>
+      <c r="C128" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D127" s="22">
-        <v>1</v>
-      </c>
-      <c r="E127" s="21" t="s">
-        <v>350</v>
-      </c>
-      <c r="I127" s="21"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>1</v>
-      </c>
-      <c r="B128">
-        <v>1</v>
-      </c>
-      <c r="C128" t="s">
-        <v>112</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>366</v>
-      </c>
+      <c r="D128" s="22">
+        <v>1</v>
+      </c>
+      <c r="E128" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="I128" s="21"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
@@ -3694,12 +3734,11 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="F129" s="2"/>
+        <v>361</v>
+      </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
@@ -3709,10 +3748,10 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F130" s="2"/>
     </row>
@@ -3724,58 +3763,55 @@
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="H131" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="F131" s="2"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C132" t="s">
         <v>115</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F132" s="2"/>
-    </row>
-    <row r="133" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="5">
-        <v>1</v>
-      </c>
-      <c r="B133" s="5">
-        <v>1</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D133" s="6">
-        <v>1</v>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="F133" s="7"/>
+        <v>293</v>
+      </c>
+      <c r="H132" s="2"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="C133" t="s">
+        <v>115</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F133" s="2"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C134" t="s">
-        <v>117</v>
+        <v>446</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="F134" s="2"/>
     </row>
@@ -3787,13 +3823,13 @@
         <v>1</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D135" s="6">
         <v>1</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="F135" s="7"/>
     </row>
@@ -3805,39 +3841,45 @@
         <v>1</v>
       </c>
       <c r="C136" t="s">
+        <v>117</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F136" s="2"/>
+    </row>
+    <row r="137" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="5">
+        <v>1</v>
+      </c>
+      <c r="B137" s="5">
+        <v>1</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D137" s="6">
+        <v>1</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F137" s="7"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138" t="s">
         <v>119</v>
       </c>
-      <c r="E136" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="J136" s="2"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>1</v>
-      </c>
-      <c r="B137">
-        <v>1</v>
-      </c>
-      <c r="C137" t="s">
-        <v>120</v>
-      </c>
-      <c r="E137" s="2"/>
-    </row>
-    <row r="138" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="5">
-        <v>1</v>
-      </c>
-      <c r="B138" s="5">
-        <v>2</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D138" s="6">
-        <v>1</v>
-      </c>
-      <c r="E138" s="7"/>
+      <c r="E138" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="J138" s="2"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
@@ -3847,90 +3889,87 @@
         <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>121</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F139" s="2"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>1</v>
-      </c>
-      <c r="B140">
-        <v>3</v>
-      </c>
-      <c r="C140" t="s">
-        <v>121</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="F140" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="5">
+        <v>1</v>
+      </c>
+      <c r="B140" s="5">
+        <v>2</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D140" s="6">
+        <v>1</v>
+      </c>
+      <c r="E140" s="7"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C141" t="s">
         <v>121</v>
       </c>
-      <c r="D141" s="4"/>
       <c r="E141" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="5">
-        <v>1</v>
-      </c>
-      <c r="B142" s="5">
-        <v>1</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D142" s="6">
-        <v>1</v>
-      </c>
-      <c r="E142" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="F142" s="7"/>
+        <v>318</v>
+      </c>
+      <c r="F141" s="2"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="B142">
+        <v>3</v>
+      </c>
+      <c r="C142" t="s">
+        <v>121</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F142" s="2"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C143" t="s">
-        <v>194</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="D143" s="4"/>
       <c r="E143" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F143" s="2"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>1</v>
-      </c>
-      <c r="B144">
-        <v>1</v>
-      </c>
-      <c r="C144" t="s">
-        <v>123</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="F144" s="2"/>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="5">
+        <v>1</v>
+      </c>
+      <c r="B144" s="5">
+        <v>1</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D144" s="6">
+        <v>1</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F144" s="7"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
@@ -3940,10 +3979,10 @@
         <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F145" s="2"/>
     </row>
@@ -3955,46 +3994,42 @@
         <v>1</v>
       </c>
       <c r="C146" t="s">
+        <v>123</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F146" s="2"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>1</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147" t="s">
+        <v>124</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F147" s="2"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>1</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148" t="s">
         <v>125</v>
       </c>
-      <c r="E146" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="F146" s="2"/>
-    </row>
-    <row r="147" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="5">
-        <v>1</v>
-      </c>
-      <c r="B147" s="5">
-        <v>1</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D147" s="6">
-        <v>1</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F147" s="7"/>
-    </row>
-    <row r="148" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="5">
-        <v>1</v>
-      </c>
-      <c r="B148" s="5">
-        <v>1</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D148" s="6">
-        <v>1</v>
-      </c>
-      <c r="E148" s="7"/>
-      <c r="F148" s="7"/>
+      <c r="E148" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F148" s="2"/>
     </row>
     <row r="149" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
@@ -4004,30 +4039,31 @@
         <v>1</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D149" s="6">
         <v>1</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="F149" s="7"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>1</v>
-      </c>
-      <c r="B150">
-        <v>1</v>
-      </c>
-      <c r="C150" t="s">
-        <v>129</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F150" s="2"/>
+    <row r="150" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="5">
+        <v>1</v>
+      </c>
+      <c r="B150" s="5">
+        <v>1</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D150" s="6">
+        <v>1</v>
+      </c>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
     </row>
     <row r="151" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
@@ -4037,61 +4073,64 @@
         <v>1</v>
       </c>
       <c r="C151" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D151" s="6">
+        <v>1</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F151" s="7"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>1</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152" t="s">
+        <v>129</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F152" s="2"/>
+    </row>
+    <row r="153" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="5">
+        <v>1</v>
+      </c>
+      <c r="B153" s="5">
+        <v>1</v>
+      </c>
+      <c r="C153" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D151" s="6">
-        <v>1</v>
-      </c>
-      <c r="E151" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F151" s="7"/>
-    </row>
-    <row r="152" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="15">
-        <v>1</v>
-      </c>
-      <c r="B152" s="15">
-        <v>1</v>
-      </c>
-      <c r="C152" s="15" t="s">
+      <c r="D153" s="6">
+        <v>1</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F153" s="7"/>
+    </row>
+    <row r="154" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="15">
+        <v>1</v>
+      </c>
+      <c r="B154" s="15">
+        <v>1</v>
+      </c>
+      <c r="C154" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D152" s="18"/>
-      <c r="E152" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="F152" s="17"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>1</v>
-      </c>
-      <c r="B153">
-        <v>1</v>
-      </c>
-      <c r="C153" t="s">
-        <v>132</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="F153" s="2"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>1</v>
-      </c>
-      <c r="B154">
-        <v>1</v>
-      </c>
-      <c r="C154" t="s">
-        <v>133</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="F154" s="2"/>
+      <c r="D154" s="18"/>
+      <c r="E154" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="F154" s="17"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
@@ -4101,29 +4140,27 @@
         <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F155" s="2"/>
     </row>
-    <row r="156" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="5">
-        <v>1</v>
-      </c>
-      <c r="B156" s="5">
-        <v>1</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D156" s="6">
-        <v>1</v>
-      </c>
-      <c r="E156" s="7" t="s">
-        <v>327</v>
-      </c>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>1</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156" t="s">
+        <v>133</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F156" s="2"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
@@ -4133,10 +4170,10 @@
         <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F157" s="2"/>
     </row>
@@ -4148,15 +4185,14 @@
         <v>1</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D158" s="6">
         <v>1</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F158" s="7"/>
+        <v>326</v>
+      </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
@@ -4166,27 +4202,30 @@
         <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F159" s="2"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>1</v>
-      </c>
-      <c r="B160">
-        <v>1</v>
-      </c>
-      <c r="C160" t="s">
-        <v>138</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="F160" s="2"/>
+    <row r="160" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="5">
+        <v>1</v>
+      </c>
+      <c r="B160" s="5">
+        <v>1</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D160" s="6">
+        <v>1</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F160" s="7"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
@@ -4196,10 +4235,10 @@
         <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F161" s="2"/>
     </row>
@@ -4211,10 +4250,10 @@
         <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F162" s="2"/>
     </row>
@@ -4226,12 +4265,12 @@
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="H163" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="F163" s="2"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
@@ -4241,10 +4280,10 @@
         <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F164" s="2"/>
     </row>
@@ -4256,30 +4295,27 @@
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="F165" s="2"/>
-    </row>
-    <row r="166" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="19">
-        <v>1</v>
-      </c>
-      <c r="B166" s="19">
-        <v>1</v>
-      </c>
-      <c r="C166" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D166" s="20">
-        <v>1</v>
-      </c>
-      <c r="E166" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="F166" s="21"/>
+        <v>332</v>
+      </c>
+      <c r="H165" s="2"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166" t="s">
+        <v>142</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F166" s="2"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
@@ -4289,44 +4325,45 @@
         <v>1</v>
       </c>
       <c r="C167" t="s">
+        <v>143</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F167" s="2"/>
+    </row>
+    <row r="168" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="19">
+        <v>1</v>
+      </c>
+      <c r="B168" s="19">
+        <v>1</v>
+      </c>
+      <c r="C168" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D168" s="20">
+        <v>1</v>
+      </c>
+      <c r="E168" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="F168" s="21"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169" t="s">
         <v>145</v>
       </c>
-      <c r="E167" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F167" s="2"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>1</v>
-      </c>
-      <c r="B168">
-        <v>1</v>
-      </c>
-      <c r="C168" t="s">
-        <v>146</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="5">
-        <v>1</v>
-      </c>
-      <c r="B169" s="5">
-        <v>1</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D169" s="6">
-        <v>1</v>
-      </c>
-      <c r="E169" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="I169" s="7"/>
+      <c r="E169" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F169" s="2"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
@@ -4336,27 +4373,29 @@
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F170" s="2"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>1</v>
-      </c>
-      <c r="B171">
-        <v>1</v>
-      </c>
-      <c r="C171" t="s">
-        <v>149</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="F171" s="2"/>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="5">
+        <v>1</v>
+      </c>
+      <c r="B171" s="5">
+        <v>1</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D171" s="6">
+        <v>1</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="I171" s="7"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
@@ -4366,10 +4405,10 @@
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>218</v>
+        <v>305</v>
       </c>
       <c r="F172" s="2"/>
     </row>
@@ -4381,30 +4420,27 @@
         <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F173" s="2"/>
     </row>
-    <row r="174" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="5">
-        <v>1</v>
-      </c>
-      <c r="B174" s="5">
-        <v>1</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D174" s="6">
-        <v>1</v>
-      </c>
-      <c r="E174" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F174" s="7"/>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>1</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174" t="s">
+        <v>150</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F174" s="2"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
@@ -4414,27 +4450,30 @@
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>262</v>
+        <v>307</v>
       </c>
       <c r="F175" s="2"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>1</v>
-      </c>
-      <c r="B176">
-        <v>1</v>
-      </c>
-      <c r="C176" t="s">
-        <v>155</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F176" s="2"/>
+    <row r="176" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="5">
+        <v>1</v>
+      </c>
+      <c r="B176" s="5">
+        <v>1</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D176" s="6">
+        <v>1</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F176" s="7"/>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177">
@@ -4444,29 +4483,27 @@
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="5">
-        <v>1</v>
-      </c>
-      <c r="B178" s="5">
-        <v>1</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D178" s="6">
-        <v>1</v>
-      </c>
-      <c r="E178" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F178" s="7"/>
+        <v>261</v>
+      </c>
+      <c r="F177" s="2"/>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>1</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178" t="s">
+        <v>155</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F178" s="2"/>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179">
@@ -4476,30 +4513,29 @@
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="F179" s="2"/>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>1</v>
-      </c>
-      <c r="B180">
-        <v>1</v>
-      </c>
-      <c r="C180" t="s">
-        <v>159</v>
-      </c>
-      <c r="D180" s="4"/>
-      <c r="E180" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="O180" t="s">
-        <v>226</v>
-      </c>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="5">
+        <v>1</v>
+      </c>
+      <c r="B180" s="5">
+        <v>1</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D180" s="6">
+        <v>1</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F180" s="7"/>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181">
@@ -4509,10 +4545,10 @@
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>439</v>
+        <v>386</v>
       </c>
       <c r="F181" s="2"/>
     </row>
@@ -4524,12 +4560,15 @@
         <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>161</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="D182" s="4"/>
       <c r="E182" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="F182" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="O182" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183">
@@ -4539,12 +4578,12 @@
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="H183" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="F183" s="2"/>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184">
@@ -4554,30 +4593,27 @@
         <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="H184" s="2"/>
-    </row>
-    <row r="185" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="19">
-        <v>1</v>
-      </c>
-      <c r="B185" s="19">
-        <v>1</v>
-      </c>
-      <c r="C185" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="D185" s="20">
-        <v>1</v>
-      </c>
-      <c r="E185" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="F185" s="21"/>
+        <v>263</v>
+      </c>
+      <c r="F184" s="2"/>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>1</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185" t="s">
+        <v>162</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="H185" s="2"/>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186">
@@ -4587,27 +4623,30 @@
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F186" s="2"/>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>1</v>
-      </c>
-      <c r="B187">
-        <v>1</v>
-      </c>
-      <c r="C187" t="s">
-        <v>166</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="L187" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="H186" s="2"/>
+    </row>
+    <row r="187" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="19">
+        <v>1</v>
+      </c>
+      <c r="B187" s="19">
+        <v>1</v>
+      </c>
+      <c r="C187" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D187" s="20">
+        <v>1</v>
+      </c>
+      <c r="E187" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="F187" s="21"/>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188">
@@ -4617,96 +4656,93 @@
         <v>1</v>
       </c>
       <c r="C188" t="s">
+        <v>165</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F188" s="2"/>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>1</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189" t="s">
+        <v>166</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="L189" s="2"/>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>1</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190" t="s">
         <v>167</v>
       </c>
-      <c r="E188" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="F188" s="2"/>
-    </row>
-    <row r="189" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="19">
-        <v>1</v>
-      </c>
-      <c r="B189" s="19">
-        <v>1</v>
-      </c>
-      <c r="C189" s="19" t="s">
+      <c r="E190" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F190" s="2"/>
+    </row>
+    <row r="191" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="19">
+        <v>1</v>
+      </c>
+      <c r="B191" s="19">
+        <v>1</v>
+      </c>
+      <c r="C191" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="D189" s="20">
-        <v>1</v>
-      </c>
-      <c r="E189" s="21" t="s">
-        <v>394</v>
-      </c>
-      <c r="F189" s="21"/>
-    </row>
-    <row r="190" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="19">
-        <v>1</v>
-      </c>
-      <c r="B190" s="19">
-        <v>1</v>
-      </c>
-      <c r="C190" s="19" t="s">
+      <c r="D191" s="20">
+        <v>1</v>
+      </c>
+      <c r="E191" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="F191" s="21"/>
+    </row>
+    <row r="192" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="19">
+        <v>1</v>
+      </c>
+      <c r="B192" s="19">
+        <v>1</v>
+      </c>
+      <c r="C192" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="D190" s="20">
-        <v>1</v>
-      </c>
-      <c r="E190" s="21" t="s">
-        <v>341</v>
-      </c>
-      <c r="F190" s="21"/>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>1</v>
-      </c>
-      <c r="B191">
-        <v>1</v>
-      </c>
-      <c r="C191" t="s">
+      <c r="D192" s="20">
+        <v>1</v>
+      </c>
+      <c r="E192" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="F192" s="21"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>1</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193" t="s">
         <v>170</v>
       </c>
-      <c r="E191" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F191" s="2"/>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>1</v>
-      </c>
-      <c r="B192">
-        <v>1</v>
-      </c>
-      <c r="C192" t="s">
-        <v>171</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="F192" s="2"/>
-    </row>
-    <row r="193" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="19">
-        <v>1</v>
-      </c>
-      <c r="B193" s="19">
-        <v>1</v>
-      </c>
-      <c r="C193" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="D193" s="20">
-        <v>1</v>
-      </c>
-      <c r="E193" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="F193" s="21"/>
+      <c r="E193" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F193" s="2"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
@@ -4716,28 +4752,30 @@
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="F194" s="2"/>
     </row>
-    <row r="195" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="15">
-        <v>1</v>
-      </c>
-      <c r="B195" s="15">
-        <v>1</v>
-      </c>
-      <c r="C195" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="D195" s="16"/>
-      <c r="E195" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="F195" s="17"/>
+    <row r="195" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="19">
+        <v>1</v>
+      </c>
+      <c r="B195" s="19">
+        <v>1</v>
+      </c>
+      <c r="C195" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D195" s="20">
+        <v>1</v>
+      </c>
+      <c r="E195" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="F195" s="21"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
@@ -4747,27 +4785,28 @@
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="F196" s="2"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>1</v>
-      </c>
-      <c r="B197">
-        <v>1</v>
-      </c>
-      <c r="C197" t="s">
-        <v>176</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="F197" s="2"/>
+    <row r="197" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="15">
+        <v>1</v>
+      </c>
+      <c r="B197" s="15">
+        <v>1</v>
+      </c>
+      <c r="C197" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D197" s="16"/>
+      <c r="E197" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="F197" s="17"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
@@ -4777,10 +4816,11 @@
         <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>177</v>
-      </c>
-      <c r="D198" s="4"/>
-      <c r="E198" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>413</v>
+      </c>
       <c r="F198" s="2"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -4788,13 +4828,15 @@
         <v>1</v>
       </c>
       <c r="B199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>177</v>
-      </c>
-      <c r="D199" s="4"/>
-      <c r="E199" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F199" s="2"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
@@ -4804,11 +4846,10 @@
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>178</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>343</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D200" s="4"/>
+      <c r="E200" s="2"/>
       <c r="F200" s="2"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -4816,15 +4857,13 @@
         <v>1</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C201" t="s">
-        <v>179</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="F201" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="D201" s="4"/>
+      <c r="E201" s="2"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
@@ -4834,12 +4873,12 @@
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="G202" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="F202" s="2"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
@@ -4849,11 +4888,12 @@
         <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="F203" s="2"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
@@ -4863,11 +4903,12 @@
         <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>408</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="G204" s="2"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
@@ -4877,12 +4918,11 @@
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="F205" s="2"/>
+        <v>266</v>
+      </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
@@ -4892,10 +4932,10 @@
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -4906,11 +4946,12 @@
         <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>345</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="F207" s="2"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
@@ -4920,86 +4961,83 @@
         <v>1</v>
       </c>
       <c r="C208" t="s">
+        <v>184</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>1</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209" t="s">
+        <v>185</v>
+      </c>
+      <c r="E209" s="25" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>1</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="C210" t="s">
         <v>186</v>
       </c>
-      <c r="E208" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="F208" s="2"/>
-    </row>
-    <row r="209" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="5">
-        <v>1</v>
-      </c>
-      <c r="B209" s="5">
-        <v>1</v>
-      </c>
-      <c r="C209" s="5" t="s">
+      <c r="E210" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F210" s="2"/>
+    </row>
+    <row r="211" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="5">
+        <v>1</v>
+      </c>
+      <c r="B211" s="5">
+        <v>1</v>
+      </c>
+      <c r="C211" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D209" s="6">
-        <v>1</v>
-      </c>
-      <c r="E209" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="F209" s="7"/>
-    </row>
-    <row r="210" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C210" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="D210" s="16"/>
-      <c r="E210" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="F210" s="17"/>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>1</v>
-      </c>
-      <c r="B211">
-        <v>1</v>
-      </c>
-      <c r="C211" t="s">
+      <c r="D211" s="6">
+        <v>1</v>
+      </c>
+      <c r="E211" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F211" s="7"/>
+    </row>
+    <row r="212" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C212" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="D212" s="16"/>
+      <c r="E212" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="F212" s="17"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>1</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213" t="s">
         <v>188</v>
       </c>
-      <c r="E211" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F211" s="2"/>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>1</v>
-      </c>
-      <c r="B212">
-        <v>1</v>
-      </c>
-      <c r="C212" t="s">
-        <v>189</v>
-      </c>
-      <c r="D212" s="1">
-        <v>1</v>
-      </c>
-      <c r="E212" s="2"/>
-      <c r="G212" s="2"/>
-    </row>
-    <row r="213" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="19">
-        <v>1</v>
-      </c>
-      <c r="B213" s="19">
-        <v>1</v>
-      </c>
-      <c r="C213" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="D213" s="20">
-        <v>1</v>
-      </c>
-      <c r="E213" s="21"/>
+      <c r="E213" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F213" s="2"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
@@ -5009,99 +5047,102 @@
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>375</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>1</v>
-      </c>
-      <c r="B215">
-        <v>1</v>
-      </c>
-      <c r="C215" t="s">
-        <v>376</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="5">
-        <v>1</v>
-      </c>
-      <c r="B216" s="5">
-        <v>1</v>
-      </c>
-      <c r="C216" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D214" s="1">
+        <v>1</v>
+      </c>
+      <c r="E214" s="2"/>
+      <c r="G214" s="2"/>
+    </row>
+    <row r="215" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="19">
+        <v>1</v>
+      </c>
+      <c r="B215" s="19">
+        <v>1</v>
+      </c>
+      <c r="C215" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D215" s="20">
+        <v>1</v>
+      </c>
+      <c r="E215" s="21"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>1</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216" t="s">
+        <v>369</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>1</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+      <c r="C217" t="s">
+        <v>370</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="5">
+        <v>1</v>
+      </c>
+      <c r="B218" s="5">
+        <v>1</v>
+      </c>
+      <c r="C218" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D216" s="6">
-        <v>1</v>
-      </c>
-      <c r="E216" s="7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="15">
-        <v>1</v>
-      </c>
-      <c r="B217" s="15">
-        <v>1</v>
-      </c>
-      <c r="C217" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="D217" s="16"/>
-      <c r="E217" s="17" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="15">
-        <v>1</v>
-      </c>
-      <c r="B218" s="15">
-        <v>1</v>
-      </c>
-      <c r="C218" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="D218" s="16"/>
-      <c r="E218" s="17" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>1</v>
-      </c>
-      <c r="B219">
-        <v>1</v>
-      </c>
-      <c r="C219" t="s">
-        <v>364</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>1</v>
-      </c>
-      <c r="B220">
-        <v>1</v>
-      </c>
-      <c r="C220" t="s">
-        <v>365</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>426</v>
+      <c r="D218" s="6">
+        <v>1</v>
+      </c>
+      <c r="E218" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="15">
+        <v>1</v>
+      </c>
+      <c r="B219" s="15">
+        <v>1</v>
+      </c>
+      <c r="C219" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="D219" s="16"/>
+      <c r="E219" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="15">
+        <v>1</v>
+      </c>
+      <c r="B220" s="15">
+        <v>1</v>
+      </c>
+      <c r="C220" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="D220" s="16"/>
+      <c r="E220" s="17" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -5112,10 +5153,10 @@
         <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -5126,10 +5167,10 @@
         <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>227</v>
+        <v>418</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -5140,10 +5181,10 @@
         <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>214</v>
+        <v>417</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -5154,45 +5195,44 @@
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>404</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="E224" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>1</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225" t="s">
+        <v>375</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>1</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="C226" t="s">
+        <v>397</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E226" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>1</v>
-      </c>
-      <c r="B225">
-        <v>1</v>
-      </c>
-      <c r="C225" t="s">
-        <v>414</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="5">
-        <v>1</v>
-      </c>
-      <c r="B226" s="5">
-        <v>1</v>
-      </c>
-      <c r="C226" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="D226" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E226" s="7"/>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1</v>
       </c>
@@ -5203,253 +5243,324 @@
         <v>407</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228">
-        <v>1</v>
-      </c>
-      <c r="B228">
-        <v>1</v>
-      </c>
-      <c r="C228" t="s">
-        <v>401</v>
-      </c>
-      <c r="E228" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="5">
+        <v>1</v>
+      </c>
+      <c r="B228" s="5">
+        <v>1</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="D228" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E228" s="7"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>1</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229" t="s">
+        <v>400</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>1</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230" t="s">
+        <v>394</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>1</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>1</v>
-      </c>
-      <c r="B229">
-        <v>1</v>
-      </c>
-      <c r="C229" t="s">
-        <v>409</v>
-      </c>
-      <c r="E229" s="2" t="s">
+      <c r="E231" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>1</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232" t="s">
+        <v>406</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>1</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="C233" t="s">
+        <v>405</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>1</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234" t="s">
+        <v>403</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>1</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="C235" t="s">
+        <v>410</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>1</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236" t="s">
+        <v>414</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>1</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+      <c r="C237" t="s">
+        <v>415</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>1</v>
+      </c>
+      <c r="B238">
+        <v>2</v>
+      </c>
+      <c r="C238" t="s">
+        <v>415</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>1</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239" t="s">
+        <v>435</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>1</v>
+      </c>
+      <c r="B240">
+        <v>2</v>
+      </c>
+      <c r="C240" t="s">
+        <v>434</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>1</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+      <c r="C241" t="s">
+        <v>431</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>1</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242" t="s">
+        <v>444</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>1</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+      <c r="C243" t="s">
+        <v>193</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F243" s="2"/>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>1</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+      <c r="C244" t="s">
+        <v>192</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F244" s="2"/>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>1</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+      <c r="C245" t="s">
+        <v>191</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F245" s="2"/>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C246" t="s">
+        <v>196</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F246" s="2"/>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C247" t="s">
+        <v>197</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F247" s="2"/>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C248" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C249" t="s">
+        <v>348</v>
+      </c>
+      <c r="D249" s="4"/>
+      <c r="E249" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F249" s="2"/>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C250" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>1</v>
-      </c>
-      <c r="B230">
-        <v>1</v>
-      </c>
-      <c r="C230" t="s">
-        <v>413</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>1</v>
-      </c>
-      <c r="B231">
-        <v>1</v>
-      </c>
-      <c r="C231" t="s">
-        <v>412</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>1</v>
-      </c>
-      <c r="B232">
-        <v>1</v>
-      </c>
-      <c r="C232" t="s">
-        <v>410</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>1</v>
-      </c>
-      <c r="B233">
-        <v>1</v>
-      </c>
-      <c r="C233" t="s">
-        <v>417</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>1</v>
-      </c>
-      <c r="B234">
-        <v>1</v>
-      </c>
-      <c r="C234" t="s">
-        <v>422</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>1</v>
-      </c>
-      <c r="B235">
-        <v>1</v>
-      </c>
-      <c r="C235" t="s">
-        <v>423</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>1</v>
-      </c>
-      <c r="B236">
-        <v>2</v>
-      </c>
-      <c r="C236" t="s">
-        <v>423</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>1</v>
-      </c>
-      <c r="B237">
-        <v>1</v>
-      </c>
-      <c r="C237" t="s">
+      <c r="E250" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C251" t="s">
+        <v>348</v>
+      </c>
+      <c r="E251" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="E237" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>1</v>
-      </c>
-      <c r="B238">
-        <v>1</v>
-      </c>
-      <c r="C238" t="s">
-        <v>193</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="F238" s="2"/>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>1</v>
-      </c>
-      <c r="B239">
-        <v>1</v>
-      </c>
-      <c r="C239" t="s">
-        <v>192</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="F239" s="2"/>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>1</v>
-      </c>
-      <c r="B240">
-        <v>1</v>
-      </c>
-      <c r="C240" t="s">
-        <v>191</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F240" s="2"/>
-    </row>
-    <row r="241" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C241" t="s">
-        <v>196</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="F241" s="2"/>
-    </row>
-    <row r="242" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C242" t="s">
-        <v>197</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="F242" s="2"/>
-    </row>
-    <row r="243" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C243" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="244" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C244" t="s">
-        <v>352</v>
-      </c>
-      <c r="D244" s="4"/>
-      <c r="E244" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="F244" s="2"/>
-    </row>
-    <row r="245" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C245" t="s">
-        <v>355</v>
-      </c>
-      <c r="E245" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="246" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C246" t="s">
-        <v>352</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="247" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C247" t="s">
-        <v>382</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="248" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E248" s="2"/>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C252" t="s">
+        <v>376</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E253" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:D224">

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="456">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -714,9 +714,6 @@
     <t>380519948387;20</t>
   </si>
   <si>
-    <t>380519943693;50</t>
-  </si>
-  <si>
     <t>380519943697;50</t>
   </si>
   <si>
@@ -819,9 +816,6 @@
     <t>380204471276;80</t>
   </si>
   <si>
-    <t>380204486369;80</t>
-  </si>
-  <si>
     <t>380519944932;50</t>
   </si>
   <si>
@@ -945,9 +939,6 @@
     <t>380519940973;50</t>
   </si>
   <si>
-    <t>380204498151;50</t>
-  </si>
-  <si>
     <t>380519945343;50</t>
   </si>
   <si>
@@ -1083,9 +1074,6 @@
     <t>380962607284;75</t>
   </si>
   <si>
-    <t>'380974448527;75</t>
-  </si>
-  <si>
     <t>380970296817;75</t>
   </si>
   <si>
@@ -1179,9 +1167,6 @@
     <t>380978678364;75</t>
   </si>
   <si>
-    <t>380978302991;75</t>
-  </si>
-  <si>
     <t>380681891284;75</t>
   </si>
   <si>
@@ -1215,9 +1200,6 @@
     <t>327 dt</t>
   </si>
   <si>
-    <t>380995501659;75</t>
-  </si>
-  <si>
     <t>380688398707;75</t>
   </si>
   <si>
@@ -1233,9 +1215,6 @@
     <t>340 dt</t>
   </si>
   <si>
-    <t>380687982826;75</t>
-  </si>
-  <si>
     <t>339 dt</t>
   </si>
   <si>
@@ -1273,9 +1252,6 @@
   </si>
   <si>
     <t>380983389781;75</t>
-  </si>
-  <si>
-    <t>380966558607;75</t>
   </si>
   <si>
     <t>380983386478;75</t>
@@ -1380,6 +1356,39 @@
   </si>
   <si>
     <t>380204482812;80 no</t>
+  </si>
+  <si>
+    <t>380204498151;80,60</t>
+  </si>
+  <si>
+    <t>380204471296;80</t>
+  </si>
+  <si>
+    <t>380519943693;50,250</t>
+  </si>
+  <si>
+    <t>349 дт</t>
+  </si>
+  <si>
+    <t>380632727254;50</t>
+  </si>
+  <si>
+    <t>кабынет пароль 262722</t>
+  </si>
+  <si>
+    <t>380519940972;50</t>
+  </si>
+  <si>
+    <t>380995501659;75----</t>
+  </si>
+  <si>
+    <t>351 дт</t>
+  </si>
+  <si>
+    <t>380968027938;75</t>
+  </si>
+  <si>
+    <t>380968013845;75</t>
   </si>
 </sst>
 </file>
@@ -1753,10 +1762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O253"/>
+  <dimension ref="A1:O255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D93" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" topLeftCell="D218" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E227" sqref="E227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1781,7 +1790,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E1" t="s">
         <v>222</v>
@@ -1831,7 +1840,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -2089,8 +2098,8 @@
         <v>19</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" t="s">
-        <v>354</v>
+      <c r="E20" s="2" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2135,7 +2144,7 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -2213,7 +2222,7 @@
         <v>26</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F28" s="2"/>
     </row>
@@ -2308,7 +2317,7 @@
         <v>32</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F34" s="2"/>
     </row>
@@ -2323,7 +2332,7 @@
         <v>32</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F35" s="2"/>
     </row>
@@ -2353,7 +2362,7 @@
         <v>34</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F37" s="2"/>
     </row>
@@ -2368,7 +2377,7 @@
         <v>35</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="F38" s="2"/>
     </row>
@@ -2383,7 +2392,7 @@
         <v>36</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F39" s="2"/>
     </row>
@@ -2447,7 +2456,7 @@
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2489,7 +2498,7 @@
         <v>42</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="F46" s="2"/>
     </row>
@@ -2504,7 +2513,7 @@
         <v>43</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F47" s="2"/>
     </row>
@@ -2522,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F48" s="7"/>
     </row>
@@ -2540,7 +2549,7 @@
         <v>2</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>231</v>
+        <v>447</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2557,7 +2566,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F50" s="14"/>
     </row>
@@ -2572,7 +2581,7 @@
         <v>46</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F51" s="2"/>
     </row>
@@ -2587,7 +2596,7 @@
         <v>47</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F52" s="2"/>
     </row>
@@ -2602,7 +2611,7 @@
         <v>47</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F53" s="2"/>
     </row>
@@ -2617,7 +2626,7 @@
         <v>48</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F54" s="2"/>
     </row>
@@ -2632,7 +2641,7 @@
         <v>49</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F55" s="2"/>
     </row>
@@ -2647,7 +2656,7 @@
         <v>50</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F56" s="2"/>
     </row>
@@ -2662,7 +2671,7 @@
         <v>51</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F57" s="2"/>
     </row>
@@ -2677,7 +2686,7 @@
         <v>52</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F58" s="2"/>
     </row>
@@ -2692,7 +2701,7 @@
         <v>53</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F59" s="2"/>
     </row>
@@ -2710,7 +2719,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2718,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="14"/>
@@ -2734,7 +2743,7 @@
         <v>55</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F62" s="2"/>
     </row>
@@ -2743,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -2759,7 +2768,7 @@
         <v>56</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J64" s="2"/>
     </row>
@@ -2774,7 +2783,7 @@
         <v>57</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F65" s="2"/>
     </row>
@@ -2789,7 +2798,7 @@
         <v>58</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2803,7 +2812,7 @@
         <v>59</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -2817,7 +2826,7 @@
         <v>60</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F68" s="2"/>
     </row>
@@ -2833,7 +2842,7 @@
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F69" s="14"/>
     </row>
@@ -2845,11 +2854,11 @@
         <v>2</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F70" s="14"/>
     </row>
@@ -2861,11 +2870,11 @@
         <v>3</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F71" s="14"/>
     </row>
@@ -2880,7 +2889,7 @@
         <v>62</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F72" s="2"/>
     </row>
@@ -2896,7 +2905,7 @@
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="14" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F73" s="14"/>
     </row>
@@ -2912,7 +2921,7 @@
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F74" s="14"/>
     </row>
@@ -2927,7 +2936,7 @@
         <v>64</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F75" s="2"/>
     </row>
@@ -2942,7 +2951,7 @@
         <v>65</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F76" s="2"/>
     </row>
@@ -2957,7 +2966,7 @@
         <v>66</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F77" s="2"/>
     </row>
@@ -2972,7 +2981,7 @@
         <v>66</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="F78" s="2"/>
     </row>
@@ -2987,7 +2996,7 @@
         <v>67</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F79" s="2"/>
     </row>
@@ -3018,7 +3027,7 @@
         <v>69</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3032,7 +3041,7 @@
         <v>70</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G82" s="2"/>
     </row>
@@ -3047,7 +3056,7 @@
         <v>71</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="F83" s="2"/>
     </row>
@@ -3062,7 +3071,7 @@
         <v>72</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F84" s="2"/>
     </row>
@@ -3077,7 +3086,7 @@
         <v>73</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>398</v>
+        <v>452</v>
       </c>
       <c r="F85" s="2"/>
     </row>
@@ -3092,7 +3101,7 @@
         <v>74</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3106,7 +3115,7 @@
         <v>75</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3120,7 +3129,7 @@
         <v>76</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3135,7 +3144,7 @@
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="2" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3149,7 +3158,7 @@
         <v>78</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F90" s="2"/>
     </row>
@@ -3164,7 +3173,7 @@
         <v>79</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F91" s="2"/>
     </row>
@@ -3179,7 +3188,7 @@
         <v>80</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G92" s="2"/>
     </row>
@@ -3197,10 +3206,10 @@
         <v>1</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3214,7 +3223,7 @@
         <v>82</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3222,7 +3231,7 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E95" s="2"/>
     </row>
@@ -3237,7 +3246,7 @@
         <v>83</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G96" s="2"/>
     </row>
@@ -3252,7 +3261,7 @@
         <v>84</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F97" s="2"/>
     </row>
@@ -3267,7 +3276,7 @@
         <v>85</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F98" s="2"/>
     </row>
@@ -3292,7 +3301,7 @@
         <v>153</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="F100" s="2"/>
     </row>
@@ -3307,7 +3316,7 @@
         <v>86</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F101" s="2"/>
     </row>
@@ -3322,7 +3331,7 @@
         <v>86</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F102" s="2"/>
     </row>
@@ -3337,7 +3346,7 @@
         <v>87</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F103" s="2"/>
     </row>
@@ -3355,7 +3364,7 @@
         <v>1</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3369,7 +3378,7 @@
         <v>89</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F105" s="2"/>
     </row>
@@ -3384,7 +3393,7 @@
         <v>89</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F106" s="2"/>
     </row>
@@ -3399,7 +3408,7 @@
         <v>90</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F107" s="2"/>
     </row>
@@ -3414,7 +3423,7 @@
         <v>91</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F108" s="2"/>
     </row>
@@ -3429,7 +3438,7 @@
         <v>92</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F109" s="2"/>
     </row>
@@ -3444,7 +3453,7 @@
         <v>93</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G110" s="2"/>
     </row>
@@ -3459,7 +3468,7 @@
         <v>94</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F111" s="2"/>
     </row>
@@ -3474,7 +3483,7 @@
         <v>94</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F112" s="2"/>
     </row>
@@ -3489,7 +3498,7 @@
         <v>95</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F113" s="2"/>
     </row>
@@ -3504,7 +3513,7 @@
         <v>96</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F114" s="2"/>
     </row>
@@ -3519,7 +3528,7 @@
         <v>97</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F115" s="2"/>
     </row>
@@ -3537,7 +3546,7 @@
         <v>1</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F116" s="7"/>
     </row>
@@ -3553,7 +3562,7 @@
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F117" s="2"/>
     </row>
@@ -3568,7 +3577,7 @@
         <v>100</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F118" s="2"/>
     </row>
@@ -3583,7 +3592,7 @@
         <v>101</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F119" s="2"/>
     </row>
@@ -3598,7 +3607,7 @@
         <v>102</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F120" s="2"/>
     </row>
@@ -3613,7 +3622,7 @@
         <v>103</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F121" s="2"/>
     </row>
@@ -3629,7 +3638,7 @@
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F122" s="2"/>
     </row>
@@ -3644,7 +3653,7 @@
         <v>105</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G123" s="2"/>
     </row>
@@ -3659,7 +3668,7 @@
         <v>106</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F124" s="2"/>
     </row>
@@ -3674,7 +3683,7 @@
         <v>107</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F125" s="2"/>
     </row>
@@ -3689,7 +3698,7 @@
         <v>108</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F126" s="2"/>
     </row>
@@ -3704,7 +3713,7 @@
         <v>109</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F127" s="2"/>
     </row>
@@ -3722,7 +3731,7 @@
         <v>1</v>
       </c>
       <c r="E128" s="21" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="I128" s="21"/>
     </row>
@@ -3737,7 +3746,7 @@
         <v>112</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -3751,7 +3760,7 @@
         <v>113</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F130" s="2"/>
     </row>
@@ -3766,7 +3775,7 @@
         <v>114</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F131" s="2"/>
     </row>
@@ -3781,7 +3790,7 @@
         <v>115</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H132" s="2"/>
     </row>
@@ -3796,7 +3805,7 @@
         <v>115</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F133" s="2"/>
     </row>
@@ -3808,10 +3817,10 @@
         <v>3</v>
       </c>
       <c r="C134" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F134" s="2"/>
     </row>
@@ -3829,7 +3838,7 @@
         <v>1</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F135" s="7"/>
     </row>
@@ -3844,7 +3853,7 @@
         <v>117</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F136" s="2"/>
     </row>
@@ -3862,7 +3871,7 @@
         <v>1</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F137" s="7"/>
     </row>
@@ -3877,7 +3886,7 @@
         <v>119</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J138" s="2"/>
     </row>
@@ -3919,7 +3928,7 @@
         <v>121</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F141" s="2"/>
     </row>
@@ -3934,7 +3943,7 @@
         <v>121</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F142" s="2"/>
     </row>
@@ -3950,7 +3959,7 @@
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="2" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="144" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3967,7 +3976,7 @@
         <v>1</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F144" s="7"/>
     </row>
@@ -3982,7 +3991,7 @@
         <v>194</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F145" s="2"/>
     </row>
@@ -3997,7 +4006,7 @@
         <v>123</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F146" s="2"/>
     </row>
@@ -4012,7 +4021,7 @@
         <v>124</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F147" s="2"/>
     </row>
@@ -4027,7 +4036,7 @@
         <v>125</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F148" s="2"/>
     </row>
@@ -4045,7 +4054,7 @@
         <v>1</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F149" s="7"/>
     </row>
@@ -4079,7 +4088,7 @@
         <v>1</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F151" s="7"/>
     </row>
@@ -4094,7 +4103,7 @@
         <v>129</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F152" s="2"/>
     </row>
@@ -4112,7 +4121,7 @@
         <v>1</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F153" s="7"/>
     </row>
@@ -4128,7 +4137,7 @@
       </c>
       <c r="D154" s="18"/>
       <c r="E154" s="24" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F154" s="17"/>
     </row>
@@ -4143,7 +4152,7 @@
         <v>132</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F155" s="2"/>
     </row>
@@ -4158,7 +4167,7 @@
         <v>133</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F156" s="2"/>
     </row>
@@ -4173,7 +4182,7 @@
         <v>134</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F157" s="2"/>
     </row>
@@ -4191,7 +4200,7 @@
         <v>1</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4205,7 +4214,7 @@
         <v>136</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F159" s="2"/>
     </row>
@@ -4223,7 +4232,7 @@
         <v>1</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F160" s="7"/>
     </row>
@@ -4238,7 +4247,7 @@
         <v>138</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F161" s="2"/>
     </row>
@@ -4253,7 +4262,7 @@
         <v>138</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F162" s="2"/>
     </row>
@@ -4268,7 +4277,7 @@
         <v>139</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F163" s="2"/>
     </row>
@@ -4283,7 +4292,7 @@
         <v>140</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F164" s="2"/>
     </row>
@@ -4298,7 +4307,7 @@
         <v>141</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H165" s="2"/>
     </row>
@@ -4313,7 +4322,7 @@
         <v>142</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F166" s="2"/>
     </row>
@@ -4328,7 +4337,7 @@
         <v>143</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F167" s="2"/>
     </row>
@@ -4346,7 +4355,7 @@
         <v>1</v>
       </c>
       <c r="E168" s="21" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F168" s="21"/>
     </row>
@@ -4361,7 +4370,7 @@
         <v>145</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F169" s="2"/>
     </row>
@@ -4376,7 +4385,7 @@
         <v>146</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="171" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4393,7 +4402,7 @@
         <v>1</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I171" s="7"/>
     </row>
@@ -4408,7 +4417,7 @@
         <v>148</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F172" s="2"/>
     </row>
@@ -4423,7 +4432,7 @@
         <v>149</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F173" s="2"/>
     </row>
@@ -4453,7 +4462,7 @@
         <v>151</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F175" s="2"/>
     </row>
@@ -4471,7 +4480,7 @@
         <v>1</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F176" s="7"/>
     </row>
@@ -4486,7 +4495,7 @@
         <v>154</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F177" s="2"/>
     </row>
@@ -4501,7 +4510,7 @@
         <v>155</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F178" s="2"/>
     </row>
@@ -4516,7 +4525,7 @@
         <v>156</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>308</v>
+        <v>445</v>
       </c>
     </row>
     <row r="180" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4533,7 +4542,7 @@
         <v>1</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F180" s="7"/>
     </row>
@@ -4548,7 +4557,7 @@
         <v>158</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>386</v>
+        <v>451</v>
       </c>
       <c r="F181" s="2"/>
     </row>
@@ -4564,7 +4573,7 @@
       </c>
       <c r="D182" s="4"/>
       <c r="E182" s="2" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="O182" t="s">
         <v>226</v>
@@ -4581,7 +4590,7 @@
         <v>160</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F183" s="2"/>
     </row>
@@ -4596,7 +4605,7 @@
         <v>161</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F184" s="2"/>
     </row>
@@ -4611,7 +4620,7 @@
         <v>162</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H185" s="2"/>
     </row>
@@ -4626,7 +4635,7 @@
         <v>163</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H186" s="2"/>
     </row>
@@ -4644,7 +4653,7 @@
         <v>1</v>
       </c>
       <c r="E187" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F187" s="21"/>
     </row>
@@ -4659,7 +4668,7 @@
         <v>165</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F188" s="2"/>
     </row>
@@ -4674,7 +4683,7 @@
         <v>166</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="L189" s="2"/>
     </row>
@@ -4689,7 +4698,7 @@
         <v>167</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F190" s="2"/>
     </row>
@@ -4707,7 +4716,7 @@
         <v>1</v>
       </c>
       <c r="E191" s="21" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F191" s="21"/>
     </row>
@@ -4725,7 +4734,7 @@
         <v>1</v>
       </c>
       <c r="E192" s="21" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F192" s="21"/>
     </row>
@@ -4740,7 +4749,7 @@
         <v>170</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F193" s="2"/>
     </row>
@@ -4755,7 +4764,7 @@
         <v>171</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F194" s="2"/>
     </row>
@@ -4773,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="E195" s="21" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F195" s="21"/>
     </row>
@@ -4788,7 +4797,7 @@
         <v>173</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F196" s="2"/>
     </row>
@@ -4819,7 +4828,7 @@
         <v>175</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F198" s="2"/>
     </row>
@@ -4834,7 +4843,7 @@
         <v>176</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="F199" s="2"/>
     </row>
@@ -4876,7 +4885,7 @@
         <v>178</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="F202" s="2"/>
     </row>
@@ -4891,7 +4900,7 @@
         <v>179</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F203" s="2"/>
     </row>
@@ -4906,7 +4915,7 @@
         <v>180</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G204" s="2"/>
     </row>
@@ -4921,7 +4930,7 @@
         <v>181</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>266</v>
+        <v>446</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -4935,7 +4944,7 @@
         <v>182</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -4949,7 +4958,7 @@
         <v>183</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="F207" s="2"/>
     </row>
@@ -4964,7 +4973,7 @@
         <v>184</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4978,7 +4987,7 @@
         <v>185</v>
       </c>
       <c r="E209" s="25" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -4992,7 +5001,7 @@
         <v>186</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F210" s="2"/>
     </row>
@@ -5010,17 +5019,17 @@
         <v>1</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F211" s="7"/>
     </row>
     <row r="212" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C212" s="15" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D212" s="16"/>
       <c r="E212" s="17" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F212" s="17"/>
     </row>
@@ -5035,7 +5044,7 @@
         <v>188</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F213" s="2"/>
     </row>
@@ -5078,10 +5087,10 @@
         <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -5092,10 +5101,10 @@
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="218" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5112,7 +5121,7 @@
         <v>1</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="219" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -5123,11 +5132,11 @@
         <v>1</v>
       </c>
       <c r="C219" s="15" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D219" s="16"/>
       <c r="E219" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="220" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -5138,11 +5147,11 @@
         <v>1</v>
       </c>
       <c r="C220" s="15" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D220" s="16"/>
       <c r="E220" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -5153,10 +5162,10 @@
         <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -5167,10 +5176,10 @@
         <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -5181,10 +5190,10 @@
         <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -5195,7 +5204,7 @@
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>227</v>
@@ -5209,7 +5218,7 @@
         <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>214</v>
@@ -5223,10 +5232,10 @@
         <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>223</v>
@@ -5240,10 +5249,10 @@
         <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="228" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5254,7 +5263,7 @@
         <v>1</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D228" s="6">
         <v>-1</v>
@@ -5269,10 +5278,10 @@
         <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -5283,10 +5292,10 @@
         <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -5297,10 +5306,10 @@
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -5311,10 +5320,10 @@
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -5325,10 +5334,10 @@
         <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -5339,10 +5348,10 @@
         <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>404</v>
+        <v>263</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -5353,10 +5362,10 @@
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -5367,10 +5376,10 @@
         <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -5381,10 +5390,10 @@
         <v>1</v>
       </c>
       <c r="C237" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -5395,10 +5404,10 @@
         <v>2</v>
       </c>
       <c r="C238" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -5409,10 +5418,10 @@
         <v>1</v>
       </c>
       <c r="C239" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -5423,10 +5432,10 @@
         <v>2</v>
       </c>
       <c r="C240" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -5437,10 +5446,10 @@
         <v>1</v>
       </c>
       <c r="C241" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -5451,10 +5460,13 @@
         <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>445</v>
+        <v>449</v>
+      </c>
+      <c r="F242" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -5465,12 +5477,11 @@
         <v>1</v>
       </c>
       <c r="C243" t="s">
-        <v>193</v>
+        <v>436</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="F243" s="2"/>
+        <v>437</v>
+      </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
@@ -5480,12 +5491,11 @@
         <v>1</v>
       </c>
       <c r="C244" t="s">
-        <v>192</v>
+        <v>453</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="F244" s="2"/>
+        <v>454</v>
+      </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
@@ -5495,72 +5505,102 @@
         <v>1</v>
       </c>
       <c r="C245" t="s">
+        <v>193</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F245" s="2"/>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>1</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="C246" t="s">
+        <v>192</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F246" s="2"/>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>1</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+      <c r="C247" t="s">
         <v>191</v>
       </c>
-      <c r="E245" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="F245" s="2"/>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C246" t="s">
-        <v>196</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="F246" s="2"/>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C247" t="s">
-        <v>197</v>
-      </c>
       <c r="E247" s="2" t="s">
-        <v>378</v>
+        <v>306</v>
       </c>
       <c r="F247" s="2"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C248" t="s">
-        <v>111</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F248" s="2"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C249" t="s">
-        <v>348</v>
-      </c>
-      <c r="D249" s="4"/>
+        <v>197</v>
+      </c>
       <c r="E249" s="2" t="s">
-        <v>441</v>
+        <v>374</v>
       </c>
       <c r="F249" s="2"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C250" t="s">
-        <v>350</v>
-      </c>
-      <c r="E250" t="s">
-        <v>416</v>
+        <v>111</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C251" t="s">
-        <v>348</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="D251" s="4"/>
       <c r="E251" s="2" t="s">
-        <v>440</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="F251" s="2"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C252" t="s">
-        <v>376</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>439</v>
+        <v>347</v>
+      </c>
+      <c r="E252" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E253" s="2"/>
+      <c r="C253" t="s">
+        <v>345</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C254" t="s">
+        <v>372</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E255" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:D224">

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="457">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -1389,6 +1389,9 @@
   </si>
   <si>
     <t>380968013845;75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">355 dt </t>
   </si>
 </sst>
 </file>
@@ -1762,10 +1765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O255"/>
+  <dimension ref="A1:O256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D218" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E227" sqref="E227"/>
+    <sheetView tabSelected="1" topLeftCell="A224" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E248" sqref="E248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5505,12 +5508,11 @@
         <v>1</v>
       </c>
       <c r="C245" t="s">
-        <v>193</v>
+        <v>456</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F245" s="2"/>
+        <v>292</v>
+      </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
@@ -5520,10 +5522,10 @@
         <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="F246" s="2"/>
     </row>
@@ -5535,72 +5537,87 @@
         <v>1</v>
       </c>
       <c r="C247" t="s">
+        <v>192</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F247" s="2"/>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>1</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="C248" t="s">
         <v>191</v>
       </c>
-      <c r="E247" s="2" t="s">
+      <c r="E248" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="F247" s="2"/>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C248" t="s">
-        <v>196</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="F248" s="2"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C249" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="F249" s="2"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C250" t="s">
-        <v>111</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F250" s="2"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C251" t="s">
-        <v>345</v>
-      </c>
-      <c r="D251" s="4"/>
-      <c r="E251" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="F251" s="2"/>
+        <v>111</v>
+      </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C252" t="s">
-        <v>347</v>
-      </c>
-      <c r="E252" t="s">
-        <v>409</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="D252" s="4"/>
+      <c r="E252" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F252" s="2"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C253" t="s">
-        <v>345</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>432</v>
+        <v>347</v>
+      </c>
+      <c r="E253" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C254" t="s">
+        <v>345</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C255" t="s">
         <v>372</v>
       </c>
-      <c r="E254" s="2" t="s">
+      <c r="E255" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E255" s="2"/>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E256" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:D224">

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="460">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -354,9 +354,6 @@
     <t>181 ДТ Київська, Баришівка, Пархоменка, 25В</t>
   </si>
   <si>
-    <t>(38051)9943701</t>
-  </si>
-  <si>
     <t>183 ДТ Київська обл., м. Вишгород, вул. Кургузова, 5-Б</t>
   </si>
   <si>
@@ -600,18 +597,12 @@
     <t>Oleksandr Kysliy</t>
   </si>
   <si>
-    <t>Andriy Kompaniets</t>
-  </si>
-  <si>
     <t>204 ДT ТД (Вишгород, Симоненко, 4А, приміщ.10/15)</t>
   </si>
   <si>
     <t>310 ДТ Київська обл. Обухівський р-н. смт. Козин, вул. Київська 43а</t>
   </si>
   <si>
-    <t>Krylov TV-BOX</t>
-  </si>
-  <si>
     <t>Кислий тт з лічильником, хз яка</t>
   </si>
   <si>
@@ -1077,21 +1068,12 @@
     <t>380970296817;75</t>
   </si>
   <si>
-    <t>OFF</t>
-  </si>
-  <si>
     <t>380519948884;50</t>
   </si>
   <si>
     <t>380204432508;80</t>
   </si>
   <si>
-    <t xml:space="preserve">322 ДТ Біла Церква </t>
-  </si>
-  <si>
-    <t xml:space="preserve">323 ДТ Фастів </t>
-  </si>
-  <si>
     <t>380984292461;50</t>
   </si>
   <si>
@@ -1113,30 +1095,9 @@
     <t>131 ДТ м. Носівка, вул. Центральна, 16</t>
   </si>
   <si>
-    <t xml:space="preserve">299 ДТ </t>
-  </si>
-  <si>
     <t>307 ДТ</t>
   </si>
   <si>
-    <t>309 DT</t>
-  </si>
-  <si>
-    <t>311 DT</t>
-  </si>
-  <si>
-    <t>315 DT</t>
-  </si>
-  <si>
-    <t>324 DT</t>
-  </si>
-  <si>
-    <t>325 DT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">326 DT </t>
-  </si>
-  <si>
     <t>Мішеніна Ліана Миколаївна</t>
   </si>
   <si>
@@ -1188,51 +1149,21 @@
     <t>330 dt</t>
   </si>
   <si>
-    <t>334 dt</t>
-  </si>
-  <si>
     <t>380519943694;50</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>327 dt</t>
-  </si>
-  <si>
     <t>380688398707;75</t>
   </si>
   <si>
-    <t>331 dt</t>
-  </si>
-  <si>
     <t>380519943690;50</t>
   </si>
   <si>
-    <t>335 дт</t>
-  </si>
-  <si>
-    <t>340 dt</t>
-  </si>
-  <si>
-    <t>339 dt</t>
-  </si>
-  <si>
-    <t>338 dt</t>
-  </si>
-  <si>
-    <t>339 дт</t>
-  </si>
-  <si>
-    <t>380688317553;75</t>
-  </si>
-  <si>
     <t>380983408372;75</t>
   </si>
   <si>
-    <t>341 dt</t>
-  </si>
-  <si>
     <t>380519943696;50</t>
   </si>
   <si>
@@ -1245,9 +1176,6 @@
     <t>342 дт</t>
   </si>
   <si>
-    <t xml:space="preserve">344 dt </t>
-  </si>
-  <si>
     <t>380519946062;50</t>
   </si>
   <si>
@@ -1290,19 +1218,10 @@
     <t>380204471275;80</t>
   </si>
   <si>
-    <t>346 дт</t>
-  </si>
-  <si>
     <t>380978677571;65 ок</t>
   </si>
   <si>
     <t>380519942568;50</t>
-  </si>
-  <si>
-    <t>345 дт</t>
-  </si>
-  <si>
-    <t>345  дт</t>
   </si>
   <si>
     <t>380204482690;80</t>
@@ -1367,9 +1286,6 @@
     <t>380519943693;50,250</t>
   </si>
   <si>
-    <t>349 дт</t>
-  </si>
-  <si>
     <t>380632727254;50</t>
   </si>
   <si>
@@ -1382,16 +1298,109 @@
     <t>380995501659;75----</t>
   </si>
   <si>
-    <t>351 дт</t>
-  </si>
-  <si>
     <t>380968027938;75</t>
   </si>
   <si>
     <t>380968013845;75</t>
   </si>
   <si>
-    <t xml:space="preserve">355 dt </t>
+    <t>299 Київська обл, Києво-Святошинський р-н, с. Тарасівка, вул. Залізнична, 8</t>
+  </si>
+  <si>
+    <t>309 Житомирська обл., Коростенский р-н., м. Коростень,вул. Сосновського,буд. 44,</t>
+  </si>
+  <si>
+    <t>311 Київська обл., Вишгородський р-н. с. Лютіж, вул. Визволителів 54</t>
+  </si>
+  <si>
+    <t>315 Київська обл., Васильківський р-н, с. Гребінки, вул. Освіти 65</t>
+  </si>
+  <si>
+    <t>322 Київська обл., Білоцеркі́вський р-н, м.Біла Церква, бул. Олександрійський,20</t>
+  </si>
+  <si>
+    <t>323 Київська обл., Фа́стівський р-н, м. Фастів, вул. Соборна 44+A155</t>
+  </si>
+  <si>
+    <t>324 Київська обл., Іванківський р-н, с. Іванків,вул.Центральна,буд.№3</t>
+  </si>
+  <si>
+    <t>325 Київськаобл., Яготинський р-н, м.Яготин,вул.Незалежності,65Г</t>
+  </si>
+  <si>
+    <t>326 Чернігівська обл., Ніжинський р-н, м.Ніжин вул.Московська 3 "М'ясний павільйон"</t>
+  </si>
+  <si>
+    <t>327 Київська обл.,м.Ірпінь,вул.Мечнікова,112Б</t>
+  </si>
+  <si>
+    <t>331 Київська обл.,м.Богуслав,вул.Острів,1 Автостанція Богуслав</t>
+  </si>
+  <si>
+    <t>328 Київська обл.,Білоцерківський р-н,м.Біла Церква,вул.Леваневського,52/4</t>
+  </si>
+  <si>
+    <t>329 Житомирська обл.,Попільнянський р-н,смт.Корнин,вул.Жовтневої революції(Соборності) МАФ</t>
+  </si>
+  <si>
+    <t>332 Житомирська обл.,смт Попільна,вул.Героїв Майдану (Радянська),17А</t>
+  </si>
+  <si>
+    <t>334 Київськаобл.,м.Березань,вул.Шевченків Шлях,127/2</t>
+  </si>
+  <si>
+    <t>335 Київська обл., смт.Баришівка,вул.Пархоменка,25</t>
+  </si>
+  <si>
+    <t>338 м.Київ,вул.Академіка Курчатова,15</t>
+  </si>
+  <si>
+    <t>339 Житомирська обл.,м.Коростишев,вул.Небесної Сотні,"Центральний ринок"</t>
+  </si>
+  <si>
+    <t>340 м.Київ,вул.Маршала Тимошенка,14 (Мінський ринок)</t>
+  </si>
+  <si>
+    <t>341 м.Київ,пр.Павла Тичини,7</t>
+  </si>
+  <si>
+    <t>343 Київська обл.,смт Гостомель,вул.Свято-Покровська,86 "Ринок", место № 99</t>
+  </si>
+  <si>
+    <t>344 м.Київ,вул.Лариси Руденко,11Б</t>
+  </si>
+  <si>
+    <t>345 м.Київ,вул.Гната Юри,24 (торгівельний майданчик Колібріс)</t>
+  </si>
+  <si>
+    <t>346 Київська обл., Біло-Церківський р-н,м. Сквира,вул.Соборна,30/1</t>
+  </si>
+  <si>
+    <t>347 Броварський р-н, с. Пухівка, вул. Леніна, 56/1</t>
+  </si>
+  <si>
+    <t>348 Броварський р-н, с. Літки, вул. Шевченка, 72/1</t>
+  </si>
+  <si>
+    <t>349 ДТ с. Кучаків, вул. Гетьмана І. Сулими, 70-б</t>
+  </si>
+  <si>
+    <t>351 м. Київ, вул. Княжий Затон, 10а</t>
+  </si>
+  <si>
+    <t>352 м. Фастів, вул. Галафеєва, 20</t>
+  </si>
+  <si>
+    <t>355 м. Київ, вул. Драйзера, 8</t>
+  </si>
+  <si>
+    <t>358 Київська обл., с. Погреби, вул. Соборна 2</t>
+  </si>
+  <si>
+    <t>359 Київська обл., смт. Пісківка, вул. Філіпова, 2</t>
+  </si>
+  <si>
+    <t>360 м. Київ, вул. Драйзера, 8/2</t>
   </si>
 </sst>
 </file>
@@ -1425,12 +1434,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1438,6 +1441,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1454,7 +1463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1467,17 +1476,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1485,6 +1490,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1765,10 +1773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O256"/>
+  <dimension ref="A1:O262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E248" sqref="E248"/>
+    <sheetView tabSelected="1" topLeftCell="A234" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C254" sqref="C254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1793,10 +1801,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="E1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1813,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -1828,7 +1836,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -1843,7 +1851,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -1858,24 +1866,27 @@
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="6" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F6" s="2"/>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1888,7 +1899,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -1903,46 +1914,42 @@
         <v>9</v>
       </c>
       <c r="D8" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9" t="s">
+    <row r="9" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="13"/>
+      <c r="E9" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>1</v>
+      </c>
+      <c r="B10" s="12">
         <v>2</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>1</v>
-      </c>
-      <c r="B10" s="9">
-        <v>2</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="10">
-        <v>2</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F10" s="11"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1955,7 +1962,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -1970,7 +1977,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -1985,7 +1992,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -2000,24 +2007,27 @@
         <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F15" s="2"/>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -2033,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2050,7 +2060,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F17" s="7"/>
     </row>
@@ -2068,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F18" s="7"/>
     </row>
@@ -2086,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F19" s="7"/>
     </row>
@@ -2102,7 +2112,7 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="2" t="s">
-        <v>455</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2116,7 +2126,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F21" s="2"/>
     </row>
@@ -2131,7 +2141,7 @@
         <v>21</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F22" s="2"/>
     </row>
@@ -2147,7 +2157,7 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -2165,7 +2175,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F24" s="7"/>
     </row>
@@ -2180,7 +2190,7 @@
         <v>24</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F25" s="2"/>
     </row>
@@ -2195,7 +2205,7 @@
         <v>25</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F26" s="2"/>
     </row>
@@ -2210,7 +2220,7 @@
         <v>25</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F27" s="2"/>
     </row>
@@ -2225,7 +2235,7 @@
         <v>26</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F28" s="2"/>
     </row>
@@ -2243,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -2259,7 +2269,7 @@
         <v>28</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F30" s="2"/>
     </row>
@@ -2274,7 +2284,7 @@
         <v>29</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F31" s="2"/>
     </row>
@@ -2289,85 +2299,94 @@
         <v>30</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19">
-        <v>1</v>
-      </c>
-      <c r="B33" s="19">
-        <v>1</v>
-      </c>
-      <c r="C33" s="19" t="s">
+    <row r="33" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>1</v>
+      </c>
+      <c r="B33" s="5">
+        <v>1</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="20">
-        <v>1</v>
-      </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D33" s="6">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>1</v>
+      </c>
+      <c r="B34" s="5">
+        <v>1</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35">
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>1</v>
+      </c>
+      <c r="B35" s="5">
         <v>2</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19">
-        <v>1</v>
-      </c>
-      <c r="B36" s="19">
-        <v>1</v>
-      </c>
-      <c r="C36" s="19" t="s">
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>1</v>
+      </c>
+      <c r="B36" s="5">
+        <v>1</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="20">
-        <v>1</v>
-      </c>
-      <c r="E36" s="21"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D36" s="6">
+        <v>1</v>
+      </c>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>1</v>
+      </c>
+      <c r="B37" s="5">
+        <v>1</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="F37" s="2"/>
+      <c r="D37" s="6">
+        <v>1</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -2380,7 +2399,7 @@
         <v>35</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="F38" s="2"/>
     </row>
@@ -2395,7 +2414,7 @@
         <v>36</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="F39" s="2"/>
     </row>
@@ -2410,7 +2429,7 @@
         <v>37</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F40" s="2"/>
     </row>
@@ -2425,27 +2444,27 @@
         <v>37</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="19">
-        <v>1</v>
-      </c>
-      <c r="B42" s="19">
-        <v>1</v>
-      </c>
-      <c r="C42" s="19" t="s">
+    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>1</v>
+      </c>
+      <c r="B42" s="5">
+        <v>1</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="20">
-        <v>1</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="F42" s="21"/>
+      <c r="D42" s="6">
+        <v>1</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -2459,7 +2478,7 @@
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2487,7 +2506,7 @@
         <v>41</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2501,7 +2520,7 @@
         <v>42</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="F46" s="2"/>
     </row>
@@ -2516,7 +2535,7 @@
         <v>43</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F47" s="2"/>
     </row>
@@ -2534,44 +2553,40 @@
         <v>1</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="12">
-        <v>1</v>
-      </c>
-      <c r="B49" s="12">
-        <v>1</v>
-      </c>
-      <c r="C49" s="12" t="s">
+    <row r="49" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>1</v>
+      </c>
+      <c r="B49" s="9">
+        <v>1</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49" s="10"/>
+      <c r="E49" s="11" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>1</v>
+      </c>
+      <c r="B50" s="9">
         <v>2</v>
       </c>
-      <c r="E49" s="14" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="12">
-        <v>1</v>
-      </c>
-      <c r="B50" s="12">
-        <v>2</v>
-      </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="13">
-        <v>2</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="F50" s="14"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="F50" s="11"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
@@ -2584,7 +2599,7 @@
         <v>46</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F51" s="2"/>
     </row>
@@ -2599,7 +2614,7 @@
         <v>47</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F52" s="2"/>
     </row>
@@ -2614,7 +2629,7 @@
         <v>47</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F53" s="2"/>
     </row>
@@ -2629,7 +2644,7 @@
         <v>48</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F54" s="2"/>
     </row>
@@ -2644,7 +2659,7 @@
         <v>49</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="F55" s="2"/>
     </row>
@@ -2659,7 +2674,7 @@
         <v>50</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F56" s="2"/>
     </row>
@@ -2674,7 +2689,7 @@
         <v>51</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F57" s="2"/>
     </row>
@@ -2689,7 +2704,7 @@
         <v>52</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F58" s="2"/>
     </row>
@@ -2704,7 +2719,7 @@
         <v>53</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F59" s="2"/>
     </row>
@@ -2722,18 +2737,18 @@
         <v>1</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="12">
-        <v>1</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="D61" s="13"/>
-      <c r="E61" s="14"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <v>1</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="D61" s="10"/>
+      <c r="E61" s="11"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
@@ -2746,7 +2761,7 @@
         <v>55</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F62" s="2"/>
     </row>
@@ -2755,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -2771,7 +2786,7 @@
         <v>56</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="J64" s="2"/>
     </row>
@@ -2786,7 +2801,7 @@
         <v>57</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F65" s="2"/>
     </row>
@@ -2801,7 +2816,7 @@
         <v>58</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2815,7 +2830,7 @@
         <v>59</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -2829,57 +2844,57 @@
         <v>60</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="12">
-        <v>1</v>
-      </c>
-      <c r="B69" s="12">
-        <v>1</v>
-      </c>
-      <c r="C69" s="12" t="s">
+    <row r="69" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
+        <v>1</v>
+      </c>
+      <c r="B69" s="9">
+        <v>1</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D69" s="13"/>
-      <c r="E69" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="F69" s="14"/>
-    </row>
-    <row r="70" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="12">
-        <v>1</v>
-      </c>
-      <c r="B70" s="12">
+      <c r="D69" s="10"/>
+      <c r="E69" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F69" s="11"/>
+    </row>
+    <row r="70" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
+        <v>1</v>
+      </c>
+      <c r="B70" s="9">
         <v>2</v>
       </c>
-      <c r="C70" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="D70" s="13"/>
-      <c r="E70" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="F70" s="14"/>
-    </row>
-    <row r="71" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="12">
-        <v>1</v>
-      </c>
-      <c r="B71" s="12">
+      <c r="C70" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="D70" s="10"/>
+      <c r="E70" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="F70" s="11"/>
+    </row>
+    <row r="71" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
+        <v>1</v>
+      </c>
+      <c r="B71" s="9">
         <v>3</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="D71" s="13"/>
+        <v>415</v>
+      </c>
+      <c r="D71" s="10"/>
       <c r="E71" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="F71" s="14"/>
+        <v>416</v>
+      </c>
+      <c r="F71" s="11"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
@@ -2892,41 +2907,41 @@
         <v>62</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="12">
-        <v>1</v>
-      </c>
-      <c r="B73" s="12">
-        <v>1</v>
-      </c>
-      <c r="C73" s="12" t="s">
+    <row r="73" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
+        <v>1</v>
+      </c>
+      <c r="B73" s="9">
+        <v>1</v>
+      </c>
+      <c r="C73" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D73" s="13"/>
-      <c r="E73" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="F73" s="14"/>
-    </row>
-    <row r="74" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="12">
-        <v>1</v>
-      </c>
-      <c r="B74" s="12">
+      <c r="D73" s="10"/>
+      <c r="E73" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="F73" s="11"/>
+    </row>
+    <row r="74" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <v>1</v>
+      </c>
+      <c r="B74" s="9">
         <v>2</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C74" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D74" s="13"/>
-      <c r="E74" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="F74" s="14"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F74" s="11"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
@@ -2939,7 +2954,7 @@
         <v>64</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="F75" s="2"/>
     </row>
@@ -2954,7 +2969,7 @@
         <v>65</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F76" s="2"/>
     </row>
@@ -2969,7 +2984,7 @@
         <v>66</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F77" s="2"/>
     </row>
@@ -2984,7 +2999,7 @@
         <v>66</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="F78" s="2"/>
     </row>
@@ -2999,25 +3014,25 @@
         <v>67</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="19">
-        <v>1</v>
-      </c>
-      <c r="B80" s="19">
-        <v>1</v>
-      </c>
-      <c r="C80" s="19" t="s">
+    <row r="80" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="16">
+        <v>1</v>
+      </c>
+      <c r="B80" s="16">
+        <v>1</v>
+      </c>
+      <c r="C80" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D80" s="20">
-        <v>1</v>
-      </c>
-      <c r="E80" s="21"/>
-      <c r="H80" s="21"/>
+      <c r="D80" s="17">
+        <v>1</v>
+      </c>
+      <c r="E80" s="18"/>
+      <c r="H80" s="18"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
@@ -3030,7 +3045,7 @@
         <v>69</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3044,7 +3059,7 @@
         <v>70</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="G82" s="2"/>
     </row>
@@ -3059,7 +3074,7 @@
         <v>71</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="F83" s="2"/>
     </row>
@@ -3074,7 +3089,7 @@
         <v>72</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F84" s="2"/>
     </row>
@@ -3089,7 +3104,7 @@
         <v>73</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>452</v>
+        <v>424</v>
       </c>
       <c r="F85" s="2"/>
     </row>
@@ -3104,7 +3119,7 @@
         <v>74</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3118,7 +3133,7 @@
         <v>75</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3132,22 +3147,24 @@
         <v>76</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>1</v>
-      </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
-      <c r="C89" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="5">
+        <v>1</v>
+      </c>
+      <c r="B89" s="5">
+        <v>1</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D89" s="4"/>
-      <c r="E89" s="2" t="s">
-        <v>417</v>
+      <c r="D89" s="8">
+        <v>1</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3161,7 +3178,7 @@
         <v>78</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F90" s="2"/>
     </row>
@@ -3176,7 +3193,7 @@
         <v>79</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F91" s="2"/>
     </row>
@@ -3191,7 +3208,7 @@
         <v>80</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G92" s="2"/>
     </row>
@@ -3209,24 +3226,27 @@
         <v>1</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>1</v>
-      </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-      <c r="C94" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="5">
+        <v>1</v>
+      </c>
+      <c r="B94" s="5">
+        <v>1</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>375</v>
+      <c r="D94" s="6">
+        <v>1</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3234,7 +3254,7 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E95" s="2"/>
     </row>
@@ -3249,7 +3269,7 @@
         <v>83</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G96" s="2"/>
     </row>
@@ -3264,7 +3284,7 @@
         <v>84</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="F97" s="2"/>
     </row>
@@ -3279,7 +3299,7 @@
         <v>85</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F98" s="2"/>
     </row>
@@ -3301,10 +3321,10 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="F100" s="2"/>
     </row>
@@ -3319,7 +3339,7 @@
         <v>86</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F101" s="2"/>
     </row>
@@ -3334,7 +3354,7 @@
         <v>86</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F102" s="2"/>
     </row>
@@ -3349,7 +3369,7 @@
         <v>87</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F103" s="2"/>
     </row>
@@ -3367,7 +3387,7 @@
         <v>1</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3381,7 +3401,7 @@
         <v>89</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F105" s="2"/>
     </row>
@@ -3396,7 +3416,7 @@
         <v>89</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F106" s="2"/>
     </row>
@@ -3411,7 +3431,7 @@
         <v>90</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F107" s="2"/>
     </row>
@@ -3426,7 +3446,7 @@
         <v>91</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F108" s="2"/>
     </row>
@@ -3441,7 +3461,7 @@
         <v>92</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F109" s="2"/>
     </row>
@@ -3456,7 +3476,7 @@
         <v>93</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G110" s="2"/>
     </row>
@@ -3471,7 +3491,7 @@
         <v>94</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F111" s="2"/>
     </row>
@@ -3486,7 +3506,7 @@
         <v>94</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F112" s="2"/>
     </row>
@@ -3501,7 +3521,7 @@
         <v>95</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F113" s="2"/>
     </row>
@@ -3516,7 +3536,7 @@
         <v>96</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F114" s="2"/>
     </row>
@@ -3531,7 +3551,7 @@
         <v>97</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F115" s="2"/>
     </row>
@@ -3549,7 +3569,7 @@
         <v>1</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F116" s="7"/>
     </row>
@@ -3565,7 +3585,7 @@
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F117" s="2"/>
     </row>
@@ -3580,7 +3600,7 @@
         <v>100</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F118" s="2"/>
     </row>
@@ -3595,7 +3615,7 @@
         <v>101</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F119" s="2"/>
     </row>
@@ -3610,7 +3630,7 @@
         <v>102</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F120" s="2"/>
     </row>
@@ -3625,7 +3645,7 @@
         <v>103</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F121" s="2"/>
     </row>
@@ -3641,7 +3661,7 @@
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F122" s="2"/>
     </row>
@@ -3656,7 +3676,7 @@
         <v>105</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G123" s="2"/>
     </row>
@@ -3671,7 +3691,7 @@
         <v>106</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F124" s="2"/>
     </row>
@@ -3686,24 +3706,27 @@
         <v>107</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F125" s="2"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>1</v>
-      </c>
-      <c r="B126">
-        <v>1</v>
-      </c>
-      <c r="C126" t="s">
+    <row r="126" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="5">
+        <v>1</v>
+      </c>
+      <c r="B126" s="5">
+        <v>1</v>
+      </c>
+      <c r="C126" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="F126" s="2"/>
+      <c r="D126" s="6">
+        <v>1</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F126" s="7"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
@@ -3716,27 +3739,27 @@
         <v>109</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="19">
-        <v>1</v>
-      </c>
-      <c r="B128" s="19">
-        <v>1</v>
-      </c>
-      <c r="C128" s="19" t="s">
+    <row r="128" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="5">
+        <v>1</v>
+      </c>
+      <c r="B128" s="5">
+        <v>1</v>
+      </c>
+      <c r="C128" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D128" s="22">
-        <v>1</v>
-      </c>
-      <c r="E128" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="I128" s="21"/>
+      <c r="D128" s="8">
+        <v>1</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="I128" s="7"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
@@ -3746,10 +3769,10 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -3760,10 +3783,10 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F130" s="2"/>
     </row>
@@ -3775,10 +3798,10 @@
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F131" s="2"/>
     </row>
@@ -3790,10 +3813,10 @@
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H132" s="2"/>
     </row>
@@ -3805,10 +3828,10 @@
         <v>2</v>
       </c>
       <c r="C133" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F133" s="2"/>
     </row>
@@ -3820,10 +3843,10 @@
         <v>3</v>
       </c>
       <c r="C134" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
       <c r="F134" s="2"/>
     </row>
@@ -3835,13 +3858,13 @@
         <v>1</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D135" s="6">
         <v>1</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F135" s="7"/>
     </row>
@@ -3853,10 +3876,10 @@
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F136" s="2"/>
     </row>
@@ -3868,13 +3891,13 @@
         <v>1</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D137" s="6">
         <v>1</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F137" s="7"/>
     </row>
@@ -3886,10 +3909,10 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J138" s="2"/>
     </row>
@@ -3901,7 +3924,7 @@
         <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E139" s="2"/>
     </row>
@@ -3913,7 +3936,7 @@
         <v>2</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D140" s="6">
         <v>1</v>
@@ -3928,10 +3951,10 @@
         <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F141" s="2"/>
     </row>
@@ -3943,10 +3966,10 @@
         <v>3</v>
       </c>
       <c r="C142" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F142" s="2"/>
     </row>
@@ -3958,11 +3981,11 @@
         <v>2</v>
       </c>
       <c r="C143" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="2" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
     </row>
     <row r="144" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3973,13 +3996,13 @@
         <v>1</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D144" s="6">
         <v>1</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F144" s="7"/>
     </row>
@@ -3991,10 +4014,10 @@
         <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F145" s="2"/>
     </row>
@@ -4006,10 +4029,10 @@
         <v>1</v>
       </c>
       <c r="C146" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="F146" s="2"/>
     </row>
@@ -4021,10 +4044,10 @@
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F147" s="2"/>
     </row>
@@ -4036,10 +4059,10 @@
         <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F148" s="2"/>
     </row>
@@ -4051,13 +4074,13 @@
         <v>1</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D149" s="6">
         <v>1</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F149" s="7"/>
     </row>
@@ -4069,7 +4092,7 @@
         <v>1</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D150" s="6">
         <v>1</v>
@@ -4085,13 +4108,13 @@
         <v>1</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D151" s="6">
         <v>1</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F151" s="7"/>
     </row>
@@ -4103,10 +4126,10 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F152" s="2"/>
     </row>
@@ -4118,31 +4141,31 @@
         <v>1</v>
       </c>
       <c r="C153" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D153" s="6">
+        <v>1</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F153" s="7"/>
+    </row>
+    <row r="154" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="12">
+        <v>1</v>
+      </c>
+      <c r="B154" s="12">
+        <v>1</v>
+      </c>
+      <c r="C154" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D153" s="6">
-        <v>1</v>
-      </c>
-      <c r="E153" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="F153" s="7"/>
-    </row>
-    <row r="154" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="15">
-        <v>1</v>
-      </c>
-      <c r="B154" s="15">
-        <v>1</v>
-      </c>
-      <c r="C154" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="D154" s="18"/>
-      <c r="E154" s="24" t="s">
-        <v>421</v>
-      </c>
-      <c r="F154" s="17"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="F154" s="14"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
@@ -4152,10 +4175,10 @@
         <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F155" s="2"/>
     </row>
@@ -4167,27 +4190,30 @@
         <v>1</v>
       </c>
       <c r="C156" t="s">
+        <v>132</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F156" s="2"/>
+    </row>
+    <row r="157" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="5">
+        <v>1</v>
+      </c>
+      <c r="B157" s="5">
+        <v>1</v>
+      </c>
+      <c r="C157" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E156" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F156" s="2"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>1</v>
-      </c>
-      <c r="B157">
-        <v>1</v>
-      </c>
-      <c r="C157" t="s">
-        <v>134</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F157" s="2"/>
+      <c r="D157" s="6">
+        <v>1</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F157" s="7"/>
     </row>
     <row r="158" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
@@ -4197,13 +4223,13 @@
         <v>1</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D158" s="6">
         <v>1</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4214,10 +4240,10 @@
         <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F159" s="2"/>
     </row>
@@ -4229,13 +4255,13 @@
         <v>1</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D160" s="6">
         <v>1</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F160" s="7"/>
     </row>
@@ -4247,10 +4273,10 @@
         <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F161" s="2"/>
     </row>
@@ -4262,27 +4288,30 @@
         <v>1</v>
       </c>
       <c r="C162" t="s">
+        <v>137</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F162" s="2"/>
+    </row>
+    <row r="163" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="5">
+        <v>1</v>
+      </c>
+      <c r="B163" s="5">
+        <v>1</v>
+      </c>
+      <c r="C163" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E162" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F162" s="2"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>1</v>
-      </c>
-      <c r="B163">
-        <v>1</v>
-      </c>
-      <c r="C163" t="s">
-        <v>139</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F163" s="2"/>
+      <c r="D163" s="6">
+        <v>1</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F163" s="7"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
@@ -4292,10 +4321,10 @@
         <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F164" s="2"/>
     </row>
@@ -4307,10 +4336,10 @@
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H165" s="2"/>
     </row>
@@ -4322,45 +4351,48 @@
         <v>1</v>
       </c>
       <c r="C166" t="s">
+        <v>141</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F166" s="2"/>
+    </row>
+    <row r="167" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="5">
+        <v>1</v>
+      </c>
+      <c r="B167" s="5">
+        <v>1</v>
+      </c>
+      <c r="C167" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E166" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="F166" s="2"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>1</v>
-      </c>
-      <c r="B167">
-        <v>1</v>
-      </c>
-      <c r="C167" t="s">
+      <c r="D167" s="6">
+        <v>1</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F167" s="7"/>
+    </row>
+    <row r="168" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="5">
+        <v>1</v>
+      </c>
+      <c r="B168" s="5">
+        <v>1</v>
+      </c>
+      <c r="C168" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E167" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F167" s="2"/>
-    </row>
-    <row r="168" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="19">
-        <v>1</v>
-      </c>
-      <c r="B168" s="19">
-        <v>1</v>
-      </c>
-      <c r="C168" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D168" s="20">
-        <v>1</v>
-      </c>
-      <c r="E168" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="F168" s="21"/>
+      <c r="D168" s="6">
+        <v>1</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F168" s="7"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
@@ -4370,10 +4402,10 @@
         <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F169" s="2"/>
     </row>
@@ -4385,10 +4417,10 @@
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="171" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4399,13 +4431,13 @@
         <v>1</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D171" s="6">
         <v>1</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I171" s="7"/>
     </row>
@@ -4417,10 +4449,10 @@
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F172" s="2"/>
     </row>
@@ -4432,10 +4464,10 @@
         <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F173" s="2"/>
     </row>
@@ -4447,10 +4479,10 @@
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F174" s="2"/>
     </row>
@@ -4462,10 +4494,10 @@
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F175" s="2"/>
     </row>
@@ -4477,13 +4509,13 @@
         <v>1</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D176" s="6">
         <v>1</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F176" s="7"/>
     </row>
@@ -4495,10 +4527,10 @@
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F177" s="2"/>
     </row>
@@ -4510,10 +4542,10 @@
         <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="F178" s="2"/>
     </row>
@@ -4525,10 +4557,10 @@
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>445</v>
+        <v>418</v>
       </c>
     </row>
     <row r="180" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4539,13 +4571,13 @@
         <v>1</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D180" s="6">
         <v>1</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F180" s="7"/>
     </row>
@@ -4557,10 +4589,10 @@
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="F181" s="2"/>
     </row>
@@ -4572,14 +4604,14 @@
         <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D182" s="4"/>
       <c r="E182" s="2" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="O182" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.25">
@@ -4590,10 +4622,10 @@
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="F183" s="2"/>
     </row>
@@ -4605,10 +4637,10 @@
         <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F184" s="2"/>
     </row>
@@ -4620,10 +4652,10 @@
         <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H185" s="2"/>
     </row>
@@ -4635,30 +4667,30 @@
         <v>1</v>
       </c>
       <c r="C186" t="s">
+        <v>162</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="H186" s="2"/>
+    </row>
+    <row r="187" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="5">
+        <v>1</v>
+      </c>
+      <c r="B187" s="5">
+        <v>1</v>
+      </c>
+      <c r="C187" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E186" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="H186" s="2"/>
-    </row>
-    <row r="187" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="19">
-        <v>1</v>
-      </c>
-      <c r="B187" s="19">
-        <v>1</v>
-      </c>
-      <c r="C187" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="D187" s="20">
-        <v>1</v>
-      </c>
-      <c r="E187" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="F187" s="21"/>
+      <c r="D187" s="6">
+        <v>1</v>
+      </c>
+      <c r="E187" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F187" s="7"/>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188">
@@ -4668,10 +4700,10 @@
         <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F188" s="2"/>
     </row>
@@ -4683,10 +4715,10 @@
         <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>430</v>
+        <v>403</v>
       </c>
       <c r="L189" s="2"/>
     </row>
@@ -4698,48 +4730,48 @@
         <v>1</v>
       </c>
       <c r="C190" t="s">
+        <v>166</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F190" s="2"/>
+    </row>
+    <row r="191" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="5">
+        <v>1</v>
+      </c>
+      <c r="B191" s="5">
+        <v>1</v>
+      </c>
+      <c r="C191" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E190" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="F190" s="2"/>
-    </row>
-    <row r="191" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="19">
-        <v>1</v>
-      </c>
-      <c r="B191" s="19">
-        <v>1</v>
-      </c>
-      <c r="C191" s="19" t="s">
+      <c r="D191" s="6">
+        <v>1</v>
+      </c>
+      <c r="E191" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F191" s="7"/>
+    </row>
+    <row r="192" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="5">
+        <v>1</v>
+      </c>
+      <c r="B192" s="5">
+        <v>1</v>
+      </c>
+      <c r="C192" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D191" s="20">
-        <v>1</v>
-      </c>
-      <c r="E191" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="F191" s="21"/>
-    </row>
-    <row r="192" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="19">
-        <v>1</v>
-      </c>
-      <c r="B192" s="19">
-        <v>1</v>
-      </c>
-      <c r="C192" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="D192" s="20">
-        <v>1</v>
-      </c>
-      <c r="E192" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="F192" s="21"/>
+      <c r="D192" s="6">
+        <v>1</v>
+      </c>
+      <c r="E192" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F192" s="7"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
@@ -4749,10 +4781,10 @@
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F193" s="2"/>
     </row>
@@ -4764,30 +4796,30 @@
         <v>1</v>
       </c>
       <c r="C194" t="s">
+        <v>170</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F194" s="2"/>
+    </row>
+    <row r="195" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="5">
+        <v>1</v>
+      </c>
+      <c r="B195" s="5">
+        <v>1</v>
+      </c>
+      <c r="C195" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="E194" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="F194" s="2"/>
-    </row>
-    <row r="195" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="19">
-        <v>1</v>
-      </c>
-      <c r="B195" s="19">
-        <v>1</v>
-      </c>
-      <c r="C195" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="D195" s="20">
-        <v>1</v>
-      </c>
-      <c r="E195" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="F195" s="21"/>
+      <c r="D195" s="6">
+        <v>1</v>
+      </c>
+      <c r="E195" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F195" s="7"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
@@ -4797,28 +4829,28 @@
         <v>1</v>
       </c>
       <c r="C196" t="s">
+        <v>172</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F196" s="2"/>
+    </row>
+    <row r="197" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="12">
+        <v>1</v>
+      </c>
+      <c r="B197" s="12">
+        <v>1</v>
+      </c>
+      <c r="C197" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="E196" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F196" s="2"/>
-    </row>
-    <row r="197" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="15">
-        <v>1</v>
-      </c>
-      <c r="B197" s="15">
-        <v>1</v>
-      </c>
-      <c r="C197" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="D197" s="16"/>
-      <c r="E197" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="F197" s="17"/>
+      <c r="D197" s="13"/>
+      <c r="E197" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="F197" s="14"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
@@ -4828,10 +4860,10 @@
         <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="F198" s="2"/>
     </row>
@@ -4843,10 +4875,10 @@
         <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="F199" s="2"/>
     </row>
@@ -4858,7 +4890,7 @@
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D200" s="4"/>
       <c r="E200" s="2"/>
@@ -4872,7 +4904,7 @@
         <v>2</v>
       </c>
       <c r="C201" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D201" s="4"/>
       <c r="E201" s="2"/>
@@ -4885,10 +4917,10 @@
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>434</v>
+        <v>407</v>
       </c>
       <c r="F202" s="2"/>
     </row>
@@ -4900,10 +4932,10 @@
         <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="F203" s="2"/>
     </row>
@@ -4915,10 +4947,10 @@
         <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G204" s="2"/>
     </row>
@@ -4930,10 +4962,10 @@
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>446</v>
+        <v>419</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -4944,10 +4976,10 @@
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -4958,10 +4990,10 @@
         <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="F207" s="2"/>
     </row>
@@ -4973,10 +5005,10 @@
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4987,10 +5019,10 @@
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>185</v>
-      </c>
-      <c r="E209" s="25" t="s">
-        <v>435</v>
+        <v>184</v>
+      </c>
+      <c r="E209" s="21" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -5001,10 +5033,10 @@
         <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F210" s="2"/>
     </row>
@@ -5016,25 +5048,31 @@
         <v>1</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D211" s="6">
         <v>1</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F211" s="7"/>
     </row>
-    <row r="212" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C212" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="D212" s="16"/>
-      <c r="E212" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="F212" s="17"/>
+    <row r="212" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="12">
+        <v>1</v>
+      </c>
+      <c r="B212" s="12">
+        <v>1</v>
+      </c>
+      <c r="C212" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="D212" s="13"/>
+      <c r="E212" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="F212" s="14"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213">
@@ -5044,56 +5082,59 @@
         <v>1</v>
       </c>
       <c r="C213" t="s">
+        <v>187</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F213" s="2"/>
+    </row>
+    <row r="214" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="5">
+        <v>1</v>
+      </c>
+      <c r="B214" s="5">
+        <v>1</v>
+      </c>
+      <c r="C214" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E213" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="F213" s="2"/>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>1</v>
-      </c>
-      <c r="B214">
-        <v>1</v>
-      </c>
-      <c r="C214" t="s">
+      <c r="D214" s="6">
+        <v>1</v>
+      </c>
+      <c r="E214" s="7"/>
+      <c r="G214" s="7"/>
+    </row>
+    <row r="215" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="5">
+        <v>1</v>
+      </c>
+      <c r="B215" s="5">
+        <v>1</v>
+      </c>
+      <c r="C215" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D214" s="1">
-        <v>1</v>
-      </c>
-      <c r="E214" s="2"/>
-      <c r="G214" s="2"/>
-    </row>
-    <row r="215" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="19">
-        <v>1</v>
-      </c>
-      <c r="B215" s="19">
-        <v>1</v>
-      </c>
-      <c r="C215" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="D215" s="20">
-        <v>1</v>
-      </c>
-      <c r="E215" s="21"/>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>1</v>
-      </c>
-      <c r="B216">
-        <v>1</v>
-      </c>
-      <c r="C216" t="s">
-        <v>365</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>296</v>
+      <c r="D215" s="6">
+        <v>1</v>
+      </c>
+      <c r="E215" s="7"/>
+    </row>
+    <row r="216" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="5">
+        <v>1</v>
+      </c>
+      <c r="B216" s="5">
+        <v>1</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D216" s="6">
+        <v>1</v>
+      </c>
+      <c r="E216" s="7" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -5104,10 +5145,10 @@
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>366</v>
+        <v>428</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
     </row>
     <row r="218" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5118,43 +5159,43 @@
         <v>1</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D218" s="6">
         <v>1</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="15">
-        <v>1</v>
-      </c>
-      <c r="B219" s="15">
-        <v>1</v>
-      </c>
-      <c r="C219" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="D219" s="16"/>
-      <c r="E219" s="17" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="15">
-        <v>1</v>
-      </c>
-      <c r="B220" s="15">
-        <v>1</v>
-      </c>
-      <c r="C220" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="D220" s="16"/>
-      <c r="E220" s="17" t="s">
-        <v>300</v>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="12">
+        <v>1</v>
+      </c>
+      <c r="B219" s="12">
+        <v>1</v>
+      </c>
+      <c r="C219" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="D219" s="13"/>
+      <c r="E219" s="14" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="12">
+        <v>1</v>
+      </c>
+      <c r="B220" s="12">
+        <v>1</v>
+      </c>
+      <c r="C220" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="D220" s="13"/>
+      <c r="E220" s="14" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -5165,10 +5206,10 @@
         <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>355</v>
+        <v>431</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -5179,10 +5220,10 @@
         <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>356</v>
+        <v>432</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -5193,10 +5234,10 @@
         <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>369</v>
+        <v>433</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -5207,10 +5248,10 @@
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>370</v>
+        <v>434</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -5221,10 +5262,10 @@
         <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>371</v>
+        <v>435</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -5235,57 +5276,49 @@
         <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>1</v>
-      </c>
-      <c r="B227">
-        <v>1</v>
-      </c>
-      <c r="C227" t="s">
-        <v>400</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="5">
-        <v>1</v>
-      </c>
-      <c r="B228" s="5">
-        <v>1</v>
-      </c>
-      <c r="C228" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="D228" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E228" s="7"/>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>1</v>
-      </c>
-      <c r="B229">
-        <v>1</v>
-      </c>
-      <c r="C229" t="s">
-        <v>394</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>346</v>
-      </c>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="22">
+        <v>1</v>
+      </c>
+      <c r="C227" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="D227" s="23"/>
+      <c r="E227" s="24"/>
+    </row>
+    <row r="228" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="22">
+        <v>1</v>
+      </c>
+      <c r="C228" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="D228" s="23"/>
+      <c r="E228" s="24"/>
+    </row>
+    <row r="229" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="5">
+        <v>1</v>
+      </c>
+      <c r="B229" s="5">
+        <v>1</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="D229" s="6">
+        <v>1</v>
+      </c>
+      <c r="E229" s="7"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
@@ -5295,25 +5328,21 @@
         <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>389</v>
+        <v>437</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>1</v>
-      </c>
-      <c r="B231">
-        <v>1</v>
-      </c>
-      <c r="C231" t="s">
-        <v>396</v>
-      </c>
-      <c r="E231" s="2" t="s">
         <v>343</v>
       </c>
+    </row>
+    <row r="231" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="22">
+        <v>1</v>
+      </c>
+      <c r="C231" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="D231" s="23"/>
+      <c r="E231" s="24"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
@@ -5323,10 +5352,10 @@
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -5337,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>340</v>
@@ -5351,10 +5380,10 @@
         <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>263</v>
+        <v>333</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -5365,10 +5394,10 @@
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>403</v>
+        <v>444</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>404</v>
+        <v>337</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -5379,10 +5408,10 @@
         <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>407</v>
+        <v>445</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>320</v>
+        <v>260</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -5393,52 +5422,51 @@
         <v>1</v>
       </c>
       <c r="C237" t="s">
-        <v>408</v>
+        <v>446</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>1</v>
-      </c>
-      <c r="B238">
-        <v>2</v>
-      </c>
-      <c r="C238" t="s">
-        <v>408</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>1</v>
-      </c>
-      <c r="B239">
-        <v>1</v>
-      </c>
-      <c r="C239" t="s">
-        <v>427</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>428</v>
-      </c>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="5">
+        <v>1</v>
+      </c>
+      <c r="B238" s="5">
+        <v>1</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D238" s="6">
+        <v>1</v>
+      </c>
+      <c r="E238" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="12">
+        <v>1</v>
+      </c>
+      <c r="C239" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="D239" s="13"/>
+      <c r="E239" s="14"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1</v>
       </c>
       <c r="B240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C240" t="s">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>429</v>
+        <v>295</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -5446,13 +5474,13 @@
         <v>1</v>
       </c>
       <c r="B241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C241" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>411</v>
+        <v>268</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -5463,13 +5491,10 @@
         <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F242" t="s">
-        <v>450</v>
+        <v>401</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -5477,13 +5502,13 @@
         <v>1</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C243" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -5494,40 +5519,29 @@
         <v>1</v>
       </c>
       <c r="C244" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>454</v>
+        <v>387</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1</v>
       </c>
-      <c r="B245">
-        <v>1</v>
-      </c>
       <c r="C245" t="s">
-        <v>456</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>292</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="E245" s="2"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1</v>
       </c>
-      <c r="B246">
-        <v>1</v>
-      </c>
       <c r="C246" t="s">
-        <v>193</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F246" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="E246" s="2"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
@@ -5537,87 +5551,179 @@
         <v>1</v>
       </c>
       <c r="C247" t="s">
-        <v>192</v>
+        <v>453</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="F247" s="2"/>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248">
-        <v>1</v>
-      </c>
-      <c r="B248">
-        <v>1</v>
-      </c>
-      <c r="C248" t="s">
+        <v>421</v>
+      </c>
+      <c r="F247" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="5">
+        <v>1</v>
+      </c>
+      <c r="B248" s="5">
+        <v>1</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D248" s="6">
+        <v>1</v>
+      </c>
+      <c r="E248" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>1</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="C249" t="s">
+        <v>454</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>1</v>
+      </c>
+      <c r="C250" t="s">
+        <v>455</v>
+      </c>
+      <c r="E250" s="2"/>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>1</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="C251" t="s">
+        <v>456</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>1</v>
+      </c>
+      <c r="C252" t="s">
+        <v>457</v>
+      </c>
+      <c r="E252" s="2"/>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>1</v>
+      </c>
+      <c r="C253" t="s">
+        <v>458</v>
+      </c>
+      <c r="E253" s="2"/>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>1</v>
+      </c>
+      <c r="C254" t="s">
+        <v>459</v>
+      </c>
+      <c r="E254" s="2"/>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>1</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="C255" t="s">
         <v>191</v>
       </c>
-      <c r="E248" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F248" s="2"/>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C249" t="s">
-        <v>196</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F249" s="2"/>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C250" t="s">
-        <v>197</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="F250" s="2"/>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C251" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C252" t="s">
-        <v>345</v>
-      </c>
-      <c r="D252" s="4"/>
-      <c r="E252" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="F252" s="2"/>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C253" t="s">
-        <v>347</v>
-      </c>
-      <c r="E253" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C254" t="s">
-        <v>345</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C255" t="s">
-        <v>372</v>
-      </c>
       <c r="E255" s="2" t="s">
-        <v>431</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="F255" s="2"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E256" s="2"/>
+      <c r="A256">
+        <v>1</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256" t="s">
+        <v>190</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F256" s="2"/>
+    </row>
+    <row r="257" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C257" t="s">
+        <v>194</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F257" s="2"/>
+    </row>
+    <row r="258" spans="3:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C258" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D258" s="8">
+        <v>1</v>
+      </c>
+      <c r="E258" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F258" s="7"/>
+    </row>
+    <row r="259" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C259" t="s">
+        <v>344</v>
+      </c>
+      <c r="E259" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="260" spans="3:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C260" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D260" s="6">
+        <v>1</v>
+      </c>
+      <c r="E260" s="7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="261" spans="3:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C261" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D261" s="6">
+        <v>1</v>
+      </c>
+      <c r="E261" s="7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="262" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E262" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:D224">

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$262</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="464">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -894,9 +897,6 @@
     <t>380519942562;50</t>
   </si>
   <si>
-    <t>380519940888;50</t>
-  </si>
-  <si>
     <t>380519945568;50</t>
   </si>
   <si>
@@ -996,9 +996,6 @@
     <t>380519945342;50</t>
   </si>
   <si>
-    <t>380519946056;50</t>
-  </si>
-  <si>
     <t>380519944936;50</t>
   </si>
   <si>
@@ -1011,9 +1008,6 @@
     <t>380519945571;50</t>
   </si>
   <si>
-    <t>380519948398;20</t>
-  </si>
-  <si>
     <t>380519944782;50</t>
   </si>
   <si>
@@ -1069,9 +1063,6 @@
   </si>
   <si>
     <t>380519948884;50</t>
-  </si>
-  <si>
-    <t>380204432508;80</t>
   </si>
   <si>
     <t>380984292461;50</t>
@@ -1265,9 +1256,6 @@
     <t>380680563089;75</t>
   </si>
   <si>
-    <t>380687493036;75</t>
-  </si>
-  <si>
     <t>091 ДТ м. Ніжин, вул. Московська, 21 МОДЕМ ДЛЯ ЗАМІНИ</t>
   </si>
   <si>
@@ -1295,9 +1283,6 @@
     <t>380519940972;50</t>
   </si>
   <si>
-    <t>380995501659;75----</t>
-  </si>
-  <si>
     <t>380968027938;75</t>
   </si>
   <si>
@@ -1400,7 +1385,37 @@
     <t>359 Київська обл., смт. Пісківка, вул. Філіпова, 2</t>
   </si>
   <si>
-    <t>360 м. Київ, вул. Драйзера, 8/2</t>
+    <t>380519940888;50 31.05 180hrn</t>
+  </si>
+  <si>
+    <t>380687493036;75 31.05 80hrn</t>
+  </si>
+  <si>
+    <t>380519942567;50</t>
+  </si>
+  <si>
+    <t>380966558607;75</t>
+  </si>
+  <si>
+    <t>380995501659;75</t>
+  </si>
+  <si>
+    <t>380204482812;80</t>
+  </si>
+  <si>
+    <t>354 м. Вишневе, Європейська 8</t>
+  </si>
+  <si>
+    <t>380204432508;80 31.05 394hrn</t>
+  </si>
+  <si>
+    <t>380519948398;20 31.05 80hrn</t>
+  </si>
+  <si>
+    <t>kyivstar</t>
+  </si>
+  <si>
+    <t>380688317553;75</t>
   </si>
 </sst>
 </file>
@@ -1419,7 +1434,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1440,13 +1455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1463,7 +1472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1480,9 +1489,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1490,9 +1496,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1773,10 +1780,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O262"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:O263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A234" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C254" sqref="C254"/>
+    <sheetView tabSelected="1" topLeftCell="A224" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C255" sqref="C255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1801,7 +1809,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E1" t="s">
         <v>219</v>
@@ -1851,7 +1859,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -1870,7 +1878,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -1903,7 +1911,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -2011,7 +2019,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -2029,7 +2037,7 @@
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>1</v>
       </c>
@@ -2046,7 +2054,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>1</v>
       </c>
@@ -2064,7 +2072,7 @@
       </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>1</v>
       </c>
@@ -2082,7 +2090,7 @@
       </c>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>1</v>
       </c>
@@ -2112,7 +2120,7 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="2" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2161,7 +2169,7 @@
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>1</v>
       </c>
@@ -2235,11 +2243,11 @@
         <v>26</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>1</v>
       </c>
@@ -2303,7 +2311,7 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>1</v>
       </c>
@@ -2319,7 +2327,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>1</v>
       </c>
@@ -2333,11 +2341,11 @@
         <v>1</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>1</v>
       </c>
@@ -2351,11 +2359,11 @@
         <v>1</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>1</v>
       </c>
@@ -2370,7 +2378,7 @@
       </c>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>1</v>
       </c>
@@ -2384,7 +2392,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F37" s="7"/>
     </row>
@@ -2399,7 +2407,7 @@
         <v>35</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F38" s="2"/>
     </row>
@@ -2414,7 +2422,7 @@
         <v>36</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F39" s="2"/>
     </row>
@@ -2448,7 +2456,7 @@
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>1</v>
       </c>
@@ -2478,10 +2486,10 @@
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>1</v>
       </c>
@@ -2520,7 +2528,7 @@
         <v>42</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F46" s="2"/>
     </row>
@@ -2539,7 +2547,7 @@
       </c>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>1</v>
       </c>
@@ -2569,7 +2577,7 @@
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="11" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2659,7 +2667,7 @@
         <v>49</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>414</v>
+        <v>454</v>
       </c>
       <c r="F55" s="2"/>
     </row>
@@ -2723,7 +2731,7 @@
       </c>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>1</v>
       </c>
@@ -2737,7 +2745,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2745,7 +2753,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D61" s="10"/>
       <c r="E61" s="11"/>
@@ -2770,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -2872,7 +2880,7 @@
         <v>2</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D70" s="10"/>
       <c r="E70" s="11" t="s">
@@ -2888,11 +2896,11 @@
         <v>3</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D71" s="10"/>
       <c r="E71" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="F71" s="11"/>
     </row>
@@ -2923,7 +2931,7 @@
       </c>
       <c r="D73" s="10"/>
       <c r="E73" s="11" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F73" s="11"/>
     </row>
@@ -2954,7 +2962,7 @@
         <v>64</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F75" s="2"/>
     </row>
@@ -2969,7 +2977,7 @@
         <v>65</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F76" s="2"/>
     </row>
@@ -2999,7 +3007,7 @@
         <v>66</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F78" s="2"/>
     </row>
@@ -3018,21 +3026,21 @@
       </c>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="16">
-        <v>1</v>
-      </c>
-      <c r="B80" s="16">
-        <v>1</v>
-      </c>
-      <c r="C80" s="16" t="s">
+    <row r="80" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
+        <v>1</v>
+      </c>
+      <c r="B80" s="5">
+        <v>1</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D80" s="17">
-        <v>1</v>
-      </c>
-      <c r="E80" s="18"/>
-      <c r="H80" s="18"/>
+      <c r="D80" s="6">
+        <v>1</v>
+      </c>
+      <c r="E80" s="7"/>
+      <c r="H80" s="7"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
@@ -3045,7 +3053,7 @@
         <v>69</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3059,7 +3067,7 @@
         <v>70</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G82" s="2"/>
     </row>
@@ -3074,9 +3082,11 @@
         <v>71</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="F83" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
@@ -3104,9 +3114,11 @@
         <v>73</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="F85" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
@@ -3150,7 +3162,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>1</v>
       </c>
@@ -3164,7 +3176,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3212,7 +3224,7 @@
       </c>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>1</v>
       </c>
@@ -3226,13 +3238,13 @@
         <v>1</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>1</v>
       </c>
@@ -3246,7 +3258,7 @@
         <v>1</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3254,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E95" s="2"/>
     </row>
@@ -3284,7 +3296,7 @@
         <v>84</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F97" s="2"/>
     </row>
@@ -3303,7 +3315,7 @@
       </c>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="C99" s="5" t="s">
         <v>85</v>
       </c>
@@ -3324,9 +3336,11 @@
         <v>152</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="F100" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
@@ -3373,7 +3387,7 @@
       </c>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>1</v>
       </c>
@@ -3387,7 +3401,7 @@
         <v>1</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3555,7 +3569,7 @@
       </c>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>1</v>
       </c>
@@ -3585,7 +3599,7 @@
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F117" s="2"/>
     </row>
@@ -3615,7 +3629,7 @@
         <v>101</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F119" s="2"/>
     </row>
@@ -3630,7 +3644,7 @@
         <v>102</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F120" s="2"/>
     </row>
@@ -3645,7 +3659,7 @@
         <v>103</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F121" s="2"/>
     </row>
@@ -3661,7 +3675,7 @@
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F122" s="2"/>
     </row>
@@ -3691,7 +3705,7 @@
         <v>106</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F124" s="2"/>
     </row>
@@ -3706,11 +3720,11 @@
         <v>107</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F125" s="2"/>
     </row>
-    <row r="126" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <v>1</v>
       </c>
@@ -3724,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F126" s="7"/>
     </row>
@@ -3739,11 +3753,11 @@
         <v>109</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
         <v>1</v>
       </c>
@@ -3757,7 +3771,7 @@
         <v>1</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="I128" s="7"/>
     </row>
@@ -3772,7 +3786,7 @@
         <v>111</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -3843,14 +3857,14 @@
         <v>3</v>
       </c>
       <c r="C134" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F134" s="2"/>
     </row>
-    <row r="135" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
         <v>1</v>
       </c>
@@ -3879,11 +3893,11 @@
         <v>116</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F136" s="2"/>
     </row>
-    <row r="137" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
         <v>1</v>
       </c>
@@ -3897,7 +3911,7 @@
         <v>1</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F137" s="7"/>
     </row>
@@ -3912,7 +3926,7 @@
         <v>118</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>291</v>
+        <v>453</v>
       </c>
       <c r="J138" s="2"/>
     </row>
@@ -3928,7 +3942,7 @@
       </c>
       <c r="E139" s="2"/>
     </row>
-    <row r="140" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
         <v>1</v>
       </c>
@@ -3954,7 +3968,7 @@
         <v>120</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F141" s="2"/>
     </row>
@@ -3969,7 +3983,7 @@
         <v>120</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F142" s="2"/>
     </row>
@@ -3985,10 +3999,10 @@
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
         <v>1</v>
       </c>
@@ -4002,7 +4016,7 @@
         <v>1</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F144" s="7"/>
     </row>
@@ -4017,7 +4031,7 @@
         <v>192</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F145" s="2"/>
     </row>
@@ -4032,7 +4046,7 @@
         <v>122</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F146" s="2"/>
     </row>
@@ -4047,7 +4061,7 @@
         <v>123</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F147" s="2"/>
     </row>
@@ -4062,11 +4076,11 @@
         <v>124</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F148" s="2"/>
     </row>
-    <row r="149" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
         <v>1</v>
       </c>
@@ -4084,7 +4098,7 @@
       </c>
       <c r="F149" s="7"/>
     </row>
-    <row r="150" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
         <v>1</v>
       </c>
@@ -4100,7 +4114,7 @@
       <c r="E150" s="7"/>
       <c r="F150" s="7"/>
     </row>
-    <row r="151" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
         <v>1</v>
       </c>
@@ -4114,7 +4128,7 @@
         <v>1</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F151" s="7"/>
     </row>
@@ -4129,11 +4143,11 @@
         <v>128</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F152" s="2"/>
     </row>
-    <row r="153" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
         <v>1</v>
       </c>
@@ -4147,7 +4161,7 @@
         <v>1</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F153" s="7"/>
     </row>
@@ -4162,8 +4176,8 @@
         <v>130</v>
       </c>
       <c r="D154" s="15"/>
-      <c r="E154" s="20" t="s">
-        <v>397</v>
+      <c r="E154" s="17" t="s">
+        <v>393</v>
       </c>
       <c r="F154" s="14"/>
     </row>
@@ -4178,7 +4192,7 @@
         <v>131</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F155" s="2"/>
     </row>
@@ -4193,11 +4207,11 @@
         <v>132</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F156" s="2"/>
     </row>
-    <row r="157" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
         <v>1</v>
       </c>
@@ -4211,11 +4225,11 @@
         <v>1</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F157" s="7"/>
     </row>
-    <row r="158" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
         <v>1</v>
       </c>
@@ -4229,7 +4243,7 @@
         <v>1</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4243,11 +4257,11 @@
         <v>135</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F159" s="2"/>
     </row>
-    <row r="160" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
         <v>1</v>
       </c>
@@ -4261,7 +4275,7 @@
         <v>1</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F160" s="7"/>
     </row>
@@ -4276,7 +4290,7 @@
         <v>137</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F161" s="2"/>
     </row>
@@ -4291,11 +4305,11 @@
         <v>137</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F162" s="2"/>
     </row>
-    <row r="163" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
         <v>1</v>
       </c>
@@ -4309,7 +4323,7 @@
         <v>1</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F163" s="7"/>
     </row>
@@ -4324,7 +4338,7 @@
         <v>139</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>325</v>
+        <v>455</v>
       </c>
       <c r="F164" s="2"/>
     </row>
@@ -4339,7 +4353,7 @@
         <v>140</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H165" s="2"/>
     </row>
@@ -4354,11 +4368,11 @@
         <v>141</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F166" s="2"/>
     </row>
-    <row r="167" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
         <v>1</v>
       </c>
@@ -4372,11 +4386,11 @@
         <v>1</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F167" s="7"/>
     </row>
-    <row r="168" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
         <v>1</v>
       </c>
@@ -4390,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F168" s="7"/>
     </row>
@@ -4405,7 +4419,7 @@
         <v>144</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F169" s="2"/>
     </row>
@@ -4420,10 +4434,10 @@
         <v>145</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
         <v>1</v>
       </c>
@@ -4437,7 +4451,7 @@
         <v>1</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I171" s="7"/>
     </row>
@@ -4452,7 +4466,7 @@
         <v>147</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F172" s="2"/>
     </row>
@@ -4467,7 +4481,7 @@
         <v>148</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F173" s="2"/>
     </row>
@@ -4497,11 +4511,11 @@
         <v>150</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F175" s="2"/>
     </row>
-    <row r="176" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
         <v>1</v>
       </c>
@@ -4545,7 +4559,7 @@
         <v>154</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F178" s="2"/>
     </row>
@@ -4560,10 +4574,10 @@
         <v>155</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
         <v>1</v>
       </c>
@@ -4592,7 +4606,7 @@
         <v>157</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F181" s="2"/>
     </row>
@@ -4608,7 +4622,7 @@
       </c>
       <c r="D182" s="4"/>
       <c r="E182" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="O182" t="s">
         <v>223</v>
@@ -4625,7 +4639,7 @@
         <v>159</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F183" s="2"/>
     </row>
@@ -4655,7 +4669,7 @@
         <v>161</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H185" s="2"/>
     </row>
@@ -4670,11 +4684,11 @@
         <v>162</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H186" s="2"/>
     </row>
-    <row r="187" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
         <v>1</v>
       </c>
@@ -4718,7 +4732,7 @@
         <v>165</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="L189" s="2"/>
     </row>
@@ -4737,7 +4751,7 @@
       </c>
       <c r="F190" s="2"/>
     </row>
-    <row r="191" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
         <v>1</v>
       </c>
@@ -4751,11 +4765,11 @@
         <v>1</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F191" s="7"/>
     </row>
-    <row r="192" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
         <v>1</v>
       </c>
@@ -4769,7 +4783,7 @@
         <v>1</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F192" s="7"/>
     </row>
@@ -4784,7 +4798,7 @@
         <v>169</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F193" s="2"/>
     </row>
@@ -4799,11 +4813,11 @@
         <v>170</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F194" s="2"/>
     </row>
-    <row r="195" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
         <v>1</v>
       </c>
@@ -4817,7 +4831,7 @@
         <v>1</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F195" s="7"/>
     </row>
@@ -4832,7 +4846,7 @@
         <v>172</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F196" s="2"/>
     </row>
@@ -4847,7 +4861,7 @@
         <v>173</v>
       </c>
       <c r="D197" s="13"/>
-      <c r="E197" s="19" t="s">
+      <c r="E197" s="16" t="s">
         <v>212</v>
       </c>
       <c r="F197" s="14"/>
@@ -4863,7 +4877,7 @@
         <v>174</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F198" s="2"/>
     </row>
@@ -4878,7 +4892,7 @@
         <v>175</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F199" s="2"/>
     </row>
@@ -4920,7 +4934,7 @@
         <v>177</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F202" s="2"/>
     </row>
@@ -4935,7 +4949,7 @@
         <v>178</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F203" s="2"/>
     </row>
@@ -4950,7 +4964,7 @@
         <v>179</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G204" s="2"/>
     </row>
@@ -4965,7 +4979,7 @@
         <v>180</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -4979,7 +4993,7 @@
         <v>181</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -4993,7 +5007,7 @@
         <v>182</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F207" s="2"/>
     </row>
@@ -5008,7 +5022,7 @@
         <v>183</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>350</v>
+        <v>460</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5021,8 +5035,8 @@
       <c r="C209" t="s">
         <v>184</v>
       </c>
-      <c r="E209" s="21" t="s">
-        <v>408</v>
+      <c r="E209" s="18" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -5036,11 +5050,11 @@
         <v>185</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F210" s="2"/>
     </row>
-    <row r="211" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
         <v>1</v>
       </c>
@@ -5054,7 +5068,7 @@
         <v>1</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F211" s="7"/>
     </row>
@@ -5066,11 +5080,11 @@
         <v>1</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D212" s="13"/>
       <c r="E212" s="14" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F212" s="14"/>
     </row>
@@ -5085,11 +5099,11 @@
         <v>187</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F213" s="2"/>
     </row>
-    <row r="214" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
         <v>1</v>
       </c>
@@ -5105,7 +5119,7 @@
       <c r="E214" s="7"/>
       <c r="G214" s="7"/>
     </row>
-    <row r="215" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="5">
         <v>1</v>
       </c>
@@ -5120,7 +5134,7 @@
       </c>
       <c r="E215" s="7"/>
     </row>
-    <row r="216" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="5">
         <v>1</v>
       </c>
@@ -5128,13 +5142,13 @@
         <v>1</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D216" s="6">
         <v>1</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -5145,13 +5159,13 @@
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="5">
         <v>1</v>
       </c>
@@ -5165,7 +5179,7 @@
         <v>1</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="219" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5176,7 +5190,7 @@
         <v>1</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D219" s="13"/>
       <c r="E219" s="14" t="s">
@@ -5191,11 +5205,11 @@
         <v>1</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D220" s="13"/>
       <c r="E220" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -5206,7 +5220,7 @@
         <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>250</v>
@@ -5220,10 +5234,10 @@
         <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -5234,10 +5248,10 @@
         <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -5248,7 +5262,7 @@
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>224</v>
@@ -5262,7 +5276,7 @@
         <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>211</v>
@@ -5276,36 +5290,38 @@
         <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="227" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="22">
-        <v>1</v>
-      </c>
-      <c r="C227" s="22" t="s">
-        <v>438</v>
-      </c>
-      <c r="D227" s="23"/>
-      <c r="E227" s="24"/>
-    </row>
-    <row r="228" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="22">
-        <v>1</v>
-      </c>
-      <c r="C228" s="22" t="s">
-        <v>439</v>
-      </c>
-      <c r="D228" s="23"/>
-      <c r="E228" s="24"/>
-    </row>
-    <row r="229" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="20">
+        <v>1</v>
+      </c>
+      <c r="C227" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="D227" s="21"/>
+      <c r="E227" s="22"/>
+    </row>
+    <row r="228" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="12">
+        <v>1</v>
+      </c>
+      <c r="C228" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="D228" s="13"/>
+      <c r="E228" s="14" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="5">
         <v>1</v>
       </c>
@@ -5313,7 +5329,7 @@
         <v>1</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D229" s="6">
         <v>1</v>
@@ -5328,21 +5344,23 @@
         <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="22">
-        <v>1</v>
-      </c>
-      <c r="C231" s="22" t="s">
-        <v>440</v>
-      </c>
-      <c r="D231" s="23"/>
-      <c r="E231" s="24"/>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="12">
+        <v>1</v>
+      </c>
+      <c r="C231" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="D231" s="13"/>
+      <c r="E231" s="19" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
@@ -5352,10 +5370,10 @@
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -5366,10 +5384,10 @@
         <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -5380,10 +5398,10 @@
         <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -5394,10 +5412,10 @@
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -5408,7 +5426,7 @@
         <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>260</v>
@@ -5422,13 +5440,13 @@
         <v>1</v>
       </c>
       <c r="C237" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="5">
         <v>1</v>
       </c>
@@ -5436,24 +5454,24 @@
         <v>1</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D238" s="6">
         <v>1</v>
       </c>
       <c r="E238" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="12">
-        <v>1</v>
-      </c>
-      <c r="C239" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="D239" s="13"/>
-      <c r="E239" s="14"/>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="20">
+        <v>1</v>
+      </c>
+      <c r="C239" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="D239" s="21"/>
+      <c r="E239" s="22"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
@@ -5463,10 +5481,10 @@
         <v>1</v>
       </c>
       <c r="C240" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -5477,7 +5495,7 @@
         <v>2</v>
       </c>
       <c r="C241" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>268</v>
@@ -5491,10 +5509,10 @@
         <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -5505,10 +5523,10 @@
         <v>2</v>
       </c>
       <c r="C243" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -5519,10 +5537,10 @@
         <v>1</v>
       </c>
       <c r="C244" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -5530,18 +5548,22 @@
         <v>1</v>
       </c>
       <c r="C245" t="s">
-        <v>451</v>
-      </c>
-      <c r="E245" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>452</v>
-      </c>
-      <c r="E246" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
@@ -5551,16 +5573,16 @@
         <v>1</v>
       </c>
       <c r="C247" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F247" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="5">
         <v>1</v>
       </c>
@@ -5568,13 +5590,13 @@
         <v>1</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D248" s="6">
         <v>1</v>
       </c>
       <c r="E248" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -5585,10 +5607,10 @@
         <v>1</v>
       </c>
       <c r="C249" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -5596,9 +5618,11 @@
         <v>1</v>
       </c>
       <c r="C250" t="s">
-        <v>455</v>
-      </c>
-      <c r="E250" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
@@ -5608,53 +5632,59 @@
         <v>1</v>
       </c>
       <c r="C251" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <v>1</v>
-      </c>
-      <c r="C252" t="s">
-        <v>457</v>
-      </c>
-      <c r="E252" s="2"/>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="20">
+        <v>1</v>
+      </c>
+      <c r="B252" s="20">
+        <v>1</v>
+      </c>
+      <c r="C252" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="D252" s="21"/>
+      <c r="E252" s="22" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1</v>
       </c>
       <c r="C253" t="s">
-        <v>458</v>
-      </c>
-      <c r="E253" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1</v>
       </c>
       <c r="C254" t="s">
-        <v>459</v>
-      </c>
-      <c r="E254" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1</v>
       </c>
-      <c r="B255">
-        <v>1</v>
-      </c>
       <c r="C255" t="s">
-        <v>191</v>
+        <v>373</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F255" s="2"/>
+        <v>289</v>
+      </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
@@ -5664,68 +5694,88 @@
         <v>1</v>
       </c>
       <c r="C256" t="s">
+        <v>191</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F256" s="2"/>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>1</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257" t="s">
         <v>190</v>
       </c>
-      <c r="E256" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F256" s="2"/>
-    </row>
-    <row r="257" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C257" t="s">
+      <c r="E257" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F257" s="2"/>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C258" t="s">
         <v>194</v>
       </c>
-      <c r="E257" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="F257" s="2"/>
-    </row>
-    <row r="258" spans="3:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C258" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="D258" s="8">
-        <v>1</v>
-      </c>
-      <c r="E258" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="F258" s="7"/>
-    </row>
-    <row r="259" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C259" t="s">
-        <v>344</v>
-      </c>
-      <c r="E259" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="260" spans="3:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C260" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="D260" s="6">
-        <v>1</v>
-      </c>
-      <c r="E260" s="7" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="261" spans="3:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E258" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F258" s="2"/>
+    </row>
+    <row r="259" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C259" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D259" s="8">
+        <v>1</v>
+      </c>
+      <c r="E259" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F259" s="7"/>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C260" t="s">
+        <v>341</v>
+      </c>
+      <c r="E260" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="C261" s="5" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="D261" s="6">
         <v>1</v>
       </c>
       <c r="E261" s="7" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="262" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E262" s="2"/>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C262" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D262" s="6">
+        <v>1</v>
+      </c>
+      <c r="E262" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E263" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F262">
+    <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:D224">
     <sortCondition ref="C189"/>
   </sortState>

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="465">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -1416,6 +1416,9 @@
   </si>
   <si>
     <t>380688317553;75</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 360 м. Київ, вул. Драйзера, 8/2</t>
   </si>
 </sst>
 </file>
@@ -1783,8 +1786,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C255" sqref="C255"/>
+    <sheetView tabSelected="1" topLeftCell="A231" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C263" sqref="C263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5680,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="C255" t="s">
-        <v>373</v>
+        <v>464</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>289</v>

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$262</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$263</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="466">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -1419,6 +1419,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 360 м. Київ, вул. Драйзера, 8/2</t>
+  </si>
+  <si>
+    <t>357 ДТ</t>
   </si>
 </sst>
 </file>
@@ -1783,11 +1786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:O263"/>
+  <dimension ref="A1:O264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C263" sqref="C263"/>
+    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F254" sqref="F254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1881,7 +1883,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -1914,7 +1916,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -2022,7 +2024,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -2040,7 +2042,7 @@
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>1</v>
       </c>
@@ -2057,7 +2059,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>1</v>
       </c>
@@ -2075,7 +2077,7 @@
       </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>1</v>
       </c>
@@ -2093,7 +2095,7 @@
       </c>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>1</v>
       </c>
@@ -2172,7 +2174,7 @@
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>1</v>
       </c>
@@ -2250,7 +2252,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>1</v>
       </c>
@@ -2314,7 +2316,7 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>1</v>
       </c>
@@ -2330,7 +2332,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>1</v>
       </c>
@@ -2348,7 +2350,7 @@
       </c>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>1</v>
       </c>
@@ -2366,7 +2368,7 @@
       </c>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>1</v>
       </c>
@@ -2381,7 +2383,7 @@
       </c>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>1</v>
       </c>
@@ -2459,7 +2461,7 @@
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>1</v>
       </c>
@@ -2492,7 +2494,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>1</v>
       </c>
@@ -2550,7 +2552,7 @@
       </c>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>1</v>
       </c>
@@ -2734,7 +2736,7 @@
       </c>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>1</v>
       </c>
@@ -3029,7 +3031,7 @@
       </c>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>1</v>
       </c>
@@ -3165,7 +3167,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>1</v>
       </c>
@@ -3227,7 +3229,7 @@
       </c>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>1</v>
       </c>
@@ -3247,7 +3249,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>1</v>
       </c>
@@ -3318,7 +3320,7 @@
       </c>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C99" s="5" t="s">
         <v>85</v>
       </c>
@@ -3390,7 +3392,7 @@
       </c>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>1</v>
       </c>
@@ -3572,7 +3574,7 @@
       </c>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>1</v>
       </c>
@@ -3727,7 +3729,7 @@
       </c>
       <c r="F125" s="2"/>
     </row>
-    <row r="126" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <v>1</v>
       </c>
@@ -3760,7 +3762,7 @@
       </c>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
         <v>1</v>
       </c>
@@ -3867,7 +3869,7 @@
       </c>
       <c r="F134" s="2"/>
     </row>
-    <row r="135" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
         <v>1</v>
       </c>
@@ -3900,7 +3902,7 @@
       </c>
       <c r="F136" s="2"/>
     </row>
-    <row r="137" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
         <v>1</v>
       </c>
@@ -3945,7 +3947,7 @@
       </c>
       <c r="E139" s="2"/>
     </row>
-    <row r="140" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
         <v>1</v>
       </c>
@@ -4005,7 +4007,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="144" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
         <v>1</v>
       </c>
@@ -4083,7 +4085,7 @@
       </c>
       <c r="F148" s="2"/>
     </row>
-    <row r="149" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
         <v>1</v>
       </c>
@@ -4101,7 +4103,7 @@
       </c>
       <c r="F149" s="7"/>
     </row>
-    <row r="150" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
         <v>1</v>
       </c>
@@ -4117,7 +4119,7 @@
       <c r="E150" s="7"/>
       <c r="F150" s="7"/>
     </row>
-    <row r="151" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
         <v>1</v>
       </c>
@@ -4150,7 +4152,7 @@
       </c>
       <c r="F152" s="2"/>
     </row>
-    <row r="153" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
         <v>1</v>
       </c>
@@ -4214,7 +4216,7 @@
       </c>
       <c r="F156" s="2"/>
     </row>
-    <row r="157" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
         <v>1</v>
       </c>
@@ -4232,7 +4234,7 @@
       </c>
       <c r="F157" s="7"/>
     </row>
-    <row r="158" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
         <v>1</v>
       </c>
@@ -4264,7 +4266,7 @@
       </c>
       <c r="F159" s="2"/>
     </row>
-    <row r="160" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
         <v>1</v>
       </c>
@@ -4312,7 +4314,7 @@
       </c>
       <c r="F162" s="2"/>
     </row>
-    <row r="163" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
         <v>1</v>
       </c>
@@ -4375,7 +4377,7 @@
       </c>
       <c r="F166" s="2"/>
     </row>
-    <row r="167" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
         <v>1</v>
       </c>
@@ -4393,7 +4395,7 @@
       </c>
       <c r="F167" s="7"/>
     </row>
-    <row r="168" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
         <v>1</v>
       </c>
@@ -4440,7 +4442,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="171" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
         <v>1</v>
       </c>
@@ -4518,7 +4520,7 @@
       </c>
       <c r="F175" s="2"/>
     </row>
-    <row r="176" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
         <v>1</v>
       </c>
@@ -4580,7 +4582,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="180" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
         <v>1</v>
       </c>
@@ -4691,7 +4693,7 @@
       </c>
       <c r="H186" s="2"/>
     </row>
-    <row r="187" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
         <v>1</v>
       </c>
@@ -4754,7 +4756,7 @@
       </c>
       <c r="F190" s="2"/>
     </row>
-    <row r="191" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
         <v>1</v>
       </c>
@@ -4772,7 +4774,7 @@
       </c>
       <c r="F191" s="7"/>
     </row>
-    <row r="192" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
         <v>1</v>
       </c>
@@ -4820,7 +4822,7 @@
       </c>
       <c r="F194" s="2"/>
     </row>
-    <row r="195" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
         <v>1</v>
       </c>
@@ -5057,7 +5059,7 @@
       </c>
       <c r="F210" s="2"/>
     </row>
-    <row r="211" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
         <v>1</v>
       </c>
@@ -5106,7 +5108,7 @@
       </c>
       <c r="F213" s="2"/>
     </row>
-    <row r="214" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
         <v>1</v>
       </c>
@@ -5122,7 +5124,7 @@
       <c r="E214" s="7"/>
       <c r="G214" s="7"/>
     </row>
-    <row r="215" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="5">
         <v>1</v>
       </c>
@@ -5137,7 +5139,7 @@
       </c>
       <c r="E215" s="7"/>
     </row>
-    <row r="216" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="5">
         <v>1</v>
       </c>
@@ -5168,7 +5170,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="218" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="5">
         <v>1</v>
       </c>
@@ -5324,7 +5326,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="229" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="5">
         <v>1</v>
       </c>
@@ -5449,7 +5451,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="238" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="5">
         <v>1</v>
       </c>
@@ -5585,7 +5587,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="248" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="5">
         <v>1</v>
       </c>
@@ -5656,15 +5658,13 @@
         <v>462</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253">
-        <v>1</v>
-      </c>
-      <c r="C253" t="s">
-        <v>451</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>348</v>
+    <row r="253" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C253" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="D253" s="13"/>
+      <c r="E253" s="14" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -5672,10 +5672,10 @@
         <v>1</v>
       </c>
       <c r="C254" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -5683,26 +5683,22 @@
         <v>1</v>
       </c>
       <c r="C255" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>289</v>
+        <v>358</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1</v>
       </c>
-      <c r="B256">
-        <v>1</v>
-      </c>
       <c r="C256" t="s">
-        <v>191</v>
+        <v>464</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="F256" s="2"/>
+        <v>289</v>
+      </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
@@ -5712,73 +5708,84 @@
         <v>1</v>
       </c>
       <c r="C257" t="s">
+        <v>191</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F257" s="2"/>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>1</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="C258" t="s">
         <v>190</v>
       </c>
-      <c r="E257" s="2" t="s">
+      <c r="E258" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="F257" s="2"/>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C258" t="s">
+      <c r="F258" s="2"/>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C259" t="s">
         <v>194</v>
       </c>
-      <c r="E258" s="2" t="s">
+      <c r="E259" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="F258" s="2"/>
-    </row>
-    <row r="259" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C259" s="5" t="s">
+      <c r="F259" s="2"/>
+    </row>
+    <row r="260" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C260" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="D259" s="8">
-        <v>1</v>
-      </c>
-      <c r="E259" s="7" t="s">
+      <c r="D260" s="8">
+        <v>1</v>
+      </c>
+      <c r="E260" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="F259" s="7"/>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C260" t="s">
+      <c r="F260" s="7"/>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C261" t="s">
         <v>341</v>
       </c>
-      <c r="E260" t="s">
+      <c r="E261" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="261" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C261" s="5" t="s">
+    <row r="262" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C262" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="D261" s="6">
-        <v>1</v>
-      </c>
-      <c r="E261" s="7" t="s">
+      <c r="D262" s="6">
+        <v>1</v>
+      </c>
+      <c r="E262" s="7" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="262" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C262" s="5" t="s">
+    <row r="263" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C263" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="D262" s="6">
-        <v>1</v>
-      </c>
-      <c r="E262" s="7" t="s">
+      <c r="D263" s="6">
+        <v>1</v>
+      </c>
+      <c r="E263" s="7" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E263" s="2"/>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E264" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F262">
-    <filterColumn colId="3">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F263"/>
   <sortState ref="A2:D224">
     <sortCondition ref="C189"/>
   </sortState>

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$263</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$264</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="468">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -886,9 +886,6 @@
   </si>
   <si>
     <t>380519946256;50</t>
-  </si>
-  <si>
-    <t>380204432513;50</t>
   </si>
   <si>
     <t>380519941270;50</t>
@@ -1421,7 +1418,16 @@
     <t xml:space="preserve"> 360 м. Київ, вул. Драйзера, 8/2</t>
   </si>
   <si>
-    <t>357 ДТ</t>
+    <t>380204432513;50 02,06 72 hrn</t>
+  </si>
+  <si>
+    <t>380519941270;50 02,06 100hrn</t>
+  </si>
+  <si>
+    <t>356 Житомир. обл., м. Овруч, вул. Репкіна, буд.7</t>
+  </si>
+  <si>
+    <t>357 Житомир обл., м. Овруч, вул. Базарна, 6</t>
   </si>
 </sst>
 </file>
@@ -1786,10 +1792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O264"/>
+  <dimension ref="A1:O265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F254" sqref="F254"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C260" sqref="C260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1814,7 +1820,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E1" t="s">
         <v>219</v>
@@ -1864,7 +1870,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -2125,7 +2131,7 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2248,7 +2254,7 @@
         <v>26</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F28" s="2"/>
     </row>
@@ -2346,7 +2352,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F34" s="7"/>
     </row>
@@ -2364,7 +2370,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F35" s="7"/>
     </row>
@@ -2397,7 +2403,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F37" s="7"/>
     </row>
@@ -2412,7 +2418,7 @@
         <v>35</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F38" s="2"/>
     </row>
@@ -2427,7 +2433,7 @@
         <v>36</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F39" s="2"/>
     </row>
@@ -2491,7 +2497,7 @@
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2533,7 +2539,7 @@
         <v>42</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F46" s="2"/>
     </row>
@@ -2582,7 +2588,7 @@
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2672,7 +2678,7 @@
         <v>49</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F55" s="2"/>
     </row>
@@ -2750,7 +2756,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2758,7 +2764,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D61" s="10"/>
       <c r="E61" s="11"/>
@@ -2783,7 +2789,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -2885,7 +2891,7 @@
         <v>2</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D70" s="10"/>
       <c r="E70" s="11" t="s">
@@ -2901,11 +2907,11 @@
         <v>3</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D71" s="10"/>
       <c r="E71" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F71" s="11"/>
     </row>
@@ -2936,7 +2942,7 @@
       </c>
       <c r="D73" s="10"/>
       <c r="E73" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F73" s="11"/>
     </row>
@@ -2967,7 +2973,7 @@
         <v>64</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F75" s="2"/>
     </row>
@@ -2982,7 +2988,7 @@
         <v>65</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F76" s="2"/>
     </row>
@@ -3012,7 +3018,7 @@
         <v>66</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F78" s="2"/>
     </row>
@@ -3058,7 +3064,7 @@
         <v>69</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3072,7 +3078,7 @@
         <v>70</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G82" s="2"/>
     </row>
@@ -3087,10 +3093,10 @@
         <v>71</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3122,7 +3128,7 @@
         <v>251</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3181,7 +3187,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3243,10 +3249,10 @@
         <v>1</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="94" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3263,7 +3269,7 @@
         <v>1</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3271,7 +3277,7 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E95" s="2"/>
     </row>
@@ -3301,7 +3307,7 @@
         <v>84</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F97" s="2"/>
     </row>
@@ -3341,10 +3347,10 @@
         <v>152</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3406,7 +3412,7 @@
         <v>1</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3604,7 +3610,7 @@
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F117" s="2"/>
     </row>
@@ -3634,7 +3640,7 @@
         <v>101</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F119" s="2"/>
     </row>
@@ -3649,7 +3655,7 @@
         <v>102</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F120" s="2"/>
     </row>
@@ -3664,7 +3670,7 @@
         <v>103</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F121" s="2"/>
     </row>
@@ -3680,7 +3686,7 @@
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F122" s="2"/>
     </row>
@@ -3710,7 +3716,7 @@
         <v>106</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F124" s="2"/>
     </row>
@@ -3725,7 +3731,7 @@
         <v>107</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F125" s="2"/>
     </row>
@@ -3743,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F126" s="7"/>
     </row>
@@ -3758,7 +3764,7 @@
         <v>109</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F127" s="2"/>
     </row>
@@ -3776,7 +3782,7 @@
         <v>1</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I128" s="7"/>
     </row>
@@ -3791,7 +3797,7 @@
         <v>111</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -3835,7 +3841,7 @@
         <v>114</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>288</v>
+        <v>464</v>
       </c>
       <c r="H132" s="2"/>
     </row>
@@ -3850,7 +3856,7 @@
         <v>114</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>289</v>
+        <v>465</v>
       </c>
       <c r="F133" s="2"/>
     </row>
@@ -3862,10 +3868,10 @@
         <v>3</v>
       </c>
       <c r="C134" t="s">
+        <v>406</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="F134" s="2"/>
     </row>
@@ -3883,7 +3889,7 @@
         <v>1</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F135" s="7"/>
     </row>
@@ -3898,7 +3904,7 @@
         <v>116</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F136" s="2"/>
     </row>
@@ -3916,7 +3922,7 @@
         <v>1</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F137" s="7"/>
     </row>
@@ -3931,7 +3937,7 @@
         <v>118</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J138" s="2"/>
     </row>
@@ -3973,7 +3979,7 @@
         <v>120</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F141" s="2"/>
     </row>
@@ -3988,7 +3994,7 @@
         <v>120</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F142" s="2"/>
     </row>
@@ -4004,7 +4010,7 @@
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="144" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4021,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F144" s="7"/>
     </row>
@@ -4036,7 +4042,7 @@
         <v>192</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F145" s="2"/>
     </row>
@@ -4051,7 +4057,7 @@
         <v>122</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F146" s="2"/>
     </row>
@@ -4066,7 +4072,7 @@
         <v>123</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F147" s="2"/>
     </row>
@@ -4081,7 +4087,7 @@
         <v>124</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F148" s="2"/>
     </row>
@@ -4133,7 +4139,7 @@
         <v>1</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F151" s="7"/>
     </row>
@@ -4148,7 +4154,7 @@
         <v>128</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F152" s="2"/>
     </row>
@@ -4166,7 +4172,7 @@
         <v>1</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F153" s="7"/>
     </row>
@@ -4182,7 +4188,7 @@
       </c>
       <c r="D154" s="15"/>
       <c r="E154" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F154" s="14"/>
     </row>
@@ -4197,7 +4203,7 @@
         <v>131</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F155" s="2"/>
     </row>
@@ -4212,7 +4218,7 @@
         <v>132</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F156" s="2"/>
     </row>
@@ -4230,7 +4236,7 @@
         <v>1</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F157" s="7"/>
     </row>
@@ -4248,7 +4254,7 @@
         <v>1</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4262,7 +4268,7 @@
         <v>135</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F159" s="2"/>
     </row>
@@ -4280,7 +4286,7 @@
         <v>1</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F160" s="7"/>
     </row>
@@ -4295,7 +4301,7 @@
         <v>137</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F161" s="2"/>
     </row>
@@ -4310,7 +4316,7 @@
         <v>137</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F162" s="2"/>
     </row>
@@ -4328,7 +4334,7 @@
         <v>1</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F163" s="7"/>
     </row>
@@ -4343,7 +4349,7 @@
         <v>139</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F164" s="2"/>
     </row>
@@ -4358,7 +4364,7 @@
         <v>140</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H165" s="2"/>
     </row>
@@ -4373,7 +4379,7 @@
         <v>141</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F166" s="2"/>
     </row>
@@ -4391,7 +4397,7 @@
         <v>1</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F167" s="7"/>
     </row>
@@ -4409,7 +4415,7 @@
         <v>1</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F168" s="7"/>
     </row>
@@ -4424,7 +4430,7 @@
         <v>144</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F169" s="2"/>
     </row>
@@ -4439,7 +4445,7 @@
         <v>145</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="171" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4456,7 +4462,7 @@
         <v>1</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I171" s="7"/>
     </row>
@@ -4471,7 +4477,7 @@
         <v>147</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F172" s="2"/>
     </row>
@@ -4486,7 +4492,7 @@
         <v>148</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F173" s="2"/>
     </row>
@@ -4516,7 +4522,7 @@
         <v>150</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F175" s="2"/>
     </row>
@@ -4564,7 +4570,7 @@
         <v>154</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F178" s="2"/>
     </row>
@@ -4579,7 +4585,7 @@
         <v>155</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="180" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4611,7 +4617,7 @@
         <v>157</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F181" s="2"/>
     </row>
@@ -4627,7 +4633,7 @@
       </c>
       <c r="D182" s="4"/>
       <c r="E182" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O182" t="s">
         <v>223</v>
@@ -4644,7 +4650,7 @@
         <v>159</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F183" s="2"/>
     </row>
@@ -4674,7 +4680,7 @@
         <v>161</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H185" s="2"/>
     </row>
@@ -4689,7 +4695,7 @@
         <v>162</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H186" s="2"/>
     </row>
@@ -4737,7 +4743,7 @@
         <v>165</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L189" s="2"/>
     </row>
@@ -4770,7 +4776,7 @@
         <v>1</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F191" s="7"/>
     </row>
@@ -4788,7 +4794,7 @@
         <v>1</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F192" s="7"/>
     </row>
@@ -4803,7 +4809,7 @@
         <v>169</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F193" s="2"/>
     </row>
@@ -4818,7 +4824,7 @@
         <v>170</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F194" s="2"/>
     </row>
@@ -4836,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F195" s="7"/>
     </row>
@@ -4851,7 +4857,7 @@
         <v>172</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F196" s="2"/>
     </row>
@@ -4882,7 +4888,7 @@
         <v>174</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F198" s="2"/>
     </row>
@@ -4897,7 +4903,7 @@
         <v>175</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F199" s="2"/>
     </row>
@@ -4939,7 +4945,7 @@
         <v>177</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F202" s="2"/>
     </row>
@@ -4954,7 +4960,7 @@
         <v>178</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F203" s="2"/>
     </row>
@@ -4969,7 +4975,7 @@
         <v>179</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G204" s="2"/>
     </row>
@@ -4984,7 +4990,7 @@
         <v>180</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -4998,7 +5004,7 @@
         <v>181</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -5012,7 +5018,7 @@
         <v>182</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F207" s="2"/>
     </row>
@@ -5027,7 +5033,7 @@
         <v>183</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5041,7 +5047,7 @@
         <v>184</v>
       </c>
       <c r="E209" s="18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -5055,7 +5061,7 @@
         <v>185</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F210" s="2"/>
     </row>
@@ -5073,7 +5079,7 @@
         <v>1</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F211" s="7"/>
     </row>
@@ -5085,11 +5091,11 @@
         <v>1</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D212" s="13"/>
       <c r="E212" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F212" s="14"/>
     </row>
@@ -5104,7 +5110,7 @@
         <v>187</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F213" s="2"/>
     </row>
@@ -5147,13 +5153,13 @@
         <v>1</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D216" s="6">
         <v>1</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -5164,10 +5170,10 @@
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="218" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5184,7 +5190,7 @@
         <v>1</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="219" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5195,11 +5201,11 @@
         <v>1</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D219" s="13"/>
       <c r="E219" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="220" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5210,11 +5216,11 @@
         <v>1</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D220" s="13"/>
       <c r="E220" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -5225,7 +5231,7 @@
         <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>250</v>
@@ -5239,10 +5245,10 @@
         <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -5253,10 +5259,10 @@
         <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -5267,7 +5273,7 @@
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>224</v>
@@ -5281,7 +5287,7 @@
         <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>211</v>
@@ -5295,10 +5301,10 @@
         <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>220</v>
@@ -5309,7 +5315,7 @@
         <v>1</v>
       </c>
       <c r="C227" s="20" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D227" s="21"/>
       <c r="E227" s="22"/>
@@ -5319,11 +5325,11 @@
         <v>1</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D228" s="13"/>
       <c r="E228" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="229" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5334,7 +5340,7 @@
         <v>1</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D229" s="6">
         <v>1</v>
@@ -5349,10 +5355,10 @@
         <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="231" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5360,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D231" s="13"/>
       <c r="E231" s="19" t="s">
@@ -5375,10 +5381,10 @@
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -5389,10 +5395,10 @@
         <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -5403,10 +5409,10 @@
         <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -5417,10 +5423,10 @@
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -5431,7 +5437,7 @@
         <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>260</v>
@@ -5445,27 +5451,25 @@
         <v>1</v>
       </c>
       <c r="C237" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="5">
-        <v>1</v>
-      </c>
-      <c r="B238" s="5">
-        <v>1</v>
-      </c>
-      <c r="C238" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="D238" s="6">
-        <v>1</v>
-      </c>
-      <c r="E238" s="7" t="s">
-        <v>316</v>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="12">
+        <v>1</v>
+      </c>
+      <c r="B238" s="12">
+        <v>1</v>
+      </c>
+      <c r="C238" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="D238" s="13"/>
+      <c r="E238" s="14" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="239" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -5473,7 +5477,7 @@
         <v>1</v>
       </c>
       <c r="C239" s="20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D239" s="21"/>
       <c r="E239" s="22"/>
@@ -5486,10 +5490,10 @@
         <v>1</v>
       </c>
       <c r="C240" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -5500,7 +5504,7 @@
         <v>2</v>
       </c>
       <c r="C241" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>268</v>
@@ -5514,10 +5518,10 @@
         <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -5528,10 +5532,10 @@
         <v>2</v>
       </c>
       <c r="C243" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -5542,10 +5546,10 @@
         <v>1</v>
       </c>
       <c r="C244" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -5553,10 +5557,10 @@
         <v>1</v>
       </c>
       <c r="C245" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -5564,10 +5568,10 @@
         <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -5578,13 +5582,13 @@
         <v>1</v>
       </c>
       <c r="C247" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E247" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F247" t="s">
         <v>416</v>
-      </c>
-      <c r="F247" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="248" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5595,13 +5599,13 @@
         <v>1</v>
       </c>
       <c r="C248" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D248" s="6">
+        <v>1</v>
+      </c>
+      <c r="E248" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="D248" s="6">
-        <v>1</v>
-      </c>
-      <c r="E248" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -5612,10 +5616,10 @@
         <v>1</v>
       </c>
       <c r="C249" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -5623,7 +5627,7 @@
         <v>1</v>
       </c>
       <c r="C250" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>197</v>
@@ -5637,10 +5641,10 @@
         <v>1</v>
       </c>
       <c r="C251" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="252" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -5651,31 +5655,35 @@
         <v>1</v>
       </c>
       <c r="C252" s="20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D252" s="21"/>
       <c r="E252" s="22" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="253" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="12">
+        <v>1</v>
+      </c>
       <c r="C253" s="12" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D253" s="13"/>
       <c r="E253" s="14" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254">
-        <v>1</v>
-      </c>
-      <c r="C254" t="s">
-        <v>451</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>348</v>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="12">
+        <v>1</v>
+      </c>
+      <c r="C254" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="D254" s="13"/>
+      <c r="E254" s="14" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -5683,10 +5691,10 @@
         <v>1</v>
       </c>
       <c r="C255" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -5694,26 +5702,22 @@
         <v>1</v>
       </c>
       <c r="C256" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>289</v>
+        <v>357</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1</v>
       </c>
-      <c r="B257">
-        <v>1</v>
-      </c>
       <c r="C257" t="s">
-        <v>191</v>
+        <v>463</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="F257" s="2"/>
+        <v>288</v>
+      </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
@@ -5723,56 +5727,60 @@
         <v>1</v>
       </c>
       <c r="C258" t="s">
+        <v>191</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F258" s="2"/>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>1</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+      <c r="C259" t="s">
         <v>190</v>
       </c>
-      <c r="E258" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="F258" s="2"/>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C259" t="s">
+      <c r="E259" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F259" s="2"/>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C260" t="s">
         <v>194</v>
       </c>
-      <c r="E259" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="F259" s="2"/>
-    </row>
-    <row r="260" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C260" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="D260" s="8">
-        <v>1</v>
-      </c>
-      <c r="E260" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="F260" s="7"/>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C261" t="s">
-        <v>341</v>
-      </c>
-      <c r="E261" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C262" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="D262" s="6">
-        <v>1</v>
-      </c>
-      <c r="E262" s="7" t="s">
+      <c r="E260" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F260" s="2"/>
+    </row>
+    <row r="261" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C261" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D261" s="8">
+        <v>1</v>
+      </c>
+      <c r="E261" s="7" t="s">
         <v>401</v>
+      </c>
+      <c r="F261" s="7"/>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C262" t="s">
+        <v>340</v>
+      </c>
+      <c r="E262" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="263" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C263" s="5" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="D263" s="6">
         <v>1</v>
@@ -5781,11 +5789,22 @@
         <v>400</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E264" s="2"/>
+    <row r="264" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C264" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D264" s="6">
+        <v>1</v>
+      </c>
+      <c r="E264" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E265" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F263"/>
+  <autoFilter ref="A1:F264"/>
   <sortState ref="A2:D224">
     <sortCondition ref="C189"/>
   </sortState>

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -1794,8 +1794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C260" sqref="C260"/>
+    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E257" sqref="E257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5671,7 +5671,7 @@
       </c>
       <c r="D253" s="13"/>
       <c r="E253" s="14" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
     </row>
     <row r="254" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="471">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -708,9 +708,6 @@
     <t>380519948387;20</t>
   </si>
   <si>
-    <t>380519943697;50</t>
-  </si>
-  <si>
     <t>380519943691;50</t>
   </si>
   <si>
@@ -1177,9 +1174,6 @@
   </si>
   <si>
     <t>380685231532;75</t>
-  </si>
-  <si>
-    <t>380983389176;75</t>
   </si>
   <si>
     <t>380680174094;75</t>
@@ -1268,9 +1262,6 @@
     <t>380204471296;80</t>
   </si>
   <si>
-    <t>380519943693;50,250</t>
-  </si>
-  <si>
     <t>380632727254;50</t>
   </si>
   <si>
@@ -1391,9 +1382,6 @@
     <t>380519942567;50</t>
   </si>
   <si>
-    <t>380966558607;75</t>
-  </si>
-  <si>
     <t>380995501659;75</t>
   </si>
   <si>
@@ -1428,6 +1416,27 @@
   </si>
   <si>
     <t>357 Житомир обл., м. Овруч, вул. Базарна, 6</t>
+  </si>
+  <si>
+    <t>380519942514;50</t>
+  </si>
+  <si>
+    <t>'380983389176;75</t>
+  </si>
+  <si>
+    <t>1. '380984206369;75 2. '380966558607;75</t>
+  </si>
+  <si>
+    <t>Apelsin.Net Ваш ППК: 45829 Логин:45829 Пароль:45829</t>
+  </si>
+  <si>
+    <t>380204471278;80 230hrn</t>
+  </si>
+  <si>
+    <t>380684035693;75</t>
+  </si>
+  <si>
+    <t>380519943693;50 250hrn</t>
   </si>
 </sst>
 </file>
@@ -1794,8 +1803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E257" sqref="E257"/>
+    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1820,7 +1829,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E1" t="s">
         <v>219</v>
@@ -1870,7 +1879,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -2131,7 +2140,7 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2176,7 +2185,7 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="2" t="s">
-        <v>256</v>
+        <v>468</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -2254,7 +2263,7 @@
         <v>26</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F28" s="2"/>
     </row>
@@ -2352,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F34" s="7"/>
     </row>
@@ -2370,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F35" s="7"/>
     </row>
@@ -2403,7 +2412,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F37" s="7"/>
     </row>
@@ -2418,7 +2427,7 @@
         <v>35</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F38" s="2"/>
     </row>
@@ -2433,7 +2442,7 @@
         <v>36</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F39" s="2"/>
     </row>
@@ -2497,7 +2506,7 @@
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2539,7 +2548,7 @@
         <v>42</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F46" s="2"/>
     </row>
@@ -2554,7 +2563,7 @@
         <v>43</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F47" s="2"/>
     </row>
@@ -2572,7 +2581,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F48" s="7"/>
     </row>
@@ -2588,7 +2597,7 @@
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="11" t="s">
-        <v>414</v>
+        <v>470</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2603,7 +2612,7 @@
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="11" t="s">
-        <v>228</v>
+        <v>469</v>
       </c>
       <c r="F50" s="11"/>
     </row>
@@ -2618,7 +2627,7 @@
         <v>46</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F51" s="2"/>
     </row>
@@ -2633,7 +2642,7 @@
         <v>47</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F52" s="2"/>
     </row>
@@ -2648,7 +2657,7 @@
         <v>47</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F53" s="2"/>
     </row>
@@ -2663,7 +2672,7 @@
         <v>48</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F54" s="2"/>
     </row>
@@ -2678,7 +2687,7 @@
         <v>49</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F55" s="2"/>
     </row>
@@ -2693,7 +2702,7 @@
         <v>50</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F56" s="2"/>
     </row>
@@ -2708,7 +2717,7 @@
         <v>51</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F57" s="2"/>
     </row>
@@ -2723,7 +2732,7 @@
         <v>52</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F58" s="2"/>
     </row>
@@ -2738,7 +2747,7 @@
         <v>53</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F59" s="2"/>
     </row>
@@ -2756,7 +2765,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2764,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D61" s="10"/>
       <c r="E61" s="11"/>
@@ -2780,7 +2789,7 @@
         <v>55</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F62" s="2"/>
     </row>
@@ -2789,7 +2798,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -2805,7 +2814,7 @@
         <v>56</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J64" s="2"/>
     </row>
@@ -2820,7 +2829,7 @@
         <v>57</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F65" s="2"/>
     </row>
@@ -2835,7 +2844,7 @@
         <v>58</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2849,7 +2858,7 @@
         <v>59</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -2863,7 +2872,7 @@
         <v>60</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F68" s="2"/>
     </row>
@@ -2879,7 +2888,7 @@
       </c>
       <c r="D69" s="10"/>
       <c r="E69" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F69" s="11"/>
     </row>
@@ -2891,11 +2900,11 @@
         <v>2</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D70" s="10"/>
       <c r="E70" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F70" s="11"/>
     </row>
@@ -2907,11 +2916,11 @@
         <v>3</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D71" s="10"/>
       <c r="E71" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F71" s="11"/>
     </row>
@@ -2926,7 +2935,7 @@
         <v>62</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F72" s="2"/>
     </row>
@@ -2942,7 +2951,7 @@
       </c>
       <c r="D73" s="10"/>
       <c r="E73" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F73" s="11"/>
     </row>
@@ -2958,7 +2967,7 @@
       </c>
       <c r="D74" s="10"/>
       <c r="E74" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F74" s="11"/>
     </row>
@@ -2973,7 +2982,7 @@
         <v>64</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F75" s="2"/>
     </row>
@@ -2988,7 +2997,7 @@
         <v>65</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F76" s="2"/>
     </row>
@@ -3003,7 +3012,7 @@
         <v>66</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F77" s="2"/>
     </row>
@@ -3018,7 +3027,7 @@
         <v>66</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F78" s="2"/>
     </row>
@@ -3033,7 +3042,7 @@
         <v>67</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F79" s="2"/>
     </row>
@@ -3064,7 +3073,7 @@
         <v>69</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3078,7 +3087,7 @@
         <v>70</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G82" s="2"/>
     </row>
@@ -3093,10 +3102,10 @@
         <v>71</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>389</v>
+        <v>466</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3110,7 +3119,7 @@
         <v>72</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F84" s="2"/>
     </row>
@@ -3125,10 +3134,10 @@
         <v>73</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3142,7 +3151,7 @@
         <v>74</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3156,7 +3165,7 @@
         <v>75</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3170,7 +3179,7 @@
         <v>76</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3187,7 +3196,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3201,7 +3210,7 @@
         <v>78</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F90" s="2"/>
     </row>
@@ -3216,7 +3225,7 @@
         <v>79</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F91" s="2"/>
     </row>
@@ -3231,7 +3240,7 @@
         <v>80</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G92" s="2"/>
     </row>
@@ -3249,10 +3258,10 @@
         <v>1</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="94" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3269,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3277,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E95" s="2"/>
     </row>
@@ -3292,7 +3301,7 @@
         <v>83</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G96" s="2"/>
     </row>
@@ -3307,7 +3316,7 @@
         <v>84</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F97" s="2"/>
     </row>
@@ -3322,7 +3331,7 @@
         <v>85</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F98" s="2"/>
     </row>
@@ -3347,10 +3356,10 @@
         <v>152</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3364,7 +3373,7 @@
         <v>86</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F101" s="2"/>
     </row>
@@ -3379,7 +3388,7 @@
         <v>86</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F102" s="2"/>
     </row>
@@ -3394,7 +3403,7 @@
         <v>87</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F103" s="2"/>
     </row>
@@ -3412,7 +3421,7 @@
         <v>1</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3426,7 +3435,7 @@
         <v>89</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F105" s="2"/>
     </row>
@@ -3441,7 +3450,7 @@
         <v>89</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F106" s="2"/>
     </row>
@@ -3456,7 +3465,7 @@
         <v>90</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F107" s="2"/>
     </row>
@@ -3471,7 +3480,7 @@
         <v>91</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F108" s="2"/>
     </row>
@@ -3486,7 +3495,7 @@
         <v>92</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F109" s="2"/>
     </row>
@@ -3501,7 +3510,7 @@
         <v>93</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G110" s="2"/>
     </row>
@@ -3516,7 +3525,7 @@
         <v>94</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F111" s="2"/>
     </row>
@@ -3531,7 +3540,7 @@
         <v>94</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F112" s="2"/>
     </row>
@@ -3546,7 +3555,7 @@
         <v>95</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F113" s="2"/>
     </row>
@@ -3561,7 +3570,7 @@
         <v>96</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F114" s="2"/>
     </row>
@@ -3576,7 +3585,7 @@
         <v>97</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F115" s="2"/>
     </row>
@@ -3594,7 +3603,7 @@
         <v>1</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F116" s="7"/>
     </row>
@@ -3610,7 +3619,7 @@
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F117" s="2"/>
     </row>
@@ -3625,7 +3634,7 @@
         <v>100</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F118" s="2"/>
     </row>
@@ -3640,7 +3649,7 @@
         <v>101</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F119" s="2"/>
     </row>
@@ -3655,7 +3664,7 @@
         <v>102</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F120" s="2"/>
     </row>
@@ -3670,7 +3679,7 @@
         <v>103</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F121" s="2"/>
     </row>
@@ -3686,7 +3695,7 @@
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F122" s="2"/>
     </row>
@@ -3701,7 +3710,7 @@
         <v>105</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G123" s="2"/>
     </row>
@@ -3716,7 +3725,7 @@
         <v>106</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F124" s="2"/>
     </row>
@@ -3731,7 +3740,7 @@
         <v>107</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F125" s="2"/>
     </row>
@@ -3749,7 +3758,7 @@
         <v>1</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F126" s="7"/>
     </row>
@@ -3764,7 +3773,7 @@
         <v>109</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F127" s="2"/>
     </row>
@@ -3782,7 +3791,7 @@
         <v>1</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I128" s="7"/>
     </row>
@@ -3797,7 +3806,7 @@
         <v>111</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -3811,7 +3820,7 @@
         <v>112</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F130" s="2"/>
     </row>
@@ -3826,7 +3835,7 @@
         <v>113</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F131" s="2"/>
     </row>
@@ -3843,6 +3852,9 @@
       <c r="E132" s="2" t="s">
         <v>464</v>
       </c>
+      <c r="F132" s="2" t="s">
+        <v>460</v>
+      </c>
       <c r="H132" s="2"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -3856,9 +3868,11 @@
         <v>114</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="F133" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
@@ -3868,12 +3882,12 @@
         <v>3</v>
       </c>
       <c r="C134" t="s">
-        <v>406</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F134" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="135" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
@@ -3889,7 +3903,7 @@
         <v>1</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F135" s="7"/>
     </row>
@@ -3904,7 +3918,7 @@
         <v>116</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F136" s="2"/>
     </row>
@@ -3922,7 +3936,7 @@
         <v>1</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F137" s="7"/>
     </row>
@@ -3937,7 +3951,7 @@
         <v>118</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="J138" s="2"/>
     </row>
@@ -3979,7 +3993,7 @@
         <v>120</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F141" s="2"/>
     </row>
@@ -3994,7 +4008,7 @@
         <v>120</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F142" s="2"/>
     </row>
@@ -4010,7 +4024,7 @@
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="144" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4027,7 +4041,7 @@
         <v>1</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F144" s="7"/>
     </row>
@@ -4042,7 +4056,7 @@
         <v>192</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F145" s="2"/>
     </row>
@@ -4057,7 +4071,7 @@
         <v>122</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F146" s="2"/>
     </row>
@@ -4072,7 +4086,7 @@
         <v>123</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F147" s="2"/>
     </row>
@@ -4087,7 +4101,7 @@
         <v>124</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F148" s="2"/>
     </row>
@@ -4105,7 +4119,7 @@
         <v>1</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F149" s="7"/>
     </row>
@@ -4139,7 +4153,7 @@
         <v>1</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F151" s="7"/>
     </row>
@@ -4154,7 +4168,7 @@
         <v>128</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F152" s="2"/>
     </row>
@@ -4172,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F153" s="7"/>
     </row>
@@ -4188,7 +4202,7 @@
       </c>
       <c r="D154" s="15"/>
       <c r="E154" s="17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F154" s="14"/>
     </row>
@@ -4203,7 +4217,7 @@
         <v>131</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F155" s="2"/>
     </row>
@@ -4218,7 +4232,7 @@
         <v>132</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F156" s="2"/>
     </row>
@@ -4236,7 +4250,7 @@
         <v>1</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F157" s="7"/>
     </row>
@@ -4254,7 +4268,7 @@
         <v>1</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4268,7 +4282,7 @@
         <v>135</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F159" s="2"/>
     </row>
@@ -4286,7 +4300,7 @@
         <v>1</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F160" s="7"/>
     </row>
@@ -4301,7 +4315,7 @@
         <v>137</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F161" s="2"/>
     </row>
@@ -4316,7 +4330,7 @@
         <v>137</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F162" s="2"/>
     </row>
@@ -4334,7 +4348,7 @@
         <v>1</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F163" s="7"/>
     </row>
@@ -4349,7 +4363,7 @@
         <v>139</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F164" s="2"/>
     </row>
@@ -4364,7 +4378,7 @@
         <v>140</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H165" s="2"/>
     </row>
@@ -4379,7 +4393,7 @@
         <v>141</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F166" s="2"/>
     </row>
@@ -4397,7 +4411,7 @@
         <v>1</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F167" s="7"/>
     </row>
@@ -4415,7 +4429,7 @@
         <v>1</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F168" s="7"/>
     </row>
@@ -4430,7 +4444,7 @@
         <v>144</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F169" s="2"/>
     </row>
@@ -4445,7 +4459,7 @@
         <v>145</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="171" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4462,7 +4476,7 @@
         <v>1</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I171" s="7"/>
     </row>
@@ -4477,7 +4491,7 @@
         <v>147</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F172" s="2"/>
     </row>
@@ -4492,7 +4506,7 @@
         <v>148</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F173" s="2"/>
     </row>
@@ -4522,7 +4536,7 @@
         <v>150</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F175" s="2"/>
     </row>
@@ -4540,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F176" s="7"/>
     </row>
@@ -4555,7 +4569,7 @@
         <v>153</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F177" s="2"/>
     </row>
@@ -4570,7 +4584,7 @@
         <v>154</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F178" s="2"/>
     </row>
@@ -4585,7 +4599,7 @@
         <v>155</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="180" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4602,7 +4616,7 @@
         <v>1</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F180" s="7"/>
     </row>
@@ -4617,7 +4631,7 @@
         <v>157</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F181" s="2"/>
     </row>
@@ -4633,7 +4647,10 @@
       </c>
       <c r="D182" s="4"/>
       <c r="E182" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
+      </c>
+      <c r="F182" t="s">
+        <v>465</v>
       </c>
       <c r="O182" t="s">
         <v>223</v>
@@ -4650,7 +4667,7 @@
         <v>159</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F183" s="2"/>
     </row>
@@ -4665,7 +4682,7 @@
         <v>160</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F184" s="2"/>
     </row>
@@ -4680,7 +4697,7 @@
         <v>161</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H185" s="2"/>
     </row>
@@ -4695,7 +4712,7 @@
         <v>162</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H186" s="2"/>
     </row>
@@ -4713,7 +4730,7 @@
         <v>1</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F187" s="7"/>
     </row>
@@ -4728,7 +4745,7 @@
         <v>164</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F188" s="2"/>
     </row>
@@ -4743,7 +4760,7 @@
         <v>165</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="L189" s="2"/>
     </row>
@@ -4758,7 +4775,7 @@
         <v>166</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F190" s="2"/>
     </row>
@@ -4776,7 +4793,7 @@
         <v>1</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F191" s="7"/>
     </row>
@@ -4794,7 +4811,7 @@
         <v>1</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F192" s="7"/>
     </row>
@@ -4809,7 +4826,7 @@
         <v>169</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F193" s="2"/>
     </row>
@@ -4824,7 +4841,7 @@
         <v>170</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F194" s="2"/>
     </row>
@@ -4842,7 +4859,7 @@
         <v>1</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F195" s="7"/>
     </row>
@@ -4857,7 +4874,7 @@
         <v>172</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F196" s="2"/>
     </row>
@@ -4888,7 +4905,7 @@
         <v>174</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F198" s="2"/>
     </row>
@@ -4903,7 +4920,7 @@
         <v>175</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F199" s="2"/>
     </row>
@@ -4945,7 +4962,7 @@
         <v>177</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F202" s="2"/>
     </row>
@@ -4960,7 +4977,7 @@
         <v>178</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F203" s="2"/>
     </row>
@@ -4975,7 +4992,7 @@
         <v>179</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G204" s="2"/>
     </row>
@@ -4990,7 +5007,7 @@
         <v>180</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -5004,7 +5021,7 @@
         <v>181</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -5018,7 +5035,7 @@
         <v>182</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F207" s="2"/>
     </row>
@@ -5033,7 +5050,7 @@
         <v>183</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5047,7 +5064,7 @@
         <v>184</v>
       </c>
       <c r="E209" s="18" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -5061,7 +5078,7 @@
         <v>185</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F210" s="2"/>
     </row>
@@ -5079,7 +5096,7 @@
         <v>1</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F211" s="7"/>
     </row>
@@ -5091,11 +5108,11 @@
         <v>1</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D212" s="13"/>
       <c r="E212" s="14" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F212" s="14"/>
     </row>
@@ -5110,7 +5127,7 @@
         <v>187</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F213" s="2"/>
     </row>
@@ -5153,13 +5170,13 @@
         <v>1</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D216" s="6">
         <v>1</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -5170,10 +5187,10 @@
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="218" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5190,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="219" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5201,11 +5218,11 @@
         <v>1</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D219" s="13"/>
       <c r="E219" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="220" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5216,11 +5233,11 @@
         <v>1</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D220" s="13"/>
       <c r="E220" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -5231,10 +5248,10 @@
         <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -5245,10 +5262,10 @@
         <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -5259,10 +5276,10 @@
         <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -5273,7 +5290,7 @@
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>224</v>
@@ -5287,7 +5304,7 @@
         <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>211</v>
@@ -5301,10 +5318,10 @@
         <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>220</v>
@@ -5315,7 +5332,7 @@
         <v>1</v>
       </c>
       <c r="C227" s="20" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D227" s="21"/>
       <c r="E227" s="22"/>
@@ -5325,11 +5342,11 @@
         <v>1</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D228" s="13"/>
       <c r="E228" s="14" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="229" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5340,7 +5357,7 @@
         <v>1</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D229" s="6">
         <v>1</v>
@@ -5355,10 +5372,10 @@
         <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="231" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5366,11 +5383,11 @@
         <v>1</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D231" s="13"/>
       <c r="E231" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -5381,10 +5398,10 @@
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -5395,10 +5412,10 @@
         <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -5409,10 +5426,10 @@
         <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -5423,10 +5440,10 @@
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -5437,10 +5454,10 @@
         <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -5451,10 +5468,10 @@
         <v>1</v>
       </c>
       <c r="C237" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="238" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5465,11 +5482,11 @@
         <v>1</v>
       </c>
       <c r="C238" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D238" s="13"/>
       <c r="E238" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="239" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -5477,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="C239" s="20" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D239" s="21"/>
       <c r="E239" s="22"/>
@@ -5490,10 +5507,10 @@
         <v>1</v>
       </c>
       <c r="C240" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -5504,10 +5521,10 @@
         <v>2</v>
       </c>
       <c r="C241" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -5518,10 +5535,10 @@
         <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -5532,10 +5549,10 @@
         <v>2</v>
       </c>
       <c r="C243" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -5546,10 +5563,10 @@
         <v>1</v>
       </c>
       <c r="C244" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -5557,10 +5574,10 @@
         <v>1</v>
       </c>
       <c r="C245" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -5568,10 +5585,10 @@
         <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -5582,13 +5599,13 @@
         <v>1</v>
       </c>
       <c r="C247" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F247" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="248" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5599,13 +5616,13 @@
         <v>1</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D248" s="6">
         <v>1</v>
       </c>
       <c r="E248" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -5616,10 +5633,10 @@
         <v>1</v>
       </c>
       <c r="C249" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -5627,7 +5644,7 @@
         <v>1</v>
       </c>
       <c r="C250" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>197</v>
@@ -5641,10 +5658,10 @@
         <v>1</v>
       </c>
       <c r="C251" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="252" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -5655,11 +5672,11 @@
         <v>1</v>
       </c>
       <c r="C252" s="20" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D252" s="21"/>
       <c r="E252" s="22" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="253" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5667,11 +5684,11 @@
         <v>1</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D253" s="13"/>
       <c r="E253" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="254" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5679,11 +5696,11 @@
         <v>1</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D254" s="13"/>
       <c r="E254" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -5691,10 +5708,10 @@
         <v>1</v>
       </c>
       <c r="C255" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -5702,10 +5719,10 @@
         <v>1</v>
       </c>
       <c r="C256" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -5713,10 +5730,10 @@
         <v>1</v>
       </c>
       <c r="C257" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -5730,7 +5747,7 @@
         <v>191</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F258" s="2"/>
     </row>
@@ -5745,7 +5762,7 @@
         <v>190</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F259" s="2"/>
     </row>
@@ -5754,50 +5771,50 @@
         <v>194</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F260" s="2"/>
     </row>
     <row r="261" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C261" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D261" s="8">
         <v>1</v>
       </c>
       <c r="E261" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F261" s="7"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C262" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E262" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="263" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C263" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D263" s="6">
         <v>1</v>
       </c>
       <c r="E263" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="264" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C264" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D264" s="6">
         <v>1</v>
       </c>
       <c r="E264" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$264</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$268</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="483">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -756,12 +756,6 @@
     <t>380519947481;20</t>
   </si>
   <si>
-    <t>380519947482;20</t>
-  </si>
-  <si>
-    <t>380519948395;20</t>
-  </si>
-  <si>
     <t>380519948883;49</t>
   </si>
   <si>
@@ -1023,18 +1017,12 @@
     <t>380519946244;50</t>
   </si>
   <si>
-    <t>380519940897;50</t>
-  </si>
-  <si>
     <t>380519948399;20</t>
   </si>
   <si>
     <t>380519940974;50</t>
   </si>
   <si>
-    <t>380955132136;50</t>
-  </si>
-  <si>
     <t>Усач О.О.</t>
   </si>
   <si>
@@ -1089,9 +1077,6 @@
     <t>380631198247;75</t>
   </si>
   <si>
-    <t>380506302977;50</t>
-  </si>
-  <si>
     <t>380687916193;75</t>
   </si>
   <si>
@@ -1191,9 +1176,6 @@
     <t>380984291290;75</t>
   </si>
   <si>
-    <t>380985736452;75</t>
-  </si>
-  <si>
     <t>380968561300;75</t>
   </si>
   <si>
@@ -1210,9 +1192,6 @@
   </si>
   <si>
     <t>380204486391;80</t>
-  </si>
-  <si>
-    <t>380519948388;20 160grn</t>
   </si>
   <si>
     <t>380519942592;50 no</t>
@@ -1376,9 +1355,6 @@
     <t>380519940888;50 31.05 180hrn</t>
   </si>
   <si>
-    <t>380687493036;75 31.05 80hrn</t>
-  </si>
-  <si>
     <t>380519942567;50</t>
   </si>
   <si>
@@ -1437,6 +1413,66 @@
   </si>
   <si>
     <t>380519943693;50 250hrn</t>
+  </si>
+  <si>
+    <t>361 Житомирська обл. м. Овруч вул. Івана Богуна 8б</t>
+  </si>
+  <si>
+    <t>362 м. Київ, вул. Бальзака,94</t>
+  </si>
+  <si>
+    <t>363 Житомирська обл, смт Брусилів, вул. Митрополита Іларіона, 35</t>
+  </si>
+  <si>
+    <t>380968013845;75 закрито</t>
+  </si>
+  <si>
+    <t>380519943429;50 закрито</t>
+  </si>
+  <si>
+    <t>380519946252;50 закрито</t>
+  </si>
+  <si>
+    <t>380968027938;75 закрито</t>
+  </si>
+  <si>
+    <t>380519948388;20 40grn</t>
+  </si>
+  <si>
+    <t>380519941274;50 660grn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">380519948395;20 </t>
+  </si>
+  <si>
+    <t>380636792798;150</t>
+  </si>
+  <si>
+    <t>380955132136;80</t>
+  </si>
+  <si>
+    <t>353 Київська обл., м. Васильків р-к Западинський</t>
+  </si>
+  <si>
+    <t>380687493036;75 150hrn</t>
+  </si>
+  <si>
+    <t>380985736452;75 75 hrn</t>
+  </si>
+  <si>
+    <t>380519947482;20 70grn</t>
+  </si>
+  <si>
+    <t>380519943697;50 50hrn</t>
+  </si>
+  <si>
+    <t>Тосхопаран мен. Хліб</t>
+  </si>
+  <si>
+    <t>380519940897;50 no</t>
+  </si>
+  <si>
+    <t>380506302977;50 no</t>
   </si>
 </sst>
 </file>
@@ -1455,7 +1491,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1480,6 +1516,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1493,7 +1535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1521,6 +1563,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1801,10 +1845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O265"/>
+  <dimension ref="A1:O269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C263" sqref="C263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1829,7 +1873,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E1" t="s">
         <v>219</v>
@@ -1879,7 +1923,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -1923,11 +1967,14 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>198</v>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>467</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -2135,12 +2182,14 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="2" t="s">
-        <v>416</v>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2185,7 +2234,7 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="2" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -2263,7 +2312,7 @@
         <v>26</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F28" s="2"/>
     </row>
@@ -2361,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F34" s="7"/>
     </row>
@@ -2379,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F35" s="7"/>
     </row>
@@ -2412,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F37" s="7"/>
     </row>
@@ -2427,7 +2476,7 @@
         <v>35</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>389</v>
+        <v>477</v>
       </c>
       <c r="F38" s="2"/>
     </row>
@@ -2442,7 +2491,7 @@
         <v>36</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F39" s="2"/>
     </row>
@@ -2506,7 +2555,7 @@
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2548,7 +2597,7 @@
         <v>42</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="F46" s="2"/>
     </row>
@@ -2597,7 +2646,7 @@
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="11" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2612,7 +2661,7 @@
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="11" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="F50" s="11"/>
     </row>
@@ -2687,7 +2736,7 @@
         <v>49</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>450</v>
+        <v>476</v>
       </c>
       <c r="F55" s="2"/>
     </row>
@@ -2765,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2773,7 +2822,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D61" s="10"/>
       <c r="E61" s="11"/>
@@ -2798,7 +2847,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -2844,7 +2893,7 @@
         <v>58</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>244</v>
+        <v>478</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2858,7 +2907,7 @@
         <v>59</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>245</v>
+        <v>472</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -2888,7 +2937,7 @@
       </c>
       <c r="D69" s="10"/>
       <c r="E69" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F69" s="11"/>
     </row>
@@ -2900,11 +2949,11 @@
         <v>2</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D70" s="10"/>
       <c r="E70" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F70" s="11"/>
     </row>
@@ -2916,11 +2965,11 @@
         <v>3</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D71" s="10"/>
       <c r="E71" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="F71" s="11"/>
     </row>
@@ -2951,7 +3000,7 @@
       </c>
       <c r="D73" s="10"/>
       <c r="E73" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F73" s="11"/>
     </row>
@@ -2982,7 +3031,7 @@
         <v>64</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F75" s="2"/>
     </row>
@@ -2997,7 +3046,7 @@
         <v>65</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F76" s="2"/>
     </row>
@@ -3012,7 +3061,7 @@
         <v>66</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F77" s="2"/>
     </row>
@@ -3027,7 +3076,7 @@
         <v>66</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F78" s="2"/>
     </row>
@@ -3042,7 +3091,7 @@
         <v>67</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F79" s="2"/>
     </row>
@@ -3073,7 +3122,7 @@
         <v>69</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3087,7 +3136,7 @@
         <v>70</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G82" s="2"/>
     </row>
@@ -3102,10 +3151,10 @@
         <v>71</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3119,7 +3168,7 @@
         <v>72</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F84" s="2"/>
     </row>
@@ -3134,10 +3183,10 @@
         <v>73</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3151,7 +3200,7 @@
         <v>74</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3165,7 +3214,7 @@
         <v>75</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3179,7 +3228,7 @@
         <v>76</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="89" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3196,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3210,7 +3259,7 @@
         <v>78</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F90" s="2"/>
     </row>
@@ -3225,7 +3274,7 @@
         <v>79</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F91" s="2"/>
     </row>
@@ -3240,7 +3289,7 @@
         <v>80</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G92" s="2"/>
     </row>
@@ -3258,10 +3307,10 @@
         <v>1</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="94" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3278,7 +3327,7 @@
         <v>1</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3286,7 +3335,7 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E95" s="2"/>
     </row>
@@ -3301,7 +3350,7 @@
         <v>83</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G96" s="2"/>
     </row>
@@ -3316,7 +3365,7 @@
         <v>84</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F97" s="2"/>
     </row>
@@ -3331,7 +3380,7 @@
         <v>85</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F98" s="2"/>
     </row>
@@ -3356,10 +3405,10 @@
         <v>152</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3373,7 +3422,7 @@
         <v>86</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F101" s="2"/>
     </row>
@@ -3388,7 +3437,7 @@
         <v>86</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F102" s="2"/>
     </row>
@@ -3403,7 +3452,7 @@
         <v>87</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F103" s="2"/>
     </row>
@@ -3421,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3435,7 +3484,7 @@
         <v>89</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F105" s="2"/>
     </row>
@@ -3450,7 +3499,7 @@
         <v>89</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F106" s="2"/>
     </row>
@@ -3465,7 +3514,7 @@
         <v>90</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F107" s="2"/>
     </row>
@@ -3480,7 +3529,7 @@
         <v>91</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F108" s="2"/>
     </row>
@@ -3495,7 +3544,7 @@
         <v>92</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F109" s="2"/>
     </row>
@@ -3510,7 +3559,7 @@
         <v>93</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G110" s="2"/>
     </row>
@@ -3525,7 +3574,7 @@
         <v>94</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F111" s="2"/>
     </row>
@@ -3540,7 +3589,7 @@
         <v>94</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F112" s="2"/>
     </row>
@@ -3555,7 +3604,7 @@
         <v>95</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F113" s="2"/>
     </row>
@@ -3570,7 +3619,7 @@
         <v>96</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F114" s="2"/>
     </row>
@@ -3585,7 +3634,7 @@
         <v>97</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F115" s="2"/>
     </row>
@@ -3603,7 +3652,7 @@
         <v>1</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F116" s="7"/>
     </row>
@@ -3619,7 +3668,7 @@
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="2" t="s">
-        <v>336</v>
+        <v>474</v>
       </c>
       <c r="F117" s="2"/>
     </row>
@@ -3634,7 +3683,7 @@
         <v>100</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F118" s="2"/>
     </row>
@@ -3649,7 +3698,7 @@
         <v>101</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F119" s="2"/>
     </row>
@@ -3664,7 +3713,7 @@
         <v>102</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F120" s="2"/>
     </row>
@@ -3679,7 +3728,7 @@
         <v>103</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F121" s="2"/>
     </row>
@@ -3695,7 +3744,7 @@
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F122" s="2"/>
     </row>
@@ -3710,7 +3759,7 @@
         <v>105</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G123" s="2"/>
     </row>
@@ -3725,7 +3774,7 @@
         <v>106</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F124" s="2"/>
     </row>
@@ -3740,7 +3789,7 @@
         <v>107</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F125" s="2"/>
     </row>
@@ -3758,7 +3807,7 @@
         <v>1</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F126" s="7"/>
     </row>
@@ -3773,7 +3822,7 @@
         <v>109</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F127" s="2"/>
     </row>
@@ -3791,7 +3840,7 @@
         <v>1</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I128" s="7"/>
     </row>
@@ -3806,7 +3855,7 @@
         <v>111</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -3820,7 +3869,7 @@
         <v>112</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F130" s="2"/>
     </row>
@@ -3835,7 +3884,7 @@
         <v>113</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F131" s="2"/>
     </row>
@@ -3850,10 +3899,10 @@
         <v>114</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="H132" s="2"/>
     </row>
@@ -3868,10 +3917,10 @@
         <v>114</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -3882,11 +3931,11 @@
         <v>3</v>
       </c>
       <c r="C134" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="2" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="135" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3903,7 +3952,7 @@
         <v>1</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F135" s="7"/>
     </row>
@@ -3918,7 +3967,7 @@
         <v>116</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F136" s="2"/>
     </row>
@@ -3936,7 +3985,7 @@
         <v>1</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F137" s="7"/>
     </row>
@@ -3951,7 +4000,7 @@
         <v>118</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="J138" s="2"/>
     </row>
@@ -3993,7 +4042,7 @@
         <v>120</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F141" s="2"/>
     </row>
@@ -4008,7 +4057,7 @@
         <v>120</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F142" s="2"/>
     </row>
@@ -4024,7 +4073,7 @@
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="144" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4041,7 +4090,7 @@
         <v>1</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F144" s="7"/>
     </row>
@@ -4056,7 +4105,7 @@
         <v>192</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F145" s="2"/>
     </row>
@@ -4071,7 +4120,7 @@
         <v>122</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="F146" s="2"/>
     </row>
@@ -4086,7 +4135,7 @@
         <v>123</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F147" s="2"/>
     </row>
@@ -4101,7 +4150,7 @@
         <v>124</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F148" s="2"/>
     </row>
@@ -4119,7 +4168,7 @@
         <v>1</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F149" s="7"/>
     </row>
@@ -4153,7 +4202,7 @@
         <v>1</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F151" s="7"/>
     </row>
@@ -4168,7 +4217,7 @@
         <v>128</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F152" s="2"/>
     </row>
@@ -4186,7 +4235,7 @@
         <v>1</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F153" s="7"/>
     </row>
@@ -4202,7 +4251,7 @@
       </c>
       <c r="D154" s="15"/>
       <c r="E154" s="17" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F154" s="14"/>
     </row>
@@ -4217,7 +4266,7 @@
         <v>131</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F155" s="2"/>
     </row>
@@ -4232,7 +4281,7 @@
         <v>132</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F156" s="2"/>
     </row>
@@ -4250,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F157" s="7"/>
     </row>
@@ -4268,7 +4317,7 @@
         <v>1</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4282,7 +4331,7 @@
         <v>135</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F159" s="2"/>
     </row>
@@ -4293,14 +4342,14 @@
       <c r="B160" s="5">
         <v>1</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="C160" s="24" t="s">
         <v>136</v>
       </c>
       <c r="D160" s="6">
         <v>1</v>
       </c>
-      <c r="E160" s="7" t="s">
-        <v>294</v>
+      <c r="E160" s="23" t="s">
+        <v>292</v>
       </c>
       <c r="F160" s="7"/>
     </row>
@@ -4315,7 +4364,7 @@
         <v>137</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F161" s="2"/>
     </row>
@@ -4330,7 +4379,7 @@
         <v>137</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F162" s="2"/>
     </row>
@@ -4348,7 +4397,7 @@
         <v>1</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F163" s="7"/>
     </row>
@@ -4363,7 +4412,7 @@
         <v>139</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F164" s="2"/>
     </row>
@@ -4378,7 +4427,7 @@
         <v>140</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H165" s="2"/>
     </row>
@@ -4393,7 +4442,7 @@
         <v>141</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F166" s="2"/>
     </row>
@@ -4411,7 +4460,7 @@
         <v>1</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F167" s="7"/>
     </row>
@@ -4429,7 +4478,7 @@
         <v>1</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F168" s="7"/>
     </row>
@@ -4444,7 +4493,7 @@
         <v>144</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F169" s="2"/>
     </row>
@@ -4459,7 +4508,7 @@
         <v>145</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="171" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4476,7 +4525,7 @@
         <v>1</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I171" s="7"/>
     </row>
@@ -4491,7 +4540,7 @@
         <v>147</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F172" s="2"/>
     </row>
@@ -4506,7 +4555,7 @@
         <v>148</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F173" s="2"/>
     </row>
@@ -4536,7 +4585,7 @@
         <v>150</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F175" s="2"/>
     </row>
@@ -4554,7 +4603,7 @@
         <v>1</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F176" s="7"/>
     </row>
@@ -4569,9 +4618,11 @@
         <v>153</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F177" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178">
@@ -4584,7 +4635,7 @@
         <v>154</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F178" s="2"/>
     </row>
@@ -4599,7 +4650,7 @@
         <v>155</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="180" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4616,7 +4667,7 @@
         <v>1</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F180" s="7"/>
     </row>
@@ -4631,7 +4682,7 @@
         <v>157</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="F181" s="2"/>
     </row>
@@ -4647,10 +4698,10 @@
       </c>
       <c r="D182" s="4"/>
       <c r="E182" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F182" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="O182" t="s">
         <v>223</v>
@@ -4667,7 +4718,7 @@
         <v>159</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F183" s="2"/>
     </row>
@@ -4682,7 +4733,7 @@
         <v>160</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F184" s="2"/>
     </row>
@@ -4697,7 +4748,7 @@
         <v>161</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H185" s="2"/>
     </row>
@@ -4712,7 +4763,7 @@
         <v>162</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H186" s="2"/>
     </row>
@@ -4730,7 +4781,7 @@
         <v>1</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F187" s="7"/>
     </row>
@@ -4745,7 +4796,7 @@
         <v>164</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>233</v>
+        <v>471</v>
       </c>
       <c r="F188" s="2"/>
     </row>
@@ -4760,7 +4811,7 @@
         <v>165</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>396</v>
+        <v>470</v>
       </c>
       <c r="L189" s="2"/>
     </row>
@@ -4775,7 +4826,7 @@
         <v>166</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F190" s="2"/>
     </row>
@@ -4793,7 +4844,7 @@
         <v>1</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F191" s="7"/>
     </row>
@@ -4811,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F192" s="7"/>
     </row>
@@ -4826,7 +4877,7 @@
         <v>169</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F193" s="2"/>
     </row>
@@ -4841,7 +4892,7 @@
         <v>170</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F194" s="2"/>
     </row>
@@ -4859,7 +4910,7 @@
         <v>1</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F195" s="7"/>
     </row>
@@ -4874,7 +4925,7 @@
         <v>172</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F196" s="2"/>
     </row>
@@ -4905,7 +4956,7 @@
         <v>174</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F198" s="2"/>
     </row>
@@ -4920,7 +4971,7 @@
         <v>175</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="F199" s="2"/>
     </row>
@@ -4962,7 +5013,7 @@
         <v>177</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F202" s="2"/>
     </row>
@@ -4977,7 +5028,7 @@
         <v>178</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="F203" s="2"/>
     </row>
@@ -4992,7 +5043,7 @@
         <v>179</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G204" s="2"/>
     </row>
@@ -5007,8 +5058,12 @@
         <v>180</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>411</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G205" s="2"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
@@ -5021,7 +5076,7 @@
         <v>181</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -5035,7 +5090,7 @@
         <v>182</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F207" s="2"/>
     </row>
@@ -5050,7 +5105,7 @@
         <v>183</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5064,7 +5119,7 @@
         <v>184</v>
       </c>
       <c r="E209" s="18" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -5078,7 +5133,7 @@
         <v>185</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F210" s="2"/>
     </row>
@@ -5096,7 +5151,7 @@
         <v>1</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F211" s="7"/>
     </row>
@@ -5108,11 +5163,11 @@
         <v>1</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D212" s="13"/>
       <c r="E212" s="14" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F212" s="14"/>
     </row>
@@ -5127,7 +5182,7 @@
         <v>187</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F213" s="2"/>
     </row>
@@ -5170,13 +5225,13 @@
         <v>1</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D216" s="6">
         <v>1</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -5187,10 +5242,10 @@
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="218" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5207,7 +5262,7 @@
         <v>1</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="219" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5218,11 +5273,11 @@
         <v>1</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D219" s="13"/>
       <c r="E219" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="220" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5233,11 +5288,11 @@
         <v>1</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D220" s="13"/>
       <c r="E220" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -5248,10 +5303,10 @@
         <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -5262,10 +5317,10 @@
         <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -5276,10 +5331,10 @@
         <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -5290,7 +5345,7 @@
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>224</v>
@@ -5304,7 +5359,7 @@
         <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>211</v>
@@ -5318,10 +5373,10 @@
         <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>220</v>
@@ -5332,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="C227" s="20" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D227" s="21"/>
       <c r="E227" s="22"/>
@@ -5342,11 +5397,11 @@
         <v>1</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="D228" s="13"/>
       <c r="E228" s="14" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="229" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5357,7 +5412,7 @@
         <v>1</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D229" s="6">
         <v>1</v>
@@ -5372,10 +5427,10 @@
         <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="231" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5383,11 +5438,11 @@
         <v>1</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="D231" s="13"/>
       <c r="E231" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -5398,10 +5453,10 @@
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -5412,10 +5467,10 @@
         <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -5426,10 +5481,10 @@
         <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -5440,10 +5495,10 @@
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -5454,10 +5509,10 @@
         <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -5468,10 +5523,10 @@
         <v>1</v>
       </c>
       <c r="C237" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="238" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5482,11 +5537,11 @@
         <v>1</v>
       </c>
       <c r="C238" s="12" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D238" s="13"/>
       <c r="E238" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="239" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -5494,7 +5549,7 @@
         <v>1</v>
       </c>
       <c r="C239" s="20" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D239" s="21"/>
       <c r="E239" s="22"/>
@@ -5507,10 +5562,10 @@
         <v>1</v>
       </c>
       <c r="C240" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -5521,10 +5576,10 @@
         <v>2</v>
       </c>
       <c r="C241" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -5535,10 +5590,10 @@
         <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -5549,10 +5604,10 @@
         <v>2</v>
       </c>
       <c r="C243" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -5563,10 +5618,10 @@
         <v>1</v>
       </c>
       <c r="C244" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -5574,10 +5629,13 @@
         <v>1</v>
       </c>
       <c r="C245" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>316</v>
+        <v>473</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -5585,10 +5643,10 @@
         <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -5599,13 +5657,13 @@
         <v>1</v>
       </c>
       <c r="C247" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="F247" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="248" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5616,13 +5674,13 @@
         <v>1</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D248" s="6">
         <v>1</v>
       </c>
       <c r="E248" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -5632,11 +5690,14 @@
       <c r="B249">
         <v>1</v>
       </c>
-      <c r="C249" t="s">
-        <v>444</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>415</v>
+      <c r="C249" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="D249" s="1">
+        <v>1</v>
+      </c>
+      <c r="E249" s="23" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -5644,7 +5705,7 @@
         <v>1</v>
       </c>
       <c r="C250" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>197</v>
@@ -5658,60 +5719,65 @@
         <v>1</v>
       </c>
       <c r="C251" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="20">
-        <v>1</v>
-      </c>
-      <c r="B252" s="20">
-        <v>1</v>
-      </c>
-      <c r="C252" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>1</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252" t="s">
         <v>446</v>
       </c>
-      <c r="D252" s="21"/>
-      <c r="E252" s="22" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="12">
-        <v>1</v>
-      </c>
-      <c r="C253" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="D253" s="13"/>
-      <c r="E253" s="14" t="s">
-        <v>295</v>
+      <c r="E252" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="20">
+        <v>1</v>
+      </c>
+      <c r="B253" s="20">
+        <v>1</v>
+      </c>
+      <c r="C253" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="D253" s="21"/>
+      <c r="E253" s="22" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="254" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="12">
         <v>1</v>
       </c>
-      <c r="C254" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="D254" s="13"/>
-      <c r="E254" s="14" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <v>1</v>
-      </c>
-      <c r="C255" t="s">
-        <v>447</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>346</v>
+      <c r="C254" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="D254" s="13">
+        <v>1</v>
+      </c>
+      <c r="E254" s="23" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="12">
+        <v>1</v>
+      </c>
+      <c r="C255" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="D255" s="13"/>
+      <c r="E255" s="14" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -5719,10 +5785,10 @@
         <v>1</v>
       </c>
       <c r="C256" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -5730,98 +5796,131 @@
         <v>1</v>
       </c>
       <c r="C257" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>287</v>
+        <v>351</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1</v>
       </c>
-      <c r="B258">
-        <v>1</v>
-      </c>
       <c r="C258" t="s">
-        <v>191</v>
+        <v>451</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="F258" s="2"/>
+        <v>285</v>
+      </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <v>1</v>
-      </c>
-      <c r="B259">
-        <v>1</v>
-      </c>
       <c r="C259" t="s">
-        <v>190</v>
+        <v>463</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F259" s="2"/>
+        <v>293</v>
+      </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C260" t="s">
+        <v>464</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C261" t="s">
+        <v>465</v>
+      </c>
+      <c r="E261" s="2"/>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>1</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+      <c r="C262" t="s">
+        <v>191</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F262" s="2"/>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>1</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263" t="s">
+        <v>190</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F263" s="2"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C264" t="s">
         <v>194</v>
       </c>
-      <c r="E260" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="F260" s="2"/>
-    </row>
-    <row r="261" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C261" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="D261" s="8">
-        <v>1</v>
-      </c>
-      <c r="E261" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="F261" s="7"/>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C262" t="s">
-        <v>339</v>
-      </c>
-      <c r="E262" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C263" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="D263" s="6">
-        <v>1</v>
-      </c>
-      <c r="E263" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C264" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="D264" s="6">
-        <v>1</v>
-      </c>
-      <c r="E264" s="7" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E265" s="2"/>
+      <c r="E264" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F264" s="2"/>
+    </row>
+    <row r="265" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C265" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="D265" s="8">
+        <v>1</v>
+      </c>
+      <c r="E265" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F265" s="7"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C266" t="s">
+        <v>335</v>
+      </c>
+      <c r="E266" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C267" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="D267" s="6">
+        <v>1</v>
+      </c>
+      <c r="E267" s="7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C268" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D268" s="6">
+        <v>1</v>
+      </c>
+      <c r="E268" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E269" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F264"/>
+  <autoFilter ref="A1:F268"/>
   <sortState ref="A2:D224">
     <sortCondition ref="C189"/>
   </sortState>

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -8,9 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$268</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$267</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="527">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -1382,9 +1383,6 @@
     <t xml:space="preserve"> 360 м. Київ, вул. Драйзера, 8/2</t>
   </si>
   <si>
-    <t>380204432513;50 02,06 72 hrn</t>
-  </si>
-  <si>
     <t>380519941270;50 02,06 100hrn</t>
   </si>
   <si>
@@ -1473,6 +1471,141 @@
   </si>
   <si>
     <t>380506302977;50 no</t>
+  </si>
+  <si>
+    <t>380204486391;80 дубль</t>
+  </si>
+  <si>
+    <t>380519943427;50 дубль</t>
+  </si>
+  <si>
+    <t>380519944937;50 дубль</t>
+  </si>
+  <si>
+    <t>WiFi</t>
+  </si>
+  <si>
+    <t>380519943427;50 141grn</t>
+  </si>
+  <si>
+    <t>380204432508;50  244hrn</t>
+  </si>
+  <si>
+    <t>380519948388;20 20grn</t>
+  </si>
+  <si>
+    <t>380519941274;50 610grn</t>
+  </si>
+  <si>
+    <t>380519943697;50</t>
+  </si>
+  <si>
+    <t>380519948398;20 20hrn</t>
+  </si>
+  <si>
+    <t>380519940888;50 32hrn</t>
+  </si>
+  <si>
+    <t>380519947482;20 51grn</t>
+  </si>
+  <si>
+    <t>380519943693;50 57hrn</t>
+  </si>
+  <si>
+    <t>380985736452;75</t>
+  </si>
+  <si>
+    <t>380204471278;80 74hrn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">380684224133;75 </t>
+  </si>
+  <si>
+    <t>380519942585;50 10000MB</t>
+  </si>
+  <si>
+    <t>380519948387;20 111grn</t>
+  </si>
+  <si>
+    <t>380519947481;20 55grn</t>
+  </si>
+  <si>
+    <t>380519948395;20  91grn</t>
+  </si>
+  <si>
+    <t>380519940627;50 8781.5MB</t>
+  </si>
+  <si>
+    <t>380519944940;50 7734MB</t>
+  </si>
+  <si>
+    <t>380984291290;75 15grn</t>
+  </si>
+  <si>
+    <t>380519944937;50 50grn</t>
+  </si>
+  <si>
+    <t>380519947480;20 91grn</t>
+  </si>
+  <si>
+    <t>380519944939;50 8044MB</t>
+  </si>
+  <si>
+    <t>380519945403;50 не юзався</t>
+  </si>
+  <si>
+    <t>380984292461;75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">380204486391;80 13 grn </t>
+  </si>
+  <si>
+    <t>380204498151;80 10256MB</t>
+  </si>
+  <si>
+    <t>380519940972;50 34grn</t>
+  </si>
+  <si>
+    <t>380204471275;80 51grn</t>
+  </si>
+  <si>
+    <t>380519947478;20 21grn</t>
+  </si>
+  <si>
+    <t>380519940945;50 140grn</t>
+  </si>
+  <si>
+    <t>380983389781;75 76grn</t>
+  </si>
+  <si>
+    <t>380519946244;50 50grn</t>
+  </si>
+  <si>
+    <t>380519945563;50   19267MB</t>
+  </si>
+  <si>
+    <t>380519941270;50 50grn</t>
+  </si>
+  <si>
+    <t>380519946062;50 150grn не юзався</t>
+  </si>
+  <si>
+    <t>380204432513;50</t>
+  </si>
+  <si>
+    <t>380962421422;75</t>
+  </si>
+  <si>
+    <t>380687982826;75</t>
+  </si>
+  <si>
+    <t>380519945400;50 закрили</t>
+  </si>
+  <si>
+    <t>380995501677;100</t>
+  </si>
+  <si>
+    <t>380204482693;50</t>
   </si>
 </sst>
 </file>
@@ -1491,7 +1624,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1522,6 +1655,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1535,7 +1686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1565,11 +1716,32 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1845,10 +2017,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O269"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:O268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C263" sqref="C263"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E200" sqref="E200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1912,20 +2085,21 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="4" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29">
+        <v>1</v>
+      </c>
+      <c r="B4" s="29">
+        <v>1</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F4" s="2"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31" t="s">
+        <v>497</v>
+      </c>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1942,7 +2116,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -1960,7 +2134,7 @@
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1974,11 +2148,11 @@
         <v>1</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -2071,22 +2245,23 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="14" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29">
+        <v>1</v>
+      </c>
+      <c r="B14" s="29">
+        <v>1</v>
+      </c>
+      <c r="C14" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="30"/>
+      <c r="E14" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="31"/>
+    </row>
+    <row r="15" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -2104,7 +2279,7 @@
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>1</v>
       </c>
@@ -2121,7 +2296,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>1</v>
       </c>
@@ -2139,7 +2314,7 @@
       </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>1</v>
       </c>
@@ -2157,7 +2332,7 @@
       </c>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>1</v>
       </c>
@@ -2175,7 +2350,7 @@
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2189,7 +2364,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2234,11 +2409,11 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="2" t="s">
-        <v>460</v>
+        <v>496</v>
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>1</v>
       </c>
@@ -2256,20 +2431,21 @@
       </c>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
+    <row r="25" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="29">
+        <v>1</v>
+      </c>
+      <c r="B25" s="29">
+        <v>1</v>
+      </c>
+      <c r="C25" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="D25" s="30"/>
+      <c r="E25" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="31"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -2301,22 +2477,23 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
+    <row r="28" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="29">
+        <v>1</v>
+      </c>
+      <c r="B28" s="29">
+        <v>1</v>
+      </c>
+      <c r="C28" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="D28" s="30"/>
+      <c r="E28" s="31" t="s">
         <v>315</v>
       </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="31"/>
+    </row>
+    <row r="29" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>1</v>
       </c>
@@ -2350,20 +2527,21 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
+    <row r="31" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="29">
+        <v>1</v>
+      </c>
+      <c r="B31" s="29">
+        <v>1</v>
+      </c>
+      <c r="C31" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="D31" s="30"/>
+      <c r="E31" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="F31" s="2"/>
+      <c r="F31" s="31"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -2380,7 +2558,7 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>1</v>
       </c>
@@ -2396,7 +2574,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>1</v>
       </c>
@@ -2414,7 +2592,7 @@
       </c>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>1</v>
       </c>
@@ -2432,7 +2610,7 @@
       </c>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>1</v>
       </c>
@@ -2447,7 +2625,7 @@
       </c>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>1</v>
       </c>
@@ -2476,7 +2654,7 @@
         <v>35</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="F38" s="2"/>
     </row>
@@ -2491,7 +2669,7 @@
         <v>36</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>350</v>
+        <v>522</v>
       </c>
       <c r="F39" s="2"/>
     </row>
@@ -2510,22 +2688,23 @@
       </c>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41">
+    <row r="41" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="32">
+        <v>1</v>
+      </c>
+      <c r="B41" s="32">
         <v>2</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="33"/>
+      <c r="E41" s="34" t="s">
+        <v>498</v>
+      </c>
+      <c r="F41" s="34"/>
+    </row>
+    <row r="42" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>1</v>
       </c>
@@ -2558,7 +2737,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>1</v>
       </c>
@@ -2583,7 +2762,7 @@
         <v>41</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>227</v>
+        <v>499</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2601,22 +2780,23 @@
       </c>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
+    <row r="47" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="29">
+        <v>1</v>
+      </c>
+      <c r="B47" s="29">
+        <v>1</v>
+      </c>
+      <c r="C47" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="D47" s="30"/>
+      <c r="E47" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="31"/>
+    </row>
+    <row r="48" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>1</v>
       </c>
@@ -2646,7 +2826,7 @@
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="11" t="s">
-        <v>462</v>
+        <v>494</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2661,7 +2841,7 @@
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F50" s="11"/>
     </row>
@@ -2736,7 +2916,7 @@
         <v>49</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>476</v>
+        <v>523</v>
       </c>
       <c r="F55" s="2"/>
     </row>
@@ -2766,24 +2946,25 @@
         <v>51</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>233</v>
+        <v>489</v>
       </c>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>1</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58" t="s">
+    <row r="58" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="29">
+        <v>1</v>
+      </c>
+      <c r="B58" s="29">
+        <v>1</v>
+      </c>
+      <c r="C58" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="D58" s="30"/>
+      <c r="E58" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="F58" s="2"/>
+      <c r="F58" s="31"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
@@ -2800,7 +2981,7 @@
       </c>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>1</v>
       </c>
@@ -2863,7 +3044,7 @@
         <v>56</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>243</v>
+        <v>500</v>
       </c>
       <c r="J64" s="2"/>
     </row>
@@ -2893,7 +3074,7 @@
         <v>58</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2907,7 +3088,7 @@
         <v>59</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>472</v>
+        <v>501</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -2941,84 +3122,86 @@
       </c>
       <c r="F69" s="11"/>
     </row>
-    <row r="70" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="9">
-        <v>1</v>
-      </c>
-      <c r="B70" s="9">
+    <row r="70" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="32">
+        <v>1</v>
+      </c>
+      <c r="B70" s="32">
         <v>2</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="32" t="s">
         <v>344</v>
       </c>
-      <c r="D70" s="10"/>
-      <c r="E70" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="F70" s="11"/>
-    </row>
-    <row r="71" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="9">
-        <v>1</v>
-      </c>
-      <c r="B71" s="9">
-        <v>3</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="D71" s="10"/>
-      <c r="E71" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="F71" s="11"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>1</v>
-      </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="D70" s="33"/>
+      <c r="E70" s="34" t="s">
+        <v>502</v>
+      </c>
+      <c r="F70" s="34" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
         <v>62</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F72" s="2"/>
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
+        <v>1</v>
+      </c>
+      <c r="B72" s="9">
+        <v>1</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72" s="10"/>
+      <c r="E72" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="F72" s="11"/>
     </row>
     <row r="73" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9">
         <v>1</v>
       </c>
       <c r="B73" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>63</v>
       </c>
       <c r="D73" s="10"/>
       <c r="E73" s="11" t="s">
-        <v>336</v>
+        <v>241</v>
       </c>
       <c r="F73" s="11"/>
     </row>
-    <row r="74" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="9">
-        <v>1</v>
-      </c>
-      <c r="B74" s="9">
-        <v>2</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D74" s="10"/>
-      <c r="E74" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="F74" s="11"/>
+    <row r="74" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="29">
+        <v>1</v>
+      </c>
+      <c r="B74" s="29">
+        <v>1</v>
+      </c>
+      <c r="C74" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D74" s="30"/>
+      <c r="E74" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="F74" s="31"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
@@ -3028,88 +3211,89 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>1</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-      <c r="C76" t="s">
-        <v>65</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="F76" s="2"/>
+    <row r="76" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="32">
+        <v>1</v>
+      </c>
+      <c r="B76" s="32">
+        <v>1</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D76" s="33"/>
+      <c r="E76" s="34" t="s">
+        <v>503</v>
+      </c>
+      <c r="F76" s="34"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C77" t="s">
         <v>66</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>245</v>
+        <v>361</v>
       </c>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>1</v>
-      </c>
-      <c r="B78">
-        <v>2</v>
-      </c>
-      <c r="C78" t="s">
-        <v>66</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="F78" s="2"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>1</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-      <c r="C79" t="s">
+    <row r="78" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="29">
+        <v>1</v>
+      </c>
+      <c r="B78" s="29">
+        <v>1</v>
+      </c>
+      <c r="C78" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="D78" s="30"/>
+      <c r="E78" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="F79" s="2"/>
-    </row>
-    <row r="80" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="5">
-        <v>1</v>
-      </c>
-      <c r="B80" s="5">
-        <v>1</v>
-      </c>
-      <c r="C80" s="5" t="s">
+      <c r="F78" s="31"/>
+    </row>
+    <row r="79" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <v>1</v>
+      </c>
+      <c r="B79" s="5">
+        <v>1</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D80" s="6">
-        <v>1</v>
-      </c>
-      <c r="E80" s="7"/>
-      <c r="H80" s="7"/>
+      <c r="D79" s="6">
+        <v>1</v>
+      </c>
+      <c r="E79" s="7"/>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
@@ -3119,11 +3303,12 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>383</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
@@ -3133,12 +3318,14 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="G82" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
@@ -3148,29 +3335,30 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>1</v>
-      </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-      <c r="C84" t="s">
-        <v>72</v>
-      </c>
-      <c r="E84" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F84" s="2"/>
+      <c r="F83" s="2"/>
+    </row>
+    <row r="84" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="32">
+        <v>1</v>
+      </c>
+      <c r="B84" s="32">
+        <v>1</v>
+      </c>
+      <c r="C84" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D84" s="33"/>
+      <c r="E84" s="34" t="s">
+        <v>505</v>
+      </c>
+      <c r="F84" s="34" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
@@ -3180,27 +3368,25 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>1</v>
-      </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-      <c r="C86" t="s">
-        <v>74</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>250</v>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="29">
+        <v>1</v>
+      </c>
+      <c r="B86" s="29">
+        <v>1</v>
+      </c>
+      <c r="C86" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D86" s="30"/>
+      <c r="E86" s="31" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3211,42 +3397,43 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>1</v>
-      </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-      <c r="C88" t="s">
-        <v>76</v>
-      </c>
-      <c r="E88" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="5">
-        <v>1</v>
-      </c>
-      <c r="B89" s="5">
-        <v>1</v>
-      </c>
-      <c r="C89" s="5" t="s">
+    <row r="88" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="5">
+        <v>1</v>
+      </c>
+      <c r="B88" s="5">
+        <v>1</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D89" s="8">
-        <v>1</v>
-      </c>
-      <c r="E89" s="7" t="s">
+      <c r="D88" s="8">
+        <v>1</v>
+      </c>
+      <c r="E88" s="7" t="s">
         <v>381</v>
       </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>78</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
@@ -3256,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F90" s="2"/>
     </row>
@@ -3271,29 +3458,34 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="F91" s="2"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>1</v>
-      </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-      <c r="C92" t="s">
-        <v>80</v>
-      </c>
-      <c r="E92" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="G92" s="2"/>
-    </row>
-    <row r="93" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G91" s="2"/>
+    </row>
+    <row r="92" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="5">
+        <v>1</v>
+      </c>
+      <c r="B92" s="5">
+        <v>1</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D92" s="6">
+        <v>1</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>1</v>
       </c>
@@ -3301,58 +3493,54 @@
         <v>1</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D93" s="6">
         <v>1</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="5">
-        <v>1</v>
-      </c>
-      <c r="B94" s="5">
-        <v>1</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D94" s="6">
-        <v>1</v>
-      </c>
-      <c r="E94" s="7" t="s">
         <v>351</v>
       </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>347</v>
+      </c>
+      <c r="E94" s="2"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
       <c r="C95" t="s">
-        <v>347</v>
-      </c>
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>1</v>
-      </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-      <c r="C96" t="s">
         <v>83</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E95" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="G96" s="2"/>
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="29">
+        <v>1</v>
+      </c>
+      <c r="B96" s="29">
+        <v>1</v>
+      </c>
+      <c r="C96" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D96" s="30"/>
+      <c r="E96" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="F96" s="31"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
@@ -3362,37 +3550,39 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>356</v>
+        <v>264</v>
       </c>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>1</v>
-      </c>
-      <c r="B98">
-        <v>1</v>
-      </c>
-      <c r="C98" t="s">
+    <row r="98" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C98" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="F98" s="2"/>
-    </row>
-    <row r="99" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C99" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D99" s="6">
-        <v>1</v>
-      </c>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
+      <c r="D98" s="6">
+        <v>1</v>
+      </c>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>152</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
@@ -3402,27 +3592,25 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>402</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="F100" s="2"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C101" t="s">
         <v>86</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F101" s="2"/>
     </row>
@@ -3431,60 +3619,60 @@
         <v>1</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>1</v>
-      </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
-      <c r="C103" t="s">
-        <v>87</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F103" s="2"/>
-    </row>
-    <row r="104" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="5">
-        <v>1</v>
-      </c>
-      <c r="B104" s="5">
-        <v>1</v>
-      </c>
-      <c r="C104" s="5" t="s">
+    <row r="103" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="5">
+        <v>1</v>
+      </c>
+      <c r="B103" s="5">
+        <v>1</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D104" s="8">
-        <v>1</v>
-      </c>
-      <c r="E104" s="7" t="s">
+      <c r="D103" s="8">
+        <v>1</v>
+      </c>
+      <c r="E103" s="7" t="s">
         <v>337</v>
       </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>89</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C105" t="s">
         <v>89</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F105" s="2"/>
     </row>
@@ -3493,13 +3681,13 @@
         <v>1</v>
       </c>
       <c r="B106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F106" s="2"/>
     </row>
@@ -3511,27 +3699,28 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>1</v>
-      </c>
-      <c r="B108">
-        <v>1</v>
-      </c>
-      <c r="C108" t="s">
-        <v>91</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F108" s="2"/>
+    <row r="108" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="32">
+        <v>1</v>
+      </c>
+      <c r="B108" s="32">
+        <v>1</v>
+      </c>
+      <c r="C108" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D108" s="33"/>
+      <c r="E108" s="34" t="s">
+        <v>507</v>
+      </c>
+      <c r="F108" s="34"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
@@ -3541,12 +3730,12 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F109" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="G109" s="2"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
@@ -3556,25 +3745,25 @@
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="G110" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C111" t="s">
         <v>94</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F111" s="2"/>
     </row>
@@ -3583,13 +3772,13 @@
         <v>1</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F112" s="2"/>
     </row>
@@ -3601,10 +3790,10 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F113" s="2"/>
     </row>
@@ -3616,45 +3805,46 @@
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>1</v>
-      </c>
-      <c r="B115">
-        <v>1</v>
-      </c>
-      <c r="C115" t="s">
-        <v>97</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="F115" s="2"/>
-    </row>
-    <row r="116" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="5">
-        <v>1</v>
-      </c>
-      <c r="B116" s="5">
-        <v>1</v>
-      </c>
-      <c r="C116" s="5" t="s">
+    <row r="115" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="5">
+        <v>1</v>
+      </c>
+      <c r="B115" s="5">
+        <v>1</v>
+      </c>
+      <c r="C115" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D116" s="6">
-        <v>1</v>
-      </c>
-      <c r="E116" s="7" t="s">
+      <c r="D115" s="6">
+        <v>1</v>
+      </c>
+      <c r="E115" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F116" s="7"/>
+      <c r="F115" s="7"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>99</v>
+      </c>
+      <c r="D116" s="4"/>
+      <c r="E116" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F116" s="2"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
@@ -3664,28 +3854,28 @@
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>99</v>
-      </c>
-      <c r="D117" s="4"/>
+        <v>100</v>
+      </c>
       <c r="E117" s="2" t="s">
-        <v>474</v>
+        <v>280</v>
       </c>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>1</v>
-      </c>
-      <c r="B118">
-        <v>1</v>
-      </c>
-      <c r="C118" t="s">
-        <v>100</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="F118" s="2"/>
+    <row r="118" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="32">
+        <v>1</v>
+      </c>
+      <c r="B118" s="32">
+        <v>1</v>
+      </c>
+      <c r="C118" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D118" s="33"/>
+      <c r="E118" s="34" t="s">
+        <v>508</v>
+      </c>
+      <c r="F118" s="34"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
@@ -3695,27 +3885,28 @@
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>1</v>
-      </c>
-      <c r="B120">
-        <v>1</v>
-      </c>
-      <c r="C120" t="s">
-        <v>102</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F120" s="2"/>
+    <row r="120" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="29">
+        <v>1</v>
+      </c>
+      <c r="B120" s="29">
+        <v>1</v>
+      </c>
+      <c r="C120" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D120" s="30"/>
+      <c r="E120" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="F120" s="31"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
@@ -3725,10 +3916,11 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>103</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D121" s="4"/>
       <c r="E121" s="2" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="F121" s="2"/>
     </row>
@@ -3740,13 +3932,12 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>104</v>
-      </c>
-      <c r="D122" s="4"/>
+        <v>105</v>
+      </c>
       <c r="E122" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F122" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="G122" s="2"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
@@ -3756,12 +3947,12 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="G123" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="F123" s="2"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
@@ -3771,78 +3962,77 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>1</v>
-      </c>
-      <c r="B125">
-        <v>1</v>
-      </c>
-      <c r="C125" t="s">
-        <v>107</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F125" s="2"/>
-    </row>
-    <row r="126" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="5">
-        <v>1</v>
-      </c>
-      <c r="B126" s="5">
-        <v>1</v>
-      </c>
-      <c r="C126" s="5" t="s">
+    <row r="125" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="5">
+        <v>1</v>
+      </c>
+      <c r="B125" s="5">
+        <v>1</v>
+      </c>
+      <c r="C125" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D126" s="6">
-        <v>1</v>
-      </c>
-      <c r="E126" s="7" t="s">
+      <c r="D125" s="6">
+        <v>1</v>
+      </c>
+      <c r="E125" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="F126" s="7"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>1</v>
-      </c>
-      <c r="B127">
-        <v>1</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="F125" s="7"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
         <v>109</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="E126" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F127" s="2"/>
-    </row>
-    <row r="128" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="5">
-        <v>1</v>
-      </c>
-      <c r="B128" s="5">
-        <v>1</v>
-      </c>
-      <c r="C128" s="5" t="s">
+      <c r="F126" s="2"/>
+    </row>
+    <row r="127" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="5">
+        <v>1</v>
+      </c>
+      <c r="B127" s="5">
+        <v>1</v>
+      </c>
+      <c r="C127" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D128" s="8">
-        <v>1</v>
-      </c>
-      <c r="E128" s="7" t="s">
+      <c r="D127" s="8">
+        <v>1</v>
+      </c>
+      <c r="E127" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="I128" s="7"/>
+      <c r="I127" s="7"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128" t="s">
+        <v>111</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
@@ -3852,11 +4042,12 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>341</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="F129" s="2"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
@@ -3866,128 +4057,128 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F130" s="2"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>1</v>
-      </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-      <c r="C131" t="s">
-        <v>113</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F131" s="2"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>1</v>
-      </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-      <c r="C132" t="s">
+    <row r="131" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="12">
+        <v>1</v>
+      </c>
+      <c r="B131" s="12">
+        <v>1</v>
+      </c>
+      <c r="C131" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F132" s="2" t="s">
+      <c r="D131" s="13"/>
+      <c r="E131" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="F131" s="14"/>
+      <c r="H131" s="14"/>
+    </row>
+    <row r="132" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="32">
+        <v>1</v>
+      </c>
+      <c r="B132" s="32">
+        <v>2</v>
+      </c>
+      <c r="C132" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D132" s="33"/>
+      <c r="E132" s="34" t="s">
+        <v>510</v>
+      </c>
+      <c r="F132" s="34" t="s">
         <v>452</v>
       </c>
-      <c r="H132" s="2"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
       <c r="B133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C133" t="s">
-        <v>114</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>389</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="E133" s="2"/>
       <c r="F133" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>1</v>
-      </c>
-      <c r="B134">
-        <v>3</v>
-      </c>
-      <c r="C134" t="s">
-        <v>397</v>
-      </c>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="135" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="5">
-        <v>1</v>
-      </c>
-      <c r="B135" s="5">
-        <v>1</v>
-      </c>
-      <c r="C135" s="5" t="s">
+    <row r="134" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="5">
+        <v>1</v>
+      </c>
+      <c r="B134" s="5">
+        <v>1</v>
+      </c>
+      <c r="C134" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D135" s="6">
-        <v>1</v>
-      </c>
-      <c r="E135" s="7" t="s">
+      <c r="D134" s="6">
+        <v>1</v>
+      </c>
+      <c r="E134" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F135" s="7"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>1</v>
-      </c>
-      <c r="B136">
-        <v>1</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="F134" s="7"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135" t="s">
         <v>116</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="E135" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="F136" s="2"/>
-    </row>
-    <row r="137" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="5">
-        <v>1</v>
-      </c>
-      <c r="B137" s="5">
-        <v>1</v>
-      </c>
-      <c r="C137" s="5" t="s">
+      <c r="F135" s="2"/>
+    </row>
+    <row r="136" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="5">
+        <v>1</v>
+      </c>
+      <c r="B136" s="5">
+        <v>1</v>
+      </c>
+      <c r="C136" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D137" s="6">
-        <v>1</v>
-      </c>
-      <c r="E137" s="7" t="s">
+      <c r="D136" s="6">
+        <v>1</v>
+      </c>
+      <c r="E136" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F137" s="7"/>
+      <c r="F136" s="7"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137" t="s">
+        <v>118</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="J137" s="2"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
@@ -3997,52 +4188,53 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>118</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="J138" s="2"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>1</v>
-      </c>
-      <c r="B139">
-        <v>1</v>
-      </c>
-      <c r="C139" t="s">
         <v>119</v>
       </c>
-      <c r="E139" s="2"/>
-    </row>
-    <row r="140" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="5">
-        <v>1</v>
-      </c>
-      <c r="B140" s="5">
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="5">
+        <v>1</v>
+      </c>
+      <c r="B139" s="5">
         <v>2</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="C139" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D140" s="6">
-        <v>1</v>
-      </c>
-      <c r="E140" s="7"/>
+      <c r="D139" s="6">
+        <v>1</v>
+      </c>
+      <c r="E139" s="7"/>
+    </row>
+    <row r="140" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="32">
+        <v>1</v>
+      </c>
+      <c r="B140" s="32">
+        <v>1</v>
+      </c>
+      <c r="C140" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D140" s="33"/>
+      <c r="E140" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="F140" s="34"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C141" t="s">
         <v>120</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F141" s="2"/>
     </row>
@@ -4051,48 +4243,48 @@
         <v>1</v>
       </c>
       <c r="B142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C142" t="s">
         <v>120</v>
       </c>
+      <c r="D142" s="4"/>
       <c r="E142" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="F142" s="2"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>1</v>
-      </c>
-      <c r="B143">
-        <v>2</v>
-      </c>
-      <c r="C143" t="s">
-        <v>120</v>
-      </c>
-      <c r="D143" s="4"/>
-      <c r="E143" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="144" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="5">
-        <v>1</v>
-      </c>
-      <c r="B144" s="5">
-        <v>1</v>
-      </c>
-      <c r="C144" s="5" t="s">
+    <row r="143" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="5">
+        <v>1</v>
+      </c>
+      <c r="B143" s="5">
+        <v>1</v>
+      </c>
+      <c r="C143" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D144" s="6">
-        <v>1</v>
-      </c>
-      <c r="E144" s="7" t="s">
+      <c r="D143" s="6">
+        <v>1</v>
+      </c>
+      <c r="E143" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F144" s="7"/>
+      <c r="F143" s="7"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>1</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
+        <v>192</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F144" s="2"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
@@ -4102,10 +4294,10 @@
         <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>192</v>
+        <v>122</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>310</v>
+        <v>369</v>
       </c>
       <c r="F145" s="2"/>
     </row>
@@ -4117,10 +4309,10 @@
         <v>1</v>
       </c>
       <c r="C146" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>369</v>
+        <v>311</v>
       </c>
       <c r="F146" s="2"/>
     </row>
@@ -4132,29 +4324,32 @@
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="F147" s="2"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>1</v>
-      </c>
-      <c r="B148">
-        <v>1</v>
-      </c>
-      <c r="C148" t="s">
-        <v>124</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F148" s="2"/>
-    </row>
-    <row r="149" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="5">
+        <v>1</v>
+      </c>
+      <c r="B148" s="5">
+        <v>1</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D148" s="6">
+        <v>1</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F148" s="7"/>
+    </row>
+    <row r="149" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
         <v>1</v>
       </c>
@@ -4162,17 +4357,15 @@
         <v>1</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D149" s="6">
         <v>1</v>
       </c>
-      <c r="E149" s="7" t="s">
-        <v>252</v>
-      </c>
+      <c r="E149" s="7"/>
       <c r="F149" s="7"/>
     </row>
-    <row r="150" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
         <v>1</v>
       </c>
@@ -4180,112 +4373,116 @@
         <v>1</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D150" s="6">
         <v>1</v>
       </c>
-      <c r="E150" s="7"/>
+      <c r="E150" s="7" t="s">
+        <v>288</v>
+      </c>
       <c r="F150" s="7"/>
     </row>
-    <row r="151" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="5">
-        <v>1</v>
-      </c>
-      <c r="B151" s="5">
-        <v>1</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D151" s="6">
-        <v>1</v>
-      </c>
-      <c r="E151" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="F151" s="7"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>1</v>
-      </c>
-      <c r="B152">
-        <v>1</v>
-      </c>
-      <c r="C152" t="s">
+    <row r="151" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="29">
+        <v>1</v>
+      </c>
+      <c r="B151" s="29">
+        <v>1</v>
+      </c>
+      <c r="C151" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="E152" s="2" t="s">
+      <c r="D151" s="30"/>
+      <c r="E151" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="F152" s="2"/>
-    </row>
-    <row r="153" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="5">
-        <v>1</v>
-      </c>
-      <c r="B153" s="5">
-        <v>1</v>
-      </c>
-      <c r="C153" s="5" t="s">
+      <c r="F151" s="31"/>
+    </row>
+    <row r="152" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="5">
+        <v>1</v>
+      </c>
+      <c r="B152" s="5">
+        <v>1</v>
+      </c>
+      <c r="C152" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D153" s="6">
-        <v>1</v>
-      </c>
-      <c r="E153" s="7" t="s">
+      <c r="D152" s="6">
+        <v>1</v>
+      </c>
+      <c r="E152" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F153" s="7"/>
-    </row>
-    <row r="154" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="12">
-        <v>1</v>
-      </c>
-      <c r="B154" s="12">
-        <v>1</v>
-      </c>
-      <c r="C154" s="12" t="s">
+      <c r="F152" s="7"/>
+    </row>
+    <row r="153" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="12">
+        <v>1</v>
+      </c>
+      <c r="B153" s="12">
+        <v>1</v>
+      </c>
+      <c r="C153" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D154" s="15"/>
-      <c r="E154" s="17" t="s">
+      <c r="D153" s="15"/>
+      <c r="E153" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="F154" s="14"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>1</v>
-      </c>
-      <c r="B155">
-        <v>1</v>
-      </c>
-      <c r="C155" t="s">
+      <c r="F153" s="14"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>1</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154" t="s">
         <v>131</v>
       </c>
-      <c r="E155" s="2" t="s">
+      <c r="E154" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="F155" s="2"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>1</v>
-      </c>
-      <c r="B156">
-        <v>1</v>
-      </c>
-      <c r="C156" t="s">
+      <c r="F154" s="2"/>
+    </row>
+    <row r="155" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="29">
+        <v>1</v>
+      </c>
+      <c r="B155" s="29">
+        <v>1</v>
+      </c>
+      <c r="C155" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="E156" s="2" t="s">
+      <c r="D155" s="30"/>
+      <c r="E155" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="F156" s="2"/>
-    </row>
-    <row r="157" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F155" s="31"/>
+    </row>
+    <row r="156" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="5">
+        <v>1</v>
+      </c>
+      <c r="B156" s="5">
+        <v>1</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D156" s="6">
+        <v>1</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F156" s="7"/>
+    </row>
+    <row r="157" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
         <v>1</v>
       </c>
@@ -4293,65 +4490,62 @@
         <v>1</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D157" s="6">
         <v>1</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="F157" s="7"/>
-    </row>
-    <row r="158" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="5">
-        <v>1</v>
-      </c>
-      <c r="B158" s="5">
-        <v>1</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D158" s="6">
-        <v>1</v>
-      </c>
-      <c r="E158" s="7" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>1</v>
-      </c>
-      <c r="B159">
-        <v>1</v>
-      </c>
-      <c r="C159" t="s">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>1</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158" t="s">
         <v>135</v>
       </c>
-      <c r="E159" s="2" t="s">
+      <c r="E158" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="F159" s="2"/>
-    </row>
-    <row r="160" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="5">
-        <v>1</v>
-      </c>
-      <c r="B160" s="5">
-        <v>1</v>
-      </c>
-      <c r="C160" s="24" t="s">
+      <c r="F158" s="2"/>
+    </row>
+    <row r="159" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="5">
+        <v>1</v>
+      </c>
+      <c r="B159" s="5">
+        <v>1</v>
+      </c>
+      <c r="C159" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="D160" s="6">
-        <v>1</v>
-      </c>
-      <c r="E160" s="23" t="s">
+      <c r="D159" s="6">
+        <v>1</v>
+      </c>
+      <c r="E159" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="F160" s="7"/>
+      <c r="F159" s="7"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>1</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160" t="s">
+        <v>137</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F160" s="2"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
@@ -4364,42 +4558,43 @@
         <v>137</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F161" s="2"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>1</v>
-      </c>
-      <c r="B162">
-        <v>1</v>
-      </c>
-      <c r="C162" t="s">
-        <v>137</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="F162" s="2"/>
-    </row>
-    <row r="163" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="5">
-        <v>1</v>
-      </c>
-      <c r="B163" s="5">
-        <v>1</v>
-      </c>
-      <c r="C163" s="5" t="s">
+    <row r="162" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="5">
+        <v>1</v>
+      </c>
+      <c r="B162" s="5">
+        <v>1</v>
+      </c>
+      <c r="C162" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D163" s="6">
-        <v>1</v>
-      </c>
-      <c r="E163" s="7" t="s">
+      <c r="D162" s="6">
+        <v>1</v>
+      </c>
+      <c r="E162" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="F163" s="7"/>
+      <c r="F162" s="7"/>
+    </row>
+    <row r="163" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="29">
+        <v>1</v>
+      </c>
+      <c r="B163" s="29">
+        <v>1</v>
+      </c>
+      <c r="C163" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="D163" s="30"/>
+      <c r="E163" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="F163" s="31"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
@@ -4409,12 +4604,12 @@
         <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="F164" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="H164" s="2"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
@@ -4424,29 +4619,32 @@
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="H165" s="2"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>1</v>
-      </c>
-      <c r="B166">
-        <v>1</v>
-      </c>
-      <c r="C166" t="s">
-        <v>141</v>
-      </c>
-      <c r="E166" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F166" s="2"/>
-    </row>
-    <row r="167" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F165" s="2"/>
+    </row>
+    <row r="166" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="5">
+        <v>1</v>
+      </c>
+      <c r="B166" s="5">
+        <v>1</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D166" s="6">
+        <v>1</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F166" s="7"/>
+    </row>
+    <row r="167" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
         <v>1</v>
       </c>
@@ -4454,33 +4652,30 @@
         <v>1</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D167" s="6">
         <v>1</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="F167" s="7"/>
     </row>
-    <row r="168" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="5">
-        <v>1</v>
-      </c>
-      <c r="B168" s="5">
-        <v>1</v>
-      </c>
-      <c r="C168" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D168" s="6">
-        <v>1</v>
-      </c>
-      <c r="E168" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F168" s="7"/>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>1</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168" t="s">
+        <v>144</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F168" s="2"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
@@ -4490,59 +4685,61 @@
         <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="F169" s="2"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>1</v>
-      </c>
-      <c r="B170">
-        <v>1</v>
-      </c>
-      <c r="C170" t="s">
-        <v>145</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="5">
-        <v>1</v>
-      </c>
-      <c r="B171" s="5">
-        <v>1</v>
-      </c>
-      <c r="C171" s="5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="5">
+        <v>1</v>
+      </c>
+      <c r="B170" s="5">
+        <v>1</v>
+      </c>
+      <c r="C170" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D171" s="6">
-        <v>1</v>
-      </c>
-      <c r="E171" s="7" t="s">
+      <c r="D170" s="6">
+        <v>1</v>
+      </c>
+      <c r="E170" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="I171" s="7"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>1</v>
-      </c>
-      <c r="B172">
-        <v>1</v>
-      </c>
-      <c r="C172" t="s">
+      <c r="I170" s="7"/>
+    </row>
+    <row r="171" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="29">
+        <v>1</v>
+      </c>
+      <c r="B171" s="29">
+        <v>1</v>
+      </c>
+      <c r="C171" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="E172" s="2" t="s">
+      <c r="D171" s="30"/>
+      <c r="E171" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="F172" s="2"/>
+      <c r="F171" s="31"/>
+    </row>
+    <row r="172" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="29">
+        <v>1</v>
+      </c>
+      <c r="B172" s="29">
+        <v>1</v>
+      </c>
+      <c r="C172" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D172" s="30"/>
+      <c r="E172" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="F172" s="31"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
@@ -4552,10 +4749,10 @@
         <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>296</v>
+        <v>215</v>
       </c>
       <c r="F173" s="2"/>
     </row>
@@ -4567,45 +4764,47 @@
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>215</v>
+        <v>297</v>
       </c>
       <c r="F174" s="2"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>1</v>
-      </c>
-      <c r="B175">
-        <v>1</v>
-      </c>
-      <c r="C175" t="s">
-        <v>150</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F175" s="2"/>
-    </row>
-    <row r="176" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="5">
-        <v>1</v>
-      </c>
-      <c r="B176" s="5">
-        <v>1</v>
-      </c>
-      <c r="C176" s="5" t="s">
+    <row r="175" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="5">
+        <v>1</v>
+      </c>
+      <c r="B175" s="5">
+        <v>1</v>
+      </c>
+      <c r="C175" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D176" s="6">
-        <v>1</v>
-      </c>
-      <c r="E176" s="7" t="s">
+      <c r="D175" s="6">
+        <v>1</v>
+      </c>
+      <c r="E175" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F176" s="7"/>
+      <c r="F175" s="7"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>1</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176" t="s">
+        <v>153</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177">
@@ -4615,61 +4814,60 @@
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>1</v>
-      </c>
-      <c r="B178">
-        <v>1</v>
-      </c>
-      <c r="C178" t="s">
-        <v>154</v>
-      </c>
-      <c r="E178" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="F178" s="2"/>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>1</v>
-      </c>
-      <c r="B179">
-        <v>1</v>
-      </c>
-      <c r="C179" t="s">
+      <c r="F177" s="2"/>
+    </row>
+    <row r="178" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="32">
+        <v>1</v>
+      </c>
+      <c r="B178" s="32">
+        <v>1</v>
+      </c>
+      <c r="C178" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="E179" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="5">
-        <v>1</v>
-      </c>
-      <c r="B180" s="5">
-        <v>1</v>
-      </c>
-      <c r="C180" s="5" t="s">
+      <c r="D178" s="33"/>
+      <c r="E178" s="34" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="5">
+        <v>1</v>
+      </c>
+      <c r="B179" s="5">
+        <v>1</v>
+      </c>
+      <c r="C179" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D180" s="6">
-        <v>1</v>
-      </c>
-      <c r="E180" s="7" t="s">
+      <c r="D179" s="6">
+        <v>1</v>
+      </c>
+      <c r="E179" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F180" s="7"/>
+      <c r="F179" s="7"/>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>1</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180" t="s">
+        <v>157</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="F180" s="2"/>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181">
@@ -4679,12 +4877,18 @@
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>157</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="D181" s="4"/>
       <c r="E181" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F181" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="F181" t="s">
+        <v>456</v>
+      </c>
+      <c r="O181" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182">
@@ -4694,33 +4898,28 @@
         <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>158</v>
-      </c>
-      <c r="D182" s="4"/>
+        <v>159</v>
+      </c>
       <c r="E182" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="F182" t="s">
-        <v>457</v>
-      </c>
-      <c r="O182" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>1</v>
-      </c>
-      <c r="B183">
-        <v>1</v>
-      </c>
-      <c r="C183" t="s">
-        <v>159</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F183" s="2"/>
+        <v>513</v>
+      </c>
+      <c r="F182" s="2"/>
+    </row>
+    <row r="183" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="29">
+        <v>1</v>
+      </c>
+      <c r="B183" s="29">
+        <v>1</v>
+      </c>
+      <c r="C183" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D183" s="30"/>
+      <c r="E183" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="F183" s="31"/>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184">
@@ -4730,12 +4929,12 @@
         <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F184" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="H184" s="2"/>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185">
@@ -4745,45 +4944,45 @@
         <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H185" s="2"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>1</v>
-      </c>
-      <c r="B186">
-        <v>1</v>
-      </c>
-      <c r="C186" t="s">
-        <v>162</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="H186" s="2"/>
-    </row>
-    <row r="187" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="5">
-        <v>1</v>
-      </c>
-      <c r="B187" s="5">
-        <v>1</v>
-      </c>
-      <c r="C187" s="5" t="s">
+    <row r="186" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="5">
+        <v>1</v>
+      </c>
+      <c r="B186" s="5">
+        <v>1</v>
+      </c>
+      <c r="C186" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D187" s="6">
-        <v>1</v>
-      </c>
-      <c r="E187" s="7" t="s">
+      <c r="D186" s="6">
+        <v>1</v>
+      </c>
+      <c r="E186" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F187" s="7"/>
+      <c r="F186" s="7"/>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>1</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="C187" t="s">
+        <v>164</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F187" s="2"/>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188">
@@ -4793,44 +4992,48 @@
         <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="F188" s="2"/>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>1</v>
-      </c>
-      <c r="B189">
-        <v>1</v>
-      </c>
-      <c r="C189" t="s">
-        <v>165</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="L189" s="2"/>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>1</v>
-      </c>
-      <c r="B190">
-        <v>1</v>
-      </c>
-      <c r="C190" t="s">
+        <v>488</v>
+      </c>
+      <c r="L188" s="2"/>
+    </row>
+    <row r="189" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="29">
+        <v>1</v>
+      </c>
+      <c r="B189" s="29">
+        <v>1</v>
+      </c>
+      <c r="C189" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="E190" s="2" t="s">
+      <c r="D189" s="30"/>
+      <c r="E189" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="F190" s="2"/>
-    </row>
-    <row r="191" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F189" s="31"/>
+    </row>
+    <row r="190" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="5">
+        <v>1</v>
+      </c>
+      <c r="B190" s="5">
+        <v>1</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D190" s="6">
+        <v>1</v>
+      </c>
+      <c r="E190" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F190" s="7"/>
+    </row>
+    <row r="191" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
         <v>1</v>
       </c>
@@ -4838,33 +5041,30 @@
         <v>1</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D191" s="6">
         <v>1</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="F191" s="7"/>
     </row>
-    <row r="192" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="5">
-        <v>1</v>
-      </c>
-      <c r="B192" s="5">
-        <v>1</v>
-      </c>
-      <c r="C192" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D192" s="6">
-        <v>1</v>
-      </c>
-      <c r="E192" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="F192" s="7"/>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>1</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192" t="s">
+        <v>169</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F192" s="2"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
@@ -4874,91 +5074,92 @@
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>294</v>
+        <v>378</v>
       </c>
       <c r="F193" s="2"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>1</v>
-      </c>
-      <c r="B194">
-        <v>1</v>
-      </c>
-      <c r="C194" t="s">
-        <v>170</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="F194" s="2"/>
-    </row>
-    <row r="195" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="5">
-        <v>1</v>
-      </c>
-      <c r="B195" s="5">
-        <v>1</v>
-      </c>
-      <c r="C195" s="5" t="s">
+    <row r="194" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="5">
+        <v>1</v>
+      </c>
+      <c r="B194" s="5">
+        <v>1</v>
+      </c>
+      <c r="C194" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D195" s="6">
-        <v>1</v>
-      </c>
-      <c r="E195" s="7" t="s">
+      <c r="D194" s="6">
+        <v>1</v>
+      </c>
+      <c r="E194" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="F195" s="7"/>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>1</v>
-      </c>
-      <c r="B196">
-        <v>1</v>
-      </c>
-      <c r="C196" t="s">
+      <c r="F194" s="7"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>1</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195" t="s">
         <v>172</v>
       </c>
-      <c r="E196" s="2" t="s">
+      <c r="E195" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="F196" s="2"/>
-    </row>
-    <row r="197" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="12">
-        <v>1</v>
-      </c>
-      <c r="B197" s="12">
-        <v>1</v>
-      </c>
-      <c r="C197" s="12" t="s">
+      <c r="F195" s="2"/>
+    </row>
+    <row r="196" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="12">
+        <v>1</v>
+      </c>
+      <c r="B196" s="12">
+        <v>1</v>
+      </c>
+      <c r="C196" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="D197" s="13"/>
-      <c r="E197" s="16" t="s">
+      <c r="D196" s="13"/>
+      <c r="E196" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F197" s="14"/>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>1</v>
-      </c>
-      <c r="B198">
-        <v>1</v>
-      </c>
-      <c r="C198" t="s">
+      <c r="F196" s="14"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>1</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197" t="s">
         <v>174</v>
       </c>
-      <c r="E198" s="2" t="s">
+      <c r="E197" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="F198" s="2"/>
+      <c r="F197" s="2"/>
+    </row>
+    <row r="198" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="29">
+        <v>1</v>
+      </c>
+      <c r="B198" s="29">
+        <v>1</v>
+      </c>
+      <c r="C198" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="D198" s="30"/>
+      <c r="E198" s="31" t="s">
+        <v>526</v>
+      </c>
+      <c r="F198" s="31"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
@@ -4968,11 +5169,10 @@
         <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>175</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>371</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="D199" s="4"/>
+      <c r="E199" s="2"/>
       <c r="F199" s="2"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -4980,27 +5180,28 @@
         <v>1</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C200" t="s">
         <v>176</v>
       </c>
       <c r="D200" s="4"/>
       <c r="E200" s="2"/>
-      <c r="F200" s="2"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1</v>
       </c>
       <c r="B201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>176</v>
-      </c>
-      <c r="D201" s="4"/>
-      <c r="E201" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="F201" s="2"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
@@ -5010,10 +5211,10 @@
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
       <c r="F202" s="2"/>
     </row>
@@ -5025,12 +5226,12 @@
         <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F203" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="G203" s="2"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
@@ -5040,10 +5241,13 @@
         <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>328</v>
+        <v>408</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>404</v>
       </c>
       <c r="G204" s="2"/>
     </row>
@@ -5055,15 +5259,11 @@
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="G205" s="2"/>
+        <v>368</v>
+      </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
@@ -5073,11 +5273,12 @@
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>368</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="F206" s="2"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
@@ -5087,14 +5288,13 @@
         <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="F207" s="2"/>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1</v>
       </c>
@@ -5102,13 +5302,13 @@
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>183</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="E208" s="18" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1</v>
       </c>
@@ -5116,77 +5316,80 @@
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>184</v>
-      </c>
-      <c r="E209" s="18" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>1</v>
-      </c>
-      <c r="B210">
-        <v>1</v>
-      </c>
-      <c r="C210" t="s">
         <v>185</v>
       </c>
-      <c r="E210" s="2" t="s">
+      <c r="E209" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="F210" s="2"/>
-    </row>
-    <row r="211" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="5">
-        <v>1</v>
-      </c>
-      <c r="B211" s="5">
-        <v>1</v>
-      </c>
-      <c r="C211" s="5" t="s">
+      <c r="F209" s="2"/>
+    </row>
+    <row r="210" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="5">
+        <v>1</v>
+      </c>
+      <c r="B210" s="5">
+        <v>1</v>
+      </c>
+      <c r="C210" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D211" s="6">
-        <v>1</v>
-      </c>
-      <c r="E211" s="7" t="s">
+      <c r="D210" s="6">
+        <v>1</v>
+      </c>
+      <c r="E210" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="F211" s="7"/>
-    </row>
-    <row r="212" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="12">
-        <v>1</v>
-      </c>
-      <c r="B212" s="12">
-        <v>1</v>
-      </c>
-      <c r="C212" s="12" t="s">
+      <c r="F210" s="7"/>
+    </row>
+    <row r="211" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="29">
+        <v>1</v>
+      </c>
+      <c r="B211" s="29">
+        <v>1</v>
+      </c>
+      <c r="C211" s="29" t="s">
         <v>410</v>
       </c>
-      <c r="D212" s="13"/>
-      <c r="E212" s="14" t="s">
+      <c r="D211" s="30"/>
+      <c r="E211" s="31" t="s">
         <v>387</v>
       </c>
-      <c r="F212" s="14"/>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>1</v>
-      </c>
-      <c r="B213">
-        <v>1</v>
-      </c>
-      <c r="C213" t="s">
+      <c r="F211" s="31"/>
+    </row>
+    <row r="212" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="29">
+        <v>1</v>
+      </c>
+      <c r="B212" s="29">
+        <v>1</v>
+      </c>
+      <c r="C212" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="E213" s="2" t="s">
+      <c r="D212" s="30"/>
+      <c r="E212" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="F213" s="2"/>
-    </row>
-    <row r="214" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F212" s="31"/>
+    </row>
+    <row r="213" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="5">
+        <v>1</v>
+      </c>
+      <c r="B213" s="5">
+        <v>1</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D213" s="6">
+        <v>1</v>
+      </c>
+      <c r="E213" s="7"/>
+      <c r="G213" s="7"/>
+    </row>
+    <row r="214" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
         <v>1</v>
       </c>
@@ -5194,15 +5397,14 @@
         <v>1</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D214" s="6">
         <v>1</v>
       </c>
       <c r="E214" s="7"/>
-      <c r="G214" s="7"/>
-    </row>
-    <row r="215" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="5">
         <v>1</v>
       </c>
@@ -5210,59 +5412,59 @@
         <v>1</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>189</v>
+        <v>348</v>
       </c>
       <c r="D215" s="6">
         <v>1</v>
       </c>
-      <c r="E215" s="7"/>
-    </row>
-    <row r="216" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="5">
-        <v>1</v>
-      </c>
-      <c r="B216" s="5">
-        <v>1</v>
-      </c>
-      <c r="C216" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="D216" s="6">
-        <v>1</v>
-      </c>
-      <c r="E216" s="7" t="s">
+      <c r="E215" s="7" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>1</v>
-      </c>
-      <c r="B217">
-        <v>1</v>
-      </c>
-      <c r="C217" t="s">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>1</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216" t="s">
         <v>411</v>
       </c>
-      <c r="E217" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="5">
-        <v>1</v>
-      </c>
-      <c r="B218" s="5">
-        <v>1</v>
-      </c>
-      <c r="C218" s="5" t="s">
+      <c r="E216" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="5">
+        <v>1</v>
+      </c>
+      <c r="B217" s="5">
+        <v>1</v>
+      </c>
+      <c r="C217" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D218" s="6">
-        <v>1</v>
-      </c>
-      <c r="E218" s="7" t="s">
+      <c r="D217" s="6">
+        <v>1</v>
+      </c>
+      <c r="E217" s="7" t="s">
         <v>331</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="12">
+        <v>1</v>
+      </c>
+      <c r="B218" s="12">
+        <v>1</v>
+      </c>
+      <c r="C218" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="D218" s="13"/>
+      <c r="E218" s="14" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="219" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5273,26 +5475,26 @@
         <v>1</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D219" s="13"/>
       <c r="E219" s="14" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="12">
-        <v>1</v>
-      </c>
-      <c r="B220" s="12">
-        <v>1</v>
-      </c>
-      <c r="C220" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="D220" s="13"/>
-      <c r="E220" s="14" t="s">
         <v>292</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>1</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="D220" s="27"/>
+      <c r="E220" s="26" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -5303,10 +5505,10 @@
         <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>247</v>
+        <v>381</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -5317,24 +5519,25 @@
         <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>1</v>
-      </c>
-      <c r="B223">
-        <v>1</v>
-      </c>
-      <c r="C223" t="s">
-        <v>416</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>375</v>
+        <v>516</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="29">
+        <v>1</v>
+      </c>
+      <c r="B223" s="29">
+        <v>1</v>
+      </c>
+      <c r="C223" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="D223" s="30"/>
+      <c r="E223" s="31" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -5345,104 +5548,104 @@
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>1</v>
-      </c>
-      <c r="B225">
-        <v>1</v>
-      </c>
-      <c r="C225" t="s">
-        <v>418</v>
-      </c>
-      <c r="E225" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>1</v>
-      </c>
-      <c r="B226">
-        <v>1</v>
-      </c>
-      <c r="C226" t="s">
+    <row r="225" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="29">
+        <v>1</v>
+      </c>
+      <c r="B225" s="29">
+        <v>1</v>
+      </c>
+      <c r="C225" s="29" t="s">
         <v>419</v>
       </c>
-      <c r="D226" s="1" t="s">
+      <c r="D225" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="E226" s="2" t="s">
+      <c r="E225" s="31" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="227" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="20">
-        <v>1</v>
-      </c>
-      <c r="C227" s="20" t="s">
+    <row r="226" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="20">
+        <v>1</v>
+      </c>
+      <c r="C226" s="20" t="s">
         <v>421</v>
       </c>
-      <c r="D227" s="21"/>
-      <c r="E227" s="22"/>
-    </row>
-    <row r="228" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="12">
-        <v>1</v>
-      </c>
-      <c r="C228" s="12" t="s">
+      <c r="D226" s="21"/>
+      <c r="E226" s="22"/>
+    </row>
+    <row r="227" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="12">
+        <v>1</v>
+      </c>
+      <c r="C227" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="D228" s="13"/>
-      <c r="E228" s="14" t="s">
+      <c r="D227" s="13"/>
+      <c r="E227" s="14" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="229" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="5">
-        <v>1</v>
-      </c>
-      <c r="B229" s="5">
-        <v>1</v>
-      </c>
-      <c r="C229" s="5" t="s">
+    <row r="228" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="5">
+        <v>1</v>
+      </c>
+      <c r="B228" s="5">
+        <v>1</v>
+      </c>
+      <c r="C228" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="D229" s="6">
-        <v>1</v>
-      </c>
-      <c r="E229" s="7"/>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>1</v>
-      </c>
-      <c r="B230">
-        <v>1</v>
-      </c>
-      <c r="C230" t="s">
+      <c r="D228" s="6">
+        <v>1</v>
+      </c>
+      <c r="E228" s="7"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>1</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229" t="s">
         <v>420</v>
       </c>
-      <c r="E230" s="2" t="s">
+      <c r="E229" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="231" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="12">
-        <v>1</v>
-      </c>
-      <c r="C231" s="12" t="s">
+    <row r="230" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="12">
+        <v>1</v>
+      </c>
+      <c r="C230" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="D231" s="13"/>
-      <c r="E231" s="19" t="s">
-        <v>247</v>
+      <c r="D230" s="13"/>
+      <c r="E230" s="28" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>1</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231" t="s">
+        <v>424</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -5453,10 +5656,10 @@
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -5467,10 +5670,10 @@
         <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -5481,10 +5684,10 @@
         <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>326</v>
+        <v>517</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -5495,10 +5698,10 @@
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>330</v>
+        <v>257</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -5509,77 +5712,80 @@
         <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>1</v>
-      </c>
-      <c r="B237">
-        <v>1</v>
-      </c>
-      <c r="C237" t="s">
-        <v>429</v>
-      </c>
-      <c r="E237" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="238" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="12">
-        <v>1</v>
-      </c>
-      <c r="B238" s="12">
-        <v>1</v>
-      </c>
-      <c r="C238" s="12" t="s">
+    <row r="237" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="12">
+        <v>1</v>
+      </c>
+      <c r="B237" s="12">
+        <v>1</v>
+      </c>
+      <c r="C237" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D238" s="13"/>
-      <c r="E238" s="14" t="s">
+      <c r="D237" s="13"/>
+      <c r="E237" s="14" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="239" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="20">
-        <v>1</v>
-      </c>
-      <c r="C239" s="20" t="s">
+    <row r="238" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="20">
+        <v>1</v>
+      </c>
+      <c r="C238" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="D239" s="21"/>
-      <c r="E239" s="22"/>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>1</v>
-      </c>
-      <c r="B240">
-        <v>1</v>
-      </c>
-      <c r="C240" t="s">
+      <c r="D238" s="21"/>
+      <c r="E238" s="22"/>
+    </row>
+    <row r="239" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="29">
+        <v>1</v>
+      </c>
+      <c r="B239" s="29">
+        <v>1</v>
+      </c>
+      <c r="C239" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="E240" s="2" t="s">
+      <c r="D239" s="30"/>
+      <c r="E239" s="31" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>1</v>
-      </c>
-      <c r="B241">
+    <row r="240" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="32">
+        <v>1</v>
+      </c>
+      <c r="B240" s="32">
         <v>2</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C240" s="32" t="s">
         <v>431</v>
       </c>
-      <c r="E241" s="2" t="s">
-        <v>265</v>
+      <c r="D240" s="33"/>
+      <c r="E240" s="34" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="29">
+        <v>1</v>
+      </c>
+      <c r="B241" s="29">
+        <v>1</v>
+      </c>
+      <c r="C241" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="D241" s="30"/>
+      <c r="E241" s="31" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -5587,13 +5793,16 @@
         <v>1</v>
       </c>
       <c r="B242">
-        <v>1</v>
-      </c>
-      <c r="C242" t="s">
+        <v>2</v>
+      </c>
+      <c r="C242" s="25" t="s">
         <v>432</v>
       </c>
-      <c r="E242" s="2" t="s">
-        <v>388</v>
+      <c r="E242" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -5601,27 +5810,27 @@
         <v>1</v>
       </c>
       <c r="B243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C243" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1</v>
       </c>
-      <c r="B244">
-        <v>1</v>
-      </c>
       <c r="C244" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>376</v>
+        <v>472</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -5629,86 +5838,88 @@
         <v>1</v>
       </c>
       <c r="C245" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="F245" s="2" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1</v>
       </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
       <c r="C246" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247">
-        <v>1</v>
-      </c>
-      <c r="B247">
-        <v>1</v>
-      </c>
-      <c r="C247" t="s">
-        <v>436</v>
-      </c>
-      <c r="E247" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="F247" t="s">
+      <c r="F246" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="248" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="5">
-        <v>1</v>
-      </c>
-      <c r="B248" s="5">
-        <v>1</v>
-      </c>
-      <c r="C248" s="5" t="s">
+    <row r="247" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="5">
+        <v>1</v>
+      </c>
+      <c r="B247" s="5">
+        <v>1</v>
+      </c>
+      <c r="C247" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="D248" s="6">
-        <v>1</v>
-      </c>
-      <c r="E248" s="7" t="s">
+      <c r="D247" s="6">
+        <v>1</v>
+      </c>
+      <c r="E247" s="7" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249">
-        <v>1</v>
-      </c>
-      <c r="B249">
-        <v>1</v>
-      </c>
-      <c r="C249" s="24" t="s">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>1</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="C248" s="24" t="s">
         <v>437</v>
       </c>
-      <c r="D249" s="1">
-        <v>1</v>
-      </c>
-      <c r="E249" s="23" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250">
-        <v>1</v>
-      </c>
-      <c r="C250" t="s">
+      <c r="D248" s="1">
+        <v>1</v>
+      </c>
+      <c r="E248" s="23" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="29">
+        <v>1</v>
+      </c>
+      <c r="C249" s="29" t="s">
         <v>438</v>
       </c>
-      <c r="E250" s="2" t="s">
+      <c r="D249" s="30"/>
+      <c r="E249" s="31" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="29">
+        <v>1</v>
+      </c>
+      <c r="B250" s="29">
+        <v>1</v>
+      </c>
+      <c r="C250" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="D250" s="30"/>
+      <c r="E250" s="31" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -5719,65 +5930,62 @@
         <v>1</v>
       </c>
       <c r="C251" t="s">
-        <v>475</v>
+        <v>446</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <v>1</v>
-      </c>
-      <c r="B252">
-        <v>1</v>
-      </c>
-      <c r="C252" t="s">
-        <v>446</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="20">
-        <v>1</v>
-      </c>
-      <c r="B253" s="20">
-        <v>1</v>
-      </c>
-      <c r="C253" s="20" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="20">
+        <v>1</v>
+      </c>
+      <c r="B252" s="20">
+        <v>1</v>
+      </c>
+      <c r="C252" s="20" t="s">
         <v>439</v>
       </c>
-      <c r="D253" s="21"/>
-      <c r="E253" s="22" t="s">
-        <v>449</v>
+      <c r="D252" s="21"/>
+      <c r="E252" s="22" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="12">
+        <v>1</v>
+      </c>
+      <c r="C253" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="D253" s="13">
+        <v>1</v>
+      </c>
+      <c r="E253" s="23" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="254" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="12">
         <v>1</v>
       </c>
-      <c r="C254" s="24" t="s">
+      <c r="C254" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="D254" s="13">
-        <v>1</v>
-      </c>
-      <c r="E254" s="23" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="12">
-        <v>1</v>
-      </c>
-      <c r="C255" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="D255" s="13"/>
-      <c r="E255" s="14" t="s">
+      <c r="D254" s="13"/>
+      <c r="E254" s="14" t="s">
         <v>319</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>1</v>
+      </c>
+      <c r="C255" t="s">
+        <v>440</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -5785,10 +5993,10 @@
         <v>1</v>
       </c>
       <c r="C256" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -5796,21 +6004,18 @@
         <v>1</v>
       </c>
       <c r="C257" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>351</v>
+        <v>519</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>1</v>
-      </c>
       <c r="C258" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -5818,22 +6023,29 @@
         <v>463</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>293</v>
+        <v>409</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C260" t="s">
         <v>464</v>
       </c>
-      <c r="E260" s="2" t="s">
-        <v>409</v>
-      </c>
+      <c r="E260" s="2"/>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>1</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
       <c r="C261" t="s">
-        <v>465</v>
-      </c>
-      <c r="E261" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F261" s="2"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
@@ -5843,88 +6055,1719 @@
         <v>1</v>
       </c>
       <c r="C262" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E262" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F262" s="2"/>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C263" t="s">
+        <v>194</v>
+      </c>
+      <c r="E263" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="F262" s="2"/>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263">
-        <v>1</v>
-      </c>
-      <c r="B263">
-        <v>1</v>
-      </c>
-      <c r="C263" t="s">
-        <v>190</v>
-      </c>
-      <c r="E263" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="F263" s="2"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C264" t="s">
-        <v>194</v>
-      </c>
-      <c r="E264" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="F264" s="2"/>
-    </row>
-    <row r="265" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C265" s="5" t="s">
+    <row r="264" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C264" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D265" s="8">
-        <v>1</v>
-      </c>
-      <c r="E265" s="7" t="s">
+      <c r="D264" s="8">
+        <v>1</v>
+      </c>
+      <c r="E264" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="F265" s="7"/>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C266" t="s">
+      <c r="F264" s="7"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C265" t="s">
         <v>335</v>
       </c>
-      <c r="E266" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E265" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C266" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="D266" s="6">
+        <v>1</v>
+      </c>
+      <c r="E266" s="7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="C267" s="5" t="s">
-        <v>480</v>
+        <v>349</v>
       </c>
       <c r="D267" s="6">
         <v>1</v>
       </c>
       <c r="E267" s="7" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C268" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="D268" s="6">
-        <v>1</v>
-      </c>
-      <c r="E268" s="7" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E269" s="2"/>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E268" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F268"/>
+  <autoFilter ref="A1:F267">
+    <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:D224">
     <sortCondition ref="C189"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B205"/>
+  <sheetViews>
+    <sheetView topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="70.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B51" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B56" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B57" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B58" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B60" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B61" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B64" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B65" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B66" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B68" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B69" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B73" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B74" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B75" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B76" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B78" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B79" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B80" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B81" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B82" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B83" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B84" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B85" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B86" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B87" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B88" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B89" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B90" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B91" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B92" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B93" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B94" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B95" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B96" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B97" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B98" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B99" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B100" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B101" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B102" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B103" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="2"/>
+      <c r="B104" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B105" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B106" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="2"/>
+      <c r="B107" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B108" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B109" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B110" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B111" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B112" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B113" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B114" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B115" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B117" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B118" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B119" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B120" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B121" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B122" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B123" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B124" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B125" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B126" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B127" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B128" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B129" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B130" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B131" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B132" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B133" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B134" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B135" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B136" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B137" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B138" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B139" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B140" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B141" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B142" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B143" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B144" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B145" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B147" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B148" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="2"/>
+      <c r="B149" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="2"/>
+      <c r="B150" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B151" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B152" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B153" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B154" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B155" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B156" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B157" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A158" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="B158" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B159" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="B160" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B161" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B162" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="B163" s="12" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B164" s="12" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B165" s="25" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B166" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B167" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B168" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B169" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B170" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="22"/>
+      <c r="B171" s="20" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="B172" s="12" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B173" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="B174" s="25" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B175" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B176" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B177" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B178" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B179" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B180" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="B181" s="12" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="22"/>
+      <c r="B182" s="20" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B183" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B184" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B185" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B186" s="25" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B187" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B188" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B189" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B190" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B191" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B192" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B193" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="B194" s="20" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="B195" s="12" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B196" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B197" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B198" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B199" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B200" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="2"/>
+      <c r="B201" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B202" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B203" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B204" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>374</v>
+      </c>
+      <c r="B205" t="s">
+        <v>335</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$267</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$269</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="536">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -1593,9 +1593,6 @@
     <t>380204432513;50</t>
   </si>
   <si>
-    <t>380962421422;75</t>
-  </si>
-  <si>
     <t>380687982826;75</t>
   </si>
   <si>
@@ -1606,6 +1603,36 @@
   </si>
   <si>
     <t>380204482693;50</t>
+  </si>
+  <si>
+    <t>380962421422;115</t>
+  </si>
+  <si>
+    <t>Номер абонента: 30913 Тариф: 160грн</t>
+  </si>
+  <si>
+    <t>368 ТТ</t>
+  </si>
+  <si>
+    <t>380974448527;75</t>
+  </si>
+  <si>
+    <t>369 TT</t>
+  </si>
+  <si>
+    <t>380519940922;50 Замовив додатковий трафік за 40грн</t>
+  </si>
+  <si>
+    <t>'380519945571;50  063 119 8247</t>
+  </si>
+  <si>
+    <t>380631198247;115</t>
+  </si>
+  <si>
+    <t>380995501638;75 no 30,09,19</t>
+  </si>
+  <si>
+    <t>380632727254;50 no 30,09,19</t>
   </si>
 </sst>
 </file>
@@ -1615,13 +1642,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1686,7 +1720,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1726,6 +1760,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2018,10 +2054,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:O268"/>
+  <dimension ref="A1:O270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E200" sqref="E200"/>
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E254" sqref="E254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2030,7 +2066,7 @@
     <col min="3" max="3" width="57.28515625" customWidth="1"/>
     <col min="4" max="4" width="4.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="45.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="71.5703125" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" customWidth="1"/>
   </cols>
@@ -2669,7 +2705,7 @@
         <v>36</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="F39" s="2"/>
     </row>
@@ -2916,7 +2952,7 @@
         <v>49</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F55" s="2"/>
     </row>
@@ -3625,7 +3661,7 @@
         <v>87</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>268</v>
+        <v>531</v>
       </c>
       <c r="F102" s="2"/>
     </row>
@@ -4673,9 +4709,11 @@
         <v>144</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="F168" s="2"/>
+        <v>533</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
@@ -5141,7 +5179,7 @@
         <v>174</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>372</v>
+        <v>534</v>
       </c>
       <c r="F197" s="2"/>
     </row>
@@ -5157,7 +5195,7 @@
       </c>
       <c r="D198" s="30"/>
       <c r="E198" s="31" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F198" s="31"/>
     </row>
@@ -5829,8 +5867,8 @@
       <c r="E244" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="F244" s="2" t="s">
-        <v>314</v>
+      <c r="F244" s="18" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -5855,7 +5893,7 @@
         <v>436</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>405</v>
+        <v>535</v>
       </c>
       <c r="F246" t="s">
         <v>406</v>
@@ -5933,7 +5971,7 @@
         <v>446</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="252" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -5948,7 +5986,7 @@
       </c>
       <c r="D252" s="21"/>
       <c r="E252" s="22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="253" spans="1:6" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -6033,91 +6071,107 @@
       <c r="E260" s="2"/>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261">
-        <v>1</v>
-      </c>
-      <c r="B261">
-        <v>1</v>
-      </c>
       <c r="C261" t="s">
+        <v>528</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C262" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="E262" s="36" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>1</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263" t="s">
         <v>191</v>
       </c>
-      <c r="E261" s="2" t="s">
+      <c r="E263" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="F261" s="2"/>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262">
-        <v>1</v>
-      </c>
-      <c r="B262">
-        <v>1</v>
-      </c>
-      <c r="C262" t="s">
+      <c r="F263" s="2"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>1</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="C264" t="s">
         <v>190</v>
       </c>
-      <c r="E262" s="2" t="s">
+      <c r="E264" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F262" s="2"/>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C263" t="s">
-        <v>194</v>
-      </c>
-      <c r="E263" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="F263" s="2"/>
-    </row>
-    <row r="264" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C264" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="D264" s="8">
-        <v>1</v>
-      </c>
-      <c r="E264" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="F264" s="7"/>
+      <c r="F264" s="2"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C265" t="s">
-        <v>335</v>
-      </c>
-      <c r="E265" t="s">
-        <v>520</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F265" s="2"/>
     </row>
     <row r="266" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="C266" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="D266" s="8">
+        <v>1</v>
+      </c>
+      <c r="E266" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F266" s="7"/>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C267" t="s">
+        <v>335</v>
+      </c>
+      <c r="E267" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C268" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="D266" s="6">
-        <v>1</v>
-      </c>
-      <c r="E266" s="7" t="s">
+      <c r="D268" s="6">
+        <v>1</v>
+      </c>
+      <c r="E268" s="7" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="267" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C267" s="5" t="s">
+    <row r="269" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C269" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="D267" s="6">
-        <v>1</v>
-      </c>
-      <c r="E267" s="7" t="s">
+      <c r="D269" s="6">
+        <v>1</v>
+      </c>
+      <c r="E269" s="7" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E268" s="2"/>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E270" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F267">
+  <autoFilter ref="A1:F269">
     <filterColumn colId="3">
       <filters blank="1"/>
     </filterColumn>

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$269</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$270</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="544">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -1633,6 +1633,30 @@
   </si>
   <si>
     <t>380632727254;50 no 30,09,19</t>
+  </si>
+  <si>
+    <t>367 ТТ</t>
+  </si>
+  <si>
+    <t>380986046075;100</t>
+  </si>
+  <si>
+    <t>380519941273;50 мхп юзают</t>
+  </si>
+  <si>
+    <t>'380519942584;50</t>
+  </si>
+  <si>
+    <t>380519946246;50 ?</t>
+  </si>
+  <si>
+    <t>380204451801;80 ?</t>
+  </si>
+  <si>
+    <t>Вифи</t>
+  </si>
+  <si>
+    <t>380639378234;175</t>
   </si>
 </sst>
 </file>
@@ -1658,7 +1682,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1707,6 +1731,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1720,7 +1750,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1762,6 +1792,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2054,10 +2087,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:O270"/>
+  <dimension ref="A1:O271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E254" sqref="E254"/>
+    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2770,7 +2803,7 @@
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="2" t="s">
-        <v>339</v>
+        <v>543</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -3187,9 +3220,11 @@
         <v>62</v>
       </c>
       <c r="E71" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9">
@@ -3203,7 +3238,7 @@
       </c>
       <c r="D72" s="10"/>
       <c r="E72" s="11" t="s">
-        <v>336</v>
+        <v>541</v>
       </c>
       <c r="F72" s="11"/>
     </row>
@@ -3219,7 +3254,7 @@
       </c>
       <c r="D73" s="10"/>
       <c r="E73" s="11" t="s">
-        <v>241</v>
+        <v>540</v>
       </c>
       <c r="F73" s="11"/>
     </row>
@@ -3693,24 +3728,25 @@
         <v>89</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>269</v>
+        <v>538</v>
       </c>
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>1</v>
-      </c>
-      <c r="B105">
-        <v>2</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="A105" s="37">
+        <v>1</v>
+      </c>
+      <c r="B105" s="37"/>
+      <c r="C105" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F105" s="2"/>
+      <c r="D105" s="38">
+        <v>1</v>
+      </c>
+      <c r="E105" s="39"/>
+      <c r="F105" s="39" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
@@ -5148,9 +5184,11 @@
         <v>172</v>
       </c>
       <c r="E195" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="F195" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="12">
@@ -6072,34 +6110,27 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C261" t="s">
+        <v>536</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C262" t="s">
         <v>528</v>
       </c>
-      <c r="E261" s="2" t="s">
+      <c r="E262" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C262" s="35" t="s">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C263" s="35" t="s">
         <v>530</v>
       </c>
-      <c r="E262" s="36" t="s">
+      <c r="E263" s="36" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263">
-        <v>1</v>
-      </c>
-      <c r="B263">
-        <v>1</v>
-      </c>
-      <c r="C263" t="s">
-        <v>191</v>
-      </c>
-      <c r="E263" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="F263" s="2"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
@@ -6109,69 +6140,84 @@
         <v>1</v>
       </c>
       <c r="C264" t="s">
+        <v>191</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F264" s="2"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>1</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+      <c r="C265" t="s">
         <v>190</v>
       </c>
-      <c r="E264" s="2" t="s">
+      <c r="E265" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F264" s="2"/>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C265" t="s">
+      <c r="F265" s="2"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C266" t="s">
         <v>194</v>
       </c>
-      <c r="E265" s="2" t="s">
+      <c r="E266" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="F265" s="2"/>
-    </row>
-    <row r="266" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C266" s="5" t="s">
+      <c r="F266" s="2"/>
+    </row>
+    <row r="267" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C267" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D266" s="8">
-        <v>1</v>
-      </c>
-      <c r="E266" s="7" t="s">
+      <c r="D267" s="8">
+        <v>1</v>
+      </c>
+      <c r="E267" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="F266" s="7"/>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C267" t="s">
+      <c r="F267" s="7"/>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C268" t="s">
         <v>335</v>
       </c>
-      <c r="E267" t="s">
+      <c r="E268" t="s">
         <v>520</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C268" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="D268" s="6">
-        <v>1</v>
-      </c>
-      <c r="E268" s="7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="269" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="C269" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="D269" s="6">
+        <v>1</v>
+      </c>
+      <c r="E269" s="7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C270" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="D269" s="6">
-        <v>1</v>
-      </c>
-      <c r="E269" s="7" t="s">
+      <c r="D270" s="6">
+        <v>1</v>
+      </c>
+      <c r="E270" s="7" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E270" s="2"/>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E271" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F269">
+  <autoFilter ref="A1:F270">
     <filterColumn colId="3">
       <filters blank="1"/>
     </filterColumn>

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$270</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="545">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -1638,9 +1638,6 @@
     <t>367 ТТ</t>
   </si>
   <si>
-    <t>380986046075;100</t>
-  </si>
-  <si>
     <t>380519941273;50 мхп юзают</t>
   </si>
   <si>
@@ -1657,6 +1654,12 @@
   </si>
   <si>
     <t>380639378234;175</t>
+  </si>
+  <si>
+    <t>Номер абонента: 30913 Тариф: 320грн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  '380986046075;100</t>
   </si>
 </sst>
 </file>
@@ -2089,8 +2092,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2803,7 +2806,7 @@
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -3220,10 +3223,10 @@
         <v>62</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>537</v>
+        <v>240</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>240</v>
+        <v>544</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3238,7 +3241,7 @@
       </c>
       <c r="D72" s="10"/>
       <c r="E72" s="11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F72" s="11"/>
     </row>
@@ -3254,7 +3257,7 @@
       </c>
       <c r="D73" s="10"/>
       <c r="E73" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F73" s="11"/>
     </row>
@@ -3728,7 +3731,7 @@
         <v>89</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F104" s="2"/>
     </row>
@@ -3745,7 +3748,7 @@
       </c>
       <c r="E105" s="39"/>
       <c r="F105" s="39" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -5184,7 +5187,7 @@
         <v>172</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>363</v>
@@ -5903,7 +5906,7 @@
         <v>434</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>472</v>
+        <v>543</v>
       </c>
       <c r="F244" s="18" t="s">
         <v>527</v>

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$270</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$273</definedName>
   </definedNames>
   <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="555">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -1644,12 +1644,6 @@
     <t>'380519942584;50</t>
   </si>
   <si>
-    <t>380519946246;50 ?</t>
-  </si>
-  <si>
-    <t>380204451801;80 ?</t>
-  </si>
-  <si>
     <t>Вифи</t>
   </si>
   <si>
@@ -1660,6 +1654,42 @@
   </si>
   <si>
     <t xml:space="preserve">  '380986046075;100</t>
+  </si>
+  <si>
+    <t>Лиана Миколаївна</t>
+  </si>
+  <si>
+    <t>0519942592 Ліана</t>
+  </si>
+  <si>
+    <t>365 ТТ</t>
+  </si>
+  <si>
+    <t>380986046075;75</t>
+  </si>
+  <si>
+    <t>365 ТТ кладовка</t>
+  </si>
+  <si>
+    <t>380204451801;80 ? Check</t>
+  </si>
+  <si>
+    <t>380519946246;50 ? Check</t>
+  </si>
+  <si>
+    <t>380639426654;75</t>
+  </si>
+  <si>
+    <t>094 каса 2</t>
+  </si>
+  <si>
+    <t>380519945343;50 ніт wifi</t>
+  </si>
+  <si>
+    <t>380688398707;100</t>
+  </si>
+  <si>
+    <t>380204482690;111</t>
   </si>
 </sst>
 </file>
@@ -1685,7 +1715,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1740,6 +1770,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1753,7 +1789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1798,6 +1834,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2090,10 +2129,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:O271"/>
+  <dimension ref="A1:O274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C228" sqref="C228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2806,7 +2845,7 @@
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -2933,16 +2972,19 @@
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="A52" s="40">
+        <v>1</v>
+      </c>
+      <c r="B52" s="40">
+        <v>1</v>
+      </c>
+      <c r="C52" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="D52" s="41">
+        <v>1</v>
+      </c>
+      <c r="E52" s="42" t="s">
         <v>229</v>
       </c>
       <c r="F52" s="2"/>
@@ -3226,7 +3268,7 @@
         <v>240</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3241,7 +3283,7 @@
       </c>
       <c r="D72" s="10"/>
       <c r="E72" s="11" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="F72" s="11"/>
     </row>
@@ -3257,117 +3299,119 @@
       </c>
       <c r="D73" s="10"/>
       <c r="E73" s="11" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="F73" s="11"/>
     </row>
-    <row r="74" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="29">
-        <v>1</v>
-      </c>
-      <c r="B74" s="29">
-        <v>1</v>
-      </c>
-      <c r="C74" s="29" t="s">
+    <row r="74" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <v>1</v>
+      </c>
+      <c r="B74" s="9">
+        <v>2</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="D74" s="10"/>
+      <c r="E74" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="F74" s="11"/>
+    </row>
+    <row r="75" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="29">
+        <v>1</v>
+      </c>
+      <c r="B75" s="29">
+        <v>1</v>
+      </c>
+      <c r="C75" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="D74" s="30"/>
-      <c r="E74" s="31" t="s">
+      <c r="D75" s="30"/>
+      <c r="E75" s="31" t="s">
         <v>355</v>
       </c>
-      <c r="F74" s="31"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>1</v>
-      </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="F75" s="31"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
         <v>65</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E76" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F75" s="2"/>
-    </row>
-    <row r="76" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="32">
-        <v>1</v>
-      </c>
-      <c r="B76" s="32">
-        <v>1</v>
-      </c>
-      <c r="C76" s="32" t="s">
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="32">
+        <v>1</v>
+      </c>
+      <c r="B77" s="32">
+        <v>1</v>
+      </c>
+      <c r="C77" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D76" s="33"/>
-      <c r="E76" s="34" t="s">
+      <c r="D77" s="33"/>
+      <c r="E77" s="34" t="s">
         <v>503</v>
       </c>
-      <c r="F76" s="34"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>1</v>
-      </c>
-      <c r="B77">
+      <c r="F77" s="34"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78">
         <v>2</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>66</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="F77" s="2"/>
-    </row>
-    <row r="78" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="29">
-        <v>1</v>
-      </c>
-      <c r="B78" s="29">
-        <v>1</v>
-      </c>
-      <c r="C78" s="29" t="s">
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="29">
+        <v>1</v>
+      </c>
+      <c r="B79" s="29">
+        <v>1</v>
+      </c>
+      <c r="C79" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D78" s="30"/>
-      <c r="E78" s="31" t="s">
+      <c r="D79" s="30"/>
+      <c r="E79" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="F78" s="31"/>
-    </row>
-    <row r="79" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="5">
-        <v>1</v>
-      </c>
-      <c r="B79" s="5">
-        <v>1</v>
-      </c>
-      <c r="C79" s="5" t="s">
+      <c r="F79" s="31"/>
+    </row>
+    <row r="80" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
+        <v>1</v>
+      </c>
+      <c r="B80" s="5">
+        <v>1</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D79" s="6">
-        <v>1</v>
-      </c>
-      <c r="E79" s="7"/>
-      <c r="H79" s="7"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>1</v>
-      </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-      <c r="C80" t="s">
-        <v>69</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>504</v>
-      </c>
+      <c r="D80" s="6">
+        <v>1</v>
+      </c>
+      <c r="E80" s="7"/>
+      <c r="H80" s="7"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
@@ -3377,12 +3421,11 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="G81" s="2"/>
+        <v>504</v>
+      </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
@@ -3392,14 +3435,12 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>457</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
@@ -3409,105 +3450,107 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
+        <v>71</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
         <v>72</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F83" s="2"/>
-    </row>
-    <row r="84" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="32">
-        <v>1</v>
-      </c>
-      <c r="B84" s="32">
-        <v>1</v>
-      </c>
-      <c r="C84" s="32" t="s">
+      <c r="F84" s="2"/>
+    </row>
+    <row r="85" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="32">
+        <v>1</v>
+      </c>
+      <c r="B85" s="32">
+        <v>1</v>
+      </c>
+      <c r="C85" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D84" s="33"/>
-      <c r="E84" s="34" t="s">
+      <c r="D85" s="33"/>
+      <c r="E85" s="34" t="s">
         <v>505</v>
       </c>
-      <c r="F84" s="34" t="s">
+      <c r="F85" s="34" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>1</v>
-      </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="C85" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
         <v>74</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="29">
-        <v>1</v>
-      </c>
-      <c r="B86" s="29">
-        <v>1</v>
-      </c>
-      <c r="C86" s="29" t="s">
+    <row r="87" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="29">
+        <v>1</v>
+      </c>
+      <c r="B87" s="29">
+        <v>1</v>
+      </c>
+      <c r="C87" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D86" s="30"/>
-      <c r="E86" s="31" t="s">
+      <c r="D87" s="30"/>
+      <c r="E87" s="31" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>1</v>
-      </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="C87" t="s">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
         <v>76</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E88" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="5">
-        <v>1</v>
-      </c>
-      <c r="B88" s="5">
-        <v>1</v>
-      </c>
-      <c r="C88" s="5" t="s">
+    <row r="89" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="5">
+        <v>1</v>
+      </c>
+      <c r="B89" s="5">
+        <v>1</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D88" s="8">
-        <v>1</v>
-      </c>
-      <c r="E88" s="7" t="s">
+      <c r="D89" s="8">
+        <v>1</v>
+      </c>
+      <c r="E89" s="7" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>1</v>
-      </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
-      <c r="C89" t="s">
-        <v>78</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
@@ -3517,10 +3560,10 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F90" s="2"/>
     </row>
@@ -3532,32 +3575,27 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
+        <v>79</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F91" s="2"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
         <v>80</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E92" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="G91" s="2"/>
-    </row>
-    <row r="92" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="5">
-        <v>1</v>
-      </c>
-      <c r="B92" s="5">
-        <v>1</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D92" s="6">
-        <v>1</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>362</v>
-      </c>
+      <c r="G92" s="2"/>
     </row>
     <row r="93" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
@@ -3567,96 +3605,99 @@
         <v>1</v>
       </c>
       <c r="C93" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D93" s="6">
+        <v>1</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="5">
+        <v>1</v>
+      </c>
+      <c r="B94" s="5">
+        <v>1</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D93" s="6">
-        <v>1</v>
-      </c>
-      <c r="E93" s="7" t="s">
+      <c r="D94" s="6">
+        <v>1</v>
+      </c>
+      <c r="E94" s="7" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>1</v>
-      </c>
-      <c r="C94" t="s">
-        <v>347</v>
-      </c>
-      <c r="E94" s="2"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
       <c r="C95" t="s">
+        <v>347</v>
+      </c>
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
         <v>83</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E96" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="G95" s="2"/>
-    </row>
-    <row r="96" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="29">
-        <v>1</v>
-      </c>
-      <c r="B96" s="29">
-        <v>1</v>
-      </c>
-      <c r="C96" s="29" t="s">
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="29">
+        <v>1</v>
+      </c>
+      <c r="B97" s="29">
+        <v>1</v>
+      </c>
+      <c r="C97" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="D96" s="30"/>
-      <c r="E96" s="31" t="s">
+      <c r="D97" s="30"/>
+      <c r="E97" s="31" t="s">
         <v>356</v>
       </c>
-      <c r="F96" s="31"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>1</v>
-      </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="F97" s="31"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
         <v>85</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E98" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="F97" s="2"/>
-    </row>
-    <row r="98" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C98" s="5" t="s">
+      <c r="F98" s="2"/>
+    </row>
+    <row r="99" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C99" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D98" s="6">
-        <v>1</v>
-      </c>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>1</v>
-      </c>
-      <c r="B99">
-        <v>1</v>
-      </c>
-      <c r="C99" t="s">
-        <v>152</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>402</v>
-      </c>
+      <c r="D99" s="6">
+        <v>1</v>
+      </c>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
@@ -3666,25 +3707,27 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="F100" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C101" t="s">
         <v>86</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F101" s="2"/>
     </row>
@@ -3693,78 +3736,78 @@
         <v>1</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C102" t="s">
+        <v>86</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F102" s="2"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
         <v>87</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E103" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="F102" s="2"/>
-    </row>
-    <row r="103" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="5">
-        <v>1</v>
-      </c>
-      <c r="B103" s="5">
-        <v>1</v>
-      </c>
-      <c r="C103" s="5" t="s">
+      <c r="F103" s="2"/>
+    </row>
+    <row r="104" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="5">
+        <v>1</v>
+      </c>
+      <c r="B104" s="5">
+        <v>1</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D103" s="8">
-        <v>1</v>
-      </c>
-      <c r="E103" s="7" t="s">
+      <c r="D104" s="8">
+        <v>1</v>
+      </c>
+      <c r="E104" s="7" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>1</v>
-      </c>
-      <c r="B104">
-        <v>1</v>
-      </c>
-      <c r="C104" t="s">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
         <v>89</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E105" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="F104" s="2"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="37">
-        <v>1</v>
-      </c>
-      <c r="B105" s="37"/>
-      <c r="C105" s="37" t="s">
+      <c r="F105" s="2"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="37">
+        <v>1</v>
+      </c>
+      <c r="B106" s="37"/>
+      <c r="C106" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D105" s="38">
-        <v>1</v>
-      </c>
-      <c r="E105" s="39"/>
-      <c r="F105" s="39" t="s">
+      <c r="D106" s="38">
+        <v>1</v>
+      </c>
+      <c r="E106" s="39"/>
+      <c r="F106" s="39" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>1</v>
-      </c>
-      <c r="B106">
-        <v>1</v>
-      </c>
-      <c r="C106" t="s">
-        <v>90</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
@@ -3774,43 +3817,43 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
+        <v>90</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F107" s="2"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
         <v>91</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="E108" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F107" s="2"/>
-    </row>
-    <row r="108" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="32">
-        <v>1</v>
-      </c>
-      <c r="B108" s="32">
-        <v>1</v>
-      </c>
-      <c r="C108" s="32" t="s">
+      <c r="F108" s="2"/>
+    </row>
+    <row r="109" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="32">
+        <v>1</v>
+      </c>
+      <c r="B109" s="32">
+        <v>1</v>
+      </c>
+      <c r="C109" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="D108" s="33"/>
-      <c r="E108" s="34" t="s">
+      <c r="D109" s="33"/>
+      <c r="E109" s="34" t="s">
         <v>507</v>
       </c>
-      <c r="F108" s="34"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>1</v>
-      </c>
-      <c r="B109">
-        <v>1</v>
-      </c>
-      <c r="C109" t="s">
-        <v>93</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="G109" s="2"/>
+      <c r="F109" s="34"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
@@ -3820,25 +3863,25 @@
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F110" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="G110" s="2"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C111" t="s">
         <v>94</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F111" s="2"/>
     </row>
@@ -3847,13 +3890,13 @@
         <v>1</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F112" s="2"/>
     </row>
@@ -3865,10 +3908,10 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F113" s="2"/>
     </row>
@@ -3880,46 +3923,45 @@
         <v>1</v>
       </c>
       <c r="C114" t="s">
+        <v>96</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F114" s="2"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
         <v>97</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E115" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F114" s="2"/>
-    </row>
-    <row r="115" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="5">
-        <v>1</v>
-      </c>
-      <c r="B115" s="5">
-        <v>1</v>
-      </c>
-      <c r="C115" s="5" t="s">
+      <c r="F115" s="2"/>
+    </row>
+    <row r="116" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="5">
+        <v>1</v>
+      </c>
+      <c r="B116" s="5">
+        <v>1</v>
+      </c>
+      <c r="C116" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D115" s="6">
-        <v>1</v>
-      </c>
-      <c r="E115" s="7" t="s">
+      <c r="D116" s="6">
+        <v>1</v>
+      </c>
+      <c r="E116" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F115" s="7"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>1</v>
-      </c>
-      <c r="B116">
-        <v>1</v>
-      </c>
-      <c r="C116" t="s">
-        <v>99</v>
-      </c>
-      <c r="D116" s="4"/>
-      <c r="E116" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="F116" s="2"/>
+      <c r="F116" s="7"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
@@ -3929,75 +3971,75 @@
         <v>1</v>
       </c>
       <c r="C117" t="s">
+        <v>99</v>
+      </c>
+      <c r="D117" s="4"/>
+      <c r="E117" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F117" s="2"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
         <v>100</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="E118" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="F117" s="2"/>
-    </row>
-    <row r="118" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="32">
-        <v>1</v>
-      </c>
-      <c r="B118" s="32">
-        <v>1</v>
-      </c>
-      <c r="C118" s="32" t="s">
+      <c r="F118" s="2"/>
+    </row>
+    <row r="119" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="32">
+        <v>1</v>
+      </c>
+      <c r="B119" s="32">
+        <v>1</v>
+      </c>
+      <c r="C119" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="D118" s="33"/>
-      <c r="E118" s="34" t="s">
+      <c r="D119" s="33"/>
+      <c r="E119" s="34" t="s">
         <v>508</v>
       </c>
-      <c r="F118" s="34"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>1</v>
-      </c>
-      <c r="B119">
-        <v>1</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="F119" s="34"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120" t="s">
         <v>102</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="E120" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F119" s="2"/>
-    </row>
-    <row r="120" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="29">
-        <v>1</v>
-      </c>
-      <c r="B120" s="29">
-        <v>1</v>
-      </c>
-      <c r="C120" s="29" t="s">
+      <c r="F120" s="2"/>
+    </row>
+    <row r="121" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="29">
+        <v>1</v>
+      </c>
+      <c r="B121" s="29">
+        <v>1</v>
+      </c>
+      <c r="C121" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="D120" s="30"/>
-      <c r="E120" s="31" t="s">
+      <c r="D121" s="30"/>
+      <c r="E121" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="F120" s="31"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>1</v>
-      </c>
-      <c r="B121">
-        <v>1</v>
-      </c>
-      <c r="C121" t="s">
-        <v>104</v>
-      </c>
-      <c r="D121" s="4"/>
-      <c r="E121" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F121" s="2"/>
+      <c r="F121" s="31"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
@@ -4007,12 +4049,13 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>105</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D122" s="4"/>
       <c r="E122" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="G122" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="F122" s="2"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
@@ -4022,12 +4065,12 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="F123" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="G123" s="2"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
@@ -4037,77 +4080,78 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
+        <v>106</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F124" s="2"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125" t="s">
         <v>107</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="E125" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F124" s="2"/>
-    </row>
-    <row r="125" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="5">
-        <v>1</v>
-      </c>
-      <c r="B125" s="5">
-        <v>1</v>
-      </c>
-      <c r="C125" s="5" t="s">
+      <c r="F125" s="2"/>
+    </row>
+    <row r="126" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="5">
+        <v>1</v>
+      </c>
+      <c r="B126" s="5">
+        <v>1</v>
+      </c>
+      <c r="C126" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D125" s="6">
-        <v>1</v>
-      </c>
-      <c r="E125" s="7" t="s">
+      <c r="D126" s="6">
+        <v>1</v>
+      </c>
+      <c r="E126" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="F125" s="7"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>1</v>
-      </c>
-      <c r="B126">
-        <v>1</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="F126" s="7"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>1</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
         <v>109</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="E127" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F126" s="2"/>
-    </row>
-    <row r="127" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="5">
-        <v>1</v>
-      </c>
-      <c r="B127" s="5">
-        <v>1</v>
-      </c>
-      <c r="C127" s="5" t="s">
+      <c r="F127" s="2"/>
+    </row>
+    <row r="128" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="5">
+        <v>1</v>
+      </c>
+      <c r="B128" s="5">
+        <v>1</v>
+      </c>
+      <c r="C128" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D127" s="8">
-        <v>1</v>
-      </c>
-      <c r="E127" s="7" t="s">
+      <c r="D128" s="8">
+        <v>1</v>
+      </c>
+      <c r="E128" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="I127" s="7"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>1</v>
-      </c>
-      <c r="B128">
-        <v>1</v>
-      </c>
-      <c r="C128" t="s">
-        <v>111</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>509</v>
-      </c>
+      <c r="I128" s="7"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
@@ -4117,12 +4161,11 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F129" s="2"/>
+        <v>509</v>
+      </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
@@ -4132,128 +4175,128 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
+        <v>112</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F130" s="2"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131" t="s">
         <v>113</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="E131" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="F130" s="2"/>
-    </row>
-    <row r="131" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="12">
-        <v>1</v>
-      </c>
-      <c r="B131" s="12">
-        <v>1</v>
-      </c>
-      <c r="C131" s="12" t="s">
+      <c r="F131" s="2"/>
+    </row>
+    <row r="132" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="12">
+        <v>1</v>
+      </c>
+      <c r="B132" s="12">
+        <v>1</v>
+      </c>
+      <c r="C132" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D131" s="13"/>
-      <c r="E131" s="14" t="s">
+      <c r="D132" s="13"/>
+      <c r="E132" s="14" t="s">
         <v>521</v>
       </c>
-      <c r="F131" s="14"/>
-      <c r="H131" s="14"/>
-    </row>
-    <row r="132" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="32">
-        <v>1</v>
-      </c>
-      <c r="B132" s="32">
+      <c r="F132" s="14"/>
+      <c r="H132" s="14"/>
+    </row>
+    <row r="133" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="32">
+        <v>1</v>
+      </c>
+      <c r="B133" s="32">
         <v>2</v>
       </c>
-      <c r="C132" s="32" t="s">
+      <c r="C133" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="D132" s="33"/>
-      <c r="E132" s="34" t="s">
+      <c r="D133" s="33"/>
+      <c r="E133" s="34" t="s">
         <v>510</v>
       </c>
-      <c r="F132" s="34" t="s">
+      <c r="F133" s="34" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>1</v>
-      </c>
-      <c r="B133">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="B134">
         <v>3</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C134" t="s">
         <v>397</v>
       </c>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2" t="s">
+      <c r="E134" s="2"/>
+      <c r="F134" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="134" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="5">
-        <v>1</v>
-      </c>
-      <c r="B134" s="5">
-        <v>1</v>
-      </c>
-      <c r="C134" s="5" t="s">
+    <row r="135" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="5">
+        <v>1</v>
+      </c>
+      <c r="B135" s="5">
+        <v>1</v>
+      </c>
+      <c r="C135" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D134" s="6">
-        <v>1</v>
-      </c>
-      <c r="E134" s="7" t="s">
+      <c r="D135" s="6">
+        <v>1</v>
+      </c>
+      <c r="E135" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F134" s="7"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>1</v>
-      </c>
-      <c r="B135">
-        <v>1</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="F135" s="7"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>1</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136" t="s">
         <v>116</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="E136" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="F135" s="2"/>
-    </row>
-    <row r="136" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="5">
-        <v>1</v>
-      </c>
-      <c r="B136" s="5">
-        <v>1</v>
-      </c>
-      <c r="C136" s="5" t="s">
+      <c r="F136" s="2"/>
+    </row>
+    <row r="137" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="5">
+        <v>1</v>
+      </c>
+      <c r="B137" s="5">
+        <v>1</v>
+      </c>
+      <c r="C137" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D136" s="6">
-        <v>1</v>
-      </c>
-      <c r="E136" s="7" t="s">
+      <c r="D137" s="6">
+        <v>1</v>
+      </c>
+      <c r="E137" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F136" s="7"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>1</v>
-      </c>
-      <c r="B137">
-        <v>1</v>
-      </c>
-      <c r="C137" t="s">
-        <v>118</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="J137" s="2"/>
+      <c r="F137" s="7"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
@@ -4263,103 +4306,103 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
+        <v>118</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="J138" s="2"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>1</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139" t="s">
         <v>119</v>
       </c>
-      <c r="E138" s="2"/>
-    </row>
-    <row r="139" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="5">
-        <v>1</v>
-      </c>
-      <c r="B139" s="5">
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="5">
+        <v>1</v>
+      </c>
+      <c r="B140" s="5">
         <v>2</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="C140" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D139" s="6">
-        <v>1</v>
-      </c>
-      <c r="E139" s="7"/>
-    </row>
-    <row r="140" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="32">
-        <v>1</v>
-      </c>
-      <c r="B140" s="32">
-        <v>1</v>
-      </c>
-      <c r="C140" s="32" t="s">
+      <c r="D140" s="6">
+        <v>1</v>
+      </c>
+      <c r="E140" s="7"/>
+    </row>
+    <row r="141" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="32">
+        <v>1</v>
+      </c>
+      <c r="B141" s="32">
+        <v>1</v>
+      </c>
+      <c r="C141" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="D140" s="33"/>
-      <c r="E140" s="34" t="s">
+      <c r="D141" s="33"/>
+      <c r="E141" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="F140" s="34"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>1</v>
-      </c>
-      <c r="B141">
-        <v>3</v>
-      </c>
-      <c r="C141" t="s">
-        <v>120</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="F141" s="2"/>
+      <c r="F141" s="34"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C142" t="s">
         <v>120</v>
       </c>
-      <c r="D142" s="4"/>
       <c r="E142" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F142" s="2"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="B143">
+        <v>2</v>
+      </c>
+      <c r="C143" t="s">
+        <v>120</v>
+      </c>
+      <c r="D143" s="4"/>
+      <c r="E143" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="143" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="5">
-        <v>1</v>
-      </c>
-      <c r="B143" s="5">
-        <v>1</v>
-      </c>
-      <c r="C143" s="5" t="s">
+    <row r="144" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="5">
+        <v>1</v>
+      </c>
+      <c r="B144" s="5">
+        <v>1</v>
+      </c>
+      <c r="C144" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D143" s="6">
-        <v>1</v>
-      </c>
-      <c r="E143" s="7" t="s">
+      <c r="D144" s="6">
+        <v>1</v>
+      </c>
+      <c r="E144" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F143" s="7"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>1</v>
-      </c>
-      <c r="B144">
-        <v>1</v>
-      </c>
-      <c r="C144" t="s">
-        <v>192</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F144" s="2"/>
+      <c r="F144" s="7"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
@@ -4369,10 +4412,10 @@
         <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>122</v>
+        <v>192</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>369</v>
+        <v>310</v>
       </c>
       <c r="F145" s="2"/>
     </row>
@@ -4384,10 +4427,10 @@
         <v>1</v>
       </c>
       <c r="C146" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>311</v>
+        <v>369</v>
       </c>
       <c r="F146" s="2"/>
     </row>
@@ -4399,30 +4442,27 @@
         <v>1</v>
       </c>
       <c r="C147" t="s">
+        <v>123</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F147" s="2"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>1</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148" t="s">
         <v>124</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="E148" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="F147" s="2"/>
-    </row>
-    <row r="148" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="5">
-        <v>1</v>
-      </c>
-      <c r="B148" s="5">
-        <v>1</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D148" s="6">
-        <v>1</v>
-      </c>
-      <c r="E148" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F148" s="7"/>
+      <c r="F148" s="2"/>
     </row>
     <row r="149" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
@@ -4432,12 +4472,14 @@
         <v>1</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D149" s="6">
         <v>1</v>
       </c>
-      <c r="E149" s="7"/>
+      <c r="E149" s="7" t="s">
+        <v>252</v>
+      </c>
       <c r="F149" s="7"/>
     </row>
     <row r="150" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -4448,114 +4490,112 @@
         <v>1</v>
       </c>
       <c r="C150" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D150" s="6">
+        <v>1</v>
+      </c>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+    </row>
+    <row r="151" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="5">
+        <v>1</v>
+      </c>
+      <c r="B151" s="5">
+        <v>1</v>
+      </c>
+      <c r="C151" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D150" s="6">
-        <v>1</v>
-      </c>
-      <c r="E150" s="7" t="s">
+      <c r="D151" s="6">
+        <v>1</v>
+      </c>
+      <c r="E151" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="F150" s="7"/>
-    </row>
-    <row r="151" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="29">
-        <v>1</v>
-      </c>
-      <c r="B151" s="29">
-        <v>1</v>
-      </c>
-      <c r="C151" s="29" t="s">
+      <c r="F151" s="7"/>
+    </row>
+    <row r="152" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="29">
+        <v>1</v>
+      </c>
+      <c r="B152" s="29">
+        <v>1</v>
+      </c>
+      <c r="C152" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="D151" s="30"/>
-      <c r="E151" s="31" t="s">
+      <c r="D152" s="30"/>
+      <c r="E152" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="F151" s="31"/>
-    </row>
-    <row r="152" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="5">
-        <v>1</v>
-      </c>
-      <c r="B152" s="5">
-        <v>1</v>
-      </c>
-      <c r="C152" s="5" t="s">
+      <c r="F152" s="31"/>
+    </row>
+    <row r="153" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="5">
+        <v>1</v>
+      </c>
+      <c r="B153" s="5">
+        <v>1</v>
+      </c>
+      <c r="C153" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D152" s="6">
-        <v>1</v>
-      </c>
-      <c r="E152" s="7" t="s">
+      <c r="D153" s="6">
+        <v>1</v>
+      </c>
+      <c r="E153" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F152" s="7"/>
-    </row>
-    <row r="153" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="12">
-        <v>1</v>
-      </c>
-      <c r="B153" s="12">
-        <v>1</v>
-      </c>
-      <c r="C153" s="12" t="s">
+      <c r="F153" s="7"/>
+    </row>
+    <row r="154" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="12">
+        <v>1</v>
+      </c>
+      <c r="B154" s="12">
+        <v>1</v>
+      </c>
+      <c r="C154" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D153" s="15"/>
-      <c r="E153" s="17" t="s">
+      <c r="D154" s="15"/>
+      <c r="E154" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="F153" s="14"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>1</v>
-      </c>
-      <c r="B154">
-        <v>1</v>
-      </c>
-      <c r="C154" t="s">
+      <c r="F154" s="14"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>1</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155" t="s">
         <v>131</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="E155" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="F154" s="2"/>
-    </row>
-    <row r="155" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="29">
-        <v>1</v>
-      </c>
-      <c r="B155" s="29">
-        <v>1</v>
-      </c>
-      <c r="C155" s="29" t="s">
+      <c r="F155" s="2"/>
+    </row>
+    <row r="156" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="29">
+        <v>1</v>
+      </c>
+      <c r="B156" s="29">
+        <v>1</v>
+      </c>
+      <c r="C156" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="D155" s="30"/>
-      <c r="E155" s="31" t="s">
+      <c r="D156" s="30"/>
+      <c r="E156" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="F155" s="31"/>
-    </row>
-    <row r="156" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="5">
-        <v>1</v>
-      </c>
-      <c r="B156" s="5">
-        <v>1</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D156" s="6">
-        <v>1</v>
-      </c>
-      <c r="E156" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="F156" s="7"/>
+      <c r="F156" s="31"/>
     </row>
     <row r="157" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
@@ -4565,62 +4605,65 @@
         <v>1</v>
       </c>
       <c r="C157" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D157" s="6">
+        <v>1</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F157" s="7"/>
+    </row>
+    <row r="158" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="5">
+        <v>1</v>
+      </c>
+      <c r="B158" s="5">
+        <v>1</v>
+      </c>
+      <c r="C158" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D157" s="6">
-        <v>1</v>
-      </c>
-      <c r="E157" s="7" t="s">
+      <c r="D158" s="6">
+        <v>1</v>
+      </c>
+      <c r="E158" s="7" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>1</v>
-      </c>
-      <c r="B158">
-        <v>1</v>
-      </c>
-      <c r="C158" t="s">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159" t="s">
         <v>135</v>
       </c>
-      <c r="E158" s="2" t="s">
+      <c r="E159" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="F158" s="2"/>
-    </row>
-    <row r="159" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="5">
-        <v>1</v>
-      </c>
-      <c r="B159" s="5">
-        <v>1</v>
-      </c>
-      <c r="C159" s="24" t="s">
+      <c r="F159" s="2"/>
+    </row>
+    <row r="160" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="5">
+        <v>1</v>
+      </c>
+      <c r="B160" s="5">
+        <v>1</v>
+      </c>
+      <c r="C160" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="D159" s="6">
-        <v>1</v>
-      </c>
-      <c r="E159" s="23" t="s">
+      <c r="D160" s="6">
+        <v>1</v>
+      </c>
+      <c r="E160" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="F159" s="7"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>1</v>
-      </c>
-      <c r="B160">
-        <v>1</v>
-      </c>
-      <c r="C160" t="s">
-        <v>137</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F160" s="2"/>
+      <c r="F160" s="7"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
@@ -4633,58 +4676,58 @@
         <v>137</v>
       </c>
       <c r="E161" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F161" s="2"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162" t="s">
+        <v>137</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="F161" s="2"/>
-    </row>
-    <row r="162" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="5">
-        <v>1</v>
-      </c>
-      <c r="B162" s="5">
-        <v>1</v>
-      </c>
-      <c r="C162" s="5" t="s">
+      <c r="F162" s="2"/>
+    </row>
+    <row r="163" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="5">
+        <v>1</v>
+      </c>
+      <c r="B163" s="5">
+        <v>1</v>
+      </c>
+      <c r="C163" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D162" s="6">
-        <v>1</v>
-      </c>
-      <c r="E162" s="7" t="s">
+      <c r="D163" s="6">
+        <v>1</v>
+      </c>
+      <c r="E163" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="F162" s="7"/>
-    </row>
-    <row r="163" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="29">
-        <v>1</v>
-      </c>
-      <c r="B163" s="29">
-        <v>1</v>
-      </c>
-      <c r="C163" s="29" t="s">
+      <c r="F163" s="7"/>
+    </row>
+    <row r="164" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="29">
+        <v>1</v>
+      </c>
+      <c r="B164" s="29">
+        <v>1</v>
+      </c>
+      <c r="C164" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="D163" s="30"/>
-      <c r="E163" s="31" t="s">
+      <c r="D164" s="30"/>
+      <c r="E164" s="31" t="s">
         <v>443</v>
       </c>
-      <c r="F163" s="31"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>1</v>
-      </c>
-      <c r="B164">
-        <v>1</v>
-      </c>
-      <c r="C164" t="s">
-        <v>140</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="H164" s="2"/>
+      <c r="F164" s="31"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
@@ -4694,30 +4737,27 @@
         <v>1</v>
       </c>
       <c r="C165" t="s">
+        <v>140</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H165" s="2"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166" t="s">
         <v>141</v>
       </c>
-      <c r="E165" s="2" t="s">
+      <c r="E166" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F165" s="2"/>
-    </row>
-    <row r="166" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="5">
-        <v>1</v>
-      </c>
-      <c r="B166" s="5">
-        <v>1</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D166" s="6">
-        <v>1</v>
-      </c>
-      <c r="E166" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F166" s="7"/>
+      <c r="F166" s="2"/>
     </row>
     <row r="167" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
@@ -4727,32 +4767,33 @@
         <v>1</v>
       </c>
       <c r="C167" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D167" s="6">
+        <v>1</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F167" s="7"/>
+    </row>
+    <row r="168" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="5">
+        <v>1</v>
+      </c>
+      <c r="B168" s="5">
+        <v>1</v>
+      </c>
+      <c r="C168" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D167" s="6">
-        <v>1</v>
-      </c>
-      <c r="E167" s="7" t="s">
+      <c r="D168" s="6">
+        <v>1</v>
+      </c>
+      <c r="E168" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="F167" s="7"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>1</v>
-      </c>
-      <c r="B168">
-        <v>1</v>
-      </c>
-      <c r="C168" t="s">
-        <v>144</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>532</v>
-      </c>
+      <c r="F168" s="7"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
@@ -4762,45 +4803,46 @@
         <v>1</v>
       </c>
       <c r="C169" t="s">
+        <v>144</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>1</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170" t="s">
         <v>145</v>
       </c>
-      <c r="E169" s="2" t="s">
+      <c r="E170" s="2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="170" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="5">
-        <v>1</v>
-      </c>
-      <c r="B170" s="5">
-        <v>1</v>
-      </c>
-      <c r="C170" s="5" t="s">
+    <row r="171" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="5">
+        <v>1</v>
+      </c>
+      <c r="B171" s="5">
+        <v>1</v>
+      </c>
+      <c r="C171" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D170" s="6">
-        <v>1</v>
-      </c>
-      <c r="E170" s="7" t="s">
+      <c r="D171" s="6">
+        <v>1</v>
+      </c>
+      <c r="E171" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="I170" s="7"/>
-    </row>
-    <row r="171" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="29">
-        <v>1</v>
-      </c>
-      <c r="B171" s="29">
-        <v>1</v>
-      </c>
-      <c r="C171" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="D171" s="30"/>
-      <c r="E171" s="31" t="s">
-        <v>295</v>
-      </c>
-      <c r="F171" s="31"/>
+      <c r="I171" s="7"/>
     </row>
     <row r="172" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="29">
@@ -4810,28 +4852,29 @@
         <v>1</v>
       </c>
       <c r="C172" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D172" s="30"/>
       <c r="E172" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="F172" s="31"/>
+    </row>
+    <row r="173" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="29">
+        <v>1</v>
+      </c>
+      <c r="B173" s="29">
+        <v>1</v>
+      </c>
+      <c r="C173" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D173" s="30"/>
+      <c r="E173" s="31" t="s">
         <v>296</v>
       </c>
-      <c r="F172" s="31"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>1</v>
-      </c>
-      <c r="B173">
-        <v>1</v>
-      </c>
-      <c r="C173" t="s">
-        <v>149</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F173" s="2"/>
+      <c r="F173" s="31"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
@@ -4841,47 +4884,45 @@
         <v>1</v>
       </c>
       <c r="C174" t="s">
+        <v>149</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F174" s="2"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>1</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="C175" t="s">
         <v>150</v>
       </c>
-      <c r="E174" s="2" t="s">
+      <c r="E175" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="F174" s="2"/>
-    </row>
-    <row r="175" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="5">
-        <v>1</v>
-      </c>
-      <c r="B175" s="5">
-        <v>1</v>
-      </c>
-      <c r="C175" s="5" t="s">
+      <c r="F175" s="2"/>
+    </row>
+    <row r="176" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="5">
+        <v>1</v>
+      </c>
+      <c r="B176" s="5">
+        <v>1</v>
+      </c>
+      <c r="C176" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D175" s="6">
-        <v>1</v>
-      </c>
-      <c r="E175" s="7" t="s">
+      <c r="D176" s="6">
+        <v>1</v>
+      </c>
+      <c r="E176" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F175" s="7"/>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>1</v>
-      </c>
-      <c r="B176">
-        <v>1</v>
-      </c>
-      <c r="C176" t="s">
-        <v>153</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>254</v>
-      </c>
+      <c r="F176" s="7"/>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177">
@@ -4891,60 +4932,62 @@
         <v>1</v>
       </c>
       <c r="C177" t="s">
+        <v>153</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>1</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178" t="s">
         <v>154</v>
       </c>
-      <c r="E177" s="2" t="s">
+      <c r="E178" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="F177" s="2"/>
-    </row>
-    <row r="178" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="32">
-        <v>1</v>
-      </c>
-      <c r="B178" s="32">
-        <v>1</v>
-      </c>
-      <c r="C178" s="32" t="s">
+      <c r="F178" s="2"/>
+    </row>
+    <row r="179" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="32">
+        <v>1</v>
+      </c>
+      <c r="B179" s="32">
+        <v>1</v>
+      </c>
+      <c r="C179" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="D178" s="33"/>
-      <c r="E178" s="34" t="s">
+      <c r="D179" s="33"/>
+      <c r="E179" s="34" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="179" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="5">
-        <v>1</v>
-      </c>
-      <c r="B179" s="5">
-        <v>1</v>
-      </c>
-      <c r="C179" s="5" t="s">
+    <row r="180" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="5">
+        <v>1</v>
+      </c>
+      <c r="B180" s="5">
+        <v>1</v>
+      </c>
+      <c r="C180" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D179" s="6">
-        <v>1</v>
-      </c>
-      <c r="E179" s="7" t="s">
+      <c r="D180" s="6">
+        <v>1</v>
+      </c>
+      <c r="E180" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F179" s="7"/>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>1</v>
-      </c>
-      <c r="B180">
-        <v>1</v>
-      </c>
-      <c r="C180" t="s">
-        <v>157</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="F180" s="2"/>
+      <c r="F180" s="7"/>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181">
@@ -4954,18 +4997,12 @@
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>158</v>
-      </c>
-      <c r="D181" s="4"/>
+        <v>157</v>
+      </c>
       <c r="E181" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="F181" t="s">
-        <v>456</v>
-      </c>
-      <c r="O181" t="s">
-        <v>223</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182">
@@ -4975,43 +5012,49 @@
         <v>1</v>
       </c>
       <c r="C182" t="s">
+        <v>158</v>
+      </c>
+      <c r="D182" s="4"/>
+      <c r="E182" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F182" t="s">
+        <v>456</v>
+      </c>
+      <c r="O182" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>1</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183" t="s">
         <v>159</v>
       </c>
-      <c r="E182" s="2" t="s">
+      <c r="E183" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="F182" s="2"/>
-    </row>
-    <row r="183" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="29">
-        <v>1</v>
-      </c>
-      <c r="B183" s="29">
-        <v>1</v>
-      </c>
-      <c r="C183" s="29" t="s">
+      <c r="F183" s="2"/>
+    </row>
+    <row r="184" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="29">
+        <v>1</v>
+      </c>
+      <c r="B184" s="29">
+        <v>1</v>
+      </c>
+      <c r="C184" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="D183" s="30"/>
-      <c r="E183" s="31" t="s">
+      <c r="D184" s="30"/>
+      <c r="E184" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="F183" s="31"/>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>1</v>
-      </c>
-      <c r="B184">
-        <v>1</v>
-      </c>
-      <c r="C184" t="s">
-        <v>161</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="H184" s="2"/>
+      <c r="F184" s="31"/>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185">
@@ -5021,45 +5064,45 @@
         <v>1</v>
       </c>
       <c r="C185" t="s">
+        <v>161</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H185" s="2"/>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186" t="s">
         <v>162</v>
       </c>
-      <c r="E185" s="2" t="s">
+      <c r="E186" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="H185" s="2"/>
-    </row>
-    <row r="186" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="5">
-        <v>1</v>
-      </c>
-      <c r="B186" s="5">
-        <v>1</v>
-      </c>
-      <c r="C186" s="5" t="s">
+      <c r="H186" s="2"/>
+    </row>
+    <row r="187" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="5">
+        <v>1</v>
+      </c>
+      <c r="B187" s="5">
+        <v>1</v>
+      </c>
+      <c r="C187" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D186" s="6">
-        <v>1</v>
-      </c>
-      <c r="E186" s="7" t="s">
+      <c r="D187" s="6">
+        <v>1</v>
+      </c>
+      <c r="E187" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F186" s="7"/>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>1</v>
-      </c>
-      <c r="B187">
-        <v>1</v>
-      </c>
-      <c r="C187" t="s">
-        <v>164</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="F187" s="2"/>
+      <c r="F187" s="7"/>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188">
@@ -5069,46 +5112,43 @@
         <v>1</v>
       </c>
       <c r="C188" t="s">
+        <v>164</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F188" s="2"/>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>1</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189" t="s">
         <v>165</v>
       </c>
-      <c r="E188" s="2" t="s">
+      <c r="E189" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="L188" s="2"/>
-    </row>
-    <row r="189" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="29">
-        <v>1</v>
-      </c>
-      <c r="B189" s="29">
-        <v>1</v>
-      </c>
-      <c r="C189" s="29" t="s">
+      <c r="L189" s="2"/>
+    </row>
+    <row r="190" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="29">
+        <v>1</v>
+      </c>
+      <c r="B190" s="29">
+        <v>1</v>
+      </c>
+      <c r="C190" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="D189" s="30"/>
-      <c r="E189" s="31" t="s">
+      <c r="D190" s="30"/>
+      <c r="E190" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="F189" s="31"/>
-    </row>
-    <row r="190" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="5">
-        <v>1</v>
-      </c>
-      <c r="B190" s="5">
-        <v>1</v>
-      </c>
-      <c r="C190" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D190" s="6">
-        <v>1</v>
-      </c>
-      <c r="E190" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="F190" s="7"/>
+      <c r="F190" s="31"/>
     </row>
     <row r="191" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
@@ -5118,30 +5158,33 @@
         <v>1</v>
       </c>
       <c r="C191" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D191" s="6">
+        <v>1</v>
+      </c>
+      <c r="E191" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F191" s="7"/>
+    </row>
+    <row r="192" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="5">
+        <v>1</v>
+      </c>
+      <c r="B192" s="5">
+        <v>1</v>
+      </c>
+      <c r="C192" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D191" s="6">
-        <v>1</v>
-      </c>
-      <c r="E191" s="7" t="s">
+      <c r="D192" s="6">
+        <v>1</v>
+      </c>
+      <c r="E192" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="F191" s="7"/>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>1</v>
-      </c>
-      <c r="B192">
-        <v>1</v>
-      </c>
-      <c r="C192" t="s">
-        <v>169</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F192" s="2"/>
+      <c r="F192" s="7"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
@@ -5151,136 +5194,136 @@
         <v>1</v>
       </c>
       <c r="C193" t="s">
+        <v>169</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F193" s="2"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>1</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194" t="s">
         <v>170</v>
       </c>
-      <c r="E193" s="2" t="s">
+      <c r="E194" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="F193" s="2"/>
-    </row>
-    <row r="194" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="5">
-        <v>1</v>
-      </c>
-      <c r="B194" s="5">
-        <v>1</v>
-      </c>
-      <c r="C194" s="5" t="s">
+      <c r="F194" s="2"/>
+    </row>
+    <row r="195" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="5">
+        <v>1</v>
+      </c>
+      <c r="B195" s="5">
+        <v>1</v>
+      </c>
+      <c r="C195" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D194" s="6">
-        <v>1</v>
-      </c>
-      <c r="E194" s="7" t="s">
+      <c r="D195" s="6">
+        <v>1</v>
+      </c>
+      <c r="E195" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="F194" s="7"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>1</v>
-      </c>
-      <c r="B195">
-        <v>1</v>
-      </c>
-      <c r="C195" t="s">
+      <c r="F195" s="7"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>1</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196" t="s">
         <v>172</v>
       </c>
-      <c r="E195" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="F195" s="2" t="s">
+      <c r="E196" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="F196" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="196" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="12">
-        <v>1</v>
-      </c>
-      <c r="B196" s="12">
-        <v>1</v>
-      </c>
-      <c r="C196" s="12" t="s">
+    <row r="197" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="12">
+        <v>1</v>
+      </c>
+      <c r="B197" s="12">
+        <v>1</v>
+      </c>
+      <c r="C197" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="D196" s="13"/>
-      <c r="E196" s="16" t="s">
+      <c r="D197" s="13"/>
+      <c r="E197" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F196" s="14"/>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>1</v>
-      </c>
-      <c r="B197">
-        <v>1</v>
-      </c>
-      <c r="C197" t="s">
+      <c r="F197" s="14"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>1</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198" t="s">
         <v>174</v>
       </c>
-      <c r="E197" s="2" t="s">
+      <c r="E198" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="F197" s="2"/>
-    </row>
-    <row r="198" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="29">
-        <v>1</v>
-      </c>
-      <c r="B198" s="29">
-        <v>1</v>
-      </c>
-      <c r="C198" s="29" t="s">
+      <c r="F198" s="2"/>
+    </row>
+    <row r="199" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="29">
+        <v>1</v>
+      </c>
+      <c r="B199" s="29">
+        <v>1</v>
+      </c>
+      <c r="C199" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="D198" s="30"/>
-      <c r="E198" s="31" t="s">
+      <c r="D199" s="30"/>
+      <c r="E199" s="31" t="s">
         <v>525</v>
       </c>
-      <c r="F198" s="31"/>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>1</v>
-      </c>
-      <c r="B199">
-        <v>1</v>
-      </c>
-      <c r="C199" t="s">
-        <v>176</v>
-      </c>
-      <c r="D199" s="4"/>
-      <c r="E199" s="2"/>
-      <c r="F199" s="2"/>
+      <c r="F199" s="31"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1</v>
       </c>
       <c r="B200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C200" t="s">
         <v>176</v>
       </c>
       <c r="D200" s="4"/>
       <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C201" t="s">
-        <v>177</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="F201" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="D201" s="4"/>
+      <c r="E201" s="2"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
@@ -5290,10 +5333,10 @@
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>367</v>
+        <v>514</v>
       </c>
       <c r="F202" s="2"/>
     </row>
@@ -5305,12 +5348,12 @@
         <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="G203" s="2"/>
+        <v>553</v>
+      </c>
+      <c r="F203" s="2"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
@@ -5320,13 +5363,10 @@
         <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>404</v>
+        <v>328</v>
       </c>
       <c r="G204" s="2"/>
     </row>
@@ -5338,11 +5378,15 @@
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>368</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G205" s="2"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
@@ -5352,12 +5396,11 @@
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="F206" s="2"/>
+        <v>368</v>
+      </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
@@ -5367,74 +5410,73 @@
         <v>1</v>
       </c>
       <c r="C207" t="s">
+        <v>182</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F207" s="2"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>1</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208" t="s">
         <v>183</v>
       </c>
-      <c r="E207" s="2" t="s">
+      <c r="E208" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>1</v>
-      </c>
-      <c r="B208">
-        <v>1</v>
-      </c>
-      <c r="C208" t="s">
+    <row r="209" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>1</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209" t="s">
         <v>184</v>
       </c>
-      <c r="E208" s="18" t="s">
+      <c r="E209" s="18" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>1</v>
-      </c>
-      <c r="B209">
-        <v>1</v>
-      </c>
-      <c r="C209" t="s">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>1</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="C210" t="s">
         <v>185</v>
       </c>
-      <c r="E209" s="2" t="s">
+      <c r="E210" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="F209" s="2"/>
-    </row>
-    <row r="210" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="5">
-        <v>1</v>
-      </c>
-      <c r="B210" s="5">
-        <v>1</v>
-      </c>
-      <c r="C210" s="5" t="s">
+      <c r="F210" s="2"/>
+    </row>
+    <row r="211" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="5">
+        <v>1</v>
+      </c>
+      <c r="B211" s="5">
+        <v>1</v>
+      </c>
+      <c r="C211" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D210" s="6">
-        <v>1</v>
-      </c>
-      <c r="E210" s="7" t="s">
+      <c r="D211" s="6">
+        <v>1</v>
+      </c>
+      <c r="E211" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="F210" s="7"/>
-    </row>
-    <row r="211" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="29">
-        <v>1</v>
-      </c>
-      <c r="B211" s="29">
-        <v>1</v>
-      </c>
-      <c r="C211" s="29" t="s">
-        <v>410</v>
-      </c>
-      <c r="D211" s="30"/>
-      <c r="E211" s="31" t="s">
-        <v>387</v>
-      </c>
-      <c r="F211" s="31"/>
+      <c r="F211" s="7"/>
     </row>
     <row r="212" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="29">
@@ -5444,29 +5486,29 @@
         <v>1</v>
       </c>
       <c r="C212" s="29" t="s">
-        <v>187</v>
+        <v>410</v>
       </c>
       <c r="D212" s="30"/>
       <c r="E212" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="F212" s="31"/>
+    </row>
+    <row r="213" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="29">
+        <v>1</v>
+      </c>
+      <c r="B213" s="29">
+        <v>1</v>
+      </c>
+      <c r="C213" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D213" s="30"/>
+      <c r="E213" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="F212" s="31"/>
-    </row>
-    <row r="213" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="5">
-        <v>1</v>
-      </c>
-      <c r="B213" s="5">
-        <v>1</v>
-      </c>
-      <c r="C213" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D213" s="6">
-        <v>1</v>
-      </c>
-      <c r="E213" s="7"/>
-      <c r="G213" s="7"/>
+      <c r="F213" s="31"/>
     </row>
     <row r="214" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
@@ -5476,12 +5518,13 @@
         <v>1</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D214" s="6">
         <v>1</v>
       </c>
       <c r="E214" s="7"/>
+      <c r="G214" s="7"/>
     </row>
     <row r="215" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="5">
@@ -5491,59 +5534,59 @@
         <v>1</v>
       </c>
       <c r="C215" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D215" s="6">
+        <v>1</v>
+      </c>
+      <c r="E215" s="7"/>
+    </row>
+    <row r="216" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="5">
+        <v>1</v>
+      </c>
+      <c r="B216" s="5">
+        <v>1</v>
+      </c>
+      <c r="C216" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="D215" s="6">
-        <v>1</v>
-      </c>
-      <c r="E215" s="7" t="s">
+      <c r="D216" s="6">
+        <v>1</v>
+      </c>
+      <c r="E216" s="7" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>1</v>
-      </c>
-      <c r="B216">
-        <v>1</v>
-      </c>
-      <c r="C216" t="s">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>1</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+      <c r="C217" t="s">
         <v>411</v>
       </c>
-      <c r="E216" s="2" t="s">
+      <c r="E217" s="2" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="217" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="5">
-        <v>1</v>
-      </c>
-      <c r="B217" s="5">
-        <v>1</v>
-      </c>
-      <c r="C217" s="5" t="s">
+    <row r="218" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="5">
+        <v>1</v>
+      </c>
+      <c r="B218" s="5">
+        <v>1</v>
+      </c>
+      <c r="C218" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D217" s="6">
-        <v>1</v>
-      </c>
-      <c r="E217" s="7" t="s">
+      <c r="D218" s="6">
+        <v>1</v>
+      </c>
+      <c r="E218" s="7" t="s">
         <v>331</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="12">
-        <v>1</v>
-      </c>
-      <c r="B218" s="12">
-        <v>1</v>
-      </c>
-      <c r="C218" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="D218" s="13"/>
-      <c r="E218" s="14" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="219" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5554,26 +5597,26 @@
         <v>1</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D219" s="13"/>
       <c r="E219" s="14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="12">
+        <v>1</v>
+      </c>
+      <c r="B220" s="12">
+        <v>1</v>
+      </c>
+      <c r="C220" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="D220" s="13"/>
+      <c r="E220" s="14" t="s">
         <v>292</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>1</v>
-      </c>
-      <c r="B220">
-        <v>1</v>
-      </c>
-      <c r="C220" s="25" t="s">
-        <v>414</v>
-      </c>
-      <c r="D220" s="27"/>
-      <c r="E220" s="26" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -5583,11 +5626,12 @@
       <c r="B221">
         <v>1</v>
       </c>
-      <c r="C221" t="s">
-        <v>415</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>381</v>
+      <c r="C221" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="D221" s="27"/>
+      <c r="E221" s="26" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -5598,133 +5642,133 @@
         <v>1</v>
       </c>
       <c r="C222" t="s">
+        <v>415</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>1</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223" t="s">
         <v>416</v>
       </c>
-      <c r="E222" s="2" t="s">
+      <c r="E223" s="2" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="223" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="29">
-        <v>1</v>
-      </c>
-      <c r="B223" s="29">
-        <v>1</v>
-      </c>
-      <c r="C223" s="29" t="s">
+    <row r="224" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="29">
+        <v>1</v>
+      </c>
+      <c r="B224" s="29">
+        <v>1</v>
+      </c>
+      <c r="C224" s="29" t="s">
         <v>417</v>
       </c>
-      <c r="D223" s="30"/>
-      <c r="E223" s="31" t="s">
+      <c r="D224" s="30"/>
+      <c r="E224" s="31" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>1</v>
-      </c>
-      <c r="B224">
-        <v>1</v>
-      </c>
-      <c r="C224" t="s">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>1</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225" t="s">
         <v>418</v>
       </c>
-      <c r="E224" s="2" t="s">
+      <c r="E225" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="225" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="29">
-        <v>1</v>
-      </c>
-      <c r="B225" s="29">
-        <v>1</v>
-      </c>
-      <c r="C225" s="29" t="s">
+    <row r="226" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="29">
+        <v>1</v>
+      </c>
+      <c r="B226" s="29">
+        <v>1</v>
+      </c>
+      <c r="C226" s="29" t="s">
         <v>419</v>
       </c>
-      <c r="D225" s="30" t="s">
+      <c r="D226" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="E225" s="31" t="s">
+      <c r="E226" s="31" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="226" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="20">
-        <v>1</v>
-      </c>
-      <c r="C226" s="20" t="s">
+    <row r="227" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="20">
+        <v>1</v>
+      </c>
+      <c r="C227" s="20" t="s">
         <v>421</v>
       </c>
-      <c r="D226" s="21"/>
-      <c r="E226" s="22"/>
-    </row>
-    <row r="227" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="12">
-        <v>1</v>
-      </c>
-      <c r="C227" s="12" t="s">
+      <c r="D227" s="21"/>
+      <c r="E227" s="22"/>
+    </row>
+    <row r="228" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="12">
+        <v>1</v>
+      </c>
+      <c r="C228" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="D227" s="13"/>
-      <c r="E227" s="14" t="s">
+      <c r="D228" s="13"/>
+      <c r="E228" s="14" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="228" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="5">
-        <v>1</v>
-      </c>
-      <c r="B228" s="5">
-        <v>1</v>
-      </c>
-      <c r="C228" s="5" t="s">
+    <row r="229" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="5">
+        <v>1</v>
+      </c>
+      <c r="B229" s="5">
+        <v>1</v>
+      </c>
+      <c r="C229" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="D228" s="6">
-        <v>1</v>
-      </c>
-      <c r="E228" s="7"/>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>1</v>
-      </c>
-      <c r="B229">
-        <v>1</v>
-      </c>
-      <c r="C229" t="s">
+      <c r="D229" s="6">
+        <v>1</v>
+      </c>
+      <c r="E229" s="7"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>1</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230" t="s">
         <v>420</v>
       </c>
-      <c r="E229" s="2" t="s">
+      <c r="E230" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="230" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="12">
-        <v>1</v>
-      </c>
-      <c r="C230" s="25" t="s">
+    <row r="231" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="12">
+        <v>1</v>
+      </c>
+      <c r="C231" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="D230" s="13"/>
-      <c r="E230" s="28" t="s">
+      <c r="D231" s="13"/>
+      <c r="E231" s="28" t="s">
         <v>486</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>1</v>
-      </c>
-      <c r="B231">
-        <v>1</v>
-      </c>
-      <c r="C231" t="s">
-        <v>424</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -5735,10 +5779,10 @@
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -5749,10 +5793,10 @@
         <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -5763,10 +5807,10 @@
         <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>517</v>
+        <v>326</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -5777,10 +5821,10 @@
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>257</v>
+        <v>517</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -5791,97 +5835,94 @@
         <v>1</v>
       </c>
       <c r="C236" t="s">
+        <v>428</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>1</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+      <c r="C237" t="s">
         <v>429</v>
       </c>
-      <c r="E236" s="2" t="s">
+      <c r="E237" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="237" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="12">
-        <v>1</v>
-      </c>
-      <c r="B237" s="12">
-        <v>1</v>
-      </c>
-      <c r="C237" s="12" t="s">
+    <row r="238" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="12">
+        <v>1</v>
+      </c>
+      <c r="B238" s="12">
+        <v>1</v>
+      </c>
+      <c r="C238" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D237" s="13"/>
-      <c r="E237" s="14" t="s">
+      <c r="D238" s="13"/>
+      <c r="E238" s="14" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="238" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="20">
-        <v>1</v>
-      </c>
-      <c r="C238" s="20" t="s">
+    <row r="239" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="20">
+        <v>1</v>
+      </c>
+      <c r="C239" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="D238" s="21"/>
-      <c r="E238" s="22"/>
-    </row>
-    <row r="239" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="29">
-        <v>1</v>
-      </c>
-      <c r="B239" s="29">
-        <v>1</v>
-      </c>
-      <c r="C239" s="29" t="s">
+      <c r="D239" s="21"/>
+      <c r="E239" s="22"/>
+    </row>
+    <row r="240" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="29">
+        <v>1</v>
+      </c>
+      <c r="B240" s="29">
+        <v>1</v>
+      </c>
+      <c r="C240" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="D239" s="30"/>
-      <c r="E239" s="31" t="s">
+      <c r="D240" s="30"/>
+      <c r="E240" s="31" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="240" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="32">
-        <v>1</v>
-      </c>
-      <c r="B240" s="32">
+    <row r="241" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="32">
+        <v>1</v>
+      </c>
+      <c r="B241" s="32">
         <v>2</v>
       </c>
-      <c r="C240" s="32" t="s">
+      <c r="C241" s="32" t="s">
         <v>431</v>
       </c>
-      <c r="D240" s="33"/>
-      <c r="E240" s="34" t="s">
+      <c r="D241" s="33"/>
+      <c r="E241" s="34" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="241" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="29">
-        <v>1</v>
-      </c>
-      <c r="B241" s="29">
-        <v>1</v>
-      </c>
-      <c r="C241" s="29" t="s">
+    <row r="242" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="12">
+        <v>1</v>
+      </c>
+      <c r="B242" s="12">
+        <v>1</v>
+      </c>
+      <c r="C242" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="D241" s="30"/>
-      <c r="E241" s="31" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>1</v>
-      </c>
-      <c r="B242">
-        <v>2</v>
-      </c>
-      <c r="C242" s="25" t="s">
-        <v>432</v>
-      </c>
-      <c r="E242" s="26" t="s">
-        <v>485</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>482</v>
+      <c r="D242" s="13"/>
+      <c r="E242" s="14" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -5889,27 +5930,30 @@
         <v>1</v>
       </c>
       <c r="B243">
-        <v>1</v>
-      </c>
-      <c r="C243" t="s">
-        <v>433</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>376</v>
+        <v>2</v>
+      </c>
+      <c r="C243" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="E243" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1</v>
       </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
       <c r="C244" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="F244" s="18" t="s">
-        <v>527</v>
+        <v>376</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -5917,154 +5961,157 @@
         <v>1</v>
       </c>
       <c r="C245" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>353</v>
+        <v>541</v>
+      </c>
+      <c r="F245" s="18" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1</v>
       </c>
-      <c r="B246">
-        <v>1</v>
-      </c>
       <c r="C246" t="s">
+        <v>435</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>1</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+      <c r="C247" t="s">
         <v>436</v>
       </c>
-      <c r="E246" s="2" t="s">
+      <c r="E247" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="F246" t="s">
+      <c r="F247" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="247" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="5">
-        <v>1</v>
-      </c>
-      <c r="B247" s="5">
-        <v>1</v>
-      </c>
-      <c r="C247" s="5" t="s">
+    <row r="248" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="5">
+        <v>1</v>
+      </c>
+      <c r="B248" s="5">
+        <v>1</v>
+      </c>
+      <c r="C248" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="D247" s="6">
-        <v>1</v>
-      </c>
-      <c r="E247" s="7" t="s">
+      <c r="D248" s="6">
+        <v>1</v>
+      </c>
+      <c r="E248" s="7" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A248">
-        <v>1</v>
-      </c>
-      <c r="B248">
-        <v>1</v>
-      </c>
-      <c r="C248" s="24" t="s">
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>1</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="C249" s="24" t="s">
         <v>437</v>
       </c>
-      <c r="D248" s="1">
-        <v>1</v>
-      </c>
-      <c r="E248" s="23" t="s">
+      <c r="D249" s="1">
+        <v>1</v>
+      </c>
+      <c r="E249" s="23" t="s">
         <v>468</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="29">
-        <v>1</v>
-      </c>
-      <c r="C249" s="29" t="s">
-        <v>438</v>
-      </c>
-      <c r="D249" s="30"/>
-      <c r="E249" s="31" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="250" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="29">
         <v>1</v>
       </c>
-      <c r="B250" s="29">
-        <v>1</v>
-      </c>
       <c r="C250" s="29" t="s">
-        <v>474</v>
+        <v>438</v>
       </c>
       <c r="D250" s="30"/>
       <c r="E250" s="31" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="29">
+        <v>1</v>
+      </c>
+      <c r="B251" s="29">
+        <v>1</v>
+      </c>
+      <c r="C251" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="D251" s="30"/>
+      <c r="E251" s="31" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251">
-        <v>1</v>
-      </c>
-      <c r="B251">
-        <v>1</v>
-      </c>
-      <c r="C251" t="s">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>1</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252" t="s">
         <v>446</v>
       </c>
-      <c r="E251" s="2" t="s">
+      <c r="E252" s="2" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="252" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="20">
-        <v>1</v>
-      </c>
-      <c r="B252" s="20">
-        <v>1</v>
-      </c>
-      <c r="C252" s="20" t="s">
+    <row r="253" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="20">
+        <v>1</v>
+      </c>
+      <c r="B253" s="20">
+        <v>1</v>
+      </c>
+      <c r="C253" s="20" t="s">
         <v>439</v>
       </c>
-      <c r="D252" s="21"/>
-      <c r="E252" s="22" t="s">
+      <c r="D253" s="21"/>
+      <c r="E253" s="22" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="253" spans="1:6" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="12">
-        <v>1</v>
-      </c>
-      <c r="C253" s="24" t="s">
+    <row r="254" spans="1:6" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="12">
+        <v>1</v>
+      </c>
+      <c r="C254" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="D253" s="13">
-        <v>1</v>
-      </c>
-      <c r="E253" s="23" t="s">
+      <c r="D254" s="13">
+        <v>1</v>
+      </c>
+      <c r="E254" s="23" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="254" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="12">
-        <v>1</v>
-      </c>
-      <c r="C254" s="12" t="s">
+    <row r="255" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="12">
+        <v>1</v>
+      </c>
+      <c r="C255" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="D254" s="13"/>
-      <c r="E254" s="14" t="s">
+      <c r="D255" s="13"/>
+      <c r="E255" s="14" t="s">
         <v>319</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <v>1</v>
-      </c>
-      <c r="C255" t="s">
-        <v>440</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -6072,10 +6119,10 @@
         <v>1</v>
       </c>
       <c r="C256" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -6083,144 +6130,200 @@
         <v>1</v>
       </c>
       <c r="C257" t="s">
+        <v>441</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>1</v>
+      </c>
+      <c r="C258" t="s">
         <v>451</v>
       </c>
-      <c r="E257" s="2" t="s">
+      <c r="E258" s="2" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C258" t="s">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>1</v>
+      </c>
+      <c r="C259" t="s">
         <v>462</v>
       </c>
-      <c r="E258" s="2" t="s">
+      <c r="E259" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C259" t="s">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>1</v>
+      </c>
+      <c r="C260" t="s">
         <v>463</v>
       </c>
-      <c r="E259" s="2" t="s">
+      <c r="E260" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C260" t="s">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>1</v>
+      </c>
+      <c r="C261" t="s">
         <v>464</v>
       </c>
-      <c r="E260" s="2"/>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C261" t="s">
-        <v>536</v>
-      </c>
-      <c r="E261" s="2" t="s">
-        <v>288</v>
-      </c>
+      <c r="E261" s="2"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>1</v>
+      </c>
       <c r="C262" t="s">
-        <v>528</v>
+        <v>545</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>198</v>
+        <v>546</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C263" s="35" t="s">
-        <v>530</v>
-      </c>
-      <c r="E263" s="36" t="s">
-        <v>529</v>
+      <c r="A263">
+        <v>1</v>
+      </c>
+      <c r="C263" t="s">
+        <v>547</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1</v>
       </c>
-      <c r="B264">
-        <v>1</v>
-      </c>
       <c r="C264" t="s">
-        <v>191</v>
+        <v>536</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="F264" s="2"/>
+        <v>288</v>
+      </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1</v>
       </c>
-      <c r="B265">
-        <v>1</v>
-      </c>
       <c r="C265" t="s">
+        <v>528</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>1</v>
+      </c>
+      <c r="C266" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="E266" s="36" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>1</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+      <c r="C267" t="s">
+        <v>191</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F267" s="2"/>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>1</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="C268" t="s">
         <v>190</v>
       </c>
-      <c r="E265" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="F265" s="2"/>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C266" t="s">
+      <c r="E268" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F268" s="2"/>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C269" t="s">
         <v>194</v>
       </c>
-      <c r="E266" s="2" t="s">
+      <c r="E269" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="F266" s="2"/>
-    </row>
-    <row r="267" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C267" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="D267" s="8">
-        <v>1</v>
-      </c>
-      <c r="E267" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="F267" s="7"/>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C268" t="s">
-        <v>335</v>
-      </c>
-      <c r="E268" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C269" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="D269" s="6">
-        <v>1</v>
-      </c>
-      <c r="E269" s="7" t="s">
-        <v>391</v>
-      </c>
+      <c r="F269" s="2"/>
     </row>
     <row r="270" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="C270" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="D270" s="8">
+        <v>1</v>
+      </c>
+      <c r="E270" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F270" s="7"/>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C271" t="s">
+        <v>335</v>
+      </c>
+      <c r="E271" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C272" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="D272" s="6">
+        <v>1</v>
+      </c>
+      <c r="E272" s="7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="273" spans="3:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C273" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="D270" s="6">
-        <v>1</v>
-      </c>
-      <c r="E270" s="7" t="s">
+      <c r="D273" s="6">
+        <v>1</v>
+      </c>
+      <c r="E273" s="7" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E271" s="2"/>
+    <row r="274" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C274" t="s">
+        <v>543</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>544</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F270">
+  <autoFilter ref="A1:F273">
     <filterColumn colId="3">
       <filters blank="1"/>
     </filterColumn>

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -1789,7 +1789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1837,6 +1837,8 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2131,15 +2133,15 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C228" sqref="C228"/>
+    <sheetView tabSelected="1" topLeftCell="A245" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A252" sqref="A252:XFD252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="5.42578125" customWidth="1"/>
     <col min="3" max="3" width="57.28515625" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="45.28515625" customWidth="1"/>
     <col min="6" max="6" width="71.5703125" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
@@ -2508,21 +2510,23 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
+    <row r="23" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
+        <v>1</v>
+      </c>
+      <c r="B23" s="24">
+        <v>1</v>
+      </c>
+      <c r="C23" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="2" t="s">
+      <c r="D23" s="43">
+        <v>1</v>
+      </c>
+      <c r="E23" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="23"/>
     </row>
     <row r="24" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
@@ -2542,21 +2546,23 @@
       </c>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29">
-        <v>1</v>
-      </c>
-      <c r="B25" s="29">
-        <v>1</v>
-      </c>
-      <c r="C25" s="29" t="s">
+    <row r="25" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
+        <v>1</v>
+      </c>
+      <c r="B25" s="24">
+        <v>1</v>
+      </c>
+      <c r="C25" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31" t="s">
+      <c r="D25" s="44">
+        <v>1</v>
+      </c>
+      <c r="E25" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="F25" s="31"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -3177,17 +3183,20 @@
       </c>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>1</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66" t="s">
+    <row r="66" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="24">
+        <v>1</v>
+      </c>
+      <c r="B66" s="24">
+        <v>1</v>
+      </c>
+      <c r="C66" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="D66" s="44">
+        <v>1</v>
+      </c>
+      <c r="E66" s="23" t="s">
         <v>493</v>
       </c>
     </row>
@@ -3824,20 +3833,23 @@
       </c>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>1</v>
-      </c>
-      <c r="B108">
-        <v>1</v>
-      </c>
-      <c r="C108" t="s">
+    <row r="108" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="24">
+        <v>1</v>
+      </c>
+      <c r="B108" s="24">
+        <v>1</v>
+      </c>
+      <c r="C108" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="D108" s="44">
+        <v>1</v>
+      </c>
+      <c r="E108" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="F108" s="2"/>
+      <c r="F108" s="23"/>
     </row>
     <row r="109" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="32">
@@ -3963,21 +3975,23 @@
       </c>
       <c r="F116" s="7"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>1</v>
-      </c>
-      <c r="B117">
-        <v>1</v>
-      </c>
-      <c r="C117" t="s">
+    <row r="117" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="24">
+        <v>1</v>
+      </c>
+      <c r="B117" s="24">
+        <v>1</v>
+      </c>
+      <c r="C117" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="D117" s="4"/>
-      <c r="E117" s="2" t="s">
+      <c r="D117" s="43">
+        <v>1</v>
+      </c>
+      <c r="E117" s="23" t="s">
         <v>473</v>
       </c>
-      <c r="F117" s="2"/>
+      <c r="F117" s="23"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
@@ -4072,20 +4086,23 @@
       </c>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>1</v>
-      </c>
-      <c r="B124">
-        <v>1</v>
-      </c>
-      <c r="C124" t="s">
+    <row r="124" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="24">
+        <v>1</v>
+      </c>
+      <c r="B124" s="24">
+        <v>1</v>
+      </c>
+      <c r="C124" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="D124" s="44">
+        <v>1</v>
+      </c>
+      <c r="E124" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="F124" s="2"/>
+      <c r="F124" s="23"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
@@ -4153,17 +4170,20 @@
       </c>
       <c r="I128" s="7"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>1</v>
-      </c>
-      <c r="B129">
-        <v>1</v>
-      </c>
-      <c r="C129" t="s">
+    <row r="129" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="24">
+        <v>1</v>
+      </c>
+      <c r="B129" s="24">
+        <v>1</v>
+      </c>
+      <c r="C129" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="D129" s="44">
+        <v>1</v>
+      </c>
+      <c r="E129" s="23" t="s">
         <v>509</v>
       </c>
     </row>
@@ -5355,20 +5375,23 @@
       </c>
       <c r="F203" s="2"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>1</v>
-      </c>
-      <c r="B204">
-        <v>1</v>
-      </c>
-      <c r="C204" t="s">
+    <row r="204" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="24">
+        <v>1</v>
+      </c>
+      <c r="B204" s="24">
+        <v>1</v>
+      </c>
+      <c r="C204" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="E204" s="2" t="s">
+      <c r="D204" s="44">
+        <v>1</v>
+      </c>
+      <c r="E204" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="G204" s="2"/>
+      <c r="G204" s="23"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
@@ -5402,20 +5425,23 @@
         <v>368</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>1</v>
-      </c>
-      <c r="B207">
-        <v>1</v>
-      </c>
-      <c r="C207" t="s">
+    <row r="207" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="24">
+        <v>1</v>
+      </c>
+      <c r="B207" s="24">
+        <v>1</v>
+      </c>
+      <c r="C207" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="E207" s="2" t="s">
+      <c r="D207" s="44">
+        <v>1</v>
+      </c>
+      <c r="E207" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="F207" s="2"/>
+      <c r="F207" s="23"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
@@ -5558,17 +5584,20 @@
         <v>288</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>1</v>
-      </c>
-      <c r="B217">
-        <v>1</v>
-      </c>
-      <c r="C217" t="s">
+    <row r="217" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="24">
+        <v>1</v>
+      </c>
+      <c r="B217" s="24">
+        <v>1</v>
+      </c>
+      <c r="C217" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="E217" s="2" t="s">
+      <c r="D217" s="44">
+        <v>1</v>
+      </c>
+      <c r="E217" s="23" t="s">
         <v>515</v>
       </c>
     </row>
@@ -5745,17 +5774,20 @@
       </c>
       <c r="E229" s="7"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>1</v>
-      </c>
-      <c r="B230">
-        <v>1</v>
-      </c>
-      <c r="C230" t="s">
+    <row r="230" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="24">
+        <v>1</v>
+      </c>
+      <c r="B230" s="24">
+        <v>1</v>
+      </c>
+      <c r="C230" s="24" t="s">
         <v>420</v>
       </c>
-      <c r="E230" s="2" t="s">
+      <c r="D230" s="44">
+        <v>1</v>
+      </c>
+      <c r="E230" s="23" t="s">
         <v>334</v>
       </c>
     </row>
@@ -5841,17 +5873,20 @@
         <v>257</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>1</v>
-      </c>
-      <c r="B237">
-        <v>1</v>
-      </c>
-      <c r="C237" t="s">
+    <row r="237" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="24">
+        <v>1</v>
+      </c>
+      <c r="B237" s="24">
+        <v>1</v>
+      </c>
+      <c r="C237" s="24" t="s">
         <v>429</v>
       </c>
-      <c r="E237" s="2" t="s">
+      <c r="D237" s="44">
+        <v>1</v>
+      </c>
+      <c r="E237" s="23" t="s">
         <v>370</v>
       </c>
     </row>
@@ -6059,17 +6094,20 @@
         <v>205</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <v>1</v>
-      </c>
-      <c r="B252">
-        <v>1</v>
-      </c>
-      <c r="C252" t="s">
+    <row r="252" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="24">
+        <v>1</v>
+      </c>
+      <c r="B252" s="24">
+        <v>1</v>
+      </c>
+      <c r="C252" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="E252" s="2" t="s">
+      <c r="D252" s="44">
+        <v>1</v>
+      </c>
+      <c r="E252" s="23" t="s">
         <v>523</v>
       </c>
     </row>

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$273</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$274</definedName>
   </definedNames>
   <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="558">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -1359,9 +1359,6 @@
     <t>380519942567;50</t>
   </si>
   <si>
-    <t>380995501659;75</t>
-  </si>
-  <si>
     <t>380204482812;80</t>
   </si>
   <si>
@@ -1542,12 +1539,6 @@
     <t>380984291290;75 15grn</t>
   </si>
   <si>
-    <t>380519944937;50 50grn</t>
-  </si>
-  <si>
-    <t>380519947480;20 91grn</t>
-  </si>
-  <si>
     <t>380519944939;50 8044MB</t>
   </si>
   <si>
@@ -1668,12 +1659,6 @@
     <t>380986046075;75</t>
   </si>
   <si>
-    <t>365 ТТ кладовка</t>
-  </si>
-  <si>
-    <t>380204451801;80 ? Check</t>
-  </si>
-  <si>
     <t>380519946246;50 ? Check</t>
   </si>
   <si>
@@ -1690,6 +1675,30 @@
   </si>
   <si>
     <t>380204482690;111</t>
+  </si>
+  <si>
+    <t>372 TT</t>
+  </si>
+  <si>
+    <t>'380519947480;20 91grn</t>
+  </si>
+  <si>
+    <t>365 ТТ Камера</t>
+  </si>
+  <si>
+    <t>380519945343;111 є 50грн</t>
+  </si>
+  <si>
+    <t>380519944938;44</t>
+  </si>
+  <si>
+    <t>380984206369;75 27.01.2020</t>
+  </si>
+  <si>
+    <t>380519941600;111</t>
+  </si>
+  <si>
+    <t>380519942592;50 50grn</t>
   </si>
 </sst>
 </file>
@@ -2131,10 +2140,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:O274"/>
+  <dimension ref="A1:O275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A252" sqref="A252:XFD252"/>
+    <sheetView tabSelected="1" topLeftCell="B79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2210,7 +2219,7 @@
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="31" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F4" s="31"/>
     </row>
@@ -2261,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -2477,7 +2486,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2510,7 +2519,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>1</v>
       </c>
@@ -2524,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H23" s="23"/>
     </row>
@@ -2546,7 +2555,7 @@
       </c>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>1</v>
       </c>
@@ -2771,7 +2780,7 @@
         <v>35</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F38" s="2"/>
     </row>
@@ -2786,7 +2795,7 @@
         <v>36</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F39" s="2"/>
     </row>
@@ -2817,7 +2826,7 @@
       </c>
       <c r="D41" s="33"/>
       <c r="E41" s="34" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F41" s="34"/>
     </row>
@@ -2851,7 +2860,7 @@
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -2879,7 +2888,7 @@
         <v>41</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2943,7 +2952,7 @@
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2958,7 +2967,7 @@
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F50" s="11"/>
     </row>
@@ -2977,7 +2986,7 @@
       </c>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>1</v>
       </c>
@@ -3036,7 +3045,7 @@
         <v>49</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F55" s="2"/>
     </row>
@@ -3066,7 +3075,7 @@
         <v>51</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F57" s="2"/>
     </row>
@@ -3122,6 +3131,9 @@
       <c r="A61" s="9">
         <v>1</v>
       </c>
+      <c r="B61" s="9">
+        <v>1</v>
+      </c>
       <c r="C61" s="9" t="s">
         <v>345</v>
       </c>
@@ -3164,7 +3176,7 @@
         <v>56</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J64" s="2"/>
     </row>
@@ -3183,7 +3195,7 @@
       </c>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="24">
         <v>1</v>
       </c>
@@ -3197,7 +3209,7 @@
         <v>1</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -3211,7 +3223,7 @@
         <v>59</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3257,10 +3269,10 @@
       </c>
       <c r="D70" s="33"/>
       <c r="E70" s="34" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F70" s="34" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3277,7 +3289,7 @@
         <v>240</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3292,25 +3304,27 @@
       </c>
       <c r="D72" s="10"/>
       <c r="E72" s="11" t="s">
-        <v>548</v>
+        <v>336</v>
       </c>
       <c r="F72" s="11"/>
     </row>
-    <row r="73" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="9">
-        <v>1</v>
-      </c>
-      <c r="B73" s="9">
+    <row r="73" spans="1:8" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="24">
+        <v>1</v>
+      </c>
+      <c r="B73" s="24">
         <v>2</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D73" s="10"/>
-      <c r="E73" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="F73" s="11"/>
+      <c r="D73" s="44">
+        <v>1</v>
+      </c>
+      <c r="E73" s="23" t="s">
+        <v>544</v>
+      </c>
+      <c r="F73" s="23"/>
     </row>
     <row r="74" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9">
@@ -3320,11 +3334,11 @@
         <v>2</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D74" s="10"/>
       <c r="E74" s="11" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="F74" s="11"/>
     </row>
@@ -3371,7 +3385,7 @@
       </c>
       <c r="D77" s="33"/>
       <c r="E77" s="34" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F77" s="34"/>
     </row>
@@ -3433,7 +3447,7 @@
         <v>69</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3462,10 +3476,10 @@
         <v>71</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3483,37 +3497,36 @@
       </c>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="32">
-        <v>1</v>
-      </c>
-      <c r="B85" s="32">
-        <v>1</v>
-      </c>
-      <c r="C85" s="32" t="s">
+    <row r="85" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="9">
+        <v>1</v>
+      </c>
+      <c r="B85" s="9">
+        <v>1</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D85" s="33"/>
-      <c r="E85" s="34" t="s">
-        <v>505</v>
-      </c>
-      <c r="F85" s="34" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>1</v>
-      </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="D85" s="10"/>
+      <c r="E85" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="F85" s="11"/>
+    </row>
+    <row r="86" spans="1:7" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="24">
+        <v>1</v>
+      </c>
+      <c r="B86" s="24">
+        <v>1</v>
+      </c>
+      <c r="C86" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>506</v>
-      </c>
+      <c r="D86" s="44">
+        <v>1</v>
+      </c>
+      <c r="E86" s="23"/>
     </row>
     <row r="87" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="29">
@@ -3663,7 +3676,7 @@
         <v>83</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>262</v>
+        <v>554</v>
       </c>
       <c r="G96" s="2"/>
     </row>
@@ -3719,7 +3732,7 @@
         <v>152</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>402</v>
@@ -3766,7 +3779,7 @@
         <v>87</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F103" s="2"/>
     </row>
@@ -3798,11 +3811,11 @@
         <v>89</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="37">
         <v>1</v>
       </c>
@@ -3815,7 +3828,7 @@
       </c>
       <c r="E106" s="39"/>
       <c r="F106" s="39" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3833,7 +3846,7 @@
       </c>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="24">
         <v>1</v>
       </c>
@@ -3863,7 +3876,7 @@
       </c>
       <c r="D109" s="33"/>
       <c r="E109" s="34" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F109" s="34"/>
     </row>
@@ -3975,7 +3988,7 @@
       </c>
       <c r="F116" s="7"/>
     </row>
-    <row r="117" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="24">
         <v>1</v>
       </c>
@@ -3989,7 +4002,7 @@
         <v>1</v>
       </c>
       <c r="E117" s="23" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F117" s="23"/>
     </row>
@@ -4020,7 +4033,7 @@
       </c>
       <c r="D119" s="33"/>
       <c r="E119" s="34" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F119" s="34"/>
     </row>
@@ -4086,7 +4099,7 @@
       </c>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="24">
         <v>1</v>
       </c>
@@ -4170,7 +4183,7 @@
       </c>
       <c r="I128" s="7"/>
     </row>
-    <row r="129" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="24">
         <v>1</v>
       </c>
@@ -4184,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="E129" s="23" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -4229,7 +4242,7 @@
       </c>
       <c r="D132" s="13"/>
       <c r="E132" s="14" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F132" s="14"/>
       <c r="H132" s="14"/>
@@ -4246,10 +4259,10 @@
       </c>
       <c r="D133" s="33"/>
       <c r="E133" s="34" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F133" s="34" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -4329,7 +4342,7 @@
         <v>118</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J138" s="2"/>
     </row>
@@ -4601,21 +4614,21 @@
       </c>
       <c r="F155" s="2"/>
     </row>
-    <row r="156" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="29">
-        <v>1</v>
-      </c>
-      <c r="B156" s="29">
-        <v>1</v>
-      </c>
-      <c r="C156" s="29" t="s">
+    <row r="156" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="9">
+        <v>1</v>
+      </c>
+      <c r="B156" s="9">
+        <v>1</v>
+      </c>
+      <c r="C156" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D156" s="30"/>
-      <c r="E156" s="31" t="s">
-        <v>291</v>
-      </c>
-      <c r="F156" s="31"/>
+      <c r="D156" s="10"/>
+      <c r="E156" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="F156" s="11"/>
     </row>
     <row r="157" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
@@ -4826,10 +4839,10 @@
         <v>144</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -4843,7 +4856,7 @@
         <v>145</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="171" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -4955,7 +4968,7 @@
         <v>153</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>254</v>
@@ -4988,7 +5001,7 @@
       </c>
       <c r="D179" s="33"/>
       <c r="E179" s="34" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="180" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -5020,7 +5033,7 @@
         <v>157</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F181" s="2"/>
     </row>
@@ -5036,10 +5049,10 @@
       </c>
       <c r="D182" s="4"/>
       <c r="E182" s="2" t="s">
-        <v>382</v>
+        <v>555</v>
       </c>
       <c r="F182" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O182" t="s">
         <v>223</v>
@@ -5056,7 +5069,7 @@
         <v>159</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F183" s="2"/>
     </row>
@@ -5135,7 +5148,7 @@
         <v>164</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F188" s="2"/>
     </row>
@@ -5150,7 +5163,7 @@
         <v>165</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L189" s="2"/>
     </row>
@@ -5265,7 +5278,7 @@
         <v>172</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>363</v>
@@ -5298,7 +5311,7 @@
         <v>174</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F198" s="2"/>
     </row>
@@ -5314,7 +5327,7 @@
       </c>
       <c r="D199" s="30"/>
       <c r="E199" s="31" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F199" s="31"/>
     </row>
@@ -5356,7 +5369,7 @@
         <v>177</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F202" s="2"/>
     </row>
@@ -5371,11 +5384,11 @@
         <v>178</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F203" s="2"/>
     </row>
-    <row r="204" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="24">
         <v>1</v>
       </c>
@@ -5425,7 +5438,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="207" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="24">
         <v>1</v>
       </c>
@@ -5454,7 +5467,7 @@
         <v>183</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5584,7 +5597,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="217" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="24">
         <v>1</v>
       </c>
@@ -5598,7 +5611,7 @@
         <v>1</v>
       </c>
       <c r="E217" s="23" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="218" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -5660,7 +5673,7 @@
       </c>
       <c r="D221" s="27"/>
       <c r="E221" s="26" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -5688,7 +5701,7 @@
         <v>416</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="224" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
@@ -5737,15 +5750,17 @@
         <v>220</v>
       </c>
     </row>
-    <row r="227" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="20">
-        <v>1</v>
-      </c>
-      <c r="C227" s="20" t="s">
+    <row r="227" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="9">
+        <v>1</v>
+      </c>
+      <c r="C227" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="D227" s="21"/>
-      <c r="E227" s="22"/>
+      <c r="D227" s="10"/>
+      <c r="E227" s="11" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="228" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="12">
@@ -5756,7 +5771,7 @@
       </c>
       <c r="D228" s="13"/>
       <c r="E228" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="229" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -5774,7 +5789,7 @@
       </c>
       <c r="E229" s="7"/>
     </row>
-    <row r="230" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="24">
         <v>1</v>
       </c>
@@ -5800,7 +5815,7 @@
       </c>
       <c r="D231" s="13"/>
       <c r="E231" s="28" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -5856,7 +5871,7 @@
         <v>427</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -5873,7 +5888,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="237" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="24">
         <v>1</v>
       </c>
@@ -5942,7 +5957,7 @@
       </c>
       <c r="D241" s="33"/>
       <c r="E241" s="34" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="242" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5957,7 +5972,7 @@
       </c>
       <c r="D242" s="13"/>
       <c r="E242" s="14" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -5971,10 +5986,10 @@
         <v>432</v>
       </c>
       <c r="E243" s="26" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -5999,10 +6014,10 @@
         <v>434</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F245" s="18" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -6027,7 +6042,7 @@
         <v>436</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F247" t="s">
         <v>406</v>
@@ -6064,7 +6079,7 @@
         <v>1</v>
       </c>
       <c r="E249" s="23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="250" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
@@ -6087,14 +6102,14 @@
         <v>1</v>
       </c>
       <c r="C251" s="29" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D251" s="30"/>
       <c r="E251" s="31" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="252" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="24">
         <v>1</v>
       </c>
@@ -6102,13 +6117,13 @@
         <v>1</v>
       </c>
       <c r="C252" s="24" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D252" s="44">
         <v>1</v>
       </c>
       <c r="E252" s="23" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="253" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -6123,7 +6138,7 @@
       </c>
       <c r="D253" s="21"/>
       <c r="E253" s="22" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="254" spans="1:6" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -6131,13 +6146,13 @@
         <v>1</v>
       </c>
       <c r="C254" s="24" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D254" s="13">
         <v>1</v>
       </c>
       <c r="E254" s="23" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="255" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -6145,7 +6160,7 @@
         <v>1</v>
       </c>
       <c r="C255" s="12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D255" s="13"/>
       <c r="E255" s="14" t="s">
@@ -6179,10 +6194,10 @@
         <v>1</v>
       </c>
       <c r="C258" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -6190,7 +6205,7 @@
         <v>1</v>
       </c>
       <c r="C259" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>293</v>
@@ -6201,7 +6216,7 @@
         <v>1</v>
       </c>
       <c r="C260" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>409</v>
@@ -6212,19 +6227,22 @@
         <v>1</v>
       </c>
       <c r="C261" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E261" s="2"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262">
-        <v>1</v>
-      </c>
-      <c r="C262" t="s">
-        <v>545</v>
-      </c>
-      <c r="E262" s="2" t="s">
-        <v>546</v>
+    <row r="262" spans="1:6" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="24">
+        <v>1</v>
+      </c>
+      <c r="C262" s="24" t="s">
+        <v>542</v>
+      </c>
+      <c r="D262" s="44">
+        <v>1</v>
+      </c>
+      <c r="E262" s="23" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -6232,10 +6250,10 @@
         <v>1</v>
       </c>
       <c r="C263" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>298</v>
+        <v>553</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -6243,7 +6261,7 @@
         <v>1</v>
       </c>
       <c r="C264" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E264" s="2" t="s">
         <v>288</v>
@@ -6254,7 +6272,7 @@
         <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>198</v>
@@ -6265,10 +6283,10 @@
         <v>1</v>
       </c>
       <c r="C266" s="35" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E266" s="36" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -6278,13 +6296,12 @@
       <c r="B267">
         <v>1</v>
       </c>
-      <c r="C267" t="s">
-        <v>191</v>
-      </c>
-      <c r="E267" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="F267" s="2"/>
+      <c r="C267" s="35" t="s">
+        <v>550</v>
+      </c>
+      <c r="E267" s="36" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
@@ -6294,74 +6311,89 @@
         <v>1</v>
       </c>
       <c r="C268" t="s">
+        <v>191</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="F268" s="2"/>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>1</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+      <c r="C269" t="s">
         <v>190</v>
       </c>
-      <c r="E268" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="F268" s="2"/>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C269" t="s">
+      <c r="E269" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="F269" s="2"/>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C270" t="s">
         <v>194</v>
       </c>
-      <c r="E269" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="F269" s="2"/>
-    </row>
-    <row r="270" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C270" s="5" t="s">
+      <c r="E270" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F270" s="2"/>
+    </row>
+    <row r="271" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C271" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D270" s="8">
-        <v>1</v>
-      </c>
-      <c r="E270" s="7" t="s">
+      <c r="D271" s="8">
+        <v>1</v>
+      </c>
+      <c r="E271" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="F270" s="7"/>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C271" t="s">
+      <c r="F271" s="7"/>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C272" t="s">
         <v>335</v>
       </c>
-      <c r="E271" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C272" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="D272" s="6">
-        <v>1</v>
-      </c>
-      <c r="E272" s="7" t="s">
-        <v>391</v>
+      <c r="E272" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="273" spans="3:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="C273" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="D273" s="6">
+        <v>1</v>
+      </c>
+      <c r="E273" s="7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="274" spans="3:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C274" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="D273" s="6">
-        <v>1</v>
-      </c>
-      <c r="E273" s="7" t="s">
+      <c r="D274" s="6">
+        <v>1</v>
+      </c>
+      <c r="E274" s="7" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="274" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C274" t="s">
-        <v>543</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>544</v>
+    <row r="275" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C275" t="s">
+        <v>540</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>541</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F273">
+  <autoFilter ref="A1:F274">
     <filterColumn colId="3">
       <filters blank="1"/>
     </filterColumn>
@@ -6486,7 +6518,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
@@ -6550,7 +6582,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
@@ -6614,7 +6646,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>45</v>
@@ -6622,7 +6654,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>45</v>
@@ -6662,7 +6694,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B35" t="s">
         <v>49</v>
@@ -6738,7 +6770,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B45" t="s">
         <v>58</v>
@@ -6746,7 +6778,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B46" t="s">
         <v>59</v>
@@ -6866,7 +6898,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B61" t="s">
         <v>71</v>
@@ -6968,7 +7000,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B74" t="s">
         <v>152</v>
@@ -7088,7 +7120,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B89" t="s">
         <v>99</v>
@@ -7192,7 +7224,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B102" t="s">
         <v>114</v>
@@ -7380,7 +7412,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B126" t="s">
         <v>145</v>
@@ -7420,7 +7452,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B131" t="s">
         <v>153</v>
@@ -7492,7 +7524,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B140" t="s">
         <v>164</v>
@@ -7500,7 +7532,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B141" t="s">
         <v>165</v>
@@ -7624,7 +7656,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B157" t="s">
         <v>183</v>
@@ -7742,7 +7774,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B172" s="12" t="s">
         <v>422</v>
@@ -7868,7 +7900,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B188" t="s">
         <v>434</v>
@@ -7903,7 +7935,7 @@
         <v>205</v>
       </c>
       <c r="B192" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -7911,12 +7943,12 @@
         <v>288</v>
       </c>
       <c r="B193" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="22" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B194" s="20" t="s">
         <v>439</v>
@@ -7927,7 +7959,7 @@
         <v>319</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -7951,7 +7983,7 @@
         <v>285</v>
       </c>
       <c r="B198" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -7959,7 +7991,7 @@
         <v>293</v>
       </c>
       <c r="B199" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -7967,18 +7999,18 @@
         <v>409</v>
       </c>
       <c r="B200" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B202" t="s">
         <v>191</v>
@@ -7994,7 +8026,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B204" t="s">
         <v>194</v>

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$274</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$277</definedName>
   </definedNames>
   <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="580">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -1121,9 +1121,6 @@
   </si>
   <si>
     <t>380519943694;50</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>380688398707;75</t>
@@ -1533,9 +1530,6 @@
     <t>380519940627;50 8781.5MB</t>
   </si>
   <si>
-    <t>380519944940;50 7734MB</t>
-  </si>
-  <si>
     <t>380984291290;75 15grn</t>
   </si>
   <si>
@@ -1572,9 +1566,6 @@
     <t>380519946244;50 50grn</t>
   </si>
   <si>
-    <t>380519945563;50   19267MB</t>
-  </si>
-  <si>
     <t>380519941270;50 50grn</t>
   </si>
   <si>
@@ -1699,6 +1690,81 @@
   </si>
   <si>
     <t>380519942592;50 50grn</t>
+  </si>
+  <si>
+    <t>Модем МХП</t>
+  </si>
+  <si>
+    <t>360 м. Київ, вул. Драйзера, 8/2</t>
+  </si>
+  <si>
+    <t>366 ТТ нова</t>
+  </si>
+  <si>
+    <t>371 ТТ нова</t>
+  </si>
+  <si>
+    <t>373 ТТ нова</t>
+  </si>
+  <si>
+    <t>059 КАМЕРА ДТ м. Яготин, вул. Привокзальна, 14</t>
+  </si>
+  <si>
+    <t>301 КАМЕРА ДТ Київ. обл, Києво-Святошин. р-н, м. Боярка, вул. Хрещатик, 2</t>
+  </si>
+  <si>
+    <t>328 КАМЕРА Київська обл.,Білоцерківський р-н,м.Біла Церква,вул.Леваневського,52/4</t>
+  </si>
+  <si>
+    <t>001 КАМЕРА ДТ м. Біла Церква, вул. Вокзальна, 8</t>
+  </si>
+  <si>
+    <t>141 КАМЕРА  ДТ м. Біла Церква, вул. Гайок,181</t>
+  </si>
+  <si>
+    <t>111 КАМЕРА ДТ м. Київ, вул. Миропільська, 11</t>
+  </si>
+  <si>
+    <t>100 КАМЕРА ДТ м. Київ, вул. Ш. Алейхема, 19</t>
+  </si>
+  <si>
+    <t>380519944940;111 10grn ok ok ok</t>
+  </si>
+  <si>
+    <t>294 КАМЕРА ДТ Київ. обл, Бровар. р-н, с. Плоске, вул. Леніна, буд. № 1(077)</t>
+  </si>
+  <si>
+    <t>238 КАМЕРА ДТ Вишневе. Першотравнева, 2</t>
+  </si>
+  <si>
+    <t>070 КАМЕРА ДТ с. Зазимье, ул. Лесовая, 53</t>
+  </si>
+  <si>
+    <t>049 КАМЕРА ДТ птт. Иванков, ул. Леси Украинки, 9А</t>
+  </si>
+  <si>
+    <t>039 КАМЕРА ДТ пгт. Дымер, ул. Ленина, 13А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">225 КАМЕРА ДТ с. Демидов, ул. Киевская, 53 </t>
+  </si>
+  <si>
+    <t>340 КАМЕРА м.Київ,вул.Маршала Тимошенка,14 (Мінський ринок)</t>
+  </si>
+  <si>
+    <t>259 КАМЕРА ДТ м. Бориспіль, вул. Лютнева, буд. № 3Б (017)</t>
+  </si>
+  <si>
+    <t>344 КАМЕРА м.Київ,вул.Лариси Руденко,11Б</t>
+  </si>
+  <si>
+    <t>188 ДТ КАМЕРА с. Новые Петровцы ,ул. Ленина, 218</t>
+  </si>
+  <si>
+    <t>286 КАМЕРА ДТ м. Київ, вул. В. Кільцева, буд. № 110А(061)</t>
+  </si>
+  <si>
+    <t>201 КАМЕРА ДТ Київська обл., смт Макарів, вул. Фрунзе, 33</t>
   </si>
 </sst>
 </file>
@@ -1708,7 +1774,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1723,8 +1789,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1763,18 +1836,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1782,6 +1843,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1798,7 +1865,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1831,23 +1898,28 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2140,10 +2212,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:O275"/>
+  <dimension ref="A1:O278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141:XFD141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2177,20 +2249,21 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
+    <row r="2" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43">
+        <v>1</v>
+      </c>
+      <c r="B2" s="43">
+        <v>1</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>563</v>
+      </c>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -2207,21 +2280,21 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29">
-        <v>1</v>
-      </c>
-      <c r="B4" s="29">
-        <v>1</v>
-      </c>
-      <c r="C4" s="29" t="s">
+    <row r="4" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31" t="s">
-        <v>496</v>
-      </c>
-      <c r="F4" s="31"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -2270,7 +2343,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -2367,21 +2440,21 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29">
-        <v>1</v>
-      </c>
-      <c r="B14" s="29">
-        <v>1</v>
-      </c>
-      <c r="C14" s="29" t="s">
+    <row r="14" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>1</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="F14" s="31"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
@@ -2486,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2529,11 +2602,11 @@
       <c r="C23" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="36">
         <v>1</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H23" s="23"/>
     </row>
@@ -2565,7 +2638,7 @@
       <c r="C25" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="44">
+      <c r="D25" s="37">
         <v>1</v>
       </c>
       <c r="E25" s="23" t="s">
@@ -2603,21 +2676,21 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29">
-        <v>1</v>
-      </c>
-      <c r="B28" s="29">
-        <v>1</v>
-      </c>
-      <c r="C28" s="29" t="s">
+    <row r="28" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>1</v>
+      </c>
+      <c r="B28" s="12">
+        <v>1</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="31" t="s">
+      <c r="D28" s="13"/>
+      <c r="E28" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="F28" s="31"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
@@ -2653,21 +2726,21 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="29">
-        <v>1</v>
-      </c>
-      <c r="B31" s="29">
-        <v>1</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="31" t="s">
+    <row r="31" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="43">
+        <v>1</v>
+      </c>
+      <c r="B31" s="43">
+        <v>1</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>572</v>
+      </c>
+      <c r="D31" s="44"/>
+      <c r="E31" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="F31" s="31"/>
+      <c r="F31" s="45"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -2780,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F38" s="2"/>
     </row>
@@ -2795,40 +2868,41 @@
         <v>36</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
+    <row r="40" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="43">
+        <v>1</v>
+      </c>
+      <c r="B40" s="43">
+        <v>1</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>571</v>
+      </c>
+      <c r="D40" s="44"/>
+      <c r="E40" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="F40" s="45"/>
+    </row>
+    <row r="41" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
+        <v>1</v>
+      </c>
+      <c r="B41" s="12">
+        <v>2</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="32">
-        <v>1</v>
-      </c>
-      <c r="B41" s="32">
-        <v>2</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="33"/>
-      <c r="E41" s="34" t="s">
-        <v>497</v>
-      </c>
-      <c r="F41" s="34"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="F41" s="14"/>
     </row>
     <row r="42" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
@@ -2860,7 +2934,7 @@
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -2888,7 +2962,7 @@
         <v>41</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2902,25 +2976,25 @@
         <v>42</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="29">
-        <v>1</v>
-      </c>
-      <c r="B47" s="29">
-        <v>1</v>
-      </c>
-      <c r="C47" s="29" t="s">
+    <row r="47" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12">
+        <v>1</v>
+      </c>
+      <c r="B47" s="12">
+        <v>1</v>
+      </c>
+      <c r="C47" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="30"/>
-      <c r="E47" s="31" t="s">
+      <c r="D47" s="13"/>
+      <c r="E47" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="F47" s="31"/>
+      <c r="F47" s="14"/>
     </row>
     <row r="48" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
@@ -2952,7 +3026,7 @@
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2967,39 +3041,40 @@
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F50" s="11"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>1</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>46</v>
-      </c>
-      <c r="E51" s="2" t="s">
+    <row r="51" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="38">
+        <v>1</v>
+      </c>
+      <c r="B51" s="38">
+        <v>1</v>
+      </c>
+      <c r="C51" s="38" t="s">
+        <v>560</v>
+      </c>
+      <c r="D51" s="39"/>
+      <c r="E51" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="F51" s="2"/>
+      <c r="F51" s="40"/>
     </row>
     <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="40">
-        <v>1</v>
-      </c>
-      <c r="B52" s="40">
-        <v>1</v>
-      </c>
-      <c r="C52" s="40" t="s">
+      <c r="A52" s="33">
+        <v>1</v>
+      </c>
+      <c r="B52" s="33">
+        <v>1</v>
+      </c>
+      <c r="C52" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="41">
-        <v>1</v>
-      </c>
-      <c r="E52" s="42" t="s">
+      <c r="D52" s="34">
+        <v>1</v>
+      </c>
+      <c r="E52" s="35" t="s">
         <v>229</v>
       </c>
       <c r="F52" s="2"/>
@@ -3045,7 +3120,7 @@
         <v>49</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F55" s="2"/>
     </row>
@@ -3075,25 +3150,25 @@
         <v>51</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="29">
-        <v>1</v>
-      </c>
-      <c r="B58" s="29">
-        <v>1</v>
-      </c>
-      <c r="C58" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D58" s="30"/>
-      <c r="E58" s="31" t="s">
+    <row r="58" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="43">
+        <v>1</v>
+      </c>
+      <c r="B58" s="43">
+        <v>1</v>
+      </c>
+      <c r="C58" s="43" t="s">
+        <v>570</v>
+      </c>
+      <c r="D58" s="44"/>
+      <c r="E58" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="F58" s="31"/>
+      <c r="F58" s="45"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
@@ -3127,18 +3202,18 @@
         <v>354</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="9">
-        <v>1</v>
-      </c>
-      <c r="B61" s="9">
-        <v>1</v>
-      </c>
-      <c r="C61" s="9" t="s">
+    <row r="61" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="20">
+        <v>1</v>
+      </c>
+      <c r="B61" s="20">
+        <v>1</v>
+      </c>
+      <c r="C61" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="D61" s="10"/>
-      <c r="E61" s="11"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="22"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
@@ -3155,15 +3230,18 @@
       </c>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>1</v>
-      </c>
-      <c r="C63" t="s">
+    <row r="63" spans="1:10" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="24">
+        <v>1</v>
+      </c>
+      <c r="C63" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
+      <c r="D63" s="37">
+        <v>1</v>
+      </c>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
@@ -3176,7 +3254,7 @@
         <v>56</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J64" s="2"/>
     </row>
@@ -3205,11 +3283,11 @@
       <c r="C66" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="44">
+      <c r="D66" s="37">
         <v>1</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -3223,7 +3301,7 @@
         <v>59</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3257,22 +3335,22 @@
       </c>
       <c r="F69" s="11"/>
     </row>
-    <row r="70" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="32">
-        <v>1</v>
-      </c>
-      <c r="B70" s="32">
+    <row r="70" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="12">
+        <v>1</v>
+      </c>
+      <c r="B70" s="12">
         <v>2</v>
       </c>
-      <c r="C70" s="32" t="s">
+      <c r="C70" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="D70" s="33"/>
-      <c r="E70" s="34" t="s">
-        <v>501</v>
-      </c>
-      <c r="F70" s="34" t="s">
-        <v>483</v>
+      <c r="D70" s="13"/>
+      <c r="E70" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3289,7 +3367,7 @@
         <v>240</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3318,11 +3396,11 @@
       <c r="C73" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D73" s="44">
+      <c r="D73" s="37">
         <v>1</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F73" s="23"/>
     </row>
@@ -3334,29 +3412,29 @@
         <v>2</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D74" s="10"/>
       <c r="E74" s="11" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F74" s="11"/>
     </row>
-    <row r="75" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="29">
-        <v>1</v>
-      </c>
-      <c r="B75" s="29">
-        <v>1</v>
-      </c>
-      <c r="C75" s="29" t="s">
+    <row r="75" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="12">
+        <v>1</v>
+      </c>
+      <c r="B75" s="12">
+        <v>1</v>
+      </c>
+      <c r="C75" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D75" s="30"/>
-      <c r="E75" s="31" t="s">
+      <c r="D75" s="13"/>
+      <c r="E75" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="F75" s="31"/>
+      <c r="F75" s="14"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
@@ -3373,21 +3451,21 @@
       </c>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="32">
-        <v>1</v>
-      </c>
-      <c r="B77" s="32">
-        <v>1</v>
-      </c>
-      <c r="C77" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="D77" s="33"/>
-      <c r="E77" s="34" t="s">
-        <v>502</v>
-      </c>
-      <c r="F77" s="34"/>
+    <row r="77" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="43">
+        <v>1</v>
+      </c>
+      <c r="B77" s="43">
+        <v>1</v>
+      </c>
+      <c r="C77" s="43" t="s">
+        <v>566</v>
+      </c>
+      <c r="D77" s="44"/>
+      <c r="E77" s="45" t="s">
+        <v>567</v>
+      </c>
+      <c r="F77" s="45"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
@@ -3404,21 +3482,21 @@
       </c>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="29">
-        <v>1</v>
-      </c>
-      <c r="B79" s="29">
-        <v>1</v>
-      </c>
-      <c r="C79" s="29" t="s">
+    <row r="79" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="12">
+        <v>1</v>
+      </c>
+      <c r="B79" s="12">
+        <v>1</v>
+      </c>
+      <c r="C79" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D79" s="30"/>
-      <c r="E79" s="31" t="s">
+      <c r="D79" s="13"/>
+      <c r="E79" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="F79" s="31"/>
+      <c r="F79" s="14"/>
     </row>
     <row r="80" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
@@ -3447,7 +3525,7 @@
         <v>69</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3476,10 +3554,10 @@
         <v>71</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3497,21 +3575,21 @@
       </c>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="9">
-        <v>1</v>
-      </c>
-      <c r="B85" s="9">
-        <v>1</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D85" s="10"/>
-      <c r="E85" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="F85" s="11"/>
+    <row r="85" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="43">
+        <v>1</v>
+      </c>
+      <c r="B85" s="43">
+        <v>1</v>
+      </c>
+      <c r="C85" s="43" t="s">
+        <v>565</v>
+      </c>
+      <c r="D85" s="44"/>
+      <c r="E85" s="45" t="s">
+        <v>554</v>
+      </c>
+      <c r="F85" s="45"/>
     </row>
     <row r="86" spans="1:7" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="24">
@@ -3523,23 +3601,23 @@
       <c r="C86" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D86" s="44">
+      <c r="D86" s="37">
         <v>1</v>
       </c>
       <c r="E86" s="23"/>
     </row>
-    <row r="87" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="29">
-        <v>1</v>
-      </c>
-      <c r="B87" s="29">
-        <v>1</v>
-      </c>
-      <c r="C87" s="29" t="s">
+    <row r="87" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="12">
+        <v>1</v>
+      </c>
+      <c r="B87" s="12">
+        <v>1</v>
+      </c>
+      <c r="C87" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D87" s="30"/>
-      <c r="E87" s="31" t="s">
+      <c r="D87" s="13"/>
+      <c r="E87" s="14" t="s">
         <v>251</v>
       </c>
     </row>
@@ -3571,23 +3649,26 @@
         <v>1</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>1</v>
-      </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-      <c r="C90" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="24">
+        <v>1</v>
+      </c>
+      <c r="B90" s="24">
+        <v>1</v>
+      </c>
+      <c r="C90" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="D90" s="37">
+        <v>1</v>
+      </c>
+      <c r="E90" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="F90" s="2"/>
+      <c r="F90" s="23"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
@@ -3656,14 +3737,17 @@
         <v>351</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>1</v>
-      </c>
-      <c r="C95" t="s">
+    <row r="95" spans="1:7" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="24">
+        <v>1</v>
+      </c>
+      <c r="C95" s="24" t="s">
         <v>347</v>
       </c>
-      <c r="E95" s="2"/>
+      <c r="D95" s="37">
+        <v>1</v>
+      </c>
+      <c r="E95" s="23"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
@@ -3676,25 +3760,25 @@
         <v>83</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="29">
-        <v>1</v>
-      </c>
-      <c r="B97" s="29">
-        <v>1</v>
-      </c>
-      <c r="C97" s="29" t="s">
+    <row r="97" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="12">
+        <v>1</v>
+      </c>
+      <c r="B97" s="12">
+        <v>1</v>
+      </c>
+      <c r="C97" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D97" s="30"/>
-      <c r="E97" s="31" t="s">
+      <c r="D97" s="13"/>
+      <c r="E97" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="F97" s="31"/>
+      <c r="F97" s="14"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
@@ -3732,10 +3816,10 @@
         <v>152</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3768,20 +3852,21 @@
       </c>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>1</v>
-      </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
-      <c r="C103" t="s">
-        <v>87</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="F103" s="2"/>
+    <row r="103" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="43">
+        <v>1</v>
+      </c>
+      <c r="B103" s="43">
+        <v>1</v>
+      </c>
+      <c r="C103" s="43" t="s">
+        <v>564</v>
+      </c>
+      <c r="D103" s="44"/>
+      <c r="E103" s="45" t="s">
+        <v>525</v>
+      </c>
+      <c r="F103" s="45"/>
     </row>
     <row r="104" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
@@ -3811,24 +3896,24 @@
         <v>89</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="37">
-        <v>1</v>
-      </c>
-      <c r="B106" s="37"/>
-      <c r="C106" s="37" t="s">
+      <c r="A106" s="30">
+        <v>1</v>
+      </c>
+      <c r="B106" s="30"/>
+      <c r="C106" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="D106" s="38">
-        <v>1</v>
-      </c>
-      <c r="E106" s="39"/>
-      <c r="F106" s="39" t="s">
-        <v>535</v>
+      <c r="D106" s="31">
+        <v>1</v>
+      </c>
+      <c r="E106" s="32"/>
+      <c r="F106" s="32" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3856,7 +3941,7 @@
       <c r="C108" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="D108" s="44">
+      <c r="D108" s="37">
         <v>1</v>
       </c>
       <c r="E108" s="23" t="s">
@@ -3864,21 +3949,21 @@
       </c>
       <c r="F108" s="23"/>
     </row>
-    <row r="109" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="32">
-        <v>1</v>
-      </c>
-      <c r="B109" s="32">
-        <v>1</v>
-      </c>
-      <c r="C109" s="32" t="s">
+    <row r="109" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="12">
+        <v>1</v>
+      </c>
+      <c r="B109" s="12">
+        <v>1</v>
+      </c>
+      <c r="C109" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D109" s="33"/>
-      <c r="E109" s="34" t="s">
-        <v>504</v>
-      </c>
-      <c r="F109" s="34"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="F109" s="14"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
@@ -3998,11 +4083,11 @@
       <c r="C117" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="D117" s="43">
+      <c r="D117" s="36">
         <v>1</v>
       </c>
       <c r="E117" s="23" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F117" s="23"/>
     </row>
@@ -4021,21 +4106,21 @@
       </c>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="32">
-        <v>1</v>
-      </c>
-      <c r="B119" s="32">
-        <v>1</v>
-      </c>
-      <c r="C119" s="32" t="s">
+    <row r="119" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="12">
+        <v>1</v>
+      </c>
+      <c r="B119" s="12">
+        <v>1</v>
+      </c>
+      <c r="C119" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D119" s="33"/>
-      <c r="E119" s="34" t="s">
-        <v>505</v>
-      </c>
-      <c r="F119" s="34"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="F119" s="14"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
@@ -4052,21 +4137,21 @@
       </c>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="29">
-        <v>1</v>
-      </c>
-      <c r="B121" s="29">
-        <v>1</v>
-      </c>
-      <c r="C121" s="29" t="s">
+    <row r="121" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="12">
+        <v>1</v>
+      </c>
+      <c r="B121" s="12">
+        <v>1</v>
+      </c>
+      <c r="C121" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D121" s="30"/>
-      <c r="E121" s="31" t="s">
+      <c r="D121" s="13"/>
+      <c r="E121" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="F121" s="31"/>
+      <c r="F121" s="14"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
@@ -4109,7 +4194,7 @@
       <c r="C124" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="D124" s="44">
+      <c r="D124" s="37">
         <v>1</v>
       </c>
       <c r="E124" s="23" t="s">
@@ -4193,11 +4278,11 @@
       <c r="C129" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="D129" s="44">
+      <c r="D129" s="37">
         <v>1</v>
       </c>
       <c r="E129" s="23" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -4230,39 +4315,39 @@
       </c>
       <c r="F131" s="2"/>
     </row>
-    <row r="132" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="12">
-        <v>1</v>
-      </c>
-      <c r="B132" s="12">
-        <v>1</v>
-      </c>
-      <c r="C132" s="12" t="s">
+    <row r="132" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="43">
+        <v>1</v>
+      </c>
+      <c r="B132" s="43">
+        <v>1</v>
+      </c>
+      <c r="C132" s="43" t="s">
+        <v>577</v>
+      </c>
+      <c r="D132" s="44"/>
+      <c r="E132" s="45" t="s">
+        <v>515</v>
+      </c>
+      <c r="F132" s="45"/>
+      <c r="H132" s="45"/>
+    </row>
+    <row r="133" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="12">
+        <v>1</v>
+      </c>
+      <c r="B133" s="12">
+        <v>2</v>
+      </c>
+      <c r="C133" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D132" s="13"/>
-      <c r="E132" s="14" t="s">
-        <v>518</v>
-      </c>
-      <c r="F132" s="14"/>
-      <c r="H132" s="14"/>
-    </row>
-    <row r="133" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="32">
-        <v>1</v>
-      </c>
-      <c r="B133" s="32">
-        <v>2</v>
-      </c>
-      <c r="C133" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="D133" s="33"/>
-      <c r="E133" s="34" t="s">
-        <v>507</v>
-      </c>
-      <c r="F133" s="34" t="s">
-        <v>451</v>
+      <c r="D133" s="13"/>
+      <c r="E133" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="F133" s="14" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -4273,11 +4358,11 @@
         <v>3</v>
       </c>
       <c r="C134" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="135" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -4342,7 +4427,7 @@
         <v>118</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J138" s="2"/>
     </row>
@@ -4373,21 +4458,21 @@
       </c>
       <c r="E140" s="7"/>
     </row>
-    <row r="141" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="32">
-        <v>1</v>
-      </c>
-      <c r="B141" s="32">
-        <v>1</v>
-      </c>
-      <c r="C141" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D141" s="33"/>
-      <c r="E141" s="34" t="s">
+    <row r="141" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="43">
+        <v>1</v>
+      </c>
+      <c r="B141" s="43">
+        <v>1</v>
+      </c>
+      <c r="C141" s="43" t="s">
+        <v>579</v>
+      </c>
+      <c r="D141" s="44"/>
+      <c r="E141" s="45" t="s">
         <v>307</v>
       </c>
-      <c r="F141" s="34"/>
+      <c r="F141" s="45"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
@@ -4416,7 +4501,7 @@
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="144" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -4463,7 +4548,7 @@
         <v>122</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F146" s="2"/>
     </row>
@@ -4549,21 +4634,21 @@
       </c>
       <c r="F151" s="7"/>
     </row>
-    <row r="152" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="29">
-        <v>1</v>
-      </c>
-      <c r="B152" s="29">
-        <v>1</v>
-      </c>
-      <c r="C152" s="29" t="s">
+    <row r="152" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="12">
+        <v>1</v>
+      </c>
+      <c r="B152" s="12">
+        <v>1</v>
+      </c>
+      <c r="C152" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D152" s="30"/>
-      <c r="E152" s="31" t="s">
+      <c r="D152" s="13"/>
+      <c r="E152" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="F152" s="31"/>
+      <c r="F152" s="14"/>
     </row>
     <row r="153" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
@@ -4595,7 +4680,7 @@
       </c>
       <c r="D154" s="15"/>
       <c r="E154" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F154" s="14"/>
     </row>
@@ -4614,21 +4699,21 @@
       </c>
       <c r="F155" s="2"/>
     </row>
-    <row r="156" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="9">
-        <v>1</v>
-      </c>
-      <c r="B156" s="9">
-        <v>1</v>
-      </c>
-      <c r="C156" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D156" s="10"/>
-      <c r="E156" s="11" t="s">
-        <v>556</v>
-      </c>
-      <c r="F156" s="11"/>
+    <row r="156" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="43">
+        <v>1</v>
+      </c>
+      <c r="B156" s="43">
+        <v>1</v>
+      </c>
+      <c r="C156" s="43" t="s">
+        <v>573</v>
+      </c>
+      <c r="D156" s="44"/>
+      <c r="E156" s="45" t="s">
+        <v>553</v>
+      </c>
+      <c r="F156" s="45"/>
     </row>
     <row r="157" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
@@ -4746,21 +4831,21 @@
       </c>
       <c r="F163" s="7"/>
     </row>
-    <row r="164" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="29">
-        <v>1</v>
-      </c>
-      <c r="B164" s="29">
-        <v>1</v>
-      </c>
-      <c r="C164" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="D164" s="30"/>
-      <c r="E164" s="31" t="s">
-        <v>443</v>
-      </c>
-      <c r="F164" s="31"/>
+    <row r="164" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="43">
+        <v>1</v>
+      </c>
+      <c r="B164" s="43">
+        <v>1</v>
+      </c>
+      <c r="C164" s="43" t="s">
+        <v>569</v>
+      </c>
+      <c r="D164" s="44"/>
+      <c r="E164" s="45" t="s">
+        <v>442</v>
+      </c>
+      <c r="F164" s="45"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
@@ -4839,10 +4924,10 @@
         <v>144</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -4856,7 +4941,7 @@
         <v>145</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="171" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -4877,37 +4962,37 @@
       </c>
       <c r="I171" s="7"/>
     </row>
-    <row r="172" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="29">
-        <v>1</v>
-      </c>
-      <c r="B172" s="29">
-        <v>1</v>
-      </c>
-      <c r="C172" s="29" t="s">
+    <row r="172" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="12">
+        <v>1</v>
+      </c>
+      <c r="B172" s="12">
+        <v>1</v>
+      </c>
+      <c r="C172" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D172" s="30"/>
-      <c r="E172" s="31" t="s">
+      <c r="D172" s="13"/>
+      <c r="E172" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="F172" s="31"/>
-    </row>
-    <row r="173" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="29">
-        <v>1</v>
-      </c>
-      <c r="B173" s="29">
-        <v>1</v>
-      </c>
-      <c r="C173" s="29" t="s">
+      <c r="F172" s="14"/>
+    </row>
+    <row r="173" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="12">
+        <v>1</v>
+      </c>
+      <c r="B173" s="12">
+        <v>1</v>
+      </c>
+      <c r="C173" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="D173" s="30"/>
-      <c r="E173" s="31" t="s">
+      <c r="D173" s="13"/>
+      <c r="E173" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="F173" s="31"/>
+      <c r="F173" s="14"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
@@ -4968,7 +5053,7 @@
         <v>153</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>254</v>
@@ -4985,23 +5070,23 @@
         <v>154</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F178" s="2"/>
     </row>
-    <row r="179" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="32">
-        <v>1</v>
-      </c>
-      <c r="B179" s="32">
-        <v>1</v>
-      </c>
-      <c r="C179" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="D179" s="33"/>
-      <c r="E179" s="34" t="s">
-        <v>508</v>
+    <row r="179" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="43">
+        <v>1</v>
+      </c>
+      <c r="B179" s="43">
+        <v>1</v>
+      </c>
+      <c r="C179" s="43" t="s">
+        <v>575</v>
+      </c>
+      <c r="D179" s="44"/>
+      <c r="E179" s="45" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="180" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -5033,7 +5118,7 @@
         <v>157</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F181" s="2"/>
     </row>
@@ -5049,10 +5134,10 @@
       </c>
       <c r="D182" s="4"/>
       <c r="E182" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F182" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O182" t="s">
         <v>223</v>
@@ -5069,25 +5154,25 @@
         <v>159</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F183" s="2"/>
     </row>
-    <row r="184" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="29">
-        <v>1</v>
-      </c>
-      <c r="B184" s="29">
-        <v>1</v>
-      </c>
-      <c r="C184" s="29" t="s">
+    <row r="184" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="12">
+        <v>1</v>
+      </c>
+      <c r="B184" s="12">
+        <v>1</v>
+      </c>
+      <c r="C184" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="D184" s="30"/>
-      <c r="E184" s="31" t="s">
+      <c r="D184" s="13"/>
+      <c r="E184" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="F184" s="31"/>
+      <c r="F184" s="14"/>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185">
@@ -5148,7 +5233,7 @@
         <v>164</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F188" s="2"/>
     </row>
@@ -5163,25 +5248,25 @@
         <v>165</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L189" s="2"/>
     </row>
-    <row r="190" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="29">
-        <v>1</v>
-      </c>
-      <c r="B190" s="29">
-        <v>1</v>
-      </c>
-      <c r="C190" s="29" t="s">
+    <row r="190" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="12">
+        <v>1</v>
+      </c>
+      <c r="B190" s="12">
+        <v>1</v>
+      </c>
+      <c r="C190" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="D190" s="30"/>
-      <c r="E190" s="31" t="s">
+      <c r="D190" s="13"/>
+      <c r="E190" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="F190" s="31"/>
+      <c r="F190" s="14"/>
     </row>
     <row r="191" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
@@ -5245,7 +5330,7 @@
         <v>170</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F194" s="2"/>
     </row>
@@ -5278,7 +5363,7 @@
         <v>172</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>363</v>
@@ -5311,39 +5396,41 @@
         <v>174</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F198" s="2"/>
     </row>
-    <row r="199" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="29">
-        <v>1</v>
-      </c>
-      <c r="B199" s="29">
-        <v>1</v>
-      </c>
-      <c r="C199" s="29" t="s">
+    <row r="199" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="12">
+        <v>1</v>
+      </c>
+      <c r="B199" s="12">
+        <v>1</v>
+      </c>
+      <c r="C199" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D199" s="30"/>
-      <c r="E199" s="31" t="s">
-        <v>522</v>
-      </c>
-      <c r="F199" s="31"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>1</v>
-      </c>
-      <c r="B200">
-        <v>1</v>
-      </c>
-      <c r="C200" t="s">
-        <v>176</v>
-      </c>
-      <c r="D200" s="4"/>
-      <c r="E200" s="2"/>
-      <c r="F200" s="2"/>
+      <c r="D199" s="13"/>
+      <c r="E199" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="F199" s="14"/>
+    </row>
+    <row r="200" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="43">
+        <v>1</v>
+      </c>
+      <c r="B200" s="43">
+        <v>1</v>
+      </c>
+      <c r="C200" s="43" t="s">
+        <v>578</v>
+      </c>
+      <c r="D200" s="47"/>
+      <c r="E200" s="45" t="s">
+        <v>483</v>
+      </c>
+      <c r="F200" s="45"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
@@ -5356,7 +5443,9 @@
         <v>176</v>
       </c>
       <c r="D201" s="4"/>
-      <c r="E201" s="2"/>
+      <c r="E201" s="14" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
@@ -5369,7 +5458,7 @@
         <v>177</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F202" s="2"/>
     </row>
@@ -5384,7 +5473,7 @@
         <v>178</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F203" s="2"/>
     </row>
@@ -5398,7 +5487,7 @@
       <c r="C204" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="D204" s="44">
+      <c r="D204" s="37">
         <v>1</v>
       </c>
       <c r="E204" s="23" t="s">
@@ -5406,23 +5495,26 @@
       </c>
       <c r="G204" s="23"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>1</v>
-      </c>
-      <c r="B205">
-        <v>1</v>
-      </c>
-      <c r="C205" t="s">
+    <row r="205" spans="1:7" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="24">
+        <v>1</v>
+      </c>
+      <c r="B205" s="24">
+        <v>1</v>
+      </c>
+      <c r="C205" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="E205" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="G205" s="2"/>
+      <c r="D205" s="37">
+        <v>1</v>
+      </c>
+      <c r="E205" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="F205" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="G205" s="23"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
@@ -5435,7 +5527,7 @@
         <v>181</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="207" spans="1:7" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -5448,11 +5540,11 @@
       <c r="C207" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="D207" s="44">
+      <c r="D207" s="37">
         <v>1</v>
       </c>
       <c r="E207" s="23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F207" s="23"/>
     </row>
@@ -5467,21 +5559,22 @@
         <v>183</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>1</v>
-      </c>
-      <c r="B209">
-        <v>1</v>
-      </c>
-      <c r="C209" t="s">
-        <v>184</v>
-      </c>
-      <c r="E209" s="18" t="s">
-        <v>394</v>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A209" s="43">
+        <v>1</v>
+      </c>
+      <c r="B209" s="43">
+        <v>1</v>
+      </c>
+      <c r="C209" s="43" t="s">
+        <v>568</v>
+      </c>
+      <c r="D209" s="44"/>
+      <c r="E209" s="46" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -5517,37 +5610,37 @@
       </c>
       <c r="F211" s="7"/>
     </row>
-    <row r="212" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="29">
-        <v>1</v>
-      </c>
-      <c r="B212" s="29">
-        <v>1</v>
-      </c>
-      <c r="C212" s="29" t="s">
-        <v>410</v>
-      </c>
-      <c r="D212" s="30"/>
-      <c r="E212" s="31" t="s">
-        <v>387</v>
-      </c>
-      <c r="F212" s="31"/>
-    </row>
-    <row r="213" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="29">
-        <v>1</v>
-      </c>
-      <c r="B213" s="29">
-        <v>1</v>
-      </c>
-      <c r="C213" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="D213" s="30"/>
-      <c r="E213" s="31" t="s">
+    <row r="212" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="12">
+        <v>1</v>
+      </c>
+      <c r="B212" s="12">
+        <v>1</v>
+      </c>
+      <c r="C212" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="D212" s="13"/>
+      <c r="E212" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="F212" s="14"/>
+    </row>
+    <row r="213" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="43">
+        <v>1</v>
+      </c>
+      <c r="B213" s="43">
+        <v>1</v>
+      </c>
+      <c r="C213" s="43" t="s">
+        <v>561</v>
+      </c>
+      <c r="D213" s="44"/>
+      <c r="E213" s="45" t="s">
         <v>360</v>
       </c>
-      <c r="F213" s="31"/>
+      <c r="F213" s="45"/>
     </row>
     <row r="214" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
@@ -5605,13 +5698,13 @@
         <v>1</v>
       </c>
       <c r="C217" s="24" t="s">
-        <v>411</v>
-      </c>
-      <c r="D217" s="44">
+        <v>410</v>
+      </c>
+      <c r="D217" s="37">
         <v>1</v>
       </c>
       <c r="E217" s="23" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="218" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -5639,7 +5732,7 @@
         <v>1</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D219" s="13"/>
       <c r="E219" s="14" t="s">
@@ -5654,7 +5747,7 @@
         <v>1</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D220" s="13"/>
       <c r="E220" s="14" t="s">
@@ -5669,11 +5762,11 @@
         <v>1</v>
       </c>
       <c r="C221" s="25" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D221" s="27"/>
       <c r="E221" s="26" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -5684,10 +5777,10 @@
         <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -5698,24 +5791,24 @@
         <v>1</v>
       </c>
       <c r="C223" t="s">
+        <v>415</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="12">
+        <v>1</v>
+      </c>
+      <c r="B224" s="12">
+        <v>1</v>
+      </c>
+      <c r="C224" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="E223" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="29">
-        <v>1</v>
-      </c>
-      <c r="B224" s="29">
-        <v>1</v>
-      </c>
-      <c r="C224" s="29" t="s">
-        <v>417</v>
-      </c>
-      <c r="D224" s="30"/>
-      <c r="E224" s="31" t="s">
+      <c r="D224" s="13"/>
+      <c r="E224" s="14" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5727,38 +5820,38 @@
         <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="226" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="29">
-        <v>1</v>
-      </c>
-      <c r="B226" s="29">
-        <v>1</v>
-      </c>
-      <c r="C226" s="29" t="s">
-        <v>419</v>
-      </c>
-      <c r="D226" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="E226" s="31" t="s">
+    <row r="226" spans="1:5" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="24">
+        <v>1</v>
+      </c>
+      <c r="B226" s="24">
+        <v>1</v>
+      </c>
+      <c r="C226" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="D226" s="37">
+        <v>1</v>
+      </c>
+      <c r="E226" s="23" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="227" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="9">
-        <v>1</v>
-      </c>
-      <c r="C227" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="D227" s="10"/>
-      <c r="E227" s="11" t="s">
+    <row r="227" spans="1:5" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="43">
+        <v>1</v>
+      </c>
+      <c r="C227" s="43" t="s">
+        <v>562</v>
+      </c>
+      <c r="D227" s="44"/>
+      <c r="E227" s="45" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5767,11 +5860,11 @@
         <v>1</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D228" s="13"/>
       <c r="E228" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="229" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -5797,9 +5890,9 @@
         <v>1</v>
       </c>
       <c r="C230" s="24" t="s">
-        <v>420</v>
-      </c>
-      <c r="D230" s="44">
+        <v>419</v>
+      </c>
+      <c r="D230" s="37">
         <v>1</v>
       </c>
       <c r="E230" s="23" t="s">
@@ -5810,12 +5903,12 @@
       <c r="A231" s="12">
         <v>1</v>
       </c>
-      <c r="C231" s="25" t="s">
-        <v>423</v>
+      <c r="C231" s="12" t="s">
+        <v>422</v>
       </c>
       <c r="D231" s="13"/>
-      <c r="E231" s="28" t="s">
-        <v>485</v>
+      <c r="E231" s="19" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -5826,7 +5919,7 @@
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>365</v>
@@ -5840,7 +5933,7 @@
         <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>332</v>
@@ -5854,7 +5947,7 @@
         <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>326</v>
@@ -5868,23 +5961,24 @@
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>1</v>
-      </c>
-      <c r="B236">
-        <v>1</v>
-      </c>
-      <c r="C236" t="s">
-        <v>428</v>
-      </c>
-      <c r="E236" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="43">
+        <v>1</v>
+      </c>
+      <c r="B236" s="43">
+        <v>1</v>
+      </c>
+      <c r="C236" s="43" t="s">
+        <v>574</v>
+      </c>
+      <c r="D236" s="44"/>
+      <c r="E236" s="45" t="s">
         <v>257</v>
       </c>
     </row>
@@ -5896,13 +5990,13 @@
         <v>1</v>
       </c>
       <c r="C237" s="24" t="s">
-        <v>429</v>
-      </c>
-      <c r="D237" s="44">
+        <v>428</v>
+      </c>
+      <c r="D237" s="37">
         <v>1</v>
       </c>
       <c r="E237" s="23" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="238" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5913,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="C238" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D238" s="13"/>
       <c r="E238" s="14" t="s">
@@ -5925,39 +6019,41 @@
         <v>1</v>
       </c>
       <c r="C239" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="D239" s="21"/>
+      <c r="E239" s="22" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="12">
+        <v>1</v>
+      </c>
+      <c r="B240" s="12">
+        <v>1</v>
+      </c>
+      <c r="C240" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="D239" s="21"/>
-      <c r="E239" s="22"/>
-    </row>
-    <row r="240" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="29">
-        <v>1</v>
-      </c>
-      <c r="B240" s="29">
-        <v>1</v>
-      </c>
-      <c r="C240" s="29" t="s">
-        <v>431</v>
-      </c>
-      <c r="D240" s="30"/>
-      <c r="E240" s="31" t="s">
+      <c r="D240" s="13"/>
+      <c r="E240" s="14" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="241" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="32">
-        <v>1</v>
-      </c>
-      <c r="B241" s="32">
+    <row r="241" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="43">
+        <v>1</v>
+      </c>
+      <c r="B241" s="43">
         <v>2</v>
       </c>
-      <c r="C241" s="32" t="s">
-        <v>431</v>
-      </c>
-      <c r="D241" s="33"/>
-      <c r="E241" s="34" t="s">
-        <v>515</v>
+      <c r="C241" s="43" t="s">
+        <v>576</v>
+      </c>
+      <c r="D241" s="44"/>
+      <c r="E241" s="45" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="242" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5968,11 +6064,11 @@
         <v>1</v>
       </c>
       <c r="C242" s="12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D242" s="13"/>
       <c r="E242" s="14" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -5983,13 +6079,13 @@
         <v>2</v>
       </c>
       <c r="C243" s="25" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E243" s="26" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -6000,10 +6096,10 @@
         <v>1</v>
       </c>
       <c r="C244" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -6011,13 +6107,13 @@
         <v>1</v>
       </c>
       <c r="C245" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F245" s="18" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -6025,7 +6121,7 @@
         <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>353</v>
@@ -6039,13 +6135,13 @@
         <v>1</v>
       </c>
       <c r="C247" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F247" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="248" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -6056,13 +6152,13 @@
         <v>1</v>
       </c>
       <c r="C248" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="D248" s="6">
+        <v>1</v>
+      </c>
+      <c r="E248" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="D248" s="6">
-        <v>1</v>
-      </c>
-      <c r="E248" s="7" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -6073,39 +6169,39 @@
         <v>1</v>
       </c>
       <c r="C249" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="D249" s="1">
+        <v>1</v>
+      </c>
+      <c r="E249" s="23" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="12">
+        <v>1</v>
+      </c>
+      <c r="C250" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="D249" s="1">
-        <v>1</v>
-      </c>
-      <c r="E249" s="23" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="29">
-        <v>1</v>
-      </c>
-      <c r="C250" s="29" t="s">
-        <v>438</v>
-      </c>
-      <c r="D250" s="30"/>
-      <c r="E250" s="31" t="s">
+      <c r="D250" s="13"/>
+      <c r="E250" s="14" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="251" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="29">
-        <v>1</v>
-      </c>
-      <c r="B251" s="29">
-        <v>1</v>
-      </c>
-      <c r="C251" s="29" t="s">
-        <v>473</v>
-      </c>
-      <c r="D251" s="30"/>
-      <c r="E251" s="31" t="s">
+    <row r="251" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="12">
+        <v>1</v>
+      </c>
+      <c r="B251" s="12">
+        <v>1</v>
+      </c>
+      <c r="C251" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="D251" s="13"/>
+      <c r="E251" s="14" t="s">
         <v>205</v>
       </c>
     </row>
@@ -6117,28 +6213,28 @@
         <v>1</v>
       </c>
       <c r="C252" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="D252" s="44">
+        <v>444</v>
+      </c>
+      <c r="D252" s="37">
         <v>1</v>
       </c>
       <c r="E252" s="23" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="20">
-        <v>1</v>
-      </c>
-      <c r="B253" s="20">
-        <v>1</v>
-      </c>
-      <c r="C253" s="20" t="s">
-        <v>439</v>
-      </c>
-      <c r="D253" s="21"/>
-      <c r="E253" s="22" t="s">
-        <v>521</v>
+        <v>517</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="12">
+        <v>1</v>
+      </c>
+      <c r="B253" s="12">
+        <v>1</v>
+      </c>
+      <c r="C253" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="D253" s="13"/>
+      <c r="E253" s="14" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="254" spans="1:6" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -6146,13 +6242,13 @@
         <v>1</v>
       </c>
       <c r="C254" s="24" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D254" s="13">
         <v>1</v>
       </c>
       <c r="E254" s="23" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="255" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -6160,7 +6256,7 @@
         <v>1</v>
       </c>
       <c r="C255" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D255" s="13"/>
       <c r="E255" s="14" t="s">
@@ -6172,7 +6268,7 @@
         <v>1</v>
       </c>
       <c r="C256" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>342</v>
@@ -6183,21 +6279,24 @@
         <v>1</v>
       </c>
       <c r="C257" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>1</v>
-      </c>
-      <c r="C258" t="s">
-        <v>450</v>
-      </c>
-      <c r="E258" s="2" t="s">
-        <v>516</v>
+    <row r="258" spans="1:6" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="24">
+        <v>1</v>
+      </c>
+      <c r="C258" s="24" t="s">
+        <v>556</v>
+      </c>
+      <c r="D258" s="37">
+        <v>1</v>
+      </c>
+      <c r="E258" s="23" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -6205,21 +6304,24 @@
         <v>1</v>
       </c>
       <c r="C259" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260">
-        <v>1</v>
-      </c>
-      <c r="C260" t="s">
-        <v>462</v>
-      </c>
-      <c r="E260" s="2" t="s">
-        <v>409</v>
+    <row r="260" spans="1:6" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="24">
+        <v>1</v>
+      </c>
+      <c r="C260" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="D260" s="37">
+        <v>1</v>
+      </c>
+      <c r="E260" s="23" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -6227,7 +6329,7 @@
         <v>1</v>
       </c>
       <c r="C261" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E261" s="2"/>
     </row>
@@ -6236,13 +6338,13 @@
         <v>1</v>
       </c>
       <c r="C262" s="24" t="s">
-        <v>542</v>
-      </c>
-      <c r="D262" s="44">
+        <v>539</v>
+      </c>
+      <c r="D262" s="37">
         <v>1</v>
       </c>
       <c r="E262" s="23" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -6250,73 +6352,64 @@
         <v>1</v>
       </c>
       <c r="C263" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264">
-        <v>1</v>
-      </c>
-      <c r="C264" t="s">
-        <v>533</v>
-      </c>
-      <c r="E264" s="2" t="s">
-        <v>288</v>
-      </c>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="20">
+        <v>1</v>
+      </c>
+      <c r="C264" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="D264" s="21"/>
+      <c r="E264" s="22"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>198</v>
+        <v>288</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1</v>
       </c>
-      <c r="C266" s="35" t="s">
-        <v>527</v>
-      </c>
-      <c r="E266" s="36" t="s">
-        <v>526</v>
+      <c r="C266" t="s">
+        <v>522</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1</v>
       </c>
-      <c r="B267">
-        <v>1</v>
-      </c>
-      <c r="C267" s="35" t="s">
-        <v>550</v>
-      </c>
-      <c r="E267" s="36" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268">
-        <v>1</v>
-      </c>
-      <c r="B268">
-        <v>1</v>
-      </c>
-      <c r="C268" t="s">
-        <v>191</v>
-      </c>
-      <c r="E268" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="F268" s="2"/>
+      <c r="C267" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="E267" s="29" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="20">
+        <v>1</v>
+      </c>
+      <c r="C268" s="41" t="s">
+        <v>558</v>
+      </c>
+      <c r="D268" s="21"/>
+      <c r="E268" s="42"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
@@ -6325,75 +6418,114 @@
       <c r="B269">
         <v>1</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C269" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="E269" s="29" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="20">
+        <v>1</v>
+      </c>
+      <c r="C270" s="41" t="s">
+        <v>559</v>
+      </c>
+      <c r="D270" s="21"/>
+      <c r="E270" s="42"/>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>1</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+      <c r="C271" t="s">
+        <v>191</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="F271" s="2"/>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>1</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+      <c r="C272" t="s">
         <v>190</v>
       </c>
-      <c r="E269" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="F269" s="2"/>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C270" t="s">
+      <c r="E272" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="F272" s="2"/>
+    </row>
+    <row r="273" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C273" t="s">
         <v>194</v>
       </c>
-      <c r="E270" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="F270" s="2"/>
-    </row>
-    <row r="271" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C271" s="5" t="s">
+      <c r="E273" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="F273" s="2"/>
+    </row>
+    <row r="274" spans="3:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C274" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D271" s="8">
-        <v>1</v>
-      </c>
-      <c r="E271" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="F271" s="7"/>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C272" t="s">
+      <c r="D274" s="8">
+        <v>1</v>
+      </c>
+      <c r="E274" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F274" s="7"/>
+    </row>
+    <row r="275" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C275" t="s">
         <v>335</v>
       </c>
-      <c r="E272" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="273" spans="3:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C273" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="D273" s="6">
-        <v>1</v>
-      </c>
-      <c r="E273" s="7" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="274" spans="3:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C274" s="5" t="s">
+      <c r="E275" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="276" spans="3:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C276" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="D276" s="6">
+        <v>1</v>
+      </c>
+      <c r="E276" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="277" spans="3:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C277" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="D274" s="6">
-        <v>1</v>
-      </c>
-      <c r="E274" s="7" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="275" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C275" t="s">
-        <v>540</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>541</v>
+      <c r="D277" s="6">
+        <v>1</v>
+      </c>
+      <c r="E277" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="278" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C278" t="s">
+        <v>537</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>538</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F274">
+  <autoFilter ref="A1:F277">
     <filterColumn colId="3">
       <filters blank="1"/>
     </filterColumn>
@@ -6518,7 +6650,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
@@ -6582,7 +6714,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
@@ -6630,7 +6762,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B27" t="s">
         <v>42</v>
@@ -6646,7 +6778,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>45</v>
@@ -6654,7 +6786,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>45</v>
@@ -6694,7 +6826,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B35" t="s">
         <v>49</v>
@@ -6770,7 +6902,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B45" t="s">
         <v>58</v>
@@ -6778,7 +6910,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B46" t="s">
         <v>59</v>
@@ -6810,10 +6942,10 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -6882,7 +7014,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B59" t="s">
         <v>69</v>
@@ -6890,7 +7022,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B60" t="s">
         <v>70</v>
@@ -6898,7 +7030,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B61" t="s">
         <v>71</v>
@@ -7000,7 +7132,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B74" t="s">
         <v>152</v>
@@ -7120,7 +7252,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B89" t="s">
         <v>99</v>
@@ -7224,7 +7356,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B102" t="s">
         <v>114</v>
@@ -7232,7 +7364,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B103" s="25" t="s">
         <v>114</v>
@@ -7241,7 +7373,7 @@
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -7254,7 +7386,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B106" t="s">
         <v>118</v>
@@ -7284,7 +7416,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B110" t="s">
         <v>120</v>
@@ -7300,7 +7432,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B112" t="s">
         <v>122</v>
@@ -7332,7 +7464,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B116" s="12" t="s">
         <v>130</v>
@@ -7380,7 +7512,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B122" t="s">
         <v>139</v>
@@ -7412,7 +7544,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B126" t="s">
         <v>145</v>
@@ -7452,7 +7584,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B131" t="s">
         <v>153</v>
@@ -7460,7 +7592,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B132" t="s">
         <v>154</v>
@@ -7468,7 +7600,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B133" t="s">
         <v>155</v>
@@ -7476,7 +7608,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B134" t="s">
         <v>157</v>
@@ -7484,7 +7616,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B135" t="s">
         <v>158</v>
@@ -7492,7 +7624,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B136" t="s">
         <v>159</v>
@@ -7524,7 +7656,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B140" t="s">
         <v>164</v>
@@ -7532,7 +7664,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B141" t="s">
         <v>165</v>
@@ -7556,7 +7688,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B144" t="s">
         <v>170</v>
@@ -7580,7 +7712,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B147" t="s">
         <v>174</v>
@@ -7588,7 +7720,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B148" t="s">
         <v>175</v>
@@ -7608,7 +7740,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B151" t="s">
         <v>177</v>
@@ -7616,7 +7748,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B152" t="s">
         <v>178</v>
@@ -7632,7 +7764,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B154" t="s">
         <v>180</v>
@@ -7640,7 +7772,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B155" t="s">
         <v>181</v>
@@ -7648,7 +7780,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B156" t="s">
         <v>182</v>
@@ -7656,7 +7788,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B157" t="s">
         <v>183</v>
@@ -7664,7 +7796,7 @@
     </row>
     <row r="158" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B158" t="s">
         <v>184</v>
@@ -7680,10 +7812,10 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -7699,7 +7831,7 @@
         <v>359</v>
       </c>
       <c r="B162" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -7707,7 +7839,7 @@
         <v>286</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -7715,7 +7847,7 @@
         <v>292</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -7723,23 +7855,23 @@
         <v>247</v>
       </c>
       <c r="B165" s="25" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B166" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B167" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -7747,7 +7879,7 @@
         <v>224</v>
       </c>
       <c r="B168" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -7755,7 +7887,7 @@
         <v>211</v>
       </c>
       <c r="B169" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -7763,21 +7895,21 @@
         <v>220</v>
       </c>
       <c r="B170" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="22"/>
       <c r="B171" s="20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -7785,7 +7917,7 @@
         <v>334</v>
       </c>
       <c r="B173" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -7793,7 +7925,7 @@
         <v>247</v>
       </c>
       <c r="B174" s="25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -7801,7 +7933,7 @@
         <v>365</v>
       </c>
       <c r="B175" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -7809,7 +7941,7 @@
         <v>332</v>
       </c>
       <c r="B176" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -7817,7 +7949,7 @@
         <v>326</v>
       </c>
       <c r="B177" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -7825,7 +7957,7 @@
         <v>330</v>
       </c>
       <c r="B178" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -7833,15 +7965,15 @@
         <v>257</v>
       </c>
       <c r="B179" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B180" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -7849,13 +7981,13 @@
         <v>312</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="22"/>
       <c r="B182" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -7863,7 +7995,7 @@
         <v>290</v>
       </c>
       <c r="B183" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -7871,39 +8003,39 @@
         <v>265</v>
       </c>
       <c r="B184" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B185" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B186" s="25" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B187" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B188" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -7911,15 +8043,15 @@
         <v>353</v>
       </c>
       <c r="B189" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B190" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -7927,7 +8059,7 @@
         <v>197</v>
       </c>
       <c r="B191" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -7935,7 +8067,7 @@
         <v>205</v>
       </c>
       <c r="B192" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -7943,15 +8075,15 @@
         <v>288</v>
       </c>
       <c r="B193" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="22" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B194" s="20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -7959,7 +8091,7 @@
         <v>319</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -7967,7 +8099,7 @@
         <v>342</v>
       </c>
       <c r="B196" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -7975,7 +8107,7 @@
         <v>351</v>
       </c>
       <c r="B197" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -7983,7 +8115,7 @@
         <v>285</v>
       </c>
       <c r="B198" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -7991,26 +8123,26 @@
         <v>293</v>
       </c>
       <c r="B199" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B200" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B202" t="s">
         <v>191</v>
@@ -8026,7 +8158,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B204" t="s">
         <v>194</v>
@@ -8034,7 +8166,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B205" t="s">
         <v>335</v>

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="567">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -1467,45 +1467,18 @@
     <t>380506302977;50 no</t>
   </si>
   <si>
-    <t>380204486391;80 дубль</t>
-  </si>
-  <si>
-    <t>380519943427;50 дубль</t>
-  </si>
-  <si>
     <t>380519944937;50 дубль</t>
   </si>
   <si>
     <t>WiFi</t>
   </si>
   <si>
-    <t>380519943427;50 141grn</t>
-  </si>
-  <si>
-    <t>380204432508;50  244hrn</t>
-  </si>
-  <si>
-    <t>380519948388;20 20grn</t>
-  </si>
-  <si>
-    <t>380519941274;50 610grn</t>
-  </si>
-  <si>
     <t>380519943697;50</t>
   </si>
   <si>
-    <t>380519948398;20 20hrn</t>
-  </si>
-  <si>
-    <t>380519940888;50 32hrn</t>
-  </si>
-  <si>
     <t>380519947482;20 51grn</t>
   </si>
   <si>
-    <t>380519943693;50 57hrn</t>
-  </si>
-  <si>
     <t>380985736452;75</t>
   </si>
   <si>
@@ -1515,57 +1488,12 @@
     <t xml:space="preserve">380684224133;75 </t>
   </si>
   <si>
-    <t>380519942585;50 10000MB</t>
-  </si>
-  <si>
-    <t>380519948387;20 111grn</t>
-  </si>
-  <si>
-    <t>380519947481;20 55grn</t>
-  </si>
-  <si>
-    <t>380519948395;20  91grn</t>
-  </si>
-  <si>
-    <t>380519940627;50 8781.5MB</t>
-  </si>
-  <si>
-    <t>380984291290;75 15grn</t>
-  </si>
-  <si>
-    <t>380519944939;50 8044MB</t>
-  </si>
-  <si>
-    <t>380519945403;50 не юзався</t>
-  </si>
-  <si>
     <t>380984292461;75</t>
   </si>
   <si>
-    <t xml:space="preserve">380204486391;80 13 grn </t>
-  </si>
-  <si>
-    <t>380204498151;80 10256MB</t>
-  </si>
-  <si>
-    <t>380519940972;50 34grn</t>
-  </si>
-  <si>
-    <t>380204471275;80 51grn</t>
-  </si>
-  <si>
-    <t>380519947478;20 21grn</t>
-  </si>
-  <si>
     <t>380519940945;50 140grn</t>
   </si>
   <si>
-    <t>380983389781;75 76grn</t>
-  </si>
-  <si>
-    <t>380519946244;50 50grn</t>
-  </si>
-  <si>
     <t>380519941270;50 50grn</t>
   </si>
   <si>
@@ -1602,21 +1530,12 @@
     <t>369 TT</t>
   </si>
   <si>
-    <t>380519940922;50 Замовив додатковий трафік за 40грн</t>
-  </si>
-  <si>
     <t>'380519945571;50  063 119 8247</t>
   </si>
   <si>
     <t>380631198247;115</t>
   </si>
   <si>
-    <t>380995501638;75 no 30,09,19</t>
-  </si>
-  <si>
-    <t>380632727254;50 no 30,09,19</t>
-  </si>
-  <si>
     <t>367 ТТ</t>
   </si>
   <si>
@@ -1671,15 +1590,9 @@
     <t>372 TT</t>
   </si>
   <si>
-    <t>'380519947480;20 91grn</t>
-  </si>
-  <si>
     <t>365 ТТ Камера</t>
   </si>
   <si>
-    <t>380519945343;111 є 50грн</t>
-  </si>
-  <si>
     <t>380519944938;44</t>
   </si>
   <si>
@@ -1689,9 +1602,6 @@
     <t>380519941600;111</t>
   </si>
   <si>
-    <t>380519942592;50 50grn</t>
-  </si>
-  <si>
     <t>Модем МХП</t>
   </si>
   <si>
@@ -1728,9 +1638,6 @@
     <t>100 КАМЕРА ДТ м. Київ, вул. Ш. Алейхема, 19</t>
   </si>
   <si>
-    <t>380519944940;111 10grn ok ok ok</t>
-  </si>
-  <si>
     <t>294 КАМЕРА ДТ Київ. обл, Бровар. р-н, с. Плоске, вул. Леніна, буд. № 1(077)</t>
   </si>
   <si>
@@ -1765,6 +1672,60 @@
   </si>
   <si>
     <t>201 КАМЕРА ДТ Київська обл., смт Макарів, вул. Фрунзе, 33</t>
+  </si>
+  <si>
+    <t>049  ДТ птт. Иванков, ул. Леси Украинки, 9А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">380519942585;50 </t>
+  </si>
+  <si>
+    <t>380519948387;20 70grn</t>
+  </si>
+  <si>
+    <t>380519943693;50 7hrn</t>
+  </si>
+  <si>
+    <t>380519941274;50 410grn</t>
+  </si>
+  <si>
+    <t>380519947481;20 35grn</t>
+  </si>
+  <si>
+    <t>380519948395;20  51grn</t>
+  </si>
+  <si>
+    <t>380519944940;111 10grn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">380984291290;75 </t>
+  </si>
+  <si>
+    <t>380519942592;50</t>
+  </si>
+  <si>
+    <t>380519940888;50</t>
+  </si>
+  <si>
+    <t>380519948398;20</t>
+  </si>
+  <si>
+    <t>380204498151;80</t>
+  </si>
+  <si>
+    <t>380519948388;20</t>
+  </si>
+  <si>
+    <t>380204432508;50  44hrn</t>
+  </si>
+  <si>
+    <t>380519943427;50 41grn</t>
+  </si>
+  <si>
+    <t>380519945343;111 50грн</t>
+  </si>
+  <si>
+    <t>'380519947480;20 51grn</t>
   </si>
 </sst>
 </file>
@@ -1865,7 +1826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1920,6 +1881,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2214,8 +2176,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141:XFD141"/>
+    <sheetView tabSelected="1" topLeftCell="D241" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E281" sqref="E281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2257,7 +2219,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>563</v>
+        <v>533</v>
       </c>
       <c r="D2" s="44"/>
       <c r="E2" s="45" t="s">
@@ -2292,7 +2254,7 @@
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="F4" s="14"/>
     </row>
@@ -2606,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="H23" s="23"/>
     </row>
@@ -2734,7 +2696,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>572</v>
+        <v>541</v>
       </c>
       <c r="D31" s="44"/>
       <c r="E31" s="45" t="s">
@@ -2853,7 +2815,7 @@
         <v>35</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="F38" s="2"/>
     </row>
@@ -2868,41 +2830,41 @@
         <v>36</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="43">
-        <v>1</v>
-      </c>
-      <c r="B40" s="43">
-        <v>1</v>
-      </c>
-      <c r="C40" s="43" t="s">
-        <v>571</v>
-      </c>
-      <c r="D40" s="44"/>
-      <c r="E40" s="45" t="s">
+    <row r="40" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
+        <v>1</v>
+      </c>
+      <c r="B40" s="12">
+        <v>1</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="F40" s="45"/>
-    </row>
-    <row r="41" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12">
-        <v>1</v>
-      </c>
-      <c r="B41" s="12">
+      <c r="F40" s="14"/>
+    </row>
+    <row r="41" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="43">
+        <v>1</v>
+      </c>
+      <c r="B41" s="43">
         <v>2</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="14" t="s">
-        <v>496</v>
-      </c>
-      <c r="F41" s="14"/>
+      <c r="C41" s="43" t="s">
+        <v>540</v>
+      </c>
+      <c r="D41" s="44"/>
+      <c r="E41" s="45" t="s">
+        <v>550</v>
+      </c>
+      <c r="F41" s="45"/>
     </row>
     <row r="42" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
@@ -2934,7 +2896,7 @@
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="2" t="s">
-        <v>534</v>
+        <v>507</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -2962,7 +2924,7 @@
         <v>41</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>497</v>
+        <v>551</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -3026,7 +2988,7 @@
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="11" t="s">
-        <v>492</v>
+        <v>552</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3053,7 +3015,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="D51" s="39"/>
       <c r="E51" s="40" t="s">
@@ -3120,7 +3082,7 @@
         <v>49</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="F55" s="2"/>
     </row>
@@ -3150,7 +3112,7 @@
         <v>51</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>487</v>
+        <v>553</v>
       </c>
       <c r="F57" s="2"/>
     </row>
@@ -3162,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="43" t="s">
-        <v>570</v>
+        <v>539</v>
       </c>
       <c r="D58" s="44"/>
       <c r="E58" s="45" t="s">
@@ -3254,7 +3216,7 @@
         <v>56</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="J64" s="2"/>
     </row>
@@ -3287,7 +3249,7 @@
         <v>1</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -3301,7 +3263,7 @@
         <v>59</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>499</v>
+        <v>555</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3347,10 +3309,10 @@
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="14" t="s">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3367,7 +3329,7 @@
         <v>240</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>536</v>
+        <v>509</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3400,7 +3362,7 @@
         <v>1</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>541</v>
+        <v>514</v>
       </c>
       <c r="F73" s="23"/>
     </row>
@@ -3412,11 +3374,11 @@
         <v>2</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>543</v>
+        <v>516</v>
       </c>
       <c r="D74" s="10"/>
       <c r="E74" s="11" t="s">
-        <v>542</v>
+        <v>515</v>
       </c>
       <c r="F74" s="11"/>
     </row>
@@ -3459,11 +3421,11 @@
         <v>1</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>566</v>
+        <v>536</v>
       </c>
       <c r="D77" s="44"/>
       <c r="E77" s="45" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="F77" s="45"/>
     </row>
@@ -3525,7 +3487,7 @@
         <v>69</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>501</v>
+        <v>557</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3583,11 +3545,11 @@
         <v>1</v>
       </c>
       <c r="C85" s="43" t="s">
-        <v>565</v>
+        <v>535</v>
       </c>
       <c r="D85" s="44"/>
       <c r="E85" s="45" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="F85" s="45"/>
     </row>
@@ -3760,7 +3722,7 @@
         <v>83</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>551</v>
+        <v>522</v>
       </c>
       <c r="G96" s="2"/>
     </row>
@@ -3860,11 +3822,11 @@
         <v>1</v>
       </c>
       <c r="C103" s="43" t="s">
-        <v>564</v>
+        <v>534</v>
       </c>
       <c r="D103" s="44"/>
       <c r="E103" s="45" t="s">
-        <v>525</v>
+        <v>268</v>
       </c>
       <c r="F103" s="45"/>
     </row>
@@ -3896,7 +3858,7 @@
         <v>89</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
       <c r="F105" s="2"/>
     </row>
@@ -3913,7 +3875,7 @@
       </c>
       <c r="E106" s="32"/>
       <c r="F106" s="32" t="s">
-        <v>532</v>
+        <v>505</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3961,7 +3923,7 @@
       </c>
       <c r="D109" s="13"/>
       <c r="E109" s="14" t="s">
-        <v>502</v>
+        <v>279</v>
       </c>
       <c r="F109" s="14"/>
     </row>
@@ -4118,7 +4080,7 @@
       </c>
       <c r="D119" s="13"/>
       <c r="E119" s="14" t="s">
-        <v>503</v>
+        <v>299</v>
       </c>
       <c r="F119" s="14"/>
     </row>
@@ -4282,7 +4244,7 @@
         <v>1</v>
       </c>
       <c r="E129" s="23" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -4323,11 +4285,11 @@
         <v>1</v>
       </c>
       <c r="C132" s="43" t="s">
-        <v>577</v>
+        <v>546</v>
       </c>
       <c r="D132" s="44"/>
       <c r="E132" s="45" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="F132" s="45"/>
       <c r="H132" s="45"/>
@@ -4344,7 +4306,7 @@
       </c>
       <c r="D133" s="13"/>
       <c r="E133" s="14" t="s">
-        <v>505</v>
+        <v>388</v>
       </c>
       <c r="F133" s="14" t="s">
         <v>450</v>
@@ -4427,7 +4389,7 @@
         <v>118</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>490</v>
+        <v>559</v>
       </c>
       <c r="J138" s="2"/>
     </row>
@@ -4466,7 +4428,7 @@
         <v>1</v>
       </c>
       <c r="C141" s="43" t="s">
-        <v>579</v>
+        <v>548</v>
       </c>
       <c r="D141" s="44"/>
       <c r="E141" s="45" t="s">
@@ -4707,11 +4669,11 @@
         <v>1</v>
       </c>
       <c r="C156" s="43" t="s">
-        <v>573</v>
+        <v>542</v>
       </c>
       <c r="D156" s="44"/>
       <c r="E156" s="45" t="s">
-        <v>553</v>
+        <v>524</v>
       </c>
       <c r="F156" s="45"/>
     </row>
@@ -4839,7 +4801,7 @@
         <v>1</v>
       </c>
       <c r="C164" s="43" t="s">
-        <v>569</v>
+        <v>538</v>
       </c>
       <c r="D164" s="44"/>
       <c r="E164" s="45" t="s">
@@ -4924,10 +4886,10 @@
         <v>144</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>527</v>
+        <v>502</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>526</v>
+        <v>501</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -4941,7 +4903,7 @@
         <v>145</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>489</v>
+        <v>560</v>
       </c>
     </row>
     <row r="171" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -5053,7 +5015,7 @@
         <v>153</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>254</v>
@@ -5082,11 +5044,11 @@
         <v>1</v>
       </c>
       <c r="C179" s="43" t="s">
-        <v>575</v>
+        <v>544</v>
       </c>
       <c r="D179" s="44"/>
       <c r="E179" s="45" t="s">
-        <v>506</v>
+        <v>561</v>
       </c>
     </row>
     <row r="180" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -5118,7 +5080,7 @@
         <v>157</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>507</v>
+        <v>406</v>
       </c>
       <c r="F181" s="2"/>
     </row>
@@ -5134,7 +5096,7 @@
       </c>
       <c r="D182" s="4"/>
       <c r="E182" s="2" t="s">
-        <v>552</v>
+        <v>523</v>
       </c>
       <c r="F182" t="s">
         <v>454</v>
@@ -5154,7 +5116,7 @@
         <v>159</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>508</v>
+        <v>384</v>
       </c>
       <c r="F183" s="2"/>
     </row>
@@ -5233,7 +5195,7 @@
         <v>164</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>487</v>
+        <v>553</v>
       </c>
       <c r="F188" s="2"/>
     </row>
@@ -5248,7 +5210,7 @@
         <v>165</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>486</v>
+        <v>562</v>
       </c>
       <c r="L189" s="2"/>
     </row>
@@ -5363,7 +5325,7 @@
         <v>172</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>533</v>
+        <v>506</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>363</v>
@@ -5396,7 +5358,7 @@
         <v>174</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>528</v>
+        <v>371</v>
       </c>
       <c r="F198" s="2"/>
     </row>
@@ -5412,7 +5374,7 @@
       </c>
       <c r="D199" s="13"/>
       <c r="E199" s="14" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="F199" s="14"/>
     </row>
@@ -5424,11 +5386,11 @@
         <v>1</v>
       </c>
       <c r="C200" s="43" t="s">
-        <v>578</v>
+        <v>547</v>
       </c>
       <c r="D200" s="47"/>
       <c r="E200" s="45" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F200" s="45"/>
     </row>
@@ -5444,7 +5406,7 @@
       </c>
       <c r="D201" s="4"/>
       <c r="E201" s="14" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -5458,7 +5420,7 @@
         <v>177</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>509</v>
+        <v>392</v>
       </c>
       <c r="F202" s="2"/>
     </row>
@@ -5473,7 +5435,7 @@
         <v>178</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>545</v>
+        <v>518</v>
       </c>
       <c r="F203" s="2"/>
     </row>
@@ -5559,7 +5521,7 @@
         <v>183</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>485</v>
+        <v>563</v>
       </c>
     </row>
     <row r="209" spans="1:7" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5570,7 +5532,7 @@
         <v>1</v>
       </c>
       <c r="C209" s="43" t="s">
-        <v>568</v>
+        <v>537</v>
       </c>
       <c r="D209" s="44"/>
       <c r="E209" s="46" t="s">
@@ -5634,7 +5596,7 @@
         <v>1</v>
       </c>
       <c r="C213" s="43" t="s">
-        <v>561</v>
+        <v>531</v>
       </c>
       <c r="D213" s="44"/>
       <c r="E213" s="45" t="s">
@@ -5704,7 +5666,7 @@
         <v>1</v>
       </c>
       <c r="E217" s="23" t="s">
-        <v>510</v>
+        <v>488</v>
       </c>
     </row>
     <row r="218" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -5766,7 +5728,7 @@
       </c>
       <c r="D221" s="27"/>
       <c r="E221" s="26" t="s">
-        <v>481</v>
+        <v>564</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -5794,7 +5756,7 @@
         <v>415</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>511</v>
+        <v>374</v>
       </c>
     </row>
     <row r="224" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5848,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="C227" s="43" t="s">
-        <v>562</v>
+        <v>532</v>
       </c>
       <c r="D227" s="44"/>
       <c r="E227" s="45" t="s">
@@ -5899,17 +5861,15 @@
         <v>334</v>
       </c>
     </row>
-    <row r="231" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="12">
-        <v>1</v>
-      </c>
-      <c r="C231" s="12" t="s">
+    <row r="231" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="20">
+        <v>1</v>
+      </c>
+      <c r="C231" s="20" t="s">
         <v>422</v>
       </c>
-      <c r="D231" s="13"/>
-      <c r="E231" s="19" t="s">
-        <v>484</v>
-      </c>
+      <c r="D231" s="21"/>
+      <c r="E231" s="48"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
@@ -5964,7 +5924,7 @@
         <v>426</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>512</v>
+        <v>330</v>
       </c>
     </row>
     <row r="236" spans="1:5" s="43" customFormat="1" x14ac:dyDescent="0.25">
@@ -5975,7 +5935,7 @@
         <v>1</v>
       </c>
       <c r="C236" s="43" t="s">
-        <v>574</v>
+        <v>543</v>
       </c>
       <c r="D236" s="44"/>
       <c r="E236" s="45" t="s">
@@ -6023,7 +5983,7 @@
       </c>
       <c r="D239" s="21"/>
       <c r="E239" s="22" t="s">
-        <v>555</v>
+        <v>525</v>
       </c>
     </row>
     <row r="240" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -6049,7 +6009,7 @@
         <v>2</v>
       </c>
       <c r="C241" s="43" t="s">
-        <v>576</v>
+        <v>545</v>
       </c>
       <c r="D241" s="44"/>
       <c r="E241" s="45" t="s">
@@ -6068,7 +6028,7 @@
       </c>
       <c r="D242" s="13"/>
       <c r="E242" s="14" t="s">
-        <v>546</v>
+        <v>519</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -6082,11 +6042,9 @@
         <v>431</v>
       </c>
       <c r="E243" s="26" t="s">
-        <v>483</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>480</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="F243" s="2"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
@@ -6110,10 +6068,10 @@
         <v>433</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>535</v>
+        <v>508</v>
       </c>
       <c r="F245" s="18" t="s">
-        <v>521</v>
+        <v>497</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -6138,7 +6096,7 @@
         <v>435</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>529</v>
+        <v>404</v>
       </c>
       <c r="F247" t="s">
         <v>405</v>
@@ -6219,7 +6177,7 @@
         <v>1</v>
       </c>
       <c r="E252" s="23" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="253" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -6234,7 +6192,7 @@
       </c>
       <c r="D253" s="13"/>
       <c r="E253" s="14" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
     </row>
     <row r="254" spans="1:6" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -6290,13 +6248,13 @@
         <v>1</v>
       </c>
       <c r="C258" s="24" t="s">
-        <v>556</v>
+        <v>526</v>
       </c>
       <c r="D258" s="37">
         <v>1</v>
       </c>
       <c r="E258" s="23" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -6338,13 +6296,13 @@
         <v>1</v>
       </c>
       <c r="C262" s="24" t="s">
-        <v>539</v>
+        <v>512</v>
       </c>
       <c r="D262" s="37">
         <v>1</v>
       </c>
       <c r="E262" s="23" t="s">
-        <v>540</v>
+        <v>513</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -6352,10 +6310,10 @@
         <v>1</v>
       </c>
       <c r="C263" t="s">
-        <v>549</v>
+        <v>521</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
     </row>
     <row r="264" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -6363,7 +6321,7 @@
         <v>1</v>
       </c>
       <c r="C264" s="20" t="s">
-        <v>557</v>
+        <v>527</v>
       </c>
       <c r="D264" s="21"/>
       <c r="E264" s="22"/>
@@ -6373,7 +6331,7 @@
         <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>530</v>
+        <v>503</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>288</v>
@@ -6384,7 +6342,7 @@
         <v>1</v>
       </c>
       <c r="C266" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>198</v>
@@ -6395,10 +6353,10 @@
         <v>1</v>
       </c>
       <c r="C267" s="28" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="E267" s="29" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
     </row>
     <row r="268" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -6406,7 +6364,7 @@
         <v>1</v>
       </c>
       <c r="C268" s="41" t="s">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="D268" s="21"/>
       <c r="E268" s="42"/>
@@ -6419,10 +6377,10 @@
         <v>1</v>
       </c>
       <c r="C269" s="28" t="s">
-        <v>547</v>
+        <v>520</v>
       </c>
       <c r="E269" s="29" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
     </row>
     <row r="270" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -6430,7 +6388,7 @@
         <v>1</v>
       </c>
       <c r="C270" s="41" t="s">
-        <v>559</v>
+        <v>529</v>
       </c>
       <c r="D270" s="21"/>
       <c r="E270" s="42"/>
@@ -6461,7 +6419,7 @@
         <v>190</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>544</v>
+        <v>517</v>
       </c>
       <c r="F272" s="2"/>
     </row>
@@ -6491,7 +6449,7 @@
         <v>335</v>
       </c>
       <c r="E275" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
     </row>
     <row r="276" spans="3:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -6518,10 +6476,10 @@
     </row>
     <row r="278" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C278" t="s">
-        <v>537</v>
+        <v>510</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>538</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="566">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -1551,9 +1551,6 @@
     <t>380639378234;175</t>
   </si>
   <si>
-    <t>Номер абонента: 30913 Тариф: 320грн</t>
-  </si>
-  <si>
     <t xml:space="preserve">  '380986046075;100</t>
   </si>
   <si>
@@ -1680,24 +1677,6 @@
     <t xml:space="preserve">380519942585;50 </t>
   </si>
   <si>
-    <t>380519948387;20 70grn</t>
-  </si>
-  <si>
-    <t>380519943693;50 7hrn</t>
-  </si>
-  <si>
-    <t>380519941274;50 410grn</t>
-  </si>
-  <si>
-    <t>380519947481;20 35grn</t>
-  </si>
-  <si>
-    <t>380519948395;20  51grn</t>
-  </si>
-  <si>
-    <t>380519944940;111 10grn</t>
-  </si>
-  <si>
     <t xml:space="preserve">380984291290;75 </t>
   </si>
   <si>
@@ -1716,16 +1695,34 @@
     <t>380519948388;20</t>
   </si>
   <si>
-    <t>380204432508;50  44hrn</t>
-  </si>
-  <si>
-    <t>380519943427;50 41grn</t>
-  </si>
-  <si>
-    <t>380519945343;111 50грн</t>
-  </si>
-  <si>
-    <t>'380519947480;20 51grn</t>
+    <t>Бестлайн Номер абонента: 30913 Тариф: 320грн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">380204432508;50 </t>
+  </si>
+  <si>
+    <t>380519941274;50 360grn</t>
+  </si>
+  <si>
+    <t>'380519947480;20 31grn</t>
+  </si>
+  <si>
+    <t>380519945343;111</t>
+  </si>
+  <si>
+    <t>380519944940;111</t>
+  </si>
+  <si>
+    <t>380519948395;20  31grn</t>
+  </si>
+  <si>
+    <t>380519947481;20 15grn</t>
+  </si>
+  <si>
+    <t>380519943693;50</t>
+  </si>
+  <si>
+    <t>380519948387;20 50grn</t>
   </si>
 </sst>
 </file>
@@ -2176,8 +2173,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D241" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E281" sqref="E281"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2219,7 +2216,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D2" s="44"/>
       <c r="E2" s="45" t="s">
@@ -2696,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D31" s="44"/>
       <c r="E31" s="45" t="s">
@@ -2842,7 +2839,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="14" t="s">
@@ -2858,11 +2855,11 @@
         <v>2</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D41" s="44"/>
       <c r="E41" s="45" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F41" s="45"/>
     </row>
@@ -2924,7 +2921,7 @@
         <v>41</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2988,7 +2985,7 @@
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="11" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3015,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D51" s="39"/>
       <c r="E51" s="40" t="s">
@@ -3112,7 +3109,7 @@
         <v>51</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="F57" s="2"/>
     </row>
@@ -3124,7 +3121,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="43" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D58" s="44"/>
       <c r="E58" s="45" t="s">
@@ -3216,7 +3213,7 @@
         <v>56</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="J64" s="2"/>
     </row>
@@ -3263,7 +3260,7 @@
         <v>59</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3329,7 +3326,7 @@
         <v>240</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3362,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F73" s="23"/>
     </row>
@@ -3374,11 +3371,11 @@
         <v>2</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D74" s="10"/>
       <c r="E74" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F74" s="11"/>
     </row>
@@ -3421,11 +3418,11 @@
         <v>1</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D77" s="44"/>
       <c r="E77" s="45" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="F77" s="45"/>
     </row>
@@ -3487,7 +3484,7 @@
         <v>69</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3545,11 +3542,11 @@
         <v>1</v>
       </c>
       <c r="C85" s="43" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D85" s="44"/>
       <c r="E85" s="45" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="F85" s="45"/>
     </row>
@@ -3722,7 +3719,7 @@
         <v>83</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G96" s="2"/>
     </row>
@@ -3822,7 +3819,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="43" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D103" s="44"/>
       <c r="E103" s="45" t="s">
@@ -4285,7 +4282,7 @@
         <v>1</v>
       </c>
       <c r="C132" s="43" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D132" s="44"/>
       <c r="E132" s="45" t="s">
@@ -4389,7 +4386,7 @@
         <v>118</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="J138" s="2"/>
     </row>
@@ -4428,7 +4425,7 @@
         <v>1</v>
       </c>
       <c r="C141" s="43" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D141" s="44"/>
       <c r="E141" s="45" t="s">
@@ -4669,11 +4666,11 @@
         <v>1</v>
       </c>
       <c r="C156" s="43" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D156" s="44"/>
       <c r="E156" s="45" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F156" s="45"/>
     </row>
@@ -4801,7 +4798,7 @@
         <v>1</v>
       </c>
       <c r="C164" s="43" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D164" s="44"/>
       <c r="E164" s="45" t="s">
@@ -4903,7 +4900,7 @@
         <v>145</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="171" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -5044,11 +5041,11 @@
         <v>1</v>
       </c>
       <c r="C179" s="43" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D179" s="44"/>
       <c r="E179" s="45" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="180" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -5096,7 +5093,7 @@
       </c>
       <c r="D182" s="4"/>
       <c r="E182" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F182" t="s">
         <v>454</v>
@@ -5195,7 +5192,7 @@
         <v>164</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="F188" s="2"/>
     </row>
@@ -5210,7 +5207,7 @@
         <v>165</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="L189" s="2"/>
     </row>
@@ -5386,7 +5383,7 @@
         <v>1</v>
       </c>
       <c r="C200" s="43" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D200" s="47"/>
       <c r="E200" s="45" t="s">
@@ -5435,7 +5432,7 @@
         <v>178</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F203" s="2"/>
     </row>
@@ -5521,7 +5518,7 @@
         <v>183</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="209" spans="1:7" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5532,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="C209" s="43" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D209" s="44"/>
       <c r="E209" s="46" t="s">
@@ -5596,7 +5593,7 @@
         <v>1</v>
       </c>
       <c r="C213" s="43" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D213" s="44"/>
       <c r="E213" s="45" t="s">
@@ -5728,7 +5725,7 @@
       </c>
       <c r="D221" s="27"/>
       <c r="E221" s="26" t="s">
-        <v>564</v>
+        <v>247</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -5810,7 +5807,7 @@
         <v>1</v>
       </c>
       <c r="C227" s="43" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D227" s="44"/>
       <c r="E227" s="45" t="s">
@@ -5935,7 +5932,7 @@
         <v>1</v>
       </c>
       <c r="C236" s="43" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D236" s="44"/>
       <c r="E236" s="45" t="s">
@@ -5983,7 +5980,7 @@
       </c>
       <c r="D239" s="21"/>
       <c r="E239" s="22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="240" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -6009,7 +6006,7 @@
         <v>2</v>
       </c>
       <c r="C241" s="43" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D241" s="44"/>
       <c r="E241" s="45" t="s">
@@ -6028,7 +6025,7 @@
       </c>
       <c r="D242" s="13"/>
       <c r="E242" s="14" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -6068,7 +6065,7 @@
         <v>433</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>508</v>
+        <v>556</v>
       </c>
       <c r="F245" s="18" t="s">
         <v>497</v>
@@ -6248,7 +6245,7 @@
         <v>1</v>
       </c>
       <c r="C258" s="24" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D258" s="37">
         <v>1</v>
@@ -6296,13 +6293,13 @@
         <v>1</v>
       </c>
       <c r="C262" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="D262" s="37">
+        <v>1</v>
+      </c>
+      <c r="E262" s="23" t="s">
         <v>512</v>
-      </c>
-      <c r="D262" s="37">
-        <v>1</v>
-      </c>
-      <c r="E262" s="23" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -6310,10 +6307,10 @@
         <v>1</v>
       </c>
       <c r="C263" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="264" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -6321,7 +6318,7 @@
         <v>1</v>
       </c>
       <c r="C264" s="20" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D264" s="21"/>
       <c r="E264" s="22"/>
@@ -6364,7 +6361,7 @@
         <v>1</v>
       </c>
       <c r="C268" s="41" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D268" s="21"/>
       <c r="E268" s="42"/>
@@ -6377,10 +6374,10 @@
         <v>1</v>
       </c>
       <c r="C269" s="28" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E269" s="29" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="270" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -6388,7 +6385,7 @@
         <v>1</v>
       </c>
       <c r="C270" s="41" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D270" s="21"/>
       <c r="E270" s="42"/>
@@ -6419,7 +6416,7 @@
         <v>190</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F272" s="2"/>
     </row>
@@ -6476,10 +6473,10 @@
     </row>
     <row r="278" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C278" t="s">
+        <v>509</v>
+      </c>
+      <c r="E278" s="2" t="s">
         <v>510</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>511</v>
       </c>
     </row>
   </sheetData>

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="566">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -1704,9 +1704,6 @@
     <t>380519941274;50 360grn</t>
   </si>
   <si>
-    <t>'380519947480;20 31grn</t>
-  </si>
-  <si>
     <t>380519945343;111</t>
   </si>
   <si>
@@ -1723,6 +1720,9 @@
   </si>
   <si>
     <t>380519948387;20 50grn</t>
+  </si>
+  <si>
+    <t>380519947480;20 31grn</t>
   </si>
 </sst>
 </file>
@@ -2173,8 +2173,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O278"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A256" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D271" sqref="D271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2921,7 +2921,7 @@
         <v>41</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3213,7 +3213,7 @@
         <v>56</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J64" s="2"/>
     </row>
@@ -3260,7 +3260,7 @@
         <v>59</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="D77" s="44"/>
       <c r="E77" s="45" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F77" s="45"/>
     </row>
@@ -6310,7 +6310,7 @@
         <v>520</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="264" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -6364,7 +6364,9 @@
         <v>527</v>
       </c>
       <c r="D268" s="21"/>
-      <c r="E268" s="42"/>
+      <c r="E268" s="42" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
@@ -6377,7 +6379,7 @@
         <v>519</v>
       </c>
       <c r="E269" s="29" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="270" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="572">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -1530,12 +1530,6 @@
     <t>369 TT</t>
   </si>
   <si>
-    <t>'380519945571;50  063 119 8247</t>
-  </si>
-  <si>
-    <t>380631198247;115</t>
-  </si>
-  <si>
     <t>367 ТТ</t>
   </si>
   <si>
@@ -1572,9 +1566,6 @@
     <t>380639426654;75</t>
   </si>
   <si>
-    <t>094 каса 2</t>
-  </si>
-  <si>
     <t>380519945343;50 ніт wifi</t>
   </si>
   <si>
@@ -1593,9 +1584,6 @@
     <t>380519944938;44</t>
   </si>
   <si>
-    <t>380984206369;75 27.01.2020</t>
-  </si>
-  <si>
     <t>380519941600;111</t>
   </si>
   <si>
@@ -1680,9 +1668,6 @@
     <t xml:space="preserve">380984291290;75 </t>
   </si>
   <si>
-    <t>380519942592;50</t>
-  </si>
-  <si>
     <t>380519940888;50</t>
   </si>
   <si>
@@ -1723,6 +1708,39 @@
   </si>
   <si>
     <t>380519947480;20 31grn</t>
+  </si>
+  <si>
+    <t>094 каса ДТ м. Ніжин, вул. Московська,1, р-к Центральний</t>
+  </si>
+  <si>
+    <t>380204451801;80 no</t>
+  </si>
+  <si>
+    <t>380519948397;50</t>
+  </si>
+  <si>
+    <t>380519948883;49 off</t>
+  </si>
+  <si>
+    <t>380993071612;90</t>
+  </si>
+  <si>
+    <t>380955132136;90</t>
+  </si>
+  <si>
+    <t>380204471288;111</t>
+  </si>
+  <si>
+    <t>380519942592;111</t>
+  </si>
+  <si>
+    <t>380519948883;50</t>
+  </si>
+  <si>
+    <t>380968013845;75 :)</t>
+  </si>
+  <si>
+    <t>380984206369;75 :)</t>
   </si>
 </sst>
 </file>
@@ -1732,7 +1750,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1750,6 +1768,13 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1823,7 +1848,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1879,6 +1904,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2173,8 +2201,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D271" sqref="D271"/>
+    <sheetView tabSelected="1" topLeftCell="D169" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E182" sqref="E182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2216,7 +2244,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D2" s="44"/>
       <c r="E2" s="45" t="s">
@@ -2693,7 +2721,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D31" s="44"/>
       <c r="E31" s="45" t="s">
@@ -2839,7 +2867,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="14" t="s">
@@ -2855,11 +2883,11 @@
         <v>2</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D41" s="44"/>
       <c r="E41" s="45" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F41" s="45"/>
     </row>
@@ -2893,7 +2921,7 @@
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -2921,7 +2949,7 @@
         <v>41</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2985,7 +3013,7 @@
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="11" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3012,7 +3040,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D51" s="39"/>
       <c r="E51" s="40" t="s">
@@ -3109,7 +3137,7 @@
         <v>51</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="F57" s="2"/>
     </row>
@@ -3121,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="43" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D58" s="44"/>
       <c r="E58" s="45" t="s">
@@ -3161,18 +3189,20 @@
         <v>354</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="20">
-        <v>1</v>
-      </c>
-      <c r="B61" s="20">
-        <v>1</v>
-      </c>
-      <c r="C61" s="20" t="s">
+    <row r="61" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="12">
+        <v>1</v>
+      </c>
+      <c r="B61" s="12">
+        <v>1</v>
+      </c>
+      <c r="C61" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="D61" s="21"/>
-      <c r="E61" s="22"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="14" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
@@ -3213,7 +3243,7 @@
         <v>56</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="J64" s="2"/>
     </row>
@@ -3260,7 +3290,7 @@
         <v>59</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3278,21 +3308,21 @@
       </c>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="9">
-        <v>1</v>
-      </c>
-      <c r="B69" s="9">
-        <v>1</v>
-      </c>
-      <c r="C69" s="9" t="s">
+    <row r="69" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="49">
+        <v>1</v>
+      </c>
+      <c r="B69" s="49">
+        <v>1</v>
+      </c>
+      <c r="C69" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="D69" s="10"/>
-      <c r="E69" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="F69" s="11"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="51" t="s">
+        <v>564</v>
+      </c>
+      <c r="F69" s="51"/>
     </row>
     <row r="70" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
@@ -3326,24 +3356,24 @@
         <v>240</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="9">
-        <v>1</v>
-      </c>
-      <c r="B72" s="9">
-        <v>1</v>
-      </c>
-      <c r="C72" s="9" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="49">
+        <v>1</v>
+      </c>
+      <c r="B72" s="49">
+        <v>1</v>
+      </c>
+      <c r="C72" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="D72" s="10"/>
-      <c r="E72" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="F72" s="11"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="51" t="s">
+        <v>562</v>
+      </c>
+      <c r="F72" s="51"/>
     </row>
     <row r="73" spans="1:8" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
@@ -3359,7 +3389,7 @@
         <v>1</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F73" s="23"/>
     </row>
@@ -3371,11 +3401,11 @@
         <v>2</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>515</v>
+        <v>561</v>
       </c>
       <c r="D74" s="10"/>
       <c r="E74" s="11" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F74" s="11"/>
     </row>
@@ -3418,11 +3448,11 @@
         <v>1</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D77" s="44"/>
       <c r="E77" s="45" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F77" s="45"/>
     </row>
@@ -3484,7 +3514,7 @@
         <v>69</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3542,11 +3572,11 @@
         <v>1</v>
       </c>
       <c r="C85" s="43" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D85" s="44"/>
       <c r="E85" s="45" t="s">
-        <v>551</v>
+        <v>568</v>
       </c>
       <c r="F85" s="45"/>
     </row>
@@ -3719,7 +3749,7 @@
         <v>83</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G96" s="2"/>
     </row>
@@ -3819,7 +3849,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="43" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D103" s="44"/>
       <c r="E103" s="45" t="s">
@@ -3855,7 +3885,7 @@
         <v>89</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F105" s="2"/>
     </row>
@@ -3872,7 +3902,7 @@
       </c>
       <c r="E106" s="32"/>
       <c r="F106" s="32" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -4061,7 +4091,7 @@
         <v>100</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>280</v>
+        <v>376</v>
       </c>
       <c r="F118" s="2"/>
     </row>
@@ -4282,7 +4312,7 @@
         <v>1</v>
       </c>
       <c r="C132" s="43" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D132" s="44"/>
       <c r="E132" s="45" t="s">
@@ -4386,7 +4416,7 @@
         <v>118</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="J138" s="2"/>
     </row>
@@ -4425,11 +4455,11 @@
         <v>1</v>
       </c>
       <c r="C141" s="43" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D141" s="44"/>
       <c r="E141" s="45" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="F141" s="45"/>
     </row>
@@ -4666,11 +4696,11 @@
         <v>1</v>
       </c>
       <c r="C156" s="43" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D156" s="44"/>
       <c r="E156" s="45" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F156" s="45"/>
     </row>
@@ -4798,7 +4828,7 @@
         <v>1</v>
       </c>
       <c r="C164" s="43" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D164" s="44"/>
       <c r="E164" s="45" t="s">
@@ -4883,11 +4913,9 @@
         <v>144</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>501</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="F169" s="2"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
@@ -4900,7 +4928,7 @@
         <v>145</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="171" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -5041,11 +5069,11 @@
         <v>1</v>
       </c>
       <c r="C179" s="43" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D179" s="44"/>
       <c r="E179" s="45" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="180" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -5093,7 +5121,7 @@
       </c>
       <c r="D182" s="4"/>
       <c r="E182" s="2" t="s">
-        <v>522</v>
+        <v>571</v>
       </c>
       <c r="F182" t="s">
         <v>454</v>
@@ -5192,7 +5220,7 @@
         <v>164</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="F188" s="2"/>
     </row>
@@ -5207,7 +5235,7 @@
         <v>165</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="L189" s="2"/>
     </row>
@@ -5322,7 +5350,7 @@
         <v>172</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>363</v>
@@ -5383,7 +5411,7 @@
         <v>1</v>
       </c>
       <c r="C200" s="43" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D200" s="47"/>
       <c r="E200" s="45" t="s">
@@ -5432,7 +5460,7 @@
         <v>178</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F203" s="2"/>
     </row>
@@ -5518,7 +5546,7 @@
         <v>183</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="209" spans="1:7" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5529,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="C209" s="43" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D209" s="44"/>
       <c r="E209" s="46" t="s">
@@ -5593,11 +5621,11 @@
         <v>1</v>
       </c>
       <c r="C213" s="43" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D213" s="44"/>
       <c r="E213" s="45" t="s">
-        <v>360</v>
+        <v>567</v>
       </c>
       <c r="F213" s="45"/>
     </row>
@@ -5753,7 +5781,7 @@
         <v>415</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>374</v>
+        <v>565</v>
       </c>
     </row>
     <row r="224" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5807,7 +5835,7 @@
         <v>1</v>
       </c>
       <c r="C227" s="43" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D227" s="44"/>
       <c r="E227" s="45" t="s">
@@ -5932,7 +5960,7 @@
         <v>1</v>
       </c>
       <c r="C236" s="43" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D236" s="44"/>
       <c r="E236" s="45" t="s">
@@ -5980,7 +6008,7 @@
       </c>
       <c r="D239" s="21"/>
       <c r="E239" s="22" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="240" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -6006,7 +6034,7 @@
         <v>2</v>
       </c>
       <c r="C241" s="43" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D241" s="44"/>
       <c r="E241" s="45" t="s">
@@ -6025,7 +6053,7 @@
       </c>
       <c r="D242" s="13"/>
       <c r="E242" s="14" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -6065,7 +6093,7 @@
         <v>433</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="F245" s="18" t="s">
         <v>497</v>
@@ -6245,7 +6273,7 @@
         <v>1</v>
       </c>
       <c r="C258" s="24" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D258" s="37">
         <v>1</v>
@@ -6286,20 +6314,22 @@
       <c r="C261" t="s">
         <v>462</v>
       </c>
-      <c r="E261" s="2"/>
+      <c r="E261" s="2" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="262" spans="1:6" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="24">
         <v>1</v>
       </c>
       <c r="C262" s="24" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D262" s="37">
         <v>1</v>
       </c>
       <c r="E262" s="23" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -6307,28 +6337,30 @@
         <v>1</v>
       </c>
       <c r="C263" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="20">
-        <v>1</v>
-      </c>
-      <c r="C264" s="20" t="s">
-        <v>526</v>
-      </c>
-      <c r="D264" s="21"/>
-      <c r="E264" s="22"/>
+        <v>554</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="12">
+        <v>1</v>
+      </c>
+      <c r="C264" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="D264" s="13"/>
+      <c r="E264" s="14" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>288</v>
@@ -6361,11 +6393,11 @@
         <v>1</v>
       </c>
       <c r="C268" s="41" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D268" s="21"/>
       <c r="E268" s="42" t="s">
-        <v>408</v>
+        <v>570</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -6376,10 +6408,10 @@
         <v>1</v>
       </c>
       <c r="C269" s="28" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E269" s="29" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="270" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -6387,7 +6419,7 @@
         <v>1</v>
       </c>
       <c r="C270" s="41" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D270" s="21"/>
       <c r="E270" s="42"/>
@@ -6418,7 +6450,7 @@
         <v>190</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F272" s="2"/>
     </row>
@@ -6475,10 +6507,10 @@
     </row>
     <row r="278" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C278" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="573">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -1686,21 +1686,12 @@
     <t xml:space="preserve">380204432508;50 </t>
   </si>
   <si>
-    <t>380519941274;50 360grn</t>
-  </si>
-  <si>
     <t>380519945343;111</t>
   </si>
   <si>
     <t>380519944940;111</t>
   </si>
   <si>
-    <t>380519948395;20  31grn</t>
-  </si>
-  <si>
-    <t>380519947481;20 15grn</t>
-  </si>
-  <si>
     <t>380519943693;50</t>
   </si>
   <si>
@@ -1741,6 +1732,18 @@
   </si>
   <si>
     <t>380984206369;75 :)</t>
+  </si>
+  <si>
+    <t>380519941274;50 310grn</t>
+  </si>
+  <si>
+    <t>380519948395;20  11grn</t>
+  </si>
+  <si>
+    <t>380519947480;20 11grn</t>
+  </si>
+  <si>
+    <t>380519948387;20 30grn</t>
   </si>
 </sst>
 </file>
@@ -2201,8 +2204,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D169" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E182" sqref="E182"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2949,7 +2952,7 @@
         <v>41</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -3013,7 +3016,7 @@
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="11" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3137,7 +3140,7 @@
         <v>51</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
       <c r="F57" s="2"/>
     </row>
@@ -3201,7 +3204,7 @@
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="14" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -3243,7 +3246,7 @@
         <v>56</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>557</v>
+        <v>243</v>
       </c>
       <c r="J64" s="2"/>
     </row>
@@ -3290,7 +3293,7 @@
         <v>59</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3320,7 +3323,7 @@
       </c>
       <c r="D69" s="50"/>
       <c r="E69" s="51" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F69" s="51"/>
     </row>
@@ -3371,7 +3374,7 @@
       </c>
       <c r="D72" s="50"/>
       <c r="E72" s="51" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="F72" s="51"/>
     </row>
@@ -3401,7 +3404,7 @@
         <v>2</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D74" s="10"/>
       <c r="E74" s="11" t="s">
@@ -3452,7 +3455,7 @@
       </c>
       <c r="D77" s="44"/>
       <c r="E77" s="45" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F77" s="45"/>
     </row>
@@ -3576,7 +3579,7 @@
       </c>
       <c r="D85" s="44"/>
       <c r="E85" s="45" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F85" s="45"/>
     </row>
@@ -4913,7 +4916,7 @@
         <v>144</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F169" s="2"/>
     </row>
@@ -5121,7 +5124,7 @@
       </c>
       <c r="D182" s="4"/>
       <c r="E182" s="2" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F182" t="s">
         <v>454</v>
@@ -5220,7 +5223,7 @@
         <v>164</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
       <c r="F188" s="2"/>
     </row>
@@ -5625,7 +5628,7 @@
       </c>
       <c r="D213" s="44"/>
       <c r="E213" s="45" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F213" s="45"/>
     </row>
@@ -5781,7 +5784,7 @@
         <v>415</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="224" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -6340,7 +6343,7 @@
         <v>517</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="264" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -6352,7 +6355,7 @@
       </c>
       <c r="D264" s="13"/>
       <c r="E264" s="14" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -6397,7 +6400,7 @@
       </c>
       <c r="D268" s="21"/>
       <c r="E268" s="42" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -6411,7 +6414,7 @@
         <v>516</v>
       </c>
       <c r="E269" s="29" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
     </row>
     <row r="270" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="571">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -1485,9 +1485,6 @@
     <t>380204471278;80 74hrn</t>
   </si>
   <si>
-    <t xml:space="preserve">380684224133;75 </t>
-  </si>
-  <si>
     <t>380984292461;75</t>
   </si>
   <si>
@@ -1662,12 +1659,6 @@
     <t>049  ДТ птт. Иванков, ул. Леси Украинки, 9А</t>
   </si>
   <si>
-    <t xml:space="preserve">380519942585;50 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">380984291290;75 </t>
-  </si>
-  <si>
     <t>380519940888;50</t>
   </si>
   <si>
@@ -1683,9 +1674,6 @@
     <t>Бестлайн Номер абонента: 30913 Тариф: 320грн</t>
   </si>
   <si>
-    <t xml:space="preserve">380204432508;50 </t>
-  </si>
-  <si>
     <t>380519945343;111</t>
   </si>
   <si>
@@ -1695,12 +1683,6 @@
     <t>380519943693;50</t>
   </si>
   <si>
-    <t>380519948387;20 50grn</t>
-  </si>
-  <si>
-    <t>380519947480;20 31grn</t>
-  </si>
-  <si>
     <t>094 каса ДТ м. Ніжин, вул. Московська,1, р-к Центральний</t>
   </si>
   <si>
@@ -1744,6 +1726,18 @@
   </si>
   <si>
     <t>380519948387;20 30grn</t>
+  </si>
+  <si>
+    <t>380684224133;75 Вручну</t>
+  </si>
+  <si>
+    <t>380519942585;50  Вручну</t>
+  </si>
+  <si>
+    <t>380984291290;75 Вручну</t>
+  </si>
+  <si>
+    <t>380204432508;50 Вручну</t>
   </si>
 </sst>
 </file>
@@ -2204,8 +2198,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O278"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E208" sqref="E208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2247,7 +2241,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D2" s="44"/>
       <c r="E2" s="45" t="s">
@@ -2282,7 +2276,7 @@
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14" t="s">
-        <v>486</v>
+        <v>567</v>
       </c>
       <c r="F4" s="14"/>
     </row>
@@ -2724,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D31" s="44"/>
       <c r="E31" s="45" t="s">
@@ -2858,7 +2852,7 @@
         <v>36</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F39" s="2"/>
     </row>
@@ -2870,7 +2864,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="14" t="s">
@@ -2886,11 +2880,11 @@
         <v>2</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D41" s="44"/>
       <c r="E41" s="45" t="s">
-        <v>545</v>
+        <v>568</v>
       </c>
       <c r="F41" s="45"/>
     </row>
@@ -2924,7 +2918,7 @@
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -2952,7 +2946,7 @@
         <v>41</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -3016,7 +3010,7 @@
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="11" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3043,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D51" s="39"/>
       <c r="E51" s="40" t="s">
@@ -3110,7 +3104,7 @@
         <v>49</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F55" s="2"/>
     </row>
@@ -3140,7 +3134,7 @@
         <v>51</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="F57" s="2"/>
     </row>
@@ -3152,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="43" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D58" s="44"/>
       <c r="E58" s="45" t="s">
@@ -3204,7 +3198,7 @@
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="14" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -3293,7 +3287,7 @@
         <v>59</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3323,7 +3317,7 @@
       </c>
       <c r="D69" s="50"/>
       <c r="E69" s="51" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="F69" s="51"/>
     </row>
@@ -3359,7 +3353,7 @@
         <v>240</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
@@ -3374,7 +3368,7 @@
       </c>
       <c r="D72" s="50"/>
       <c r="E72" s="51" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F72" s="51"/>
     </row>
@@ -3392,7 +3386,7 @@
         <v>1</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F73" s="23"/>
     </row>
@@ -3404,11 +3398,11 @@
         <v>2</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D74" s="10"/>
       <c r="E74" s="11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F74" s="11"/>
     </row>
@@ -3451,11 +3445,11 @@
         <v>1</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D77" s="44"/>
       <c r="E77" s="45" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F77" s="45"/>
     </row>
@@ -3517,7 +3511,7 @@
         <v>69</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>546</v>
+        <v>569</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3575,11 +3569,11 @@
         <v>1</v>
       </c>
       <c r="C85" s="43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D85" s="44"/>
       <c r="E85" s="45" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F85" s="45"/>
     </row>
@@ -3752,7 +3746,7 @@
         <v>83</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G96" s="2"/>
     </row>
@@ -3852,7 +3846,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="43" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D103" s="44"/>
       <c r="E103" s="45" t="s">
@@ -3888,7 +3882,7 @@
         <v>89</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F105" s="2"/>
     </row>
@@ -3905,7 +3899,7 @@
       </c>
       <c r="E106" s="32"/>
       <c r="F106" s="32" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -4274,7 +4268,7 @@
         <v>1</v>
       </c>
       <c r="E129" s="23" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -4315,11 +4309,11 @@
         <v>1</v>
       </c>
       <c r="C132" s="43" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D132" s="44"/>
       <c r="E132" s="45" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F132" s="45"/>
       <c r="H132" s="45"/>
@@ -4419,7 +4413,7 @@
         <v>118</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="J138" s="2"/>
     </row>
@@ -4458,7 +4452,7 @@
         <v>1</v>
       </c>
       <c r="C141" s="43" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D141" s="44"/>
       <c r="E141" s="45" t="s">
@@ -4699,11 +4693,11 @@
         <v>1</v>
       </c>
       <c r="C156" s="43" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D156" s="44"/>
       <c r="E156" s="45" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F156" s="45"/>
     </row>
@@ -4831,7 +4825,7 @@
         <v>1</v>
       </c>
       <c r="C164" s="43" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D164" s="44"/>
       <c r="E164" s="45" t="s">
@@ -4916,7 +4910,7 @@
         <v>144</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="F169" s="2"/>
     </row>
@@ -4931,7 +4925,7 @@
         <v>145</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="171" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -5072,11 +5066,11 @@
         <v>1</v>
       </c>
       <c r="C179" s="43" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D179" s="44"/>
       <c r="E179" s="45" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="180" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -5124,7 +5118,7 @@
       </c>
       <c r="D182" s="4"/>
       <c r="E182" s="2" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="F182" t="s">
         <v>454</v>
@@ -5223,7 +5217,7 @@
         <v>164</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="F188" s="2"/>
     </row>
@@ -5238,7 +5232,7 @@
         <v>165</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L189" s="2"/>
     </row>
@@ -5353,7 +5347,7 @@
         <v>172</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>363</v>
@@ -5402,7 +5396,7 @@
       </c>
       <c r="D199" s="13"/>
       <c r="E199" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F199" s="14"/>
     </row>
@@ -5414,7 +5408,7 @@
         <v>1</v>
       </c>
       <c r="C200" s="43" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D200" s="47"/>
       <c r="E200" s="45" t="s">
@@ -5463,7 +5457,7 @@
         <v>178</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F203" s="2"/>
     </row>
@@ -5549,7 +5543,7 @@
         <v>183</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>552</v>
+        <v>570</v>
       </c>
     </row>
     <row r="209" spans="1:7" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5560,7 +5554,7 @@
         <v>1</v>
       </c>
       <c r="C209" s="43" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D209" s="44"/>
       <c r="E209" s="46" t="s">
@@ -5624,11 +5618,11 @@
         <v>1</v>
       </c>
       <c r="C213" s="43" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D213" s="44"/>
       <c r="E213" s="45" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="F213" s="45"/>
     </row>
@@ -5694,7 +5688,7 @@
         <v>1</v>
       </c>
       <c r="E217" s="23" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="218" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -5784,7 +5778,7 @@
         <v>415</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="224" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5838,7 +5832,7 @@
         <v>1</v>
       </c>
       <c r="C227" s="43" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D227" s="44"/>
       <c r="E227" s="45" t="s">
@@ -5963,7 +5957,7 @@
         <v>1</v>
       </c>
       <c r="C236" s="43" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D236" s="44"/>
       <c r="E236" s="45" t="s">
@@ -6011,7 +6005,7 @@
       </c>
       <c r="D239" s="21"/>
       <c r="E239" s="22" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="240" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -6037,7 +6031,7 @@
         <v>2</v>
       </c>
       <c r="C241" s="43" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D241" s="44"/>
       <c r="E241" s="45" t="s">
@@ -6056,7 +6050,7 @@
       </c>
       <c r="D242" s="13"/>
       <c r="E242" s="14" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -6096,10 +6090,10 @@
         <v>433</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F245" s="18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -6205,7 +6199,7 @@
         <v>1</v>
       </c>
       <c r="E252" s="23" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="253" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -6220,7 +6214,7 @@
       </c>
       <c r="D253" s="13"/>
       <c r="E253" s="14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="254" spans="1:6" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -6276,13 +6270,13 @@
         <v>1</v>
       </c>
       <c r="C258" s="24" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D258" s="37">
         <v>1</v>
       </c>
       <c r="E258" s="23" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -6326,13 +6320,13 @@
         <v>1</v>
       </c>
       <c r="C262" s="24" t="s">
+        <v>508</v>
+      </c>
+      <c r="D262" s="37">
+        <v>1</v>
+      </c>
+      <c r="E262" s="23" t="s">
         <v>509</v>
-      </c>
-      <c r="D262" s="37">
-        <v>1</v>
-      </c>
-      <c r="E262" s="23" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -6340,10 +6334,10 @@
         <v>1</v>
       </c>
       <c r="C263" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="264" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -6351,11 +6345,11 @@
         <v>1</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D264" s="13"/>
       <c r="E264" s="14" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -6363,7 +6357,7 @@
         <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>288</v>
@@ -6374,7 +6368,7 @@
         <v>1</v>
       </c>
       <c r="C266" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>198</v>
@@ -6385,10 +6379,10 @@
         <v>1</v>
       </c>
       <c r="C267" s="28" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E267" s="29" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="268" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -6396,11 +6390,11 @@
         <v>1</v>
       </c>
       <c r="C268" s="41" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D268" s="21"/>
       <c r="E268" s="42" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -6411,10 +6405,10 @@
         <v>1</v>
       </c>
       <c r="C269" s="28" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E269" s="29" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="270" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -6422,7 +6416,7 @@
         <v>1</v>
       </c>
       <c r="C270" s="41" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D270" s="21"/>
       <c r="E270" s="42"/>
@@ -6453,7 +6447,7 @@
         <v>190</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F272" s="2"/>
     </row>
@@ -6483,7 +6477,7 @@
         <v>335</v>
       </c>
       <c r="E275" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="276" spans="3:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -6510,10 +6504,10 @@
     </row>
     <row r="278" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C278" t="s">
+        <v>506</v>
+      </c>
+      <c r="E278" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>508</v>
       </c>
     </row>
   </sheetData>

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$277</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$278</definedName>
   </definedNames>
   <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="574">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -1677,9 +1677,6 @@
     <t>380519945343;111</t>
   </si>
   <si>
-    <t>380519944940;111</t>
-  </si>
-  <si>
     <t>380519943693;50</t>
   </si>
   <si>
@@ -1738,6 +1735,18 @@
   </si>
   <si>
     <t>380204432508;50 Вручну</t>
+  </si>
+  <si>
+    <t>380519942570;50 Закрита</t>
+  </si>
+  <si>
+    <t>380519944940;150</t>
+  </si>
+  <si>
+    <t>370 ТТ</t>
+  </si>
+  <si>
+    <t>??? Тт 370</t>
   </si>
 </sst>
 </file>
@@ -1845,7 +1854,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1900,10 +1909,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2196,10 +2208,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:O278"/>
+  <dimension ref="A1:O279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E208" sqref="E208"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C268" sqref="C268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2264,36 +2276,41 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
+    <row r="4" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24">
+        <v>1</v>
+      </c>
+      <c r="B4" s="24">
+        <v>1</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D4" s="37">
+        <v>1</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>566</v>
+      </c>
+      <c r="F4" s="23"/>
+    </row>
+    <row r="5" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
+        <v>1</v>
+      </c>
+      <c r="B5" s="24">
+        <v>1</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="37">
+        <v>1</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -2367,15 +2384,15 @@
       <c r="A10" s="12">
         <v>1</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="24">
         <v>2</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14" t="s">
-        <v>200</v>
+      <c r="D10" s="37"/>
+      <c r="E10" s="23" t="s">
+        <v>570</v>
       </c>
       <c r="F10" s="14"/>
     </row>
@@ -2726,20 +2743,23 @@
       </c>
       <c r="F31" s="45"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
+    <row r="32" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="24">
+        <v>1</v>
+      </c>
+      <c r="B32" s="24">
+        <v>1</v>
+      </c>
+      <c r="C32" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="D32" s="37">
+        <v>1</v>
+      </c>
+      <c r="E32" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="F32" s="2"/>
+      <c r="F32" s="23"/>
     </row>
     <row r="33" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
@@ -2884,7 +2904,7 @@
       </c>
       <c r="D41" s="44"/>
       <c r="E41" s="45" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F41" s="45"/>
     </row>
@@ -2946,7 +2966,7 @@
         <v>41</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -3010,7 +3030,7 @@
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3078,35 +3098,41 @@
       </c>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>1</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
+    <row r="54" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="24">
+        <v>1</v>
+      </c>
+      <c r="B54" s="24">
+        <v>1</v>
+      </c>
+      <c r="C54" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="D54" s="37">
+        <v>1</v>
+      </c>
+      <c r="E54" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>1</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="F54" s="23"/>
+    </row>
+    <row r="55" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="24">
+        <v>1</v>
+      </c>
+      <c r="B55" s="24">
+        <v>1</v>
+      </c>
+      <c r="C55" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="D55" s="37">
+        <v>1</v>
+      </c>
+      <c r="E55" s="23" t="s">
         <v>491</v>
       </c>
-      <c r="F55" s="2"/>
+      <c r="F55" s="23"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
@@ -3134,7 +3160,7 @@
         <v>51</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F57" s="2"/>
     </row>
@@ -3186,19 +3212,21 @@
         <v>354</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="12">
-        <v>1</v>
-      </c>
-      <c r="B61" s="12">
-        <v>1</v>
-      </c>
-      <c r="C61" s="12" t="s">
+    <row r="61" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="24">
+        <v>1</v>
+      </c>
+      <c r="B61" s="24">
+        <v>1</v>
+      </c>
+      <c r="C61" s="24" t="s">
         <v>345</v>
       </c>
-      <c r="D61" s="13"/>
-      <c r="E61" s="14" t="s">
-        <v>554</v>
+      <c r="D61" s="37">
+        <v>1</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -3287,39 +3315,42 @@
         <v>59</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>1</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="24">
+        <v>1</v>
+      </c>
+      <c r="B68" s="24">
+        <v>1</v>
+      </c>
+      <c r="C68" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="D68" s="37">
+        <v>1</v>
+      </c>
+      <c r="E68" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="F68" s="2"/>
-    </row>
-    <row r="69" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="49">
-        <v>1</v>
-      </c>
-      <c r="B69" s="49">
-        <v>1</v>
-      </c>
-      <c r="C69" s="49" t="s">
+      <c r="F68" s="23"/>
+    </row>
+    <row r="69" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="48">
+        <v>1</v>
+      </c>
+      <c r="B69" s="48">
+        <v>1</v>
+      </c>
+      <c r="C69" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="D69" s="50"/>
-      <c r="E69" s="51" t="s">
-        <v>555</v>
-      </c>
-      <c r="F69" s="51"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="50" t="s">
+        <v>554</v>
+      </c>
+      <c r="F69" s="50"/>
     </row>
     <row r="70" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
@@ -3356,21 +3387,21 @@
         <v>505</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="49">
-        <v>1</v>
-      </c>
-      <c r="B72" s="49">
-        <v>1</v>
-      </c>
-      <c r="C72" s="49" t="s">
+    <row r="72" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="48">
+        <v>1</v>
+      </c>
+      <c r="B72" s="48">
+        <v>1</v>
+      </c>
+      <c r="C72" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="D72" s="50"/>
-      <c r="E72" s="51" t="s">
-        <v>553</v>
-      </c>
-      <c r="F72" s="51"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="50" t="s">
+        <v>552</v>
+      </c>
+      <c r="F72" s="50"/>
     </row>
     <row r="73" spans="1:8" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
@@ -3398,7 +3429,7 @@
         <v>2</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D74" s="10"/>
       <c r="E74" s="11" t="s">
@@ -3406,21 +3437,23 @@
       </c>
       <c r="F74" s="11"/>
     </row>
-    <row r="75" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="12">
-        <v>1</v>
-      </c>
-      <c r="B75" s="12">
-        <v>1</v>
-      </c>
-      <c r="C75" s="12" t="s">
+    <row r="75" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="24">
+        <v>1</v>
+      </c>
+      <c r="B75" s="24">
+        <v>1</v>
+      </c>
+      <c r="C75" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D75" s="13"/>
-      <c r="E75" s="14" t="s">
+      <c r="D75" s="37">
+        <v>1</v>
+      </c>
+      <c r="E75" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="F75" s="14"/>
+      <c r="F75" s="23"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
@@ -3449,7 +3482,7 @@
       </c>
       <c r="D77" s="44"/>
       <c r="E77" s="45" t="s">
-        <v>550</v>
+        <v>571</v>
       </c>
       <c r="F77" s="45"/>
     </row>
@@ -3511,7 +3544,7 @@
         <v>69</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3529,20 +3562,23 @@
       </c>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>1</v>
-      </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-      <c r="C83" t="s">
+    <row r="83" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="24">
+        <v>1</v>
+      </c>
+      <c r="B83" s="24">
+        <v>1</v>
+      </c>
+      <c r="C83" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="D83" s="37">
+        <v>1</v>
+      </c>
+      <c r="E83" s="23" t="s">
         <v>456</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="F83" s="23" t="s">
         <v>455</v>
       </c>
     </row>
@@ -3561,21 +3597,23 @@
       </c>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="43">
-        <v>1</v>
-      </c>
-      <c r="B85" s="43">
-        <v>1</v>
-      </c>
-      <c r="C85" s="43" t="s">
+    <row r="85" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="24">
+        <v>1</v>
+      </c>
+      <c r="B85" s="24">
+        <v>1</v>
+      </c>
+      <c r="C85" s="24" t="s">
         <v>529</v>
       </c>
-      <c r="D85" s="44"/>
-      <c r="E85" s="45" t="s">
-        <v>559</v>
-      </c>
-      <c r="F85" s="45"/>
+      <c r="D85" s="37">
+        <v>1</v>
+      </c>
+      <c r="E85" s="23" t="s">
+        <v>558</v>
+      </c>
+      <c r="F85" s="23"/>
     </row>
     <row r="86" spans="1:7" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="24">
@@ -3592,18 +3630,20 @@
       </c>
       <c r="E86" s="23"/>
     </row>
-    <row r="87" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="12">
-        <v>1</v>
-      </c>
-      <c r="B87" s="12">
-        <v>1</v>
-      </c>
-      <c r="C87" s="12" t="s">
+    <row r="87" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="24">
+        <v>1</v>
+      </c>
+      <c r="B87" s="24">
+        <v>1</v>
+      </c>
+      <c r="C87" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D87" s="13"/>
-      <c r="E87" s="14" t="s">
+      <c r="D87" s="37">
+        <v>1</v>
+      </c>
+      <c r="E87" s="23" t="s">
         <v>251</v>
       </c>
     </row>
@@ -3671,20 +3711,23 @@
       </c>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>1</v>
-      </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-      <c r="C92" t="s">
+    <row r="92" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="24">
+        <v>1</v>
+      </c>
+      <c r="B92" s="24">
+        <v>1</v>
+      </c>
+      <c r="C92" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="D92" s="37">
+        <v>1</v>
+      </c>
+      <c r="E92" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="G92" s="2"/>
+      <c r="G92" s="23"/>
     </row>
     <row r="93" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
@@ -4092,21 +4135,23 @@
       </c>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="12">
-        <v>1</v>
-      </c>
-      <c r="B119" s="12">
-        <v>1</v>
-      </c>
-      <c r="C119" s="12" t="s">
+    <row r="119" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="24">
+        <v>1</v>
+      </c>
+      <c r="B119" s="24">
+        <v>1</v>
+      </c>
+      <c r="C119" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D119" s="13"/>
-      <c r="E119" s="14" t="s">
+      <c r="D119" s="37">
+        <v>1</v>
+      </c>
+      <c r="E119" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="F119" s="14"/>
+      <c r="F119" s="23"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
@@ -4286,20 +4331,23 @@
       </c>
       <c r="F130" s="2"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>1</v>
-      </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-      <c r="C131" t="s">
+    <row r="131" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="24">
+        <v>1</v>
+      </c>
+      <c r="B131" s="24">
+        <v>1</v>
+      </c>
+      <c r="C131" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="D131" s="37">
+        <v>1</v>
+      </c>
+      <c r="E131" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="F131" s="2"/>
+      <c r="F131" s="23"/>
     </row>
     <row r="132" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="43">
@@ -4508,20 +4556,23 @@
       </c>
       <c r="F144" s="7"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>1</v>
-      </c>
-      <c r="B145">
-        <v>1</v>
-      </c>
-      <c r="C145" t="s">
+    <row r="145" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="24">
+        <v>1</v>
+      </c>
+      <c r="B145" s="24">
+        <v>1</v>
+      </c>
+      <c r="C145" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="E145" s="2" t="s">
+      <c r="D145" s="37">
+        <v>1</v>
+      </c>
+      <c r="E145" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="F145" s="2"/>
+      <c r="F145" s="23"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
@@ -4736,20 +4787,23 @@
         <v>315</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>1</v>
-      </c>
-      <c r="B159">
-        <v>1</v>
-      </c>
-      <c r="C159" t="s">
+    <row r="159" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="24">
+        <v>1</v>
+      </c>
+      <c r="B159" s="24">
+        <v>1</v>
+      </c>
+      <c r="C159" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E159" s="2" t="s">
+      <c r="D159" s="37">
+        <v>1</v>
+      </c>
+      <c r="E159" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="F159" s="2"/>
+      <c r="F159" s="23"/>
     </row>
     <row r="160" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
@@ -4817,51 +4871,59 @@
       </c>
       <c r="F163" s="7"/>
     </row>
-    <row r="164" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="43">
-        <v>1</v>
-      </c>
-      <c r="B164" s="43">
-        <v>1</v>
-      </c>
-      <c r="C164" s="43" t="s">
+    <row r="164" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="24">
+        <v>1</v>
+      </c>
+      <c r="B164" s="24">
+        <v>1</v>
+      </c>
+      <c r="C164" s="24" t="s">
         <v>532</v>
       </c>
-      <c r="D164" s="44"/>
-      <c r="E164" s="45" t="s">
+      <c r="D164" s="37">
+        <v>1</v>
+      </c>
+      <c r="E164" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="F164" s="45"/>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>1</v>
-      </c>
-      <c r="B165">
-        <v>1</v>
-      </c>
-      <c r="C165" t="s">
+      <c r="F164" s="23"/>
+    </row>
+    <row r="165" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="24">
+        <v>1</v>
+      </c>
+      <c r="B165" s="24">
+        <v>1</v>
+      </c>
+      <c r="C165" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="E165" s="2" t="s">
+      <c r="D165" s="37">
+        <v>1</v>
+      </c>
+      <c r="E165" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="H165" s="2"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>1</v>
-      </c>
-      <c r="B166">
-        <v>1</v>
-      </c>
-      <c r="C166" t="s">
+      <c r="H165" s="23"/>
+    </row>
+    <row r="166" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="24">
+        <v>1</v>
+      </c>
+      <c r="B166" s="24">
+        <v>1</v>
+      </c>
+      <c r="C166" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="E166" s="2" t="s">
+      <c r="D166" s="37">
+        <v>1</v>
+      </c>
+      <c r="E166" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="F166" s="2"/>
+      <c r="F166" s="23"/>
     </row>
     <row r="167" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
@@ -4910,7 +4972,7 @@
         <v>144</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F169" s="2"/>
     </row>
@@ -5026,20 +5088,23 @@
       </c>
       <c r="F176" s="7"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>1</v>
-      </c>
-      <c r="B177">
-        <v>1</v>
-      </c>
-      <c r="C177" t="s">
+    <row r="177" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="24">
+        <v>1</v>
+      </c>
+      <c r="B177" s="24">
+        <v>1</v>
+      </c>
+      <c r="C177" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="E177" s="2" t="s">
+      <c r="D177" s="37">
+        <v>1</v>
+      </c>
+      <c r="E177" s="23" t="s">
         <v>482</v>
       </c>
-      <c r="F177" s="2" t="s">
+      <c r="F177" s="23" t="s">
         <v>254</v>
       </c>
     </row>
@@ -5118,7 +5183,7 @@
       </c>
       <c r="D182" s="4"/>
       <c r="E182" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F182" t="s">
         <v>454</v>
@@ -5158,20 +5223,23 @@
       </c>
       <c r="F184" s="14"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>1</v>
-      </c>
-      <c r="B185">
-        <v>1</v>
-      </c>
-      <c r="C185" t="s">
+    <row r="185" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="24">
+        <v>1</v>
+      </c>
+      <c r="B185" s="24">
+        <v>1</v>
+      </c>
+      <c r="C185" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="E185" s="2" t="s">
+      <c r="D185" s="37">
+        <v>1</v>
+      </c>
+      <c r="E185" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="H185" s="2"/>
+      <c r="H185" s="23"/>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186">
@@ -5206,20 +5274,23 @@
       </c>
       <c r="F187" s="7"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>1</v>
-      </c>
-      <c r="B188">
-        <v>1</v>
-      </c>
-      <c r="C188" t="s">
+    <row r="188" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="24">
+        <v>1</v>
+      </c>
+      <c r="B188" s="24">
+        <v>1</v>
+      </c>
+      <c r="C188" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="E188" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="F188" s="2"/>
+      <c r="D188" s="37">
+        <v>1</v>
+      </c>
+      <c r="E188" s="23" t="s">
+        <v>562</v>
+      </c>
+      <c r="F188" s="23"/>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189">
@@ -5303,20 +5374,23 @@
       </c>
       <c r="F193" s="2"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>1</v>
-      </c>
-      <c r="B194">
-        <v>1</v>
-      </c>
-      <c r="C194" t="s">
+    <row r="194" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="24">
+        <v>1</v>
+      </c>
+      <c r="B194" s="24">
+        <v>1</v>
+      </c>
+      <c r="C194" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="E194" s="2" t="s">
+      <c r="D194" s="37">
+        <v>1</v>
+      </c>
+      <c r="E194" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="F194" s="2"/>
+      <c r="F194" s="23"/>
     </row>
     <row r="195" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
@@ -5353,21 +5427,23 @@
         <v>363</v>
       </c>
     </row>
-    <row r="197" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="12">
-        <v>1</v>
-      </c>
-      <c r="B197" s="12">
-        <v>1</v>
-      </c>
-      <c r="C197" s="12" t="s">
+    <row r="197" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="24">
+        <v>1</v>
+      </c>
+      <c r="B197" s="24">
+        <v>1</v>
+      </c>
+      <c r="C197" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="D197" s="13"/>
-      <c r="E197" s="16" t="s">
+      <c r="D197" s="37">
+        <v>1</v>
+      </c>
+      <c r="E197" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="F197" s="14"/>
+      <c r="F197" s="23"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
@@ -5384,21 +5460,23 @@
       </c>
       <c r="F198" s="2"/>
     </row>
-    <row r="199" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="12">
-        <v>1</v>
-      </c>
-      <c r="B199" s="12">
-        <v>1</v>
-      </c>
-      <c r="C199" s="12" t="s">
+    <row r="199" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="24">
+        <v>1</v>
+      </c>
+      <c r="B199" s="24">
+        <v>1</v>
+      </c>
+      <c r="C199" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="D199" s="13"/>
-      <c r="E199" s="14" t="s">
+      <c r="D199" s="37">
+        <v>1</v>
+      </c>
+      <c r="E199" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="F199" s="14"/>
+      <c r="F199" s="23"/>
     </row>
     <row r="200" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="43">
@@ -5532,18 +5610,21 @@
       </c>
       <c r="F207" s="23"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>1</v>
-      </c>
-      <c r="B208">
-        <v>1</v>
-      </c>
-      <c r="C208" t="s">
+    <row r="208" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="24">
+        <v>1</v>
+      </c>
+      <c r="B208" s="24">
+        <v>1</v>
+      </c>
+      <c r="C208" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="E208" s="2" t="s">
-        <v>570</v>
+      <c r="D208" s="37">
+        <v>1</v>
+      </c>
+      <c r="E208" s="23" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="209" spans="1:7" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5594,21 +5675,23 @@
       </c>
       <c r="F211" s="7"/>
     </row>
-    <row r="212" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="12">
-        <v>1</v>
-      </c>
-      <c r="B212" s="12">
-        <v>1</v>
-      </c>
-      <c r="C212" s="12" t="s">
+    <row r="212" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="24">
+        <v>1</v>
+      </c>
+      <c r="B212" s="24">
+        <v>1</v>
+      </c>
+      <c r="C212" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="D212" s="13"/>
-      <c r="E212" s="14" t="s">
+      <c r="D212" s="37">
+        <v>1</v>
+      </c>
+      <c r="E212" s="23" t="s">
         <v>386</v>
       </c>
-      <c r="F212" s="14"/>
+      <c r="F212" s="23"/>
     </row>
     <row r="213" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="43">
@@ -5622,7 +5705,7 @@
       </c>
       <c r="D213" s="44"/>
       <c r="E213" s="45" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F213" s="45"/>
     </row>
@@ -5723,18 +5806,20 @@
         <v>286</v>
       </c>
     </row>
-    <row r="220" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="12">
-        <v>1</v>
-      </c>
-      <c r="B220" s="12">
-        <v>1</v>
-      </c>
-      <c r="C220" s="12" t="s">
+    <row r="220" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="24">
+        <v>1</v>
+      </c>
+      <c r="B220" s="24">
+        <v>1</v>
+      </c>
+      <c r="C220" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="D220" s="13"/>
-      <c r="E220" s="14" t="s">
+      <c r="D220" s="37">
+        <v>1</v>
+      </c>
+      <c r="E220" s="23" t="s">
         <v>292</v>
       </c>
     </row>
@@ -5753,17 +5838,20 @@
         <v>247</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>1</v>
-      </c>
-      <c r="B222">
-        <v>1</v>
-      </c>
-      <c r="C222" t="s">
+    <row r="222" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="24">
+        <v>1</v>
+      </c>
+      <c r="B222" s="24">
+        <v>1</v>
+      </c>
+      <c r="C222" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="E222" s="2" t="s">
+      <c r="D222" s="37">
+        <v>1</v>
+      </c>
+      <c r="E222" s="23" t="s">
         <v>380</v>
       </c>
     </row>
@@ -5778,35 +5866,40 @@
         <v>415</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="12">
-        <v>1</v>
-      </c>
-      <c r="B224" s="12">
-        <v>1</v>
-      </c>
-      <c r="C224" s="12" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="24">
+        <v>1</v>
+      </c>
+      <c r="B224" s="24">
+        <v>1</v>
+      </c>
+      <c r="C224" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="D224" s="13"/>
-      <c r="E224" s="14" t="s">
+      <c r="D224" s="37">
+        <v>1</v>
+      </c>
+      <c r="E224" s="23" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>1</v>
-      </c>
-      <c r="B225">
-        <v>1</v>
-      </c>
-      <c r="C225" t="s">
+    <row r="225" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="24">
+        <v>1</v>
+      </c>
+      <c r="B225" s="24">
+        <v>1</v>
+      </c>
+      <c r="C225" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="E225" s="2" t="s">
+      <c r="D225" s="37">
+        <v>1</v>
+      </c>
+      <c r="E225" s="23" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5883,15 +5976,17 @@
         <v>334</v>
       </c>
     </row>
-    <row r="231" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="20">
-        <v>1</v>
-      </c>
-      <c r="C231" s="20" t="s">
+    <row r="231" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="24">
+        <v>1</v>
+      </c>
+      <c r="C231" s="24" t="s">
         <v>422</v>
       </c>
-      <c r="D231" s="21"/>
-      <c r="E231" s="48"/>
+      <c r="D231" s="37">
+        <v>1</v>
+      </c>
+      <c r="E231" s="52"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
@@ -5935,32 +6030,37 @@
         <v>326</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>1</v>
-      </c>
-      <c r="B235">
-        <v>1</v>
-      </c>
-      <c r="C235" t="s">
+    <row r="235" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="24">
+        <v>1</v>
+      </c>
+      <c r="B235" s="24">
+        <v>1</v>
+      </c>
+      <c r="C235" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="E235" s="2" t="s">
+      <c r="D235" s="37">
+        <v>1</v>
+      </c>
+      <c r="E235" s="23" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="236" spans="1:5" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="43">
-        <v>1</v>
-      </c>
-      <c r="B236" s="43">
-        <v>1</v>
-      </c>
-      <c r="C236" s="43" t="s">
+    <row r="236" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="24">
+        <v>1</v>
+      </c>
+      <c r="B236" s="24">
+        <v>1</v>
+      </c>
+      <c r="C236" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="D236" s="44"/>
-      <c r="E236" s="45" t="s">
+      <c r="D236" s="37">
+        <v>1</v>
+      </c>
+      <c r="E236" s="23" t="s">
         <v>257</v>
       </c>
     </row>
@@ -5981,92 +6081,105 @@
         <v>369</v>
       </c>
     </row>
-    <row r="238" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="12">
-        <v>1</v>
-      </c>
-      <c r="B238" s="12">
-        <v>1</v>
-      </c>
-      <c r="C238" s="12" t="s">
+    <row r="238" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="24">
+        <v>1</v>
+      </c>
+      <c r="B238" s="24">
+        <v>1</v>
+      </c>
+      <c r="C238" s="24" t="s">
         <v>372</v>
       </c>
-      <c r="D238" s="13"/>
-      <c r="E238" s="14" t="s">
+      <c r="D238" s="37">
+        <v>1</v>
+      </c>
+      <c r="E238" s="23" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="239" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="20">
-        <v>1</v>
-      </c>
-      <c r="C239" s="20" t="s">
+    <row r="239" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="24">
+        <v>1</v>
+      </c>
+      <c r="C239" s="24" t="s">
         <v>429</v>
       </c>
-      <c r="D239" s="21"/>
-      <c r="E239" s="22" t="s">
+      <c r="D239" s="37">
+        <v>1</v>
+      </c>
+      <c r="E239" s="23" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="240" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="12">
-        <v>1</v>
-      </c>
-      <c r="B240" s="12">
-        <v>1</v>
-      </c>
-      <c r="C240" s="12" t="s">
+    <row r="240" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="24">
+        <v>1</v>
+      </c>
+      <c r="B240" s="24">
+        <v>1</v>
+      </c>
+      <c r="C240" s="24" t="s">
         <v>430</v>
       </c>
-      <c r="D240" s="13"/>
-      <c r="E240" s="14" t="s">
+      <c r="D240" s="37">
+        <v>1</v>
+      </c>
+      <c r="E240" s="23" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="241" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="43">
-        <v>1</v>
-      </c>
-      <c r="B241" s="43">
+    <row r="241" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="24">
+        <v>1</v>
+      </c>
+      <c r="B241" s="24">
         <v>2</v>
       </c>
-      <c r="C241" s="43" t="s">
+      <c r="C241" s="24" t="s">
         <v>539</v>
       </c>
-      <c r="D241" s="44"/>
-      <c r="E241" s="45" t="s">
+      <c r="D241" s="37">
+        <v>1</v>
+      </c>
+      <c r="E241" s="23" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="242" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="12">
-        <v>1</v>
-      </c>
-      <c r="B242" s="12">
-        <v>1</v>
-      </c>
-      <c r="C242" s="12" t="s">
+    <row r="242" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="24">
+        <v>1</v>
+      </c>
+      <c r="B242" s="24">
+        <v>1</v>
+      </c>
+      <c r="C242" s="24" t="s">
         <v>431</v>
       </c>
-      <c r="D242" s="13"/>
-      <c r="E242" s="14" t="s">
+      <c r="D242" s="37">
+        <v>1</v>
+      </c>
+      <c r="E242" s="23" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243">
-        <v>1</v>
-      </c>
-      <c r="B243">
+    <row r="243" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="24">
+        <v>1</v>
+      </c>
+      <c r="B243" s="24">
         <v>2</v>
       </c>
-      <c r="C243" s="25" t="s">
+      <c r="C243" s="24" t="s">
         <v>431</v>
       </c>
-      <c r="E243" s="26" t="s">
+      <c r="D243" s="37">
+        <v>1</v>
+      </c>
+      <c r="E243" s="23" t="s">
         <v>481</v>
       </c>
-      <c r="F243" s="2"/>
+      <c r="F243" s="23"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
@@ -6243,14 +6356,17 @@
         <v>319</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>1</v>
-      </c>
-      <c r="C256" t="s">
+    <row r="256" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="24">
+        <v>1</v>
+      </c>
+      <c r="C256" s="24" t="s">
         <v>439</v>
       </c>
-      <c r="E256" s="2" t="s">
+      <c r="D256" s="37">
+        <v>1</v>
+      </c>
+      <c r="E256" s="23" t="s">
         <v>342</v>
       </c>
     </row>
@@ -6279,14 +6395,17 @@
         <v>488</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <v>1</v>
-      </c>
-      <c r="C259" t="s">
+    <row r="259" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="24">
+        <v>1</v>
+      </c>
+      <c r="C259" s="24" t="s">
         <v>460</v>
       </c>
-      <c r="E259" s="2" t="s">
+      <c r="D259" s="37">
+        <v>1</v>
+      </c>
+      <c r="E259" s="23" t="s">
         <v>293</v>
       </c>
     </row>
@@ -6340,16 +6459,18 @@
         <v>549</v>
       </c>
     </row>
-    <row r="264" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="12">
-        <v>1</v>
-      </c>
-      <c r="C264" s="12" t="s">
+    <row r="264" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="24">
+        <v>1</v>
+      </c>
+      <c r="C264" s="24" t="s">
         <v>521</v>
       </c>
-      <c r="D264" s="13"/>
-      <c r="E264" s="14" t="s">
-        <v>557</v>
+      <c r="D264" s="37">
+        <v>1</v>
+      </c>
+      <c r="E264" s="23" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -6385,56 +6506,52 @@
         <v>498</v>
       </c>
     </row>
-    <row r="268" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="20">
-        <v>1</v>
-      </c>
-      <c r="C268" s="41" t="s">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>1</v>
+      </c>
+      <c r="C268" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="E268" s="29" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="20">
+        <v>1</v>
+      </c>
+      <c r="C269" s="41" t="s">
         <v>522</v>
       </c>
-      <c r="D268" s="21"/>
-      <c r="E268" s="42" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269">
-        <v>1</v>
-      </c>
-      <c r="B269">
-        <v>1</v>
-      </c>
-      <c r="C269" s="28" t="s">
+      <c r="D269" s="21"/>
+      <c r="E269" s="42" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>1</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+      <c r="C270" s="28" t="s">
         <v>515</v>
       </c>
-      <c r="E269" s="29" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="20">
-        <v>1</v>
-      </c>
-      <c r="C270" s="41" t="s">
+      <c r="E270" s="29" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="20">
+        <v>1</v>
+      </c>
+      <c r="C271" s="41" t="s">
         <v>523</v>
       </c>
-      <c r="D270" s="21"/>
-      <c r="E270" s="42"/>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271">
-        <v>1</v>
-      </c>
-      <c r="B271">
-        <v>1</v>
-      </c>
-      <c r="C271" t="s">
-        <v>191</v>
-      </c>
-      <c r="E271" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="F271" s="2"/>
+      <c r="D271" s="21"/>
+      <c r="E271" s="42"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
@@ -6444,74 +6561,89 @@
         <v>1</v>
       </c>
       <c r="C272" t="s">
+        <v>191</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="F272" s="2"/>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>1</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+      <c r="C273" t="s">
         <v>190</v>
       </c>
-      <c r="E272" s="2" t="s">
+      <c r="E273" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="F272" s="2"/>
-    </row>
-    <row r="273" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C273" t="s">
+      <c r="F273" s="2"/>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C274" t="s">
         <v>194</v>
       </c>
-      <c r="E273" s="2" t="s">
+      <c r="E274" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="F273" s="2"/>
-    </row>
-    <row r="274" spans="3:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C274" s="5" t="s">
+      <c r="F274" s="2"/>
+    </row>
+    <row r="275" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C275" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D274" s="8">
-        <v>1</v>
-      </c>
-      <c r="E274" s="7" t="s">
+      <c r="D275" s="8">
+        <v>1</v>
+      </c>
+      <c r="E275" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="F274" s="7"/>
-    </row>
-    <row r="275" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C275" t="s">
+      <c r="F275" s="7"/>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C276" t="s">
         <v>335</v>
       </c>
-      <c r="E275" t="s">
+      <c r="E276" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="276" spans="3:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C276" s="5" t="s">
+    <row r="277" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C277" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="D276" s="6">
-        <v>1</v>
-      </c>
-      <c r="E276" s="7" t="s">
+      <c r="D277" s="6">
+        <v>1</v>
+      </c>
+      <c r="E277" s="7" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="277" spans="3:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C277" s="5" t="s">
+    <row r="278" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C278" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="D277" s="6">
-        <v>1</v>
-      </c>
-      <c r="E277" s="7" t="s">
+      <c r="D278" s="6">
+        <v>1</v>
+      </c>
+      <c r="E278" s="7" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="278" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C278" t="s">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C279" t="s">
         <v>506</v>
       </c>
-      <c r="E278" s="2" t="s">
+      <c r="E279" s="2" t="s">
         <v>507</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F277">
+  <autoFilter ref="A1:F278">
     <filterColumn colId="3">
       <filters blank="1"/>
     </filterColumn>

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -2210,8 +2210,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C268" sqref="C268"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111:XFD111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4009,20 +4009,23 @@
       </c>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>1</v>
-      </c>
-      <c r="B111">
-        <v>1</v>
-      </c>
-      <c r="C111" t="s">
+    <row r="111" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="24">
+        <v>1</v>
+      </c>
+      <c r="B111" s="24">
+        <v>1</v>
+      </c>
+      <c r="C111" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="D111" s="37">
+        <v>1</v>
+      </c>
+      <c r="E111" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="F111" s="2"/>
+      <c r="F111" s="23"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$278</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="704">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -1747,6 +1748,396 @@
   </si>
   <si>
     <t>??? Тт 370</t>
+  </si>
+  <si>
+    <t>380519944775;75</t>
+  </si>
+  <si>
+    <t>380519945566;75</t>
+  </si>
+  <si>
+    <t>380985736452;125</t>
+  </si>
+  <si>
+    <t>380962421422;125</t>
+  </si>
+  <si>
+    <t>380680563089;125</t>
+  </si>
+  <si>
+    <t>380684035693;125</t>
+  </si>
+  <si>
+    <t>380639426654;100</t>
+  </si>
+  <si>
+    <t>380984291290;125 Вручну</t>
+  </si>
+  <si>
+    <t>380978677571;125</t>
+  </si>
+  <si>
+    <t>380519944938;75</t>
+  </si>
+  <si>
+    <t>380686088473;125</t>
+  </si>
+  <si>
+    <t>380687916113;125</t>
+  </si>
+  <si>
+    <t>380962607284;125</t>
+  </si>
+  <si>
+    <t>380983144959;125</t>
+  </si>
+  <si>
+    <t>380983408372;125</t>
+  </si>
+  <si>
+    <t>380968561300;125</t>
+  </si>
+  <si>
+    <t>380680174094;125</t>
+  </si>
+  <si>
+    <t>380984206369;125</t>
+  </si>
+  <si>
+    <t>380995501638;90</t>
+  </si>
+  <si>
+    <t>380688398707;125</t>
+  </si>
+  <si>
+    <t>380688317553;125</t>
+  </si>
+  <si>
+    <t>380983386478;125</t>
+  </si>
+  <si>
+    <t>380632727254;100</t>
+  </si>
+  <si>
+    <t>380687916179;125</t>
+  </si>
+  <si>
+    <t>380687916193;125</t>
+  </si>
+  <si>
+    <t>380974448527;125</t>
+  </si>
+  <si>
+    <t>380968013845;125</t>
+  </si>
+  <si>
+    <t>380519947480;75</t>
+  </si>
+  <si>
+    <t>380519940954;75</t>
+  </si>
+  <si>
+    <t>380519942565;75</t>
+  </si>
+  <si>
+    <t>380519941019;75</t>
+  </si>
+  <si>
+    <t>380519942570;75 Закрита</t>
+  </si>
+  <si>
+    <t>380519941269;75</t>
+  </si>
+  <si>
+    <t>380519942569;75</t>
+  </si>
+  <si>
+    <t>380519941020;75</t>
+  </si>
+  <si>
+    <t>380519942591;75</t>
+  </si>
+  <si>
+    <t>380519946243;75</t>
+  </si>
+  <si>
+    <t>380519942589;75</t>
+  </si>
+  <si>
+    <t>380519943686;75</t>
+  </si>
+  <si>
+    <t>380519943433;75</t>
+  </si>
+  <si>
+    <t>380519946247;75</t>
+  </si>
+  <si>
+    <t>380519942571;75</t>
+  </si>
+  <si>
+    <t>380519942681;75</t>
+  </si>
+  <si>
+    <t>380519942585;75  Вручну</t>
+  </si>
+  <si>
+    <t>380519942563;75</t>
+  </si>
+  <si>
+    <t>380519943693;75</t>
+  </si>
+  <si>
+    <t>380519943691;75</t>
+  </si>
+  <si>
+    <t>380519943705;75</t>
+  </si>
+  <si>
+    <t>380519945340;75</t>
+  </si>
+  <si>
+    <t>380519941274;75 310grn</t>
+  </si>
+  <si>
+    <t>380519940894;75</t>
+  </si>
+  <si>
+    <t>380519945561;75</t>
+  </si>
+  <si>
+    <t>380519943688;75</t>
+  </si>
+  <si>
+    <t>380519940627;75</t>
+  </si>
+  <si>
+    <t>380519945029;75</t>
+  </si>
+  <si>
+    <t>380519948884;75</t>
+  </si>
+  <si>
+    <t>380519940925;75</t>
+  </si>
+  <si>
+    <t>380519940946;75</t>
+  </si>
+  <si>
+    <t>380519943703;75</t>
+  </si>
+  <si>
+    <t>380519944932;75</t>
+  </si>
+  <si>
+    <t>380519940971;75</t>
+  </si>
+  <si>
+    <t>380519945341;75</t>
+  </si>
+  <si>
+    <t>380519944773;75</t>
+  </si>
+  <si>
+    <t>380519944934;75</t>
+  </si>
+  <si>
+    <t>380519940922;75</t>
+  </si>
+  <si>
+    <t>380519941273;75 мхп юзают</t>
+  </si>
+  <si>
+    <t>380519945569;75</t>
+  </si>
+  <si>
+    <t>380519944939;75</t>
+  </si>
+  <si>
+    <t>380519944935;75</t>
+  </si>
+  <si>
+    <t>380519945338;75</t>
+  </si>
+  <si>
+    <t>380519946238;75</t>
+  </si>
+  <si>
+    <t>380519944933;75</t>
+  </si>
+  <si>
+    <t>380519945348;75</t>
+  </si>
+  <si>
+    <t>380519945557;75</t>
+  </si>
+  <si>
+    <t>380519942590;75</t>
+  </si>
+  <si>
+    <t>380519944778;75</t>
+  </si>
+  <si>
+    <t>380519945559;75</t>
+  </si>
+  <si>
+    <t>380519945347;75</t>
+  </si>
+  <si>
+    <t>380519945560;75</t>
+  </si>
+  <si>
+    <t>380204432513;75</t>
+  </si>
+  <si>
+    <t>380519943700;75</t>
+  </si>
+  <si>
+    <t>380519940888;75</t>
+  </si>
+  <si>
+    <t>380519945028;75</t>
+  </si>
+  <si>
+    <t>380519942566;75</t>
+  </si>
+  <si>
+    <t>380519945573;75</t>
+  </si>
+  <si>
+    <t>380519945568;75</t>
+  </si>
+  <si>
+    <t>380519943425;75</t>
+  </si>
+  <si>
+    <t>380519945570;75</t>
+  </si>
+  <si>
+    <t>380519945346;75</t>
+  </si>
+  <si>
+    <t>380519945351;75</t>
+  </si>
+  <si>
+    <t>380519948883;75</t>
+  </si>
+  <si>
+    <t>380519943432;75</t>
+  </si>
+  <si>
+    <t>380519943692;75</t>
+  </si>
+  <si>
+    <t>380519946055;75</t>
+  </si>
+  <si>
+    <t>380519940973;75</t>
+  </si>
+  <si>
+    <t>380519940972;75</t>
+  </si>
+  <si>
+    <t>380519945027;75</t>
+  </si>
+  <si>
+    <t>380519943701;75</t>
+  </si>
+  <si>
+    <t>380519943690;75</t>
+  </si>
+  <si>
+    <t>380519942562;75</t>
+  </si>
+  <si>
+    <t>380519943427;75</t>
+  </si>
+  <si>
+    <t>380519943689;75</t>
+  </si>
+  <si>
+    <t>380519943694;75</t>
+  </si>
+  <si>
+    <t>380519940974;75</t>
+  </si>
+  <si>
+    <t>380519943695;75</t>
+  </si>
+  <si>
+    <t>380519943428;75</t>
+  </si>
+  <si>
+    <t>380519942564;75</t>
+  </si>
+  <si>
+    <t>380519945342;75</t>
+  </si>
+  <si>
+    <t>380519941270;75</t>
+  </si>
+  <si>
+    <t>380519945400;75</t>
+  </si>
+  <si>
+    <t>380519941600;150</t>
+  </si>
+  <si>
+    <t>380204471288;150</t>
+  </si>
+  <si>
+    <t>380519945343;150</t>
+  </si>
+  <si>
+    <t>380519972061;75</t>
+  </si>
+  <si>
+    <t>380519947478;75</t>
+  </si>
+  <si>
+    <t>380204471276;150</t>
+  </si>
+  <si>
+    <t>380519948388;75</t>
+  </si>
+  <si>
+    <t>380204482713;150</t>
+  </si>
+  <si>
+    <t>380204471275;150</t>
+  </si>
+  <si>
+    <t>380204498151;150</t>
+  </si>
+  <si>
+    <t>380519948398;75</t>
+  </si>
+  <si>
+    <t>380204486391;150</t>
+  </si>
+  <si>
+    <t>380204482812;150</t>
+  </si>
+  <si>
+    <t>380204451801;150 no</t>
+  </si>
+  <si>
+    <t>380519948883;75 off</t>
+  </si>
+  <si>
+    <t>380519948395;75</t>
+  </si>
+  <si>
+    <t>380519947481;75</t>
+  </si>
+  <si>
+    <t>380204475312;150</t>
+  </si>
+  <si>
+    <t>380519948387;75</t>
+  </si>
+  <si>
+    <t>380204432511;150</t>
   </si>
 </sst>
 </file>
@@ -1854,7 +2245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1880,7 +2271,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -1900,8 +2290,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
@@ -1916,6 +2304,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2207,11 +2597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111:XFD111"/>
+    <sheetView topLeftCell="A248" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E259" sqref="E259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2245,21 +2634,21 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43">
-        <v>1</v>
-      </c>
-      <c r="B2" s="43">
-        <v>1</v>
-      </c>
-      <c r="C2" s="43" t="s">
+    <row r="2" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40">
+        <v>1</v>
+      </c>
+      <c r="B2" s="40">
+        <v>1</v>
+      </c>
+      <c r="C2" s="40" t="s">
         <v>527</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="F2" s="45"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -2276,43 +2665,43 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
-        <v>1</v>
-      </c>
-      <c r="B4" s="24">
-        <v>1</v>
-      </c>
-      <c r="C4" s="24" t="s">
+    <row r="4" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>1</v>
+      </c>
+      <c r="B4" s="23">
+        <v>1</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="37">
-        <v>1</v>
-      </c>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="36">
+        <v>1</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>566</v>
       </c>
-      <c r="F4" s="23"/>
-    </row>
-    <row r="5" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
-        <v>1</v>
-      </c>
-      <c r="B5" s="24">
-        <v>1</v>
-      </c>
-      <c r="C5" s="24" t="s">
+      <c r="F4" s="22"/>
+    </row>
+    <row r="5" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>1</v>
+      </c>
+      <c r="B5" s="23">
+        <v>1</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="37">
-        <v>1</v>
-      </c>
-      <c r="E5" s="23" t="s">
+      <c r="D5" s="36">
+        <v>1</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="F5" s="23"/>
-    </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -2330,25 +2719,25 @@
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="22" t="s">
         <v>464</v>
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -2384,14 +2773,14 @@
       <c r="A10" s="12">
         <v>1</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="23">
         <v>2</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="23" t="s">
+      <c r="D10" s="36"/>
+      <c r="E10" s="22" t="s">
         <v>570</v>
       </c>
       <c r="F10" s="14"/>
@@ -2457,7 +2846,7 @@
       </c>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -2475,7 +2864,7 @@
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>1</v>
       </c>
@@ -2492,7 +2881,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>1</v>
       </c>
@@ -2510,7 +2899,7 @@
       </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>1</v>
       </c>
@@ -2528,7 +2917,7 @@
       </c>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>1</v>
       </c>
@@ -2546,20 +2935,20 @@
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="22" t="s">
         <v>463</v>
       </c>
     </row>
@@ -2589,29 +2978,29 @@
         <v>21</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>210</v>
+        <v>574</v>
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:8" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
-        <v>1</v>
-      </c>
-      <c r="B23" s="24">
-        <v>1</v>
-      </c>
-      <c r="C23" s="24" t="s">
+    <row r="23" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23">
+        <v>1</v>
+      </c>
+      <c r="B23" s="23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="36">
-        <v>1</v>
-      </c>
-      <c r="E23" s="23" t="s">
+      <c r="D23" s="35">
+        <v>1</v>
+      </c>
+      <c r="E23" s="22" t="s">
         <v>485</v>
       </c>
-      <c r="H23" s="23"/>
-    </row>
-    <row r="24" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="22"/>
+    </row>
+    <row r="24" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>1</v>
       </c>
@@ -2629,23 +3018,23 @@
       </c>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:8" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
-        <v>1</v>
-      </c>
-      <c r="B25" s="24">
-        <v>1</v>
-      </c>
-      <c r="C25" s="24" t="s">
+    <row r="25" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23">
+        <v>1</v>
+      </c>
+      <c r="B25" s="23">
+        <v>1</v>
+      </c>
+      <c r="C25" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="37">
-        <v>1</v>
-      </c>
-      <c r="E25" s="23" t="s">
+      <c r="D25" s="36">
+        <v>1</v>
+      </c>
+      <c r="E25" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -2693,7 +3082,7 @@
       </c>
       <c r="F28" s="14"/>
     </row>
-    <row r="29" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>1</v>
       </c>
@@ -2727,41 +3116,41 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="43">
-        <v>1</v>
-      </c>
-      <c r="B31" s="43">
-        <v>1</v>
-      </c>
-      <c r="C31" s="43" t="s">
+    <row r="31" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="40">
+        <v>1</v>
+      </c>
+      <c r="B31" s="40">
+        <v>1</v>
+      </c>
+      <c r="C31" s="40" t="s">
         <v>535</v>
       </c>
-      <c r="D31" s="44"/>
-      <c r="E31" s="45" t="s">
+      <c r="D31" s="41"/>
+      <c r="E31" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="F31" s="45"/>
-    </row>
-    <row r="32" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="24">
-        <v>1</v>
-      </c>
-      <c r="B32" s="24">
-        <v>1</v>
-      </c>
-      <c r="C32" s="24" t="s">
+      <c r="F31" s="42"/>
+    </row>
+    <row r="32" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="23">
+        <v>1</v>
+      </c>
+      <c r="B32" s="23">
+        <v>1</v>
+      </c>
+      <c r="C32" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="37">
-        <v>1</v>
-      </c>
-      <c r="E32" s="23" t="s">
+      <c r="D32" s="36">
+        <v>1</v>
+      </c>
+      <c r="E32" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="F32" s="23"/>
-    </row>
-    <row r="33" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>1</v>
       </c>
@@ -2777,7 +3166,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>1</v>
       </c>
@@ -2795,7 +3184,7 @@
       </c>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>1</v>
       </c>
@@ -2813,7 +3202,7 @@
       </c>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>1</v>
       </c>
@@ -2828,7 +3217,7 @@
       </c>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>1</v>
       </c>
@@ -2892,23 +3281,23 @@
       </c>
       <c r="F40" s="14"/>
     </row>
-    <row r="41" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="43">
-        <v>1</v>
-      </c>
-      <c r="B41" s="43">
+    <row r="41" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="40">
+        <v>1</v>
+      </c>
+      <c r="B41" s="40">
         <v>2</v>
       </c>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="40" t="s">
         <v>534</v>
       </c>
-      <c r="D41" s="44"/>
-      <c r="E41" s="45" t="s">
+      <c r="D41" s="41"/>
+      <c r="E41" s="42" t="s">
         <v>567</v>
       </c>
-      <c r="F41" s="45"/>
-    </row>
-    <row r="42" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="42"/>
+    </row>
+    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>1</v>
       </c>
@@ -2941,7 +3330,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>1</v>
       </c>
@@ -3000,7 +3389,7 @@
       </c>
       <c r="F47" s="14"/>
     </row>
-    <row r="48" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>1</v>
       </c>
@@ -3049,36 +3438,36 @@
       </c>
       <c r="F50" s="11"/>
     </row>
-    <row r="51" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="38">
-        <v>1</v>
-      </c>
-      <c r="B51" s="38">
-        <v>1</v>
-      </c>
-      <c r="C51" s="38" t="s">
+    <row r="51" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="37">
+        <v>1</v>
+      </c>
+      <c r="B51" s="37">
+        <v>1</v>
+      </c>
+      <c r="C51" s="37" t="s">
         <v>524</v>
       </c>
-      <c r="D51" s="39"/>
-      <c r="E51" s="40" t="s">
+      <c r="D51" s="38"/>
+      <c r="E51" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="F51" s="40"/>
-    </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="33">
-        <v>1</v>
-      </c>
-      <c r="B52" s="33">
-        <v>1</v>
-      </c>
-      <c r="C52" s="33" t="s">
+      <c r="F51" s="39"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="32">
+        <v>1</v>
+      </c>
+      <c r="B52" s="32">
+        <v>1</v>
+      </c>
+      <c r="C52" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="34">
-        <v>1</v>
-      </c>
-      <c r="E52" s="35" t="s">
+      <c r="D52" s="33">
+        <v>1</v>
+      </c>
+      <c r="E52" s="34" t="s">
         <v>229</v>
       </c>
       <c r="F52" s="2"/>
@@ -3098,41 +3487,41 @@
       </c>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="24">
-        <v>1</v>
-      </c>
-      <c r="B54" s="24">
-        <v>1</v>
-      </c>
-      <c r="C54" s="24" t="s">
+    <row r="54" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="23">
+        <v>1</v>
+      </c>
+      <c r="B54" s="23">
+        <v>1</v>
+      </c>
+      <c r="C54" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D54" s="37">
-        <v>1</v>
-      </c>
-      <c r="E54" s="23" t="s">
+      <c r="D54" s="36">
+        <v>1</v>
+      </c>
+      <c r="E54" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="F54" s="23"/>
-    </row>
-    <row r="55" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="24">
-        <v>1</v>
-      </c>
-      <c r="B55" s="24">
-        <v>1</v>
-      </c>
-      <c r="C55" s="24" t="s">
+      <c r="F54" s="22"/>
+    </row>
+    <row r="55" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="23">
+        <v>1</v>
+      </c>
+      <c r="B55" s="23">
+        <v>1</v>
+      </c>
+      <c r="C55" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D55" s="37">
-        <v>1</v>
-      </c>
-      <c r="E55" s="23" t="s">
+      <c r="D55" s="36">
+        <v>1</v>
+      </c>
+      <c r="E55" s="22" t="s">
         <v>491</v>
       </c>
-      <c r="F55" s="23"/>
+      <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
@@ -3164,21 +3553,21 @@
       </c>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="43">
-        <v>1</v>
-      </c>
-      <c r="B58" s="43">
-        <v>1</v>
-      </c>
-      <c r="C58" s="43" t="s">
+    <row r="58" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="40">
+        <v>1</v>
+      </c>
+      <c r="B58" s="40">
+        <v>1</v>
+      </c>
+      <c r="C58" s="40" t="s">
         <v>533</v>
       </c>
-      <c r="D58" s="44"/>
-      <c r="E58" s="45" t="s">
+      <c r="D58" s="41"/>
+      <c r="E58" s="42" t="s">
         <v>242</v>
       </c>
-      <c r="F58" s="45"/>
+      <c r="F58" s="42"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
@@ -3195,7 +3584,7 @@
       </c>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>1</v>
       </c>
@@ -3212,20 +3601,20 @@
         <v>354</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="24">
-        <v>1</v>
-      </c>
-      <c r="B61" s="24">
-        <v>1</v>
-      </c>
-      <c r="C61" s="24" t="s">
+    <row r="61" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="23">
+        <v>1</v>
+      </c>
+      <c r="B61" s="23">
+        <v>1</v>
+      </c>
+      <c r="C61" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="D61" s="37">
-        <v>1</v>
-      </c>
-      <c r="E61" s="23" t="s">
+      <c r="D61" s="36">
+        <v>1</v>
+      </c>
+      <c r="E61" s="22" t="s">
         <v>553</v>
       </c>
     </row>
@@ -3244,18 +3633,18 @@
       </c>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:10" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="24">
-        <v>1</v>
-      </c>
-      <c r="C63" s="24" t="s">
+    <row r="63" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="23">
+        <v>1</v>
+      </c>
+      <c r="C63" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="D63" s="37">
-        <v>1</v>
-      </c>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
+      <c r="D63" s="36">
+        <v>1</v>
+      </c>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
@@ -3287,20 +3676,20 @@
       </c>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:8" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="24">
-        <v>1</v>
-      </c>
-      <c r="B66" s="24">
-        <v>1</v>
-      </c>
-      <c r="C66" s="24" t="s">
+    <row r="66" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="23">
+        <v>1</v>
+      </c>
+      <c r="B66" s="23">
+        <v>1</v>
+      </c>
+      <c r="C66" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="37">
-        <v>1</v>
-      </c>
-      <c r="E66" s="23" t="s">
+      <c r="D66" s="36">
+        <v>1</v>
+      </c>
+      <c r="E66" s="22" t="s">
         <v>483</v>
       </c>
     </row>
@@ -3318,39 +3707,39 @@
         <v>563</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="24">
-        <v>1</v>
-      </c>
-      <c r="B68" s="24">
-        <v>1</v>
-      </c>
-      <c r="C68" s="24" t="s">
+    <row r="68" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="23">
+        <v>1</v>
+      </c>
+      <c r="B68" s="23">
+        <v>1</v>
+      </c>
+      <c r="C68" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D68" s="37">
-        <v>1</v>
-      </c>
-      <c r="E68" s="23" t="s">
+      <c r="D68" s="36">
+        <v>1</v>
+      </c>
+      <c r="E68" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F68" s="23"/>
-    </row>
-    <row r="69" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="48">
-        <v>1</v>
-      </c>
-      <c r="B69" s="48">
-        <v>1</v>
-      </c>
-      <c r="C69" s="48" t="s">
+      <c r="F68" s="22"/>
+    </row>
+    <row r="69" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="45">
+        <v>1</v>
+      </c>
+      <c r="B69" s="45">
+        <v>1</v>
+      </c>
+      <c r="C69" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="D69" s="49"/>
-      <c r="E69" s="50" t="s">
+      <c r="D69" s="46"/>
+      <c r="E69" s="47" t="s">
         <v>554</v>
       </c>
-      <c r="F69" s="50"/>
+      <c r="F69" s="47"/>
     </row>
     <row r="70" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
@@ -3387,39 +3776,39 @@
         <v>505</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="48">
-        <v>1</v>
-      </c>
-      <c r="B72" s="48">
-        <v>1</v>
-      </c>
-      <c r="C72" s="48" t="s">
+    <row r="72" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="45">
+        <v>1</v>
+      </c>
+      <c r="B72" s="45">
+        <v>1</v>
+      </c>
+      <c r="C72" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="D72" s="49"/>
-      <c r="E72" s="50" t="s">
+      <c r="D72" s="46"/>
+      <c r="E72" s="47" t="s">
         <v>552</v>
       </c>
-      <c r="F72" s="50"/>
-    </row>
-    <row r="73" spans="1:8" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="24">
-        <v>1</v>
-      </c>
-      <c r="B73" s="24">
+      <c r="F72" s="47"/>
+    </row>
+    <row r="73" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="23">
+        <v>1</v>
+      </c>
+      <c r="B73" s="23">
         <v>2</v>
       </c>
-      <c r="C73" s="24" t="s">
+      <c r="C73" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D73" s="37">
-        <v>1</v>
-      </c>
-      <c r="E73" s="23" t="s">
+      <c r="D73" s="36">
+        <v>1</v>
+      </c>
+      <c r="E73" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="F73" s="23"/>
+      <c r="F73" s="22"/>
     </row>
     <row r="74" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9">
@@ -3437,23 +3826,23 @@
       </c>
       <c r="F74" s="11"/>
     </row>
-    <row r="75" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="24">
-        <v>1</v>
-      </c>
-      <c r="B75" s="24">
-        <v>1</v>
-      </c>
-      <c r="C75" s="24" t="s">
+    <row r="75" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="23">
+        <v>1</v>
+      </c>
+      <c r="B75" s="23">
+        <v>1</v>
+      </c>
+      <c r="C75" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D75" s="37">
-        <v>1</v>
-      </c>
-      <c r="E75" s="23" t="s">
+      <c r="D75" s="36">
+        <v>1</v>
+      </c>
+      <c r="E75" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="F75" s="23"/>
+      <c r="F75" s="22"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
@@ -3470,21 +3859,21 @@
       </c>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="43">
-        <v>1</v>
-      </c>
-      <c r="B77" s="43">
-        <v>1</v>
-      </c>
-      <c r="C77" s="43" t="s">
+    <row r="77" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="40">
+        <v>1</v>
+      </c>
+      <c r="B77" s="40">
+        <v>1</v>
+      </c>
+      <c r="C77" s="40" t="s">
         <v>530</v>
       </c>
-      <c r="D77" s="44"/>
-      <c r="E77" s="45" t="s">
+      <c r="D77" s="41"/>
+      <c r="E77" s="42" t="s">
         <v>571</v>
       </c>
-      <c r="F77" s="45"/>
+      <c r="F77" s="42"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
@@ -3517,7 +3906,7 @@
       </c>
       <c r="F79" s="14"/>
     </row>
-    <row r="80" spans="1:8" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>1</v>
       </c>
@@ -3562,23 +3951,23 @@
       </c>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="24">
-        <v>1</v>
-      </c>
-      <c r="B83" s="24">
-        <v>1</v>
-      </c>
-      <c r="C83" s="24" t="s">
+    <row r="83" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="23">
+        <v>1</v>
+      </c>
+      <c r="B83" s="23">
+        <v>1</v>
+      </c>
+      <c r="C83" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D83" s="37">
-        <v>1</v>
-      </c>
-      <c r="E83" s="23" t="s">
+      <c r="D83" s="36">
+        <v>1</v>
+      </c>
+      <c r="E83" s="22" t="s">
         <v>456</v>
       </c>
-      <c r="F83" s="23" t="s">
+      <c r="F83" s="22" t="s">
         <v>455</v>
       </c>
     </row>
@@ -3597,53 +3986,53 @@
       </c>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="24">
-        <v>1</v>
-      </c>
-      <c r="B85" s="24">
-        <v>1</v>
-      </c>
-      <c r="C85" s="24" t="s">
+    <row r="85" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="23">
+        <v>1</v>
+      </c>
+      <c r="B85" s="23">
+        <v>1</v>
+      </c>
+      <c r="C85" s="23" t="s">
         <v>529</v>
       </c>
-      <c r="D85" s="37">
-        <v>1</v>
-      </c>
-      <c r="E85" s="23" t="s">
+      <c r="D85" s="36">
+        <v>1</v>
+      </c>
+      <c r="E85" s="22" t="s">
         <v>558</v>
       </c>
-      <c r="F85" s="23"/>
-    </row>
-    <row r="86" spans="1:7" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="24">
-        <v>1</v>
-      </c>
-      <c r="B86" s="24">
-        <v>1</v>
-      </c>
-      <c r="C86" s="24" t="s">
+      <c r="F85" s="22"/>
+    </row>
+    <row r="86" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="23">
+        <v>1</v>
+      </c>
+      <c r="B86" s="23">
+        <v>1</v>
+      </c>
+      <c r="C86" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D86" s="37">
-        <v>1</v>
-      </c>
-      <c r="E86" s="23"/>
-    </row>
-    <row r="87" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="24">
-        <v>1</v>
-      </c>
-      <c r="B87" s="24">
-        <v>1</v>
-      </c>
-      <c r="C87" s="24" t="s">
+      <c r="D86" s="36">
+        <v>1</v>
+      </c>
+      <c r="E86" s="22"/>
+    </row>
+    <row r="87" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="23">
+        <v>1</v>
+      </c>
+      <c r="B87" s="23">
+        <v>1</v>
+      </c>
+      <c r="C87" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D87" s="37">
-        <v>1</v>
-      </c>
-      <c r="E87" s="23" t="s">
+      <c r="D87" s="36">
+        <v>1</v>
+      </c>
+      <c r="E87" s="22" t="s">
         <v>251</v>
       </c>
     </row>
@@ -3661,7 +4050,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>1</v>
       </c>
@@ -3678,23 +4067,23 @@
         <v>380</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="24">
-        <v>1</v>
-      </c>
-      <c r="B90" s="24">
-        <v>1</v>
-      </c>
-      <c r="C90" s="24" t="s">
+    <row r="90" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="23">
+        <v>1</v>
+      </c>
+      <c r="B90" s="23">
+        <v>1</v>
+      </c>
+      <c r="C90" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D90" s="37">
-        <v>1</v>
-      </c>
-      <c r="E90" s="23" t="s">
+      <c r="D90" s="36">
+        <v>1</v>
+      </c>
+      <c r="E90" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="F90" s="23"/>
+      <c r="F90" s="22"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
@@ -3711,25 +4100,25 @@
       </c>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="24">
-        <v>1</v>
-      </c>
-      <c r="B92" s="24">
-        <v>1</v>
-      </c>
-      <c r="C92" s="24" t="s">
+    <row r="92" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="23">
+        <v>1</v>
+      </c>
+      <c r="B92" s="23">
+        <v>1</v>
+      </c>
+      <c r="C92" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D92" s="37">
-        <v>1</v>
-      </c>
-      <c r="E92" s="23" t="s">
+      <c r="D92" s="36">
+        <v>1</v>
+      </c>
+      <c r="E92" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="G92" s="23"/>
-    </row>
-    <row r="93" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G92" s="22"/>
+    </row>
+    <row r="93" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>1</v>
       </c>
@@ -3749,7 +4138,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>1</v>
       </c>
@@ -3766,17 +4155,17 @@
         <v>351</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="24">
-        <v>1</v>
-      </c>
-      <c r="C95" s="24" t="s">
+    <row r="95" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="23">
+        <v>1</v>
+      </c>
+      <c r="C95" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="D95" s="37">
-        <v>1</v>
-      </c>
-      <c r="E95" s="23"/>
+      <c r="D95" s="36">
+        <v>1</v>
+      </c>
+      <c r="E95" s="22"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
@@ -3824,7 +4213,7 @@
       </c>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C99" s="5" t="s">
         <v>85</v>
       </c>
@@ -3881,23 +4270,23 @@
       </c>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="43">
-        <v>1</v>
-      </c>
-      <c r="B103" s="43">
-        <v>1</v>
-      </c>
-      <c r="C103" s="43" t="s">
+    <row r="103" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="40">
+        <v>1</v>
+      </c>
+      <c r="B103" s="40">
+        <v>1</v>
+      </c>
+      <c r="C103" s="40" t="s">
         <v>528</v>
       </c>
-      <c r="D103" s="44"/>
-      <c r="E103" s="45" t="s">
+      <c r="D103" s="41"/>
+      <c r="E103" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="F103" s="45"/>
-    </row>
-    <row r="104" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F103" s="42"/>
+    </row>
+    <row r="104" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>1</v>
       </c>
@@ -3929,19 +4318,19 @@
       </c>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="30">
-        <v>1</v>
-      </c>
-      <c r="B106" s="30"/>
-      <c r="C106" s="30" t="s">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="29">
+        <v>1</v>
+      </c>
+      <c r="B106" s="29"/>
+      <c r="C106" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="D106" s="31">
-        <v>1</v>
-      </c>
-      <c r="E106" s="32"/>
-      <c r="F106" s="32" t="s">
+      <c r="D106" s="30">
+        <v>1</v>
+      </c>
+      <c r="E106" s="31"/>
+      <c r="F106" s="31" t="s">
         <v>502</v>
       </c>
     </row>
@@ -3960,23 +4349,23 @@
       </c>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:7" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="24">
-        <v>1</v>
-      </c>
-      <c r="B108" s="24">
-        <v>1</v>
-      </c>
-      <c r="C108" s="24" t="s">
+    <row r="108" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="23">
+        <v>1</v>
+      </c>
+      <c r="B108" s="23">
+        <v>1</v>
+      </c>
+      <c r="C108" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D108" s="37">
-        <v>1</v>
-      </c>
-      <c r="E108" s="23" t="s">
+      <c r="D108" s="36">
+        <v>1</v>
+      </c>
+      <c r="E108" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="F108" s="23"/>
+      <c r="F108" s="22"/>
     </row>
     <row r="109" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="12">
@@ -4009,23 +4398,23 @@
       </c>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="24">
-        <v>1</v>
-      </c>
-      <c r="B111" s="24">
-        <v>1</v>
-      </c>
-      <c r="C111" s="24" t="s">
+    <row r="111" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="23">
+        <v>1</v>
+      </c>
+      <c r="B111" s="23">
+        <v>1</v>
+      </c>
+      <c r="C111" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D111" s="37">
-        <v>1</v>
-      </c>
-      <c r="E111" s="23" t="s">
+      <c r="D111" s="36">
+        <v>1</v>
+      </c>
+      <c r="E111" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="F111" s="23"/>
+      <c r="F111" s="22"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
@@ -4087,7 +4476,7 @@
       </c>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>1</v>
       </c>
@@ -4105,23 +4494,23 @@
       </c>
       <c r="F116" s="7"/>
     </row>
-    <row r="117" spans="1:9" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="24">
-        <v>1</v>
-      </c>
-      <c r="B117" s="24">
-        <v>1</v>
-      </c>
-      <c r="C117" s="24" t="s">
+    <row r="117" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="23">
+        <v>1</v>
+      </c>
+      <c r="B117" s="23">
+        <v>1</v>
+      </c>
+      <c r="C117" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D117" s="36">
-        <v>1</v>
-      </c>
-      <c r="E117" s="23" t="s">
+      <c r="D117" s="35">
+        <v>1</v>
+      </c>
+      <c r="E117" s="22" t="s">
         <v>471</v>
       </c>
-      <c r="F117" s="23"/>
+      <c r="F117" s="22"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
@@ -4138,23 +4527,23 @@
       </c>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="24">
-        <v>1</v>
-      </c>
-      <c r="B119" s="24">
-        <v>1</v>
-      </c>
-      <c r="C119" s="24" t="s">
+    <row r="119" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="23">
+        <v>1</v>
+      </c>
+      <c r="B119" s="23">
+        <v>1</v>
+      </c>
+      <c r="C119" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="D119" s="37">
-        <v>1</v>
-      </c>
-      <c r="E119" s="23" t="s">
+      <c r="D119" s="36">
+        <v>1</v>
+      </c>
+      <c r="E119" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="F119" s="23"/>
+      <c r="F119" s="22"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
@@ -4218,23 +4607,23 @@
       </c>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="1:9" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="24">
-        <v>1</v>
-      </c>
-      <c r="B124" s="24">
-        <v>1</v>
-      </c>
-      <c r="C124" s="24" t="s">
+    <row r="124" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="23">
+        <v>1</v>
+      </c>
+      <c r="B124" s="23">
+        <v>1</v>
+      </c>
+      <c r="C124" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D124" s="37">
-        <v>1</v>
-      </c>
-      <c r="E124" s="23" t="s">
+      <c r="D124" s="36">
+        <v>1</v>
+      </c>
+      <c r="E124" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="F124" s="23"/>
+      <c r="F124" s="22"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
@@ -4251,7 +4640,7 @@
       </c>
       <c r="F125" s="2"/>
     </row>
-    <row r="126" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <v>1</v>
       </c>
@@ -4284,7 +4673,7 @@
       </c>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
         <v>1</v>
       </c>
@@ -4302,20 +4691,20 @@
       </c>
       <c r="I128" s="7"/>
     </row>
-    <row r="129" spans="1:10" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="24">
-        <v>1</v>
-      </c>
-      <c r="B129" s="24">
-        <v>1</v>
-      </c>
-      <c r="C129" s="24" t="s">
+    <row r="129" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="23">
+        <v>1</v>
+      </c>
+      <c r="B129" s="23">
+        <v>1</v>
+      </c>
+      <c r="C129" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D129" s="37">
-        <v>1</v>
-      </c>
-      <c r="E129" s="23" t="s">
+      <c r="D129" s="36">
+        <v>1</v>
+      </c>
+      <c r="E129" s="22" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4334,40 +4723,40 @@
       </c>
       <c r="F130" s="2"/>
     </row>
-    <row r="131" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="24">
-        <v>1</v>
-      </c>
-      <c r="B131" s="24">
-        <v>1</v>
-      </c>
-      <c r="C131" s="24" t="s">
+    <row r="131" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="23">
+        <v>1</v>
+      </c>
+      <c r="B131" s="23">
+        <v>1</v>
+      </c>
+      <c r="C131" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="D131" s="37">
-        <v>1</v>
-      </c>
-      <c r="E131" s="23" t="s">
+      <c r="D131" s="36">
+        <v>1</v>
+      </c>
+      <c r="E131" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="F131" s="23"/>
-    </row>
-    <row r="132" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="43">
-        <v>1</v>
-      </c>
-      <c r="B132" s="43">
-        <v>1</v>
-      </c>
-      <c r="C132" s="43" t="s">
+      <c r="F131" s="22"/>
+    </row>
+    <row r="132" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="40">
+        <v>1</v>
+      </c>
+      <c r="B132" s="40">
+        <v>1</v>
+      </c>
+      <c r="C132" s="40" t="s">
         <v>540</v>
       </c>
-      <c r="D132" s="44"/>
-      <c r="E132" s="45" t="s">
+      <c r="D132" s="41"/>
+      <c r="E132" s="42" t="s">
         <v>490</v>
       </c>
-      <c r="F132" s="45"/>
-      <c r="H132" s="45"/>
+      <c r="F132" s="42"/>
+      <c r="H132" s="42"/>
     </row>
     <row r="133" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="12">
@@ -4402,7 +4791,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="135" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
         <v>1</v>
       </c>
@@ -4435,7 +4824,7 @@
       </c>
       <c r="F136" s="2"/>
     </row>
-    <row r="137" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
         <v>1</v>
       </c>
@@ -4480,7 +4869,7 @@
       </c>
       <c r="E139" s="2"/>
     </row>
-    <row r="140" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
         <v>1</v>
       </c>
@@ -4495,21 +4884,21 @@
       </c>
       <c r="E140" s="7"/>
     </row>
-    <row r="141" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="43">
-        <v>1</v>
-      </c>
-      <c r="B141" s="43">
-        <v>1</v>
-      </c>
-      <c r="C141" s="43" t="s">
+    <row r="141" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="40">
+        <v>1</v>
+      </c>
+      <c r="B141" s="40">
+        <v>1</v>
+      </c>
+      <c r="C141" s="40" t="s">
         <v>542</v>
       </c>
-      <c r="D141" s="44"/>
-      <c r="E141" s="45" t="s">
+      <c r="D141" s="41"/>
+      <c r="E141" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="F141" s="45"/>
+      <c r="F141" s="42"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
@@ -4541,7 +4930,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="144" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
         <v>1</v>
       </c>
@@ -4559,23 +4948,23 @@
       </c>
       <c r="F144" s="7"/>
     </row>
-    <row r="145" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="24">
-        <v>1</v>
-      </c>
-      <c r="B145" s="24">
-        <v>1</v>
-      </c>
-      <c r="C145" s="24" t="s">
+    <row r="145" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="23">
+        <v>1</v>
+      </c>
+      <c r="B145" s="23">
+        <v>1</v>
+      </c>
+      <c r="C145" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="D145" s="37">
-        <v>1</v>
-      </c>
-      <c r="E145" s="23" t="s">
+      <c r="D145" s="36">
+        <v>1</v>
+      </c>
+      <c r="E145" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="F145" s="23"/>
+      <c r="F145" s="22"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
@@ -4622,7 +5011,7 @@
       </c>
       <c r="F148" s="2"/>
     </row>
-    <row r="149" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
         <v>1</v>
       </c>
@@ -4640,7 +5029,7 @@
       </c>
       <c r="F149" s="7"/>
     </row>
-    <row r="150" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
         <v>1</v>
       </c>
@@ -4656,7 +5045,7 @@
       <c r="E150" s="7"/>
       <c r="F150" s="7"/>
     </row>
-    <row r="151" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
         <v>1</v>
       </c>
@@ -4690,7 +5079,7 @@
       </c>
       <c r="F152" s="14"/>
     </row>
-    <row r="153" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
         <v>1</v>
       </c>
@@ -4739,23 +5128,23 @@
       </c>
       <c r="F155" s="2"/>
     </row>
-    <row r="156" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="43">
-        <v>1</v>
-      </c>
-      <c r="B156" s="43">
-        <v>1</v>
-      </c>
-      <c r="C156" s="43" t="s">
+    <row r="156" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="40">
+        <v>1</v>
+      </c>
+      <c r="B156" s="40">
+        <v>1</v>
+      </c>
+      <c r="C156" s="40" t="s">
         <v>536</v>
       </c>
-      <c r="D156" s="44"/>
-      <c r="E156" s="45" t="s">
+      <c r="D156" s="41"/>
+      <c r="E156" s="42" t="s">
         <v>518</v>
       </c>
-      <c r="F156" s="45"/>
-    </row>
-    <row r="157" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F156" s="42"/>
+    </row>
+    <row r="157" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
         <v>1</v>
       </c>
@@ -4773,7 +5162,7 @@
       </c>
       <c r="F157" s="7"/>
     </row>
-    <row r="158" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
         <v>1</v>
       </c>
@@ -4790,38 +5179,38 @@
         <v>315</v>
       </c>
     </row>
-    <row r="159" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="24">
-        <v>1</v>
-      </c>
-      <c r="B159" s="24">
-        <v>1</v>
-      </c>
-      <c r="C159" s="24" t="s">
+    <row r="159" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="23">
+        <v>1</v>
+      </c>
+      <c r="B159" s="23">
+        <v>1</v>
+      </c>
+      <c r="C159" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D159" s="37">
-        <v>1</v>
-      </c>
-      <c r="E159" s="23" t="s">
+      <c r="D159" s="36">
+        <v>1</v>
+      </c>
+      <c r="E159" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="F159" s="23"/>
-    </row>
-    <row r="160" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F159" s="22"/>
+    </row>
+    <row r="160" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
         <v>1</v>
       </c>
       <c r="B160" s="5">
         <v>1</v>
       </c>
-      <c r="C160" s="24" t="s">
+      <c r="C160" s="23" t="s">
         <v>136</v>
       </c>
       <c r="D160" s="6">
         <v>1</v>
       </c>
-      <c r="E160" s="23" t="s">
+      <c r="E160" s="22" t="s">
         <v>292</v>
       </c>
       <c r="F160" s="7"/>
@@ -4856,7 +5245,7 @@
       </c>
       <c r="F162" s="2"/>
     </row>
-    <row r="163" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
         <v>1</v>
       </c>
@@ -4874,61 +5263,61 @@
       </c>
       <c r="F163" s="7"/>
     </row>
-    <row r="164" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="24">
-        <v>1</v>
-      </c>
-      <c r="B164" s="24">
-        <v>1</v>
-      </c>
-      <c r="C164" s="24" t="s">
+    <row r="164" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="23">
+        <v>1</v>
+      </c>
+      <c r="B164" s="23">
+        <v>1</v>
+      </c>
+      <c r="C164" s="23" t="s">
         <v>532</v>
       </c>
-      <c r="D164" s="37">
-        <v>1</v>
-      </c>
-      <c r="E164" s="23" t="s">
+      <c r="D164" s="36">
+        <v>1</v>
+      </c>
+      <c r="E164" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="F164" s="23"/>
-    </row>
-    <row r="165" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="24">
-        <v>1</v>
-      </c>
-      <c r="B165" s="24">
-        <v>1</v>
-      </c>
-      <c r="C165" s="24" t="s">
+      <c r="F164" s="22"/>
+    </row>
+    <row r="165" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="23">
+        <v>1</v>
+      </c>
+      <c r="B165" s="23">
+        <v>1</v>
+      </c>
+      <c r="C165" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="D165" s="37">
-        <v>1</v>
-      </c>
-      <c r="E165" s="23" t="s">
+      <c r="D165" s="36">
+        <v>1</v>
+      </c>
+      <c r="E165" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="H165" s="23"/>
-    </row>
-    <row r="166" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="24">
-        <v>1</v>
-      </c>
-      <c r="B166" s="24">
-        <v>1</v>
-      </c>
-      <c r="C166" s="24" t="s">
+      <c r="H165" s="22"/>
+    </row>
+    <row r="166" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="23">
+        <v>1</v>
+      </c>
+      <c r="B166" s="23">
+        <v>1</v>
+      </c>
+      <c r="C166" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="D166" s="37">
-        <v>1</v>
-      </c>
-      <c r="E166" s="23" t="s">
+      <c r="D166" s="36">
+        <v>1</v>
+      </c>
+      <c r="E166" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="F166" s="23"/>
-    </row>
-    <row r="167" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F166" s="22"/>
+    </row>
+    <row r="167" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
         <v>1</v>
       </c>
@@ -4946,7 +5335,7 @@
       </c>
       <c r="F167" s="7"/>
     </row>
-    <row r="168" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
         <v>1</v>
       </c>
@@ -4993,7 +5382,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="171" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
         <v>1</v>
       </c>
@@ -5073,7 +5462,7 @@
       </c>
       <c r="F175" s="2"/>
     </row>
-    <row r="176" spans="1:9" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
         <v>1</v>
       </c>
@@ -5091,23 +5480,23 @@
       </c>
       <c r="F176" s="7"/>
     </row>
-    <row r="177" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="24">
-        <v>1</v>
-      </c>
-      <c r="B177" s="24">
-        <v>1</v>
-      </c>
-      <c r="C177" s="24" t="s">
+    <row r="177" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="23">
+        <v>1</v>
+      </c>
+      <c r="B177" s="23">
+        <v>1</v>
+      </c>
+      <c r="C177" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="D177" s="37">
-        <v>1</v>
-      </c>
-      <c r="E177" s="23" t="s">
+      <c r="D177" s="36">
+        <v>1</v>
+      </c>
+      <c r="E177" s="22" t="s">
         <v>482</v>
       </c>
-      <c r="F177" s="23" t="s">
+      <c r="F177" s="22" t="s">
         <v>254</v>
       </c>
     </row>
@@ -5126,22 +5515,22 @@
       </c>
       <c r="F178" s="2"/>
     </row>
-    <row r="179" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="43">
-        <v>1</v>
-      </c>
-      <c r="B179" s="43">
-        <v>1</v>
-      </c>
-      <c r="C179" s="43" t="s">
+    <row r="179" spans="1:15" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="40">
+        <v>1</v>
+      </c>
+      <c r="B179" s="40">
+        <v>1</v>
+      </c>
+      <c r="C179" s="40" t="s">
         <v>538</v>
       </c>
-      <c r="D179" s="44"/>
-      <c r="E179" s="45" t="s">
+      <c r="D179" s="41"/>
+      <c r="E179" s="42" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="180" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
         <v>1</v>
       </c>
@@ -5226,23 +5615,23 @@
       </c>
       <c r="F184" s="14"/>
     </row>
-    <row r="185" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="24">
-        <v>1</v>
-      </c>
-      <c r="B185" s="24">
-        <v>1</v>
-      </c>
-      <c r="C185" s="24" t="s">
+    <row r="185" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="23">
+        <v>1</v>
+      </c>
+      <c r="B185" s="23">
+        <v>1</v>
+      </c>
+      <c r="C185" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="D185" s="37">
-        <v>1</v>
-      </c>
-      <c r="E185" s="23" t="s">
+      <c r="D185" s="36">
+        <v>1</v>
+      </c>
+      <c r="E185" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="H185" s="23"/>
+      <c r="H185" s="22"/>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186">
@@ -5259,7 +5648,7 @@
       </c>
       <c r="H186" s="2"/>
     </row>
-    <row r="187" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
         <v>1</v>
       </c>
@@ -5277,23 +5666,23 @@
       </c>
       <c r="F187" s="7"/>
     </row>
-    <row r="188" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="24">
-        <v>1</v>
-      </c>
-      <c r="B188" s="24">
-        <v>1</v>
-      </c>
-      <c r="C188" s="24" t="s">
+    <row r="188" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="23">
+        <v>1</v>
+      </c>
+      <c r="B188" s="23">
+        <v>1</v>
+      </c>
+      <c r="C188" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="D188" s="37">
-        <v>1</v>
-      </c>
-      <c r="E188" s="23" t="s">
+      <c r="D188" s="36">
+        <v>1</v>
+      </c>
+      <c r="E188" s="22" t="s">
         <v>562</v>
       </c>
-      <c r="F188" s="23"/>
+      <c r="F188" s="22"/>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189">
@@ -5326,7 +5715,7 @@
       </c>
       <c r="F190" s="14"/>
     </row>
-    <row r="191" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
         <v>1</v>
       </c>
@@ -5344,7 +5733,7 @@
       </c>
       <c r="F191" s="7"/>
     </row>
-    <row r="192" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
         <v>1</v>
       </c>
@@ -5377,25 +5766,25 @@
       </c>
       <c r="F193" s="2"/>
     </row>
-    <row r="194" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="24">
-        <v>1</v>
-      </c>
-      <c r="B194" s="24">
-        <v>1</v>
-      </c>
-      <c r="C194" s="24" t="s">
+    <row r="194" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="23">
+        <v>1</v>
+      </c>
+      <c r="B194" s="23">
+        <v>1</v>
+      </c>
+      <c r="C194" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="D194" s="37">
-        <v>1</v>
-      </c>
-      <c r="E194" s="23" t="s">
+      <c r="D194" s="36">
+        <v>1</v>
+      </c>
+      <c r="E194" s="22" t="s">
         <v>377</v>
       </c>
-      <c r="F194" s="23"/>
-    </row>
-    <row r="195" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F194" s="22"/>
+    </row>
+    <row r="195" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
         <v>1</v>
       </c>
@@ -5430,23 +5819,23 @@
         <v>363</v>
       </c>
     </row>
-    <row r="197" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="24">
-        <v>1</v>
-      </c>
-      <c r="B197" s="24">
-        <v>1</v>
-      </c>
-      <c r="C197" s="24" t="s">
+    <row r="197" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="23">
+        <v>1</v>
+      </c>
+      <c r="B197" s="23">
+        <v>1</v>
+      </c>
+      <c r="C197" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D197" s="37">
-        <v>1</v>
-      </c>
-      <c r="E197" s="51" t="s">
+      <c r="D197" s="36">
+        <v>1</v>
+      </c>
+      <c r="E197" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="F197" s="23"/>
+      <c r="F197" s="22"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
@@ -5463,39 +5852,39 @@
       </c>
       <c r="F198" s="2"/>
     </row>
-    <row r="199" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="24">
-        <v>1</v>
-      </c>
-      <c r="B199" s="24">
-        <v>1</v>
-      </c>
-      <c r="C199" s="24" t="s">
+    <row r="199" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="23">
+        <v>1</v>
+      </c>
+      <c r="B199" s="23">
+        <v>1</v>
+      </c>
+      <c r="C199" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="D199" s="37">
-        <v>1</v>
-      </c>
-      <c r="E199" s="23" t="s">
+      <c r="D199" s="36">
+        <v>1</v>
+      </c>
+      <c r="E199" s="22" t="s">
         <v>494</v>
       </c>
-      <c r="F199" s="23"/>
-    </row>
-    <row r="200" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="43">
-        <v>1</v>
-      </c>
-      <c r="B200" s="43">
-        <v>1</v>
-      </c>
-      <c r="C200" s="43" t="s">
+      <c r="F199" s="22"/>
+    </row>
+    <row r="200" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="40">
+        <v>1</v>
+      </c>
+      <c r="B200" s="40">
+        <v>1</v>
+      </c>
+      <c r="C200" s="40" t="s">
         <v>541</v>
       </c>
-      <c r="D200" s="47"/>
-      <c r="E200" s="45" t="s">
+      <c r="D200" s="44"/>
+      <c r="E200" s="42" t="s">
         <v>481</v>
       </c>
-      <c r="F200" s="45"/>
+      <c r="F200" s="42"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
@@ -5542,44 +5931,44 @@
       </c>
       <c r="F203" s="2"/>
     </row>
-    <row r="204" spans="1:7" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="24">
-        <v>1</v>
-      </c>
-      <c r="B204" s="24">
-        <v>1</v>
-      </c>
-      <c r="C204" s="24" t="s">
+    <row r="204" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="23">
+        <v>1</v>
+      </c>
+      <c r="B204" s="23">
+        <v>1</v>
+      </c>
+      <c r="C204" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="D204" s="37">
-        <v>1</v>
-      </c>
-      <c r="E204" s="23" t="s">
+      <c r="D204" s="36">
+        <v>1</v>
+      </c>
+      <c r="E204" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="G204" s="23"/>
-    </row>
-    <row r="205" spans="1:7" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="24">
-        <v>1</v>
-      </c>
-      <c r="B205" s="24">
-        <v>1</v>
-      </c>
-      <c r="C205" s="24" t="s">
+      <c r="G204" s="22"/>
+    </row>
+    <row r="205" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="23">
+        <v>1</v>
+      </c>
+      <c r="B205" s="23">
+        <v>1</v>
+      </c>
+      <c r="C205" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="D205" s="37">
-        <v>1</v>
-      </c>
-      <c r="E205" s="23" t="s">
+      <c r="D205" s="36">
+        <v>1</v>
+      </c>
+      <c r="E205" s="22" t="s">
         <v>407</v>
       </c>
-      <c r="F205" s="23" t="s">
+      <c r="F205" s="22" t="s">
         <v>403</v>
       </c>
-      <c r="G205" s="23"/>
+      <c r="G205" s="22"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
@@ -5595,53 +5984,53 @@
         <v>367</v>
       </c>
     </row>
-    <row r="207" spans="1:7" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="24">
-        <v>1</v>
-      </c>
-      <c r="B207" s="24">
-        <v>1</v>
-      </c>
-      <c r="C207" s="24" t="s">
+    <row r="207" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="23">
+        <v>1</v>
+      </c>
+      <c r="B207" s="23">
+        <v>1</v>
+      </c>
+      <c r="C207" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="D207" s="37">
-        <v>1</v>
-      </c>
-      <c r="E207" s="23" t="s">
+      <c r="D207" s="36">
+        <v>1</v>
+      </c>
+      <c r="E207" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="F207" s="23"/>
-    </row>
-    <row r="208" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="24">
-        <v>1</v>
-      </c>
-      <c r="B208" s="24">
-        <v>1</v>
-      </c>
-      <c r="C208" s="24" t="s">
+      <c r="F207" s="22"/>
+    </row>
+    <row r="208" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="23">
+        <v>1</v>
+      </c>
+      <c r="B208" s="23">
+        <v>1</v>
+      </c>
+      <c r="C208" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="D208" s="37">
-        <v>1</v>
-      </c>
-      <c r="E208" s="23" t="s">
+      <c r="D208" s="36">
+        <v>1</v>
+      </c>
+      <c r="E208" s="22" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="209" spans="1:7" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A209" s="43">
-        <v>1</v>
-      </c>
-      <c r="B209" s="43">
-        <v>1</v>
-      </c>
-      <c r="C209" s="43" t="s">
+    <row r="209" spans="1:7" s="40" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A209" s="40">
+        <v>1</v>
+      </c>
+      <c r="B209" s="40">
+        <v>1</v>
+      </c>
+      <c r="C209" s="40" t="s">
         <v>531</v>
       </c>
-      <c r="D209" s="44"/>
-      <c r="E209" s="46" t="s">
+      <c r="D209" s="41"/>
+      <c r="E209" s="43" t="s">
         <v>393</v>
       </c>
     </row>
@@ -5660,7 +6049,7 @@
       </c>
       <c r="F210" s="2"/>
     </row>
-    <row r="211" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
         <v>1</v>
       </c>
@@ -5678,41 +6067,41 @@
       </c>
       <c r="F211" s="7"/>
     </row>
-    <row r="212" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="24">
-        <v>1</v>
-      </c>
-      <c r="B212" s="24">
-        <v>1</v>
-      </c>
-      <c r="C212" s="24" t="s">
+    <row r="212" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="23">
+        <v>1</v>
+      </c>
+      <c r="B212" s="23">
+        <v>1</v>
+      </c>
+      <c r="C212" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="D212" s="37">
-        <v>1</v>
-      </c>
-      <c r="E212" s="23" t="s">
+      <c r="D212" s="36">
+        <v>1</v>
+      </c>
+      <c r="E212" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="F212" s="23"/>
-    </row>
-    <row r="213" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="43">
-        <v>1</v>
-      </c>
-      <c r="B213" s="43">
-        <v>1</v>
-      </c>
-      <c r="C213" s="43" t="s">
+      <c r="F212" s="22"/>
+    </row>
+    <row r="213" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="40">
+        <v>1</v>
+      </c>
+      <c r="B213" s="40">
+        <v>1</v>
+      </c>
+      <c r="C213" s="40" t="s">
         <v>525</v>
       </c>
-      <c r="D213" s="44"/>
-      <c r="E213" s="45" t="s">
+      <c r="D213" s="41"/>
+      <c r="E213" s="42" t="s">
         <v>557</v>
       </c>
-      <c r="F213" s="45"/>
-    </row>
-    <row r="214" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F213" s="42"/>
+    </row>
+    <row r="214" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
         <v>1</v>
       </c>
@@ -5728,7 +6117,7 @@
       <c r="E214" s="7"/>
       <c r="G214" s="7"/>
     </row>
-    <row r="215" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="5">
         <v>1</v>
       </c>
@@ -5743,7 +6132,7 @@
       </c>
       <c r="E215" s="7"/>
     </row>
-    <row r="216" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="5">
         <v>1</v>
       </c>
@@ -5760,24 +6149,24 @@
         <v>288</v>
       </c>
     </row>
-    <row r="217" spans="1:7" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="24">
-        <v>1</v>
-      </c>
-      <c r="B217" s="24">
-        <v>1</v>
-      </c>
-      <c r="C217" s="24" t="s">
+    <row r="217" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="23">
+        <v>1</v>
+      </c>
+      <c r="B217" s="23">
+        <v>1</v>
+      </c>
+      <c r="C217" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="D217" s="37">
-        <v>1</v>
-      </c>
-      <c r="E217" s="23" t="s">
+      <c r="D217" s="36">
+        <v>1</v>
+      </c>
+      <c r="E217" s="22" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="218" spans="1:7" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="5">
         <v>1</v>
       </c>
@@ -5809,20 +6198,20 @@
         <v>286</v>
       </c>
     </row>
-    <row r="220" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="24">
-        <v>1</v>
-      </c>
-      <c r="B220" s="24">
-        <v>1</v>
-      </c>
-      <c r="C220" s="24" t="s">
+    <row r="220" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="23">
+        <v>1</v>
+      </c>
+      <c r="B220" s="23">
+        <v>1</v>
+      </c>
+      <c r="C220" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="D220" s="37">
-        <v>1</v>
-      </c>
-      <c r="E220" s="23" t="s">
+      <c r="D220" s="36">
+        <v>1</v>
+      </c>
+      <c r="E220" s="22" t="s">
         <v>292</v>
       </c>
     </row>
@@ -5833,28 +6222,28 @@
       <c r="B221">
         <v>1</v>
       </c>
-      <c r="C221" s="25" t="s">
+      <c r="C221" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="D221" s="27"/>
-      <c r="E221" s="26" t="s">
+      <c r="D221" s="26"/>
+      <c r="E221" s="25" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="222" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="24">
-        <v>1</v>
-      </c>
-      <c r="B222" s="24">
-        <v>1</v>
-      </c>
-      <c r="C222" s="24" t="s">
+    <row r="222" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="23">
+        <v>1</v>
+      </c>
+      <c r="B222" s="23">
+        <v>1</v>
+      </c>
+      <c r="C222" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="D222" s="37">
-        <v>1</v>
-      </c>
-      <c r="E222" s="23" t="s">
+      <c r="D222" s="36">
+        <v>1</v>
+      </c>
+      <c r="E222" s="22" t="s">
         <v>380</v>
       </c>
     </row>
@@ -5872,66 +6261,66 @@
         <v>555</v>
       </c>
     </row>
-    <row r="224" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="24">
-        <v>1</v>
-      </c>
-      <c r="B224" s="24">
-        <v>1</v>
-      </c>
-      <c r="C224" s="24" t="s">
+    <row r="224" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="23">
+        <v>1</v>
+      </c>
+      <c r="B224" s="23">
+        <v>1</v>
+      </c>
+      <c r="C224" s="23" t="s">
         <v>416</v>
       </c>
-      <c r="D224" s="37">
-        <v>1</v>
-      </c>
-      <c r="E224" s="23" t="s">
+      <c r="D224" s="36">
+        <v>1</v>
+      </c>
+      <c r="E224" s="22" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="225" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="24">
-        <v>1</v>
-      </c>
-      <c r="B225" s="24">
-        <v>1</v>
-      </c>
-      <c r="C225" s="24" t="s">
+    <row r="225" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="23">
+        <v>1</v>
+      </c>
+      <c r="B225" s="23">
+        <v>1</v>
+      </c>
+      <c r="C225" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="D225" s="37">
-        <v>1</v>
-      </c>
-      <c r="E225" s="23" t="s">
+      <c r="D225" s="36">
+        <v>1</v>
+      </c>
+      <c r="E225" s="22" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="226" spans="1:5" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="24">
-        <v>1</v>
-      </c>
-      <c r="B226" s="24">
-        <v>1</v>
-      </c>
-      <c r="C226" s="24" t="s">
+    <row r="226" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="23">
+        <v>1</v>
+      </c>
+      <c r="B226" s="23">
+        <v>1</v>
+      </c>
+      <c r="C226" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="D226" s="37">
-        <v>1</v>
-      </c>
-      <c r="E226" s="23" t="s">
+      <c r="D226" s="36">
+        <v>1</v>
+      </c>
+      <c r="E226" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="227" spans="1:5" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="43">
-        <v>1</v>
-      </c>
-      <c r="C227" s="43" t="s">
+    <row r="227" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="40">
+        <v>1</v>
+      </c>
+      <c r="C227" s="40" t="s">
         <v>526</v>
       </c>
-      <c r="D227" s="44"/>
-      <c r="E227" s="45" t="s">
+      <c r="D227" s="41"/>
+      <c r="E227" s="42" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5947,7 +6336,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="229" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="5">
         <v>1</v>
       </c>
@@ -5962,34 +6351,34 @@
       </c>
       <c r="E229" s="7"/>
     </row>
-    <row r="230" spans="1:5" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="24">
-        <v>1</v>
-      </c>
-      <c r="B230" s="24">
-        <v>1</v>
-      </c>
-      <c r="C230" s="24" t="s">
+    <row r="230" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="23">
+        <v>1</v>
+      </c>
+      <c r="B230" s="23">
+        <v>1</v>
+      </c>
+      <c r="C230" s="23" t="s">
         <v>419</v>
       </c>
-      <c r="D230" s="37">
-        <v>1</v>
-      </c>
-      <c r="E230" s="23" t="s">
+      <c r="D230" s="36">
+        <v>1</v>
+      </c>
+      <c r="E230" s="22" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="231" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="24">
-        <v>1</v>
-      </c>
-      <c r="C231" s="24" t="s">
+    <row r="231" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="23">
+        <v>1</v>
+      </c>
+      <c r="C231" s="23" t="s">
         <v>422</v>
       </c>
-      <c r="D231" s="37">
-        <v>1</v>
-      </c>
-      <c r="E231" s="52"/>
+      <c r="D231" s="36">
+        <v>1</v>
+      </c>
+      <c r="E231" s="49"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
@@ -6033,156 +6422,156 @@
         <v>326</v>
       </c>
     </row>
-    <row r="235" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="24">
-        <v>1</v>
-      </c>
-      <c r="B235" s="24">
-        <v>1</v>
-      </c>
-      <c r="C235" s="24" t="s">
+    <row r="235" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="23">
+        <v>1</v>
+      </c>
+      <c r="B235" s="23">
+        <v>1</v>
+      </c>
+      <c r="C235" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="D235" s="37">
-        <v>1</v>
-      </c>
-      <c r="E235" s="23" t="s">
+      <c r="D235" s="36">
+        <v>1</v>
+      </c>
+      <c r="E235" s="22" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="236" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="24">
-        <v>1</v>
-      </c>
-      <c r="B236" s="24">
-        <v>1</v>
-      </c>
-      <c r="C236" s="24" t="s">
+    <row r="236" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="23">
+        <v>1</v>
+      </c>
+      <c r="B236" s="23">
+        <v>1</v>
+      </c>
+      <c r="C236" s="23" t="s">
         <v>537</v>
       </c>
-      <c r="D236" s="37">
-        <v>1</v>
-      </c>
-      <c r="E236" s="23" t="s">
+      <c r="D236" s="36">
+        <v>1</v>
+      </c>
+      <c r="E236" s="22" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="237" spans="1:5" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="24">
-        <v>1</v>
-      </c>
-      <c r="B237" s="24">
-        <v>1</v>
-      </c>
-      <c r="C237" s="24" t="s">
+    <row r="237" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="23">
+        <v>1</v>
+      </c>
+      <c r="B237" s="23">
+        <v>1</v>
+      </c>
+      <c r="C237" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="D237" s="37">
-        <v>1</v>
-      </c>
-      <c r="E237" s="23" t="s">
+      <c r="D237" s="36">
+        <v>1</v>
+      </c>
+      <c r="E237" s="22" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="238" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="24">
-        <v>1</v>
-      </c>
-      <c r="B238" s="24">
-        <v>1</v>
-      </c>
-      <c r="C238" s="24" t="s">
+    <row r="238" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="23">
+        <v>1</v>
+      </c>
+      <c r="B238" s="23">
+        <v>1</v>
+      </c>
+      <c r="C238" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="D238" s="37">
-        <v>1</v>
-      </c>
-      <c r="E238" s="23" t="s">
+      <c r="D238" s="36">
+        <v>1</v>
+      </c>
+      <c r="E238" s="22" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="239" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="24">
-        <v>1</v>
-      </c>
-      <c r="C239" s="24" t="s">
+    <row r="239" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="23">
+        <v>1</v>
+      </c>
+      <c r="C239" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="D239" s="37">
-        <v>1</v>
-      </c>
-      <c r="E239" s="23" t="s">
+      <c r="D239" s="36">
+        <v>1</v>
+      </c>
+      <c r="E239" s="22" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="240" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="24">
-        <v>1</v>
-      </c>
-      <c r="B240" s="24">
-        <v>1</v>
-      </c>
-      <c r="C240" s="24" t="s">
+    <row r="240" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="23">
+        <v>1</v>
+      </c>
+      <c r="B240" s="23">
+        <v>1</v>
+      </c>
+      <c r="C240" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="D240" s="37">
-        <v>1</v>
-      </c>
-      <c r="E240" s="23" t="s">
+      <c r="D240" s="36">
+        <v>1</v>
+      </c>
+      <c r="E240" s="22" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="241" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="24">
-        <v>1</v>
-      </c>
-      <c r="B241" s="24">
+    <row r="241" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="23">
+        <v>1</v>
+      </c>
+      <c r="B241" s="23">
         <v>2</v>
       </c>
-      <c r="C241" s="24" t="s">
+      <c r="C241" s="23" t="s">
         <v>539</v>
       </c>
-      <c r="D241" s="37">
-        <v>1</v>
-      </c>
-      <c r="E241" s="23" t="s">
+      <c r="D241" s="36">
+        <v>1</v>
+      </c>
+      <c r="E241" s="22" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="242" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="24">
-        <v>1</v>
-      </c>
-      <c r="B242" s="24">
-        <v>1</v>
-      </c>
-      <c r="C242" s="24" t="s">
+    <row r="242" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="23">
+        <v>1</v>
+      </c>
+      <c r="B242" s="23">
+        <v>1</v>
+      </c>
+      <c r="C242" s="23" t="s">
         <v>431</v>
       </c>
-      <c r="D242" s="37">
-        <v>1</v>
-      </c>
-      <c r="E242" s="23" t="s">
+      <c r="D242" s="36">
+        <v>1</v>
+      </c>
+      <c r="E242" s="22" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="243" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="24">
-        <v>1</v>
-      </c>
-      <c r="B243" s="24">
+    <row r="243" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="23">
+        <v>1</v>
+      </c>
+      <c r="B243" s="23">
         <v>2</v>
       </c>
-      <c r="C243" s="24" t="s">
+      <c r="C243" s="23" t="s">
         <v>431</v>
       </c>
-      <c r="D243" s="37">
-        <v>1</v>
-      </c>
-      <c r="E243" s="23" t="s">
+      <c r="D243" s="36">
+        <v>1</v>
+      </c>
+      <c r="E243" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="F243" s="23"/>
+      <c r="F243" s="22"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
@@ -6240,7 +6629,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="248" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="5">
         <v>1</v>
       </c>
@@ -6257,20 +6646,20 @@
         <v>395</v>
       </c>
     </row>
-    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1</v>
       </c>
       <c r="B249">
         <v>1</v>
       </c>
-      <c r="C249" s="24" t="s">
+      <c r="C249" s="23" t="s">
         <v>436</v>
       </c>
       <c r="D249" s="1">
         <v>1</v>
       </c>
-      <c r="E249" s="23" t="s">
+      <c r="E249" s="22" t="s">
         <v>466</v>
       </c>
     </row>
@@ -6301,20 +6690,20 @@
         <v>205</v>
       </c>
     </row>
-    <row r="252" spans="1:6" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="24">
-        <v>1</v>
-      </c>
-      <c r="B252" s="24">
-        <v>1</v>
-      </c>
-      <c r="C252" s="24" t="s">
+    <row r="252" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="23">
+        <v>1</v>
+      </c>
+      <c r="B252" s="23">
+        <v>1</v>
+      </c>
+      <c r="C252" s="23" t="s">
         <v>444</v>
       </c>
-      <c r="D252" s="37">
-        <v>1</v>
-      </c>
-      <c r="E252" s="23" t="s">
+      <c r="D252" s="36">
+        <v>1</v>
+      </c>
+      <c r="E252" s="22" t="s">
         <v>492</v>
       </c>
     </row>
@@ -6333,17 +6722,17 @@
         <v>493</v>
       </c>
     </row>
-    <row r="254" spans="1:6" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="12">
         <v>1</v>
       </c>
-      <c r="C254" s="24" t="s">
+      <c r="C254" s="23" t="s">
         <v>451</v>
       </c>
       <c r="D254" s="13">
         <v>1</v>
       </c>
-      <c r="E254" s="23" t="s">
+      <c r="E254" s="22" t="s">
         <v>465</v>
       </c>
     </row>
@@ -6359,17 +6748,17 @@
         <v>319</v>
       </c>
     </row>
-    <row r="256" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="24">
-        <v>1</v>
-      </c>
-      <c r="C256" s="24" t="s">
+    <row r="256" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="23">
+        <v>1</v>
+      </c>
+      <c r="C256" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="D256" s="37">
-        <v>1</v>
-      </c>
-      <c r="E256" s="23" t="s">
+      <c r="D256" s="36">
+        <v>1</v>
+      </c>
+      <c r="E256" s="22" t="s">
         <v>342</v>
       </c>
     </row>
@@ -6384,45 +6773,45 @@
         <v>351</v>
       </c>
     </row>
-    <row r="258" spans="1:6" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="24">
-        <v>1</v>
-      </c>
-      <c r="C258" s="24" t="s">
+    <row r="258" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="23">
+        <v>1</v>
+      </c>
+      <c r="C258" s="23" t="s">
         <v>520</v>
       </c>
-      <c r="D258" s="37">
-        <v>1</v>
-      </c>
-      <c r="E258" s="23" t="s">
+      <c r="D258" s="36">
+        <v>1</v>
+      </c>
+      <c r="E258" s="22" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="259" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="24">
-        <v>1</v>
-      </c>
-      <c r="C259" s="24" t="s">
+    <row r="259" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="23">
+        <v>1</v>
+      </c>
+      <c r="C259" s="23" t="s">
         <v>460</v>
       </c>
-      <c r="D259" s="37">
-        <v>1</v>
-      </c>
-      <c r="E259" s="23" t="s">
+      <c r="D259" s="36">
+        <v>1</v>
+      </c>
+      <c r="E259" s="22" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="260" spans="1:6" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="24">
-        <v>1</v>
-      </c>
-      <c r="C260" s="24" t="s">
+    <row r="260" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="23">
+        <v>1</v>
+      </c>
+      <c r="C260" s="23" t="s">
         <v>461</v>
       </c>
-      <c r="D260" s="37">
-        <v>1</v>
-      </c>
-      <c r="E260" s="23" t="s">
+      <c r="D260" s="36">
+        <v>1</v>
+      </c>
+      <c r="E260" s="22" t="s">
         <v>408</v>
       </c>
     </row>
@@ -6437,17 +6826,17 @@
         <v>285</v>
       </c>
     </row>
-    <row r="262" spans="1:6" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="24">
-        <v>1</v>
-      </c>
-      <c r="C262" s="24" t="s">
+    <row r="262" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="23">
+        <v>1</v>
+      </c>
+      <c r="C262" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="D262" s="37">
-        <v>1</v>
-      </c>
-      <c r="E262" s="23" t="s">
+      <c r="D262" s="36">
+        <v>1</v>
+      </c>
+      <c r="E262" s="22" t="s">
         <v>509</v>
       </c>
     </row>
@@ -6462,17 +6851,17 @@
         <v>549</v>
       </c>
     </row>
-    <row r="264" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="24">
-        <v>1</v>
-      </c>
-      <c r="C264" s="24" t="s">
+    <row r="264" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="23">
+        <v>1</v>
+      </c>
+      <c r="C264" s="23" t="s">
         <v>521</v>
       </c>
-      <c r="D264" s="37">
-        <v>1</v>
-      </c>
-      <c r="E264" s="23" t="s">
+      <c r="D264" s="36">
+        <v>1</v>
+      </c>
+      <c r="E264" s="22" t="s">
         <v>556</v>
       </c>
     </row>
@@ -6502,10 +6891,10 @@
       <c r="A267">
         <v>1</v>
       </c>
-      <c r="C267" s="28" t="s">
+      <c r="C267" s="27" t="s">
         <v>499</v>
       </c>
-      <c r="E267" s="29" t="s">
+      <c r="E267" s="28" t="s">
         <v>498</v>
       </c>
     </row>
@@ -6513,22 +6902,22 @@
       <c r="A268">
         <v>1</v>
       </c>
-      <c r="C268" s="28" t="s">
+      <c r="C268" s="27" t="s">
         <v>572</v>
       </c>
-      <c r="E268" s="29" t="s">
+      <c r="E268" s="28" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="269" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="20">
-        <v>1</v>
-      </c>
-      <c r="C269" s="41" t="s">
+    <row r="269" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="12">
+        <v>1</v>
+      </c>
+      <c r="C269" s="50" t="s">
         <v>522</v>
       </c>
-      <c r="D269" s="21"/>
-      <c r="E269" s="42" t="s">
+      <c r="D269" s="13"/>
+      <c r="E269" s="51" t="s">
         <v>560</v>
       </c>
     </row>
@@ -6539,22 +6928,24 @@
       <c r="B270">
         <v>1</v>
       </c>
-      <c r="C270" s="28" t="s">
+      <c r="C270" s="27" t="s">
         <v>515</v>
       </c>
-      <c r="E270" s="29" t="s">
+      <c r="E270" s="28" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="271" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="20">
-        <v>1</v>
-      </c>
-      <c r="C271" s="41" t="s">
+    <row r="271" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="12">
+        <v>1</v>
+      </c>
+      <c r="C271" s="50" t="s">
         <v>523</v>
       </c>
-      <c r="D271" s="21"/>
-      <c r="E271" s="42"/>
+      <c r="D271" s="13"/>
+      <c r="E271" s="51" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
@@ -6595,7 +6986,7 @@
       </c>
       <c r="F274" s="2"/>
     </row>
-    <row r="275" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C275" s="5" t="s">
         <v>333</v>
       </c>
@@ -6615,7 +7006,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="277" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C277" s="5" t="s">
         <v>477</v>
       </c>
@@ -6626,7 +7017,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="278" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C278" s="5" t="s">
         <v>349</v>
       </c>
@@ -6646,11 +7037,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F278">
-    <filterColumn colId="3">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F278"/>
   <sortState ref="A2:D224">
     <sortCondition ref="C189"/>
   </sortState>
@@ -6663,7 +7050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B205"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
@@ -7057,7 +7444,7 @@
       <c r="A49" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="24" t="s">
         <v>344</v>
       </c>
     </row>
@@ -7169,7 +7556,7 @@
       <c r="A63" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="24" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7487,7 +7874,7 @@
       <c r="A103" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B103" s="25" t="s">
+      <c r="B103" s="24" t="s">
         <v>114</v>
       </c>
     </row>
@@ -7975,7 +8362,7 @@
       <c r="A165" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B165" s="25" t="s">
+      <c r="B165" s="24" t="s">
         <v>413</v>
       </c>
     </row>
@@ -8020,7 +8407,7 @@
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="22"/>
+      <c r="A171" s="21"/>
       <c r="B171" s="20" t="s">
         <v>420</v>
       </c>
@@ -8045,7 +8432,7 @@
       <c r="A174" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="B174" s="25" t="s">
+      <c r="B174" s="24" t="s">
         <v>422</v>
       </c>
     </row>
@@ -8106,7 +8493,7 @@
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="22"/>
+      <c r="A182" s="21"/>
       <c r="B182" s="20" t="s">
         <v>429</v>
       </c>
@@ -8139,7 +8526,7 @@
       <c r="A186" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B186" s="25" t="s">
+      <c r="B186" s="24" t="s">
         <v>431</v>
       </c>
     </row>
@@ -8200,7 +8587,7 @@
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="22" t="s">
+      <c r="A194" s="21" t="s">
         <v>447</v>
       </c>
       <c r="B194" s="20" t="s">
@@ -8299,4 +8686,2130 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E143"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="F134" sqref="F134"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="40">
+        <v>1</v>
+      </c>
+      <c r="B2" s="40">
+        <v>1</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>527</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>1</v>
+      </c>
+      <c r="B5" s="23">
+        <v>2</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="22" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>1</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="40">
+        <v>1</v>
+      </c>
+      <c r="B16" s="40">
+        <v>1</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>535</v>
+      </c>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>1</v>
+      </c>
+      <c r="B19" s="12">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="40">
+        <v>1</v>
+      </c>
+      <c r="B20" s="40">
+        <v>2</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>1</v>
+      </c>
+      <c r="B24" s="12">
+        <v>1</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>1</v>
+      </c>
+      <c r="B25" s="9">
+        <v>1</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>1</v>
+      </c>
+      <c r="B26" s="9">
+        <v>2</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="37">
+        <v>1</v>
+      </c>
+      <c r="B27" s="37">
+        <v>1</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="40">
+        <v>1</v>
+      </c>
+      <c r="B31" s="40">
+        <v>1</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="D31" s="41"/>
+      <c r="E31" s="42" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="45">
+        <v>1</v>
+      </c>
+      <c r="B37" s="45">
+        <v>1</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="46"/>
+      <c r="E37" s="47" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <v>1</v>
+      </c>
+      <c r="B38" s="12">
+        <v>2</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="14" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="45">
+        <v>1</v>
+      </c>
+      <c r="B40" s="45">
+        <v>1</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="46"/>
+      <c r="E40" s="47" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>1</v>
+      </c>
+      <c r="B41" s="9">
+        <v>2</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="40">
+        <v>1</v>
+      </c>
+      <c r="B43" s="40">
+        <v>1</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>530</v>
+      </c>
+      <c r="D43" s="41"/>
+      <c r="E43" s="42" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="12">
+        <v>1</v>
+      </c>
+      <c r="B45" s="12">
+        <v>1</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="14" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>83</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="12">
+        <v>1</v>
+      </c>
+      <c r="B52" s="12">
+        <v>1</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" s="13"/>
+      <c r="E52" s="14" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="40">
+        <v>1</v>
+      </c>
+      <c r="B57" s="40">
+        <v>1</v>
+      </c>
+      <c r="C57" s="40" t="s">
+        <v>528</v>
+      </c>
+      <c r="D57" s="41"/>
+      <c r="E57" s="42" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="12">
+        <v>1</v>
+      </c>
+      <c r="B60" s="12">
+        <v>1</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" s="13"/>
+      <c r="E60" s="14" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>93</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>94</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>95</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>96</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>97</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>100</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>102</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="12">
+        <v>1</v>
+      </c>
+      <c r="B68" s="12">
+        <v>1</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D68" s="13"/>
+      <c r="E68" s="14" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>104</v>
+      </c>
+      <c r="D69" s="4"/>
+      <c r="E69" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>105</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>109</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>112</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="40">
+        <v>1</v>
+      </c>
+      <c r="B74" s="40">
+        <v>1</v>
+      </c>
+      <c r="C74" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="D74" s="41"/>
+      <c r="E74" s="42" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="12">
+        <v>1</v>
+      </c>
+      <c r="B75" s="12">
+        <v>2</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D75" s="13"/>
+      <c r="E75" s="14" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>396</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>116</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>118</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>119</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="40">
+        <v>1</v>
+      </c>
+      <c r="B80" s="40">
+        <v>1</v>
+      </c>
+      <c r="C80" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="D80" s="41"/>
+      <c r="E80" s="42" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>120</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>120</v>
+      </c>
+      <c r="D82" s="4"/>
+      <c r="E82" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>122</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>123</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>124</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="12">
+        <v>1</v>
+      </c>
+      <c r="B86" s="12">
+        <v>1</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D86" s="13"/>
+      <c r="E86" s="14" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="12">
+        <v>1</v>
+      </c>
+      <c r="B87" s="12">
+        <v>1</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D87" s="15"/>
+      <c r="E87" s="17" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>131</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="40">
+        <v>1</v>
+      </c>
+      <c r="B89" s="40">
+        <v>1</v>
+      </c>
+      <c r="C89" s="40" t="s">
+        <v>536</v>
+      </c>
+      <c r="D89" s="41"/>
+      <c r="E89" s="42" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>137</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>137</v>
+      </c>
+      <c r="D91" s="1"/>
+      <c r="E91" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>144</v>
+      </c>
+      <c r="D92" s="1"/>
+      <c r="E92" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>145</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="E93" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="12">
+        <v>1</v>
+      </c>
+      <c r="B94" s="12">
+        <v>1</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D94" s="13"/>
+      <c r="E94" s="14" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="12">
+        <v>1</v>
+      </c>
+      <c r="B95" s="12">
+        <v>1</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D95" s="13"/>
+      <c r="E95" s="14" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>149</v>
+      </c>
+      <c r="D96" s="1"/>
+      <c r="E96" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>150</v>
+      </c>
+      <c r="D97" s="1"/>
+      <c r="E97" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>154</v>
+      </c>
+      <c r="D98" s="1"/>
+      <c r="E98" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="40">
+        <v>1</v>
+      </c>
+      <c r="B99" s="40">
+        <v>1</v>
+      </c>
+      <c r="C99" s="40" t="s">
+        <v>538</v>
+      </c>
+      <c r="D99" s="41"/>
+      <c r="E99" s="42" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>157</v>
+      </c>
+      <c r="D100" s="1"/>
+      <c r="E100" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>158</v>
+      </c>
+      <c r="D101" s="4"/>
+      <c r="E101" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>159</v>
+      </c>
+      <c r="D102" s="1"/>
+      <c r="E102" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="12">
+        <v>1</v>
+      </c>
+      <c r="B103" s="12">
+        <v>1</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D103" s="13"/>
+      <c r="E103" s="14" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>162</v>
+      </c>
+      <c r="D104" s="1"/>
+      <c r="E104" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>165</v>
+      </c>
+      <c r="D105" s="1"/>
+      <c r="E105" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="12">
+        <v>1</v>
+      </c>
+      <c r="B106" s="12">
+        <v>1</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D106" s="13"/>
+      <c r="E106" s="14" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>169</v>
+      </c>
+      <c r="D107" s="1"/>
+      <c r="E107" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>172</v>
+      </c>
+      <c r="D108" s="1"/>
+      <c r="E108" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>174</v>
+      </c>
+      <c r="D109" s="1"/>
+      <c r="E109" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="40">
+        <v>1</v>
+      </c>
+      <c r="B110" s="40">
+        <v>1</v>
+      </c>
+      <c r="C110" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="D110" s="44"/>
+      <c r="E110" s="42" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111" t="s">
+        <v>176</v>
+      </c>
+      <c r="D111" s="4"/>
+      <c r="E111" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>177</v>
+      </c>
+      <c r="D112" s="1"/>
+      <c r="E112" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>178</v>
+      </c>
+      <c r="D113" s="1"/>
+      <c r="E113" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>181</v>
+      </c>
+      <c r="D114" s="1"/>
+      <c r="E114" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="40">
+        <v>1</v>
+      </c>
+      <c r="B115" s="40">
+        <v>1</v>
+      </c>
+      <c r="C115" s="40" t="s">
+        <v>531</v>
+      </c>
+      <c r="D115" s="41"/>
+      <c r="E115" s="43" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>185</v>
+      </c>
+      <c r="D116" s="1"/>
+      <c r="E116" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="40">
+        <v>1</v>
+      </c>
+      <c r="B117" s="40">
+        <v>1</v>
+      </c>
+      <c r="C117" s="40" t="s">
+        <v>525</v>
+      </c>
+      <c r="D117" s="41"/>
+      <c r="E117" s="42" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="12">
+        <v>1</v>
+      </c>
+      <c r="B118" s="12">
+        <v>1</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="D118" s="13"/>
+      <c r="E118" s="14" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="D119" s="26"/>
+      <c r="E119" s="25" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120" t="s">
+        <v>415</v>
+      </c>
+      <c r="D120" s="1"/>
+      <c r="E120" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="40">
+        <v>1</v>
+      </c>
+      <c r="B121" s="40"/>
+      <c r="C121" s="40" t="s">
+        <v>526</v>
+      </c>
+      <c r="D121" s="41"/>
+      <c r="E121" s="42" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="12">
+        <v>1</v>
+      </c>
+      <c r="B122" s="12"/>
+      <c r="C122" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="D122" s="13"/>
+      <c r="E122" s="14" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123" t="s">
+        <v>423</v>
+      </c>
+      <c r="D123" s="1"/>
+      <c r="E123" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124" t="s">
+        <v>424</v>
+      </c>
+      <c r="D124" s="1"/>
+      <c r="E124" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125" t="s">
+        <v>425</v>
+      </c>
+      <c r="D125" s="1"/>
+      <c r="E125" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
+        <v>432</v>
+      </c>
+      <c r="D126" s="1"/>
+      <c r="E126" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
+        <v>433</v>
+      </c>
+      <c r="D127" s="1"/>
+      <c r="E127" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="C128" t="s">
+        <v>434</v>
+      </c>
+      <c r="D128" s="1"/>
+      <c r="E128" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>1</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129" t="s">
+        <v>435</v>
+      </c>
+      <c r="D129" s="1"/>
+      <c r="E129" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="12">
+        <v>1</v>
+      </c>
+      <c r="B130" s="12"/>
+      <c r="C130" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="D130" s="13"/>
+      <c r="E130" s="14" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="12">
+        <v>1</v>
+      </c>
+      <c r="B131" s="12">
+        <v>1</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="D131" s="13"/>
+      <c r="E131" s="14" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="12">
+        <v>1</v>
+      </c>
+      <c r="B132" s="12">
+        <v>1</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="D132" s="13"/>
+      <c r="E132" s="14" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="12">
+        <v>1</v>
+      </c>
+      <c r="B133" s="12"/>
+      <c r="C133" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="D133" s="13"/>
+      <c r="E133" s="14" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="C134" t="s">
+        <v>440</v>
+      </c>
+      <c r="D134" s="1"/>
+      <c r="E134" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="C135" t="s">
+        <v>462</v>
+      </c>
+      <c r="D135" s="1"/>
+      <c r="E135" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>1</v>
+      </c>
+      <c r="C136" t="s">
+        <v>516</v>
+      </c>
+      <c r="D136" s="1"/>
+      <c r="E136" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="C137" t="s">
+        <v>500</v>
+      </c>
+      <c r="D137" s="1"/>
+      <c r="E137" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="C138" t="s">
+        <v>497</v>
+      </c>
+      <c r="D138" s="1"/>
+      <c r="E138" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>1</v>
+      </c>
+      <c r="C139" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="D139" s="1"/>
+      <c r="E139" s="28" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>1</v>
+      </c>
+      <c r="C140" s="27" t="s">
+        <v>572</v>
+      </c>
+      <c r="D140" s="1"/>
+      <c r="E140" s="28" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="12">
+        <v>1</v>
+      </c>
+      <c r="B141" s="12"/>
+      <c r="C141" s="50" t="s">
+        <v>522</v>
+      </c>
+      <c r="D141" s="13"/>
+      <c r="E141" s="51" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142" s="27" t="s">
+        <v>515</v>
+      </c>
+      <c r="D142" s="1"/>
+      <c r="E142" s="28" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="12">
+        <v>1</v>
+      </c>
+      <c r="B143" s="12"/>
+      <c r="C143" s="50" t="s">
+        <v>523</v>
+      </c>
+      <c r="D143" s="13"/>
+      <c r="E143" s="51" t="s">
+        <v>575</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -2086,9 +2086,6 @@
     <t>380204471288;150</t>
   </si>
   <si>
-    <t>380519945343;150</t>
-  </si>
-  <si>
     <t>380519972061;75</t>
   </si>
   <si>
@@ -2104,21 +2101,12 @@
     <t>380204482713;150</t>
   </si>
   <si>
-    <t>380204471275;150</t>
-  </si>
-  <si>
     <t>380204498151;150</t>
   </si>
   <si>
     <t>380519948398;75</t>
   </si>
   <si>
-    <t>380204486391;150</t>
-  </si>
-  <si>
-    <t>380204482812;150</t>
-  </si>
-  <si>
     <t>380204451801;150 no</t>
   </si>
   <si>
@@ -2138,6 +2126,18 @@
   </si>
   <si>
     <t>380204432511;150</t>
+  </si>
+  <si>
+    <t>380204482812;75</t>
+  </si>
+  <si>
+    <t>380204486391;75</t>
+  </si>
+  <si>
+    <t>380204471275;75</t>
+  </si>
+  <si>
+    <t>380519945343;75</t>
   </si>
 </sst>
 </file>
@@ -8692,8 +8692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="F134" sqref="F134"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9034,7 +9034,7 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="2" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -9169,7 +9169,7 @@
       </c>
       <c r="D31" s="41"/>
       <c r="E31" s="42" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -9214,7 +9214,7 @@
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="2" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -9244,7 +9244,7 @@
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -9259,7 +9259,7 @@
       </c>
       <c r="D37" s="46"/>
       <c r="E37" s="47" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="D40" s="46"/>
       <c r="E40" s="47" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -9514,7 +9514,7 @@
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="2" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -9829,7 +9829,7 @@
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="14" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -10095,7 +10095,7 @@
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -10185,7 +10185,7 @@
       </c>
       <c r="D99" s="41"/>
       <c r="E99" s="42" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -10230,7 +10230,7 @@
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="2" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -10245,7 +10245,7 @@
       </c>
       <c r="D103" s="13"/>
       <c r="E103" s="14" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -10275,7 +10275,7 @@
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -10290,7 +10290,7 @@
       </c>
       <c r="D106" s="13"/>
       <c r="E106" s="14" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -10380,7 +10380,7 @@
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -10440,7 +10440,7 @@
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -10717,7 +10717,7 @@
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="2" t="s">
-        <v>686</v>
+        <v>703</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -10765,7 +10765,7 @@
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="28" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="710">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -1771,9 +1771,6 @@
     <t>380639426654;100</t>
   </si>
   <si>
-    <t>380984291290;125 Вручну</t>
-  </si>
-  <si>
     <t>380978677571;125</t>
   </si>
   <si>
@@ -1801,9 +1798,6 @@
     <t>380680174094;125</t>
   </si>
   <si>
-    <t>380984206369;125</t>
-  </si>
-  <si>
     <t>380995501638;90</t>
   </si>
   <si>
@@ -1825,9 +1819,6 @@
     <t>380687916193;125</t>
   </si>
   <si>
-    <t>380974448527;125</t>
-  </si>
-  <si>
     <t>380968013845;125</t>
   </si>
   <si>
@@ -1873,15 +1864,9 @@
     <t>380519946247;75</t>
   </si>
   <si>
-    <t>380519942571;75</t>
-  </si>
-  <si>
     <t>380519942681;75</t>
   </si>
   <si>
-    <t>380519942585;75  Вручну</t>
-  </si>
-  <si>
     <t>380519942563;75</t>
   </si>
   <si>
@@ -1897,9 +1882,6 @@
     <t>380519945340;75</t>
   </si>
   <si>
-    <t>380519941274;75 310grn</t>
-  </si>
-  <si>
     <t>380519940894;75</t>
   </si>
   <si>
@@ -1945,9 +1927,6 @@
     <t>380519940922;75</t>
   </si>
   <si>
-    <t>380519941273;75 мхп юзают</t>
-  </si>
-  <si>
     <t>380519945569;75</t>
   </si>
   <si>
@@ -2095,9 +2074,6 @@
     <t>380204471276;150</t>
   </si>
   <si>
-    <t>380519948388;75</t>
-  </si>
-  <si>
     <t>380204482713;150</t>
   </si>
   <si>
@@ -2138,6 +2114,48 @@
   </si>
   <si>
     <t>380519945343;75</t>
+  </si>
+  <si>
+    <t>380519948388;150</t>
+  </si>
+  <si>
+    <t>380519943697;75</t>
+  </si>
+  <si>
+    <t>380519941274;75</t>
+  </si>
+  <si>
+    <t>380519946252;75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">380519942585;75 </t>
+  </si>
+  <si>
+    <t>380984291290;125</t>
+  </si>
+  <si>
+    <t>380519941273;75</t>
+  </si>
+  <si>
+    <t>Бестлайн Номер абонента: 30913 Тариф: 190грн</t>
+  </si>
+  <si>
+    <t>380519940945;75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">375 ТТ </t>
+  </si>
+  <si>
+    <t>ХЗ</t>
+  </si>
+  <si>
+    <t>380631198247;60</t>
+  </si>
+  <si>
+    <t>064 ТТ</t>
+  </si>
+  <si>
+    <t>380984206369;125 Перевірити</t>
   </si>
 </sst>
 </file>
@@ -2245,7 +2263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2306,6 +2324,7 @@
     <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2599,8 +2618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O279"/>
   <sheetViews>
-    <sheetView topLeftCell="A248" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E259" sqref="E259"/>
+    <sheetView topLeftCell="A185" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A208" sqref="A208:XFD208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8690,10 +8709,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:E146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="E140" sqref="E140"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8701,7 +8720,7 @@
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" customWidth="1"/>
     <col min="3" max="3" width="54.85546875" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8734,7 +8753,7 @@
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="42" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -8749,7 +8768,7 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -8764,7 +8783,7 @@
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -8777,9 +8796,11 @@
       <c r="C5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="36">
+        <v>1</v>
+      </c>
       <c r="E5" s="22" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -8794,7 +8815,7 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="2" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -8809,7 +8830,7 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="2" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8824,7 +8845,7 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -8839,7 +8860,7 @@
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -8854,7 +8875,7 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="2" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -8884,7 +8905,7 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -8899,7 +8920,7 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -8914,7 +8935,7 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="14" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -8929,7 +8950,7 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -8944,7 +8965,7 @@
       </c>
       <c r="D16" s="41"/>
       <c r="E16" s="42" t="s">
-        <v>615</v>
+        <v>698</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -8989,7 +9010,7 @@
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="14" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -9004,7 +9025,7 @@
       </c>
       <c r="D20" s="41"/>
       <c r="E20" s="42" t="s">
-        <v>617</v>
+        <v>700</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -9034,7 +9055,7 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="2" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -9064,7 +9085,7 @@
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="14" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -9079,7 +9100,7 @@
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="11" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -9109,7 +9130,7 @@
       </c>
       <c r="D27" s="38"/>
       <c r="E27" s="39" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -9124,7 +9145,7 @@
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="2" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -9135,11 +9156,11 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>708</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="2" t="s">
-        <v>622</v>
+        <v>709</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -9150,41 +9171,41 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="2" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="40">
-        <v>1</v>
-      </c>
-      <c r="B31" s="40">
-        <v>1</v>
-      </c>
-      <c r="C31" s="40" t="s">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="40">
+        <v>1</v>
+      </c>
+      <c r="B32" s="40">
+        <v>1</v>
+      </c>
+      <c r="C32" s="40" t="s">
         <v>533</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="42" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="2" t="s">
-        <v>624</v>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -9195,11 +9216,11 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="2" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -9210,11 +9231,11 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="2" t="s">
-        <v>696</v>
+        <v>619</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -9225,11 +9246,11 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="2" t="s">
-        <v>626</v>
+        <v>688</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -9240,161 +9261,161 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="2" t="s">
-        <v>695</v>
+        <v>620</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="45">
-        <v>1</v>
-      </c>
-      <c r="B37" s="45">
-        <v>1</v>
-      </c>
-      <c r="C37" s="45" t="s">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="45">
+        <v>1</v>
+      </c>
+      <c r="B38" s="45">
+        <v>1</v>
+      </c>
+      <c r="C38" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="46"/>
-      <c r="E37" s="47" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="12">
-        <v>1</v>
-      </c>
-      <c r="B38" s="12">
+      <c r="D38" s="46"/>
+      <c r="E38" s="47" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <v>1</v>
+      </c>
+      <c r="B39" s="12">
         <v>2</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C39" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="14" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" s="13"/>
+      <c r="E39" s="14" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="2" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="45">
-        <v>1</v>
-      </c>
-      <c r="B40" s="45">
-        <v>1</v>
-      </c>
-      <c r="C40" s="45" t="s">
+      <c r="D40" s="1"/>
+      <c r="E40" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="45">
+        <v>1</v>
+      </c>
+      <c r="B41" s="45">
+        <v>1</v>
+      </c>
+      <c r="C41" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="46"/>
-      <c r="E40" s="47" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
-        <v>1</v>
-      </c>
-      <c r="B41" s="9">
+      <c r="D41" s="46"/>
+      <c r="E41" s="47" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>1</v>
+      </c>
+      <c r="B42" s="9">
         <v>2</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C42" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="11" t="s">
+      <c r="D42" s="10"/>
+      <c r="E42" s="11" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="40">
-        <v>1</v>
-      </c>
-      <c r="B43" s="40">
-        <v>1</v>
-      </c>
-      <c r="C43" s="40" t="s">
+      <c r="D43" s="1"/>
+      <c r="E43" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="40">
+        <v>1</v>
+      </c>
+      <c r="B44" s="40">
+        <v>1</v>
+      </c>
+      <c r="C44" s="40" t="s">
         <v>530</v>
       </c>
-      <c r="D43" s="41"/>
-      <c r="E43" s="42" t="s">
+      <c r="D44" s="41"/>
+      <c r="E44" s="42" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
         <v>2</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="2" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="12">
-        <v>1</v>
-      </c>
-      <c r="B45" s="12">
-        <v>1</v>
-      </c>
-      <c r="C45" s="12" t="s">
+      <c r="D45" s="1"/>
+      <c r="E45" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="12">
+        <v>1</v>
+      </c>
+      <c r="B46" s="12">
+        <v>1</v>
+      </c>
+      <c r="C46" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="14" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="2" t="s">
-        <v>581</v>
+      <c r="D46" s="13"/>
+      <c r="E46" s="14" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -9405,11 +9426,11 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="2" t="s">
-        <v>582</v>
+        <v>701</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -9420,11 +9441,11 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="2" t="s">
-        <v>632</v>
+        <v>581</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -9435,11 +9456,11 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="2" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -9450,11 +9471,11 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="2" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -9465,41 +9486,41 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="12">
+        <v>1</v>
+      </c>
+      <c r="B53" s="12">
+        <v>1</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" s="13"/>
+      <c r="E53" s="14" t="s">
         <v>583</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="12">
-        <v>1</v>
-      </c>
-      <c r="B52" s="12">
-        <v>1</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D52" s="13"/>
-      <c r="E52" s="14" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>1</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>85</v>
-      </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="2" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -9510,11 +9531,11 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="2" t="s">
-        <v>700</v>
+        <v>629</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -9525,11 +9546,11 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="2" t="s">
-        <v>636</v>
+        <v>692</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -9537,44 +9558,44 @@
         <v>1</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" t="s">
         <v>86</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="2" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="40">
-        <v>1</v>
-      </c>
-      <c r="B57" s="40">
-        <v>1</v>
-      </c>
-      <c r="C57" s="40" t="s">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="40">
+        <v>1</v>
+      </c>
+      <c r="B58" s="40">
+        <v>1</v>
+      </c>
+      <c r="C58" s="40" t="s">
         <v>528</v>
       </c>
-      <c r="D57" s="41"/>
-      <c r="E57" s="42" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>1</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58" t="s">
-        <v>89</v>
-      </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="2" t="s">
-        <v>639</v>
+      <c r="D58" s="41"/>
+      <c r="E58" s="42" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -9585,41 +9606,41 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="2" t="s">
-        <v>640</v>
+        <v>702</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="12">
-        <v>1</v>
-      </c>
-      <c r="B60" s="12">
-        <v>1</v>
-      </c>
-      <c r="C60" s="12" t="s">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="12">
+        <v>1</v>
+      </c>
+      <c r="B61" s="12">
+        <v>1</v>
+      </c>
+      <c r="C61" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D60" s="13"/>
-      <c r="E60" s="14" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>1</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61" t="s">
-        <v>93</v>
-      </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="2" t="s">
-        <v>642</v>
+      <c r="D61" s="13"/>
+      <c r="E61" s="14" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -9627,14 +9648,14 @@
         <v>1</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="2" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -9642,14 +9663,14 @@
         <v>1</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="2" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -9660,11 +9681,11 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="2" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -9675,11 +9696,11 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="2" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -9690,11 +9711,11 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="2" t="s">
-        <v>585</v>
+        <v>639</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -9705,41 +9726,41 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="2" t="s">
-        <v>647</v>
+        <v>584</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="12">
-        <v>1</v>
-      </c>
-      <c r="B68" s="12">
-        <v>1</v>
-      </c>
-      <c r="C68" s="12" t="s">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>102</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="12">
+        <v>1</v>
+      </c>
+      <c r="B69" s="12">
+        <v>1</v>
+      </c>
+      <c r="C69" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D68" s="13"/>
-      <c r="E68" s="14" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>1</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69" t="s">
-        <v>104</v>
-      </c>
-      <c r="D69" s="4"/>
-      <c r="E69" s="2" t="s">
-        <v>586</v>
+      <c r="D69" s="13"/>
+      <c r="E69" s="14" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -9750,11 +9771,11 @@
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>105</v>
-      </c>
-      <c r="D70" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="D70" s="4"/>
       <c r="E70" s="2" t="s">
-        <v>649</v>
+        <v>585</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -9765,11 +9786,11 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="2" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -9780,11 +9801,11 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="2" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -9795,70 +9816,70 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="2" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="40">
-        <v>1</v>
-      </c>
-      <c r="B74" s="40">
-        <v>1</v>
-      </c>
-      <c r="C74" s="40" t="s">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>112</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="40">
+        <v>1</v>
+      </c>
+      <c r="B75" s="40">
+        <v>1</v>
+      </c>
+      <c r="C75" s="40" t="s">
         <v>540</v>
       </c>
-      <c r="D74" s="41"/>
-      <c r="E74" s="42" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="12">
-        <v>1</v>
-      </c>
-      <c r="B75" s="12">
+      <c r="D75" s="41"/>
+      <c r="E75" s="42" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="12">
+        <v>1</v>
+      </c>
+      <c r="B76" s="12">
         <v>2</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C76" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D75" s="13"/>
-      <c r="E75" s="14" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>1</v>
-      </c>
-      <c r="B76">
-        <v>3</v>
-      </c>
-      <c r="C76" t="s">
-        <v>396</v>
-      </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="2"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="14" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>116</v>
+        <v>396</v>
       </c>
       <c r="D77" s="1"/>
-      <c r="E77" s="2" t="s">
-        <v>654</v>
-      </c>
+      <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
@@ -9868,11 +9889,11 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="2" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -9883,39 +9904,39 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
+        <v>118</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
         <v>119</v>
       </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="40">
-        <v>1</v>
-      </c>
-      <c r="B80" s="40">
-        <v>1</v>
-      </c>
-      <c r="C80" s="40" t="s">
+      <c r="D80" s="1"/>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="40">
+        <v>1</v>
+      </c>
+      <c r="B81" s="40">
+        <v>1</v>
+      </c>
+      <c r="C81" s="40" t="s">
         <v>542</v>
       </c>
-      <c r="D80" s="41"/>
-      <c r="E80" s="42" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>1</v>
-      </c>
-      <c r="B81">
-        <v>3</v>
-      </c>
-      <c r="C81" t="s">
-        <v>120</v>
-      </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="2" t="s">
-        <v>657</v>
+      <c r="D81" s="41"/>
+      <c r="E81" s="42" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -9923,14 +9944,14 @@
         <v>1</v>
       </c>
       <c r="B82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C82" t="s">
         <v>120</v>
       </c>
-      <c r="D82" s="4"/>
+      <c r="D82" s="1"/>
       <c r="E82" s="2" t="s">
-        <v>587</v>
+        <v>650</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -9938,14 +9959,14 @@
         <v>1</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C83" t="s">
-        <v>122</v>
-      </c>
-      <c r="D83" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="D83" s="4"/>
       <c r="E83" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -9956,11 +9977,11 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="2" t="s">
-        <v>658</v>
+        <v>587</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -9971,26 +9992,26 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="2" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="12">
-        <v>1</v>
-      </c>
-      <c r="B86" s="12">
-        <v>1</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D86" s="13"/>
-      <c r="E86" s="14" t="s">
-        <v>660</v>
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>124</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="2" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -10001,56 +10022,56 @@
         <v>1</v>
       </c>
       <c r="C87" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D87" s="13"/>
+      <c r="E87" s="14" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="12">
+        <v>1</v>
+      </c>
+      <c r="B88" s="12">
+        <v>1</v>
+      </c>
+      <c r="C88" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D87" s="15"/>
-      <c r="E87" s="17" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>1</v>
-      </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="D88" s="15"/>
+      <c r="E88" s="17" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
         <v>131</v>
       </c>
-      <c r="D88" s="1"/>
-      <c r="E88" s="2" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="40">
-        <v>1</v>
-      </c>
-      <c r="B89" s="40">
-        <v>1</v>
-      </c>
-      <c r="C89" s="40" t="s">
+      <c r="D89" s="1"/>
+      <c r="E89" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="40">
+        <v>1</v>
+      </c>
+      <c r="B90" s="40">
+        <v>1</v>
+      </c>
+      <c r="C90" s="40" t="s">
         <v>536</v>
       </c>
-      <c r="D89" s="41"/>
-      <c r="E89" s="42" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>1</v>
-      </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-      <c r="C90" t="s">
-        <v>137</v>
-      </c>
-      <c r="D90" s="1"/>
-      <c r="E90" s="2" t="s">
-        <v>662</v>
+      <c r="D90" s="41"/>
+      <c r="E90" s="42" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -10065,7 +10086,7 @@
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="2" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -10076,11 +10097,11 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="2" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -10091,26 +10112,26 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="2" t="s">
-        <v>692</v>
+        <v>657</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="12">
-        <v>1</v>
-      </c>
-      <c r="B94" s="12">
-        <v>1</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="D94" s="13"/>
-      <c r="E94" s="14" t="s">
-        <v>665</v>
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>145</v>
+      </c>
+      <c r="D94" s="1"/>
+      <c r="E94" s="2" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -10121,26 +10142,26 @@
         <v>1</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D95" s="13"/>
       <c r="E95" s="14" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>1</v>
-      </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-      <c r="C96" t="s">
-        <v>149</v>
-      </c>
-      <c r="D96" s="1"/>
-      <c r="E96" s="2" t="s">
-        <v>667</v>
+      <c r="A96" s="12">
+        <v>1</v>
+      </c>
+      <c r="B96" s="12">
+        <v>1</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D96" s="13"/>
+      <c r="E96" s="14" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -10151,11 +10172,11 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="2" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -10166,41 +10187,41 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="2" t="s">
-        <v>590</v>
+        <v>661</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="40">
-        <v>1</v>
-      </c>
-      <c r="B99" s="40">
-        <v>1</v>
-      </c>
-      <c r="C99" s="40" t="s">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>154</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="E99" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="40">
+        <v>1</v>
+      </c>
+      <c r="B100" s="40">
+        <v>1</v>
+      </c>
+      <c r="C100" s="40" t="s">
         <v>538</v>
       </c>
-      <c r="D99" s="41"/>
-      <c r="E99" s="42" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>1</v>
-      </c>
-      <c r="B100">
-        <v>1</v>
-      </c>
-      <c r="C100" t="s">
-        <v>157</v>
-      </c>
-      <c r="D100" s="1"/>
-      <c r="E100" s="2" t="s">
-        <v>669</v>
+      <c r="D100" s="41"/>
+      <c r="E100" s="42" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -10211,11 +10232,11 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>158</v>
-      </c>
-      <c r="D101" s="4"/>
+        <v>157</v>
+      </c>
+      <c r="D101" s="1"/>
       <c r="E101" s="2" t="s">
-        <v>591</v>
+        <v>662</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -10226,41 +10247,41 @@
         <v>1</v>
       </c>
       <c r="C102" t="s">
+        <v>158</v>
+      </c>
+      <c r="D102" s="4"/>
+      <c r="E102" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
         <v>159</v>
       </c>
-      <c r="D102" s="1"/>
-      <c r="E102" s="2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="12">
-        <v>1</v>
-      </c>
-      <c r="B103" s="12">
-        <v>1</v>
-      </c>
-      <c r="C103" s="12" t="s">
+      <c r="D103" s="1"/>
+      <c r="E103" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="12">
+        <v>1</v>
+      </c>
+      <c r="B104" s="12">
+        <v>1</v>
+      </c>
+      <c r="C104" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="D103" s="13"/>
-      <c r="E103" s="14" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>1</v>
-      </c>
-      <c r="B104">
-        <v>1</v>
-      </c>
-      <c r="C104" t="s">
-        <v>162</v>
-      </c>
-      <c r="D104" s="1"/>
-      <c r="E104" s="2" t="s">
-        <v>670</v>
+      <c r="D104" s="13"/>
+      <c r="E104" s="14" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -10271,41 +10292,41 @@
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="2" t="s">
-        <v>689</v>
+        <v>663</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="12">
-        <v>1</v>
-      </c>
-      <c r="B106" s="12">
-        <v>1</v>
-      </c>
-      <c r="C106" s="12" t="s">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>165</v>
+      </c>
+      <c r="D106" s="1"/>
+      <c r="E106" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="12">
+        <v>1</v>
+      </c>
+      <c r="B107" s="12">
+        <v>1</v>
+      </c>
+      <c r="C107" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="D106" s="13"/>
-      <c r="E106" s="14" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>1</v>
-      </c>
-      <c r="B107">
-        <v>1</v>
-      </c>
-      <c r="C107" t="s">
-        <v>169</v>
-      </c>
-      <c r="D107" s="1"/>
-      <c r="E107" s="2" t="s">
-        <v>671</v>
+      <c r="D107" s="13"/>
+      <c r="E107" s="14" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -10316,11 +10337,11 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="2" t="s">
-        <v>503</v>
+        <v>664</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -10331,40 +10352,40 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="2" t="s">
-        <v>592</v>
+        <v>503</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="40">
-        <v>1</v>
-      </c>
-      <c r="B110" s="40">
-        <v>1</v>
-      </c>
-      <c r="C110" s="40" t="s">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>174</v>
+      </c>
+      <c r="D110" s="1"/>
+      <c r="E110" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="40">
+        <v>1</v>
+      </c>
+      <c r="B111" s="40">
+        <v>1</v>
+      </c>
+      <c r="C111" s="40" t="s">
         <v>541</v>
       </c>
-      <c r="D110" s="44"/>
-      <c r="E110" s="42" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>1</v>
-      </c>
-      <c r="B111">
-        <v>2</v>
-      </c>
-      <c r="C111" t="s">
-        <v>176</v>
-      </c>
-      <c r="D111" s="4"/>
-      <c r="E111" s="14" t="s">
+      <c r="D111" s="44"/>
+      <c r="E111" s="42" t="s">
         <v>481</v>
       </c>
     </row>
@@ -10373,14 +10394,14 @@
         <v>1</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>177</v>
-      </c>
-      <c r="D112" s="1"/>
-      <c r="E112" s="2" t="s">
-        <v>687</v>
+        <v>176</v>
+      </c>
+      <c r="D112" s="4"/>
+      <c r="E112" s="14" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -10391,11 +10412,11 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="2" t="s">
-        <v>593</v>
+        <v>680</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -10406,157 +10427,157 @@
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="2" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="40">
-        <v>1</v>
-      </c>
-      <c r="B115" s="40">
-        <v>1</v>
-      </c>
-      <c r="C115" s="40" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>181</v>
+      </c>
+      <c r="D115" s="1"/>
+      <c r="E115" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="12">
+        <v>1</v>
+      </c>
+      <c r="B116" s="12">
+        <v>1</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D116" s="13"/>
+      <c r="E116" s="14" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="40">
+        <v>1</v>
+      </c>
+      <c r="B117" s="40">
+        <v>1</v>
+      </c>
+      <c r="C117" s="40" t="s">
         <v>531</v>
       </c>
-      <c r="D115" s="41"/>
-      <c r="E115" s="43" t="s">
+      <c r="D117" s="41"/>
+      <c r="E117" s="43" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>1</v>
-      </c>
-      <c r="B116">
-        <v>1</v>
-      </c>
-      <c r="C116" t="s">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
         <v>185</v>
       </c>
-      <c r="D116" s="1"/>
-      <c r="E116" s="2" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="40">
-        <v>1</v>
-      </c>
-      <c r="B117" s="40">
-        <v>1</v>
-      </c>
-      <c r="C117" s="40" t="s">
+      <c r="D118" s="1"/>
+      <c r="E118" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="40">
+        <v>1</v>
+      </c>
+      <c r="B119" s="40">
+        <v>1</v>
+      </c>
+      <c r="C119" s="40" t="s">
         <v>525</v>
       </c>
-      <c r="D117" s="41"/>
-      <c r="E117" s="42" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="12">
-        <v>1</v>
-      </c>
-      <c r="B118" s="12">
-        <v>1</v>
-      </c>
-      <c r="C118" s="12" t="s">
+      <c r="D119" s="41"/>
+      <c r="E119" s="42" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="12">
+        <v>1</v>
+      </c>
+      <c r="B120" s="12">
+        <v>1</v>
+      </c>
+      <c r="C120" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="D118" s="13"/>
-      <c r="E118" s="14" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>1</v>
-      </c>
-      <c r="B119">
-        <v>1</v>
-      </c>
-      <c r="C119" s="24" t="s">
+      <c r="D120" s="13"/>
+      <c r="E120" s="14" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="D119" s="26"/>
-      <c r="E119" s="25" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>1</v>
-      </c>
-      <c r="B120">
-        <v>1</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="D121" s="26"/>
+      <c r="E121" s="25" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
         <v>415</v>
       </c>
-      <c r="D120" s="1"/>
-      <c r="E120" s="2" t="s">
+      <c r="D122" s="1"/>
+      <c r="E122" s="2" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="40">
-        <v>1</v>
-      </c>
-      <c r="B121" s="40"/>
-      <c r="C121" s="40" t="s">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="40">
+        <v>1</v>
+      </c>
+      <c r="B123" s="40"/>
+      <c r="C123" s="40" t="s">
         <v>526</v>
       </c>
-      <c r="D121" s="41"/>
-      <c r="E121" s="42" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="12">
-        <v>1</v>
-      </c>
-      <c r="B122" s="12"/>
-      <c r="C122" s="12" t="s">
+      <c r="D123" s="41"/>
+      <c r="E123" s="42" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="12">
+        <v>1</v>
+      </c>
+      <c r="B124" s="12"/>
+      <c r="C124" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="D122" s="13"/>
-      <c r="E122" s="14" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>1</v>
-      </c>
-      <c r="B123">
-        <v>1</v>
-      </c>
-      <c r="C123" t="s">
-        <v>423</v>
-      </c>
-      <c r="D123" s="1"/>
-      <c r="E123" s="2" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>1</v>
-      </c>
-      <c r="B124">
-        <v>1</v>
-      </c>
-      <c r="C124" t="s">
-        <v>424</v>
-      </c>
-      <c r="D124" s="1"/>
-      <c r="E124" s="2" t="s">
-        <v>677</v>
+      <c r="D124" s="13"/>
+      <c r="E124" s="14" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -10567,11 +10588,11 @@
         <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="2" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -10582,130 +10603,136 @@
         <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="2" t="s">
-        <v>595</v>
+        <v>670</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1</v>
       </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
       <c r="C127" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="2" t="s">
-        <v>548</v>
+        <v>671</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
       <c r="C128" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="2" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1</v>
       </c>
-      <c r="B129">
-        <v>1</v>
-      </c>
       <c r="C129" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="2" t="s">
-        <v>596</v>
+        <v>703</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="12">
-        <v>1</v>
-      </c>
-      <c r="B130" s="12"/>
-      <c r="C130" s="12" t="s">
-        <v>437</v>
-      </c>
-      <c r="D130" s="13"/>
-      <c r="E130" s="14" t="s">
-        <v>679</v>
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="C130" t="s">
+        <v>434</v>
+      </c>
+      <c r="D130" s="1"/>
+      <c r="E130" s="2" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="12">
-        <v>1</v>
-      </c>
-      <c r="B131" s="12">
-        <v>1</v>
-      </c>
-      <c r="C131" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="D131" s="13"/>
-      <c r="E131" s="14" t="s">
-        <v>680</v>
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131" t="s">
+        <v>435</v>
+      </c>
+      <c r="D131" s="1"/>
+      <c r="E131" s="2" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="12">
         <v>1</v>
       </c>
-      <c r="B132" s="12">
-        <v>1</v>
-      </c>
+      <c r="B132" s="12"/>
       <c r="C132" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D132" s="13"/>
       <c r="E132" s="14" t="s">
-        <v>493</v>
+        <v>672</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="12">
         <v>1</v>
       </c>
-      <c r="B133" s="12"/>
+      <c r="B133" s="12">
+        <v>1</v>
+      </c>
       <c r="C133" s="12" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="D133" s="13"/>
       <c r="E133" s="14" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>1</v>
-      </c>
-      <c r="C134" t="s">
-        <v>440</v>
-      </c>
-      <c r="D134" s="1"/>
-      <c r="E134" s="2" t="s">
-        <v>598</v>
+      <c r="A134" s="12">
+        <v>1</v>
+      </c>
+      <c r="B134" s="12">
+        <v>1</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="D134" s="13"/>
+      <c r="E134" s="14" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>1</v>
-      </c>
-      <c r="C135" t="s">
-        <v>462</v>
-      </c>
-      <c r="D135" s="1"/>
-      <c r="E135" s="2" t="s">
-        <v>682</v>
+      <c r="A135" s="12">
+        <v>1</v>
+      </c>
+      <c r="B135" s="12"/>
+      <c r="C135" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="D135" s="13"/>
+      <c r="E135" s="14" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -10713,11 +10740,11 @@
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>516</v>
+        <v>440</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="2" t="s">
-        <v>703</v>
+        <v>596</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -10725,11 +10752,11 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>500</v>
+        <v>462</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="2" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -10737,63 +10764,59 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="2" t="s">
-        <v>293</v>
+        <v>695</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1</v>
       </c>
-      <c r="C139" s="27" t="s">
-        <v>499</v>
+      <c r="C139" t="s">
+        <v>500</v>
       </c>
       <c r="D139" s="1"/>
-      <c r="E139" s="28" t="s">
-        <v>599</v>
+      <c r="E139" s="2" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1</v>
       </c>
-      <c r="C140" s="27" t="s">
-        <v>572</v>
+      <c r="C140" t="s">
+        <v>497</v>
       </c>
       <c r="D140" s="1"/>
-      <c r="E140" s="28" t="s">
+      <c r="E140" s="2" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="12">
-        <v>1</v>
-      </c>
-      <c r="B141" s="12"/>
-      <c r="C141" s="50" t="s">
-        <v>522</v>
-      </c>
-      <c r="D141" s="13"/>
-      <c r="E141" s="51" t="s">
-        <v>600</v>
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="C141" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="D141" s="1"/>
+      <c r="E141" s="28" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1</v>
       </c>
-      <c r="B142">
-        <v>1</v>
-      </c>
       <c r="C142" s="27" t="s">
-        <v>515</v>
+        <v>572</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="28" t="s">
-        <v>601</v>
+        <v>691</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -10802,11 +10825,50 @@
       </c>
       <c r="B143" s="12"/>
       <c r="C143" s="50" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D143" s="13"/>
       <c r="E143" s="51" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>1</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144" s="27" t="s">
+        <v>515</v>
+      </c>
+      <c r="D144" s="1"/>
+      <c r="E144" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="12">
+        <v>1</v>
+      </c>
+      <c r="B145" s="12"/>
+      <c r="C145" s="50" t="s">
+        <v>523</v>
+      </c>
+      <c r="D145" s="13"/>
+      <c r="E145" s="51" t="s">
         <v>575</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="12">
+        <v>1</v>
+      </c>
+      <c r="C146" s="50" t="s">
+        <v>705</v>
+      </c>
+      <c r="E146" s="52" t="s">
+        <v>706</v>
       </c>
     </row>
   </sheetData>

--- a/Internet_tt_V2.0.xlsx
+++ b/Internet_tt_V2.0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="711">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -2083,9 +2083,6 @@
     <t>380519948398;75</t>
   </si>
   <si>
-    <t>380204451801;150 no</t>
-  </si>
-  <si>
     <t>380519948883;75 off</t>
   </si>
   <si>
@@ -2128,9 +2125,6 @@
     <t>380519946252;75</t>
   </si>
   <si>
-    <t xml:space="preserve">380519942585;75 </t>
-  </si>
-  <si>
     <t>380984291290;125</t>
   </si>
   <si>
@@ -2140,9 +2134,6 @@
     <t>Бестлайн Номер абонента: 30913 Тариф: 190грн</t>
   </si>
   <si>
-    <t>380519940945;75</t>
-  </si>
-  <si>
     <t xml:space="preserve">375 ТТ </t>
   </si>
   <si>
@@ -2156,6 +2147,20 @@
   </si>
   <si>
     <t>380984206369;125 Перевірити</t>
+  </si>
+  <si>
+    <t>380519942585;75 вручну</t>
+  </si>
+  <si>
+    <t>'380204451801;150 no</t>
+  </si>
+  <si>
+    <t>380204432509;75</t>
+  </si>
+  <si>
+    <t>Opticom.ua
+логін - nasharyaba
+password - 0636128578</t>
   </si>
 </sst>
 </file>
@@ -2263,7 +2268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2325,6 +2330,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -8709,10 +8717,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E146"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="I113" sqref="I113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8722,6 +8730,7 @@
     <col min="3" max="3" width="54.85546875" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -8965,7 +8974,7 @@
       </c>
       <c r="D16" s="41"/>
       <c r="E16" s="42" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -9025,7 +9034,7 @@
       </c>
       <c r="D20" s="41"/>
       <c r="E20" s="42" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -9055,7 +9064,7 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -9156,11 +9165,11 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="2" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -9190,7 +9199,7 @@
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -9205,10 +9214,10 @@
       </c>
       <c r="D32" s="41"/>
       <c r="E32" s="42" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -9223,7 +9232,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -9238,7 +9247,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -9250,10 +9259,10 @@
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -9268,7 +9277,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -9280,10 +9289,10 @@
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="45">
         <v>1</v>
       </c>
@@ -9295,10 +9304,10 @@
       </c>
       <c r="D38" s="46"/>
       <c r="E38" s="47" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>1</v>
       </c>
@@ -9313,7 +9322,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -9328,22 +9337,25 @@
         <v>622</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="45">
-        <v>1</v>
-      </c>
-      <c r="B41" s="45">
-        <v>1</v>
-      </c>
-      <c r="C41" s="45" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="53">
+        <v>1</v>
+      </c>
+      <c r="B41" s="53">
+        <v>1</v>
+      </c>
+      <c r="C41" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="46"/>
-      <c r="E41" s="47" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D41" s="54"/>
+      <c r="E41" s="55" t="s">
+        <v>709</v>
+      </c>
+      <c r="F41" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>1</v>
       </c>
@@ -9358,7 +9370,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -9373,7 +9385,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>1</v>
       </c>
@@ -9388,7 +9400,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -9403,7 +9415,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>1</v>
       </c>
@@ -9418,7 +9430,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -9430,10 +9442,10 @@
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="2" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -9550,7 +9562,7 @@
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -9610,7 +9622,7 @@
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -9865,7 +9877,7 @@
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="14" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -10266,7 +10278,7 @@
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -10311,7 +10323,7 @@
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -10449,7 +10461,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="116" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A116" s="12">
         <v>1</v>
       </c>
@@ -10460,8 +10472,8 @@
         <v>183</v>
       </c>
       <c r="D116" s="13"/>
-      <c r="E116" s="14" t="s">
-        <v>704</v>
+      <c r="E116" s="16" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10649,7 +10661,7 @@
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -10768,7 +10780,7 @@
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -10792,7 +10804,7 @@
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -10804,7 +10816,7 @@
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="28" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -10816,7 +10828,7 @@
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="28" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -10865,13 +10877,14 @@
         <v>1</v>
       </c>
       <c r="C146" s="50" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E146" s="52" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>